--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -996,7 +996,7 @@
         <v>13.06</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.07</v>
+        <v>-22.81</v>
       </c>
     </row>
     <row r="36">
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>7.9</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="46">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4.97</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="47">
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="58">
@@ -1444,7 +1444,7 @@
         <v>17.41</v>
       </c>
       <c r="D63" t="n">
-        <v>6.069999999999999</v>
+        <v>-12.68</v>
       </c>
     </row>
     <row r="64">
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="83">
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="107">
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>-15.08</v>
+        <v>-12.56</v>
       </c>
     </row>
     <row r="108">
@@ -2164,7 +2164,7 @@
         <v>-19.79</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>32.18</v>
       </c>
     </row>
     <row r="109">
@@ -2324,7 +2324,7 @@
         <v>10.37</v>
       </c>
       <c r="D118" t="n">
-        <v>3.34</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="119">
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-9.279999999999999</v>
       </c>
     </row>
     <row r="122">
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-9.279999999999999</v>
       </c>
     </row>
     <row r="123">
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>-15.43</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="126">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>-10.84</v>
       </c>
     </row>
     <row r="135">
@@ -2804,7 +2804,7 @@
         <v>38.24</v>
       </c>
       <c r="D148" t="n">
-        <v>4.6</v>
+        <v>-6.140000000000001</v>
       </c>
     </row>
     <row r="149">
@@ -2884,7 +2884,7 @@
         <v>4.31</v>
       </c>
       <c r="D153" t="n">
-        <v>5.57</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="154">
@@ -2964,7 +2964,7 @@
         <v>-4.62</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="159">
@@ -3012,7 +3012,7 @@
         <v>-3.44</v>
       </c>
       <c r="D161" t="n">
-        <v>-7.670000000000001</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="162">
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>-26.65</v>
       </c>
     </row>
     <row r="166">
@@ -3092,7 +3092,7 @@
         <v>-2.16</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="167">
@@ -3108,7 +3108,7 @@
         <v>-4.850000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="168">
@@ -3156,7 +3156,7 @@
         <v>0.53</v>
       </c>
       <c r="D170" t="n">
-        <v>1.22</v>
+        <v>4.100000000000001</v>
       </c>
     </row>
     <row r="171">
@@ -3236,7 +3236,7 @@
         <v>-3.85</v>
       </c>
       <c r="D175" t="n">
-        <v>-9.950000000000001</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="176">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="179">
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="180">
@@ -3828,7 +3828,7 @@
         <v>-9.65</v>
       </c>
       <c r="D212" t="n">
-        <v>20.84</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="213">
@@ -3860,7 +3860,7 @@
         <v>-4.89</v>
       </c>
       <c r="D214" t="n">
-        <v>16.71</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="215">
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>-14.6</v>
       </c>
     </row>
     <row r="239">
@@ -4276,7 +4276,7 @@
         <v>-17.29</v>
       </c>
       <c r="D240" t="n">
-        <v>-1.1</v>
+        <v>-14.08</v>
       </c>
     </row>
     <row r="241">
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>-11.89</v>
       </c>
     </row>
     <row r="244">
@@ -4388,7 +4388,7 @@
         <v>-21.34</v>
       </c>
       <c r="D247" t="n">
-        <v>-10.85</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="248">
@@ -4516,7 +4516,7 @@
         <v>-1.03</v>
       </c>
       <c r="D255" t="n">
-        <v>-17.55</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="256">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="290">
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="301">
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>14.58</v>
       </c>
       <c r="D320" t="n">
-        <v>4.47</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="321">
@@ -6116,7 +6116,7 @@
         <v>-1.36</v>
       </c>
       <c r="D355" t="n">
-        <v>-3.86</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="356">
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="357">
@@ -6244,7 +6244,7 @@
         <v>-1.52</v>
       </c>
       <c r="D363" t="n">
-        <v>2.05</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="364">
@@ -6260,7 +6260,7 @@
         <v>-6.47</v>
       </c>
       <c r="D364" t="n">
-        <v>-2.76</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="365">
@@ -6756,7 +6756,7 @@
         <v>-15.67</v>
       </c>
       <c r="D395" t="n">
-        <v>3.3</v>
+        <v>32.81</v>
       </c>
     </row>
     <row r="396">
@@ -6836,7 +6836,7 @@
         <v>-3.39</v>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="401">
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="D420" t="n">
-        <v>21.43</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="421">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>-20.36</v>
       </c>
     </row>
     <row r="422">
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>-18.96</v>
       </c>
     </row>
     <row r="455">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="D455" t="n">
-        <v>0</v>
+        <v>-18.96</v>
       </c>
     </row>
     <row r="456">
@@ -7732,7 +7732,7 @@
         <v>-7.21</v>
       </c>
       <c r="D456" t="n">
-        <v>-3.13</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="457">
@@ -7748,7 +7748,7 @@
         <v>-4.3</v>
       </c>
       <c r="D457" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="458">
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="D458" t="n">
-        <v>15.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -7908,7 +7908,7 @@
         <v>-3.92</v>
       </c>
       <c r="D467" t="n">
-        <v>-2.72</v>
+        <v>-14.97</v>
       </c>
     </row>
     <row r="468">
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="479">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="480">
@@ -8196,7 +8196,7 @@
         <v>-1.38</v>
       </c>
       <c r="D485" t="n">
-        <v>-3.49</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="486">
@@ -8292,7 +8292,7 @@
         <v>-4.58</v>
       </c>
       <c r="D491" t="n">
-        <v>-5.99</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="492">
@@ -8308,7 +8308,7 @@
         <v>-1.18</v>
       </c>
       <c r="D492" t="n">
-        <v>-5.99</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="493">
@@ -8356,7 +8356,7 @@
         <v>-4.24</v>
       </c>
       <c r="D495" t="n">
-        <v>-13.27</v>
+        <v>-12.39</v>
       </c>
     </row>
     <row r="496">
@@ -8420,7 +8420,7 @@
         <v>31.85</v>
       </c>
       <c r="D499" t="n">
-        <v>3.64</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="500">
@@ -8468,7 +8468,7 @@
         <v>8.81</v>
       </c>
       <c r="D502" t="n">
-        <v>10.95</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="503">
@@ -8820,7 +8820,7 @@
         <v>11.65</v>
       </c>
       <c r="D524" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="525">
@@ -8884,7 +8884,7 @@
         <v>12.45</v>
       </c>
       <c r="D528" t="n">
-        <v>8.649999999999999</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="529">
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="D530" t="n">
-        <v>9.619999999999999</v>
+        <v>8.649999999999999</v>
       </c>
     </row>
     <row r="531">
@@ -8948,7 +8948,7 @@
         <v>-22.85</v>
       </c>
       <c r="D532" t="n">
-        <v>-11.82</v>
+        <v>14.03</v>
       </c>
     </row>
     <row r="533">
@@ -9060,7 +9060,7 @@
         <v>3.11</v>
       </c>
       <c r="D539" t="n">
-        <v>7.61</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="540">
@@ -9140,7 +9140,7 @@
         <v>2.26</v>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="545">
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="D559" t="n">
-        <v>0</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="560">
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="D562" t="n">
-        <v>0</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="563">
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="D578" t="n">
-        <v>0</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="579">
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="589">
@@ -10020,7 +10020,7 @@
         <v>-1.12</v>
       </c>
       <c r="D599" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>-5.53</v>
       </c>
     </row>
     <row r="601">
@@ -10084,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>-5.53</v>
       </c>
     </row>
     <row r="604">
@@ -10116,7 +10116,7 @@
         <v>21.72</v>
       </c>
       <c r="D605" t="n">
-        <v>-17.84</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="606">
@@ -10132,7 +10132,7 @@
         <v>-1.12</v>
       </c>
       <c r="D606" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -10148,7 +10148,7 @@
         <v>-5.26</v>
       </c>
       <c r="D607" t="n">
-        <v>-26.67</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="608">
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="D609" t="n">
-        <v>0</v>
+        <v>-18.16</v>
       </c>
     </row>
     <row r="610">
@@ -10212,7 +10212,7 @@
         <v>-4</v>
       </c>
       <c r="D611" t="n">
-        <v>5.45</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="612">
@@ -10228,7 +10228,7 @@
         <v>-4</v>
       </c>
       <c r="D612" t="n">
-        <v>5.45</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="613">
@@ -10276,7 +10276,7 @@
         <v>-15.68</v>
       </c>
       <c r="D615" t="n">
-        <v>-7.049999999999999</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="616">
@@ -10308,7 +10308,7 @@
         <v>-1.12</v>
       </c>
       <c r="D617" t="n">
-        <v>-25</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="618">
@@ -10324,7 +10324,7 @@
         <v>-5.71</v>
       </c>
       <c r="D618" t="n">
-        <v>-25</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="619">
@@ -10340,7 +10340,7 @@
         <v>13.79</v>
       </c>
       <c r="D619" t="n">
-        <v>-25</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="620">
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="D622" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="623">
@@ -10404,7 +10404,7 @@
         <v>-6.68</v>
       </c>
       <c r="D623" t="n">
-        <v>-17.91</v>
+        <v>-13.77</v>
       </c>
     </row>
     <row r="624">
@@ -10420,7 +10420,7 @@
         <v>-6.68</v>
       </c>
       <c r="D624" t="n">
-        <v>-17.91</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="625">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="D625" t="n">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="626">
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="D626" t="n">
-        <v>0</v>
+        <v>-10.69</v>
       </c>
     </row>
     <row r="627">
@@ -10468,7 +10468,7 @@
         <v>0.34</v>
       </c>
       <c r="D627" t="n">
-        <v>0</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="628">
@@ -10500,7 +10500,7 @@
         <v>0.34</v>
       </c>
       <c r="D629" t="n">
-        <v>0</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="630">
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="D630" t="n">
-        <v>0</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="631">
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="D631" t="n">
-        <v>0</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="632">
@@ -10564,7 +10564,7 @@
         <v>-7.539999999999999</v>
       </c>
       <c r="D633" t="n">
-        <v>-5.5</v>
+        <v>-7.969999999999999</v>
       </c>
     </row>
     <row r="634">
@@ -10580,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="D634" t="n">
-        <v>0</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="635">
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="D650" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="651">
@@ -10884,7 +10884,7 @@
         <v>-1</v>
       </c>
       <c r="D653" t="n">
-        <v>-0.43</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="654">
@@ -10900,7 +10900,7 @@
         <v>-1</v>
       </c>
       <c r="D654" t="n">
-        <v>-0.43</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="655">
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="D655" t="n">
-        <v>0</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="656">
@@ -11012,7 +11012,7 @@
         <v>2.26</v>
       </c>
       <c r="D661" t="n">
-        <v>0</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="662">
@@ -11028,7 +11028,7 @@
         <v>-9.520000000000001</v>
       </c>
       <c r="D662" t="n">
-        <v>-26.38</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="663">
@@ -11108,7 +11108,7 @@
         <v>-5.01</v>
       </c>
       <c r="D667" t="n">
-        <v>0</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="668">
@@ -11124,7 +11124,7 @@
         <v>-5.23</v>
       </c>
       <c r="D668" t="n">
-        <v>-2.76</v>
+        <v>14.94</v>
       </c>
     </row>
     <row r="669">
@@ -11140,7 +11140,7 @@
         <v>3.34</v>
       </c>
       <c r="D669" t="n">
-        <v>0</v>
+        <v>-19.41</v>
       </c>
     </row>
     <row r="670">
@@ -11476,7 +11476,7 @@
         <v>6.09</v>
       </c>
       <c r="D690" t="n">
-        <v>0</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="691">
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="D740" t="n">
-        <v>0</v>
+        <v>21.14</v>
       </c>
     </row>
     <row r="741">
@@ -12420,7 +12420,7 @@
         <v>13.78</v>
       </c>
       <c r="D749" t="n">
-        <v>30.25</v>
+        <v>32.79</v>
       </c>
     </row>
     <row r="750">
@@ -12452,7 +12452,7 @@
         <v>-3.76</v>
       </c>
       <c r="D751" t="n">
-        <v>-9.710000000000001</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="752">
@@ -12468,7 +12468,7 @@
         <v>-3.62</v>
       </c>
       <c r="D752" t="n">
-        <v>-18.65</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="753">
@@ -12484,7 +12484,7 @@
         <v>-3.62</v>
       </c>
       <c r="D753" t="n">
-        <v>-18.76</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="754">
@@ -12500,7 +12500,7 @@
         <v>-8.039999999999999</v>
       </c>
       <c r="D754" t="n">
-        <v>-3.49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755">
@@ -12644,7 +12644,7 @@
         <v>-8.5</v>
       </c>
       <c r="D763" t="n">
-        <v>-3.73</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="764">
@@ -12660,7 +12660,7 @@
         <v>-1.82</v>
       </c>
       <c r="D764" t="n">
-        <v>-0.95</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="765">
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="D767" t="n">
-        <v>0</v>
+        <v>26.39</v>
       </c>
     </row>
     <row r="768">
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="D772" t="n">
-        <v>0</v>
+        <v>-11.03</v>
       </c>
     </row>
     <row r="773">
@@ -12836,7 +12836,7 @@
         <v>-4.24</v>
       </c>
       <c r="D775" t="n">
-        <v>-1.72</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="776">
@@ -12980,7 +12980,7 @@
         <v>-3.68</v>
       </c>
       <c r="D784" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="785">
@@ -12996,7 +12996,7 @@
         <v>-3.68</v>
       </c>
       <c r="D785" t="n">
-        <v>0</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="786">
@@ -13012,7 +13012,7 @@
         <v>-3.68</v>
       </c>
       <c r="D786" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="787">
@@ -13140,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="D794" t="n">
-        <v>0</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="795">
@@ -13236,7 +13236,7 @@
         <v>-1.87</v>
       </c>
       <c r="D800" t="n">
-        <v>-4.77</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="801">
@@ -13268,7 +13268,7 @@
         <v>12.52</v>
       </c>
       <c r="D802" t="n">
-        <v>27.81</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="803">
@@ -13300,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="D804" t="n">
-        <v>0</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="805">
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="D805" t="n">
-        <v>0</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="806">
@@ -13332,7 +13332,7 @@
         <v>5.17</v>
       </c>
       <c r="D806" t="n">
-        <v>0</v>
+        <v>-5.779999999999999</v>
       </c>
     </row>
     <row r="807">
@@ -13364,7 +13364,7 @@
         <v>-18.17</v>
       </c>
       <c r="D808" t="n">
-        <v>-11.08</v>
+        <v>14.79</v>
       </c>
     </row>
     <row r="809">
@@ -13428,7 +13428,7 @@
         <v>3.97</v>
       </c>
       <c r="D812" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="813">
@@ -13444,7 +13444,7 @@
         <v>-1.67</v>
       </c>
       <c r="D813" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="814">
@@ -13476,7 +13476,7 @@
         <v>5.17</v>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>-5.779999999999999</v>
       </c>
     </row>
     <row r="816">
@@ -13492,7 +13492,7 @@
         <v>5.17</v>
       </c>
       <c r="D816" t="n">
-        <v>0</v>
+        <v>-5.779999999999999</v>
       </c>
     </row>
     <row r="817">
@@ -13508,7 +13508,7 @@
         <v>5.17</v>
       </c>
       <c r="D817" t="n">
-        <v>0</v>
+        <v>-5.779999999999999</v>
       </c>
     </row>
     <row r="818">
@@ -13604,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="D823" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="824">
@@ -13876,7 +13876,7 @@
         <v>-1.38</v>
       </c>
       <c r="D840" t="n">
-        <v>0</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="841">
@@ -13892,7 +13892,7 @@
         <v>-1.38</v>
       </c>
       <c r="D841" t="n">
-        <v>0</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="842">
@@ -14756,7 +14756,7 @@
         <v>-2.99</v>
       </c>
       <c r="D895" t="n">
-        <v>12.31</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="896">
@@ -14852,7 +14852,7 @@
         <v>2.17</v>
       </c>
       <c r="D901" t="n">
-        <v>10.64</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="902">
@@ -15236,7 +15236,7 @@
         <v>14.27</v>
       </c>
       <c r="D925" t="n">
-        <v>-15.45</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="926">
@@ -15300,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="D929" t="n">
-        <v>0</v>
+        <v>-7.32</v>
       </c>
     </row>
     <row r="930">
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="D940" t="n">
-        <v>-27.64</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="941">
@@ -15540,7 +15540,7 @@
         <v>-19.34</v>
       </c>
       <c r="D944" t="n">
-        <v>6.419999999999999</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="945">
@@ -15604,7 +15604,7 @@
         <v>7.94</v>
       </c>
       <c r="D948" t="n">
-        <v>-8.459999999999999</v>
+        <v>-11.03</v>
       </c>
     </row>
     <row r="949">
@@ -15700,7 +15700,7 @@
         <v>-17.14</v>
       </c>
       <c r="D954" t="n">
-        <v>-14.66</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="955">
@@ -15812,7 +15812,7 @@
         <v>-5.600000000000001</v>
       </c>
       <c r="D961" t="n">
-        <v>-7.960000000000001</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="962">
@@ -16836,7 +16836,7 @@
         <v>-19.13</v>
       </c>
       <c r="D1025" t="n">
-        <v>-4.130000000000001</v>
+        <v>-22.28</v>
       </c>
     </row>
     <row r="1026">
@@ -17140,7 +17140,7 @@
         <v>1.2</v>
       </c>
       <c r="D1044" t="n">
-        <v>0</v>
+        <v>-6.59</v>
       </c>
     </row>
     <row r="1045">
@@ -17156,7 +17156,7 @@
         <v>1.2</v>
       </c>
       <c r="D1045" t="n">
-        <v>0</v>
+        <v>-6.59</v>
       </c>
     </row>
     <row r="1046">
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="D1073" t="n">
-        <v>0</v>
+        <v>-26.51</v>
       </c>
     </row>
     <row r="1074">
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="D1081" t="n">
-        <v>0</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="1082">
@@ -17748,7 +17748,7 @@
         <v>0</v>
       </c>
       <c r="D1082" t="n">
-        <v>0</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="1083">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="D1084" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="1085">
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="D1085" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="1086">
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="D1087" t="n">
-        <v>0</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="1088">
@@ -17844,7 +17844,7 @@
         <v>11.87</v>
       </c>
       <c r="D1088" t="n">
-        <v>4.33</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="1089">
@@ -17860,7 +17860,7 @@
         <v>11.87</v>
       </c>
       <c r="D1089" t="n">
-        <v>4.33</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="1090">
@@ -17892,7 +17892,7 @@
         <v>11.87</v>
       </c>
       <c r="D1091" t="n">
-        <v>4.33</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="1092">
@@ -17908,7 +17908,7 @@
         <v>11.87</v>
       </c>
       <c r="D1092" t="n">
-        <v>4.33</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="1093">
@@ -17924,7 +17924,7 @@
         <v>11.87</v>
       </c>
       <c r="D1093" t="n">
-        <v>4.33</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="1094">
@@ -17956,7 +17956,7 @@
         <v>11.87</v>
       </c>
       <c r="D1095" t="n">
-        <v>4.33</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="1096">
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="D1098" t="n">
-        <v>0</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1099">
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="D1100" t="n">
-        <v>0</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1101">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="D1101" t="n">
-        <v>0</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="1102">
@@ -18068,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="D1102" t="n">
-        <v>0</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1103">
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="D1104" t="n">
-        <v>0</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1105">
@@ -18132,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="D1106" t="n">
-        <v>0</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1107">
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="D1107" t="n">
-        <v>0</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1108">
@@ -18308,7 +18308,7 @@
         <v>0</v>
       </c>
       <c r="D1117" t="n">
-        <v>0</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="1118">
@@ -18340,7 +18340,7 @@
         <v>11.87</v>
       </c>
       <c r="D1119" t="n">
-        <v>4.33</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="1120">
@@ -18372,7 +18372,7 @@
         <v>-6.63</v>
       </c>
       <c r="D1121" t="n">
-        <v>-17.66</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="1122">
@@ -18404,7 +18404,7 @@
         <v>-6.63</v>
       </c>
       <c r="D1123" t="n">
-        <v>-17.66</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="1124">
@@ -18420,7 +18420,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1124" t="n">
-        <v>6.600000000000001</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1125">
@@ -18436,7 +18436,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1125" t="n">
-        <v>6.600000000000001</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1126">
@@ -18452,7 +18452,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1126" t="n">
-        <v>6.600000000000001</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1127">
@@ -18468,7 +18468,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1127" t="n">
-        <v>6.600000000000001</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1128">
@@ -18484,7 +18484,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1128" t="n">
-        <v>6.600000000000001</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1129">
@@ -18500,7 +18500,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1129" t="n">
-        <v>6.600000000000001</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1130">
@@ -18516,7 +18516,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1130" t="n">
-        <v>6.600000000000001</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1131">
@@ -18548,7 +18548,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1132" t="n">
-        <v>6.600000000000001</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="1133">
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="D1158" t="n">
-        <v>0</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1159">
@@ -19028,7 +19028,7 @@
         <v>31.57</v>
       </c>
       <c r="D1162" t="n">
-        <v>9.58</v>
+        <v>7.049999999999999</v>
       </c>
     </row>
     <row r="1163">
@@ -19060,7 +19060,7 @@
         <v>0</v>
       </c>
       <c r="D1164" t="n">
-        <v>0</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="1165">
@@ -19172,7 +19172,7 @@
         <v>-6.17</v>
       </c>
       <c r="D1171" t="n">
-        <v>-8.720000000000001</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="1172">
@@ -19188,7 +19188,7 @@
         <v>-6.17</v>
       </c>
       <c r="D1172" t="n">
-        <v>-8.720000000000001</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="1173">
@@ -19204,7 +19204,7 @@
         <v>-8.110000000000001</v>
       </c>
       <c r="D1173" t="n">
-        <v>-11.7</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="1174">
@@ -19252,7 +19252,7 @@
         <v>-1.88</v>
       </c>
       <c r="D1176" t="n">
-        <v>-11.44</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="1177">
@@ -19284,7 +19284,7 @@
         <v>-0.7799999999999999</v>
       </c>
       <c r="D1178" t="n">
-        <v>-4.84</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="1179">
@@ -19300,7 +19300,7 @@
         <v>-0.74</v>
       </c>
       <c r="D1179" t="n">
-        <v>-4.58</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="1180">
@@ -19412,7 +19412,7 @@
         <v>-3.23</v>
       </c>
       <c r="D1186" t="n">
-        <v>3.34</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="1187">
@@ -21188,7 +21188,7 @@
         <v>24.91</v>
       </c>
       <c r="D1297" t="n">
-        <v>3.56</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="1298">
@@ -21204,7 +21204,7 @@
         <v>21.7</v>
       </c>
       <c r="D1298" t="n">
-        <v>3.56</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="1299">
@@ -21220,7 +21220,7 @@
         <v>21.7</v>
       </c>
       <c r="D1299" t="n">
-        <v>3.56</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="1300">
@@ -21236,7 +21236,7 @@
         <v>16.65</v>
       </c>
       <c r="D1300" t="n">
-        <v>3.56</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="1301">
@@ -21252,7 +21252,7 @@
         <v>21.7</v>
       </c>
       <c r="D1301" t="n">
-        <v>3.56</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="1302">
@@ -21268,7 +21268,7 @@
         <v>21.7</v>
       </c>
       <c r="D1302" t="n">
-        <v>3.56</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="1303">
@@ -21396,7 +21396,7 @@
         <v>0</v>
       </c>
       <c r="D1310" t="n">
-        <v>0</v>
+        <v>-6.859999999999999</v>
       </c>
     </row>
     <row r="1311">
@@ -21412,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="D1311" t="n">
-        <v>0</v>
+        <v>-6.859999999999999</v>
       </c>
     </row>
     <row r="1312">
@@ -21492,7 +21492,7 @@
         <v>0</v>
       </c>
       <c r="D1316" t="n">
-        <v>0</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="1317">
@@ -21508,7 +21508,7 @@
         <v>0</v>
       </c>
       <c r="D1317" t="n">
-        <v>0</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="1318">
@@ -21524,7 +21524,7 @@
         <v>13.78</v>
       </c>
       <c r="D1318" t="n">
-        <v>2.01</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="1319">
@@ -21540,7 +21540,7 @@
         <v>30.15</v>
       </c>
       <c r="D1319" t="n">
-        <v>3.86</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="1320">
@@ -21572,7 +21572,7 @@
         <v>25.13</v>
       </c>
       <c r="D1321" t="n">
-        <v>8.029999999999999</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="1322">
@@ -21588,7 +21588,7 @@
         <v>13.78</v>
       </c>
       <c r="D1322" t="n">
-        <v>2.01</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="1323">
@@ -21908,7 +21908,7 @@
         <v>-6.49</v>
       </c>
       <c r="D1342" t="n">
-        <v>20.82</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="1343">
@@ -22052,7 +22052,7 @@
         <v>13.8</v>
       </c>
       <c r="D1351" t="n">
-        <v>16.09</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="1352">
@@ -22068,7 +22068,7 @@
         <v>13.8</v>
       </c>
       <c r="D1352" t="n">
-        <v>16.09</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="1353">
@@ -22084,7 +22084,7 @@
         <v>10.8</v>
       </c>
       <c r="D1353" t="n">
-        <v>24.26</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="1354">
@@ -22100,7 +22100,7 @@
         <v>13.8</v>
       </c>
       <c r="D1354" t="n">
-        <v>16.09</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="1355">
@@ -22596,7 +22596,7 @@
         <v>-9.77</v>
       </c>
       <c r="D1385" t="n">
-        <v>-14.35</v>
+        <v>-65.81</v>
       </c>
     </row>
     <row r="1386">
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="D1386" t="n">
-        <v>6.78</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="1387">
@@ -22740,7 +22740,7 @@
         <v>-0.17</v>
       </c>
       <c r="D1394" t="n">
-        <v>-0.17</v>
+        <v>-13.37</v>
       </c>
     </row>
     <row r="1395">
@@ -23412,7 +23412,7 @@
         <v>-17.09</v>
       </c>
       <c r="D1436" t="n">
-        <v>-3.64</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="1437">
@@ -23508,7 +23508,7 @@
         <v>0</v>
       </c>
       <c r="D1442" t="n">
-        <v>0</v>
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="1443">
@@ -23588,7 +23588,7 @@
         <v>-3.74</v>
       </c>
       <c r="D1447" t="n">
-        <v>18.92</v>
+        <v>23.86</v>
       </c>
     </row>
     <row r="1448">
@@ -23604,7 +23604,7 @@
         <v>-3.67</v>
       </c>
       <c r="D1448" t="n">
-        <v>18.83</v>
+        <v>25.93</v>
       </c>
     </row>
     <row r="1449">
@@ -23620,7 +23620,7 @@
         <v>-3.67</v>
       </c>
       <c r="D1449" t="n">
-        <v>18.83</v>
+        <v>24.36</v>
       </c>
     </row>
     <row r="1450">
@@ -23636,7 +23636,7 @@
         <v>-3.67</v>
       </c>
       <c r="D1450" t="n">
-        <v>18.83</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="1451">
@@ -23780,7 +23780,7 @@
         <v>0.3</v>
       </c>
       <c r="D1459" t="n">
-        <v>0</v>
+        <v>-14.29</v>
       </c>
     </row>
     <row r="1460">
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="D1460" t="n">
-        <v>0</v>
+        <v>-14.19</v>
       </c>
     </row>
     <row r="1461">
@@ -24020,7 +24020,7 @@
         <v>-5.67</v>
       </c>
       <c r="D1474" t="n">
-        <v>0</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="1475">
@@ -24036,7 +24036,7 @@
         <v>14.17</v>
       </c>
       <c r="D1475" t="n">
-        <v>-1.06</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="1476">
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="D1486" t="n">
-        <v>0</v>
+        <v>-6.710000000000001</v>
       </c>
     </row>
     <row r="1487">
@@ -24228,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="D1487" t="n">
-        <v>0</v>
+        <v>-6.710000000000001</v>
       </c>
     </row>
     <row r="1488">
@@ -24756,7 +24756,7 @@
         <v>4</v>
       </c>
       <c r="D1520" t="n">
-        <v>0.98</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="1521">
@@ -24772,7 +24772,7 @@
         <v>1.96</v>
       </c>
       <c r="D1521" t="n">
-        <v>0.98</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="1522">
@@ -24788,7 +24788,7 @@
         <v>-3.93</v>
       </c>
       <c r="D1522" t="n">
-        <v>0</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="1523">
@@ -24900,7 +24900,7 @@
         <v>-8.369999999999999</v>
       </c>
       <c r="D1529" t="n">
-        <v>13.7</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="1530">
@@ -24916,7 +24916,7 @@
         <v>-12.55</v>
       </c>
       <c r="D1530" t="n">
-        <v>19.14</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="1531">
@@ -24932,7 +24932,7 @@
         <v>-12.55</v>
       </c>
       <c r="D1531" t="n">
-        <v>19.14</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="1532">
@@ -24948,7 +24948,7 @@
         <v>-12.55</v>
       </c>
       <c r="D1532" t="n">
-        <v>19.14</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="1533">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="D1544" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="1545">
@@ -25348,7 +25348,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1557" t="n">
-        <v>-4.77</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="1558">
@@ -25364,7 +25364,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1558" t="n">
-        <v>-4.77</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="1559">
@@ -25396,7 +25396,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1560" t="n">
-        <v>-4.77</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="1561">
@@ -25428,7 +25428,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1562" t="n">
-        <v>-4.77</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="1563">
@@ -25444,7 +25444,7 @@
         <v>12.52</v>
       </c>
       <c r="D1563" t="n">
-        <v>27.81</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="1564">
@@ -25460,7 +25460,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1564" t="n">
-        <v>-4.77</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="1565">
@@ -25476,7 +25476,7 @@
         <v>42.54</v>
       </c>
       <c r="D1565" t="n">
-        <v>-29.84</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="1566">
@@ -25492,7 +25492,7 @@
         <v>-6.92</v>
       </c>
       <c r="D1566" t="n">
-        <v>-37.24</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="1567">
@@ -25524,7 +25524,7 @@
         <v>3.97</v>
       </c>
       <c r="D1568" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="1569">
@@ -25540,7 +25540,7 @@
         <v>3.97</v>
       </c>
       <c r="D1569" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="1570">
@@ -25588,7 +25588,7 @@
         <v>-0.03</v>
       </c>
       <c r="D1572" t="n">
-        <v>0</v>
+        <v>-5.779999999999999</v>
       </c>
     </row>
     <row r="1573">
@@ -25604,7 +25604,7 @@
         <v>3.97</v>
       </c>
       <c r="D1573" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="1574">
@@ -25636,7 +25636,7 @@
         <v>3.97</v>
       </c>
       <c r="D1575" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="1576">
@@ -25668,7 +25668,7 @@
         <v>-1.67</v>
       </c>
       <c r="D1577" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="1578">
@@ -25716,7 +25716,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1580" t="n">
-        <v>-4.77</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="1581">
@@ -25732,7 +25732,7 @@
         <v>3.97</v>
       </c>
       <c r="D1581" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="1582">
@@ -25748,7 +25748,7 @@
         <v>3.97</v>
       </c>
       <c r="D1582" t="n">
-        <v>0</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="1583">
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="D1597" t="n">
-        <v>0</v>
+        <v>24.27</v>
       </c>
     </row>
     <row r="1598">
@@ -26516,7 +26516,7 @@
         <v>0</v>
       </c>
       <c r="D1630" t="n">
-        <v>0</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="1631">
@@ -26596,7 +26596,7 @@
         <v>-9.470000000000001</v>
       </c>
       <c r="D1635" t="n">
-        <v>18.35</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="1636">
@@ -26724,7 +26724,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1643" t="n">
-        <v>-8.42</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="1644">
@@ -26740,7 +26740,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1644" t="n">
-        <v>-8.42</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="1645">
@@ -26756,7 +26756,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1645" t="n">
-        <v>-8.42</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="1646">
@@ -26772,7 +26772,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1646" t="n">
-        <v>-8.42</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="1647">
@@ -26788,7 +26788,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1647" t="n">
-        <v>-8.42</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="1648">
@@ -26804,7 +26804,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1648" t="n">
-        <v>-8.42</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="1649">
@@ -26852,7 +26852,7 @@
         <v>0</v>
       </c>
       <c r="D1651" t="n">
-        <v>0</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="1652">
@@ -26932,7 +26932,7 @@
         <v>4.44</v>
       </c>
       <c r="D1656" t="n">
-        <v>1.08</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="1657">
@@ -26948,7 +26948,7 @@
         <v>3.27</v>
       </c>
       <c r="D1657" t="n">
-        <v>1.08</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="1658">
@@ -26964,7 +26964,7 @@
         <v>3.27</v>
       </c>
       <c r="D1658" t="n">
-        <v>1.08</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="1659">
@@ -27124,7 +27124,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1668" t="n">
-        <v>13.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="1669">
@@ -27140,7 +27140,7 @@
         <v>-7.66</v>
       </c>
       <c r="D1669" t="n">
-        <v>13.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="1670">
@@ -27156,7 +27156,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1670" t="n">
-        <v>13.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="1671">
@@ -27172,7 +27172,7 @@
         <v>-7.66</v>
       </c>
       <c r="D1671" t="n">
-        <v>13.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="1672">
@@ -27492,7 +27492,7 @@
         <v>-7.91</v>
       </c>
       <c r="D1691" t="n">
-        <v>13.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="1692">
@@ -27524,7 +27524,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1693" t="n">
-        <v>13.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="1694">
@@ -27540,7 +27540,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1694" t="n">
-        <v>13.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="1695">
@@ -27588,7 +27588,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1697" t="n">
-        <v>13.53</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="1698">
@@ -27652,7 +27652,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1701" t="n">
-        <v>-8.42</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="1702">
@@ -27700,7 +27700,7 @@
         <v>22.55</v>
       </c>
       <c r="D1704" t="n">
-        <v>3.05</v>
+        <v>-4.130000000000001</v>
       </c>
     </row>
     <row r="1705">
@@ -27796,7 +27796,7 @@
         <v>22.55</v>
       </c>
       <c r="D1710" t="n">
-        <v>3.05</v>
+        <v>-4.130000000000001</v>
       </c>
     </row>
     <row r="1711">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="D1724" t="n">
-        <v>0</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="1725">
@@ -28148,7 +28148,7 @@
         <v>2.77</v>
       </c>
       <c r="D1732" t="n">
-        <v>5.5</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="1733">
@@ -28164,7 +28164,7 @@
         <v>2.77</v>
       </c>
       <c r="D1733" t="n">
-        <v>5.5</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="1734">
@@ -28340,7 +28340,7 @@
         <v>-16.6</v>
       </c>
       <c r="D1744" t="n">
-        <v>-3.24</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="1745">
@@ -28756,7 +28756,7 @@
         <v>20.25</v>
       </c>
       <c r="D1770" t="n">
-        <v>18.46</v>
+        <v>5.510000000000001</v>
       </c>
     </row>
     <row r="1771">
@@ -29284,7 +29284,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1803" t="n">
-        <v>17.55</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="1804">
@@ -29316,7 +29316,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1805" t="n">
-        <v>17.55</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="1806">
@@ -29332,7 +29332,7 @@
         <v>-9.6</v>
       </c>
       <c r="D1806" t="n">
-        <v>21.43</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="1807">
@@ -29348,7 +29348,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1807" t="n">
-        <v>17.55</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="1808">
@@ -29364,7 +29364,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1808" t="n">
-        <v>-3.67</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="1809">
@@ -29380,7 +29380,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1809" t="n">
-        <v>17.55</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="1810">
@@ -29396,7 +29396,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1810" t="n">
-        <v>-3.67</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="1811">
@@ -29412,7 +29412,7 @@
         <v>9.91</v>
       </c>
       <c r="D1811" t="n">
-        <v>3.11</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="1812">
@@ -29428,7 +29428,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1812" t="n">
-        <v>17.55</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="1813">
@@ -29444,7 +29444,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1813" t="n">
-        <v>17.55</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="1814">
@@ -29460,7 +29460,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1814" t="n">
-        <v>-3.67</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="1815">
@@ -29476,7 +29476,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1815" t="n">
-        <v>21.43</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="1816">
@@ -29492,7 +29492,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1816" t="n">
-        <v>21.43</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="1817">
@@ -29508,7 +29508,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1817" t="n">
-        <v>21.43</v>
+        <v>13.13</v>
       </c>
     </row>
     <row r="1818">
@@ -29524,7 +29524,7 @@
         <v>-12.43</v>
       </c>
       <c r="D1818" t="n">
-        <v>14.19</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="1819">
@@ -29812,7 +29812,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1836" t="n">
-        <v>12.5</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="1837">
@@ -29860,7 +29860,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1839" t="n">
-        <v>12.5</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="1840">
@@ -29876,7 +29876,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1840" t="n">
-        <v>12.5</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="1841">
@@ -29892,7 +29892,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1841" t="n">
-        <v>12.5</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="1842">
@@ -29908,7 +29908,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1842" t="n">
-        <v>12.5</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="1843">
@@ -29924,7 +29924,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1843" t="n">
-        <v>12.5</v>
+        <v>8.81</v>
       </c>
     </row>
     <row r="1844">
@@ -30052,7 +30052,7 @@
         <v>20.93</v>
       </c>
       <c r="D1851" t="n">
-        <v>2.9</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="1852">
@@ -30100,7 +30100,7 @@
         <v>20.93</v>
       </c>
       <c r="D1854" t="n">
-        <v>2.9</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="1855">
@@ -30452,7 +30452,7 @@
         <v>0</v>
       </c>
       <c r="D1876" t="n">
-        <v>0</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="1877">
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="D1880" t="n">
-        <v>0</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="1881">
@@ -30548,7 +30548,7 @@
         <v>0</v>
       </c>
       <c r="D1882" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="1883">
@@ -30788,7 +30788,7 @@
         <v>1.6</v>
       </c>
       <c r="D1897" t="n">
-        <v>4.14</v>
+        <v>7.430000000000001</v>
       </c>
     </row>
     <row r="1898">
@@ -31012,7 +31012,7 @@
         <v>-16.68</v>
       </c>
       <c r="D1911" t="n">
-        <v>-3.32</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="1912">
@@ -31460,7 +31460,7 @@
         <v>11.85</v>
       </c>
       <c r="D1939" t="n">
-        <v>4.33</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="1940">
@@ -32020,7 +32020,7 @@
         <v>0</v>
       </c>
       <c r="D1974" t="n">
-        <v>0</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="1975">
@@ -32180,7 +32180,7 @@
         <v>0</v>
       </c>
       <c r="D1984" t="n">
-        <v>26.76</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="1985">
@@ -32212,7 +32212,7 @@
         <v>0</v>
       </c>
       <c r="D1986" t="n">
-        <v>26.55</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="1987">
@@ -32356,7 +32356,7 @@
         <v>0</v>
       </c>
       <c r="D1995" t="n">
-        <v>18.2</v>
+        <v>6.069999999999999</v>
       </c>
     </row>
     <row r="1996">
@@ -32388,7 +32388,7 @@
         <v>0</v>
       </c>
       <c r="D1997" t="n">
-        <v>16.02</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="1998">
@@ -32404,7 +32404,7 @@
         <v>0</v>
       </c>
       <c r="D1998" t="n">
-        <v>7.01</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="1999">
@@ -32420,7 +32420,7 @@
         <v>0</v>
       </c>
       <c r="D1999" t="n">
-        <v>7.01</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="2000">
@@ -32452,7 +32452,7 @@
         <v>0</v>
       </c>
       <c r="D2001" t="n">
-        <v>26.76</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="2002">
@@ -32468,7 +32468,7 @@
         <v>0</v>
       </c>
       <c r="D2002" t="n">
-        <v>26.76</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="2003">
@@ -32484,7 +32484,7 @@
         <v>0</v>
       </c>
       <c r="D2003" t="n">
-        <v>26.76</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="2004">
@@ -32500,7 +32500,7 @@
         <v>0</v>
       </c>
       <c r="D2004" t="n">
-        <v>26.76</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="2005">
@@ -32516,7 +32516,7 @@
         <v>0</v>
       </c>
       <c r="D2005" t="n">
-        <v>3.88</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="2006">
@@ -32532,7 +32532,7 @@
         <v>-3.95</v>
       </c>
       <c r="D2006" t="n">
-        <v>4.44</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="2007">
@@ -32612,7 +32612,7 @@
         <v>0</v>
       </c>
       <c r="D2011" t="n">
-        <v>12.02</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="2012">
@@ -32692,7 +32692,7 @@
         <v>14.37</v>
       </c>
       <c r="D2016" t="n">
-        <v>26.98</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="2017">
@@ -32740,7 +32740,7 @@
         <v>2.77</v>
       </c>
       <c r="D2019" t="n">
-        <v>5.5</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="2020">
@@ -32820,7 +32820,7 @@
         <v>-3.28</v>
       </c>
       <c r="D2024" t="n">
-        <v>-1.32</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="2025">
@@ -32852,7 +32852,7 @@
         <v>1.02</v>
       </c>
       <c r="D2026" t="n">
-        <v>0.43</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="2027">
@@ -32868,7 +32868,7 @@
         <v>1.02</v>
       </c>
       <c r="D2027" t="n">
-        <v>0.43</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="2028">
@@ -33252,7 +33252,7 @@
         <v>-5.93</v>
       </c>
       <c r="D2051" t="n">
-        <v>-2.39</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="2052">
@@ -33348,7 +33348,7 @@
         <v>0</v>
       </c>
       <c r="D2057" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="2058">
@@ -33364,7 +33364,7 @@
         <v>0</v>
       </c>
       <c r="D2058" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="2059">
@@ -33380,7 +33380,7 @@
         <v>0</v>
       </c>
       <c r="D2059" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="2060">
@@ -33540,7 +33540,7 @@
         <v>-5.52</v>
       </c>
       <c r="D2069" t="n">
-        <v>-14.49</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="2070">
@@ -33588,7 +33588,7 @@
         <v>0</v>
       </c>
       <c r="D2072" t="n">
-        <v>0</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="2073">
@@ -33604,7 +33604,7 @@
         <v>1.73</v>
       </c>
       <c r="D2073" t="n">
-        <v>0</v>
+        <v>-9.869999999999999</v>
       </c>
     </row>
     <row r="2074">
@@ -33668,7 +33668,7 @@
         <v>-5.28</v>
       </c>
       <c r="D2077" t="n">
-        <v>-2.12</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="2078">
@@ -33684,7 +33684,7 @@
         <v>-7.199999999999999</v>
       </c>
       <c r="D2078" t="n">
-        <v>-3.14</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="2079">
@@ -33732,7 +33732,7 @@
         <v>0</v>
       </c>
       <c r="D2081" t="n">
-        <v>0</v>
+        <v>-26.07</v>
       </c>
     </row>
     <row r="2082">
@@ -33764,7 +33764,7 @@
         <v>0</v>
       </c>
       <c r="D2083" t="n">
-        <v>0</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="2084">
@@ -33844,7 +33844,7 @@
         <v>0</v>
       </c>
       <c r="D2088" t="n">
-        <v>0</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="2089">
@@ -33876,7 +33876,7 @@
         <v>-1.48</v>
       </c>
       <c r="D2090" t="n">
-        <v>0</v>
+        <v>-11.62</v>
       </c>
     </row>
     <row r="2091">
@@ -33892,7 +33892,7 @@
         <v>0</v>
       </c>
       <c r="D2091" t="n">
-        <v>0</v>
+        <v>-5.609999999999999</v>
       </c>
     </row>
     <row r="2092">
@@ -33940,7 +33940,7 @@
         <v>4.87</v>
       </c>
       <c r="D2094" t="n">
-        <v>1.62</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="2095">
@@ -33956,7 +33956,7 @@
         <v>-10.33</v>
       </c>
       <c r="D2095" t="n">
-        <v>8.85</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="2096">
@@ -33972,7 +33972,7 @@
         <v>12.3</v>
       </c>
       <c r="D2096" t="n">
-        <v>4.14</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="2097">
@@ -34100,7 +34100,7 @@
         <v>0</v>
       </c>
       <c r="D2104" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="2105">
@@ -34164,7 +34164,7 @@
         <v>-1.58</v>
       </c>
       <c r="D2108" t="n">
-        <v>1.6</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="2109">
@@ -34180,7 +34180,7 @@
         <v>0</v>
       </c>
       <c r="D2109" t="n">
-        <v>0</v>
+        <v>-10.03</v>
       </c>
     </row>
     <row r="2110">
@@ -34244,7 +34244,7 @@
         <v>0</v>
       </c>
       <c r="D2113" t="n">
-        <v>0</v>
+        <v>-8.129999999999999</v>
       </c>
     </row>
     <row r="2114">
@@ -34260,7 +34260,7 @@
         <v>0</v>
       </c>
       <c r="D2114" t="n">
-        <v>0</v>
+        <v>-7.449999999999999</v>
       </c>
     </row>
     <row r="2115">
@@ -34276,7 +34276,7 @@
         <v>0</v>
       </c>
       <c r="D2115" t="n">
-        <v>0</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="2116">
@@ -34660,7 +34660,7 @@
         <v>0</v>
       </c>
       <c r="D2139" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="2140">
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="D2195" t="n">
-        <v>0</v>
+        <v>35.77</v>
       </c>
     </row>
     <row r="2196">
@@ -35572,7 +35572,7 @@
         <v>0</v>
       </c>
       <c r="D2196" t="n">
-        <v>0</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="2197">
@@ -36788,7 +36788,7 @@
         <v>-12.05</v>
       </c>
       <c r="D2272" t="n">
-        <v>27.4</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="2273">
@@ -36820,7 +36820,7 @@
         <v>10.37</v>
       </c>
       <c r="D2274" t="n">
-        <v>14.31</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="2275">
@@ -36836,7 +36836,7 @@
         <v>-12.05</v>
       </c>
       <c r="D2275" t="n">
-        <v>27.4</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="2276">
@@ -36884,7 +36884,7 @@
         <v>-10.11</v>
       </c>
       <c r="D2278" t="n">
-        <v>22.52</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="2279">
@@ -36916,7 +36916,7 @@
         <v>-3.49</v>
       </c>
       <c r="D2280" t="n">
-        <v>18.09</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="2281">
@@ -36932,7 +36932,7 @@
         <v>-10.11</v>
       </c>
       <c r="D2281" t="n">
-        <v>22.52</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="2282">
@@ -37044,7 +37044,7 @@
         <v>-0.7100000000000001</v>
       </c>
       <c r="D2288" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="2289">
@@ -37796,7 +37796,7 @@
         <v>13.48</v>
       </c>
       <c r="D2335" t="n">
-        <v>3.98</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="2336">
@@ -37812,7 +37812,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="D2336" t="n">
-        <v>3.98</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="2337">
@@ -38276,7 +38276,7 @@
         <v>0</v>
       </c>
       <c r="D2365" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="2366">
@@ -38324,7 +38324,7 @@
         <v>0</v>
       </c>
       <c r="D2368" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="2369">
@@ -38340,7 +38340,7 @@
         <v>0</v>
       </c>
       <c r="D2369" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="2370">
@@ -38356,7 +38356,7 @@
         <v>0</v>
       </c>
       <c r="D2370" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="2371">
@@ -38372,7 +38372,7 @@
         <v>0</v>
       </c>
       <c r="D2371" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="2372">
@@ -38388,7 +38388,7 @@
         <v>0</v>
       </c>
       <c r="D2372" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="2373">
@@ -38660,7 +38660,7 @@
         <v>0</v>
       </c>
       <c r="D2389" t="n">
-        <v>0</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="2390">
@@ -38676,7 +38676,7 @@
         <v>0</v>
       </c>
       <c r="D2390" t="n">
-        <v>0</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="2391">
@@ -38692,7 +38692,7 @@
         <v>0</v>
       </c>
       <c r="D2391" t="n">
-        <v>0</v>
+        <v>-22.2</v>
       </c>
     </row>
     <row r="2392">
@@ -38948,7 +38948,7 @@
         <v>2.17</v>
       </c>
       <c r="D2407" t="n">
-        <v>0</v>
+        <v>-18.76</v>
       </c>
     </row>
     <row r="2408">
@@ -38964,7 +38964,7 @@
         <v>2.17</v>
       </c>
       <c r="D2408" t="n">
-        <v>0</v>
+        <v>-18.76</v>
       </c>
     </row>
     <row r="2409">
@@ -38996,7 +38996,7 @@
         <v>8.51</v>
       </c>
       <c r="D2410" t="n">
-        <v>3.17</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="2411">
@@ -39028,7 +39028,7 @@
         <v>8.51</v>
       </c>
       <c r="D2412" t="n">
-        <v>3.17</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="2413">
@@ -39044,7 +39044,7 @@
         <v>-4.74</v>
       </c>
       <c r="D2413" t="n">
-        <v>-2.03</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="2414">
@@ -39124,7 +39124,7 @@
         <v>0</v>
       </c>
       <c r="D2418" t="n">
-        <v>0</v>
+        <v>-13.45</v>
       </c>
     </row>
     <row r="2419">
@@ -39156,7 +39156,7 @@
         <v>0</v>
       </c>
       <c r="D2420" t="n">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="2421">
@@ -39316,7 +39316,7 @@
         <v>15.49</v>
       </c>
       <c r="D2430" t="n">
-        <v>3.59</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="2431">
@@ -39348,7 +39348,7 @@
         <v>-4.96</v>
       </c>
       <c r="D2432" t="n">
-        <v>0</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="2433">
@@ -39476,7 +39476,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2440" t="n">
-        <v>34.17</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="2441">
@@ -39492,7 +39492,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2441" t="n">
-        <v>34.17</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="2442">
@@ -39508,7 +39508,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2442" t="n">
-        <v>34.17</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="2443">
@@ -39524,7 +39524,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2443" t="n">
-        <v>34.17</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="2444">
@@ -39540,7 +39540,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2444" t="n">
-        <v>34.17</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="2445">
@@ -39556,7 +39556,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2445" t="n">
-        <v>34.17</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="2446">
@@ -39572,7 +39572,7 @@
         <v>-13.33</v>
       </c>
       <c r="D2446" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="2447">
@@ -39588,7 +39588,7 @@
         <v>-13.33</v>
       </c>
       <c r="D2447" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="2448">
@@ -39604,7 +39604,7 @@
         <v>-13.33</v>
       </c>
       <c r="D2448" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="2449">
@@ -39620,7 +39620,7 @@
         <v>-13.33</v>
       </c>
       <c r="D2449" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="2450">
@@ -39924,7 +39924,7 @@
         <v>4.12</v>
       </c>
       <c r="D2468" t="n">
-        <v>16.13</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="2469">
@@ -40196,7 +40196,7 @@
         <v>-3.51</v>
       </c>
       <c r="D2485" t="n">
-        <v>-9.220000000000001</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="2486">
@@ -40324,7 +40324,7 @@
         <v>0</v>
       </c>
       <c r="D2493" t="n">
-        <v>0</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="2494">
@@ -40356,7 +40356,7 @@
         <v>0</v>
       </c>
       <c r="D2495" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="2496">
@@ -40372,7 +40372,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="D2496" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="2497">
@@ -40420,7 +40420,7 @@
         <v>-2.65</v>
       </c>
       <c r="D2499" t="n">
-        <v>6.909999999999999</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2500">
@@ -40468,7 +40468,7 @@
         <v>-10.9</v>
       </c>
       <c r="D2502" t="n">
-        <v>-1.57</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="2503">
@@ -40676,7 +40676,7 @@
         <v>8.42</v>
       </c>
       <c r="D2515" t="n">
-        <v>3.14</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="2516">
@@ -40884,7 +40884,7 @@
         <v>-4.9</v>
       </c>
       <c r="D2528" t="n">
-        <v>-2.49</v>
+        <v>-24.87</v>
       </c>
     </row>
     <row r="2529">
@@ -40900,7 +40900,7 @@
         <v>0</v>
       </c>
       <c r="D2529" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="2530">
@@ -41012,7 +41012,7 @@
         <v>0</v>
       </c>
       <c r="D2536" t="n">
-        <v>0</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="2537">
@@ -41028,7 +41028,7 @@
         <v>0</v>
       </c>
       <c r="D2537" t="n">
-        <v>0</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="2538">
@@ -41060,7 +41060,7 @@
         <v>-8.4</v>
       </c>
       <c r="D2539" t="n">
-        <v>4.31</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="2540">
@@ -41156,7 +41156,7 @@
         <v>0</v>
       </c>
       <c r="D2545" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="2546">
@@ -41204,7 +41204,7 @@
         <v>-4.77</v>
       </c>
       <c r="D2548" t="n">
-        <v>-6.69</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="2549">
@@ -41396,7 +41396,7 @@
         <v>-21.09</v>
       </c>
       <c r="D2560" t="n">
-        <v>46.77</v>
+        <v>31.18</v>
       </c>
     </row>
     <row r="2561">
@@ -41476,7 +41476,7 @@
         <v>0</v>
       </c>
       <c r="D2565" t="n">
-        <v>0</v>
+        <v>-7.95</v>
       </c>
     </row>
     <row r="2566">
@@ -41700,7 +41700,7 @@
         <v>0</v>
       </c>
       <c r="D2579" t="n">
-        <v>0</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="2580">
@@ -41716,7 +41716,7 @@
         <v>2.28</v>
       </c>
       <c r="D2580" t="n">
-        <v>2.52</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="2581">
@@ -41972,7 +41972,7 @@
         <v>0</v>
       </c>
       <c r="D2596" t="n">
-        <v>0</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="2597">
@@ -42036,7 +42036,7 @@
         <v>0</v>
       </c>
       <c r="D2600" t="n">
-        <v>0</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="2601">
@@ -42052,7 +42052,7 @@
         <v>5.77</v>
       </c>
       <c r="D2601" t="n">
-        <v>-22.22</v>
+        <v>-27.49</v>
       </c>
     </row>
     <row r="2602">
@@ -42100,7 +42100,7 @@
         <v>-21.24</v>
       </c>
       <c r="D2604" t="n">
-        <v>26.97</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="2605">
@@ -42116,7 +42116,7 @@
         <v>-21.24</v>
       </c>
       <c r="D2605" t="n">
-        <v>26.97</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="2606">
@@ -42132,7 +42132,7 @@
         <v>-21.24</v>
       </c>
       <c r="D2606" t="n">
-        <v>26.97</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="2607">
@@ -42148,7 +42148,7 @@
         <v>-21.24</v>
       </c>
       <c r="D2607" t="n">
-        <v>26.97</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="2608">
@@ -42180,7 +42180,7 @@
         <v>0</v>
       </c>
       <c r="D2609" t="n">
-        <v>0</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="2610">
@@ -42196,7 +42196,7 @@
         <v>0</v>
       </c>
       <c r="D2610" t="n">
-        <v>2.39</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="2611">
@@ -42212,7 +42212,7 @@
         <v>0</v>
       </c>
       <c r="D2611" t="n">
-        <v>2.39</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="2612">
@@ -42228,7 +42228,7 @@
         <v>0</v>
       </c>
       <c r="D2612" t="n">
-        <v>24.4</v>
+        <v>18.29</v>
       </c>
     </row>
     <row r="2613">
@@ -42244,7 +42244,7 @@
         <v>0</v>
       </c>
       <c r="D2613" t="n">
-        <v>2.39</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="2614">
@@ -42308,7 +42308,7 @@
         <v>12.43</v>
       </c>
       <c r="D2617" t="n">
-        <v>2.78</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="2618">
@@ -42452,7 +42452,7 @@
         <v>-13.78</v>
       </c>
       <c r="D2626" t="n">
-        <v>15.98</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="2627">
@@ -42468,7 +42468,7 @@
         <v>-13.78</v>
       </c>
       <c r="D2627" t="n">
-        <v>15.98</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="2628">
@@ -42484,7 +42484,7 @@
         <v>-3.28</v>
       </c>
       <c r="D2628" t="n">
-        <v>3.39</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="2629">
@@ -42500,7 +42500,7 @@
         <v>-13.78</v>
       </c>
       <c r="D2629" t="n">
-        <v>15.98</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="2630">
@@ -42548,7 +42548,7 @@
         <v>-12.88</v>
       </c>
       <c r="D2632" t="n">
-        <v>14.79</v>
+        <v>8.110000000000001</v>
       </c>
     </row>
     <row r="2633">
@@ -42564,7 +42564,7 @@
         <v>-12.88</v>
       </c>
       <c r="D2633" t="n">
-        <v>14.79</v>
+        <v>8.110000000000001</v>
       </c>
     </row>
     <row r="2634">
@@ -42676,7 +42676,7 @@
         <v>0</v>
       </c>
       <c r="D2640" t="n">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="2641">
@@ -42724,7 +42724,7 @@
         <v>-6.64</v>
       </c>
       <c r="D2643" t="n">
-        <v>28.23</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="2644">
@@ -42980,7 +42980,7 @@
         <v>-2.9</v>
       </c>
       <c r="D2659" t="n">
-        <v>2.99</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="2660">
@@ -43844,7 +43844,7 @@
         <v>0</v>
       </c>
       <c r="D2713" t="n">
-        <v>0</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="2714">
@@ -44116,7 +44116,7 @@
         <v>1.54</v>
       </c>
       <c r="D2730" t="n">
-        <v>0</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="2731">
@@ -44228,7 +44228,7 @@
         <v>0</v>
       </c>
       <c r="D2737" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="2738">
@@ -44244,7 +44244,7 @@
         <v>0</v>
       </c>
       <c r="D2738" t="n">
-        <v>0</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="2739">
@@ -44276,7 +44276,7 @@
         <v>0</v>
       </c>
       <c r="D2740" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="2741">
@@ -44292,7 +44292,7 @@
         <v>0</v>
       </c>
       <c r="D2741" t="n">
-        <v>0</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="2742">
@@ -44324,7 +44324,7 @@
         <v>0</v>
       </c>
       <c r="D2743" t="n">
-        <v>0</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="2744">
@@ -44340,7 +44340,7 @@
         <v>0</v>
       </c>
       <c r="D2744" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="2745">
@@ -44356,7 +44356,7 @@
         <v>0</v>
       </c>
       <c r="D2745" t="n">
-        <v>0</v>
+        <v>14.54</v>
       </c>
     </row>
     <row r="2746">
@@ -44452,7 +44452,7 @@
         <v>-3.93</v>
       </c>
       <c r="D2751" t="n">
-        <v>-21.25</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="2752">
@@ -44612,7 +44612,7 @@
         <v>0</v>
       </c>
       <c r="D2761" t="n">
-        <v>0</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="2762">
@@ -44628,7 +44628,7 @@
         <v>0</v>
       </c>
       <c r="D2762" t="n">
-        <v>0</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="2763">
@@ -44644,7 +44644,7 @@
         <v>0</v>
       </c>
       <c r="D2763" t="n">
-        <v>0</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="2764">
@@ -44660,7 +44660,7 @@
         <v>8.02</v>
       </c>
       <c r="D2764" t="n">
-        <v>2.89</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="2765">
@@ -44676,7 +44676,7 @@
         <v>8.02</v>
       </c>
       <c r="D2765" t="n">
-        <v>2.89</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="2766">
@@ -44692,7 +44692,7 @@
         <v>8.02</v>
       </c>
       <c r="D2766" t="n">
-        <v>2.89</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="2767">
@@ -44708,7 +44708,7 @@
         <v>8.02</v>
       </c>
       <c r="D2767" t="n">
-        <v>2.89</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="2768">
@@ -44724,7 +44724,7 @@
         <v>8.02</v>
       </c>
       <c r="D2768" t="n">
-        <v>2.89</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="2769">
@@ -44740,7 +44740,7 @@
         <v>8.02</v>
       </c>
       <c r="D2769" t="n">
-        <v>2.89</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="2770">
@@ -44756,7 +44756,7 @@
         <v>8.02</v>
       </c>
       <c r="D2770" t="n">
-        <v>2.89</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="2771">
@@ -44932,7 +44932,7 @@
         <v>0</v>
       </c>
       <c r="D2781" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="2782">
@@ -45556,7 +45556,7 @@
         <v>-9.56</v>
       </c>
       <c r="D2820" t="n">
-        <v>-5.79</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="2821">
@@ -45572,7 +45572,7 @@
         <v>1.74</v>
       </c>
       <c r="D2821" t="n">
-        <v>0</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="2822">
@@ -45732,7 +45732,7 @@
         <v>7.61</v>
       </c>
       <c r="D2831" t="n">
-        <v>11.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="2832">
@@ -45860,7 +45860,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="D2839" t="n">
-        <v>-13.78</v>
+        <v>-10.9</v>
       </c>
     </row>
     <row r="2840">
@@ -46228,7 +46228,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="D2862" t="n">
-        <v>0.67</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="2863">
@@ -46244,7 +46244,7 @@
         <v>1.17</v>
       </c>
       <c r="D2863" t="n">
-        <v>-15.38</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="2864">
@@ -46356,7 +46356,7 @@
         <v>-2</v>
       </c>
       <c r="D2870" t="n">
-        <v>0</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="2871">
@@ -46372,7 +46372,7 @@
         <v>0</v>
       </c>
       <c r="D2871" t="n">
-        <v>0</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="2872">
@@ -46388,7 +46388,7 @@
         <v>0.47</v>
       </c>
       <c r="D2872" t="n">
-        <v>15.52</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="2873">
@@ -46452,7 +46452,7 @@
         <v>4.79</v>
       </c>
       <c r="D2876" t="n">
-        <v>3.93</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="2877">
@@ -46468,7 +46468,7 @@
         <v>0</v>
       </c>
       <c r="D2877" t="n">
-        <v>0</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="2878">
@@ -46580,7 +46580,7 @@
         <v>4.68</v>
       </c>
       <c r="D2884" t="n">
-        <v>1.92</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="2885">
@@ -46596,7 +46596,7 @@
         <v>-0.75</v>
       </c>
       <c r="D2885" t="n">
-        <v>0</v>
+        <v>-23.31</v>
       </c>
     </row>
     <row r="2886">
@@ -46772,7 +46772,7 @@
         <v>0</v>
       </c>
       <c r="D2896" t="n">
-        <v>0</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="2897">
@@ -47124,7 +47124,7 @@
         <v>13.91</v>
       </c>
       <c r="D2918" t="n">
-        <v>0</v>
+        <v>-14.21</v>
       </c>
     </row>
     <row r="2919">
@@ -47508,7 +47508,7 @@
         <v>-2.11</v>
       </c>
       <c r="D2942" t="n">
-        <v>-0.8099999999999999</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="2943">
@@ -47572,7 +47572,7 @@
         <v>-6.09</v>
       </c>
       <c r="D2946" t="n">
-        <v>-17.59</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="2947">
@@ -47636,7 +47636,7 @@
         <v>0</v>
       </c>
       <c r="D2950" t="n">
-        <v>0</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="2951">
@@ -47652,7 +47652,7 @@
         <v>0</v>
       </c>
       <c r="D2951" t="n">
-        <v>0</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="2952">
@@ -47748,7 +47748,7 @@
         <v>0</v>
       </c>
       <c r="D2957" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="2958">
@@ -47924,7 +47924,7 @@
         <v>0</v>
       </c>
       <c r="D2968" t="n">
-        <v>0</v>
+        <v>-27.52</v>
       </c>
     </row>
     <row r="2969">
@@ -48100,7 +48100,7 @@
         <v>0</v>
       </c>
       <c r="D2979" t="n">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="2980">
@@ -48116,7 +48116,7 @@
         <v>0</v>
       </c>
       <c r="D2980" t="n">
-        <v>0</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="2981">
@@ -48180,7 +48180,7 @@
         <v>0</v>
       </c>
       <c r="D2984" t="n">
-        <v>30.82</v>
+        <v>20.57</v>
       </c>
     </row>
     <row r="2985">
@@ -48308,7 +48308,7 @@
         <v>6.35</v>
       </c>
       <c r="D2992" t="n">
-        <v>35.94</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="2993">
@@ -48340,7 +48340,7 @@
         <v>26.91</v>
       </c>
       <c r="D2994" t="n">
-        <v>13.91</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="2995">
@@ -48628,7 +48628,7 @@
         <v>0</v>
       </c>
       <c r="D3012" t="n">
-        <v>0</v>
+        <v>-24.32</v>
       </c>
     </row>
     <row r="3013">
@@ -48660,7 +48660,7 @@
         <v>0</v>
       </c>
       <c r="D3014" t="n">
-        <v>0</v>
+        <v>-11.1</v>
       </c>
     </row>
     <row r="3015">
@@ -48676,7 +48676,7 @@
         <v>-7.779999999999999</v>
       </c>
       <c r="D3015" t="n">
-        <v>8.44</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="3016">
@@ -48724,7 +48724,7 @@
         <v>0</v>
       </c>
       <c r="D3018" t="n">
-        <v>0</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="3019">
@@ -48932,7 +48932,7 @@
         <v>3.99</v>
       </c>
       <c r="D3031" t="n">
-        <v>0</v>
+        <v>-13.94</v>
       </c>
     </row>
     <row r="3032">
@@ -48964,7 +48964,7 @@
         <v>5.67</v>
       </c>
       <c r="D3033" t="n">
-        <v>-10.73</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="3034">
@@ -49412,7 +49412,7 @@
         <v>0</v>
       </c>
       <c r="D3061" t="n">
-        <v>0</v>
+        <v>-7.870000000000001</v>
       </c>
     </row>
     <row r="3062">
@@ -49492,7 +49492,7 @@
         <v>0</v>
       </c>
       <c r="D3066" t="n">
-        <v>0</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="3067">
@@ -49508,7 +49508,7 @@
         <v>0</v>
       </c>
       <c r="D3067" t="n">
-        <v>0</v>
+        <v>-8.359999999999999</v>
       </c>
     </row>
     <row r="3068">
@@ -49524,7 +49524,7 @@
         <v>-20.47</v>
       </c>
       <c r="D3068" t="n">
-        <v>25.74</v>
+        <v>24.44</v>
       </c>
     </row>
     <row r="3069">
@@ -49556,7 +49556,7 @@
         <v>0</v>
       </c>
       <c r="D3070" t="n">
-        <v>0</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="3071">
@@ -49572,7 +49572,7 @@
         <v>0</v>
       </c>
       <c r="D3071" t="n">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="3072">
@@ -49588,7 +49588,7 @@
         <v>-5.42</v>
       </c>
       <c r="D3072" t="n">
-        <v>-15.58</v>
+        <v>-18.74</v>
       </c>
     </row>
     <row r="3073">
@@ -49652,7 +49652,7 @@
         <v>-1.53</v>
       </c>
       <c r="D3076" t="n">
-        <v>-0.52</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3077">
@@ -49924,7 +49924,7 @@
         <v>0</v>
       </c>
       <c r="D3093" t="n">
-        <v>0</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="3094">
@@ -49956,7 +49956,7 @@
         <v>0</v>
       </c>
       <c r="D3095" t="n">
-        <v>0</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="3096">
@@ -50020,7 +50020,7 @@
         <v>0</v>
       </c>
       <c r="D3099" t="n">
-        <v>0</v>
+        <v>-26.79</v>
       </c>
     </row>
     <row r="3100">
@@ -50116,7 +50116,7 @@
         <v>0</v>
       </c>
       <c r="D3105" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="3106">
@@ -50612,7 +50612,7 @@
         <v>-1.56</v>
       </c>
       <c r="D3136" t="n">
-        <v>-10.31</v>
+        <v>-10.27</v>
       </c>
     </row>
     <row r="3137">
@@ -50628,7 +50628,7 @@
         <v>-0.19</v>
       </c>
       <c r="D3137" t="n">
-        <v>0</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="3138">
@@ -50644,7 +50644,7 @@
         <v>-0.25</v>
       </c>
       <c r="D3138" t="n">
-        <v>0</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="3139">
@@ -50756,7 +50756,7 @@
         <v>5.09</v>
       </c>
       <c r="D3145" t="n">
-        <v>0</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="3146">
@@ -50772,7 +50772,7 @@
         <v>7.46</v>
       </c>
       <c r="D3146" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="3147">
@@ -50820,7 +50820,7 @@
         <v>0</v>
       </c>
       <c r="D3149" t="n">
-        <v>0</v>
+        <v>6.710000000000001</v>
       </c>
     </row>
     <row r="3150">
@@ -50964,7 +50964,7 @@
         <v>0</v>
       </c>
       <c r="D3158" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="3159">
@@ -51060,7 +51060,7 @@
         <v>0</v>
       </c>
       <c r="D3164" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3165">
@@ -51076,7 +51076,7 @@
         <v>0</v>
       </c>
       <c r="D3165" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="3166">
@@ -51140,7 +51140,7 @@
         <v>0</v>
       </c>
       <c r="D3169" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="3170">
@@ -51380,7 +51380,7 @@
         <v>-12.43</v>
       </c>
       <c r="D3184" t="n">
-        <v>-6.08</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="3185">
@@ -51396,7 +51396,7 @@
         <v>-12.03</v>
       </c>
       <c r="D3185" t="n">
-        <v>0</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="3186">
@@ -51412,7 +51412,7 @@
         <v>-0.77</v>
       </c>
       <c r="D3186" t="n">
-        <v>0</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="3187">
@@ -51764,7 +51764,7 @@
         <v>41.84</v>
       </c>
       <c r="D3208" t="n">
-        <v>11.51</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="3209">
@@ -52804,7 +52804,7 @@
         <v>7.27</v>
       </c>
       <c r="D3273" t="n">
-        <v>0</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="3274">
@@ -52820,7 +52820,7 @@
         <v>0</v>
       </c>
       <c r="D3274" t="n">
-        <v>0</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="3275">
@@ -52836,7 +52836,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D3275" t="n">
-        <v>0</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="3276">
@@ -53028,7 +53028,7 @@
         <v>0</v>
       </c>
       <c r="D3287" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="3288">
@@ -53316,7 +53316,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="D3305" t="n">
-        <v>17.2</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="3306">
@@ -53332,7 +53332,7 @@
         <v>0</v>
       </c>
       <c r="D3306" t="n">
-        <v>20.68</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="3307">
@@ -53364,7 +53364,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="D3308" t="n">
-        <v>17.2</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="3309">
@@ -53380,7 +53380,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="D3309" t="n">
-        <v>17.2</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="3310">
@@ -53492,7 +53492,7 @@
         <v>0</v>
       </c>
       <c r="D3316" t="n">
-        <v>0</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="3317">
@@ -53604,7 +53604,7 @@
         <v>26.78</v>
       </c>
       <c r="D3323" t="n">
-        <v>8.390000000000001</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="3324">
@@ -53652,7 +53652,7 @@
         <v>-1.97</v>
       </c>
       <c r="D3326" t="n">
-        <v>0</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="3327">
@@ -53748,7 +53748,7 @@
         <v>-3.06</v>
       </c>
       <c r="D3332" t="n">
-        <v>-13.56</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="3333">
@@ -53828,7 +53828,7 @@
         <v>2.98</v>
       </c>
       <c r="D3337" t="n">
-        <v>-7.44</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="3338">
@@ -53892,7 +53892,7 @@
         <v>-14.18</v>
       </c>
       <c r="D3341" t="n">
-        <v>-24.38</v>
+        <v>-15.77</v>
       </c>
     </row>
     <row r="3342">
@@ -53924,7 +53924,7 @@
         <v>-13.27</v>
       </c>
       <c r="D3343" t="n">
-        <v>-6.15</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="3344">
@@ -53940,7 +53940,7 @@
         <v>-3.67</v>
       </c>
       <c r="D3344" t="n">
-        <v>-2.54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3345">
@@ -53972,7 +53972,7 @@
         <v>-0.3</v>
       </c>
       <c r="D3346" t="n">
-        <v>-17.94</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="3347">
@@ -54052,7 +54052,7 @@
         <v>-6.06</v>
       </c>
       <c r="D3351" t="n">
-        <v>0</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="3352">
@@ -54068,7 +54068,7 @@
         <v>0</v>
       </c>
       <c r="D3352" t="n">
-        <v>0</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="3353">
@@ -54100,7 +54100,7 @@
         <v>-13.64</v>
       </c>
       <c r="D3354" t="n">
-        <v>-3.86</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3355">
@@ -54164,7 +54164,7 @@
         <v>0</v>
       </c>
       <c r="D3358" t="n">
-        <v>0</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="3359">
@@ -54436,7 +54436,7 @@
         <v>-13.99</v>
       </c>
       <c r="D3375" t="n">
-        <v>16.26</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="3376">
@@ -54452,7 +54452,7 @@
         <v>-41.77</v>
       </c>
       <c r="D3376" t="n">
-        <v>71.74000000000001</v>
+        <v>56.52</v>
       </c>
     </row>
     <row r="3377">
@@ -54468,7 +54468,7 @@
         <v>-13.99</v>
       </c>
       <c r="D3377" t="n">
-        <v>16.26</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="3378">
@@ -54484,7 +54484,7 @@
         <v>-36.71</v>
       </c>
       <c r="D3378" t="n">
-        <v>57.99999999999999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3379">
@@ -54500,7 +54500,7 @@
         <v>-17.58</v>
       </c>
       <c r="D3379" t="n">
-        <v>21.33</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="3380">
@@ -54516,7 +54516,7 @@
         <v>-13.99</v>
       </c>
       <c r="D3380" t="n">
-        <v>16.26</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="3381">
@@ -54532,7 +54532,7 @@
         <v>-41.77</v>
       </c>
       <c r="D3381" t="n">
-        <v>71.74000000000001</v>
+        <v>56.52</v>
       </c>
     </row>
     <row r="3382">
@@ -54548,7 +54548,7 @@
         <v>-13.99</v>
       </c>
       <c r="D3382" t="n">
-        <v>16.26</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="3383">
@@ -54564,7 +54564,7 @@
         <v>-41.77</v>
       </c>
       <c r="D3383" t="n">
-        <v>71.74000000000001</v>
+        <v>56.52</v>
       </c>
     </row>
     <row r="3384">
@@ -54612,7 +54612,7 @@
         <v>-19.1</v>
       </c>
       <c r="D3386" t="n">
-        <v>23.61</v>
+        <v>18.06</v>
       </c>
     </row>
     <row r="3387">
@@ -54932,7 +54932,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3406" t="n">
-        <v>20.73</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3407">
@@ -54948,7 +54948,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3407" t="n">
-        <v>20.73</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3408">
@@ -54964,7 +54964,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3408" t="n">
-        <v>20.73</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3409">
@@ -54980,7 +54980,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3409" t="n">
-        <v>20.73</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3410">
@@ -54996,7 +54996,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3410" t="n">
-        <v>20.73</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3411">
@@ -55012,7 +55012,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3411" t="n">
-        <v>20.73</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3412">
@@ -55028,7 +55028,7 @@
         <v>6.01</v>
       </c>
       <c r="D3412" t="n">
-        <v>-9.44</v>
+        <v>-6.890000000000001</v>
       </c>
     </row>
     <row r="3413">
@@ -55044,7 +55044,7 @@
         <v>5.31</v>
       </c>
       <c r="D3413" t="n">
-        <v>-8.84</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="3414">
@@ -55060,7 +55060,7 @@
         <v>0</v>
       </c>
       <c r="D3414" t="n">
-        <v>-19.02</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="3415">
@@ -55076,7 +55076,7 @@
         <v>0</v>
       </c>
       <c r="D3415" t="n">
-        <v>-21.2</v>
+        <v>-14.04</v>
       </c>
     </row>
     <row r="3416">
@@ -55092,7 +55092,7 @@
         <v>6.29</v>
       </c>
       <c r="D3416" t="n">
-        <v>-14.2</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="3417">
@@ -55140,7 +55140,7 @@
         <v>0</v>
       </c>
       <c r="D3419" t="n">
-        <v>-13.79</v>
+        <v>-9.09</v>
       </c>
     </row>
     <row r="3420">
@@ -55156,7 +55156,7 @@
         <v>0</v>
       </c>
       <c r="D3420" t="n">
-        <v>-14.63</v>
+        <v>-9.76</v>
       </c>
     </row>
     <row r="3421">
@@ -55172,7 +55172,7 @@
         <v>2.86</v>
       </c>
       <c r="D3421" t="n">
-        <v>-7.969999999999999</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="3422">
@@ -55188,7 +55188,7 @@
         <v>8.18</v>
       </c>
       <c r="D3422" t="n">
-        <v>-15.7</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="3423">
@@ -55268,7 +55268,7 @@
         <v>-6.859999999999999</v>
       </c>
       <c r="D3427" t="n">
-        <v>-9.82</v>
+        <v>-11.66</v>
       </c>
     </row>
     <row r="3428">
@@ -55300,7 +55300,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="D3429" t="n">
-        <v>10.71</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="3430">
@@ -55316,7 +55316,7 @@
         <v>-11.55</v>
       </c>
       <c r="D3430" t="n">
-        <v>13.05</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="3431">
@@ -55348,7 +55348,7 @@
         <v>-2.65</v>
       </c>
       <c r="D3432" t="n">
-        <v>12.43</v>
+        <v>7.180000000000001</v>
       </c>
     </row>
     <row r="3433">
@@ -55364,7 +55364,7 @@
         <v>-1.9</v>
       </c>
       <c r="D3433" t="n">
-        <v>12.43</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3434">
@@ -55380,7 +55380,7 @@
         <v>-8.1</v>
       </c>
       <c r="D3434" t="n">
-        <v>10.92</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="3435">
@@ -55476,7 +55476,7 @@
         <v>4.34</v>
       </c>
       <c r="D3440" t="n">
-        <v>-4.16</v>
+        <v>-7.359999999999999</v>
       </c>
     </row>
     <row r="3441">
@@ -55636,7 +55636,7 @@
         <v>-2.28</v>
       </c>
       <c r="D3450" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3451">
@@ -55652,7 +55652,7 @@
         <v>-2.28</v>
       </c>
       <c r="D3451" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3452">
@@ -55668,7 +55668,7 @@
         <v>-3.41</v>
       </c>
       <c r="D3452" t="n">
-        <v>3.53</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="3453">
@@ -55684,7 +55684,7 @@
         <v>-1.02</v>
       </c>
       <c r="D3453" t="n">
-        <v>1.03</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3454">
@@ -55700,7 +55700,7 @@
         <v>-12.43</v>
       </c>
       <c r="D3454" t="n">
-        <v>-6.08</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="3455">
@@ -55732,7 +55732,7 @@
         <v>-2.28</v>
       </c>
       <c r="D3456" t="n">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3457">
@@ -55764,7 +55764,7 @@
         <v>0</v>
       </c>
       <c r="D3458" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="3459">
@@ -55780,7 +55780,7 @@
         <v>0</v>
       </c>
       <c r="D3459" t="n">
-        <v>0</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="3460">
@@ -56148,7 +56148,7 @@
         <v>-8.81</v>
       </c>
       <c r="D3482" t="n">
-        <v>2.76</v>
+        <v>-11.03</v>
       </c>
     </row>
     <row r="3483">
@@ -56372,7 +56372,7 @@
         <v>0</v>
       </c>
       <c r="D3496" t="n">
-        <v>0</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="3497">
@@ -56388,7 +56388,7 @@
         <v>0</v>
       </c>
       <c r="D3497" t="n">
-        <v>0</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="3498">
@@ -57652,7 +57652,7 @@
         <v>2.74</v>
       </c>
       <c r="D3576" t="n">
-        <v>0</v>
+        <v>-11.11</v>
       </c>
     </row>
     <row r="3577">
@@ -57684,7 +57684,7 @@
         <v>-26.64</v>
       </c>
       <c r="D3578" t="n">
-        <v>-6.13</v>
+        <v>33.02</v>
       </c>
     </row>
     <row r="3579">
@@ -57860,7 +57860,7 @@
         <v>0</v>
       </c>
       <c r="D3589" t="n">
-        <v>0</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="3590">
@@ -57876,7 +57876,7 @@
         <v>0</v>
       </c>
       <c r="D3590" t="n">
-        <v>0</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="3591">
@@ -57892,7 +57892,7 @@
         <v>4.95</v>
       </c>
       <c r="D3591" t="n">
-        <v>0</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="3592">
@@ -57908,7 +57908,7 @@
         <v>4.95</v>
       </c>
       <c r="D3592" t="n">
-        <v>0</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="3593">
@@ -57940,7 +57940,7 @@
         <v>27.62</v>
       </c>
       <c r="D3594" t="n">
-        <v>4.100000000000001</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="3595">
@@ -57956,7 +57956,7 @@
         <v>20.72</v>
       </c>
       <c r="D3595" t="n">
-        <v>4.100000000000001</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="3596">
@@ -57972,7 +57972,7 @@
         <v>27.62</v>
       </c>
       <c r="D3596" t="n">
-        <v>4.100000000000001</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="3597">
@@ -58004,7 +58004,7 @@
         <v>-3.76</v>
       </c>
       <c r="D3598" t="n">
-        <v>-7.03</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="3599">
@@ -58020,7 +58020,7 @@
         <v>-6.02</v>
       </c>
       <c r="D3599" t="n">
-        <v>-4.8</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3600">
@@ -58100,7 +58100,7 @@
         <v>-1.11</v>
       </c>
       <c r="D3604" t="n">
-        <v>0</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="3605">
@@ -58308,7 +58308,7 @@
         <v>0</v>
       </c>
       <c r="D3617" t="n">
-        <v>0</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="3618">
@@ -58580,7 +58580,7 @@
         <v>-7.91</v>
       </c>
       <c r="D3634" t="n">
-        <v>-6.329999999999999</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="3635">
@@ -58628,7 +58628,7 @@
         <v>4.12</v>
       </c>
       <c r="D3637" t="n">
-        <v>0</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="3638">
@@ -58660,7 +58660,7 @@
         <v>5.86</v>
       </c>
       <c r="D3639" t="n">
-        <v>-1.64</v>
+        <v>-10.82</v>
       </c>
     </row>
     <row r="3640">
@@ -58676,7 +58676,7 @@
         <v>15.18</v>
       </c>
       <c r="D3640" t="n">
-        <v>3.54</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="3641">
@@ -58692,7 +58692,7 @@
         <v>-10.01</v>
       </c>
       <c r="D3641" t="n">
-        <v>-1.38</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="3642">
@@ -58916,7 +58916,7 @@
         <v>-17.49</v>
       </c>
       <c r="D3655" t="n">
-        <v>21.2</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="3656">
@@ -59156,7 +59156,7 @@
         <v>-3.63</v>
       </c>
       <c r="D3670" t="n">
-        <v>3.77</v>
+        <v>-4.81</v>
       </c>
     </row>
     <row r="3671">
@@ -59188,7 +59188,7 @@
         <v>-7.01</v>
       </c>
       <c r="D3672" t="n">
-        <v>0</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="3673">
@@ -59300,7 +59300,7 @@
         <v>1.45</v>
       </c>
       <c r="D3679" t="n">
-        <v>-0.8699999999999999</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="3680">
@@ -59348,7 +59348,7 @@
         <v>0</v>
       </c>
       <c r="D3682" t="n">
-        <v>0</v>
+        <v>-9.710000000000001</v>
       </c>
     </row>
     <row r="3683">
@@ -59364,7 +59364,7 @@
         <v>6.35</v>
       </c>
       <c r="D3683" t="n">
-        <v>-15.67</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="3684">
@@ -59380,7 +59380,7 @@
         <v>0</v>
       </c>
       <c r="D3684" t="n">
-        <v>0</v>
+        <v>-9.710000000000001</v>
       </c>
     </row>
     <row r="3685">
@@ -59396,7 +59396,7 @@
         <v>-6.81</v>
       </c>
       <c r="D3685" t="n">
-        <v>7.31</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="3686">
@@ -59428,7 +59428,7 @@
         <v>-13.16</v>
       </c>
       <c r="D3687" t="n">
-        <v>15.16</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="3688">
@@ -59620,7 +59620,7 @@
         <v>0</v>
       </c>
       <c r="D3699" t="n">
-        <v>0</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="3700">
@@ -59636,7 +59636,7 @@
         <v>0</v>
       </c>
       <c r="D3700" t="n">
-        <v>0</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="3701">
@@ -59652,7 +59652,7 @@
         <v>0</v>
       </c>
       <c r="D3701" t="n">
-        <v>0</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="3702">
@@ -59684,7 +59684,7 @@
         <v>0</v>
       </c>
       <c r="D3703" t="n">
-        <v>0</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="3704">
@@ -59700,7 +59700,7 @@
         <v>0</v>
       </c>
       <c r="D3704" t="n">
-        <v>0</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="3705">
@@ -60372,7 +60372,7 @@
         <v>0</v>
       </c>
       <c r="D3746" t="n">
-        <v>0</v>
+        <v>-8.290000000000001</v>
       </c>
     </row>
     <row r="3747">
@@ -60468,7 +60468,7 @@
         <v>0</v>
       </c>
       <c r="D3752" t="n">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="3753">
@@ -60484,7 +60484,7 @@
         <v>0</v>
       </c>
       <c r="D3753" t="n">
-        <v>0</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="3754">
@@ -60612,7 +60612,7 @@
         <v>13.08</v>
       </c>
       <c r="D3761" t="n">
-        <v>-16.93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3762">
@@ -60692,7 +60692,7 @@
         <v>4.88</v>
       </c>
       <c r="D3766" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3767">
@@ -60708,7 +60708,7 @@
         <v>4.88</v>
       </c>
       <c r="D3767" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3768">
@@ -60852,7 +60852,7 @@
         <v>-10.9</v>
       </c>
       <c r="D3776" t="n">
-        <v>-1.57</v>
+        <v>12.02</v>
       </c>
     </row>
     <row r="3777">
@@ -60916,7 +60916,7 @@
         <v>9.68</v>
       </c>
       <c r="D3780" t="n">
-        <v>-24.55</v>
+        <v>-17.39</v>
       </c>
     </row>
     <row r="3781">
@@ -61076,7 +61076,7 @@
         <v>-2.55</v>
       </c>
       <c r="D3790" t="n">
-        <v>-6.73</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="3791">
@@ -61556,7 +61556,7 @@
         <v>19.46</v>
       </c>
       <c r="D3820" t="n">
-        <v>2.9</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="3821">
@@ -61572,7 +61572,7 @@
         <v>20.08</v>
       </c>
       <c r="D3821" t="n">
-        <v>2.9</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="3822">
@@ -61588,7 +61588,7 @@
         <v>16.89</v>
       </c>
       <c r="D3822" t="n">
-        <v>2.9</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="3823">
@@ -61604,7 +61604,7 @@
         <v>24.88</v>
       </c>
       <c r="D3823" t="n">
-        <v>15.81</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3824">
@@ -61684,7 +61684,7 @@
         <v>0</v>
       </c>
       <c r="D3828" t="n">
-        <v>0</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="3829">
@@ -61700,7 +61700,7 @@
         <v>0</v>
       </c>
       <c r="D3829" t="n">
-        <v>0</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="3830">
@@ -61844,7 +61844,7 @@
         <v>13.46</v>
       </c>
       <c r="D3838" t="n">
-        <v>4.71</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="3839">
@@ -62020,7 +62020,7 @@
         <v>0</v>
       </c>
       <c r="D3849" t="n">
-        <v>3.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3850">
@@ -62564,7 +62564,7 @@
         <v>-7.85</v>
       </c>
       <c r="D3883" t="n">
-        <v>8.51</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="3884">
@@ -62724,7 +62724,7 @@
         <v>-10.75</v>
       </c>
       <c r="D3893" t="n">
-        <v>12.05</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="3894">
@@ -62756,7 +62756,7 @@
         <v>-10.99</v>
       </c>
       <c r="D3895" t="n">
-        <v>14.83</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3896">
@@ -62772,7 +62772,7 @@
         <v>1.24</v>
       </c>
       <c r="D3896" t="n">
-        <v>7.12</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="3897">
@@ -63412,7 +63412,7 @@
         <v>-12.93</v>
       </c>
       <c r="D3936" t="n">
-        <v>14.85</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="3937">
@@ -63428,7 +63428,7 @@
         <v>-12.93</v>
       </c>
       <c r="D3937" t="n">
-        <v>14.85</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="3938">
@@ -63444,7 +63444,7 @@
         <v>-12.93</v>
       </c>
       <c r="D3938" t="n">
-        <v>14.85</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="3939">
@@ -63860,7 +63860,7 @@
         <v>0</v>
       </c>
       <c r="D3964" t="n">
-        <v>0</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="3965">
@@ -63924,7 +63924,7 @@
         <v>3.19</v>
       </c>
       <c r="D3968" t="n">
-        <v>0</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="3969">
@@ -63940,7 +63940,7 @@
         <v>3.19</v>
       </c>
       <c r="D3969" t="n">
-        <v>0</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="3970">
@@ -63956,7 +63956,7 @@
         <v>3.19</v>
       </c>
       <c r="D3970" t="n">
-        <v>0</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="3971">
@@ -63972,7 +63972,7 @@
         <v>6.510000000000001</v>
       </c>
       <c r="D3971" t="n">
-        <v>0</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="3972">
@@ -63988,7 +63988,7 @@
         <v>-7.69</v>
       </c>
       <c r="D3972" t="n">
-        <v>-19.79</v>
+        <v>-14.58</v>
       </c>
     </row>
     <row r="3973">
@@ -64196,7 +64196,7 @@
         <v>0</v>
       </c>
       <c r="D3985" t="n">
-        <v>0</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="3986">
@@ -64436,7 +64436,7 @@
         <v>3.87</v>
       </c>
       <c r="D4000" t="n">
-        <v>0</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="4001">
@@ -64964,7 +64964,7 @@
         <v>6.97</v>
       </c>
       <c r="D4033" t="n">
-        <v>44.28</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="4034">
@@ -64980,7 +64980,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4034" t="n">
-        <v>117.09</v>
+        <v>60.52999999999999</v>
       </c>
     </row>
     <row r="4035">
@@ -64996,7 +64996,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4035" t="n">
-        <v>117.09</v>
+        <v>60.52999999999999</v>
       </c>
     </row>
     <row r="4036">
@@ -65012,7 +65012,7 @@
         <v>-25.98</v>
       </c>
       <c r="D4036" t="n">
-        <v>97.35000000000001</v>
+        <v>54.04</v>
       </c>
     </row>
     <row r="4037">
@@ -65028,7 +65028,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4037" t="n">
-        <v>117.09</v>
+        <v>60.52999999999999</v>
       </c>
     </row>
     <row r="4038">
@@ -65044,7 +65044,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4038" t="n">
-        <v>117.09</v>
+        <v>60.52999999999999</v>
       </c>
     </row>
     <row r="4039">
@@ -65060,7 +65060,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4039" t="n">
-        <v>117.09</v>
+        <v>60.52999999999999</v>
       </c>
     </row>
     <row r="4040">
@@ -65076,7 +65076,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4040" t="n">
-        <v>117.09</v>
+        <v>60.52999999999999</v>
       </c>
     </row>
     <row r="4041">
@@ -65380,7 +65380,7 @@
         <v>4.44</v>
       </c>
       <c r="D4059" t="n">
-        <v>3.17</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="4060">
@@ -65412,7 +65412,7 @@
         <v>0</v>
       </c>
       <c r="D4061" t="n">
-        <v>0</v>
+        <v>31.74</v>
       </c>
     </row>
     <row r="4062">
@@ -65476,7 +65476,7 @@
         <v>-16.24</v>
       </c>
       <c r="D4065" t="n">
-        <v>36.12</v>
+        <v>26.01</v>
       </c>
     </row>
     <row r="4066">
@@ -65492,7 +65492,7 @@
         <v>12.63</v>
       </c>
       <c r="D4066" t="n">
-        <v>67.08</v>
+        <v>56.94</v>
       </c>
     </row>
     <row r="4067">
@@ -65636,7 +65636,7 @@
         <v>0</v>
       </c>
       <c r="D4075" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4076">
@@ -65652,7 +65652,7 @@
         <v>-9.42</v>
       </c>
       <c r="D4076" t="n">
-        <v>4.05</v>
+        <v>5.779999999999999</v>
       </c>
     </row>
     <row r="4077">
@@ -65828,7 +65828,7 @@
         <v>-9.180000000000001</v>
       </c>
       <c r="D4087" t="n">
-        <v>-23.77</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="4088">
@@ -65844,7 +65844,7 @@
         <v>-7.049999999999999</v>
       </c>
       <c r="D4088" t="n">
-        <v>-18.66</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="4089">
@@ -65876,7 +65876,7 @@
         <v>0</v>
       </c>
       <c r="D4090" t="n">
-        <v>0</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="4091">
@@ -66004,7 +66004,7 @@
         <v>0</v>
       </c>
       <c r="D4098" t="n">
-        <v>6.16</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="4099">
@@ -66084,7 +66084,7 @@
         <v>-10.46</v>
       </c>
       <c r="D4103" t="n">
-        <v>11.68</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4104">
@@ -67524,7 +67524,7 @@
         <v>0</v>
       </c>
       <c r="D4193" t="n">
-        <v>5.28</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="4194">
@@ -67540,7 +67540,7 @@
         <v>0</v>
       </c>
       <c r="D4194" t="n">
-        <v>5.28</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="4195">
@@ -67652,7 +67652,7 @@
         <v>-4.77</v>
       </c>
       <c r="D4201" t="n">
-        <v>5.01</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="4202">
@@ -67668,7 +67668,7 @@
         <v>-4.77</v>
       </c>
       <c r="D4202" t="n">
-        <v>5.01</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="4203">
@@ -67716,7 +67716,7 @@
         <v>0</v>
       </c>
       <c r="D4205" t="n">
-        <v>5.27</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4206">
@@ -67812,7 +67812,7 @@
         <v>0</v>
       </c>
       <c r="D4211" t="n">
-        <v>3.18</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="4212">
@@ -67828,7 +67828,7 @@
         <v>0</v>
       </c>
       <c r="D4212" t="n">
-        <v>3.18</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="4213">
@@ -67844,7 +67844,7 @@
         <v>0</v>
       </c>
       <c r="D4213" t="n">
-        <v>3.18</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="4214">
@@ -67924,7 +67924,7 @@
         <v>0</v>
       </c>
       <c r="D4218" t="n">
-        <v>12.02</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="4219">
@@ -67940,7 +67940,7 @@
         <v>0</v>
       </c>
       <c r="D4219" t="n">
-        <v>12.02</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="4220">
@@ -67956,7 +67956,7 @@
         <v>0</v>
       </c>
       <c r="D4220" t="n">
-        <v>12.02</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="4221">
@@ -67972,7 +67972,7 @@
         <v>0</v>
       </c>
       <c r="D4221" t="n">
-        <v>12.02</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="4222">
@@ -68004,7 +68004,7 @@
         <v>0</v>
       </c>
       <c r="D4223" t="n">
-        <v>15.44</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="4224">
@@ -68180,7 +68180,7 @@
         <v>3.76</v>
       </c>
       <c r="D4234" t="n">
-        <v>25.6</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="4235">
@@ -68196,7 +68196,7 @@
         <v>4.34</v>
       </c>
       <c r="D4235" t="n">
-        <v>24.9</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="4236">
@@ -68228,7 +68228,7 @@
         <v>0</v>
       </c>
       <c r="D4237" t="n">
-        <v>30.32</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="4238">
@@ -68244,7 +68244,7 @@
         <v>0</v>
       </c>
       <c r="D4238" t="n">
-        <v>30.32</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="4239">
@@ -68388,7 +68388,7 @@
         <v>0</v>
       </c>
       <c r="D4247" t="n">
-        <v>8.129999999999999</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4248">
@@ -68420,7 +68420,7 @@
         <v>0</v>
       </c>
       <c r="D4249" t="n">
-        <v>8.129999999999999</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4250">
@@ -68436,7 +68436,7 @@
         <v>0</v>
       </c>
       <c r="D4250" t="n">
-        <v>8.129999999999999</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4251">
@@ -68644,7 +68644,7 @@
         <v>0</v>
       </c>
       <c r="D4263" t="n">
-        <v>-3.34</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="4264">
@@ -68660,7 +68660,7 @@
         <v>0</v>
       </c>
       <c r="D4264" t="n">
-        <v>-3.34</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="4265">
@@ -68916,7 +68916,7 @@
         <v>0</v>
       </c>
       <c r="D4280" t="n">
-        <v>13.38</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="4281">
@@ -69668,7 +69668,7 @@
         <v>0</v>
       </c>
       <c r="D4327" t="n">
-        <v>7.16</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4328">
@@ -69700,7 +69700,7 @@
         <v>0</v>
       </c>
       <c r="D4329" t="n">
-        <v>7.16</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4330">
@@ -69716,7 +69716,7 @@
         <v>0</v>
       </c>
       <c r="D4330" t="n">
-        <v>7.16</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4331">
@@ -69732,7 +69732,7 @@
         <v>0</v>
       </c>
       <c r="D4331" t="n">
-        <v>7.16</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="4332">
@@ -69764,7 +69764,7 @@
         <v>0</v>
       </c>
       <c r="D4333" t="n">
-        <v>-11.12</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="4334">
@@ -69796,7 +69796,7 @@
         <v>0</v>
       </c>
       <c r="D4335" t="n">
-        <v>4.01</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4336">
@@ -69812,7 +69812,7 @@
         <v>0</v>
       </c>
       <c r="D4336" t="n">
-        <v>5.01</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4337">
@@ -69828,7 +69828,7 @@
         <v>0</v>
       </c>
       <c r="D4337" t="n">
-        <v>1.23</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4338">
@@ -69844,7 +69844,7 @@
         <v>0</v>
       </c>
       <c r="D4338" t="n">
-        <v>1.23</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4339">
@@ -69908,7 +69908,7 @@
         <v>0</v>
       </c>
       <c r="D4342" t="n">
-        <v>10.02</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="4343">
@@ -70292,7 +70292,7 @@
         <v>0</v>
       </c>
       <c r="D4366" t="n">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4367">
@@ -70388,7 +70388,7 @@
         <v>0</v>
       </c>
       <c r="D4372" t="n">
-        <v>10.02</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="4373">
@@ -70804,7 +70804,7 @@
         <v>0</v>
       </c>
       <c r="D4398" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4399">
@@ -70852,7 +70852,7 @@
         <v>-11.25</v>
       </c>
       <c r="D4401" t="n">
-        <v>16.69</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="4402">
@@ -70900,7 +70900,7 @@
         <v>0</v>
       </c>
       <c r="D4404" t="n">
-        <v>26.51</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="4405">
@@ -71044,7 +71044,7 @@
         <v>0</v>
       </c>
       <c r="D4413" t="n">
-        <v>3.23</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4414">
@@ -71060,7 +71060,7 @@
         <v>0</v>
       </c>
       <c r="D4414" t="n">
-        <v>25.06</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="4415">
@@ -71188,7 +71188,7 @@
         <v>0</v>
       </c>
       <c r="D4422" t="n">
-        <v>10.02</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="4423">
@@ -71204,7 +71204,7 @@
         <v>0</v>
       </c>
       <c r="D4423" t="n">
-        <v>10.02</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="4424">
@@ -71220,7 +71220,7 @@
         <v>0</v>
       </c>
       <c r="D4424" t="n">
-        <v>10.02</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="4425">
@@ -71348,7 +71348,7 @@
         <v>-11.83</v>
       </c>
       <c r="D4432" t="n">
-        <v>46.98</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="4433">
@@ -71444,7 +71444,7 @@
         <v>-3.32</v>
       </c>
       <c r="D4438" t="n">
-        <v>11.42</v>
+        <v>7.430000000000001</v>
       </c>
     </row>
     <row r="4439">
@@ -71476,7 +71476,7 @@
         <v>-9.370000000000001</v>
       </c>
       <c r="D4440" t="n">
-        <v>20.67</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="4441">
@@ -71492,7 +71492,7 @@
         <v>-2.63</v>
       </c>
       <c r="D4441" t="n">
-        <v>7.85</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="4442">
@@ -71588,7 +71588,7 @@
         <v>-9.82</v>
       </c>
       <c r="D4447" t="n">
-        <v>21.76</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="4448">
@@ -71732,7 +71732,7 @@
         <v>-11.66</v>
       </c>
       <c r="D4456" t="n">
-        <v>0</v>
+        <v>20.53</v>
       </c>
     </row>
     <row r="4457">
@@ -71780,7 +71780,7 @@
         <v>-4.18</v>
       </c>
       <c r="D4459" t="n">
-        <v>13.11</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="4460">
@@ -71812,7 +71812,7 @@
         <v>-9.42</v>
       </c>
       <c r="D4461" t="n">
-        <v>31.19</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="4462">
@@ -71828,7 +71828,7 @@
         <v>-10.54</v>
       </c>
       <c r="D4462" t="n">
-        <v>35.34</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="4463">
@@ -71844,7 +71844,7 @@
         <v>-9.82</v>
       </c>
       <c r="D4463" t="n">
-        <v>18.58</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="4464">
@@ -71860,7 +71860,7 @@
         <v>-3.85</v>
       </c>
       <c r="D4464" t="n">
-        <v>12.01</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="4465">
@@ -71908,7 +71908,7 @@
         <v>-2.55</v>
       </c>
       <c r="D4467" t="n">
-        <v>5.24</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4468">
@@ -72020,7 +72020,7 @@
         <v>13.75</v>
       </c>
       <c r="D4474" t="n">
-        <v>-0.51</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4475">
@@ -72036,7 +72036,7 @@
         <v>19.8</v>
       </c>
       <c r="D4475" t="n">
-        <v>6.619999999999999</v>
+        <v>8.559999999999999</v>
       </c>
     </row>
     <row r="4476">
@@ -72052,7 +72052,7 @@
         <v>23.78</v>
       </c>
       <c r="D4476" t="n">
-        <v>3.2</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="4477">
@@ -72068,7 +72068,7 @@
         <v>22.87</v>
       </c>
       <c r="D4477" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4478">
@@ -72084,7 +72084,7 @@
         <v>23.78</v>
       </c>
       <c r="D4478" t="n">
-        <v>3.2</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="4479">
@@ -72244,7 +72244,7 @@
         <v>-5</v>
       </c>
       <c r="D4488" t="n">
-        <v>4.21</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4489">
@@ -72260,7 +72260,7 @@
         <v>-7.37</v>
       </c>
       <c r="D4489" t="n">
-        <v>7.95</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="4490">
@@ -72404,7 +72404,7 @@
         <v>-3.48</v>
       </c>
       <c r="D4498" t="n">
-        <v>10.48</v>
+        <v>5.08</v>
       </c>
     </row>
     <row r="4499">
@@ -72420,7 +72420,7 @@
         <v>-5.04</v>
       </c>
       <c r="D4499" t="n">
-        <v>12.88</v>
+        <v>6.819999999999999</v>
       </c>
     </row>
     <row r="4500">
@@ -72436,7 +72436,7 @@
         <v>-9.529999999999999</v>
       </c>
       <c r="D4500" t="n">
-        <v>10.53</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="4501">
@@ -72452,7 +72452,7 @@
         <v>-5.69</v>
       </c>
       <c r="D4501" t="n">
-        <v>6.03</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="4502">
@@ -72468,7 +72468,7 @@
         <v>-12.23</v>
       </c>
       <c r="D4502" t="n">
-        <v>13.93</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="4503">
@@ -72548,7 +72548,7 @@
         <v>-0.75</v>
       </c>
       <c r="D4507" t="n">
-        <v>5.3</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="4508">
@@ -72580,7 +72580,7 @@
         <v>0</v>
       </c>
       <c r="D4509" t="n">
-        <v>14.06</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="4510">
@@ -72596,7 +72596,7 @@
         <v>-5.43</v>
       </c>
       <c r="D4510" t="n">
-        <v>5.74</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="4511">
@@ -72612,7 +72612,7 @@
         <v>0</v>
       </c>
       <c r="D4511" t="n">
-        <v>0</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="4512">
@@ -72772,7 +72772,7 @@
         <v>0</v>
       </c>
       <c r="D4521" t="n">
-        <v>0</v>
+        <v>-17.43</v>
       </c>
     </row>
     <row r="4522">
@@ -72836,7 +72836,7 @@
         <v>1.45</v>
       </c>
       <c r="D4525" t="n">
-        <v>6.35</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="4526">
@@ -72852,7 +72852,7 @@
         <v>-10.14</v>
       </c>
       <c r="D4526" t="n">
-        <v>11.29</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="4527">
@@ -72900,7 +72900,7 @@
         <v>-12.04</v>
       </c>
       <c r="D4529" t="n">
-        <v>13.69</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="4530">
@@ -73364,7 +73364,7 @@
         <v>0</v>
       </c>
       <c r="D4558" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4559">
@@ -73572,7 +73572,7 @@
         <v>-6.1</v>
       </c>
       <c r="D4571" t="n">
-        <v>0.5499999999999999</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="4572">

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -996,7 +996,7 @@
         <v>13.06</v>
       </c>
       <c r="D35" t="n">
-        <v>-22.81</v>
+        <v>-20.01</v>
       </c>
     </row>
     <row r="36">
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.45</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="46">
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.03</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="47">
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>17.6</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="58">
@@ -1444,7 +1444,7 @@
         <v>17.41</v>
       </c>
       <c r="D63" t="n">
-        <v>-12.68</v>
+        <v>-13.24</v>
       </c>
     </row>
     <row r="64">
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="67">
@@ -1780,7 +1780,7 @@
         <v>-5.09</v>
       </c>
       <c r="D84" t="n">
-        <v>5.36</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>-6.43</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="107">
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>-12.56</v>
+        <v>-12.91</v>
       </c>
     </row>
     <row r="108">
@@ -2164,7 +2164,7 @@
         <v>-19.79</v>
       </c>
       <c r="D108" t="n">
-        <v>32.18</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="109">
@@ -2324,7 +2324,7 @@
         <v>10.37</v>
       </c>
       <c r="D118" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>-9.279999999999999</v>
+        <v>-10.77</v>
       </c>
     </row>
     <row r="122">
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>-9.279999999999999</v>
+        <v>-10.77</v>
       </c>
     </row>
     <row r="123">
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>-19.23</v>
+        <v>-20.3</v>
       </c>
     </row>
     <row r="126">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>-10.84</v>
+        <v>-13.96</v>
       </c>
     </row>
     <row r="135">
@@ -2756,7 +2756,7 @@
         <v>-12.33</v>
       </c>
       <c r="D145" t="n">
-        <v>14.06</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="146">
@@ -2804,7 +2804,7 @@
         <v>38.24</v>
       </c>
       <c r="D148" t="n">
-        <v>-6.140000000000001</v>
+        <v>-9.24</v>
       </c>
     </row>
     <row r="149">
@@ -2884,7 +2884,7 @@
         <v>4.31</v>
       </c>
       <c r="D153" t="n">
-        <v>2.31</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="154">
@@ -2964,7 +2964,7 @@
         <v>-4.62</v>
       </c>
       <c r="D158" t="n">
-        <v>7.51</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="159">
@@ -3012,7 +3012,7 @@
         <v>-3.44</v>
       </c>
       <c r="D161" t="n">
-        <v>4.49</v>
+        <v>4.850000000000001</v>
       </c>
     </row>
     <row r="162">
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>-26.65</v>
+        <v>-22.78</v>
       </c>
     </row>
     <row r="166">
@@ -3092,7 +3092,7 @@
         <v>-2.16</v>
       </c>
       <c r="D166" t="n">
-        <v>12.76</v>
+        <v>13.12</v>
       </c>
     </row>
     <row r="167">
@@ -3108,7 +3108,7 @@
         <v>-4.850000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>29.78</v>
+        <v>30.6</v>
       </c>
     </row>
     <row r="168">
@@ -3236,7 +3236,7 @@
         <v>-3.85</v>
       </c>
       <c r="D175" t="n">
-        <v>19.06</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="176">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>-17.8</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="179">
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>-17.8</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="180">
@@ -3828,7 +3828,7 @@
         <v>-9.65</v>
       </c>
       <c r="D212" t="n">
-        <v>14.91</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="213">
@@ -3860,7 +3860,7 @@
         <v>-4.89</v>
       </c>
       <c r="D214" t="n">
-        <v>10.72</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="215">
@@ -3876,7 +3876,7 @@
         <v>-8.050000000000001</v>
       </c>
       <c r="D215" t="n">
-        <v>8.75</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="216">
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>-14.6</v>
+        <v>-15.9</v>
       </c>
     </row>
     <row r="239">
@@ -4276,7 +4276,7 @@
         <v>-17.29</v>
       </c>
       <c r="D240" t="n">
-        <v>-14.08</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="241">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="242">
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>-11.89</v>
+        <v>-12.32</v>
       </c>
     </row>
     <row r="244">
@@ -4516,7 +4516,7 @@
         <v>-1.03</v>
       </c>
       <c r="D255" t="n">
-        <v>-3.24</v>
+        <v>-5.319999999999999</v>
       </c>
     </row>
     <row r="256">
@@ -4564,7 +4564,7 @@
         <v>9.76</v>
       </c>
       <c r="D258" t="n">
-        <v>4.48</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="259">
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="265">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="D289" t="n">
-        <v>-3.13</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="290">
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="D300" t="n">
-        <v>5.69</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="301">
@@ -5252,7 +5252,7 @@
         <v>4.35</v>
       </c>
       <c r="D301" t="n">
-        <v>-4.17</v>
+        <v>-6.890000000000001</v>
       </c>
     </row>
     <row r="302">
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.89</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="312">
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="313">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="319">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="320">
@@ -5556,7 +5556,7 @@
         <v>14.58</v>
       </c>
       <c r="D320" t="n">
-        <v>0.08</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="321">
@@ -6116,7 +6116,7 @@
         <v>-1.36</v>
       </c>
       <c r="D355" t="n">
-        <v>-1.65</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="356">
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="D356" t="n">
-        <v>-1.79</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="357">
@@ -6244,7 +6244,7 @@
         <v>-1.52</v>
       </c>
       <c r="D363" t="n">
-        <v>-1.28</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="364">
@@ -6260,7 +6260,7 @@
         <v>-6.47</v>
       </c>
       <c r="D364" t="n">
-        <v>5.3</v>
+        <v>5.510000000000001</v>
       </c>
     </row>
     <row r="365">
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="375">
@@ -6436,7 +6436,7 @@
         <v>-16.13</v>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="376">
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="377">
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="378">
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="379">
@@ -6756,7 +6756,7 @@
         <v>-15.67</v>
       </c>
       <c r="D395" t="n">
-        <v>32.81</v>
+        <v>33.68</v>
       </c>
     </row>
     <row r="396">
@@ -6836,7 +6836,7 @@
         <v>-3.39</v>
       </c>
       <c r="D400" t="n">
-        <v>20.78</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="401">
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="D420" t="n">
-        <v>-1.79</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="421">
@@ -7172,7 +7172,7 @@
         <v>0</v>
       </c>
       <c r="D421" t="n">
-        <v>-20.36</v>
+        <v>-21.02</v>
       </c>
     </row>
     <row r="422">
@@ -7700,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="D454" t="n">
-        <v>-18.96</v>
+        <v>-19.51</v>
       </c>
     </row>
     <row r="455">
@@ -7716,7 +7716,7 @@
         <v>0</v>
       </c>
       <c r="D455" t="n">
-        <v>-18.96</v>
+        <v>-19.51</v>
       </c>
     </row>
     <row r="456">
@@ -7732,7 +7732,7 @@
         <v>-7.21</v>
       </c>
       <c r="D456" t="n">
-        <v>3.99</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="457">
@@ -7748,7 +7748,7 @@
         <v>-4.3</v>
       </c>
       <c r="D457" t="n">
-        <v>2.62</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="458">
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="D458" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="459">
@@ -7908,7 +7908,7 @@
         <v>-3.92</v>
       </c>
       <c r="D467" t="n">
-        <v>-14.97</v>
+        <v>-12.93</v>
       </c>
     </row>
     <row r="468">
@@ -7956,7 +7956,7 @@
         <v>-3.13</v>
       </c>
       <c r="D470" t="n">
-        <v>-4.26</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="471">
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="D478" t="n">
-        <v>-1.78</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="479">
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="D479" t="n">
-        <v>-1.78</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="480">
@@ -8196,7 +8196,7 @@
         <v>-1.38</v>
       </c>
       <c r="D485" t="n">
-        <v>-1.13</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="486">
@@ -8292,7 +8292,7 @@
         <v>-4.58</v>
       </c>
       <c r="D491" t="n">
-        <v>-0.34</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="492">
@@ -8308,7 +8308,7 @@
         <v>-1.18</v>
       </c>
       <c r="D492" t="n">
-        <v>-0.34</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="493">
@@ -8420,7 +8420,7 @@
         <v>31.85</v>
       </c>
       <c r="D499" t="n">
-        <v>-3.64</v>
+        <v>-8.959999999999999</v>
       </c>
     </row>
     <row r="500">
@@ -8468,7 +8468,7 @@
         <v>8.81</v>
       </c>
       <c r="D502" t="n">
-        <v>4.6</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="503">
@@ -8484,7 +8484,7 @@
         <v>-8.25</v>
       </c>
       <c r="D503" t="n">
-        <v>8.99</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="504">
@@ -8500,7 +8500,7 @@
         <v>-8.25</v>
       </c>
       <c r="D504" t="n">
-        <v>8.99</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="505">
@@ -8516,7 +8516,7 @@
         <v>-8.25</v>
       </c>
       <c r="D505" t="n">
-        <v>8.99</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="506">
@@ -8532,7 +8532,7 @@
         <v>-8.25</v>
       </c>
       <c r="D506" t="n">
-        <v>8.99</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="507">
@@ -8708,7 +8708,7 @@
         <v>-2.14</v>
       </c>
       <c r="D517" t="n">
-        <v>2.19</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="518">
@@ -8820,7 +8820,7 @@
         <v>11.65</v>
       </c>
       <c r="D524" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="525">
@@ -8884,7 +8884,7 @@
         <v>12.45</v>
       </c>
       <c r="D528" t="n">
-        <v>13.84</v>
+        <v>15.22</v>
       </c>
     </row>
     <row r="529">
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="D530" t="n">
-        <v>8.649999999999999</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="531">
@@ -8948,7 +8948,7 @@
         <v>-22.85</v>
       </c>
       <c r="D532" t="n">
-        <v>14.03</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="533">
@@ -9060,7 +9060,7 @@
         <v>3.11</v>
       </c>
       <c r="D539" t="n">
-        <v>9.48</v>
+        <v>9.629999999999999</v>
       </c>
     </row>
     <row r="540">
@@ -9140,7 +9140,7 @@
         <v>2.26</v>
       </c>
       <c r="D544" t="n">
-        <v>-3.9</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="545">
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="D559" t="n">
-        <v>-2.61</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="560">
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="D562" t="n">
-        <v>11.07</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="563">
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="D578" t="n">
-        <v>-5.18</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="579">
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="D588" t="n">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="589">
@@ -10020,7 +10020,7 @@
         <v>-1.12</v>
       </c>
       <c r="D599" t="n">
-        <v>0</v>
+        <v>-4.17</v>
       </c>
     </row>
     <row r="600">
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="D600" t="n">
-        <v>-5.53</v>
+        <v>-9.049999999999999</v>
       </c>
     </row>
     <row r="601">
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="603">
@@ -10084,7 +10084,7 @@
         <v>0</v>
       </c>
       <c r="D603" t="n">
-        <v>-5.53</v>
+        <v>-9.049999999999999</v>
       </c>
     </row>
     <row r="604">
@@ -10116,7 +10116,7 @@
         <v>21.72</v>
       </c>
       <c r="D605" t="n">
-        <v>9.539999999999999</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="606">
@@ -10132,7 +10132,7 @@
         <v>-1.12</v>
       </c>
       <c r="D606" t="n">
-        <v>0</v>
+        <v>-4.17</v>
       </c>
     </row>
     <row r="607">
@@ -10148,7 +10148,7 @@
         <v>-5.26</v>
       </c>
       <c r="D607" t="n">
-        <v>-20</v>
+        <v>-14.81</v>
       </c>
     </row>
     <row r="608">
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="D609" t="n">
-        <v>-18.16</v>
+        <v>-15.45</v>
       </c>
     </row>
     <row r="610">
@@ -10276,7 +10276,7 @@
         <v>-15.68</v>
       </c>
       <c r="D615" t="n">
-        <v>14.1</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="616">
@@ -10308,7 +10308,7 @@
         <v>-1.12</v>
       </c>
       <c r="D617" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -10324,7 +10324,7 @@
         <v>-5.71</v>
       </c>
       <c r="D618" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -10340,7 +10340,7 @@
         <v>13.79</v>
       </c>
       <c r="D619" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="D622" t="n">
-        <v>-1.8</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="623">
@@ -10404,7 +10404,7 @@
         <v>-6.68</v>
       </c>
       <c r="D623" t="n">
-        <v>-13.77</v>
+        <v>-10.74</v>
       </c>
     </row>
     <row r="624">
@@ -10420,7 +10420,7 @@
         <v>-6.68</v>
       </c>
       <c r="D624" t="n">
-        <v>-1.1</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="625">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="D625" t="n">
-        <v>-1.8</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="626">
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="D626" t="n">
-        <v>-10.69</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="627">
@@ -10468,7 +10468,7 @@
         <v>0.34</v>
       </c>
       <c r="D627" t="n">
-        <v>-4.01</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="628">
@@ -10500,7 +10500,7 @@
         <v>0.34</v>
       </c>
       <c r="D629" t="n">
-        <v>-4.01</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="630">
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="D630" t="n">
-        <v>-2.61</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="631">
@@ -10532,7 +10532,7 @@
         <v>0</v>
       </c>
       <c r="D631" t="n">
-        <v>-2.61</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="632">
@@ -10564,7 +10564,7 @@
         <v>-7.539999999999999</v>
       </c>
       <c r="D633" t="n">
-        <v>-7.969999999999999</v>
+        <v>-9.869999999999999</v>
       </c>
     </row>
     <row r="634">
@@ -10580,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="D634" t="n">
-        <v>-2.61</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="635">
@@ -10884,7 +10884,7 @@
         <v>-1</v>
       </c>
       <c r="D653" t="n">
-        <v>5.64</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="654">
@@ -10900,7 +10900,7 @@
         <v>-1</v>
       </c>
       <c r="D654" t="n">
-        <v>0.72</v>
+        <v>0.8699999999999999</v>
       </c>
     </row>
     <row r="655">
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="D655" t="n">
-        <v>-5.18</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="656">
@@ -11012,7 +11012,7 @@
         <v>2.26</v>
       </c>
       <c r="D661" t="n">
-        <v>-3.9</v>
+        <v>-6.79</v>
       </c>
     </row>
     <row r="662">
@@ -11028,7 +11028,7 @@
         <v>-9.520000000000001</v>
       </c>
       <c r="D662" t="n">
-        <v>4.43</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="663">
@@ -11108,7 +11108,7 @@
         <v>-5.01</v>
       </c>
       <c r="D667" t="n">
-        <v>7.77</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="668">
@@ -11124,7 +11124,7 @@
         <v>-5.23</v>
       </c>
       <c r="D668" t="n">
-        <v>14.94</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="669">
@@ -11140,7 +11140,7 @@
         <v>3.34</v>
       </c>
       <c r="D669" t="n">
-        <v>-19.41</v>
+        <v>-16.64</v>
       </c>
     </row>
     <row r="670">
@@ -11476,7 +11476,7 @@
         <v>6.09</v>
       </c>
       <c r="D690" t="n">
-        <v>-3.34</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="691">
@@ -11892,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="D716" t="n">
-        <v>0</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="717">
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="D717" t="n">
-        <v>0</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="718">
@@ -11924,7 +11924,7 @@
         <v>-12.27</v>
       </c>
       <c r="D718" t="n">
-        <v>13.99</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="719">
@@ -11940,7 +11940,7 @@
         <v>-5.600000000000001</v>
       </c>
       <c r="D719" t="n">
-        <v>5.93</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="720">
@@ -12132,7 +12132,7 @@
         <v>0</v>
       </c>
       <c r="D731" t="n">
-        <v>0</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="732">
@@ -12180,7 +12180,7 @@
         <v>3.74</v>
       </c>
       <c r="D734" t="n">
-        <v>3.61</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="735">
@@ -12244,7 +12244,7 @@
         <v>-1.9</v>
       </c>
       <c r="D738" t="n">
-        <v>9.569999999999999</v>
+        <v>7.720000000000001</v>
       </c>
     </row>
     <row r="739">
@@ -12276,7 +12276,7 @@
         <v>0</v>
       </c>
       <c r="D740" t="n">
-        <v>21.14</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="741">
@@ -12356,7 +12356,7 @@
         <v>3.01</v>
       </c>
       <c r="D745" t="n">
-        <v>0</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="746">
@@ -12388,7 +12388,7 @@
         <v>3.01</v>
       </c>
       <c r="D747" t="n">
-        <v>0</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="748">
@@ -12404,7 +12404,7 @@
         <v>13.78</v>
       </c>
       <c r="D748" t="n">
-        <v>30.25</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="749">
@@ -12420,7 +12420,7 @@
         <v>13.78</v>
       </c>
       <c r="D749" t="n">
-        <v>32.79</v>
+        <v>28.91</v>
       </c>
     </row>
     <row r="750">
@@ -12452,7 +12452,7 @@
         <v>-3.76</v>
       </c>
       <c r="D751" t="n">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="752">
@@ -12468,7 +12468,7 @@
         <v>-3.62</v>
       </c>
       <c r="D752" t="n">
-        <v>3.36</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="753">
@@ -12484,7 +12484,7 @@
         <v>-3.62</v>
       </c>
       <c r="D753" t="n">
-        <v>3.23</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="754">
@@ -12500,7 +12500,7 @@
         <v>-8.039999999999999</v>
       </c>
       <c r="D754" t="n">
-        <v>1</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="755">
@@ -12644,7 +12644,7 @@
         <v>-8.5</v>
       </c>
       <c r="D763" t="n">
-        <v>4.93</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="764">
@@ -12660,7 +12660,7 @@
         <v>-1.82</v>
       </c>
       <c r="D764" t="n">
-        <v>-0.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -12708,7 +12708,7 @@
         <v>0</v>
       </c>
       <c r="D767" t="n">
-        <v>26.39</v>
+        <v>27.15</v>
       </c>
     </row>
     <row r="768">
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
       <c r="D772" t="n">
-        <v>-11.03</v>
+        <v>-12.82</v>
       </c>
     </row>
     <row r="773">
@@ -12836,7 +12836,7 @@
         <v>-4.24</v>
       </c>
       <c r="D775" t="n">
-        <v>3.44</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="776">
@@ -12980,7 +12980,7 @@
         <v>-3.68</v>
       </c>
       <c r="D784" t="n">
-        <v>2.27</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="785">
@@ -12996,7 +12996,7 @@
         <v>-3.68</v>
       </c>
       <c r="D785" t="n">
-        <v>7.23</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="786">
@@ -13012,7 +13012,7 @@
         <v>-3.68</v>
       </c>
       <c r="D786" t="n">
-        <v>2.27</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="787">
@@ -13108,7 +13108,7 @@
         <v>13.78</v>
       </c>
       <c r="D792" t="n">
-        <v>30.25</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="793">
@@ -13124,7 +13124,7 @@
         <v>17.79</v>
       </c>
       <c r="D793" t="n">
-        <v>37.71</v>
+        <v>32.59</v>
       </c>
     </row>
     <row r="794">
@@ -13140,7 +13140,7 @@
         <v>0</v>
       </c>
       <c r="D794" t="n">
-        <v>14.38</v>
+        <v>16.47</v>
       </c>
     </row>
     <row r="795">
@@ -13236,7 +13236,7 @@
         <v>-1.87</v>
       </c>
       <c r="D800" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="801">
@@ -13268,7 +13268,7 @@
         <v>12.52</v>
       </c>
       <c r="D802" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -13300,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="D804" t="n">
-        <v>-2.05</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="805">
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="D805" t="n">
-        <v>-2.05</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="806">
@@ -13332,7 +13332,7 @@
         <v>5.17</v>
       </c>
       <c r="D806" t="n">
-        <v>-5.779999999999999</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="807">
@@ -13364,7 +13364,7 @@
         <v>-18.17</v>
       </c>
       <c r="D808" t="n">
-        <v>14.79</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="809">
@@ -13428,7 +13428,7 @@
         <v>3.97</v>
       </c>
       <c r="D812" t="n">
-        <v>-4.52</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="813">
@@ -13444,7 +13444,7 @@
         <v>-1.67</v>
       </c>
       <c r="D813" t="n">
-        <v>-4.52</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="814">
@@ -13476,7 +13476,7 @@
         <v>5.17</v>
       </c>
       <c r="D815" t="n">
-        <v>-5.779999999999999</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="816">
@@ -13492,7 +13492,7 @@
         <v>5.17</v>
       </c>
       <c r="D816" t="n">
-        <v>-5.779999999999999</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="817">
@@ -13508,7 +13508,7 @@
         <v>5.17</v>
       </c>
       <c r="D817" t="n">
-        <v>-5.779999999999999</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="818">
@@ -13604,7 +13604,7 @@
         <v>0</v>
       </c>
       <c r="D823" t="n">
-        <v>0.88</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="824">
@@ -13876,7 +13876,7 @@
         <v>-1.38</v>
       </c>
       <c r="D840" t="n">
-        <v>-5.01</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="841">
@@ -13892,7 +13892,7 @@
         <v>-1.38</v>
       </c>
       <c r="D841" t="n">
-        <v>-8.32</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="842">
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="D875" t="n">
-        <v>0</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="876">
@@ -14516,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="D880" t="n">
-        <v>0</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="881">
@@ -14756,7 +14756,7 @@
         <v>-2.99</v>
       </c>
       <c r="D895" t="n">
-        <v>1.54</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="896">
@@ -15236,7 +15236,7 @@
         <v>14.27</v>
       </c>
       <c r="D925" t="n">
-        <v>-6.67</v>
+        <v>-6.460000000000001</v>
       </c>
     </row>
     <row r="926">
@@ -15300,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="D929" t="n">
-        <v>-7.32</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="930">
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="D933" t="n">
-        <v>0</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="934">
@@ -15396,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="D935" t="n">
-        <v>0</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="936">
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="D937" t="n">
-        <v>0</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="938">
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="D940" t="n">
-        <v>-4.64</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="941">
@@ -15524,7 +15524,7 @@
         <v>-2.18</v>
       </c>
       <c r="D943" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="944">
@@ -15540,7 +15540,7 @@
         <v>-19.34</v>
       </c>
       <c r="D944" t="n">
-        <v>1.93</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="945">
@@ -15604,7 +15604,7 @@
         <v>7.94</v>
       </c>
       <c r="D948" t="n">
-        <v>-11.03</v>
+        <v>-11.76</v>
       </c>
     </row>
     <row r="949">
@@ -15652,7 +15652,7 @@
         <v>-4.72</v>
       </c>
       <c r="D951" t="n">
-        <v>44.21</v>
+        <v>42.56</v>
       </c>
     </row>
     <row r="952">
@@ -15700,7 +15700,7 @@
         <v>-17.14</v>
       </c>
       <c r="D954" t="n">
-        <v>24.14</v>
+        <v>26.72</v>
       </c>
     </row>
     <row r="955">
@@ -15812,7 +15812,7 @@
         <v>-5.600000000000001</v>
       </c>
       <c r="D961" t="n">
-        <v>3.59</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="962">
@@ -15908,7 +15908,7 @@
         <v>-1.33</v>
       </c>
       <c r="D967" t="n">
-        <v>1.35</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="968">
@@ -15924,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="D968" t="n">
-        <v>0</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="969">
@@ -16068,7 +16068,7 @@
         <v>-5.09</v>
       </c>
       <c r="D977" t="n">
-        <v>5.36</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="978">
@@ -16084,7 +16084,7 @@
         <v>0</v>
       </c>
       <c r="D978" t="n">
-        <v>0</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="979">
@@ -16276,7 +16276,7 @@
         <v>-4.35</v>
       </c>
       <c r="D990" t="n">
-        <v>4.55</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="991">
@@ -16388,7 +16388,7 @@
         <v>2.34</v>
       </c>
       <c r="D997" t="n">
-        <v>-4.46</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="998">
@@ -16420,7 +16420,7 @@
         <v>4.26</v>
       </c>
       <c r="D999" t="n">
-        <v>-4.09</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="1000">
@@ -16612,7 +16612,7 @@
         <v>-1.94</v>
       </c>
       <c r="D1011" t="n">
-        <v>1.98</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="1012">
@@ -16644,7 +16644,7 @@
         <v>-2.31</v>
       </c>
       <c r="D1013" t="n">
-        <v>2.37</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="1014">
@@ -16724,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="D1018" t="n">
-        <v>2.28</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1019">
@@ -16836,7 +16836,7 @@
         <v>-19.13</v>
       </c>
       <c r="D1025" t="n">
-        <v>-22.28</v>
+        <v>-23.52</v>
       </c>
     </row>
     <row r="1026">
@@ -17140,7 +17140,7 @@
         <v>1.2</v>
       </c>
       <c r="D1044" t="n">
-        <v>-6.59</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="1045">
@@ -17156,7 +17156,7 @@
         <v>1.2</v>
       </c>
       <c r="D1045" t="n">
-        <v>-6.59</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="1046">
@@ -17604,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="D1073" t="n">
-        <v>-26.51</v>
+        <v>-27.27</v>
       </c>
     </row>
     <row r="1074">
@@ -17732,7 +17732,7 @@
         <v>0</v>
       </c>
       <c r="D1081" t="n">
-        <v>-2.42</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="1082">
@@ -17748,7 +17748,7 @@
         <v>0</v>
       </c>
       <c r="D1082" t="n">
-        <v>-2.42</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="1083">
@@ -17764,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="D1083" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="1084">
@@ -17780,7 +17780,7 @@
         <v>0</v>
       </c>
       <c r="D1084" t="n">
-        <v>-1.4</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="1085">
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="D1085" t="n">
-        <v>-1.4</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="1086">
@@ -17828,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="D1087" t="n">
-        <v>-0.33</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1088">
@@ -17844,7 +17844,7 @@
         <v>11.87</v>
       </c>
       <c r="D1088" t="n">
-        <v>1.64</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="1089">
@@ -17860,7 +17860,7 @@
         <v>11.87</v>
       </c>
       <c r="D1089" t="n">
-        <v>1.64</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="1090">
@@ -17892,7 +17892,7 @@
         <v>11.87</v>
       </c>
       <c r="D1091" t="n">
-        <v>1.64</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="1092">
@@ -17908,7 +17908,7 @@
         <v>11.87</v>
       </c>
       <c r="D1092" t="n">
-        <v>1.64</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="1093">
@@ -17924,7 +17924,7 @@
         <v>11.87</v>
       </c>
       <c r="D1093" t="n">
-        <v>1.64</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="1094">
@@ -17956,7 +17956,7 @@
         <v>11.87</v>
       </c>
       <c r="D1095" t="n">
-        <v>1.64</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="1096">
@@ -18004,7 +18004,7 @@
         <v>0</v>
       </c>
       <c r="D1098" t="n">
-        <v>-2.54</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="1099">
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="D1100" t="n">
-        <v>-2.54</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="1101">
@@ -18052,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="D1101" t="n">
-        <v>-4.47</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="1102">
@@ -18068,7 +18068,7 @@
         <v>0</v>
       </c>
       <c r="D1102" t="n">
-        <v>-2.54</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="1103">
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="D1104" t="n">
-        <v>-2.54</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="1105">
@@ -18132,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="D1106" t="n">
-        <v>-2.54</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="1107">
@@ -18148,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="D1107" t="n">
-        <v>-2.54</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="1108">
@@ -18276,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="D1115" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="1116">
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
       <c r="D1116" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="1117">
@@ -18308,7 +18308,7 @@
         <v>0</v>
       </c>
       <c r="D1117" t="n">
-        <v>4.18</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="1118">
@@ -18340,7 +18340,7 @@
         <v>11.87</v>
       </c>
       <c r="D1119" t="n">
-        <v>6.88</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="1120">
@@ -18372,7 +18372,7 @@
         <v>-6.63</v>
       </c>
       <c r="D1121" t="n">
-        <v>2.97</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="1122">
@@ -18404,7 +18404,7 @@
         <v>-6.63</v>
       </c>
       <c r="D1123" t="n">
-        <v>2.97</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="1124">
@@ -18420,7 +18420,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1124" t="n">
-        <v>4.08</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="1125">
@@ -18436,7 +18436,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1125" t="n">
-        <v>4.08</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="1126">
@@ -18452,7 +18452,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1126" t="n">
-        <v>4.08</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="1127">
@@ -18468,7 +18468,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1127" t="n">
-        <v>4.08</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="1128">
@@ -18484,7 +18484,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1128" t="n">
-        <v>4.08</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="1129">
@@ -18500,7 +18500,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1129" t="n">
-        <v>4.08</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="1130">
@@ -18516,7 +18516,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1130" t="n">
-        <v>4.08</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="1131">
@@ -18548,7 +18548,7 @@
         <v>-2.83</v>
       </c>
       <c r="D1132" t="n">
-        <v>4.08</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="1133">
@@ -18676,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="D1140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1141">
@@ -18692,7 +18692,7 @@
         <v>1.78</v>
       </c>
       <c r="D1141" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="1142">
@@ -18708,7 +18708,7 @@
         <v>1.78</v>
       </c>
       <c r="D1142" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="1143">
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="D1158" t="n">
-        <v>-2.54</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="1159">
@@ -19028,7 +19028,7 @@
         <v>31.57</v>
       </c>
       <c r="D1162" t="n">
-        <v>7.049999999999999</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="1163">
@@ -19044,7 +19044,7 @@
         <v>0</v>
       </c>
       <c r="D1163" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="1164">
@@ -19060,7 +19060,7 @@
         <v>0</v>
       </c>
       <c r="D1164" t="n">
-        <v>8.890000000000001</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="1165">
@@ -19172,7 +19172,7 @@
         <v>-6.17</v>
       </c>
       <c r="D1171" t="n">
-        <v>4.03</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1172">
@@ -19188,7 +19188,7 @@
         <v>-6.17</v>
       </c>
       <c r="D1172" t="n">
-        <v>4.03</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1173">
@@ -19204,7 +19204,7 @@
         <v>-8.110000000000001</v>
       </c>
       <c r="D1173" t="n">
-        <v>5.41</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="1174">
@@ -19252,7 +19252,7 @@
         <v>-1.88</v>
       </c>
       <c r="D1176" t="n">
-        <v>-0.31</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="1177">
@@ -19268,7 +19268,7 @@
         <v>0</v>
       </c>
       <c r="D1177" t="n">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="1178">
@@ -19284,7 +19284,7 @@
         <v>-0.7799999999999999</v>
       </c>
       <c r="D1178" t="n">
-        <v>-0.17</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="1179">
@@ -19300,7 +19300,7 @@
         <v>-0.74</v>
       </c>
       <c r="D1179" t="n">
-        <v>-0.16</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="1180">
@@ -19412,7 +19412,7 @@
         <v>-3.23</v>
       </c>
       <c r="D1186" t="n">
-        <v>1.39</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="1187">
@@ -20980,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="D1284" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="1285">
@@ -21188,7 +21188,7 @@
         <v>24.91</v>
       </c>
       <c r="D1297" t="n">
-        <v>-4.36</v>
+        <v>-6.619999999999999</v>
       </c>
     </row>
     <row r="1298">
@@ -21204,7 +21204,7 @@
         <v>21.7</v>
       </c>
       <c r="D1298" t="n">
-        <v>-4.36</v>
+        <v>-6.619999999999999</v>
       </c>
     </row>
     <row r="1299">
@@ -21220,7 +21220,7 @@
         <v>21.7</v>
       </c>
       <c r="D1299" t="n">
-        <v>-4.36</v>
+        <v>-6.619999999999999</v>
       </c>
     </row>
     <row r="1300">
@@ -21236,7 +21236,7 @@
         <v>16.65</v>
       </c>
       <c r="D1300" t="n">
-        <v>-4.36</v>
+        <v>-6.619999999999999</v>
       </c>
     </row>
     <row r="1301">
@@ -21252,7 +21252,7 @@
         <v>21.7</v>
       </c>
       <c r="D1301" t="n">
-        <v>-4.36</v>
+        <v>-6.619999999999999</v>
       </c>
     </row>
     <row r="1302">
@@ -21268,7 +21268,7 @@
         <v>21.7</v>
       </c>
       <c r="D1302" t="n">
-        <v>-4.36</v>
+        <v>-6.619999999999999</v>
       </c>
     </row>
     <row r="1303">
@@ -21396,7 +21396,7 @@
         <v>0</v>
       </c>
       <c r="D1310" t="n">
-        <v>-6.859999999999999</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="1311">
@@ -21412,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="D1311" t="n">
-        <v>-6.859999999999999</v>
+        <v>-8.84</v>
       </c>
     </row>
     <row r="1312">
@@ -21492,7 +21492,7 @@
         <v>0</v>
       </c>
       <c r="D1316" t="n">
-        <v>-2.36</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="1317">
@@ -21508,7 +21508,7 @@
         <v>0</v>
       </c>
       <c r="D1317" t="n">
-        <v>-2.36</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="1318">
@@ -21524,7 +21524,7 @@
         <v>13.78</v>
       </c>
       <c r="D1318" t="n">
-        <v>4.38</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="1319">
@@ -21540,7 +21540,7 @@
         <v>30.15</v>
       </c>
       <c r="D1319" t="n">
-        <v>11.58</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="1320">
@@ -21572,7 +21572,7 @@
         <v>25.13</v>
       </c>
       <c r="D1321" t="n">
-        <v>16.06</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="1322">
@@ -21588,7 +21588,7 @@
         <v>13.78</v>
       </c>
       <c r="D1322" t="n">
-        <v>4.38</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="1323">
@@ -21876,7 +21876,7 @@
         <v>-6.83</v>
       </c>
       <c r="D1340" t="n">
-        <v>7.33</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="1341">
@@ -21908,7 +21908,7 @@
         <v>-6.49</v>
       </c>
       <c r="D1342" t="n">
-        <v>11.11</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="1343">
@@ -22052,7 +22052,7 @@
         <v>13.8</v>
       </c>
       <c r="D1351" t="n">
-        <v>13.12</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="1352">
@@ -22068,7 +22068,7 @@
         <v>13.8</v>
       </c>
       <c r="D1352" t="n">
-        <v>13.12</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="1353">
@@ -22084,7 +22084,7 @@
         <v>10.8</v>
       </c>
       <c r="D1353" t="n">
-        <v>6.58</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="1354">
@@ -22100,7 +22100,7 @@
         <v>13.8</v>
       </c>
       <c r="D1354" t="n">
-        <v>13.12</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="1355">
@@ -22596,7 +22596,7 @@
         <v>-9.77</v>
       </c>
       <c r="D1385" t="n">
-        <v>-65.81</v>
+        <v>-69.42</v>
       </c>
     </row>
     <row r="1386">
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="D1386" t="n">
-        <v>2.83</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="1387">
@@ -22740,7 +22740,7 @@
         <v>-0.17</v>
       </c>
       <c r="D1394" t="n">
-        <v>-13.37</v>
+        <v>-11.46</v>
       </c>
     </row>
     <row r="1395">
@@ -22916,7 +22916,7 @@
         <v>38.68</v>
       </c>
       <c r="D1405" t="n">
-        <v>25.51</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="1406">
@@ -22932,7 +22932,7 @@
         <v>24.05</v>
       </c>
       <c r="D1406" t="n">
-        <v>25.51</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="1407">
@@ -22948,7 +22948,7 @@
         <v>24.05</v>
       </c>
       <c r="D1407" t="n">
-        <v>25.51</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="1408">
@@ -23092,7 +23092,7 @@
         <v>39.6</v>
       </c>
       <c r="D1416" t="n">
-        <v>-28.37</v>
+        <v>-23.62</v>
       </c>
     </row>
     <row r="1417">
@@ -23412,7 +23412,7 @@
         <v>-17.09</v>
       </c>
       <c r="D1436" t="n">
-        <v>12.73</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="1437">
@@ -23508,7 +23508,7 @@
         <v>0</v>
       </c>
       <c r="D1442" t="n">
-        <v>-0.6799999999999999</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="1443">
@@ -23588,7 +23588,7 @@
         <v>-3.74</v>
       </c>
       <c r="D1447" t="n">
-        <v>23.86</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="1448">
@@ -23604,7 +23604,7 @@
         <v>-3.67</v>
       </c>
       <c r="D1448" t="n">
-        <v>25.93</v>
+        <v>27.95</v>
       </c>
     </row>
     <row r="1449">
@@ -23620,7 +23620,7 @@
         <v>-3.67</v>
       </c>
       <c r="D1449" t="n">
-        <v>24.36</v>
+        <v>25.93</v>
       </c>
     </row>
     <row r="1450">
@@ -23636,7 +23636,7 @@
         <v>-3.67</v>
       </c>
       <c r="D1450" t="n">
-        <v>21.52</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="1451">
@@ -23780,7 +23780,7 @@
         <v>0.3</v>
       </c>
       <c r="D1459" t="n">
-        <v>-14.29</v>
+        <v>-18.24</v>
       </c>
     </row>
     <row r="1460">
@@ -23796,7 +23796,7 @@
         <v>0</v>
       </c>
       <c r="D1460" t="n">
-        <v>-14.19</v>
+        <v>-18.24</v>
       </c>
     </row>
     <row r="1461">
@@ -24020,7 +24020,7 @@
         <v>-5.67</v>
       </c>
       <c r="D1474" t="n">
-        <v>-7.9</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="1475">
@@ -24036,7 +24036,7 @@
         <v>14.17</v>
       </c>
       <c r="D1475" t="n">
-        <v>-5.67</v>
+        <v>-4.61</v>
       </c>
     </row>
     <row r="1476">
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="D1486" t="n">
-        <v>-6.710000000000001</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="1487">
@@ -24228,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="D1487" t="n">
-        <v>-6.710000000000001</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="1488">
@@ -24756,7 +24756,7 @@
         <v>4</v>
       </c>
       <c r="D1520" t="n">
-        <v>-1.28</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="1521">
@@ -24772,7 +24772,7 @@
         <v>1.96</v>
       </c>
       <c r="D1521" t="n">
-        <v>-1.28</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="1522">
@@ -24788,7 +24788,7 @@
         <v>-3.93</v>
       </c>
       <c r="D1522" t="n">
-        <v>12.72</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="1523">
@@ -24900,7 +24900,7 @@
         <v>-8.369999999999999</v>
       </c>
       <c r="D1529" t="n">
-        <v>3.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1530">
@@ -24916,7 +24916,7 @@
         <v>-12.55</v>
       </c>
       <c r="D1530" t="n">
-        <v>7.99</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="1531">
@@ -24932,7 +24932,7 @@
         <v>-12.55</v>
       </c>
       <c r="D1531" t="n">
-        <v>7.99</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="1532">
@@ -24948,7 +24948,7 @@
         <v>-12.55</v>
       </c>
       <c r="D1532" t="n">
-        <v>7.99</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="1533">
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="D1544" t="n">
-        <v>2.69</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="1545">
@@ -25348,7 +25348,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1557" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1558">
@@ -25364,7 +25364,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1558" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1559">
@@ -25396,7 +25396,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1560" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1561">
@@ -25428,7 +25428,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1562" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1563">
@@ -25444,7 +25444,7 @@
         <v>12.52</v>
       </c>
       <c r="D1563" t="n">
-        <v>-4.6</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="1564">
@@ -25460,7 +25460,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1564" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1565">
@@ -25476,7 +25476,7 @@
         <v>42.54</v>
       </c>
       <c r="D1565" t="n">
-        <v>28.26</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="1566">
@@ -25492,7 +25492,7 @@
         <v>-6.92</v>
       </c>
       <c r="D1566" t="n">
-        <v>6.2</v>
+        <v>7.430000000000001</v>
       </c>
     </row>
     <row r="1567">
@@ -25508,7 +25508,7 @@
         <v>3.97</v>
       </c>
       <c r="D1567" t="n">
-        <v>0</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="1568">
@@ -25524,7 +25524,7 @@
         <v>3.97</v>
       </c>
       <c r="D1568" t="n">
-        <v>-4.52</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="1569">
@@ -25540,7 +25540,7 @@
         <v>3.97</v>
       </c>
       <c r="D1569" t="n">
-        <v>-4.52</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="1570">
@@ -25588,7 +25588,7 @@
         <v>-0.03</v>
       </c>
       <c r="D1572" t="n">
-        <v>-5.779999999999999</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="1573">
@@ -25604,7 +25604,7 @@
         <v>3.97</v>
       </c>
       <c r="D1573" t="n">
-        <v>-4.52</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="1574">
@@ -25636,7 +25636,7 @@
         <v>3.97</v>
       </c>
       <c r="D1575" t="n">
-        <v>-4.52</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="1576">
@@ -25668,7 +25668,7 @@
         <v>-1.67</v>
       </c>
       <c r="D1577" t="n">
-        <v>-4.52</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="1578">
@@ -25716,7 +25716,7 @@
         <v>-1.87</v>
       </c>
       <c r="D1580" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1581">
@@ -25732,7 +25732,7 @@
         <v>3.97</v>
       </c>
       <c r="D1581" t="n">
-        <v>-4.52</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="1582">
@@ -25748,7 +25748,7 @@
         <v>3.97</v>
       </c>
       <c r="D1582" t="n">
-        <v>-4.52</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="1583">
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="D1597" t="n">
-        <v>24.27</v>
+        <v>20.71</v>
       </c>
     </row>
     <row r="1598">
@@ -26100,7 +26100,7 @@
         <v>-0.77</v>
       </c>
       <c r="D1604" t="n">
-        <v>-11.81</v>
+        <v>-10.26</v>
       </c>
     </row>
     <row r="1605">
@@ -26116,7 +26116,7 @@
         <v>0.06</v>
       </c>
       <c r="D1605" t="n">
-        <v>20.68</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="1606">
@@ -26148,7 +26148,7 @@
         <v>0</v>
       </c>
       <c r="D1607" t="n">
-        <v>14.63</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="1608">
@@ -26516,7 +26516,7 @@
         <v>0</v>
       </c>
       <c r="D1630" t="n">
-        <v>-8.390000000000001</v>
+        <v>-8.890000000000001</v>
       </c>
     </row>
     <row r="1631">
@@ -26596,7 +26596,7 @@
         <v>-9.470000000000001</v>
       </c>
       <c r="D1635" t="n">
-        <v>12.2</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="1636">
@@ -26724,7 +26724,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1643" t="n">
-        <v>-15.54</v>
+        <v>-17.58</v>
       </c>
     </row>
     <row r="1644">
@@ -26740,7 +26740,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1644" t="n">
-        <v>-15.54</v>
+        <v>-17.58</v>
       </c>
     </row>
     <row r="1645">
@@ -26756,7 +26756,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1645" t="n">
-        <v>-15.54</v>
+        <v>-17.58</v>
       </c>
     </row>
     <row r="1646">
@@ -26772,7 +26772,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1646" t="n">
-        <v>-15.54</v>
+        <v>-17.58</v>
       </c>
     </row>
     <row r="1647">
@@ -26788,7 +26788,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1647" t="n">
-        <v>-15.54</v>
+        <v>-17.58</v>
       </c>
     </row>
     <row r="1648">
@@ -26804,7 +26804,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1648" t="n">
-        <v>-15.54</v>
+        <v>-17.58</v>
       </c>
     </row>
     <row r="1649">
@@ -26852,7 +26852,7 @@
         <v>0</v>
       </c>
       <c r="D1651" t="n">
-        <v>-17.8</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="1652">
@@ -26932,7 +26932,7 @@
         <v>4.44</v>
       </c>
       <c r="D1656" t="n">
-        <v>-1.42</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="1657">
@@ -26948,7 +26948,7 @@
         <v>3.27</v>
       </c>
       <c r="D1657" t="n">
-        <v>-1.42</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="1658">
@@ -26964,7 +26964,7 @@
         <v>3.27</v>
       </c>
       <c r="D1658" t="n">
-        <v>-1.42</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="1659">
@@ -27124,7 +27124,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1668" t="n">
-        <v>3.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="1669">
@@ -27140,7 +27140,7 @@
         <v>-7.66</v>
       </c>
       <c r="D1669" t="n">
-        <v>3.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="1670">
@@ -27156,7 +27156,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1670" t="n">
-        <v>3.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="1671">
@@ -27172,7 +27172,7 @@
         <v>-7.66</v>
       </c>
       <c r="D1671" t="n">
-        <v>3.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="1672">
@@ -27492,7 +27492,7 @@
         <v>-7.91</v>
       </c>
       <c r="D1691" t="n">
-        <v>3.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="1692">
@@ -27508,7 +27508,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1692" t="n">
-        <v>13.53</v>
+        <v>9.229999999999999</v>
       </c>
     </row>
     <row r="1693">
@@ -27524,7 +27524,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1693" t="n">
-        <v>3.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="1694">
@@ -27540,7 +27540,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1694" t="n">
-        <v>3.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="1695">
@@ -27588,7 +27588,7 @@
         <v>-7.79</v>
       </c>
       <c r="D1697" t="n">
-        <v>3.51</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="1698">
@@ -27652,7 +27652,7 @@
         <v>-5.92</v>
       </c>
       <c r="D1701" t="n">
-        <v>-15.54</v>
+        <v>-17.58</v>
       </c>
     </row>
     <row r="1702">
@@ -27700,7 +27700,7 @@
         <v>22.55</v>
       </c>
       <c r="D1704" t="n">
-        <v>-4.130000000000001</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="1705">
@@ -27796,7 +27796,7 @@
         <v>22.55</v>
       </c>
       <c r="D1710" t="n">
-        <v>-4.130000000000001</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="1711">
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="D1724" t="n">
-        <v>5.029999999999999</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="1725">
@@ -28148,7 +28148,7 @@
         <v>2.77</v>
       </c>
       <c r="D1732" t="n">
-        <v>3.88</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="1733">
@@ -28164,7 +28164,7 @@
         <v>2.77</v>
       </c>
       <c r="D1733" t="n">
-        <v>2.26</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="1734">
@@ -28340,7 +28340,7 @@
         <v>-16.6</v>
       </c>
       <c r="D1744" t="n">
-        <v>16.2</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="1745">
@@ -28724,7 +28724,7 @@
         <v>0</v>
       </c>
       <c r="D1768" t="n">
-        <v>0</v>
+        <v>-3.99</v>
       </c>
     </row>
     <row r="1769">
@@ -28756,7 +28756,7 @@
         <v>20.25</v>
       </c>
       <c r="D1770" t="n">
-        <v>5.510000000000001</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="1771">
@@ -29284,7 +29284,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1803" t="n">
-        <v>10.69</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="1804">
@@ -29316,7 +29316,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1805" t="n">
-        <v>10.69</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="1806">
@@ -29332,7 +29332,7 @@
         <v>-9.6</v>
       </c>
       <c r="D1806" t="n">
-        <v>17.18</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="1807">
@@ -29348,7 +29348,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1807" t="n">
-        <v>10.69</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="1808">
@@ -29364,7 +29364,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1808" t="n">
-        <v>8.880000000000001</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="1809">
@@ -29380,7 +29380,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1809" t="n">
-        <v>14.12</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="1810">
@@ -29396,7 +29396,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1810" t="n">
-        <v>8.880000000000001</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="1811">
@@ -29412,7 +29412,7 @@
         <v>9.91</v>
       </c>
       <c r="D1811" t="n">
-        <v>-3.93</v>
+        <v>-6.069999999999999</v>
       </c>
     </row>
     <row r="1812">
@@ -29428,7 +29428,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1812" t="n">
-        <v>10.69</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="1813">
@@ -29444,7 +29444,7 @@
         <v>-5.56</v>
       </c>
       <c r="D1813" t="n">
-        <v>14.12</v>
+        <v>11.67</v>
       </c>
     </row>
     <row r="1814">
@@ -29460,7 +29460,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1814" t="n">
-        <v>8.880000000000001</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="1815">
@@ -29476,7 +29476,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1815" t="n">
-        <v>13.13</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="1816">
@@ -29492,7 +29492,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1816" t="n">
-        <v>13.13</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="1817">
@@ -29508,7 +29508,7 @@
         <v>-6.67</v>
       </c>
       <c r="D1817" t="n">
-        <v>13.13</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="1818">
@@ -29524,7 +29524,7 @@
         <v>-12.43</v>
       </c>
       <c r="D1818" t="n">
-        <v>7.52</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="1819">
@@ -29556,7 +29556,7 @@
         <v>-7.82</v>
       </c>
       <c r="D1820" t="n">
-        <v>-3.42</v>
+        <v>-4.61</v>
       </c>
     </row>
     <row r="1821">
@@ -29572,7 +29572,7 @@
         <v>10.37</v>
       </c>
       <c r="D1821" t="n">
-        <v>1.53</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="1822">
@@ -29588,7 +29588,7 @@
         <v>10.37</v>
       </c>
       <c r="D1822" t="n">
-        <v>1.53</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="1823">
@@ -29604,7 +29604,7 @@
         <v>10.37</v>
       </c>
       <c r="D1823" t="n">
-        <v>1.53</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="1824">
@@ -29620,7 +29620,7 @@
         <v>10.37</v>
       </c>
       <c r="D1824" t="n">
-        <v>1.53</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="1825">
@@ -29636,7 +29636,7 @@
         <v>10.37</v>
       </c>
       <c r="D1825" t="n">
-        <v>1.53</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="1826">
@@ -29668,7 +29668,7 @@
         <v>10.37</v>
       </c>
       <c r="D1827" t="n">
-        <v>1.53</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="1828">
@@ -29812,7 +29812,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1836" t="n">
-        <v>8.81</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="1837">
@@ -29860,7 +29860,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1839" t="n">
-        <v>8.81</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="1840">
@@ -29876,7 +29876,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1840" t="n">
-        <v>8.81</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="1841">
@@ -29892,7 +29892,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1841" t="n">
-        <v>8.81</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="1842">
@@ -29908,7 +29908,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1842" t="n">
-        <v>8.81</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="1843">
@@ -29924,7 +29924,7 @@
         <v>-9.09</v>
       </c>
       <c r="D1843" t="n">
-        <v>8.81</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="1844">
@@ -30052,7 +30052,7 @@
         <v>20.93</v>
       </c>
       <c r="D1851" t="n">
-        <v>-3.73</v>
+        <v>-5.600000000000001</v>
       </c>
     </row>
     <row r="1852">
@@ -30100,7 +30100,7 @@
         <v>20.93</v>
       </c>
       <c r="D1854" t="n">
-        <v>-3.73</v>
+        <v>-5.600000000000001</v>
       </c>
     </row>
     <row r="1855">
@@ -30452,7 +30452,7 @@
         <v>0</v>
       </c>
       <c r="D1876" t="n">
-        <v>-9.1</v>
+        <v>-9.73</v>
       </c>
     </row>
     <row r="1877">
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="D1880" t="n">
-        <v>8.540000000000001</v>
+        <v>7.290000000000001</v>
       </c>
     </row>
     <row r="1881">
@@ -30788,7 +30788,7 @@
         <v>1.6</v>
       </c>
       <c r="D1897" t="n">
-        <v>7.430000000000001</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="1898">
@@ -31012,7 +31012,7 @@
         <v>-16.68</v>
       </c>
       <c r="D1911" t="n">
-        <v>4.46</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="1912">
@@ -31460,7 +31460,7 @@
         <v>11.85</v>
       </c>
       <c r="D1939" t="n">
-        <v>-5.67</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="1940">
@@ -32004,7 +32004,7 @@
         <v>0</v>
       </c>
       <c r="D1973" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="1974">
@@ -32020,7 +32020,7 @@
         <v>0</v>
       </c>
       <c r="D1974" t="n">
-        <v>-4.51</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="1975">
@@ -32180,7 +32180,7 @@
         <v>0</v>
       </c>
       <c r="D1984" t="n">
-        <v>8.93</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="1985">
@@ -32212,7 +32212,7 @@
         <v>0</v>
       </c>
       <c r="D1986" t="n">
-        <v>8.85</v>
+        <v>7.580000000000001</v>
       </c>
     </row>
     <row r="1987">
@@ -32356,7 +32356,7 @@
         <v>0</v>
       </c>
       <c r="D1995" t="n">
-        <v>6.069999999999999</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="1996">
@@ -32388,7 +32388,7 @@
         <v>0</v>
       </c>
       <c r="D1997" t="n">
-        <v>5.34</v>
+        <v>4.569999999999999</v>
       </c>
     </row>
     <row r="1998">
@@ -32404,7 +32404,7 @@
         <v>0</v>
       </c>
       <c r="D1998" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1999">
@@ -32420,7 +32420,7 @@
         <v>0</v>
       </c>
       <c r="D1999" t="n">
-        <v>2.33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2000">
@@ -32452,7 +32452,7 @@
         <v>0</v>
       </c>
       <c r="D2001" t="n">
-        <v>8.93</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="2002">
@@ -32468,7 +32468,7 @@
         <v>0</v>
       </c>
       <c r="D2002" t="n">
-        <v>8.93</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="2003">
@@ -32484,7 +32484,7 @@
         <v>0</v>
       </c>
       <c r="D2003" t="n">
-        <v>8.93</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="2004">
@@ -32500,7 +32500,7 @@
         <v>0</v>
       </c>
       <c r="D2004" t="n">
-        <v>8.93</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="2005">
@@ -32516,7 +32516,7 @@
         <v>0</v>
       </c>
       <c r="D2005" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="2006">
@@ -32532,7 +32532,7 @@
         <v>-3.95</v>
       </c>
       <c r="D2006" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="2007">
@@ -32612,7 +32612,7 @@
         <v>0</v>
       </c>
       <c r="D2011" t="n">
-        <v>4.01</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="2012">
@@ -32692,7 +32692,7 @@
         <v>14.37</v>
       </c>
       <c r="D2016" t="n">
-        <v>12.35</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="2017">
@@ -32740,7 +32740,7 @@
         <v>2.77</v>
       </c>
       <c r="D2019" t="n">
-        <v>3.88</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="2020">
@@ -32820,7 +32820,7 @@
         <v>-3.28</v>
       </c>
       <c r="D2024" t="n">
-        <v>2.63</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="2025">
@@ -32852,7 +32852,7 @@
         <v>1.02</v>
       </c>
       <c r="D2026" t="n">
-        <v>-3.45</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="2027">
@@ -32868,7 +32868,7 @@
         <v>1.02</v>
       </c>
       <c r="D2027" t="n">
-        <v>-3.45</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="2028">
@@ -33252,7 +33252,7 @@
         <v>-5.93</v>
       </c>
       <c r="D2051" t="n">
-        <v>4.78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2052">
@@ -33492,7 +33492,7 @@
         <v>0</v>
       </c>
       <c r="D2066" t="n">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="2067">
@@ -33540,7 +33540,7 @@
         <v>-5.52</v>
       </c>
       <c r="D2069" t="n">
-        <v>2.49</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="2070">
@@ -33588,7 +33588,7 @@
         <v>0</v>
       </c>
       <c r="D2072" t="n">
-        <v>-1.79</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="2073">
@@ -33604,7 +33604,7 @@
         <v>1.73</v>
       </c>
       <c r="D2073" t="n">
-        <v>-9.869999999999999</v>
+        <v>-8.44</v>
       </c>
     </row>
     <row r="2074">
@@ -33668,7 +33668,7 @@
         <v>-5.28</v>
       </c>
       <c r="D2077" t="n">
-        <v>4.24</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="2078">
@@ -33684,7 +33684,7 @@
         <v>-7.199999999999999</v>
       </c>
       <c r="D2078" t="n">
-        <v>5.93</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="2079">
@@ -33732,7 +33732,7 @@
         <v>0</v>
       </c>
       <c r="D2081" t="n">
-        <v>-26.07</v>
+        <v>-22.35</v>
       </c>
     </row>
     <row r="2082">
@@ -33764,7 +33764,7 @@
         <v>0</v>
       </c>
       <c r="D2083" t="n">
-        <v>-2.94</v>
+        <v>-5.06</v>
       </c>
     </row>
     <row r="2084">
@@ -33844,7 +33844,7 @@
         <v>0</v>
       </c>
       <c r="D2088" t="n">
-        <v>-8.390000000000001</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="2089">
@@ -33876,7 +33876,7 @@
         <v>-1.48</v>
       </c>
       <c r="D2090" t="n">
-        <v>-11.62</v>
+        <v>-9.92</v>
       </c>
     </row>
     <row r="2091">
@@ -33892,7 +33892,7 @@
         <v>0</v>
       </c>
       <c r="D2091" t="n">
-        <v>-5.609999999999999</v>
+        <v>-5.75</v>
       </c>
     </row>
     <row r="2092">
@@ -33940,7 +33940,7 @@
         <v>4.87</v>
       </c>
       <c r="D2094" t="n">
-        <v>-1.16</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="2095">
@@ -33956,7 +33956,7 @@
         <v>-10.33</v>
       </c>
       <c r="D2095" t="n">
-        <v>-1.65</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="2096">
@@ -33972,7 +33972,7 @@
         <v>12.3</v>
       </c>
       <c r="D2096" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2097">
@@ -34100,7 +34100,7 @@
         <v>0</v>
       </c>
       <c r="D2104" t="n">
-        <v>2.43</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="2105">
@@ -34164,7 +34164,7 @@
         <v>-1.58</v>
       </c>
       <c r="D2108" t="n">
-        <v>-2.54</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="2109">
@@ -34180,7 +34180,7 @@
         <v>0</v>
       </c>
       <c r="D2109" t="n">
-        <v>-10.03</v>
+        <v>-12.78</v>
       </c>
     </row>
     <row r="2110">
@@ -34244,7 +34244,7 @@
         <v>0</v>
       </c>
       <c r="D2113" t="n">
-        <v>-8.129999999999999</v>
+        <v>-10.59</v>
       </c>
     </row>
     <row r="2114">
@@ -34260,7 +34260,7 @@
         <v>0</v>
       </c>
       <c r="D2114" t="n">
-        <v>-7.449999999999999</v>
+        <v>-9.569999999999999</v>
       </c>
     </row>
     <row r="2115">
@@ -34276,7 +34276,7 @@
         <v>0</v>
       </c>
       <c r="D2115" t="n">
-        <v>-2.04</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="2116">
@@ -34660,7 +34660,7 @@
         <v>0</v>
       </c>
       <c r="D2139" t="n">
-        <v>4.45</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="2140">
@@ -34692,7 +34692,7 @@
         <v>2.89</v>
       </c>
       <c r="D2141" t="n">
-        <v>0</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="2142">
@@ -34708,7 +34708,7 @@
         <v>2.73</v>
       </c>
       <c r="D2142" t="n">
-        <v>0</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="2143">
@@ -35556,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="D2195" t="n">
-        <v>35.77</v>
+        <v>30.68</v>
       </c>
     </row>
     <row r="2196">
@@ -35572,7 +35572,7 @@
         <v>0</v>
       </c>
       <c r="D2196" t="n">
-        <v>11.08</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="2197">
@@ -36772,7 +36772,7 @@
         <v>-5.37</v>
       </c>
       <c r="D2271" t="n">
-        <v>5.67</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="2272">
@@ -36788,7 +36788,7 @@
         <v>-12.05</v>
       </c>
       <c r="D2272" t="n">
-        <v>22.07</v>
+        <v>22.81</v>
       </c>
     </row>
     <row r="2273">
@@ -36820,7 +36820,7 @@
         <v>10.37</v>
       </c>
       <c r="D2274" t="n">
-        <v>9.539999999999999</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="2275">
@@ -36836,7 +36836,7 @@
         <v>-12.05</v>
       </c>
       <c r="D2275" t="n">
-        <v>22.07</v>
+        <v>22.81</v>
       </c>
     </row>
     <row r="2276">
@@ -36884,7 +36884,7 @@
         <v>-10.11</v>
       </c>
       <c r="D2278" t="n">
-        <v>13.76</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="2279">
@@ -36916,7 +36916,7 @@
         <v>-3.49</v>
       </c>
       <c r="D2280" t="n">
-        <v>13.87</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="2281">
@@ -36932,7 +36932,7 @@
         <v>-10.11</v>
       </c>
       <c r="D2281" t="n">
-        <v>18.14</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="2282">
@@ -37044,7 +37044,7 @@
         <v>-0.7100000000000001</v>
       </c>
       <c r="D2288" t="n">
-        <v>10.4</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="2289">
@@ -37796,7 +37796,7 @@
         <v>13.48</v>
       </c>
       <c r="D2335" t="n">
-        <v>0.12</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="2336">
@@ -37812,7 +37812,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="D2336" t="n">
-        <v>0.12</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="2337">
@@ -38276,7 +38276,7 @@
         <v>0</v>
       </c>
       <c r="D2365" t="n">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="2366">
@@ -38324,7 +38324,7 @@
         <v>0</v>
       </c>
       <c r="D2368" t="n">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="2369">
@@ -38340,7 +38340,7 @@
         <v>0</v>
       </c>
       <c r="D2369" t="n">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="2370">
@@ -38356,7 +38356,7 @@
         <v>0</v>
       </c>
       <c r="D2370" t="n">
-        <v>3.72</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="2371">
@@ -38372,7 +38372,7 @@
         <v>0</v>
       </c>
       <c r="D2371" t="n">
-        <v>3.72</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="2372">
@@ -38388,7 +38388,7 @@
         <v>0</v>
       </c>
       <c r="D2372" t="n">
-        <v>3.72</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="2373">
@@ -38564,7 +38564,7 @@
         <v>8.110000000000001</v>
       </c>
       <c r="D2383" t="n">
-        <v>-7.51</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="2384">
@@ -38580,7 +38580,7 @@
         <v>8.110000000000001</v>
       </c>
       <c r="D2384" t="n">
-        <v>-7.51</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="2385">
@@ -38596,7 +38596,7 @@
         <v>13.6</v>
       </c>
       <c r="D2385" t="n">
-        <v>-11.97</v>
+        <v>-12.61</v>
       </c>
     </row>
     <row r="2386">
@@ -38612,7 +38612,7 @@
         <v>8.110000000000001</v>
       </c>
       <c r="D2386" t="n">
-        <v>-7.51</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="2387">
@@ -38628,7 +38628,7 @@
         <v>8.110000000000001</v>
       </c>
       <c r="D2387" t="n">
-        <v>-7.51</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="2388">
@@ -38644,7 +38644,7 @@
         <v>8.110000000000001</v>
       </c>
       <c r="D2388" t="n">
-        <v>-7.51</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="2389">
@@ -38660,7 +38660,7 @@
         <v>0</v>
       </c>
       <c r="D2389" t="n">
-        <v>-22.2</v>
+        <v>-23.87</v>
       </c>
     </row>
     <row r="2390">
@@ -38676,7 +38676,7 @@
         <v>0</v>
       </c>
       <c r="D2390" t="n">
-        <v>-22.2</v>
+        <v>-23.87</v>
       </c>
     </row>
     <row r="2391">
@@ -38692,7 +38692,7 @@
         <v>0</v>
       </c>
       <c r="D2391" t="n">
-        <v>-22.2</v>
+        <v>-23.87</v>
       </c>
     </row>
     <row r="2392">
@@ -38916,7 +38916,7 @@
         <v>-14.34</v>
       </c>
       <c r="D2405" t="n">
-        <v>16.74</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="2406">
@@ -38948,7 +38948,7 @@
         <v>2.17</v>
       </c>
       <c r="D2407" t="n">
-        <v>-18.76</v>
+        <v>-16.07</v>
       </c>
     </row>
     <row r="2408">
@@ -38964,7 +38964,7 @@
         <v>2.17</v>
       </c>
       <c r="D2408" t="n">
-        <v>-18.76</v>
+        <v>-16.07</v>
       </c>
     </row>
     <row r="2409">
@@ -38996,7 +38996,7 @@
         <v>8.51</v>
       </c>
       <c r="D2410" t="n">
-        <v>-2.55</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="2411">
@@ -39028,7 +39028,7 @@
         <v>8.51</v>
       </c>
       <c r="D2412" t="n">
-        <v>-2.55</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="2413">
@@ -39044,7 +39044,7 @@
         <v>-4.74</v>
       </c>
       <c r="D2413" t="n">
-        <v>3.78</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="2414">
@@ -39124,7 +39124,7 @@
         <v>0</v>
       </c>
       <c r="D2418" t="n">
-        <v>-13.45</v>
+        <v>-13.87</v>
       </c>
     </row>
     <row r="2419">
@@ -39156,7 +39156,7 @@
         <v>0</v>
       </c>
       <c r="D2420" t="n">
-        <v>-1.7</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="2421">
@@ -39316,7 +39316,7 @@
         <v>15.49</v>
       </c>
       <c r="D2430" t="n">
-        <v>-3.87</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="2431">
@@ -39348,7 +39348,7 @@
         <v>-4.96</v>
       </c>
       <c r="D2432" t="n">
-        <v>9.359999999999999</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="2433">
@@ -39428,7 +39428,7 @@
         <v>-2.68</v>
       </c>
       <c r="D2437" t="n">
-        <v>2.75</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="2438">
@@ -39476,7 +39476,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2440" t="n">
-        <v>19.07</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="2441">
@@ -39492,7 +39492,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2441" t="n">
-        <v>19.07</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="2442">
@@ -39508,7 +39508,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2442" t="n">
-        <v>19.07</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="2443">
@@ -39524,7 +39524,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2443" t="n">
-        <v>19.07</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="2444">
@@ -39540,7 +39540,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2444" t="n">
-        <v>19.07</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="2445">
@@ -39556,7 +39556,7 @@
         <v>-25.47</v>
       </c>
       <c r="D2445" t="n">
-        <v>19.07</v>
+        <v>14.77</v>
       </c>
     </row>
     <row r="2446">
@@ -39572,7 +39572,7 @@
         <v>-13.33</v>
       </c>
       <c r="D2446" t="n">
-        <v>1.29</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="2447">
@@ -39588,7 +39588,7 @@
         <v>-13.33</v>
       </c>
       <c r="D2447" t="n">
-        <v>1.29</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="2448">
@@ -39604,7 +39604,7 @@
         <v>-13.33</v>
       </c>
       <c r="D2448" t="n">
-        <v>1.29</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="2449">
@@ -39620,7 +39620,7 @@
         <v>-13.33</v>
       </c>
       <c r="D2449" t="n">
-        <v>1.29</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="2450">
@@ -39924,7 +39924,7 @@
         <v>4.12</v>
       </c>
       <c r="D2468" t="n">
-        <v>7.77</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="2469">
@@ -40196,7 +40196,7 @@
         <v>-3.51</v>
       </c>
       <c r="D2485" t="n">
-        <v>-0.65</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="2486">
@@ -40324,7 +40324,7 @@
         <v>0</v>
       </c>
       <c r="D2493" t="n">
-        <v>4.61</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="2494">
@@ -40356,7 +40356,7 @@
         <v>0</v>
       </c>
       <c r="D2495" t="n">
-        <v>0.62</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="2496">
@@ -40372,7 +40372,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="D2496" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="2497">
@@ -40420,7 +40420,7 @@
         <v>-2.65</v>
       </c>
       <c r="D2499" t="n">
-        <v>3.7</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="2500">
@@ -40468,7 +40468,7 @@
         <v>-10.9</v>
       </c>
       <c r="D2502" t="n">
-        <v>12.02</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="2503">
@@ -40676,7 +40676,7 @@
         <v>8.42</v>
       </c>
       <c r="D2515" t="n">
-        <v>-1.29</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="2516">
@@ -40884,7 +40884,7 @@
         <v>-4.9</v>
       </c>
       <c r="D2528" t="n">
-        <v>-24.87</v>
+        <v>-21.67</v>
       </c>
     </row>
     <row r="2529">
@@ -40900,7 +40900,7 @@
         <v>0</v>
       </c>
       <c r="D2529" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="2530">
@@ -41012,7 +41012,7 @@
         <v>0</v>
       </c>
       <c r="D2536" t="n">
-        <v>8.619999999999999</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="2537">
@@ -41028,7 +41028,7 @@
         <v>0</v>
       </c>
       <c r="D2537" t="n">
-        <v>8.619999999999999</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="2538">
@@ -41060,7 +41060,7 @@
         <v>-8.4</v>
       </c>
       <c r="D2539" t="n">
-        <v>-2.37</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="2540">
@@ -41140,7 +41140,7 @@
         <v>0</v>
       </c>
       <c r="D2544" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="2545">
@@ -41204,7 +41204,7 @@
         <v>-4.77</v>
       </c>
       <c r="D2548" t="n">
-        <v>3.06</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="2549">
@@ -41396,7 +41396,7 @@
         <v>-21.09</v>
       </c>
       <c r="D2560" t="n">
-        <v>31.18</v>
+        <v>33.41</v>
       </c>
     </row>
     <row r="2561">
@@ -41412,7 +41412,7 @@
         <v>-7.16</v>
       </c>
       <c r="D2561" t="n">
-        <v>7.71</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="2562">
@@ -41476,7 +41476,7 @@
         <v>0</v>
       </c>
       <c r="D2565" t="n">
-        <v>-7.95</v>
+        <v>-9.07</v>
       </c>
     </row>
     <row r="2566">
@@ -41524,7 +41524,7 @@
         <v>0</v>
       </c>
       <c r="D2568" t="n">
-        <v>0</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="2569">
@@ -41700,7 +41700,7 @@
         <v>0</v>
       </c>
       <c r="D2579" t="n">
-        <v>3.83</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="2580">
@@ -41716,7 +41716,7 @@
         <v>2.28</v>
       </c>
       <c r="D2580" t="n">
-        <v>-2.61</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="2581">
@@ -41972,7 +41972,7 @@
         <v>0</v>
       </c>
       <c r="D2596" t="n">
-        <v>-3.39</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="2597">
@@ -42036,7 +42036,7 @@
         <v>0</v>
       </c>
       <c r="D2600" t="n">
-        <v>-6.77</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="2601">
@@ -42052,7 +42052,7 @@
         <v>5.77</v>
       </c>
       <c r="D2601" t="n">
-        <v>-27.49</v>
+        <v>-27.88</v>
       </c>
     </row>
     <row r="2602">
@@ -42100,7 +42100,7 @@
         <v>-21.24</v>
       </c>
       <c r="D2604" t="n">
-        <v>21.05</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="2605">
@@ -42116,7 +42116,7 @@
         <v>-21.24</v>
       </c>
       <c r="D2605" t="n">
-        <v>21.05</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="2606">
@@ -42132,7 +42132,7 @@
         <v>-21.24</v>
       </c>
       <c r="D2606" t="n">
-        <v>21.05</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="2607">
@@ -42148,7 +42148,7 @@
         <v>-21.24</v>
       </c>
       <c r="D2607" t="n">
-        <v>21.05</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="2608">
@@ -42180,7 +42180,7 @@
         <v>0</v>
       </c>
       <c r="D2609" t="n">
-        <v>-6.01</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="2610">
@@ -42196,7 +42196,7 @@
         <v>0</v>
       </c>
       <c r="D2610" t="n">
-        <v>-3.76</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="2611">
@@ -42212,7 +42212,7 @@
         <v>0</v>
       </c>
       <c r="D2611" t="n">
-        <v>-3.76</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="2612">
@@ -42228,7 +42228,7 @@
         <v>0</v>
       </c>
       <c r="D2612" t="n">
-        <v>18.29</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="2613">
@@ -42244,7 +42244,7 @@
         <v>0</v>
       </c>
       <c r="D2613" t="n">
-        <v>-3.76</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="2614">
@@ -42308,7 +42308,7 @@
         <v>12.43</v>
       </c>
       <c r="D2617" t="n">
-        <v>-3.49</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="2618">
@@ -42452,7 +42452,7 @@
         <v>-13.78</v>
       </c>
       <c r="D2626" t="n">
-        <v>9.75</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="2627">
@@ -42468,7 +42468,7 @@
         <v>-13.78</v>
       </c>
       <c r="D2627" t="n">
-        <v>9.75</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="2628">
@@ -42484,7 +42484,7 @@
         <v>-3.28</v>
       </c>
       <c r="D2628" t="n">
-        <v>-2.17</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="2629">
@@ -42500,7 +42500,7 @@
         <v>-13.78</v>
       </c>
       <c r="D2629" t="n">
-        <v>9.75</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="2630">
@@ -42548,7 +42548,7 @@
         <v>-12.88</v>
       </c>
       <c r="D2632" t="n">
-        <v>8.110000000000001</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="2633">
@@ -42564,7 +42564,7 @@
         <v>-12.88</v>
       </c>
       <c r="D2633" t="n">
-        <v>8.110000000000001</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="2634">
@@ -42580,7 +42580,7 @@
         <v>16.85</v>
       </c>
       <c r="D2634" t="n">
-        <v>0.6899999999999999</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="2635">
@@ -42596,7 +42596,7 @@
         <v>17.4</v>
       </c>
       <c r="D2635" t="n">
-        <v>2.17</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="2636">
@@ -42612,7 +42612,7 @@
         <v>2.62</v>
       </c>
       <c r="D2636" t="n">
-        <v>2.17</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="2637">
@@ -42644,7 +42644,7 @@
         <v>10.06</v>
       </c>
       <c r="D2638" t="n">
-        <v>2.17</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="2639">
@@ -42660,7 +42660,7 @@
         <v>16.85</v>
       </c>
       <c r="D2639" t="n">
-        <v>0.6899999999999999</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="2640">
@@ -42676,7 +42676,7 @@
         <v>0</v>
       </c>
       <c r="D2640" t="n">
-        <v>-0.38</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="2641">
@@ -42724,7 +42724,7 @@
         <v>-6.64</v>
       </c>
       <c r="D2643" t="n">
-        <v>-4.64</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="2644">
@@ -42980,7 +42980,7 @@
         <v>-2.9</v>
       </c>
       <c r="D2659" t="n">
-        <v>-4.04</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="2660">
@@ -43844,7 +43844,7 @@
         <v>0</v>
       </c>
       <c r="D2713" t="n">
-        <v>31.38</v>
+        <v>32.22</v>
       </c>
     </row>
     <row r="2714">
@@ -44100,7 +44100,7 @@
         <v>4.94</v>
       </c>
       <c r="D2729" t="n">
-        <v>8.529999999999999</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="2730">
@@ -44116,7 +44116,7 @@
         <v>1.54</v>
       </c>
       <c r="D2730" t="n">
-        <v>10.03</v>
+        <v>9.120000000000001</v>
       </c>
     </row>
     <row r="2731">
@@ -44228,7 +44228,7 @@
         <v>0</v>
       </c>
       <c r="D2737" t="n">
-        <v>-14</v>
+        <v>-14.42</v>
       </c>
     </row>
     <row r="2738">
@@ -44244,7 +44244,7 @@
         <v>0</v>
       </c>
       <c r="D2738" t="n">
-        <v>14.54</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="2739">
@@ -44276,7 +44276,7 @@
         <v>0</v>
       </c>
       <c r="D2740" t="n">
-        <v>-14</v>
+        <v>-14.42</v>
       </c>
     </row>
     <row r="2741">
@@ -44292,7 +44292,7 @@
         <v>0</v>
       </c>
       <c r="D2741" t="n">
-        <v>14.54</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="2742">
@@ -44324,7 +44324,7 @@
         <v>0</v>
       </c>
       <c r="D2743" t="n">
-        <v>14.54</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="2744">
@@ -44340,7 +44340,7 @@
         <v>0</v>
       </c>
       <c r="D2744" t="n">
-        <v>-14</v>
+        <v>-14.42</v>
       </c>
     </row>
     <row r="2745">
@@ -44356,7 +44356,7 @@
         <v>0</v>
       </c>
       <c r="D2745" t="n">
-        <v>14.54</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="2746">
@@ -44452,7 +44452,7 @@
         <v>-3.93</v>
       </c>
       <c r="D2751" t="n">
-        <v>-6.27</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="2752">
@@ -44548,7 +44548,7 @@
         <v>4.94</v>
       </c>
       <c r="D2757" t="n">
-        <v>8.529999999999999</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="2758">
@@ -44612,7 +44612,7 @@
         <v>0</v>
       </c>
       <c r="D2761" t="n">
-        <v>-2.34</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="2762">
@@ -44628,7 +44628,7 @@
         <v>0</v>
       </c>
       <c r="D2762" t="n">
-        <v>-2.34</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="2763">
@@ -44644,7 +44644,7 @@
         <v>0</v>
       </c>
       <c r="D2763" t="n">
-        <v>-2.34</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="2764">
@@ -44660,7 +44660,7 @@
         <v>8.02</v>
       </c>
       <c r="D2764" t="n">
-        <v>-3.92</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="2765">
@@ -44676,7 +44676,7 @@
         <v>8.02</v>
       </c>
       <c r="D2765" t="n">
-        <v>-3.92</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="2766">
@@ -44692,7 +44692,7 @@
         <v>8.02</v>
       </c>
       <c r="D2766" t="n">
-        <v>-3.92</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="2767">
@@ -44708,7 +44708,7 @@
         <v>8.02</v>
       </c>
       <c r="D2767" t="n">
-        <v>-3.92</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="2768">
@@ -44724,7 +44724,7 @@
         <v>8.02</v>
       </c>
       <c r="D2768" t="n">
-        <v>-3.92</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="2769">
@@ -44740,7 +44740,7 @@
         <v>8.02</v>
       </c>
       <c r="D2769" t="n">
-        <v>-3.92</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="2770">
@@ -44756,7 +44756,7 @@
         <v>8.02</v>
       </c>
       <c r="D2770" t="n">
-        <v>-3.92</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="2771">
@@ -44932,7 +44932,7 @@
         <v>0</v>
       </c>
       <c r="D2781" t="n">
-        <v>4.17</v>
+        <v>7.180000000000001</v>
       </c>
     </row>
     <row r="2782">
@@ -45556,7 +45556,7 @@
         <v>-9.56</v>
       </c>
       <c r="D2820" t="n">
-        <v>11.04</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="2821">
@@ -45572,7 +45572,7 @@
         <v>1.74</v>
       </c>
       <c r="D2821" t="n">
-        <v>-5.89</v>
+        <v>-10.12</v>
       </c>
     </row>
     <row r="2822">
@@ -45732,7 +45732,7 @@
         <v>7.61</v>
       </c>
       <c r="D2831" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="2832">
@@ -45860,7 +45860,7 @@
         <v>-9.300000000000001</v>
       </c>
       <c r="D2839" t="n">
-        <v>-10.9</v>
+        <v>-11.22</v>
       </c>
     </row>
     <row r="2840">
@@ -46228,7 +46228,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="D2862" t="n">
-        <v>-1.23</v>
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="2863">
@@ -46244,7 +46244,7 @@
         <v>1.17</v>
       </c>
       <c r="D2863" t="n">
-        <v>10.38</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="2864">
@@ -46356,7 +46356,7 @@
         <v>-2</v>
       </c>
       <c r="D2870" t="n">
-        <v>-1.18</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="2871">
@@ -46372,7 +46372,7 @@
         <v>0</v>
       </c>
       <c r="D2871" t="n">
-        <v>-2.22</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="2872">
@@ -46388,7 +46388,7 @@
         <v>0.47</v>
       </c>
       <c r="D2872" t="n">
-        <v>-1.49</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="2873">
@@ -46452,7 +46452,7 @@
         <v>4.79</v>
       </c>
       <c r="D2876" t="n">
-        <v>-3.19</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="2877">
@@ -46468,7 +46468,7 @@
         <v>0</v>
       </c>
       <c r="D2877" t="n">
-        <v>8.540000000000001</v>
+        <v>7.290000000000001</v>
       </c>
     </row>
     <row r="2878">
@@ -46564,7 +46564,7 @@
         <v>-11.31</v>
       </c>
       <c r="D2883" t="n">
-        <v>-3.79</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="2884">
@@ -46580,7 +46580,7 @@
         <v>4.68</v>
       </c>
       <c r="D2884" t="n">
-        <v>23.32</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="2885">
@@ -46596,7 +46596,7 @@
         <v>-0.75</v>
       </c>
       <c r="D2885" t="n">
-        <v>-23.31</v>
+        <v>-23.81</v>
       </c>
     </row>
     <row r="2886">
@@ -46692,7 +46692,7 @@
         <v>-6.5</v>
       </c>
       <c r="D2891" t="n">
-        <v>12.75</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="2892">
@@ -46708,7 +46708,7 @@
         <v>6.600000000000001</v>
       </c>
       <c r="D2892" t="n">
-        <v>1.33</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="2893">
@@ -46772,7 +46772,7 @@
         <v>0</v>
       </c>
       <c r="D2896" t="n">
-        <v>13.86</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="2897">
@@ -47124,7 +47124,7 @@
         <v>13.91</v>
       </c>
       <c r="D2918" t="n">
-        <v>-14.21</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="2919">
@@ -47636,7 +47636,7 @@
         <v>0</v>
       </c>
       <c r="D2950" t="n">
-        <v>31.82</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="2951">
@@ -47652,7 +47652,7 @@
         <v>0</v>
       </c>
       <c r="D2951" t="n">
-        <v>31.82</v>
+        <v>32.7</v>
       </c>
     </row>
     <row r="2952">
@@ -47748,7 +47748,7 @@
         <v>0</v>
       </c>
       <c r="D2957" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="2958">
@@ -47924,7 +47924,7 @@
         <v>0</v>
       </c>
       <c r="D2968" t="n">
-        <v>-27.52</v>
+        <v>-28.32</v>
       </c>
     </row>
     <row r="2969">
@@ -48100,7 +48100,7 @@
         <v>0</v>
       </c>
       <c r="D2979" t="n">
-        <v>-2.3</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="2980">
@@ -48116,7 +48116,7 @@
         <v>0</v>
       </c>
       <c r="D2980" t="n">
-        <v>8.83</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="2981">
@@ -48180,7 +48180,7 @@
         <v>0</v>
       </c>
       <c r="D2984" t="n">
-        <v>20.57</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="2985">
@@ -48308,7 +48308,7 @@
         <v>6.35</v>
       </c>
       <c r="D2992" t="n">
-        <v>23.66</v>
+        <v>22.81</v>
       </c>
     </row>
     <row r="2993">
@@ -48340,7 +48340,7 @@
         <v>26.91</v>
       </c>
       <c r="D2994" t="n">
-        <v>1.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="2995">
@@ -48628,7 +48628,7 @@
         <v>0</v>
       </c>
       <c r="D3012" t="n">
-        <v>-24.32</v>
+        <v>-26.05</v>
       </c>
     </row>
     <row r="3013">
@@ -48660,7 +48660,7 @@
         <v>0</v>
       </c>
       <c r="D3014" t="n">
-        <v>-11.1</v>
+        <v>-14.27</v>
       </c>
     </row>
     <row r="3015">
@@ -48676,7 +48676,7 @@
         <v>-7.779999999999999</v>
       </c>
       <c r="D3015" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3016">
@@ -48724,7 +48724,7 @@
         <v>0</v>
       </c>
       <c r="D3018" t="n">
-        <v>-2.73</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="3019">
@@ -48932,7 +48932,7 @@
         <v>3.99</v>
       </c>
       <c r="D3031" t="n">
-        <v>-13.94</v>
+        <v>-11.94</v>
       </c>
     </row>
     <row r="3032">
@@ -48964,7 +48964,7 @@
         <v>5.67</v>
       </c>
       <c r="D3033" t="n">
-        <v>10.15</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="3034">
@@ -49412,7 +49412,7 @@
         <v>0</v>
       </c>
       <c r="D3061" t="n">
-        <v>-7.870000000000001</v>
+        <v>-10.12</v>
       </c>
     </row>
     <row r="3062">
@@ -49492,7 +49492,7 @@
         <v>0</v>
       </c>
       <c r="D3066" t="n">
-        <v>-5.72</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="3067">
@@ -49508,7 +49508,7 @@
         <v>0</v>
       </c>
       <c r="D3067" t="n">
-        <v>-8.359999999999999</v>
+        <v>-10.03</v>
       </c>
     </row>
     <row r="3068">
@@ -49524,7 +49524,7 @@
         <v>-20.47</v>
       </c>
       <c r="D3068" t="n">
-        <v>24.44</v>
+        <v>24.07</v>
       </c>
     </row>
     <row r="3069">
@@ -49556,7 +49556,7 @@
         <v>0</v>
       </c>
       <c r="D3070" t="n">
-        <v>-1.56</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3071">
@@ -49572,7 +49572,7 @@
         <v>0</v>
       </c>
       <c r="D3071" t="n">
-        <v>-0.46</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="3072">
@@ -49588,7 +49588,7 @@
         <v>-5.42</v>
       </c>
       <c r="D3072" t="n">
-        <v>-18.74</v>
+        <v>-19.65</v>
       </c>
     </row>
     <row r="3073">
@@ -49652,7 +49652,7 @@
         <v>-1.53</v>
       </c>
       <c r="D3076" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3077">
@@ -49924,7 +49924,7 @@
         <v>0</v>
       </c>
       <c r="D3093" t="n">
-        <v>-1.17</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="3094">
@@ -49956,7 +49956,7 @@
         <v>0</v>
       </c>
       <c r="D3095" t="n">
-        <v>-0.43</v>
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="3096">
@@ -50020,7 +50020,7 @@
         <v>0</v>
       </c>
       <c r="D3099" t="n">
-        <v>-26.79</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="3100">
@@ -50116,7 +50116,7 @@
         <v>0</v>
       </c>
       <c r="D3105" t="n">
-        <v>-0.4</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="3106">
@@ -50612,7 +50612,7 @@
         <v>-1.56</v>
       </c>
       <c r="D3136" t="n">
-        <v>-10.27</v>
+        <v>-8.219999999999999</v>
       </c>
     </row>
     <row r="3137">
@@ -50644,7 +50644,7 @@
         <v>-0.25</v>
       </c>
       <c r="D3138" t="n">
-        <v>8.68</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="3139">
@@ -50756,7 +50756,7 @@
         <v>5.09</v>
       </c>
       <c r="D3145" t="n">
-        <v>5.73</v>
+        <v>7.049999999999999</v>
       </c>
     </row>
     <row r="3146">
@@ -50772,7 +50772,7 @@
         <v>7.46</v>
       </c>
       <c r="D3146" t="n">
-        <v>4.17</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="3147">
@@ -50820,7 +50820,7 @@
         <v>0</v>
       </c>
       <c r="D3149" t="n">
-        <v>6.710000000000001</v>
+        <v>7.109999999999999</v>
       </c>
     </row>
     <row r="3150">
@@ -50964,7 +50964,7 @@
         <v>0</v>
       </c>
       <c r="D3158" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="3159">
@@ -51060,7 +51060,7 @@
         <v>0</v>
       </c>
       <c r="D3164" t="n">
-        <v>1.14</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="3165">
@@ -51076,7 +51076,7 @@
         <v>0</v>
       </c>
       <c r="D3165" t="n">
-        <v>-0.09</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="3166">
@@ -51140,7 +51140,7 @@
         <v>0</v>
       </c>
       <c r="D3169" t="n">
-        <v>2.41</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="3170">
@@ -51380,7 +51380,7 @@
         <v>-12.43</v>
       </c>
       <c r="D3184" t="n">
-        <v>10.81</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="3185">
@@ -51396,7 +51396,7 @@
         <v>-12.03</v>
       </c>
       <c r="D3185" t="n">
-        <v>77.7</v>
+        <v>79.86</v>
       </c>
     </row>
     <row r="3186">
@@ -51460,7 +51460,7 @@
         <v>0</v>
       </c>
       <c r="D3189" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3190">
@@ -51476,7 +51476,7 @@
         <v>0</v>
       </c>
       <c r="D3190" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3191">
@@ -51492,7 +51492,7 @@
         <v>0</v>
       </c>
       <c r="D3191" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3192">
@@ -51508,7 +51508,7 @@
         <v>0</v>
       </c>
       <c r="D3192" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3193">
@@ -51572,7 +51572,7 @@
         <v>0</v>
       </c>
       <c r="D3196" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3197">
@@ -51588,7 +51588,7 @@
         <v>0</v>
       </c>
       <c r="D3197" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3198">
@@ -51764,7 +51764,7 @@
         <v>41.84</v>
       </c>
       <c r="D3208" t="n">
-        <v>-2.16</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="3209">
@@ -52804,7 +52804,7 @@
         <v>7.27</v>
       </c>
       <c r="D3273" t="n">
-        <v>-12.4</v>
+        <v>-15.95</v>
       </c>
     </row>
     <row r="3274">
@@ -52820,7 +52820,7 @@
         <v>0</v>
       </c>
       <c r="D3274" t="n">
-        <v>-12.4</v>
+        <v>-15.95</v>
       </c>
     </row>
     <row r="3275">
@@ -52836,7 +52836,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D3275" t="n">
-        <v>-12.4</v>
+        <v>-15.95</v>
       </c>
     </row>
     <row r="3276">
@@ -53028,7 +53028,7 @@
         <v>0</v>
       </c>
       <c r="D3287" t="n">
-        <v>-0.45</v>
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="3288">
@@ -53316,7 +53316,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="D3305" t="n">
-        <v>10.48</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3306">
@@ -53332,7 +53332,7 @@
         <v>0</v>
       </c>
       <c r="D3306" t="n">
-        <v>17.22</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="3307">
@@ -53364,7 +53364,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="D3308" t="n">
-        <v>10.48</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="3309">
@@ -53380,7 +53380,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="D3309" t="n">
-        <v>13.84</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="3310">
@@ -53492,7 +53492,7 @@
         <v>0</v>
       </c>
       <c r="D3316" t="n">
-        <v>20.94</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="3317">
@@ -53604,7 +53604,7 @@
         <v>26.78</v>
       </c>
       <c r="D3323" t="n">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="3324">
@@ -53652,7 +53652,7 @@
         <v>-1.97</v>
       </c>
       <c r="D3326" t="n">
-        <v>-2.84</v>
+        <v>-4.850000000000001</v>
       </c>
     </row>
     <row r="3327">
@@ -53748,7 +53748,7 @@
         <v>-3.06</v>
       </c>
       <c r="D3332" t="n">
-        <v>-0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3333">
@@ -53828,7 +53828,7 @@
         <v>2.98</v>
       </c>
       <c r="D3337" t="n">
-        <v>8.06</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="3338">
@@ -53892,7 +53892,7 @@
         <v>-14.18</v>
       </c>
       <c r="D3341" t="n">
-        <v>-15.77</v>
+        <v>-15.5</v>
       </c>
     </row>
     <row r="3342">
@@ -53924,7 +53924,7 @@
         <v>-13.27</v>
       </c>
       <c r="D3343" t="n">
-        <v>4.53</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="3344">
@@ -53940,7 +53940,7 @@
         <v>-3.67</v>
       </c>
       <c r="D3344" t="n">
-        <v>4</v>
+        <v>4.390000000000001</v>
       </c>
     </row>
     <row r="3345">
@@ -53972,7 +53972,7 @@
         <v>-0.3</v>
       </c>
       <c r="D3346" t="n">
-        <v>-8.59</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="3347">
@@ -54052,7 +54052,7 @@
         <v>-6.06</v>
       </c>
       <c r="D3351" t="n">
-        <v>12.56</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="3352">
@@ -54068,7 +54068,7 @@
         <v>0</v>
       </c>
       <c r="D3352" t="n">
-        <v>-4.47</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="3353">
@@ -54100,7 +54100,7 @@
         <v>-13.64</v>
       </c>
       <c r="D3354" t="n">
-        <v>10.7</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="3355">
@@ -54164,7 +54164,7 @@
         <v>0</v>
       </c>
       <c r="D3358" t="n">
-        <v>5.66</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="3359">
@@ -54196,7 +54196,7 @@
         <v>-1.6</v>
       </c>
       <c r="D3360" t="n">
-        <v>-3.75</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="3361">
@@ -54308,7 +54308,7 @@
         <v>0</v>
       </c>
       <c r="D3367" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3368">
@@ -54436,7 +54436,7 @@
         <v>-13.99</v>
       </c>
       <c r="D3375" t="n">
-        <v>6.81</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="3376">
@@ -54452,7 +54452,7 @@
         <v>-41.77</v>
       </c>
       <c r="D3376" t="n">
-        <v>56.52</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="3377">
@@ -54468,7 +54468,7 @@
         <v>-13.99</v>
       </c>
       <c r="D3377" t="n">
-        <v>6.81</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="3378">
@@ -54484,7 +54484,7 @@
         <v>-36.71</v>
       </c>
       <c r="D3378" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3379">
@@ -54500,7 +54500,7 @@
         <v>-17.58</v>
       </c>
       <c r="D3379" t="n">
-        <v>11.47</v>
+        <v>12.84</v>
       </c>
     </row>
     <row r="3380">
@@ -54516,7 +54516,7 @@
         <v>-13.99</v>
       </c>
       <c r="D3380" t="n">
-        <v>6.81</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="3381">
@@ -54532,7 +54532,7 @@
         <v>-41.77</v>
       </c>
       <c r="D3381" t="n">
-        <v>56.52</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="3382">
@@ -54548,7 +54548,7 @@
         <v>-13.99</v>
       </c>
       <c r="D3382" t="n">
-        <v>6.81</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="3383">
@@ -54564,7 +54564,7 @@
         <v>-41.77</v>
       </c>
       <c r="D3383" t="n">
-        <v>56.52</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="3384">
@@ -54612,7 +54612,7 @@
         <v>-19.1</v>
       </c>
       <c r="D3386" t="n">
-        <v>18.06</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="3387">
@@ -54932,7 +54932,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3406" t="n">
-        <v>10.98</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="3407">
@@ -54948,7 +54948,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3407" t="n">
-        <v>10.98</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="3408">
@@ -54964,7 +54964,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3408" t="n">
-        <v>10.98</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="3409">
@@ -54980,7 +54980,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3409" t="n">
-        <v>10.98</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="3410">
@@ -54996,7 +54996,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3410" t="n">
-        <v>10.98</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="3411">
@@ -55012,7 +55012,7 @@
         <v>-17.17</v>
       </c>
       <c r="D3411" t="n">
-        <v>10.98</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="3412">
@@ -55028,7 +55028,7 @@
         <v>6.01</v>
       </c>
       <c r="D3412" t="n">
-        <v>-6.890000000000001</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="3413">
@@ -55044,7 +55044,7 @@
         <v>5.31</v>
       </c>
       <c r="D3413" t="n">
-        <v>-6.27</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="3414">
@@ -55060,7 +55060,7 @@
         <v>0</v>
       </c>
       <c r="D3414" t="n">
-        <v>-12.6</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="3415">
@@ -55076,7 +55076,7 @@
         <v>0</v>
       </c>
       <c r="D3415" t="n">
-        <v>-14.04</v>
+        <v>-12.03</v>
       </c>
     </row>
     <row r="3416">
@@ -55092,7 +55092,7 @@
         <v>6.29</v>
       </c>
       <c r="D3416" t="n">
-        <v>-11.24</v>
+        <v>-10.65</v>
       </c>
     </row>
     <row r="3417">
@@ -55140,7 +55140,7 @@
         <v>0</v>
       </c>
       <c r="D3419" t="n">
-        <v>-9.09</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="3420">
@@ -55156,7 +55156,7 @@
         <v>0</v>
       </c>
       <c r="D3420" t="n">
-        <v>-9.76</v>
+        <v>-8.4</v>
       </c>
     </row>
     <row r="3421">
@@ -55172,7 +55172,7 @@
         <v>2.86</v>
       </c>
       <c r="D3421" t="n">
-        <v>-6.72</v>
+        <v>-6.329999999999999</v>
       </c>
     </row>
     <row r="3422">
@@ -55188,7 +55188,7 @@
         <v>8.18</v>
       </c>
       <c r="D3422" t="n">
-        <v>-8.140000000000001</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="3423">
@@ -55268,7 +55268,7 @@
         <v>-6.859999999999999</v>
       </c>
       <c r="D3427" t="n">
-        <v>-11.66</v>
+        <v>-9.199999999999999</v>
       </c>
     </row>
     <row r="3428">
@@ -55300,7 +55300,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="D3429" t="n">
-        <v>11.09</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="3430">
@@ -55316,7 +55316,7 @@
         <v>-11.55</v>
       </c>
       <c r="D3430" t="n">
-        <v>6.9</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="3431">
@@ -55348,7 +55348,7 @@
         <v>-2.65</v>
       </c>
       <c r="D3432" t="n">
-        <v>7.180000000000001</v>
+        <v>7.960000000000001</v>
       </c>
     </row>
     <row r="3433">
@@ -55364,7 +55364,7 @@
         <v>-1.9</v>
       </c>
       <c r="D3433" t="n">
-        <v>9.9</v>
+        <v>7.960000000000001</v>
       </c>
     </row>
     <row r="3434">
@@ -55380,7 +55380,7 @@
         <v>-8.1</v>
       </c>
       <c r="D3434" t="n">
-        <v>5.75</v>
+        <v>6.510000000000001</v>
       </c>
     </row>
     <row r="3435">
@@ -55476,7 +55476,7 @@
         <v>4.34</v>
       </c>
       <c r="D3440" t="n">
-        <v>-7.359999999999999</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="3441">
@@ -55636,7 +55636,7 @@
         <v>-2.28</v>
       </c>
       <c r="D3450" t="n">
-        <v>1.17</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="3451">
@@ -55652,7 +55652,7 @@
         <v>-2.28</v>
       </c>
       <c r="D3451" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3452">
@@ -55668,7 +55668,7 @@
         <v>-3.41</v>
       </c>
       <c r="D3452" t="n">
-        <v>2.7</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3453">
@@ -55700,7 +55700,7 @@
         <v>-12.43</v>
       </c>
       <c r="D3454" t="n">
-        <v>10.81</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="3455">
@@ -55732,7 +55732,7 @@
         <v>-2.28</v>
       </c>
       <c r="D3456" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3457">
@@ -55764,7 +55764,7 @@
         <v>0</v>
       </c>
       <c r="D3458" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="3459">
@@ -55780,7 +55780,7 @@
         <v>0</v>
       </c>
       <c r="D3459" t="n">
-        <v>-5.92</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="3460">
@@ -56148,7 +56148,7 @@
         <v>-8.81</v>
       </c>
       <c r="D3482" t="n">
-        <v>-11.03</v>
+        <v>-11.38</v>
       </c>
     </row>
     <row r="3483">
@@ -56372,7 +56372,7 @@
         <v>0</v>
       </c>
       <c r="D3496" t="n">
-        <v>-6.27</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="3497">
@@ -56388,7 +56388,7 @@
         <v>0</v>
       </c>
       <c r="D3497" t="n">
-        <v>-6.27</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="3498">
@@ -57620,7 +57620,7 @@
         <v>0</v>
       </c>
       <c r="D3574" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="3575">
@@ -57636,7 +57636,7 @@
         <v>1.61</v>
       </c>
       <c r="D3575" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="3576">
@@ -57652,7 +57652,7 @@
         <v>2.74</v>
       </c>
       <c r="D3576" t="n">
-        <v>-11.11</v>
+        <v>-14.67</v>
       </c>
     </row>
     <row r="3577">
@@ -57684,7 +57684,7 @@
         <v>-26.64</v>
       </c>
       <c r="D3578" t="n">
-        <v>33.02</v>
+        <v>34.43</v>
       </c>
     </row>
     <row r="3579">
@@ -57860,7 +57860,7 @@
         <v>0</v>
       </c>
       <c r="D3589" t="n">
-        <v>-10.91</v>
+        <v>-13.86</v>
       </c>
     </row>
     <row r="3590">
@@ -57876,7 +57876,7 @@
         <v>0</v>
       </c>
       <c r="D3590" t="n">
-        <v>-10.91</v>
+        <v>-13.86</v>
       </c>
     </row>
     <row r="3591">
@@ -57892,7 +57892,7 @@
         <v>4.95</v>
       </c>
       <c r="D3591" t="n">
-        <v>-10.91</v>
+        <v>-13.86</v>
       </c>
     </row>
     <row r="3592">
@@ -57908,7 +57908,7 @@
         <v>4.95</v>
       </c>
       <c r="D3592" t="n">
-        <v>-10.91</v>
+        <v>-13.86</v>
       </c>
     </row>
     <row r="3593">
@@ -57940,7 +57940,7 @@
         <v>27.62</v>
       </c>
       <c r="D3594" t="n">
-        <v>-3.36</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="3595">
@@ -57956,7 +57956,7 @@
         <v>20.72</v>
       </c>
       <c r="D3595" t="n">
-        <v>-3.36</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="3596">
@@ -57972,7 +57972,7 @@
         <v>27.62</v>
       </c>
       <c r="D3596" t="n">
-        <v>-3.36</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="3597">
@@ -58004,7 +58004,7 @@
         <v>-3.76</v>
       </c>
       <c r="D3598" t="n">
-        <v>-1.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3599">
@@ -58020,7 +58020,7 @@
         <v>-6.02</v>
       </c>
       <c r="D3599" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3600">
@@ -58100,7 +58100,7 @@
         <v>-1.11</v>
       </c>
       <c r="D3604" t="n">
-        <v>-6.06</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="3605">
@@ -58308,7 +58308,7 @@
         <v>0</v>
       </c>
       <c r="D3617" t="n">
-        <v>22.01</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="3618">
@@ -58452,7 +58452,7 @@
         <v>0</v>
       </c>
       <c r="D3626" t="n">
-        <v>0</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="3627">
@@ -58580,7 +58580,7 @@
         <v>-7.91</v>
       </c>
       <c r="D3634" t="n">
-        <v>-1.33</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3635">
@@ -58628,7 +58628,7 @@
         <v>4.12</v>
       </c>
       <c r="D3637" t="n">
-        <v>-9.33</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="3638">
@@ -58660,7 +58660,7 @@
         <v>5.86</v>
       </c>
       <c r="D3639" t="n">
-        <v>-10.82</v>
+        <v>-13.45</v>
       </c>
     </row>
     <row r="3640">
@@ -58676,7 +58676,7 @@
         <v>15.18</v>
       </c>
       <c r="D3640" t="n">
-        <v>-0.59</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="3641">
@@ -58692,7 +58692,7 @@
         <v>-10.01</v>
       </c>
       <c r="D3641" t="n">
-        <v>23.08</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="3642">
@@ -58916,7 +58916,7 @@
         <v>-17.49</v>
       </c>
       <c r="D3655" t="n">
-        <v>16.15</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="3656">
@@ -59156,7 +59156,7 @@
         <v>-3.63</v>
       </c>
       <c r="D3670" t="n">
-        <v>-4.81</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="3671">
@@ -59188,7 +59188,7 @@
         <v>-7.01</v>
       </c>
       <c r="D3672" t="n">
-        <v>6.99</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3673">
@@ -59300,7 +59300,7 @@
         <v>1.45</v>
       </c>
       <c r="D3679" t="n">
-        <v>3.68</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="3680">
@@ -59348,7 +59348,7 @@
         <v>0</v>
       </c>
       <c r="D3682" t="n">
-        <v>-9.710000000000001</v>
+        <v>-12.51</v>
       </c>
     </row>
     <row r="3683">
@@ -59364,7 +59364,7 @@
         <v>6.35</v>
       </c>
       <c r="D3683" t="n">
-        <v>2.61</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="3684">
@@ -59380,7 +59380,7 @@
         <v>0</v>
       </c>
       <c r="D3684" t="n">
-        <v>-9.710000000000001</v>
+        <v>-12.51</v>
       </c>
     </row>
     <row r="3685">
@@ -59396,7 +59396,7 @@
         <v>-6.81</v>
       </c>
       <c r="D3685" t="n">
-        <v>2.89</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="3686">
@@ -59412,7 +59412,7 @@
         <v>6.460000000000001</v>
       </c>
       <c r="D3686" t="n">
-        <v>4.67</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="3687">
@@ -59428,7 +59428,7 @@
         <v>-13.16</v>
       </c>
       <c r="D3687" t="n">
-        <v>6.12</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3688">
@@ -59620,7 +59620,7 @@
         <v>0</v>
       </c>
       <c r="D3699" t="n">
-        <v>4.18</v>
+        <v>5.319999999999999</v>
       </c>
     </row>
     <row r="3700">
@@ -59636,7 +59636,7 @@
         <v>0</v>
       </c>
       <c r="D3700" t="n">
-        <v>-2.13</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="3701">
@@ -59652,7 +59652,7 @@
         <v>0</v>
       </c>
       <c r="D3701" t="n">
-        <v>5.35</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="3702">
@@ -59684,7 +59684,7 @@
         <v>0</v>
       </c>
       <c r="D3703" t="n">
-        <v>9.130000000000001</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="3704">
@@ -59700,7 +59700,7 @@
         <v>0</v>
       </c>
       <c r="D3704" t="n">
-        <v>4.29</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="3705">
@@ -60228,7 +60228,7 @@
         <v>2.79</v>
       </c>
       <c r="D3737" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="3738">
@@ -60372,7 +60372,7 @@
         <v>0</v>
       </c>
       <c r="D3746" t="n">
-        <v>-8.290000000000001</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="3747">
@@ -60468,7 +60468,7 @@
         <v>0</v>
       </c>
       <c r="D3752" t="n">
-        <v>-0.67</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="3753">
@@ -60484,7 +60484,7 @@
         <v>0</v>
       </c>
       <c r="D3753" t="n">
-        <v>9.379999999999999</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="3754">
@@ -60612,7 +60612,7 @@
         <v>13.08</v>
       </c>
       <c r="D3761" t="n">
-        <v>16</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="3762">
@@ -60692,7 +60692,7 @@
         <v>4.88</v>
       </c>
       <c r="D3766" t="n">
-        <v>-5</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="3767">
@@ -60708,7 +60708,7 @@
         <v>4.88</v>
       </c>
       <c r="D3767" t="n">
-        <v>-5</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="3768">
@@ -60852,7 +60852,7 @@
         <v>-10.9</v>
       </c>
       <c r="D3776" t="n">
-        <v>12.02</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="3777">
@@ -60916,7 +60916,7 @@
         <v>9.68</v>
       </c>
       <c r="D3780" t="n">
-        <v>-17.39</v>
+        <v>-15.35</v>
       </c>
     </row>
     <row r="3781">
@@ -61076,7 +61076,7 @@
         <v>-2.55</v>
       </c>
       <c r="D3790" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="3791">
@@ -61556,7 +61556,7 @@
         <v>19.46</v>
       </c>
       <c r="D3820" t="n">
-        <v>-3.43</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="3821">
@@ -61572,7 +61572,7 @@
         <v>20.08</v>
       </c>
       <c r="D3821" t="n">
-        <v>-3.43</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="3822">
@@ -61588,7 +61588,7 @@
         <v>16.89</v>
       </c>
       <c r="D3822" t="n">
-        <v>-3.43</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="3823">
@@ -61604,7 +61604,7 @@
         <v>24.88</v>
       </c>
       <c r="D3823" t="n">
-        <v>3.9</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3824">
@@ -61684,7 +61684,7 @@
         <v>0</v>
       </c>
       <c r="D3828" t="n">
-        <v>-3.86</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="3829">
@@ -61700,7 +61700,7 @@
         <v>0</v>
       </c>
       <c r="D3829" t="n">
-        <v>-3.86</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="3830">
@@ -61844,7 +61844,7 @@
         <v>13.46</v>
       </c>
       <c r="D3838" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="3839">
@@ -62020,7 +62020,7 @@
         <v>0</v>
       </c>
       <c r="D3849" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="3850">
@@ -62564,7 +62564,7 @@
         <v>-7.85</v>
       </c>
       <c r="D3883" t="n">
-        <v>-11.05</v>
+        <v>-13.77</v>
       </c>
     </row>
     <row r="3884">
@@ -62724,7 +62724,7 @@
         <v>-10.75</v>
       </c>
       <c r="D3893" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3894">
@@ -62756,7 +62756,7 @@
         <v>-10.99</v>
       </c>
       <c r="D3895" t="n">
-        <v>5.19</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="3896">
@@ -62772,7 +62772,7 @@
         <v>1.24</v>
       </c>
       <c r="D3896" t="n">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="3897">
@@ -62980,7 +62980,7 @@
         <v>13.54</v>
       </c>
       <c r="D3909" t="n">
-        <v>-11.93</v>
+        <v>-9.93</v>
       </c>
     </row>
     <row r="3910">
@@ -63332,7 +63332,7 @@
         <v>0</v>
       </c>
       <c r="D3931" t="n">
-        <v>1.13</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="3932">
@@ -63412,7 +63412,7 @@
         <v>-12.93</v>
       </c>
       <c r="D3936" t="n">
-        <v>7.95</v>
+        <v>8.790000000000001</v>
       </c>
     </row>
     <row r="3937">
@@ -63428,7 +63428,7 @@
         <v>-12.93</v>
       </c>
       <c r="D3937" t="n">
-        <v>7.95</v>
+        <v>8.790000000000001</v>
       </c>
     </row>
     <row r="3938">
@@ -63444,7 +63444,7 @@
         <v>-12.93</v>
       </c>
       <c r="D3938" t="n">
-        <v>7.95</v>
+        <v>8.790000000000001</v>
       </c>
     </row>
     <row r="3939">
@@ -63860,7 +63860,7 @@
         <v>0</v>
       </c>
       <c r="D3964" t="n">
-        <v>-6.67</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="3965">
@@ -63924,7 +63924,7 @@
         <v>3.19</v>
       </c>
       <c r="D3968" t="n">
-        <v>-4.6</v>
+        <v>-5.899999999999999</v>
       </c>
     </row>
     <row r="3969">
@@ -63940,7 +63940,7 @@
         <v>3.19</v>
       </c>
       <c r="D3969" t="n">
-        <v>-4.6</v>
+        <v>-5.899999999999999</v>
       </c>
     </row>
     <row r="3970">
@@ -63956,7 +63956,7 @@
         <v>3.19</v>
       </c>
       <c r="D3970" t="n">
-        <v>-4.6</v>
+        <v>-5.899999999999999</v>
       </c>
     </row>
     <row r="3971">
@@ -63972,7 +63972,7 @@
         <v>6.510000000000001</v>
       </c>
       <c r="D3971" t="n">
-        <v>-4.6</v>
+        <v>-5.899999999999999</v>
       </c>
     </row>
     <row r="3972">
@@ -64196,7 +64196,7 @@
         <v>0</v>
       </c>
       <c r="D3985" t="n">
-        <v>22.54</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="3986">
@@ -64436,7 +64436,7 @@
         <v>3.87</v>
       </c>
       <c r="D4000" t="n">
-        <v>-2.29</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="4001">
@@ -64964,7 +64964,7 @@
         <v>6.97</v>
       </c>
       <c r="D4033" t="n">
-        <v>6.69</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="4034">
@@ -64980,7 +64980,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4034" t="n">
-        <v>60.52999999999999</v>
+        <v>68.61</v>
       </c>
     </row>
     <row r="4035">
@@ -64996,7 +64996,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4035" t="n">
-        <v>60.52999999999999</v>
+        <v>68.61</v>
       </c>
     </row>
     <row r="4036">
@@ -65012,7 +65012,7 @@
         <v>-25.98</v>
       </c>
       <c r="D4036" t="n">
-        <v>54.04</v>
+        <v>60.13</v>
       </c>
     </row>
     <row r="4037">
@@ -65028,7 +65028,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4037" t="n">
-        <v>60.52999999999999</v>
+        <v>68.61</v>
       </c>
     </row>
     <row r="4038">
@@ -65044,7 +65044,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4038" t="n">
-        <v>60.52999999999999</v>
+        <v>68.61</v>
       </c>
     </row>
     <row r="4039">
@@ -65060,7 +65060,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4039" t="n">
-        <v>60.52999999999999</v>
+        <v>68.61</v>
       </c>
     </row>
     <row r="4040">
@@ -65076,7 +65076,7 @@
         <v>-28.91</v>
       </c>
       <c r="D4040" t="n">
-        <v>60.52999999999999</v>
+        <v>68.61</v>
       </c>
     </row>
     <row r="4041">
@@ -65380,7 +65380,7 @@
         <v>4.44</v>
       </c>
       <c r="D4059" t="n">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4060">
@@ -65412,7 +65412,7 @@
         <v>0</v>
       </c>
       <c r="D4061" t="n">
-        <v>31.74</v>
+        <v>36.27</v>
       </c>
     </row>
     <row r="4062">
@@ -65476,7 +65476,7 @@
         <v>-16.24</v>
       </c>
       <c r="D4065" t="n">
-        <v>26.01</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="4066">
@@ -65492,7 +65492,7 @@
         <v>12.63</v>
       </c>
       <c r="D4066" t="n">
-        <v>56.94</v>
+        <v>49.82</v>
       </c>
     </row>
     <row r="4067">
@@ -65652,7 +65652,7 @@
         <v>-9.42</v>
       </c>
       <c r="D4076" t="n">
-        <v>5.779999999999999</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="4077">
@@ -65796,7 +65796,7 @@
         <v>2.89</v>
       </c>
       <c r="D4085" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="4086">
@@ -65812,7 +65812,7 @@
         <v>2.89</v>
       </c>
       <c r="D4086" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="4087">
@@ -65828,7 +65828,7 @@
         <v>-9.180000000000001</v>
       </c>
       <c r="D4087" t="n">
-        <v>-3.28</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="4088">
@@ -65844,7 +65844,7 @@
         <v>-7.049999999999999</v>
       </c>
       <c r="D4088" t="n">
-        <v>3.21</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="4089">
@@ -65876,7 +65876,7 @@
         <v>0</v>
       </c>
       <c r="D4090" t="n">
-        <v>-4.15</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="4091">
@@ -66004,7 +66004,7 @@
         <v>0</v>
       </c>
       <c r="D4098" t="n">
-        <v>-4.62</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="4099">
@@ -66084,7 +66084,7 @@
         <v>-10.46</v>
       </c>
       <c r="D4103" t="n">
-        <v>0.41</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="4104">
@@ -67524,7 +67524,7 @@
         <v>0</v>
       </c>
       <c r="D4193" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4194">
@@ -67540,7 +67540,7 @@
         <v>0</v>
       </c>
       <c r="D4194" t="n">
-        <v>1.77</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4195">
@@ -67652,7 +67652,7 @@
         <v>-4.77</v>
       </c>
       <c r="D4201" t="n">
-        <v>-6.68</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="4202">
@@ -67668,7 +67668,7 @@
         <v>-4.77</v>
       </c>
       <c r="D4202" t="n">
-        <v>-6.68</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="4203">
@@ -67716,7 +67716,7 @@
         <v>0</v>
       </c>
       <c r="D4205" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4206">
@@ -67812,7 +67812,7 @@
         <v>0</v>
       </c>
       <c r="D4211" t="n">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4212">
@@ -67828,7 +67828,7 @@
         <v>0</v>
       </c>
       <c r="D4212" t="n">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4213">
@@ -67844,7 +67844,7 @@
         <v>0</v>
       </c>
       <c r="D4213" t="n">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4214">
@@ -67924,7 +67924,7 @@
         <v>0</v>
       </c>
       <c r="D4218" t="n">
-        <v>4.01</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="4219">
@@ -67940,7 +67940,7 @@
         <v>0</v>
       </c>
       <c r="D4219" t="n">
-        <v>4.01</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="4220">
@@ -67956,7 +67956,7 @@
         <v>0</v>
       </c>
       <c r="D4220" t="n">
-        <v>4.01</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="4221">
@@ -67972,7 +67972,7 @@
         <v>0</v>
       </c>
       <c r="D4221" t="n">
-        <v>4.01</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="4222">
@@ -68004,7 +68004,7 @@
         <v>0</v>
       </c>
       <c r="D4223" t="n">
-        <v>5.140000000000001</v>
+        <v>4.399999999999999</v>
       </c>
     </row>
     <row r="4224">
@@ -68180,7 +68180,7 @@
         <v>3.76</v>
       </c>
       <c r="D4234" t="n">
-        <v>6.12</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="4235">
@@ -68196,7 +68196,7 @@
         <v>4.34</v>
       </c>
       <c r="D4235" t="n">
-        <v>5.52</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="4236">
@@ -68228,7 +68228,7 @@
         <v>0</v>
       </c>
       <c r="D4237" t="n">
-        <v>10.1</v>
+        <v>8.649999999999999</v>
       </c>
     </row>
     <row r="4238">
@@ -68244,7 +68244,7 @@
         <v>0</v>
       </c>
       <c r="D4238" t="n">
-        <v>10.1</v>
+        <v>8.649999999999999</v>
       </c>
     </row>
     <row r="4239">
@@ -68388,7 +68388,7 @@
         <v>0</v>
       </c>
       <c r="D4247" t="n">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="4248">
@@ -68420,7 +68420,7 @@
         <v>0</v>
       </c>
       <c r="D4249" t="n">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="4250">
@@ -68436,7 +68436,7 @@
         <v>0</v>
       </c>
       <c r="D4250" t="n">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="4251">
@@ -68644,7 +68644,7 @@
         <v>0</v>
       </c>
       <c r="D4263" t="n">
-        <v>-1.1</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="4264">
@@ -68660,7 +68660,7 @@
         <v>0</v>
       </c>
       <c r="D4264" t="n">
-        <v>-1.1</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="4265">
@@ -68916,7 +68916,7 @@
         <v>0</v>
       </c>
       <c r="D4280" t="n">
-        <v>4.45</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="4281">
@@ -69668,7 +69668,7 @@
         <v>0</v>
       </c>
       <c r="D4327" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4328">
@@ -69700,7 +69700,7 @@
         <v>0</v>
       </c>
       <c r="D4329" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4330">
@@ -69716,7 +69716,7 @@
         <v>0</v>
       </c>
       <c r="D4330" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4331">
@@ -69732,7 +69732,7 @@
         <v>0</v>
       </c>
       <c r="D4331" t="n">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="4332">
@@ -69764,7 +69764,7 @@
         <v>0</v>
       </c>
       <c r="D4333" t="n">
-        <v>-3.7</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="4334">
@@ -69796,7 +69796,7 @@
         <v>0</v>
       </c>
       <c r="D4335" t="n">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="4336">
@@ -69812,7 +69812,7 @@
         <v>0</v>
       </c>
       <c r="D4336" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4337">
@@ -69828,7 +69828,7 @@
         <v>0</v>
       </c>
       <c r="D4337" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4338">
@@ -69844,7 +69844,7 @@
         <v>0</v>
       </c>
       <c r="D4338" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4339">
@@ -69908,7 +69908,7 @@
         <v>0</v>
       </c>
       <c r="D4342" t="n">
-        <v>3.34</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4343">
@@ -69924,7 +69924,7 @@
         <v>-4.8</v>
       </c>
       <c r="D4343" t="n">
-        <v>5.050000000000001</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4344">
@@ -70292,7 +70292,7 @@
         <v>0</v>
       </c>
       <c r="D4366" t="n">
-        <v>4.5</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="4367">
@@ -70388,7 +70388,7 @@
         <v>0</v>
       </c>
       <c r="D4372" t="n">
-        <v>3.34</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4373">
@@ -70804,7 +70804,7 @@
         <v>0</v>
       </c>
       <c r="D4398" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="4399">
@@ -70852,7 +70852,7 @@
         <v>-11.25</v>
       </c>
       <c r="D4401" t="n">
-        <v>5.56</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="4402">
@@ -70900,7 +70900,7 @@
         <v>0</v>
       </c>
       <c r="D4404" t="n">
-        <v>8.84</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="4405">
@@ -71044,7 +71044,7 @@
         <v>0</v>
       </c>
       <c r="D4413" t="n">
-        <v>1.08</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="4414">
@@ -71060,7 +71060,7 @@
         <v>0</v>
       </c>
       <c r="D4414" t="n">
-        <v>8.35</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="4415">
@@ -71188,7 +71188,7 @@
         <v>0</v>
       </c>
       <c r="D4422" t="n">
-        <v>3.34</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4423">
@@ -71204,7 +71204,7 @@
         <v>0</v>
       </c>
       <c r="D4423" t="n">
-        <v>3.34</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4424">
@@ -71220,7 +71220,7 @@
         <v>0</v>
       </c>
       <c r="D4424" t="n">
-        <v>3.34</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="4425">
@@ -71348,7 +71348,7 @@
         <v>-11.83</v>
       </c>
       <c r="D4432" t="n">
-        <v>15.64</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="4433">
@@ -71444,7 +71444,7 @@
         <v>-3.32</v>
       </c>
       <c r="D4438" t="n">
-        <v>7.430000000000001</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="4439">
@@ -71476,7 +71476,7 @@
         <v>-9.370000000000001</v>
       </c>
       <c r="D4440" t="n">
-        <v>12.62</v>
+        <v>13.83</v>
       </c>
     </row>
     <row r="4441">
@@ -71492,7 +71492,7 @@
         <v>-2.63</v>
       </c>
       <c r="D4441" t="n">
-        <v>6.36</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="4442">
@@ -71588,7 +71588,7 @@
         <v>-9.82</v>
       </c>
       <c r="D4447" t="n">
-        <v>17.53</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="4448">
@@ -71732,7 +71732,7 @@
         <v>-11.66</v>
       </c>
       <c r="D4456" t="n">
-        <v>20.53</v>
+        <v>20.89</v>
       </c>
     </row>
     <row r="4457">
@@ -71780,7 +71780,7 @@
         <v>-4.18</v>
       </c>
       <c r="D4459" t="n">
-        <v>8.01</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="4460">
@@ -71812,7 +71812,7 @@
         <v>-9.42</v>
       </c>
       <c r="D4461" t="n">
-        <v>19.05</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="4462">
@@ -71828,7 +71828,7 @@
         <v>-10.54</v>
       </c>
       <c r="D4462" t="n">
-        <v>21.59</v>
+        <v>17.67</v>
       </c>
     </row>
     <row r="4463">
@@ -71844,7 +71844,7 @@
         <v>-9.82</v>
       </c>
       <c r="D4463" t="n">
-        <v>15.6</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="4464">
@@ -71860,7 +71860,7 @@
         <v>-3.85</v>
       </c>
       <c r="D4464" t="n">
-        <v>7.35</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="4465">
@@ -71908,7 +71908,7 @@
         <v>-2.55</v>
       </c>
       <c r="D4467" t="n">
-        <v>3.2</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="4468">
@@ -72020,7 +72020,7 @@
         <v>13.75</v>
       </c>
       <c r="D4474" t="n">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="4475">
@@ -72036,7 +72036,7 @@
         <v>19.8</v>
       </c>
       <c r="D4475" t="n">
-        <v>8.559999999999999</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="4476">
@@ -72052,7 +72052,7 @@
         <v>23.78</v>
       </c>
       <c r="D4476" t="n">
-        <v>5.08</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="4477">
@@ -72068,7 +72068,7 @@
         <v>22.87</v>
       </c>
       <c r="D4477" t="n">
-        <v>0.91</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="4478">
@@ -72084,7 +72084,7 @@
         <v>23.78</v>
       </c>
       <c r="D4478" t="n">
-        <v>4.14</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="4479">
@@ -72404,7 +72404,7 @@
         <v>-3.48</v>
       </c>
       <c r="D4498" t="n">
-        <v>5.08</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="4499">
@@ -72420,7 +72420,7 @@
         <v>-5.04</v>
       </c>
       <c r="D4499" t="n">
-        <v>6.819999999999999</v>
+        <v>7.580000000000001</v>
       </c>
     </row>
     <row r="4500">
@@ -72436,7 +72436,7 @@
         <v>-9.529999999999999</v>
       </c>
       <c r="D4500" t="n">
-        <v>5.64</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="4501">
@@ -72452,7 +72452,7 @@
         <v>-5.69</v>
       </c>
       <c r="D4501" t="n">
-        <v>3.19</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="4502">
@@ -72468,7 +72468,7 @@
         <v>-12.23</v>
       </c>
       <c r="D4502" t="n">
-        <v>7.380000000000001</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="4503">
@@ -72580,7 +72580,7 @@
         <v>0</v>
       </c>
       <c r="D4509" t="n">
-        <v>11.07</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="4510">
@@ -72612,7 +72612,7 @@
         <v>0</v>
       </c>
       <c r="D4511" t="n">
-        <v>5.64</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="4512">
@@ -72708,7 +72708,7 @@
         <v>0</v>
       </c>
       <c r="D4517" t="n">
-        <v>0</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="4518">
@@ -72772,7 +72772,7 @@
         <v>0</v>
       </c>
       <c r="D4521" t="n">
-        <v>-17.43</v>
+        <v>-18.74</v>
       </c>
     </row>
     <row r="4522">
@@ -72836,7 +72836,7 @@
         <v>1.45</v>
       </c>
       <c r="D4525" t="n">
-        <v>-2.71</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="4526">
@@ -72868,7 +72868,7 @@
         <v>-1.77</v>
       </c>
       <c r="D4527" t="n">
-        <v>1.8</v>
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="4528">
@@ -72884,7 +72884,7 @@
         <v>-1.77</v>
       </c>
       <c r="D4528" t="n">
-        <v>1.8</v>
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="4529">
@@ -72900,7 +72900,7 @@
         <v>-12.04</v>
       </c>
       <c r="D4529" t="n">
-        <v>7.22</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="4530">
@@ -73220,7 +73220,7 @@
         <v>-1.09</v>
       </c>
       <c r="D4549" t="n">
-        <v>4.69</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4550">
@@ -73444,7 +73444,7 @@
         <v>0</v>
       </c>
       <c r="D4563" t="n">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="4564">
@@ -73572,7 +73572,7 @@
         <v>-6.1</v>
       </c>
       <c r="D4571" t="n">
-        <v>6.68</v>
+        <v>7.049999999999999</v>
       </c>
     </row>
     <row r="4572">
@@ -73684,7 +73684,7 @@
         <v>1.16</v>
       </c>
       <c r="D4578" t="n">
-        <v>0.29</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -495,7 +495,7 @@
         <v>-12.57</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="4">
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="30">
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="56">
@@ -2034,7 +2034,7 @@
         <v>3.24</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.5</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="85">
@@ -2357,7 +2357,7 @@
         <v>-9.26</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="102">
@@ -2452,7 +2452,7 @@
         <v>-8.25</v>
       </c>
       <c r="E106" t="n">
-        <v>-12.03</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="107">
@@ -2471,7 +2471,7 @@
         <v>-12.91</v>
       </c>
       <c r="E107" t="n">
-        <v>-2.48</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="108">
@@ -2490,7 +2490,7 @@
         <v>33.1</v>
       </c>
       <c r="E108" t="n">
-        <v>4.130000000000001</v>
+        <v>-10.59</v>
       </c>
     </row>
     <row r="109">
@@ -2509,7 +2509,7 @@
         <v>14.66</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>-11.39</v>
       </c>
     </row>
     <row r="110">
@@ -2737,7 +2737,7 @@
         <v>-10.77</v>
       </c>
       <c r="E121" t="n">
-        <v>-9.969999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="122">
@@ -2756,7 +2756,7 @@
         <v>-10.77</v>
       </c>
       <c r="E122" t="n">
-        <v>-9.969999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="123">
@@ -2794,7 +2794,7 @@
         <v>6.78</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>-9.220000000000001</v>
       </c>
     </row>
     <row r="125">
@@ -2813,7 +2813,7 @@
         <v>-20.3</v>
       </c>
       <c r="E125" t="n">
-        <v>-8.140000000000001</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="126">
@@ -2984,7 +2984,7 @@
         <v>-13.96</v>
       </c>
       <c r="E134" t="n">
-        <v>-21.6</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="135">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>-16.77</v>
       </c>
     </row>
     <row r="136">
@@ -3060,7 +3060,7 @@
         <v>31.84</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>-16.77</v>
       </c>
     </row>
     <row r="139">
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>-16.77</v>
       </c>
     </row>
     <row r="141">
@@ -3136,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>-16.77</v>
       </c>
     </row>
     <row r="143">
@@ -3193,7 +3193,7 @@
         <v>10.86</v>
       </c>
       <c r="E145" t="n">
-        <v>-17.44</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="146">
@@ -3250,7 +3250,7 @@
         <v>-9.24</v>
       </c>
       <c r="E148" t="n">
-        <v>-20.3</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="149">
@@ -3364,7 +3364,7 @@
         <v>-9.59</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>18.31</v>
       </c>
     </row>
     <row r="155">
@@ -4352,7 +4352,7 @@
         <v>-16.92</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>17.81</v>
       </c>
     </row>
     <row r="207">
@@ -4371,7 +4371,7 @@
         <v>-10.11</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="208">
@@ -4466,7 +4466,7 @@
         <v>13.21</v>
       </c>
       <c r="E212" t="n">
-        <v>6.74</v>
+        <v>-3.47</v>
       </c>
     </row>
     <row r="213">
@@ -4523,7 +4523,7 @@
         <v>5.84</v>
       </c>
       <c r="E215" t="n">
-        <v>-16.54</v>
+        <v>-6.890000000000001</v>
       </c>
     </row>
     <row r="216">
@@ -4998,7 +4998,7 @@
         <v>-14.63</v>
       </c>
       <c r="E240" t="n">
-        <v>-3.48</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="241">
@@ -5283,7 +5283,7 @@
         <v>-5.319999999999999</v>
       </c>
       <c r="E255" t="n">
-        <v>-12.86</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="256">
@@ -5625,7 +5625,7 @@
         <v>-2.77</v>
       </c>
       <c r="E273" t="n">
-        <v>0</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="274">
@@ -6214,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="305">
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="306">
@@ -6252,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="307">
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="314">
@@ -6518,7 +6518,7 @@
         <v>-3.06</v>
       </c>
       <c r="E320" t="n">
-        <v>-19.41</v>
+        <v>-12.67</v>
       </c>
     </row>
     <row r="321">
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="326">
@@ -6632,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="327">
@@ -6993,7 +6993,7 @@
         <v>3.64</v>
       </c>
       <c r="E345" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -7202,7 +7202,7 @@
         <v>-3.06</v>
       </c>
       <c r="E356" t="n">
-        <v>-7.88</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="357">
@@ -7278,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="361">
@@ -7335,7 +7335,7 @@
         <v>-1.54</v>
       </c>
       <c r="E363" t="n">
-        <v>-1.56</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="364">
@@ -7658,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="381">
@@ -7715,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>-10.03</v>
       </c>
     </row>
     <row r="384">
@@ -9102,7 +9102,7 @@
         <v>2.8</v>
       </c>
       <c r="E456" t="n">
-        <v>-6.72</v>
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="457">
@@ -9121,7 +9121,7 @@
         <v>1.26</v>
       </c>
       <c r="E457" t="n">
-        <v>-8.16</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="458">
@@ -9140,7 +9140,7 @@
         <v>2.65</v>
       </c>
       <c r="E458" t="n">
-        <v>12.93</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="459">
@@ -9178,7 +9178,7 @@
         <v>-7.93</v>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="461">
@@ -9197,7 +9197,7 @@
         <v>-7.93</v>
       </c>
       <c r="E461" t="n">
-        <v>0</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="462">
@@ -9216,7 +9216,7 @@
         <v>-7.93</v>
       </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="463">
@@ -9235,7 +9235,7 @@
         <v>-7.93</v>
       </c>
       <c r="E463" t="n">
-        <v>0</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="464">
@@ -9311,7 +9311,7 @@
         <v>-12.93</v>
       </c>
       <c r="E467" t="n">
-        <v>11.72</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="468">
@@ -9767,7 +9767,7 @@
         <v>-1.2</v>
       </c>
       <c r="E491" t="n">
-        <v>-4.850000000000001</v>
+        <v>-10.92</v>
       </c>
     </row>
     <row r="492">
@@ -9786,7 +9786,7 @@
         <v>-1.2</v>
       </c>
       <c r="E492" t="n">
-        <v>-4.850000000000001</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="493">
@@ -9805,7 +9805,7 @@
         <v>-2</v>
       </c>
       <c r="E493" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="494">
@@ -9824,7 +9824,7 @@
         <v>-2</v>
       </c>
       <c r="E494" t="n">
-        <v>0</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="495">
@@ -9843,7 +9843,7 @@
         <v>-12.39</v>
       </c>
       <c r="E495" t="n">
-        <v>-1.01</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="496">
@@ -9919,7 +9919,7 @@
         <v>-8.959999999999999</v>
       </c>
       <c r="E499" t="n">
-        <v>-34.52</v>
+        <v>-10.41</v>
       </c>
     </row>
     <row r="500">
@@ -9995,7 +9995,7 @@
         <v>5.94</v>
       </c>
       <c r="E503" t="n">
-        <v>-16.82</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="504">
@@ -10014,7 +10014,7 @@
         <v>5.94</v>
       </c>
       <c r="E504" t="n">
-        <v>-16.82</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="505">
@@ -10033,7 +10033,7 @@
         <v>5.94</v>
       </c>
       <c r="E505" t="n">
-        <v>-16.82</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="506">
@@ -10052,7 +10052,7 @@
         <v>5.94</v>
       </c>
       <c r="E506" t="n">
-        <v>-16.82</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="507">
@@ -10071,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="E507" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="508">
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="509">
@@ -10223,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="E515" t="n">
-        <v>0</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="516">
@@ -10242,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="517">
@@ -10261,7 +10261,7 @@
         <v>1.46</v>
       </c>
       <c r="E517" t="n">
-        <v>-4.33</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="518">
@@ -10280,7 +10280,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="519">
@@ -10299,7 +10299,7 @@
         <v>0</v>
       </c>
       <c r="E519" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="520">
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="521">
@@ -10470,7 +10470,7 @@
         <v>15.22</v>
       </c>
       <c r="E528" t="n">
-        <v>7.81</v>
+        <v>21.32</v>
       </c>
     </row>
     <row r="529">
@@ -10774,7 +10774,7 @@
         <v>-6.79</v>
       </c>
       <c r="E544" t="n">
-        <v>-18.4</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="545">
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="E551" t="n">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="552">
@@ -11116,7 +11116,7 @@
         <v>9.73</v>
       </c>
       <c r="E562" t="n">
-        <v>-8.870000000000001</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="563">
@@ -11287,7 +11287,7 @@
         <v>0</v>
       </c>
       <c r="E571" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="572">
@@ -11363,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="E575" t="n">
-        <v>0</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="576">
@@ -11420,7 +11420,7 @@
         <v>-8.81</v>
       </c>
       <c r="E578" t="n">
-        <v>-24.43</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="579">
@@ -11534,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>0</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="585">
@@ -11838,7 +11838,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="E600" t="n">
-        <v>-25.41</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="601">
@@ -11857,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="E601" t="n">
-        <v>0</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="602">
@@ -11876,7 +11876,7 @@
         <v>2.75</v>
       </c>
       <c r="E602" t="n">
-        <v>15.89</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="603">
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E617" t="n">
-        <v>-13.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -12180,7 +12180,7 @@
         <v>0</v>
       </c>
       <c r="E618" t="n">
-        <v>-13.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -12199,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="E619" t="n">
-        <v>-13.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -12370,7 +12370,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>0</v>
+        <v>-11.71</v>
       </c>
     </row>
     <row r="629">
@@ -12427,7 +12427,7 @@
         <v>0.6</v>
       </c>
       <c r="E631" t="n">
-        <v>19.56</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="632">
@@ -12731,7 +12731,7 @@
         <v>4.74</v>
       </c>
       <c r="E647" t="n">
-        <v>0</v>
+        <v>-5.029999999999999</v>
       </c>
     </row>
     <row r="648">
@@ -12750,7 +12750,7 @@
         <v>4.74</v>
       </c>
       <c r="E648" t="n">
-        <v>0</v>
+        <v>-5.029999999999999</v>
       </c>
     </row>
     <row r="649">
@@ -12769,7 +12769,7 @@
         <v>4.74</v>
       </c>
       <c r="E649" t="n">
-        <v>0</v>
+        <v>-5.029999999999999</v>
       </c>
     </row>
     <row r="650">
@@ -12883,7 +12883,7 @@
         <v>-8.81</v>
       </c>
       <c r="E655" t="n">
-        <v>-24.43</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="656">
@@ -12997,7 +12997,7 @@
         <v>-6.79</v>
       </c>
       <c r="E661" t="n">
-        <v>-18.4</v>
+        <v>-5.65</v>
       </c>
     </row>
     <row r="662">
@@ -13130,7 +13130,7 @@
         <v>15.91</v>
       </c>
       <c r="E668" t="n">
-        <v>4.760000000000001</v>
+        <v>-5.600000000000001</v>
       </c>
     </row>
     <row r="669">
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="E682" t="n">
-        <v>0</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="683">
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="E683" t="n">
-        <v>0</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="684">
@@ -13434,7 +13434,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>0</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="685">
@@ -13548,7 +13548,7 @@
         <v>-5.74</v>
       </c>
       <c r="E690" t="n">
-        <v>-15.22</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="691">
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="E697" t="n">
-        <v>0</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="698">
@@ -14042,7 +14042,7 @@
         <v>-2.39</v>
       </c>
       <c r="E716" t="n">
-        <v>-14.66</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="717">
@@ -14061,7 +14061,7 @@
         <v>-1.06</v>
       </c>
       <c r="E717" t="n">
-        <v>-6.43</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="718">
@@ -14080,7 +14080,7 @@
         <v>12.21</v>
       </c>
       <c r="E718" t="n">
-        <v>-9.5</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="719">
@@ -14099,7 +14099,7 @@
         <v>3.95</v>
       </c>
       <c r="E719" t="n">
-        <v>-11.41</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="720">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="733">
@@ -14593,7 +14593,7 @@
         <v>-1.68</v>
       </c>
       <c r="E745" t="n">
-        <v>-10.26</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="746">
@@ -14631,7 +14631,7 @@
         <v>-1.68</v>
       </c>
       <c r="E747" t="n">
-        <v>-10.26</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="748">
@@ -14954,7 +14954,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>2.35</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="765">
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="E765" t="n">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="766">
@@ -15106,7 +15106,7 @@
         <v>-12.82</v>
       </c>
       <c r="E772" t="n">
-        <v>-12.53</v>
+        <v>-6.48</v>
       </c>
     </row>
     <row r="773">
@@ -15125,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="E773" t="n">
-        <v>0</v>
+        <v>-4.38</v>
       </c>
     </row>
     <row r="774">
@@ -15182,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="E776" t="n">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="777">
@@ -15220,7 +15220,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>0</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="779">
@@ -15676,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="E802" t="n">
-        <v>-11.13</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="803">
@@ -15771,7 +15771,7 @@
         <v>0</v>
       </c>
       <c r="E807" t="n">
-        <v>0</v>
+        <v>-23.78</v>
       </c>
     </row>
     <row r="808">
@@ -15790,7 +15790,7 @@
         <v>16.67</v>
       </c>
       <c r="E808" t="n">
-        <v>9.5</v>
+        <v>-16.55</v>
       </c>
     </row>
     <row r="809">
@@ -15809,7 +15809,7 @@
         <v>0</v>
       </c>
       <c r="E809" t="n">
-        <v>0</v>
+        <v>-23.78</v>
       </c>
     </row>
     <row r="810">
@@ -15828,7 +15828,7 @@
         <v>0</v>
       </c>
       <c r="E810" t="n">
-        <v>0</v>
+        <v>-23.78</v>
       </c>
     </row>
     <row r="811">
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="E811" t="n">
-        <v>0</v>
+        <v>-23.78</v>
       </c>
     </row>
     <row r="812">
@@ -17139,7 +17139,7 @@
         <v>0</v>
       </c>
       <c r="E879" t="n">
-        <v>0</v>
+        <v>-11.55</v>
       </c>
     </row>
     <row r="880">
@@ -17443,7 +17443,7 @@
         <v>3.08</v>
       </c>
       <c r="E895" t="n">
-        <v>8.959999999999999</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="896">
@@ -17652,7 +17652,7 @@
         <v>-8.210000000000001</v>
       </c>
       <c r="E906" t="n">
-        <v>0</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="907">
@@ -18051,7 +18051,7 @@
         <v>-9.73</v>
       </c>
       <c r="E927" t="n">
-        <v>0</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="928">
@@ -18070,7 +18070,7 @@
         <v>-12.2</v>
       </c>
       <c r="E928" t="n">
-        <v>0</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="929">
@@ -18089,7 +18089,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E929" t="n">
-        <v>-13.73</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="930">
@@ -18127,7 +18127,7 @@
         <v>-3.92</v>
       </c>
       <c r="E931" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="932">
@@ -18165,7 +18165,7 @@
         <v>-2.42</v>
       </c>
       <c r="E933" t="n">
-        <v>-15.22</v>
+        <v>-6.370000000000001</v>
       </c>
     </row>
     <row r="934">
@@ -18203,7 +18203,7 @@
         <v>-2.42</v>
       </c>
       <c r="E935" t="n">
-        <v>-15.22</v>
+        <v>-6.370000000000001</v>
       </c>
     </row>
     <row r="936">
@@ -18241,7 +18241,7 @@
         <v>-2.42</v>
       </c>
       <c r="E937" t="n">
-        <v>-15.22</v>
+        <v>-6.370000000000001</v>
       </c>
     </row>
     <row r="938">
@@ -18298,7 +18298,7 @@
         <v>-7.61</v>
       </c>
       <c r="E940" t="n">
-        <v>-19.88</v>
+        <v>-5.82</v>
       </c>
     </row>
     <row r="941">
@@ -18355,7 +18355,7 @@
         <v>0.22</v>
       </c>
       <c r="E943" t="n">
-        <v>-11.33</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="944">
@@ -18374,7 +18374,7 @@
         <v>1.07</v>
       </c>
       <c r="E944" t="n">
-        <v>-4.87</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="945">
@@ -18431,7 +18431,7 @@
         <v>-5.21</v>
       </c>
       <c r="E947" t="n">
-        <v>0</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="948">
@@ -18450,7 +18450,7 @@
         <v>-11.76</v>
       </c>
       <c r="E948" t="n">
-        <v>-4.58</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="949">
@@ -18469,7 +18469,7 @@
         <v>-2.32</v>
       </c>
       <c r="E949" t="n">
-        <v>-15.83</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="950">
@@ -18507,7 +18507,7 @@
         <v>42.56</v>
       </c>
       <c r="E951" t="n">
-        <v>-7.539999999999999</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="952">
@@ -18545,7 +18545,7 @@
         <v>30.52</v>
       </c>
       <c r="E953" t="n">
-        <v>0</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="954">
@@ -18564,7 +18564,7 @@
         <v>26.72</v>
       </c>
       <c r="E954" t="n">
-        <v>13.15</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="955">
@@ -18621,7 +18621,7 @@
         <v>-1.93</v>
       </c>
       <c r="E957" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="958">
@@ -18640,7 +18640,7 @@
         <v>-1.61</v>
       </c>
       <c r="E958" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="959">
@@ -18678,7 +18678,7 @@
         <v>-11.97</v>
       </c>
       <c r="E960" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="961">
@@ -18735,7 +18735,7 @@
         <v>-12.53</v>
       </c>
       <c r="E963" t="n">
-        <v>0</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="964">
@@ -18773,7 +18773,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="E965" t="n">
-        <v>0</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="966">
@@ -18811,7 +18811,7 @@
         <v>-1.1</v>
       </c>
       <c r="E967" t="n">
-        <v>-14.62</v>
+        <v>-6.069999999999999</v>
       </c>
     </row>
     <row r="968">
@@ -18830,7 +18830,7 @@
         <v>-2.15</v>
       </c>
       <c r="E968" t="n">
-        <v>-13.19</v>
+        <v>-5.489999999999999</v>
       </c>
     </row>
     <row r="969">
@@ -18849,7 +18849,7 @@
         <v>-7.51</v>
       </c>
       <c r="E969" t="n">
-        <v>0</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="970">
@@ -18868,7 +18868,7 @@
         <v>-2.21</v>
       </c>
       <c r="E970" t="n">
-        <v>-7.52</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="971">
@@ -18887,7 +18887,7 @@
         <v>-3.29</v>
       </c>
       <c r="E971" t="n">
-        <v>0</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="972">
@@ -18925,7 +18925,7 @@
         <v>-1.8</v>
       </c>
       <c r="E973" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="974">
@@ -18963,7 +18963,7 @@
         <v>0</v>
       </c>
       <c r="E975" t="n">
-        <v>0</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="976">
@@ -19001,7 +19001,7 @@
         <v>3.55</v>
       </c>
       <c r="E977" t="n">
-        <v>-10.3</v>
+        <v>-28.36</v>
       </c>
     </row>
     <row r="978">
@@ -19020,7 +19020,7 @@
         <v>-1.46</v>
       </c>
       <c r="E978" t="n">
-        <v>-8.720000000000001</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="979">
@@ -19077,7 +19077,7 @@
         <v>-7.779999999999999</v>
       </c>
       <c r="E981" t="n">
-        <v>0</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="982">
@@ -19229,7 +19229,7 @@
         <v>-8.4</v>
       </c>
       <c r="E989" t="n">
-        <v>0</v>
+        <v>6.550000000000001</v>
       </c>
     </row>
     <row r="990">
@@ -19248,7 +19248,7 @@
         <v>3.15</v>
       </c>
       <c r="E990" t="n">
-        <v>-8.81</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="991">
@@ -19362,7 +19362,7 @@
         <v>0</v>
       </c>
       <c r="E996" t="n">
-        <v>0</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="997">
@@ -19381,7 +19381,7 @@
         <v>-5.65</v>
       </c>
       <c r="E997" t="n">
-        <v>-7.95</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="998">
@@ -19400,7 +19400,7 @@
         <v>-3.8</v>
       </c>
       <c r="E998" t="n">
-        <v>0</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="999">
@@ -19419,7 +19419,7 @@
         <v>-5.77</v>
       </c>
       <c r="E999" t="n">
-        <v>-10.97</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="1000">
@@ -19438,7 +19438,7 @@
         <v>-2.33</v>
       </c>
       <c r="E1000" t="n">
-        <v>0</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="1001">
@@ -19514,7 +19514,7 @@
         <v>11.31</v>
       </c>
       <c r="E1004" t="n">
-        <v>0</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="1005">
@@ -19533,7 +19533,7 @@
         <v>11.31</v>
       </c>
       <c r="E1005" t="n">
-        <v>0</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="1006">
@@ -19571,7 +19571,7 @@
         <v>11.31</v>
       </c>
       <c r="E1007" t="n">
-        <v>0</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="1008">
@@ -19590,7 +19590,7 @@
         <v>1.13</v>
       </c>
       <c r="E1008" t="n">
-        <v>0</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="1009">
@@ -19647,7 +19647,7 @@
         <v>1.32</v>
       </c>
       <c r="E1011" t="n">
-        <v>-4.07</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="1012">
@@ -19685,7 +19685,7 @@
         <v>1.58</v>
       </c>
       <c r="E1013" t="n">
-        <v>-4.850000000000001</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="1014">
@@ -19742,7 +19742,7 @@
         <v>-5.21</v>
       </c>
       <c r="E1016" t="n">
-        <v>0</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="1017">
@@ -19761,7 +19761,7 @@
         <v>-5.67</v>
       </c>
       <c r="E1017" t="n">
-        <v>0</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="1018">
@@ -19780,7 +19780,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="E1018" t="n">
-        <v>-9.719999999999999</v>
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="1019">
@@ -19799,7 +19799,7 @@
         <v>-0.95</v>
       </c>
       <c r="E1019" t="n">
-        <v>-4.77</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="1020">
@@ -19818,7 +19818,7 @@
         <v>-2.16</v>
       </c>
       <c r="E1020" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="1021">
@@ -19837,7 +19837,7 @@
         <v>-4.04</v>
       </c>
       <c r="E1021" t="n">
-        <v>-4.01</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022">
@@ -20065,7 +20065,7 @@
         <v>-6.13</v>
       </c>
       <c r="E1033" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="1034">
@@ -20331,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="E1047" t="n">
-        <v>0</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="1048">
@@ -21072,7 +21072,7 @@
         <v>0</v>
       </c>
       <c r="E1086" t="n">
-        <v>0</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="1087">
@@ -21338,7 +21338,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1100" t="n">
-        <v>-11.44</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="1101">
@@ -21357,7 +21357,7 @@
         <v>-7.61</v>
       </c>
       <c r="E1101" t="n">
-        <v>-20.65</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="1102">
@@ -21376,7 +21376,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1102" t="n">
-        <v>-11.44</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="1103">
@@ -21414,7 +21414,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1104" t="n">
-        <v>-11.44</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="1105">
@@ -21452,7 +21452,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1106" t="n">
-        <v>-11.44</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="1107">
@@ -21471,7 +21471,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1107" t="n">
-        <v>-11.44</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="1108">
@@ -21623,7 +21623,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1115" t="n">
-        <v>-3.58</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="1116">
@@ -21642,7 +21642,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1116" t="n">
-        <v>-3.58</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="1117">
@@ -21718,7 +21718,7 @@
         <v>0</v>
       </c>
       <c r="E1120" t="n">
-        <v>0</v>
+        <v>-11.56</v>
       </c>
     </row>
     <row r="1121">
@@ -21737,7 +21737,7 @@
         <v>3.55</v>
       </c>
       <c r="E1121" t="n">
-        <v>3.43</v>
+        <v>-8.529999999999999</v>
       </c>
     </row>
     <row r="1122">
@@ -21775,7 +21775,7 @@
         <v>3.55</v>
       </c>
       <c r="E1123" t="n">
-        <v>3.43</v>
+        <v>-8.529999999999999</v>
       </c>
     </row>
     <row r="1124">
@@ -21794,7 +21794,7 @@
         <v>2.14</v>
       </c>
       <c r="E1124" t="n">
-        <v>-11.03</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1125">
@@ -21813,7 +21813,7 @@
         <v>2.14</v>
       </c>
       <c r="E1125" t="n">
-        <v>-11.03</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1126">
@@ -21832,7 +21832,7 @@
         <v>2.14</v>
       </c>
       <c r="E1126" t="n">
-        <v>-11.03</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1127">
@@ -21851,7 +21851,7 @@
         <v>2.14</v>
       </c>
       <c r="E1127" t="n">
-        <v>-11.03</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1128">
@@ -21870,7 +21870,7 @@
         <v>2.14</v>
       </c>
       <c r="E1128" t="n">
-        <v>-11.03</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1129">
@@ -21889,7 +21889,7 @@
         <v>2.14</v>
       </c>
       <c r="E1129" t="n">
-        <v>-11.03</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1130">
@@ -21908,7 +21908,7 @@
         <v>2.14</v>
       </c>
       <c r="E1130" t="n">
-        <v>-11.03</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1131">
@@ -21946,7 +21946,7 @@
         <v>2.14</v>
       </c>
       <c r="E1132" t="n">
-        <v>-11.03</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1133">
@@ -22174,7 +22174,7 @@
         <v>0</v>
       </c>
       <c r="E1144" t="n">
-        <v>0</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="1145">
@@ -22193,7 +22193,7 @@
         <v>0</v>
       </c>
       <c r="E1145" t="n">
-        <v>0</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="1146">
@@ -22212,7 +22212,7 @@
         <v>0</v>
       </c>
       <c r="E1146" t="n">
-        <v>0</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="1147">
@@ -22231,7 +22231,7 @@
         <v>0</v>
       </c>
       <c r="E1147" t="n">
-        <v>0</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="1148">
@@ -22687,7 +22687,7 @@
         <v>2.19</v>
       </c>
       <c r="E1171" t="n">
-        <v>-10.68</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="1172">
@@ -22706,7 +22706,7 @@
         <v>2.19</v>
       </c>
       <c r="E1172" t="n">
-        <v>-10.68</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="1173">
@@ -22725,7 +22725,7 @@
         <v>3.56</v>
       </c>
       <c r="E1173" t="n">
-        <v>-10.84</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="1174">
@@ -22763,7 +22763,7 @@
         <v>10.86</v>
       </c>
       <c r="E1175" t="n">
-        <v>-22.89</v>
+        <v>-11.41</v>
       </c>
     </row>
     <row r="1176">
@@ -22782,7 +22782,7 @@
         <v>-1.91</v>
       </c>
       <c r="E1176" t="n">
-        <v>-9.710000000000001</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="1177">
@@ -22801,7 +22801,7 @@
         <v>-0.67</v>
       </c>
       <c r="E1177" t="n">
-        <v>-4.14</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="1178">
@@ -22820,7 +22820,7 @@
         <v>-0.84</v>
       </c>
       <c r="E1178" t="n">
-        <v>-4.03</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="1179">
@@ -22839,7 +22839,7 @@
         <v>-1.55</v>
       </c>
       <c r="E1179" t="n">
-        <v>-8.5</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="1180">
@@ -22858,7 +22858,7 @@
         <v>0</v>
       </c>
       <c r="E1180" t="n">
-        <v>0</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="1181">
@@ -22915,7 +22915,7 @@
         <v>0</v>
       </c>
       <c r="E1183" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="1184">
@@ -22972,7 +22972,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="E1186" t="n">
-        <v>-3.31</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="1187">
@@ -23827,7 +23827,7 @@
         <v>0</v>
       </c>
       <c r="E1231" t="n">
-        <v>0</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="1232">
@@ -24150,7 +24150,7 @@
         <v>0</v>
       </c>
       <c r="E1248" t="n">
-        <v>0</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="1249">
@@ -24435,7 +24435,7 @@
         <v>49.34</v>
       </c>
       <c r="E1263" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1264">
@@ -24454,7 +24454,7 @@
         <v>49.34</v>
       </c>
       <c r="E1264" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1265">
@@ -24473,7 +24473,7 @@
         <v>49.34</v>
       </c>
       <c r="E1265" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1266">
@@ -24492,7 +24492,7 @@
         <v>49.34</v>
       </c>
       <c r="E1266" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1267">
@@ -24511,7 +24511,7 @@
         <v>49.34</v>
       </c>
       <c r="E1267" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1268">
@@ -24530,7 +24530,7 @@
         <v>19.23</v>
       </c>
       <c r="E1268" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1269">
@@ -24549,7 +24549,7 @@
         <v>49.34</v>
       </c>
       <c r="E1269" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1270">
@@ -24568,7 +24568,7 @@
         <v>49.34</v>
       </c>
       <c r="E1270" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1271">
@@ -24587,7 +24587,7 @@
         <v>49.34</v>
       </c>
       <c r="E1271" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1272">
@@ -24606,7 +24606,7 @@
         <v>49.34</v>
       </c>
       <c r="E1272" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1273">
@@ -24625,7 +24625,7 @@
         <v>49.34</v>
       </c>
       <c r="E1273" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1274">
@@ -24644,7 +24644,7 @@
         <v>49.34</v>
       </c>
       <c r="E1274" t="n">
-        <v>0</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1275">
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="E1291" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="1292">
@@ -25328,7 +25328,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1310" t="n">
-        <v>-12.93</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="1311">
@@ -25347,7 +25347,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1311" t="n">
-        <v>-12.93</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="1312">
@@ -25499,7 +25499,7 @@
         <v>12.12</v>
       </c>
       <c r="E1319" t="n">
-        <v>2.96</v>
+        <v>-9.16</v>
       </c>
     </row>
     <row r="1320">
@@ -25518,7 +25518,7 @@
         <v>-17.82</v>
       </c>
       <c r="E1320" t="n">
-        <v>0</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="1321">
@@ -25537,7 +25537,7 @@
         <v>16.63</v>
       </c>
       <c r="E1321" t="n">
-        <v>2.96</v>
+        <v>-9.16</v>
       </c>
     </row>
     <row r="1322">
@@ -25879,7 +25879,7 @@
         <v>-6.01</v>
       </c>
       <c r="E1339" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="1340">
@@ -25898,7 +25898,7 @@
         <v>4.88</v>
       </c>
       <c r="E1340" t="n">
-        <v>-13.91</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="1341">
@@ -25936,7 +25936,7 @@
         <v>8.35</v>
       </c>
       <c r="E1342" t="n">
-        <v>-15.36</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="1343">
@@ -25974,7 +25974,7 @@
         <v>0</v>
       </c>
       <c r="E1344" t="n">
-        <v>0</v>
+        <v>-18.77</v>
       </c>
     </row>
     <row r="1345">
@@ -26297,7 +26297,7 @@
         <v>0</v>
       </c>
       <c r="E1361" t="n">
-        <v>0</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="1362">
@@ -26772,7 +26772,7 @@
         <v>1.69</v>
       </c>
       <c r="E1386" t="n">
-        <v>-6.67</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="1387">
@@ -26924,7 +26924,7 @@
         <v>-11.46</v>
       </c>
       <c r="E1394" t="n">
-        <v>12.75</v>
+        <v>24.71</v>
       </c>
     </row>
     <row r="1395">
@@ -27133,7 +27133,7 @@
         <v>17.35</v>
       </c>
       <c r="E1405" t="n">
-        <v>-42.32</v>
+        <v>-17.68</v>
       </c>
     </row>
     <row r="1406">
@@ -27152,7 +27152,7 @@
         <v>17.35</v>
       </c>
       <c r="E1406" t="n">
-        <v>-42.32</v>
+        <v>-17.68</v>
       </c>
     </row>
     <row r="1407">
@@ -27171,7 +27171,7 @@
         <v>17.35</v>
       </c>
       <c r="E1407" t="n">
-        <v>-42.32</v>
+        <v>-17.68</v>
       </c>
     </row>
     <row r="1408">
@@ -27684,7 +27684,7 @@
         <v>23.85</v>
       </c>
       <c r="E1434" t="n">
-        <v>0</v>
+        <v>-16.14</v>
       </c>
     </row>
     <row r="1435">
@@ -27874,7 +27874,7 @@
         <v>-6.99</v>
       </c>
       <c r="E1444" t="n">
-        <v>0</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1445">
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="E1452" t="n">
-        <v>0</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="1453">
@@ -28045,7 +28045,7 @@
         <v>0</v>
       </c>
       <c r="E1453" t="n">
-        <v>0</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="1454">
@@ -28159,7 +28159,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1459" t="n">
-        <v>-29.74</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="1460">
@@ -28178,7 +28178,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1460" t="n">
-        <v>-29.74</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="1461">
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="E1463" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="1464">
@@ -28311,7 +28311,7 @@
         <v>0.16</v>
       </c>
       <c r="E1467" t="n">
-        <v>0</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="1468">
@@ -28805,7 +28805,7 @@
         <v>0</v>
       </c>
       <c r="E1493" t="n">
-        <v>0</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="1494">
@@ -29052,7 +29052,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1506" t="n">
-        <v>0</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="1507">
@@ -29071,7 +29071,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1507" t="n">
-        <v>0</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="1508">
@@ -29318,7 +29318,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1520" t="n">
-        <v>-3.93</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="1521">
@@ -29337,7 +29337,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1521" t="n">
-        <v>-3.93</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="1522">
@@ -29356,7 +29356,7 @@
         <v>10.9</v>
       </c>
       <c r="E1522" t="n">
-        <v>-9.83</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="1523">
@@ -29432,7 +29432,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1526" t="n">
-        <v>0</v>
+        <v>14.03</v>
       </c>
     </row>
     <row r="1527">
@@ -29470,7 +29470,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1528" t="n">
-        <v>0</v>
+        <v>14.03</v>
       </c>
     </row>
     <row r="1529">
@@ -29489,7 +29489,7 @@
         <v>0</v>
       </c>
       <c r="E1529" t="n">
-        <v>-18.26</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="1530">
@@ -29508,7 +29508,7 @@
         <v>4.78</v>
       </c>
       <c r="E1530" t="n">
-        <v>-18.26</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="1531">
@@ -29527,7 +29527,7 @@
         <v>4.78</v>
       </c>
       <c r="E1531" t="n">
-        <v>-18.26</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="1532">
@@ -29546,7 +29546,7 @@
         <v>4.78</v>
       </c>
       <c r="E1532" t="n">
-        <v>-18.26</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="1533">
@@ -29565,7 +29565,7 @@
         <v>-0.58</v>
       </c>
       <c r="E1533" t="n">
-        <v>0</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="1534">
@@ -29698,7 +29698,7 @@
         <v>0</v>
       </c>
       <c r="E1540" t="n">
-        <v>0</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="1541">
@@ -30629,7 +30629,7 @@
         <v>0</v>
       </c>
       <c r="E1589" t="n">
-        <v>0</v>
+        <v>-4.590000000000001</v>
       </c>
     </row>
     <row r="1590">
@@ -30648,7 +30648,7 @@
         <v>6.329999999999999</v>
       </c>
       <c r="E1590" t="n">
-        <v>0</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="1591">
@@ -30667,7 +30667,7 @@
         <v>0</v>
       </c>
       <c r="E1591" t="n">
-        <v>0</v>
+        <v>-11.55</v>
       </c>
     </row>
     <row r="1592">
@@ -30686,7 +30686,7 @@
         <v>0</v>
       </c>
       <c r="E1592" t="n">
-        <v>0</v>
+        <v>-6.64</v>
       </c>
     </row>
     <row r="1593">
@@ -30914,7 +30914,7 @@
         <v>-10.26</v>
       </c>
       <c r="E1604" t="n">
-        <v>10.58</v>
+        <v>9.959999999999999</v>
       </c>
     </row>
     <row r="1605">
@@ -30933,7 +30933,7 @@
         <v>17.71</v>
       </c>
       <c r="E1605" t="n">
-        <v>-15.25</v>
+        <v>-15.15</v>
       </c>
     </row>
     <row r="1606">
@@ -30952,7 +30952,7 @@
         <v>-10.22</v>
       </c>
       <c r="E1606" t="n">
-        <v>0</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="1607">
@@ -30971,7 +30971,7 @@
         <v>11.81</v>
       </c>
       <c r="E1607" t="n">
-        <v>-15.25</v>
+        <v>-15.15</v>
       </c>
     </row>
     <row r="1608">
@@ -31237,7 +31237,7 @@
         <v>-38.58</v>
       </c>
       <c r="E1621" t="n">
-        <v>0</v>
+        <v>37.18</v>
       </c>
     </row>
     <row r="1622">
@@ -31408,7 +31408,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E1630" t="n">
-        <v>-3.98</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="1631">
@@ -31465,7 +31465,7 @@
         <v>0</v>
       </c>
       <c r="E1633" t="n">
-        <v>0</v>
+        <v>-12.56</v>
       </c>
     </row>
     <row r="1634">
@@ -31503,7 +31503,7 @@
         <v>10.46</v>
       </c>
       <c r="E1635" t="n">
-        <v>-9.470000000000001</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="1636">
@@ -31522,7 +31522,7 @@
         <v>18.21</v>
       </c>
       <c r="E1636" t="n">
-        <v>0</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="1637">
@@ -31655,7 +31655,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1643" t="n">
-        <v>-14.81</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="1644">
@@ -31693,7 +31693,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1645" t="n">
-        <v>-14.81</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="1646">
@@ -31712,7 +31712,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1646" t="n">
-        <v>-14.81</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="1647">
@@ -31731,7 +31731,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1647" t="n">
-        <v>-14.81</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="1648">
@@ -31750,7 +31750,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1648" t="n">
-        <v>-14.81</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="1649">
@@ -31902,7 +31902,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1656" t="n">
-        <v>-4.34</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="1657">
@@ -31921,7 +31921,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1657" t="n">
-        <v>-4.34</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="1658">
@@ -31940,7 +31940,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1658" t="n">
-        <v>-4.34</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="1659">
@@ -32054,7 +32054,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1664" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="1665">
@@ -32092,7 +32092,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1666" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="1667">
@@ -32111,7 +32111,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1667" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="1668">
@@ -32130,7 +32130,7 @@
         <v>0.64</v>
       </c>
       <c r="E1668" t="n">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1669">
@@ -32149,7 +32149,7 @@
         <v>0.64</v>
       </c>
       <c r="E1669" t="n">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1670">
@@ -32168,7 +32168,7 @@
         <v>0.64</v>
       </c>
       <c r="E1670" t="n">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1671">
@@ -32187,7 +32187,7 @@
         <v>0.64</v>
       </c>
       <c r="E1671" t="n">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1672">
@@ -32263,7 +32263,7 @@
         <v>0</v>
       </c>
       <c r="E1675" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="1676">
@@ -32282,7 +32282,7 @@
         <v>0</v>
       </c>
       <c r="E1676" t="n">
-        <v>0</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="1677">
@@ -32301,7 +32301,7 @@
         <v>0</v>
       </c>
       <c r="E1677" t="n">
-        <v>0</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="1678">
@@ -32472,7 +32472,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1686" t="n">
-        <v>0</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="1687">
@@ -32491,7 +32491,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1687" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="1688">
@@ -32510,7 +32510,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1688" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="1689">
@@ -32529,7 +32529,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1689" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="1690">
@@ -32567,7 +32567,7 @@
         <v>0.64</v>
       </c>
       <c r="E1691" t="n">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1692">
@@ -32586,7 +32586,7 @@
         <v>9.229999999999999</v>
       </c>
       <c r="E1692" t="n">
-        <v>-23.64</v>
+        <v>-9.859999999999999</v>
       </c>
     </row>
     <row r="1693">
@@ -32605,7 +32605,7 @@
         <v>0.64</v>
       </c>
       <c r="E1693" t="n">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1694">
@@ -32624,7 +32624,7 @@
         <v>0.64</v>
       </c>
       <c r="E1694" t="n">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1695">
@@ -32643,7 +32643,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1695" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="1696">
@@ -32681,7 +32681,7 @@
         <v>0.64</v>
       </c>
       <c r="E1697" t="n">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1698">
@@ -32757,7 +32757,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1701" t="n">
-        <v>-14.81</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="1702">
@@ -32814,7 +32814,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1704" t="n">
-        <v>-13.09</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="1705">
@@ -32928,7 +32928,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1710" t="n">
-        <v>-13.09</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="1711">
@@ -33213,7 +33213,7 @@
         <v>6.17</v>
       </c>
       <c r="E1725" t="n">
-        <v>0</v>
+        <v>-12.02</v>
       </c>
     </row>
     <row r="1726">
@@ -33346,7 +33346,7 @@
         <v>2.8</v>
       </c>
       <c r="E1732" t="n">
-        <v>-6.710000000000001</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="1733">
@@ -33365,7 +33365,7 @@
         <v>1.4</v>
       </c>
       <c r="E1733" t="n">
-        <v>-5.42</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="1734">
@@ -33403,7 +33403,7 @@
         <v>0</v>
       </c>
       <c r="E1735" t="n">
-        <v>0</v>
+        <v>-8.469999999999999</v>
       </c>
     </row>
     <row r="1736">
@@ -34030,7 +34030,7 @@
         <v>-3.99</v>
       </c>
       <c r="E1768" t="n">
-        <v>-24.89</v>
+        <v>-10.38</v>
       </c>
     </row>
     <row r="1769">
@@ -34296,7 +34296,7 @@
         <v>0</v>
       </c>
       <c r="E1782" t="n">
-        <v>0</v>
+        <v>-9.039999999999999</v>
       </c>
     </row>
     <row r="1783">
@@ -34429,7 +34429,7 @@
         <v>0</v>
       </c>
       <c r="E1789" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="1790">
@@ -35018,7 +35018,7 @@
         <v>-4.61</v>
       </c>
       <c r="E1820" t="n">
-        <v>-7.960000000000001</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="1821">
@@ -35037,7 +35037,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1821" t="n">
-        <v>-12.2</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1822">
@@ -35056,7 +35056,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1822" t="n">
-        <v>-12.2</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1823">
@@ -35075,7 +35075,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1823" t="n">
-        <v>-12.2</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1824">
@@ -35094,7 +35094,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1824" t="n">
-        <v>-12.2</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1825">
@@ -35113,7 +35113,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1825" t="n">
-        <v>-12.2</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1826">
@@ -35132,7 +35132,7 @@
         <v>1.53</v>
       </c>
       <c r="E1826" t="n">
-        <v>-13.99</v>
+        <v>-7.000000000000001</v>
       </c>
     </row>
     <row r="1827">
@@ -35151,7 +35151,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1827" t="n">
-        <v>-12.2</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1828">
@@ -35322,7 +35322,7 @@
         <v>8.57</v>
       </c>
       <c r="E1836" t="n">
-        <v>-1.43</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="1837">
@@ -35379,7 +35379,7 @@
         <v>8.57</v>
       </c>
       <c r="E1839" t="n">
-        <v>-1.43</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="1840">
@@ -35398,7 +35398,7 @@
         <v>8.57</v>
       </c>
       <c r="E1840" t="n">
-        <v>-1.43</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="1841">
@@ -35417,7 +35417,7 @@
         <v>8.57</v>
       </c>
       <c r="E1841" t="n">
-        <v>-1.43</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="1842">
@@ -35436,7 +35436,7 @@
         <v>8.57</v>
       </c>
       <c r="E1842" t="n">
-        <v>-1.43</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="1843">
@@ -35455,7 +35455,7 @@
         <v>8.57</v>
       </c>
       <c r="E1843" t="n">
-        <v>-1.43</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="1844">
@@ -35512,7 +35512,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1846" t="n">
-        <v>0</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="1847">
@@ -35531,7 +35531,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1847" t="n">
-        <v>0</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="1848">
@@ -36177,7 +36177,7 @@
         <v>0</v>
       </c>
       <c r="E1881" t="n">
-        <v>0</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="1882">
@@ -36443,7 +36443,7 @@
         <v>-12.96</v>
       </c>
       <c r="E1895" t="n">
-        <v>0</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="1896">
@@ -37279,7 +37279,7 @@
         <v>-6.27</v>
       </c>
       <c r="E1939" t="n">
-        <v>-4.62</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="1940">
@@ -37925,7 +37925,7 @@
         <v>0.28</v>
       </c>
       <c r="E1973" t="n">
-        <v>2.5</v>
+        <v>-7.779999999999999</v>
       </c>
     </row>
     <row r="1974">
@@ -37944,7 +37944,7 @@
         <v>-5.88</v>
       </c>
       <c r="E1974" t="n">
-        <v>-8.24</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="1975">
@@ -38932,7 +38932,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2026" t="n">
-        <v>-17.48</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="2027">
@@ -38951,7 +38951,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2027" t="n">
-        <v>-17.48</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="2028">
@@ -39407,7 +39407,7 @@
         <v>5</v>
       </c>
       <c r="E2051" t="n">
-        <v>1.24</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="2052">
@@ -39806,7 +39806,7 @@
         <v>-3.13</v>
       </c>
       <c r="E2072" t="n">
-        <v>-8.02</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="2073">
@@ -39825,7 +39825,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2073" t="n">
-        <v>9.220000000000001</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="2074">
@@ -40015,7 +40015,7 @@
         <v>-5.06</v>
       </c>
       <c r="E2083" t="n">
-        <v>-13.4</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="2084">
@@ -40167,7 +40167,7 @@
         <v>-5.75</v>
       </c>
       <c r="E2091" t="n">
-        <v>-0.9900000000000001</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="2092">
@@ -40186,7 +40186,7 @@
         <v>12.3</v>
       </c>
       <c r="E2092" t="n">
-        <v>0</v>
+        <v>-8.83</v>
       </c>
     </row>
     <row r="2093">
@@ -40224,7 +40224,7 @@
         <v>-0.7000000000000001</v>
       </c>
       <c r="E2094" t="n">
-        <v>2.34</v>
+        <v>-5.609999999999999</v>
       </c>
     </row>
     <row r="2095">
@@ -40262,7 +40262,7 @@
         <v>0</v>
       </c>
       <c r="E2096" t="n">
-        <v>-10.22</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="2097">
@@ -40661,7 +40661,7 @@
         <v>-20.5</v>
       </c>
       <c r="E2117" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="2118">
@@ -40680,7 +40680,7 @@
         <v>-20.5</v>
       </c>
       <c r="E2118" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="2119">
@@ -40699,7 +40699,7 @@
         <v>-1.24</v>
       </c>
       <c r="E2119" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="2120">
@@ -40718,7 +40718,7 @@
         <v>0</v>
       </c>
       <c r="E2120" t="n">
-        <v>0</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="2121">
@@ -40737,7 +40737,7 @@
         <v>-15.2</v>
       </c>
       <c r="E2121" t="n">
-        <v>0</v>
+        <v>8.959999999999999</v>
       </c>
     </row>
     <row r="2122">
@@ -40756,7 +40756,7 @@
         <v>0</v>
       </c>
       <c r="E2122" t="n">
-        <v>0</v>
+        <v>-10.42</v>
       </c>
     </row>
     <row r="2123">
@@ -40775,7 +40775,7 @@
         <v>3.1</v>
       </c>
       <c r="E2123" t="n">
-        <v>0</v>
+        <v>-10.42</v>
       </c>
     </row>
     <row r="2124">
@@ -40813,7 +40813,7 @@
         <v>0</v>
       </c>
       <c r="E2125" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="2126">
@@ -40832,7 +40832,7 @@
         <v>0</v>
       </c>
       <c r="E2126" t="n">
-        <v>0</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="2127">
@@ -41497,7 +41497,7 @@
         <v>0</v>
       </c>
       <c r="E2161" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="2162">
@@ -41535,7 +41535,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2163" t="n">
-        <v>0</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="2164">
@@ -41554,7 +41554,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2164" t="n">
-        <v>0</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="2165">
@@ -41953,7 +41953,7 @@
         <v>0</v>
       </c>
       <c r="E2185" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="2186">
@@ -42048,7 +42048,7 @@
         <v>0</v>
       </c>
       <c r="E2190" t="n">
-        <v>0</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="2191">
@@ -42865,7 +42865,7 @@
         <v>2.05</v>
       </c>
       <c r="E2233" t="n">
-        <v>0</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="2234">
@@ -43055,7 +43055,7 @@
         <v>2.05</v>
       </c>
       <c r="E2243" t="n">
-        <v>0</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="2244">
@@ -43587,7 +43587,7 @@
         <v>2.84</v>
       </c>
       <c r="E2271" t="n">
-        <v>-16.54</v>
+        <v>-6.890000000000001</v>
       </c>
     </row>
     <row r="2272">
@@ -43644,7 +43644,7 @@
         <v>10.21</v>
       </c>
       <c r="E2274" t="n">
-        <v>3.71</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="2275">
@@ -44328,7 +44328,7 @@
         <v>26.01</v>
       </c>
       <c r="E2310" t="n">
-        <v>0</v>
+        <v>-14.06</v>
       </c>
     </row>
     <row r="2311">
@@ -44803,7 +44803,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2335" t="n">
-        <v>-6.67</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="2336">
@@ -44822,7 +44822,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2336" t="n">
-        <v>-6.67</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="2337">
@@ -45696,7 +45696,7 @@
         <v>0</v>
       </c>
       <c r="E2382" t="n">
-        <v>0</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="2383">
@@ -45715,7 +45715,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2383" t="n">
-        <v>-4.09</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="2384">
@@ -45734,7 +45734,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2384" t="n">
-        <v>-4.09</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="2385">
@@ -45753,7 +45753,7 @@
         <v>-12.61</v>
       </c>
       <c r="E2385" t="n">
-        <v>-4.09</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="2386">
@@ -45772,7 +45772,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2386" t="n">
-        <v>-4.09</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="2387">
@@ -45791,7 +45791,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2387" t="n">
-        <v>-4.09</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="2388">
@@ -45810,7 +45810,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2388" t="n">
-        <v>-4.09</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="2389">
@@ -45848,7 +45848,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2390" t="n">
-        <v>-12.5</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="2391">
@@ -45886,7 +45886,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2392" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="2393">
@@ -45905,7 +45905,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2393" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="2394">
@@ -45924,7 +45924,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2394" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="2395">
@@ -46133,7 +46133,7 @@
         <v>11.16</v>
       </c>
       <c r="E2405" t="n">
-        <v>-30.01</v>
+        <v>-27.15</v>
       </c>
     </row>
     <row r="2406">
@@ -46228,7 +46228,7 @@
         <v>-6.68</v>
       </c>
       <c r="E2410" t="n">
-        <v>-26.4</v>
+        <v>-7.960000000000001</v>
       </c>
     </row>
     <row r="2411">
@@ -46418,7 +46418,7 @@
         <v>-2.91</v>
       </c>
       <c r="E2420" t="n">
-        <v>-7.33</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="2421">
@@ -46608,7 +46608,7 @@
         <v>-6.01</v>
       </c>
       <c r="E2430" t="n">
-        <v>-13.6</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="2431">
@@ -46741,7 +46741,7 @@
         <v>0.91</v>
       </c>
       <c r="E2437" t="n">
-        <v>-10.92</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="2438">
@@ -46798,7 +46798,7 @@
         <v>14.77</v>
       </c>
       <c r="E2440" t="n">
-        <v>-22.51</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="2441">
@@ -46817,7 +46817,7 @@
         <v>14.77</v>
       </c>
       <c r="E2441" t="n">
-        <v>-22.51</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="2442">
@@ -46836,7 +46836,7 @@
         <v>14.77</v>
       </c>
       <c r="E2442" t="n">
-        <v>-22.51</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="2443">
@@ -46855,7 +46855,7 @@
         <v>14.77</v>
       </c>
       <c r="E2443" t="n">
-        <v>-22.51</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="2444">
@@ -46874,7 +46874,7 @@
         <v>14.77</v>
       </c>
       <c r="E2444" t="n">
-        <v>-22.51</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="2445">
@@ -46893,7 +46893,7 @@
         <v>14.77</v>
       </c>
       <c r="E2445" t="n">
-        <v>-22.51</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="2446">
@@ -47045,7 +47045,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2453" t="n">
-        <v>0</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="2454">
@@ -47083,7 +47083,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2455" t="n">
-        <v>0</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="2456">
@@ -47121,7 +47121,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2457" t="n">
-        <v>0</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="2458">
@@ -47140,7 +47140,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2458" t="n">
-        <v>0</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="2459">
@@ -47330,7 +47330,7 @@
         <v>5.37</v>
       </c>
       <c r="E2468" t="n">
-        <v>-13.6</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="2469">
@@ -47349,7 +47349,7 @@
         <v>0</v>
       </c>
       <c r="E2469" t="n">
-        <v>0</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="2470">
@@ -47501,7 +47501,7 @@
         <v>-5.5</v>
       </c>
       <c r="E2477" t="n">
-        <v>0</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="2478">
@@ -47539,7 +47539,7 @@
         <v>-3.61</v>
       </c>
       <c r="E2479" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2480">
@@ -47767,7 +47767,7 @@
         <v>23.59</v>
       </c>
       <c r="E2491" t="n">
-        <v>0</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="2492">
@@ -47824,7 +47824,7 @@
         <v>1.72</v>
       </c>
       <c r="E2494" t="n">
-        <v>0</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="2495">
@@ -47843,7 +47843,7 @@
         <v>1.07</v>
       </c>
       <c r="E2495" t="n">
-        <v>2.67</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="2496">
@@ -47862,7 +47862,7 @@
         <v>1.52</v>
       </c>
       <c r="E2496" t="n">
-        <v>-1.5</v>
+        <v>-6.48</v>
       </c>
     </row>
     <row r="2497">
@@ -47881,7 +47881,7 @@
         <v>-22.22</v>
       </c>
       <c r="E2497" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="2498">
@@ -47995,7 +47995,7 @@
         <v>-2.64</v>
       </c>
       <c r="E2503" t="n">
-        <v>0</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="2504">
@@ -48223,7 +48223,7 @@
         <v>-1.48</v>
       </c>
       <c r="E2515" t="n">
-        <v>-0.75</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="2516">
@@ -48432,7 +48432,7 @@
         <v>0</v>
       </c>
       <c r="E2526" t="n">
-        <v>0</v>
+        <v>7.829999999999999</v>
       </c>
     </row>
     <row r="2527">
@@ -48451,7 +48451,7 @@
         <v>0</v>
       </c>
       <c r="E2527" t="n">
-        <v>0</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="2528">
@@ -48831,7 +48831,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2547" t="n">
-        <v>0</v>
+        <v>16.03</v>
       </c>
     </row>
     <row r="2548">
@@ -49097,7 +49097,7 @@
         <v>5.140000000000001</v>
       </c>
       <c r="E2561" t="n">
-        <v>-14.66</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="2562">
@@ -49230,7 +49230,7 @@
         <v>-2.86</v>
       </c>
       <c r="E2568" t="n">
-        <v>-17.74</v>
+        <v>-7.399999999999999</v>
       </c>
     </row>
     <row r="2569">
@@ -49667,7 +49667,7 @@
         <v>-21.06</v>
       </c>
       <c r="E2591" t="n">
-        <v>0</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="2592">
@@ -49705,7 +49705,7 @@
         <v>-16.74</v>
       </c>
       <c r="E2593" t="n">
-        <v>0</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="2594">
@@ -49743,7 +49743,7 @@
         <v>4.47</v>
       </c>
       <c r="E2595" t="n">
-        <v>0</v>
+        <v>-14.32</v>
       </c>
     </row>
     <row r="2596">
@@ -49838,7 +49838,7 @@
         <v>-7.27</v>
       </c>
       <c r="E2600" t="n">
-        <v>-2.97</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="2601">
@@ -49857,7 +49857,7 @@
         <v>-27.88</v>
       </c>
       <c r="E2601" t="n">
-        <v>-2.97</v>
+        <v>29.46</v>
       </c>
     </row>
     <row r="2602">
@@ -50009,7 +50009,7 @@
         <v>-7.85</v>
       </c>
       <c r="E2609" t="n">
-        <v>-11.23</v>
+        <v>-10.51</v>
       </c>
     </row>
     <row r="2610">
@@ -50028,7 +50028,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2610" t="n">
-        <v>-11.23</v>
+        <v>-10.51</v>
       </c>
     </row>
     <row r="2611">
@@ -50047,7 +50047,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2611" t="n">
-        <v>-11.23</v>
+        <v>-10.51</v>
       </c>
     </row>
     <row r="2612">
@@ -50066,7 +50066,7 @@
         <v>16.5</v>
       </c>
       <c r="E2612" t="n">
-        <v>-9.01</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="2613">
@@ -50085,7 +50085,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2613" t="n">
-        <v>-11.23</v>
+        <v>-10.51</v>
       </c>
     </row>
     <row r="2614">
@@ -50104,7 +50104,7 @@
         <v>-6.69</v>
       </c>
       <c r="E2614" t="n">
-        <v>0</v>
+        <v>-8.34</v>
       </c>
     </row>
     <row r="2615">
@@ -50161,7 +50161,7 @@
         <v>-5.3</v>
       </c>
       <c r="E2617" t="n">
-        <v>-11.33</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="2618">
@@ -50313,7 +50313,7 @@
         <v>2.78</v>
       </c>
       <c r="E2625" t="n">
-        <v>0</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="2626">
@@ -50332,7 +50332,7 @@
         <v>7.99</v>
       </c>
       <c r="E2626" t="n">
-        <v>-9.84</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="2627">
@@ -50351,7 +50351,7 @@
         <v>7.99</v>
       </c>
       <c r="E2627" t="n">
-        <v>-9.84</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="2628">
@@ -50370,7 +50370,7 @@
         <v>-3.74</v>
       </c>
       <c r="E2628" t="n">
-        <v>-9.84</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="2629">
@@ -50389,7 +50389,7 @@
         <v>7.99</v>
       </c>
       <c r="E2629" t="n">
-        <v>-9.84</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="2630">
@@ -50484,7 +50484,7 @@
         <v>-1.13</v>
       </c>
       <c r="E2634" t="n">
-        <v>-11.15</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="2635">
@@ -50503,7 +50503,7 @@
         <v>0.32</v>
       </c>
       <c r="E2635" t="n">
-        <v>-11.15</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="2636">
@@ -50522,7 +50522,7 @@
         <v>0.32</v>
       </c>
       <c r="E2636" t="n">
-        <v>-11.15</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="2637">
@@ -50541,7 +50541,7 @@
         <v>23.17</v>
       </c>
       <c r="E2637" t="n">
-        <v>0</v>
+        <v>-11.71</v>
       </c>
     </row>
     <row r="2638">
@@ -50560,7 +50560,7 @@
         <v>0.32</v>
       </c>
       <c r="E2638" t="n">
-        <v>-11.15</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="2639">
@@ -50579,7 +50579,7 @@
         <v>-1.13</v>
       </c>
       <c r="E2639" t="n">
-        <v>-11.15</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="2640">
@@ -50598,7 +50598,7 @@
         <v>-0.75</v>
       </c>
       <c r="E2640" t="n">
-        <v>-1.77</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="2641">
@@ -50655,7 +50655,7 @@
         <v>-7.01</v>
       </c>
       <c r="E2643" t="n">
-        <v>-15.18</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="2644">
@@ -50712,7 +50712,7 @@
         <v>0</v>
       </c>
       <c r="E2646" t="n">
-        <v>0</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="2647">
@@ -50807,7 +50807,7 @@
         <v>0</v>
       </c>
       <c r="E2651" t="n">
-        <v>0</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="2652">
@@ -50921,7 +50921,7 @@
         <v>-13.04</v>
       </c>
       <c r="E2657" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2658">
@@ -51339,7 +51339,7 @@
         <v>0</v>
       </c>
       <c r="E2679" t="n">
-        <v>0</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="2680">
@@ -51738,7 +51738,7 @@
         <v>0</v>
       </c>
       <c r="E2700" t="n">
-        <v>0</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="2701">
@@ -51966,7 +51966,7 @@
         <v>0</v>
       </c>
       <c r="E2712" t="n">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="2713">
@@ -52213,7 +52213,7 @@
         <v>0</v>
       </c>
       <c r="E2725" t="n">
-        <v>0</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="2726">
@@ -52232,7 +52232,7 @@
         <v>0</v>
       </c>
       <c r="E2726" t="n">
-        <v>0</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="2727">
@@ -52897,7 +52897,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2761" t="n">
-        <v>-11.48</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="2762">
@@ -52916,7 +52916,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2762" t="n">
-        <v>-11.48</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="2763">
@@ -52935,7 +52935,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2763" t="n">
-        <v>-11.48</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="2764">
@@ -53258,7 +53258,7 @@
         <v>6.09</v>
       </c>
       <c r="E2780" t="n">
-        <v>0</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="2781">
@@ -53277,7 +53277,7 @@
         <v>7.180000000000001</v>
       </c>
       <c r="E2781" t="n">
-        <v>16.67</v>
+        <v>4.98</v>
       </c>
     </row>
     <row r="2782">
@@ -54379,7 +54379,7 @@
         <v>-11.22</v>
       </c>
       <c r="E2839" t="n">
-        <v>-2.89</v>
+        <v>6.859999999999999</v>
       </c>
     </row>
     <row r="2840">
@@ -54474,7 +54474,7 @@
         <v>0</v>
       </c>
       <c r="E2844" t="n">
-        <v>0</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="2845">
@@ -55006,7 +55006,7 @@
         <v>-0.09</v>
       </c>
       <c r="E2872" t="n">
-        <v>8.369999999999999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2873">
@@ -55120,7 +55120,7 @@
         <v>0</v>
       </c>
       <c r="E2878" t="n">
-        <v>0</v>
+        <v>-7.720000000000001</v>
       </c>
     </row>
     <row r="2879">
@@ -55215,7 +55215,7 @@
         <v>-0.34</v>
       </c>
       <c r="E2883" t="n">
-        <v>20.76</v>
+        <v>8.649999999999999</v>
       </c>
     </row>
     <row r="2884">
@@ -55253,7 +55253,7 @@
         <v>-23.81</v>
       </c>
       <c r="E2885" t="n">
-        <v>-5.26</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="2886">
@@ -55310,7 +55310,7 @@
         <v>-17.74</v>
       </c>
       <c r="E2888" t="n">
-        <v>0</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="2889">
@@ -55367,7 +55367,7 @@
         <v>11.01</v>
       </c>
       <c r="E2891" t="n">
-        <v>-8.880000000000001</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="2892">
@@ -55386,7 +55386,7 @@
         <v>-0.44</v>
       </c>
       <c r="E2892" t="n">
-        <v>-11.56</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="2893">
@@ -56944,7 +56944,7 @@
         <v>0</v>
       </c>
       <c r="E2974" t="n">
-        <v>0</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="2975">
@@ -56963,7 +56963,7 @@
         <v>0</v>
       </c>
       <c r="E2975" t="n">
-        <v>0</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="2976">
@@ -56982,7 +56982,7 @@
         <v>0</v>
       </c>
       <c r="E2976" t="n">
-        <v>0</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="2977">
@@ -57039,7 +57039,7 @@
         <v>-4.01</v>
       </c>
       <c r="E2979" t="n">
-        <v>-10.33</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="2980">
@@ -57134,7 +57134,7 @@
         <v>17.64</v>
       </c>
       <c r="E2984" t="n">
-        <v>-15</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="2985">
@@ -57191,7 +57191,7 @@
         <v>11.89</v>
       </c>
       <c r="E2987" t="n">
-        <v>0</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="2988">
@@ -57780,7 +57780,7 @@
         <v>-4.62</v>
       </c>
       <c r="E3018" t="n">
-        <v>-12.11</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="3019">
@@ -58597,7 +58597,7 @@
         <v>-10.12</v>
       </c>
       <c r="E3061" t="n">
-        <v>-15.08</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="3062">
@@ -58806,7 +58806,7 @@
         <v>-19.65</v>
       </c>
       <c r="E3072" t="n">
-        <v>-6.819999999999999</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="3073">
@@ -58901,7 +58901,7 @@
         <v>0</v>
       </c>
       <c r="E3077" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3078">
@@ -58939,7 +58939,7 @@
         <v>3.58</v>
       </c>
       <c r="E3079" t="n">
-        <v>0</v>
+        <v>-12.05</v>
       </c>
     </row>
     <row r="3080">
@@ -58977,7 +58977,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3081" t="n">
-        <v>0</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="3082">
@@ -59015,7 +59015,7 @@
         <v>0</v>
       </c>
       <c r="E3083" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3084">
@@ -59053,7 +59053,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3085" t="n">
-        <v>0</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="3086">
@@ -59281,7 +59281,7 @@
         <v>-22.35</v>
       </c>
       <c r="E3097" t="n">
-        <v>0</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="3098">
@@ -59300,7 +59300,7 @@
         <v>-10.28</v>
       </c>
       <c r="E3098" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="3099">
@@ -59319,7 +59319,7 @@
         <v>-24.1</v>
       </c>
       <c r="E3099" t="n">
-        <v>21.16</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="3100">
@@ -59338,7 +59338,7 @@
         <v>15.55</v>
       </c>
       <c r="E3100" t="n">
-        <v>0</v>
+        <v>-18.87</v>
       </c>
     </row>
     <row r="3101">
@@ -59357,7 +59357,7 @@
         <v>-2.2</v>
       </c>
       <c r="E3101" t="n">
-        <v>0</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="3102">
@@ -59376,7 +59376,7 @@
         <v>17.93</v>
       </c>
       <c r="E3102" t="n">
-        <v>0</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="3103">
@@ -59946,7 +59946,7 @@
         <v>0</v>
       </c>
       <c r="E3132" t="n">
-        <v>0</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="3133">
@@ -60098,7 +60098,7 @@
         <v>-9.51</v>
       </c>
       <c r="E3140" t="n">
-        <v>0</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="3141">
@@ -60117,7 +60117,7 @@
         <v>0</v>
       </c>
       <c r="E3141" t="n">
-        <v>0</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="3142">
@@ -60915,7 +60915,7 @@
         <v>0</v>
       </c>
       <c r="E3183" t="n">
-        <v>0</v>
+        <v>5.850000000000001</v>
       </c>
     </row>
     <row r="3184">
@@ -61390,7 +61390,7 @@
         <v>-5.76</v>
       </c>
       <c r="E3208" t="n">
-        <v>-25.19</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="3209">
@@ -62625,7 +62625,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3273" t="n">
-        <v>-25.26</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="3274">
@@ -62644,7 +62644,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3274" t="n">
-        <v>-25.26</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="3275">
@@ -62663,7 +62663,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3275" t="n">
-        <v>-25.26</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="3276">
@@ -63233,7 +63233,7 @@
         <v>8.6</v>
       </c>
       <c r="E3305" t="n">
-        <v>-10.57</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="3306">
@@ -63252,7 +63252,7 @@
         <v>14.8</v>
       </c>
       <c r="E3306" t="n">
-        <v>-12.89</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="3307">
@@ -63309,7 +63309,7 @@
         <v>11.48</v>
       </c>
       <c r="E3309" t="n">
-        <v>-12.89</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="3310">
@@ -63461,7 +63461,7 @@
         <v>6.79</v>
       </c>
       <c r="E3317" t="n">
-        <v>0</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="3318">
@@ -63556,7 +63556,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="E3322" t="n">
-        <v>0</v>
+        <v>-13.66</v>
       </c>
     </row>
     <row r="3323">
@@ -63632,7 +63632,7 @@
         <v>-4.850000000000001</v>
       </c>
       <c r="E3326" t="n">
-        <v>-12.48</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="3327">
@@ -63708,7 +63708,7 @@
         <v>-13.92</v>
       </c>
       <c r="E3330" t="n">
-        <v>0</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="3331">
@@ -63746,7 +63746,7 @@
         <v>0</v>
       </c>
       <c r="E3332" t="n">
-        <v>2.21</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="3333">
@@ -63879,7 +63879,7 @@
         <v>-4.95</v>
       </c>
       <c r="E3339" t="n">
-        <v>0</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="3340">
@@ -63917,7 +63917,7 @@
         <v>-15.5</v>
       </c>
       <c r="E3341" t="n">
-        <v>1.71</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="3342">
@@ -63955,7 +63955,7 @@
         <v>4.87</v>
       </c>
       <c r="E3343" t="n">
-        <v>1.71</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="3344">
@@ -63974,7 +63974,7 @@
         <v>4.390000000000001</v>
       </c>
       <c r="E3344" t="n">
-        <v>2.71</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="3345">
@@ -63993,7 +63993,7 @@
         <v>3.89</v>
       </c>
       <c r="E3345" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="3346">
@@ -64012,7 +64012,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="E3346" t="n">
-        <v>1.71</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="3347">
@@ -64031,7 +64031,7 @@
         <v>-5.800000000000001</v>
       </c>
       <c r="E3347" t="n">
-        <v>0</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="3348">
@@ -64164,7 +64164,7 @@
         <v>11.23</v>
       </c>
       <c r="E3354" t="n">
-        <v>2.21</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="3355">
@@ -64183,7 +64183,7 @@
         <v>0</v>
       </c>
       <c r="E3355" t="n">
-        <v>0</v>
+        <v>-8.790000000000001</v>
       </c>
     </row>
     <row r="3356">
@@ -65266,7 +65266,7 @@
         <v>-6.7</v>
       </c>
       <c r="E3412" t="n">
-        <v>1.11</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="3413">
@@ -65285,7 +65285,7 @@
         <v>-6.08</v>
       </c>
       <c r="E3413" t="n">
-        <v>1.11</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="3414">
@@ -65342,7 +65342,7 @@
         <v>-10.65</v>
       </c>
       <c r="E3416" t="n">
-        <v>5.3</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="3417">
@@ -65437,7 +65437,7 @@
         <v>-6.329999999999999</v>
       </c>
       <c r="E3421" t="n">
-        <v>2.36</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="3422">
@@ -65494,7 +65494,7 @@
         <v>-9.120000000000001</v>
       </c>
       <c r="E3424" t="n">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="3425">
@@ -65532,7 +65532,7 @@
         <v>-1.6</v>
       </c>
       <c r="E3426" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="3427">
@@ -65703,7 +65703,7 @@
         <v>-1.65</v>
       </c>
       <c r="E3435" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3436">
@@ -65722,7 +65722,7 @@
         <v>-0.61</v>
       </c>
       <c r="E3436" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="3437">
@@ -65760,7 +65760,7 @@
         <v>-1.65</v>
       </c>
       <c r="E3438" t="n">
-        <v>0</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="3439">
@@ -65798,7 +65798,7 @@
         <v>-8.32</v>
       </c>
       <c r="E3440" t="n">
-        <v>-5.93</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="3441">
@@ -65817,7 +65817,7 @@
         <v>0</v>
       </c>
       <c r="E3441" t="n">
-        <v>0</v>
+        <v>-14.32</v>
       </c>
     </row>
     <row r="3442">
@@ -65836,7 +65836,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3442" t="n">
-        <v>0</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="3443">
@@ -65855,7 +65855,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3443" t="n">
-        <v>0</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="3444">
@@ -65893,7 +65893,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3445" t="n">
-        <v>0</v>
+        <v>8.58</v>
       </c>
     </row>
     <row r="3446">
@@ -65912,7 +65912,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E3446" t="n">
-        <v>0</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="3447">
@@ -66197,7 +66197,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3461" t="n">
-        <v>0</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="3462">
@@ -66216,7 +66216,7 @@
         <v>-3.59</v>
       </c>
       <c r="E3462" t="n">
-        <v>0</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="3463">
@@ -66254,7 +66254,7 @@
         <v>-27.13</v>
       </c>
       <c r="E3464" t="n">
-        <v>0</v>
+        <v>34.41</v>
       </c>
     </row>
     <row r="3465">
@@ -66311,7 +66311,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3467" t="n">
-        <v>0</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="3468">
@@ -66596,7 +66596,7 @@
         <v>-11.38</v>
       </c>
       <c r="E3482" t="n">
-        <v>-3.5</v>
+        <v>6.23</v>
       </c>
     </row>
     <row r="3483">
@@ -67679,7 +67679,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3539" t="n">
-        <v>0</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="3540">
@@ -67698,7 +67698,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3540" t="n">
-        <v>0</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="3541">
@@ -67717,7 +67717,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3541" t="n">
-        <v>0</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="3542">
@@ -67736,7 +67736,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3542" t="n">
-        <v>0</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="3543">
@@ -67755,7 +67755,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3543" t="n">
-        <v>0</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="3544">
@@ -67812,7 +67812,7 @@
         <v>-27.25</v>
       </c>
       <c r="E3546" t="n">
-        <v>0</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="3547">
@@ -68344,7 +68344,7 @@
         <v>-0.53</v>
       </c>
       <c r="E3574" t="n">
-        <v>-4.79</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="3575">
@@ -68363,7 +68363,7 @@
         <v>-0.53</v>
       </c>
       <c r="E3575" t="n">
-        <v>-4.79</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="3576">
@@ -68382,7 +68382,7 @@
         <v>-14.67</v>
       </c>
       <c r="E3576" t="n">
-        <v>-22.4</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="3577">
@@ -68629,7 +68629,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3589" t="n">
-        <v>-21.58</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="3590">
@@ -68648,7 +68648,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3590" t="n">
-        <v>-21.58</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="3591">
@@ -68667,7 +68667,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3591" t="n">
-        <v>-21.58</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="3592">
@@ -68686,7 +68686,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3592" t="n">
-        <v>-21.58</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="3593">
@@ -68705,7 +68705,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="E3593" t="n">
-        <v>0</v>
+        <v>-14.34</v>
       </c>
     </row>
     <row r="3594">
@@ -68724,7 +68724,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3594" t="n">
-        <v>6.49</v>
+        <v>-8.780000000000001</v>
       </c>
     </row>
     <row r="3595">
@@ -68743,7 +68743,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3595" t="n">
-        <v>6.49</v>
+        <v>-8.780000000000001</v>
       </c>
     </row>
     <row r="3596">
@@ -68762,7 +68762,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3596" t="n">
-        <v>6.49</v>
+        <v>-8.780000000000001</v>
       </c>
     </row>
     <row r="3597">
@@ -68914,7 +68914,7 @@
         <v>-7.77</v>
       </c>
       <c r="E3604" t="n">
-        <v>-11.3</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="3605">
@@ -69332,7 +69332,7 @@
         <v>-3.32</v>
       </c>
       <c r="E3626" t="n">
-        <v>-20.53</v>
+        <v>-22.36</v>
       </c>
     </row>
     <row r="3627">
@@ -69427,7 +69427,7 @@
         <v>0</v>
       </c>
       <c r="E3631" t="n">
-        <v>0</v>
+        <v>-7.149999999999999</v>
       </c>
     </row>
     <row r="3632">
@@ -69446,7 +69446,7 @@
         <v>0</v>
       </c>
       <c r="E3632" t="n">
-        <v>0</v>
+        <v>-7.149999999999999</v>
       </c>
     </row>
     <row r="3633">
@@ -69541,7 +69541,7 @@
         <v>-12.01</v>
       </c>
       <c r="E3637" t="n">
-        <v>-18.17</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="3638">
@@ -69617,7 +69617,7 @@
         <v>23.77</v>
       </c>
       <c r="E3641" t="n">
-        <v>3.39</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="3642">
@@ -70168,7 +70168,7 @@
         <v>-7.28</v>
       </c>
       <c r="E3670" t="n">
-        <v>-15.99</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="3671">
@@ -70206,7 +70206,7 @@
         <v>4.7</v>
       </c>
       <c r="E3672" t="n">
-        <v>-13.21</v>
+        <v>-8.85</v>
       </c>
     </row>
     <row r="3673">
@@ -70244,7 +70244,7 @@
         <v>0</v>
       </c>
       <c r="E3674" t="n">
-        <v>0</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="3675">
@@ -70282,7 +70282,7 @@
         <v>0</v>
       </c>
       <c r="E3676" t="n">
-        <v>0</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="3677">
@@ -70396,7 +70396,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3682" t="n">
-        <v>-19.06</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="3683">
@@ -70434,7 +70434,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3684" t="n">
-        <v>-19.06</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="3685">
@@ -70453,7 +70453,7 @@
         <v>-0.18</v>
       </c>
       <c r="E3685" t="n">
-        <v>-18.81</v>
+        <v>-5.609999999999999</v>
       </c>
     </row>
     <row r="3686">
@@ -70472,7 +70472,7 @@
         <v>2.36</v>
       </c>
       <c r="E3686" t="n">
-        <v>-13.48</v>
+        <v>-5.609999999999999</v>
       </c>
     </row>
     <row r="3687">
@@ -71764,7 +71764,7 @@
         <v>21.42</v>
       </c>
       <c r="E3754" t="n">
-        <v>0</v>
+        <v>-13.22</v>
       </c>
     </row>
     <row r="3755">
@@ -71878,7 +71878,7 @@
         <v>0</v>
       </c>
       <c r="E3760" t="n">
-        <v>0</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="3761">
@@ -71992,7 +71992,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3766" t="n">
-        <v>-23.44</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="3767">
@@ -72011,7 +72011,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3767" t="n">
-        <v>-23.44</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="3768">
@@ -72125,7 +72125,7 @@
         <v>0</v>
       </c>
       <c r="E3773" t="n">
-        <v>0</v>
+        <v>15.02</v>
       </c>
     </row>
     <row r="3774">
@@ -72258,7 +72258,7 @@
         <v>-15.35</v>
       </c>
       <c r="E3780" t="n">
-        <v>14.65</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="3781">
@@ -72543,7 +72543,7 @@
         <v>6.859999999999999</v>
       </c>
       <c r="E3795" t="n">
-        <v>0</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="3796">
@@ -72562,7 +72562,7 @@
         <v>-2.27</v>
       </c>
       <c r="E3796" t="n">
-        <v>0</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="3797">
@@ -72828,7 +72828,7 @@
         <v>0</v>
       </c>
       <c r="E3810" t="n">
-        <v>0</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="3811">
@@ -73170,7 +73170,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3828" t="n">
-        <v>-6.950000000000001</v>
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="3829">
@@ -73189,7 +73189,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3829" t="n">
-        <v>-6.950000000000001</v>
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="3830">
@@ -73455,7 +73455,7 @@
         <v>0.52</v>
       </c>
       <c r="E3843" t="n">
-        <v>0</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="3844">
@@ -73474,7 +73474,7 @@
         <v>-12.85</v>
       </c>
       <c r="E3844" t="n">
-        <v>0</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="3845">
@@ -73531,7 +73531,7 @@
         <v>1.05</v>
       </c>
       <c r="E3847" t="n">
-        <v>0</v>
+        <v>-9.030000000000001</v>
       </c>
     </row>
     <row r="3848">
@@ -74006,7 +74006,7 @@
         <v>-19.69</v>
       </c>
       <c r="E3872" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="3873">
@@ -74025,7 +74025,7 @@
         <v>-10.89</v>
       </c>
       <c r="E3873" t="n">
-        <v>0</v>
+        <v>14.11</v>
       </c>
     </row>
     <row r="3874">
@@ -74139,7 +74139,7 @@
         <v>8.32</v>
       </c>
       <c r="E3879" t="n">
-        <v>0</v>
+        <v>-17.53</v>
       </c>
     </row>
     <row r="3880">
@@ -74158,7 +74158,7 @@
         <v>8.32</v>
       </c>
       <c r="E3880" t="n">
-        <v>0</v>
+        <v>-17.53</v>
       </c>
     </row>
     <row r="3881">
@@ -74177,7 +74177,7 @@
         <v>8.32</v>
       </c>
       <c r="E3881" t="n">
-        <v>0</v>
+        <v>-17.53</v>
       </c>
     </row>
     <row r="3882">
@@ -74215,7 +74215,7 @@
         <v>-13.77</v>
       </c>
       <c r="E3883" t="n">
-        <v>-18.28</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="3884">
@@ -74405,7 +74405,7 @@
         <v>0</v>
       </c>
       <c r="E3893" t="n">
-        <v>-16.1</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="3894">
@@ -74443,7 +74443,7 @@
         <v>2.48</v>
       </c>
       <c r="E3895" t="n">
-        <v>-16.1</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="3896">
@@ -74709,7 +74709,7 @@
         <v>-9.93</v>
       </c>
       <c r="E3909" t="n">
-        <v>13.24</v>
+        <v>5.510000000000001</v>
       </c>
     </row>
     <row r="3910">
@@ -75184,7 +75184,7 @@
         <v>1.13</v>
       </c>
       <c r="E3934" t="n">
-        <v>-16.71</v>
+        <v>-8.359999999999999</v>
       </c>
     </row>
     <row r="3935">
@@ -75830,7 +75830,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3968" t="n">
-        <v>-8.33</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="3969">
@@ -75849,7 +75849,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3969" t="n">
-        <v>-8.33</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="3970">
@@ -75868,7 +75868,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3970" t="n">
-        <v>-8.33</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="3971">
@@ -75887,7 +75887,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3971" t="n">
-        <v>-8.33</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="3972">
@@ -75906,7 +75906,7 @@
         <v>-14.58</v>
       </c>
       <c r="E3972" t="n">
-        <v>-6.1</v>
+        <v>14.63</v>
       </c>
     </row>
     <row r="3973">
@@ -76438,7 +76438,7 @@
         <v>-4.01</v>
       </c>
       <c r="E4000" t="n">
-        <v>-10.75</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="4001">
@@ -76609,7 +76609,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4009" t="n">
-        <v>0</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4010">
@@ -76628,7 +76628,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4010" t="n">
-        <v>0</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4011">
@@ -76647,7 +76647,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4011" t="n">
-        <v>0</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4012">
@@ -76818,7 +76818,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4020" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4021">
@@ -76837,7 +76837,7 @@
         <v>-16.01</v>
       </c>
       <c r="E4021" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4022">
@@ -76856,7 +76856,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4022" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4023">
@@ -76875,7 +76875,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4023" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4024">
@@ -76894,7 +76894,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4024" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4025">
@@ -76913,7 +76913,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4025" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4026">
@@ -76932,7 +76932,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4026" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4027">
@@ -76951,7 +76951,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4027" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4028">
@@ -76970,7 +76970,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4028" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4029">
@@ -76989,7 +76989,7 @@
         <v>-17.74</v>
       </c>
       <c r="E4029" t="n">
-        <v>0</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="4030">
@@ -77008,7 +77008,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4030" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4031">
@@ -77027,7 +77027,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4031" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4032">
@@ -77559,7 +77559,7 @@
         <v>0</v>
       </c>
       <c r="E4059" t="n">
-        <v>-4.25</v>
+        <v>-13.99</v>
       </c>
     </row>
     <row r="4060">
@@ -77597,7 +77597,7 @@
         <v>36.27</v>
       </c>
       <c r="E4061" t="n">
-        <v>19.97</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="4062">
@@ -77616,7 +77616,7 @@
         <v>15.42</v>
       </c>
       <c r="E4062" t="n">
-        <v>0</v>
+        <v>-13.14</v>
       </c>
     </row>
     <row r="4063">
@@ -77635,7 +77635,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4063" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="4064">
@@ -77654,7 +77654,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4064" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="4065">
@@ -77673,7 +77673,7 @@
         <v>22.24</v>
       </c>
       <c r="E4065" t="n">
-        <v>-18.36</v>
+        <v>-18.09</v>
       </c>
     </row>
     <row r="4066">
@@ -77692,7 +77692,7 @@
         <v>49.82</v>
       </c>
       <c r="E4066" t="n">
-        <v>-28.86</v>
+        <v>-22.92</v>
       </c>
     </row>
     <row r="4067">
@@ -77711,7 +77711,7 @@
         <v>0</v>
       </c>
       <c r="E4067" t="n">
-        <v>0</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="4068">
@@ -77730,7 +77730,7 @@
         <v>3.42</v>
       </c>
       <c r="E4068" t="n">
-        <v>0</v>
+        <v>-7.7</v>
       </c>
     </row>
     <row r="4069">
@@ -77749,7 +77749,7 @@
         <v>0</v>
       </c>
       <c r="E4069" t="n">
-        <v>0</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="4070">
@@ -77882,7 +77882,7 @@
         <v>6.36</v>
       </c>
       <c r="E4076" t="n">
-        <v>3.26</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="4077">
@@ -78053,7 +78053,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4085" t="n">
-        <v>-8.74</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="4086">
@@ -78072,7 +78072,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4086" t="n">
-        <v>-8.74</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="4087">
@@ -78148,7 +78148,7 @@
         <v>-7.16</v>
       </c>
       <c r="E4090" t="n">
-        <v>-19.25</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="4091">
@@ -78338,7 +78338,7 @@
         <v>-3.9</v>
       </c>
       <c r="E4100" t="n">
-        <v>0</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="4101">
@@ -78395,7 +78395,7 @@
         <v>-2.87</v>
       </c>
       <c r="E4103" t="n">
-        <v>-19.94</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="4104">
@@ -78509,7 +78509,7 @@
         <v>0</v>
       </c>
       <c r="E4109" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="4110">
@@ -78680,7 +78680,7 @@
         <v>0</v>
       </c>
       <c r="E4118" t="n">
-        <v>0</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="4119">
@@ -81777,7 +81777,7 @@
         <v>0</v>
       </c>
       <c r="E4281" t="n">
-        <v>0</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="4282">
@@ -82955,7 +82955,7 @@
         <v>3.35</v>
       </c>
       <c r="E4343" t="n">
-        <v>-9.710000000000001</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="4344">
@@ -83164,7 +83164,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4354" t="n">
-        <v>0</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="4355">
@@ -83183,7 +83183,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4355" t="n">
-        <v>0</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="4356">
@@ -83202,7 +83202,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4356" t="n">
-        <v>0</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="4357">
@@ -83221,7 +83221,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4357" t="n">
-        <v>0</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="4358">
@@ -83240,7 +83240,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4358" t="n">
-        <v>0</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="4359">
@@ -83278,7 +83278,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4360" t="n">
-        <v>0</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="4361">
@@ -83297,7 +83297,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4361" t="n">
-        <v>0</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="4362">
@@ -83316,7 +83316,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4362" t="n">
-        <v>0</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="4363">
@@ -83335,7 +83335,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4363" t="n">
-        <v>0</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="4364">
@@ -84532,7 +84532,7 @@
         <v>-3.85</v>
       </c>
       <c r="E4426" t="n">
-        <v>0</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="4427">
@@ -85216,7 +85216,7 @@
         <v>17.67</v>
       </c>
       <c r="E4462" t="n">
-        <v>-20.02</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="4463">
@@ -85235,7 +85235,7 @@
         <v>16.03</v>
       </c>
       <c r="E4463" t="n">
-        <v>2.2</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="4464">
@@ -86261,7 +86261,7 @@
         <v>-1.84</v>
       </c>
       <c r="E4517" t="n">
-        <v>-11</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="4518">
@@ -86318,7 +86318,7 @@
         <v>22.74</v>
       </c>
       <c r="E4520" t="n">
-        <v>0</v>
+        <v>-10.73</v>
       </c>
     </row>
     <row r="4521">
@@ -86337,7 +86337,7 @@
         <v>-18.74</v>
       </c>
       <c r="E4521" t="n">
-        <v>-9.120000000000001</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="4522">
@@ -86356,7 +86356,7 @@
         <v>10.91</v>
       </c>
       <c r="E4522" t="n">
-        <v>0</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="4523">
@@ -86451,7 +86451,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E4527" t="n">
-        <v>-15.45</v>
+        <v>-12.42</v>
       </c>
     </row>
     <row r="4528">
@@ -86470,7 +86470,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E4528" t="n">
-        <v>-15.45</v>
+        <v>-12.42</v>
       </c>
     </row>
     <row r="4529">
@@ -86508,7 +86508,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4530" t="n">
-        <v>0</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="4531">
@@ -86527,7 +86527,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4531" t="n">
-        <v>0</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="4532">
@@ -86869,7 +86869,7 @@
         <v>3.45</v>
       </c>
       <c r="E4549" t="n">
-        <v>-6.800000000000001</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="4550">
@@ -86964,7 +86964,7 @@
         <v>0</v>
       </c>
       <c r="E4554" t="n">
-        <v>0</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="4555">
@@ -87420,7 +87420,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="E4578" t="n">
-        <v>2.14</v>
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>17.25</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>20.47</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -15089,7 +15089,7 @@
         <v>18.12</v>
       </c>
       <c r="E57">
-        <v>2.54</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15242,7 +15242,7 @@
         <v>0.11</v>
       </c>
       <c r="E66">
-        <v>1.01</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -15259,7 +15259,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -15548,7 +15548,7 @@
         <v>3.24</v>
       </c>
       <c r="E84">
-        <v>-2.78</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -15837,7 +15837,7 @@
         <v>-9.26</v>
       </c>
       <c r="E101">
-        <v>9.539999999999999</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -15922,7 +15922,7 @@
         <v>-8.25</v>
       </c>
       <c r="E106">
-        <v>1.99</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -15939,7 +15939,7 @@
         <v>-12.91</v>
       </c>
       <c r="E107">
-        <v>9.06</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -15956,7 +15956,7 @@
         <v>33.1</v>
       </c>
       <c r="E108">
-        <v>-15.5</v>
+        <v>-17.95</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -15973,7 +15973,7 @@
         <v>14.66</v>
       </c>
       <c r="E109">
-        <v>-15.21</v>
+        <v>-17.12</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -16177,7 +16177,7 @@
         <v>-10.77</v>
       </c>
       <c r="E121">
-        <v>4.72</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -16194,7 +16194,7 @@
         <v>-10.77</v>
       </c>
       <c r="E122">
-        <v>4.72</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -16228,7 +16228,7 @@
         <v>6.78</v>
       </c>
       <c r="E124">
-        <v>-12.33</v>
+        <v>-13.88</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -16245,7 +16245,7 @@
         <v>-20.3</v>
       </c>
       <c r="E125">
-        <v>14.24</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -16296,7 +16296,7 @@
         <v>4.68</v>
       </c>
       <c r="E128">
-        <v>-6.16</v>
+        <v>-9.220000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -16398,7 +16398,7 @@
         <v>-13.96</v>
       </c>
       <c r="E134">
-        <v>3.63</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>-22.37</v>
+        <v>-25.18</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -16466,7 +16466,7 @@
         <v>31.84</v>
       </c>
       <c r="E138">
-        <v>-22.37</v>
+        <v>-25.18</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>-22.37</v>
+        <v>-25.18</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>-22.37</v>
+        <v>-25.18</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -16585,7 +16585,7 @@
         <v>10.86</v>
       </c>
       <c r="E145">
-        <v>-3.88</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -16636,7 +16636,7 @@
         <v>-9.24</v>
       </c>
       <c r="E148">
-        <v>3.41</v>
+        <v>6.370000000000001</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -16738,7 +16738,7 @@
         <v>-9.59</v>
       </c>
       <c r="E154">
-        <v>24.43</v>
+        <v>27.49</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -16806,7 +16806,7 @@
         <v>12.85</v>
       </c>
       <c r="E158">
-        <v>28.55</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -17622,7 +17622,7 @@
         <v>-16.92</v>
       </c>
       <c r="E206">
-        <v>23.77</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -17639,7 +17639,7 @@
         <v>-10.11</v>
       </c>
       <c r="E207">
-        <v>13.09</v>
+        <v>14.73</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -17724,7 +17724,7 @@
         <v>13.21</v>
       </c>
       <c r="E212">
-        <v>-6.890000000000001</v>
+        <v>-8.58</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -17775,7 +17775,7 @@
         <v>5.84</v>
       </c>
       <c r="E215">
-        <v>-3.68</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -18200,7 +18200,7 @@
         <v>-14.63</v>
       </c>
       <c r="E240">
-        <v>9.41</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -18251,7 +18251,7 @@
         <v>-12.32</v>
       </c>
       <c r="E243">
-        <v>-2.29</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -18353,7 +18353,7 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -18387,7 +18387,7 @@
         <v>-20.57</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -18404,7 +18404,7 @@
         <v>-14.54</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -18455,7 +18455,7 @@
         <v>-5.319999999999999</v>
       </c>
       <c r="E255">
-        <v>2.2</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -18540,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>-5.149999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -18761,7 +18761,7 @@
         <v>-2.77</v>
       </c>
       <c r="E273">
-        <v>-5.34</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -18778,7 +18778,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -19033,7 +19033,7 @@
         <v>-5.38</v>
       </c>
       <c r="E289">
-        <v>-14.15</v>
+        <v>-9.26</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -19220,7 +19220,7 @@
         <v>2.01</v>
       </c>
       <c r="E300">
-        <v>-21.48</v>
+        <v>-16.56</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>-1.46</v>
+        <v>-7.630000000000001</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -19305,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>-4.66</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>-1.68</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -19475,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -19560,7 +19560,7 @@
         <v>-3.06</v>
       </c>
       <c r="E320">
-        <v>-10.43</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -19628,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>0</v>
+        <v>-6.12</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>-5.01</v>
+        <v>-5.64</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>-4.66</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -20172,7 +20172,7 @@
         <v>-3.06</v>
       </c>
       <c r="E356">
-        <v>-2.34</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -20240,7 +20240,7 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>-0.26</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -20580,7 +20580,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>3.51</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -20631,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>-13.38</v>
+        <v>-15.05</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -21872,7 +21872,7 @@
         <v>2.8</v>
       </c>
       <c r="E456">
-        <v>0.9400000000000001</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -21889,7 +21889,7 @@
         <v>1.26</v>
       </c>
       <c r="E457">
-        <v>-0.62</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -21906,7 +21906,7 @@
         <v>2.65</v>
       </c>
       <c r="E458">
-        <v>23.28</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -21940,7 +21940,7 @@
         <v>-7.93</v>
       </c>
       <c r="E460">
-        <v>20.02</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -21957,7 +21957,7 @@
         <v>-7.93</v>
       </c>
       <c r="E461">
-        <v>20.02</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -21974,7 +21974,7 @@
         <v>-7.93</v>
       </c>
       <c r="E462">
-        <v>20.02</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -21991,7 +21991,7 @@
         <v>-7.93</v>
       </c>
       <c r="E463">
-        <v>20.02</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -22059,7 +22059,7 @@
         <v>-12.93</v>
       </c>
       <c r="E467">
-        <v>14.84</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -22110,7 +22110,7 @@
         <v>-5.79</v>
       </c>
       <c r="E470">
-        <v>-9.76</v>
+        <v>-6.959999999999999</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -22246,7 +22246,7 @@
         <v>-3.12</v>
       </c>
       <c r="E478">
-        <v>-8.279999999999999</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -22263,7 +22263,7 @@
         <v>-3.12</v>
       </c>
       <c r="E479">
-        <v>-8.279999999999999</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -22365,7 +22365,7 @@
         <v>-2.25</v>
       </c>
       <c r="E485">
-        <v>-6.75</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -22467,7 +22467,7 @@
         <v>-1.2</v>
       </c>
       <c r="E491">
-        <v>-13</v>
+        <v>-14.04</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -22484,7 +22484,7 @@
         <v>-1.2</v>
       </c>
       <c r="E492">
-        <v>0.8699999999999999</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -22501,7 +22501,7 @@
         <v>-2</v>
       </c>
       <c r="E493">
-        <v>7.42</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -22518,7 +22518,7 @@
         <v>-2</v>
       </c>
       <c r="E494">
-        <v>7.42</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -22535,7 +22535,7 @@
         <v>-12.39</v>
       </c>
       <c r="E495">
-        <v>13.13</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -22603,7 +22603,7 @@
         <v>-8.959999999999999</v>
       </c>
       <c r="E499">
-        <v>-2.28</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -22671,7 +22671,7 @@
         <v>5.94</v>
       </c>
       <c r="E503">
-        <v>-3.64</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -22688,7 +22688,7 @@
         <v>5.94</v>
       </c>
       <c r="E504">
-        <v>-3.64</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -22705,7 +22705,7 @@
         <v>5.94</v>
       </c>
       <c r="E505">
-        <v>-3.64</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -22722,7 +22722,7 @@
         <v>5.94</v>
       </c>
       <c r="E506">
-        <v>-3.64</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>5.510000000000001</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>-6.11</v>
+        <v>-6.890000000000001</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="E515">
-        <v>-4.03</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="E516">
-        <v>-4.03</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -22909,7 +22909,7 @@
         <v>1.46</v>
       </c>
       <c r="E517">
-        <v>-0.97</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -22926,7 +22926,7 @@
         <v>0</v>
       </c>
       <c r="E518">
-        <v>5.510000000000001</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -22943,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="E519">
-        <v>-6.11</v>
+        <v>-6.890000000000001</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="E520">
-        <v>-6.11</v>
+        <v>-6.890000000000001</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -23096,7 +23096,7 @@
         <v>15.22</v>
       </c>
       <c r="E528">
-        <v>25.83</v>
+        <v>28.23</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -23368,7 +23368,7 @@
         <v>-6.79</v>
       </c>
       <c r="E544">
-        <v>-1.28</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -23487,7 +23487,7 @@
         <v>0</v>
       </c>
       <c r="E551">
-        <v>-6.17</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="E554">
-        <v>0</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -23674,7 +23674,7 @@
         <v>9.73</v>
       </c>
       <c r="E562">
-        <v>11.62</v>
+        <v>14.07</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="E575">
-        <v>-13.35</v>
+        <v>-15.09</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -23946,7 +23946,7 @@
         <v>-8.81</v>
       </c>
       <c r="E578">
-        <v>-1.7</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="E591">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -24303,7 +24303,7 @@
         <v>-4.17</v>
       </c>
       <c r="E599">
-        <v>-25.3</v>
+        <v>-13.44</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -24320,7 +24320,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="E600">
-        <v>-1.66</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -24337,7 +24337,7 @@
         <v>0</v>
       </c>
       <c r="E601">
-        <v>6.61</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -24354,7 +24354,7 @@
         <v>2.75</v>
       </c>
       <c r="E602">
-        <v>10</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -24371,7 +24371,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="E603">
-        <v>-25.41</v>
+        <v>-16.57</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -24388,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="E604">
-        <v>0</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -24592,7 +24592,7 @@
         <v>0</v>
       </c>
       <c r="E616">
-        <v>0</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E617">
-        <v>4.17</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -24626,7 +24626,7 @@
         <v>0</v>
       </c>
       <c r="E618">
-        <v>4.17</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="E619">
-        <v>4.17</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -24796,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="E628">
-        <v>-15.72</v>
+        <v>-17.73</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -24847,7 +24847,7 @@
         <v>0.6</v>
       </c>
       <c r="E631">
-        <v>-4.390000000000001</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -25119,7 +25119,7 @@
         <v>4.74</v>
       </c>
       <c r="E647">
-        <v>-6.529999999999999</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -25136,7 +25136,7 @@
         <v>4.74</v>
       </c>
       <c r="E648">
-        <v>-6.529999999999999</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25153,7 +25153,7 @@
         <v>4.74</v>
       </c>
       <c r="E649">
-        <v>-6.529999999999999</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -25170,7 +25170,7 @@
         <v>0.79</v>
       </c>
       <c r="E650">
-        <v>-0.79</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -25221,7 +25221,7 @@
         <v>9.1</v>
       </c>
       <c r="E653">
-        <v>19.07</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -25255,7 +25255,7 @@
         <v>-8.81</v>
       </c>
       <c r="E655">
-        <v>-1.7</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -25357,7 +25357,7 @@
         <v>-6.79</v>
       </c>
       <c r="E661">
-        <v>-1.28</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -25476,7 +25476,7 @@
         <v>15.91</v>
       </c>
       <c r="E668">
-        <v>-9.1</v>
+        <v>-10.92</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="E678">
-        <v>0</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -25680,7 +25680,7 @@
         <v>-9.550000000000001</v>
       </c>
       <c r="E680">
-        <v>0</v>
+        <v>6.529999999999999</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -25714,7 +25714,7 @@
         <v>0</v>
       </c>
       <c r="E682">
-        <v>19.92</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
       <c r="E683">
-        <v>19.92</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -25748,7 +25748,7 @@
         <v>0</v>
       </c>
       <c r="E684">
-        <v>19.92</v>
+        <v>22.42</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="E689">
-        <v>0</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -25850,7 +25850,7 @@
         <v>-5.74</v>
       </c>
       <c r="E690">
-        <v>-0.9900000000000001</v>
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -25969,7 +25969,7 @@
         <v>0</v>
       </c>
       <c r="E697">
-        <v>88.34999999999999</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -26292,7 +26292,7 @@
         <v>-2.39</v>
       </c>
       <c r="E716">
-        <v>-3.25</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -26309,7 +26309,7 @@
         <v>-1.06</v>
       </c>
       <c r="E717">
-        <v>-1.43</v>
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -26326,7 +26326,7 @@
         <v>12.21</v>
       </c>
       <c r="E718">
-        <v>-2.11</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -26343,7 +26343,7 @@
         <v>3.95</v>
       </c>
       <c r="E719">
-        <v>-2.53</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -26564,7 +26564,7 @@
         <v>0</v>
       </c>
       <c r="E732">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -26598,7 +26598,7 @@
         <v>1.86</v>
       </c>
       <c r="E734">
-        <v>-10.29</v>
+        <v>-8.790000000000001</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="E736">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -26666,7 +26666,7 @@
         <v>7.720000000000001</v>
       </c>
       <c r="E738">
-        <v>-10.29</v>
+        <v>-8.790000000000001</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -26717,7 +26717,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E741">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -26734,7 +26734,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E742">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -26785,7 +26785,7 @@
         <v>-1.68</v>
       </c>
       <c r="E745">
-        <v>-2.28</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -26819,7 +26819,7 @@
         <v>-1.68</v>
       </c>
       <c r="E747">
-        <v>-2.28</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -27108,7 +27108,7 @@
         <v>0</v>
       </c>
       <c r="E764">
-        <v>-2.85</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -27125,7 +27125,7 @@
         <v>0</v>
       </c>
       <c r="E765">
-        <v>-3</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -27244,7 +27244,7 @@
         <v>-12.82</v>
       </c>
       <c r="E772">
-        <v>-4.48</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="E773">
-        <v>-5.79</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -27278,7 +27278,7 @@
         <v>0</v>
       </c>
       <c r="E774">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -27312,7 +27312,7 @@
         <v>0</v>
       </c>
       <c r="E776">
-        <v>-3.67</v>
+        <v>-4.130000000000001</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -27346,7 +27346,7 @@
         <v>0</v>
       </c>
       <c r="E778">
-        <v>-3.67</v>
+        <v>-4.130000000000001</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="E802">
-        <v>6.329999999999999</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="E807">
-        <v>-31.72</v>
+        <v>-35.68</v>
       </c>
     </row>
     <row r="808" spans="1:5">
@@ -27856,7 +27856,7 @@
         <v>16.67</v>
       </c>
       <c r="E808">
-        <v>-25.24</v>
+        <v>-29.57</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="E809">
-        <v>-31.72</v>
+        <v>-35.68</v>
       </c>
     </row>
     <row r="810" spans="1:5">
@@ -27890,7 +27890,7 @@
         <v>0</v>
       </c>
       <c r="E810">
-        <v>-31.72</v>
+        <v>-35.68</v>
       </c>
     </row>
     <row r="811" spans="1:5">
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="E811">
-        <v>-31.72</v>
+        <v>-35.68</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -28145,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="E825">
-        <v>0</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="826" spans="1:5">
@@ -28162,7 +28162,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E826">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="827" spans="1:5">
@@ -28961,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="E873">
-        <v>0</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="874" spans="1:5">
@@ -29063,7 +29063,7 @@
         <v>0</v>
       </c>
       <c r="E879">
-        <v>-15.39</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="E890">
-        <v>0</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="891" spans="1:5">
@@ -29267,7 +29267,7 @@
         <v>7.41</v>
       </c>
       <c r="E891">
-        <v>0</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="892" spans="1:5">
@@ -29284,7 +29284,7 @@
         <v>8.25</v>
       </c>
       <c r="E892">
-        <v>0</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="893" spans="1:5">
@@ -29335,7 +29335,7 @@
         <v>3.08</v>
       </c>
       <c r="E895">
-        <v>4.48</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="896" spans="1:5">
@@ -29522,7 +29522,7 @@
         <v>-8.210000000000001</v>
       </c>
       <c r="E906">
-        <v>8.34</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="907" spans="1:5">
@@ -29709,7 +29709,7 @@
         <v>12.97</v>
       </c>
       <c r="E917">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="918" spans="1:5">
@@ -29879,7 +29879,7 @@
         <v>-9.73</v>
       </c>
       <c r="E927">
-        <v>16.79</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="928" spans="1:5">
@@ -29896,7 +29896,7 @@
         <v>-12.2</v>
       </c>
       <c r="E928">
-        <v>12.74</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="929" spans="1:5">
@@ -29913,7 +29913,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E929">
-        <v>2.09</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="930" spans="1:5">
@@ -29947,7 +29947,7 @@
         <v>-3.92</v>
       </c>
       <c r="E931">
-        <v>6.27</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="932" spans="1:5">
@@ -29981,7 +29981,7 @@
         <v>-2.42</v>
       </c>
       <c r="E933">
-        <v>-3.36</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="934" spans="1:5">
@@ -30015,7 +30015,7 @@
         <v>-2.42</v>
       </c>
       <c r="E935">
-        <v>-3.36</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -30049,7 +30049,7 @@
         <v>-2.42</v>
       </c>
       <c r="E937">
-        <v>-3.36</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="938" spans="1:5">
@@ -30100,7 +30100,7 @@
         <v>-7.61</v>
       </c>
       <c r="E940">
-        <v>-1.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="941" spans="1:5">
@@ -30151,7 +30151,7 @@
         <v>0.22</v>
       </c>
       <c r="E943">
-        <v>-2.44</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="944" spans="1:5">
@@ -30168,7 +30168,7 @@
         <v>1.07</v>
       </c>
       <c r="E944">
-        <v>13.56</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="945" spans="1:5">
@@ -30219,7 +30219,7 @@
         <v>-5.21</v>
       </c>
       <c r="E947">
-        <v>8.74</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -30236,7 +30236,7 @@
         <v>-11.76</v>
       </c>
       <c r="E948">
-        <v>-1.67</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="949" spans="1:5">
@@ -30253,7 +30253,7 @@
         <v>-2.32</v>
       </c>
       <c r="E949">
-        <v>-1.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:5">
@@ -30287,7 +30287,7 @@
         <v>42.56</v>
       </c>
       <c r="E951">
-        <v>-1.74</v>
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="952" spans="1:5">
@@ -30321,7 +30321,7 @@
         <v>30.52</v>
       </c>
       <c r="E953">
-        <v>6.890000000000001</v>
+        <v>7.720000000000001</v>
       </c>
     </row>
     <row r="954" spans="1:5">
@@ -30338,7 +30338,7 @@
         <v>26.72</v>
       </c>
       <c r="E954">
-        <v>16.1</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="955" spans="1:5">
@@ -30389,7 +30389,7 @@
         <v>-1.93</v>
       </c>
       <c r="E957">
-        <v>3.03</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="958" spans="1:5">
@@ -30406,7 +30406,7 @@
         <v>-1.61</v>
       </c>
       <c r="E958">
-        <v>2.37</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="959" spans="1:5">
@@ -30440,7 +30440,7 @@
         <v>-11.97</v>
       </c>
       <c r="E960">
-        <v>12.65</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="961" spans="1:5">
@@ -30491,7 +30491,7 @@
         <v>-12.53</v>
       </c>
       <c r="E963">
-        <v>13.47</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="964" spans="1:5">
@@ -30525,7 +30525,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="E965">
-        <v>13.47</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="966" spans="1:5">
@@ -30559,7 +30559,7 @@
         <v>-1.1</v>
       </c>
       <c r="E967">
-        <v>-3.25</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="968" spans="1:5">
@@ -30576,7 +30576,7 @@
         <v>-2.15</v>
       </c>
       <c r="E968">
-        <v>-2.93</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="969" spans="1:5">
@@ -30593,7 +30593,7 @@
         <v>-7.51</v>
       </c>
       <c r="E969">
-        <v>12.65</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="970" spans="1:5">
@@ -30610,7 +30610,7 @@
         <v>-2.21</v>
       </c>
       <c r="E970">
-        <v>0.75</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="971" spans="1:5">
@@ -30627,7 +30627,7 @@
         <v>-3.29</v>
       </c>
       <c r="E971">
-        <v>5.41</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="972" spans="1:5">
@@ -30661,7 +30661,7 @@
         <v>-1.8</v>
       </c>
       <c r="E973">
-        <v>5.510000000000001</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="974" spans="1:5">
@@ -30695,7 +30695,7 @@
         <v>0</v>
       </c>
       <c r="E975">
-        <v>13.81</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="976" spans="1:5">
@@ -30729,7 +30729,7 @@
         <v>3.55</v>
       </c>
       <c r="E977">
-        <v>-34.38</v>
+        <v>-37.39</v>
       </c>
     </row>
     <row r="978" spans="1:5">
@@ -30746,7 +30746,7 @@
         <v>-1.46</v>
       </c>
       <c r="E978">
-        <v>-1.94</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="979" spans="1:5">
@@ -30797,7 +30797,7 @@
         <v>-7.779999999999999</v>
       </c>
       <c r="E981">
-        <v>13.25</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="982" spans="1:5">
@@ -30882,7 +30882,7 @@
         <v>11.14</v>
       </c>
       <c r="E986">
-        <v>9.51</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="987" spans="1:5">
@@ -30933,7 +30933,7 @@
         <v>-8.4</v>
       </c>
       <c r="E989">
-        <v>8.73</v>
+        <v>9.610000000000001</v>
       </c>
     </row>
     <row r="990" spans="1:5">
@@ -30950,7 +30950,7 @@
         <v>3.15</v>
       </c>
       <c r="E990">
-        <v>-2.03</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="991" spans="1:5">
@@ -31052,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="E996">
-        <v>14.55</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="997" spans="1:5">
@@ -31069,7 +31069,7 @@
         <v>-5.65</v>
       </c>
       <c r="E997">
-        <v>-5.65</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="998" spans="1:5">
@@ -31086,7 +31086,7 @@
         <v>-3.8</v>
       </c>
       <c r="E998">
-        <v>6.08</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="999" spans="1:5">
@@ -31103,7 +31103,7 @@
         <v>-5.77</v>
       </c>
       <c r="E999">
-        <v>4.34</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="1000" spans="1:5">
@@ -31120,7 +31120,7 @@
         <v>-2.33</v>
       </c>
       <c r="E1000">
-        <v>4.77</v>
+        <v>5.489999999999999</v>
       </c>
     </row>
     <row r="1001" spans="1:5">
@@ -31188,7 +31188,7 @@
         <v>11.31</v>
       </c>
       <c r="E1004">
-        <v>-9.59</v>
+        <v>-10.87</v>
       </c>
     </row>
     <row r="1005" spans="1:5">
@@ -31205,7 +31205,7 @@
         <v>11.31</v>
       </c>
       <c r="E1005">
-        <v>-9.59</v>
+        <v>-10.87</v>
       </c>
     </row>
     <row r="1006" spans="1:5">
@@ -31239,7 +31239,7 @@
         <v>11.31</v>
       </c>
       <c r="E1007">
-        <v>-9.59</v>
+        <v>-10.87</v>
       </c>
     </row>
     <row r="1008" spans="1:5">
@@ -31256,7 +31256,7 @@
         <v>1.13</v>
       </c>
       <c r="E1008">
-        <v>19.7</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="1009" spans="1:5">
@@ -31307,7 +31307,7 @@
         <v>1.32</v>
       </c>
       <c r="E1011">
-        <v>-0.98</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="1012" spans="1:5">
@@ -31341,7 +31341,7 @@
         <v>1.58</v>
       </c>
       <c r="E1013">
-        <v>-1.17</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="1014" spans="1:5">
@@ -31392,7 +31392,7 @@
         <v>-5.21</v>
       </c>
       <c r="E1016">
-        <v>8.74</v>
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="1017" spans="1:5">
@@ -31409,7 +31409,7 @@
         <v>-5.67</v>
       </c>
       <c r="E1017">
-        <v>9.42</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="1018" spans="1:5">
@@ -31426,7 +31426,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="E1018">
-        <v>2.37</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="1019" spans="1:5">
@@ -31443,7 +31443,7 @@
         <v>-0.95</v>
       </c>
       <c r="E1019">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="1020" spans="1:5">
@@ -31460,7 +31460,7 @@
         <v>-2.16</v>
       </c>
       <c r="E1020">
-        <v>3.48</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="1021" spans="1:5">
@@ -31477,7 +31477,7 @@
         <v>-4.04</v>
       </c>
       <c r="E1021">
-        <v>4.01</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="1022" spans="1:5">
@@ -31545,7 +31545,7 @@
         <v>-23.52</v>
       </c>
       <c r="E1025">
-        <v>-10.25</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="1026" spans="1:5">
@@ -31681,7 +31681,7 @@
         <v>-6.13</v>
       </c>
       <c r="E1033">
-        <v>4.36</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="1034" spans="1:5">
@@ -31919,7 +31919,7 @@
         <v>0</v>
       </c>
       <c r="E1047">
-        <v>21.24</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="1048" spans="1:5">
@@ -32480,7 +32480,7 @@
         <v>0</v>
       </c>
       <c r="E1080">
-        <v>0</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="1081" spans="1:5">
@@ -32650,7 +32650,7 @@
         <v>4.33</v>
       </c>
       <c r="E1090">
-        <v>0</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="1091" spans="1:5">
@@ -32786,7 +32786,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1098">
-        <v>-11.44</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -32820,7 +32820,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1100">
-        <v>-0.73</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="1101" spans="1:5">
@@ -32837,7 +32837,7 @@
         <v>-7.61</v>
       </c>
       <c r="E1101">
-        <v>-11.05</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="1102" spans="1:5">
@@ -32854,7 +32854,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1102">
-        <v>-0.73</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="1103" spans="1:5">
@@ -32888,7 +32888,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1104">
-        <v>-0.73</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="1105" spans="1:5">
@@ -32922,7 +32922,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1106">
-        <v>-0.73</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
@@ -32939,7 +32939,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1107">
-        <v>-0.73</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="1108" spans="1:5">
@@ -33075,7 +33075,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1115">
-        <v>-14.74</v>
+        <v>-16.21</v>
       </c>
     </row>
     <row r="1116" spans="1:5">
@@ -33092,7 +33092,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1116">
-        <v>-14.74</v>
+        <v>-16.21</v>
       </c>
     </row>
     <row r="1117" spans="1:5">
@@ -33160,7 +33160,7 @@
         <v>0</v>
       </c>
       <c r="E1120">
-        <v>-15.41</v>
+        <v>-17.33</v>
       </c>
     </row>
     <row r="1121" spans="1:5">
@@ -33177,7 +33177,7 @@
         <v>3.55</v>
       </c>
       <c r="E1121">
-        <v>-12.51</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="1122" spans="1:5">
@@ -33211,7 +33211,7 @@
         <v>3.55</v>
       </c>
       <c r="E1123">
-        <v>-12.51</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="1124" spans="1:5">
@@ -33228,7 +33228,7 @@
         <v>2.14</v>
       </c>
       <c r="E1124">
-        <v>-0.76</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="1125" spans="1:5">
@@ -33245,7 +33245,7 @@
         <v>2.14</v>
       </c>
       <c r="E1125">
-        <v>-0.76</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="1126" spans="1:5">
@@ -33262,7 +33262,7 @@
         <v>2.14</v>
       </c>
       <c r="E1126">
-        <v>-0.76</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="1127" spans="1:5">
@@ -33279,7 +33279,7 @@
         <v>2.14</v>
       </c>
       <c r="E1127">
-        <v>-0.76</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="1128" spans="1:5">
@@ -33296,7 +33296,7 @@
         <v>2.14</v>
       </c>
       <c r="E1128">
-        <v>-0.76</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="1129" spans="1:5">
@@ -33313,7 +33313,7 @@
         <v>2.14</v>
       </c>
       <c r="E1129">
-        <v>-0.76</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="1130" spans="1:5">
@@ -33330,7 +33330,7 @@
         <v>2.14</v>
       </c>
       <c r="E1130">
-        <v>-0.76</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="1131" spans="1:5">
@@ -33364,7 +33364,7 @@
         <v>2.14</v>
       </c>
       <c r="E1132">
-        <v>-0.76</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
@@ -33568,7 +33568,7 @@
         <v>0</v>
       </c>
       <c r="E1144">
-        <v>9.109999999999999</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="1145" spans="1:5">
@@ -33585,7 +33585,7 @@
         <v>0</v>
       </c>
       <c r="E1145">
-        <v>9.109999999999999</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="1146" spans="1:5">
@@ -33602,7 +33602,7 @@
         <v>0</v>
       </c>
       <c r="E1146">
-        <v>9.109999999999999</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="1147" spans="1:5">
@@ -33619,7 +33619,7 @@
         <v>0</v>
       </c>
       <c r="E1147">
-        <v>9.109999999999999</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="1148" spans="1:5">
@@ -33806,7 +33806,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1158">
-        <v>-11.44</v>
+        <v>-7.41</v>
       </c>
     </row>
     <row r="1159" spans="1:5">
@@ -33942,7 +33942,7 @@
         <v>0</v>
       </c>
       <c r="E1166">
-        <v>0</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="1167" spans="1:5">
@@ -34027,7 +34027,7 @@
         <v>2.19</v>
       </c>
       <c r="E1171">
-        <v>-0.7000000000000001</v>
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="1172" spans="1:5">
@@ -34044,7 +34044,7 @@
         <v>2.19</v>
       </c>
       <c r="E1172">
-        <v>-0.7000000000000001</v>
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="1173" spans="1:5">
@@ -34061,7 +34061,7 @@
         <v>3.56</v>
       </c>
       <c r="E1173">
-        <v>-0.2</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="1174" spans="1:5">
@@ -34095,7 +34095,7 @@
         <v>10.86</v>
       </c>
       <c r="E1175">
-        <v>-7.649999999999999</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="1176" spans="1:5">
@@ -34112,7 +34112,7 @@
         <v>-1.91</v>
       </c>
       <c r="E1176">
-        <v>-0.64</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="1177" spans="1:5">
@@ -34129,7 +34129,7 @@
         <v>-0.67</v>
       </c>
       <c r="E1177">
-        <v>-0.9199999999999999</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="1178" spans="1:5">
@@ -34146,7 +34146,7 @@
         <v>-0.84</v>
       </c>
       <c r="E1178">
-        <v>-0.23</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="1179" spans="1:5">
@@ -34163,7 +34163,7 @@
         <v>-1.55</v>
       </c>
       <c r="E1179">
-        <v>-1.3</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="1180" spans="1:5">
@@ -34180,7 +34180,7 @@
         <v>0</v>
       </c>
       <c r="E1180">
-        <v>18.17</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="1181" spans="1:5">
@@ -34231,7 +34231,7 @@
         <v>0</v>
       </c>
       <c r="E1183">
-        <v>3.71</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="1184" spans="1:5">
@@ -34282,7 +34282,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="E1186">
-        <v>0.5599999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="1187" spans="1:5">
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="E1211">
-        <v>0</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="1212" spans="1:5">
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="E1216">
-        <v>0</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="1217" spans="1:5">
@@ -35047,7 +35047,7 @@
         <v>0</v>
       </c>
       <c r="E1231">
-        <v>-5.08</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="1232" spans="1:5">
@@ -35336,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="E1248">
-        <v>23.87</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="1249" spans="1:5">
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="E1252">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="1253" spans="1:5">
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="E1253">
-        <v>0</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="1254" spans="1:5">
@@ -35455,7 +35455,7 @@
         <v>0</v>
       </c>
       <c r="E1255">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="1256" spans="1:5">
@@ -35472,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="E1256">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="1257" spans="1:5">
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="E1257">
-        <v>0</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="1258" spans="1:5">
@@ -35591,7 +35591,7 @@
         <v>49.34</v>
       </c>
       <c r="E1263">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1264" spans="1:5">
@@ -35608,7 +35608,7 @@
         <v>49.34</v>
       </c>
       <c r="E1264">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1265" spans="1:5">
@@ -35625,7 +35625,7 @@
         <v>49.34</v>
       </c>
       <c r="E1265">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1266" spans="1:5">
@@ -35642,7 +35642,7 @@
         <v>49.34</v>
       </c>
       <c r="E1266">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1267" spans="1:5">
@@ -35659,7 +35659,7 @@
         <v>49.34</v>
       </c>
       <c r="E1267">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1268" spans="1:5">
@@ -35676,7 +35676,7 @@
         <v>19.23</v>
       </c>
       <c r="E1268">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1269" spans="1:5">
@@ -35693,7 +35693,7 @@
         <v>49.34</v>
       </c>
       <c r="E1269">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1270" spans="1:5">
@@ -35710,7 +35710,7 @@
         <v>49.34</v>
       </c>
       <c r="E1270">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1271" spans="1:5">
@@ -35727,7 +35727,7 @@
         <v>49.34</v>
       </c>
       <c r="E1271">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1272" spans="1:5">
@@ -35744,7 +35744,7 @@
         <v>49.34</v>
       </c>
       <c r="E1272">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1273" spans="1:5">
@@ -35761,7 +35761,7 @@
         <v>49.34</v>
       </c>
       <c r="E1273">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1274" spans="1:5">
@@ -35778,7 +35778,7 @@
         <v>49.34</v>
       </c>
       <c r="E1274">
-        <v>-19.24</v>
+        <v>-21.64</v>
       </c>
     </row>
     <row r="1275" spans="1:5">
@@ -36067,7 +36067,7 @@
         <v>0</v>
       </c>
       <c r="E1291">
-        <v>10.24</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="1292" spans="1:5">
@@ -36390,7 +36390,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1310">
-        <v>2.17</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="1311" spans="1:5">
@@ -36407,7 +36407,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1311">
-        <v>2.17</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="1312" spans="1:5">
@@ -36543,7 +36543,7 @@
         <v>12.12</v>
       </c>
       <c r="E1319">
-        <v>-13.22</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="1320" spans="1:5">
@@ -36560,7 +36560,7 @@
         <v>-17.82</v>
       </c>
       <c r="E1320">
-        <v>14.44</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="1321" spans="1:5">
@@ -36577,7 +36577,7 @@
         <v>16.63</v>
       </c>
       <c r="E1321">
-        <v>-13.22</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="1322" spans="1:5">
@@ -36883,7 +36883,7 @@
         <v>-6.01</v>
       </c>
       <c r="E1339">
-        <v>4.26</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="1340" spans="1:5">
@@ -36900,7 +36900,7 @@
         <v>4.88</v>
       </c>
       <c r="E1340">
-        <v>-3.09</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -36934,7 +36934,7 @@
         <v>8.35</v>
       </c>
       <c r="E1342">
-        <v>2.55</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="1343" spans="1:5">
@@ -36968,7 +36968,7 @@
         <v>0</v>
       </c>
       <c r="E1344">
-        <v>-25.03</v>
+        <v>-28.16</v>
       </c>
     </row>
     <row r="1345" spans="1:5">
@@ -37257,7 +37257,7 @@
         <v>0</v>
       </c>
       <c r="E1361">
-        <v>-11.05</v>
+        <v>-12.45</v>
       </c>
     </row>
     <row r="1362" spans="1:5">
@@ -37682,7 +37682,7 @@
         <v>1.69</v>
       </c>
       <c r="E1386">
-        <v>1.12</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="1387" spans="1:5">
@@ -37818,7 +37818,7 @@
         <v>-11.46</v>
       </c>
       <c r="E1394">
-        <v>28.82</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -37852,7 +37852,7 @@
         <v>0</v>
       </c>
       <c r="E1396">
-        <v>2.48</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="1397" spans="1:5">
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="E1398">
-        <v>1.68</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E1400">
-        <v>1.06</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -38005,7 +38005,7 @@
         <v>17.35</v>
       </c>
       <c r="E1405">
-        <v>-9.569999999999999</v>
+        <v>-5.510000000000001</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -38022,7 +38022,7 @@
         <v>17.35</v>
       </c>
       <c r="E1406">
-        <v>-9.569999999999999</v>
+        <v>-5.510000000000001</v>
       </c>
     </row>
     <row r="1407" spans="1:5">
@@ -38039,7 +38039,7 @@
         <v>17.35</v>
       </c>
       <c r="E1407">
-        <v>-9.569999999999999</v>
+        <v>-5.510000000000001</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38498,7 +38498,7 @@
         <v>23.85</v>
       </c>
       <c r="E1434">
-        <v>-21.53</v>
+        <v>-24.23</v>
       </c>
     </row>
     <row r="1435" spans="1:5">
@@ -38668,7 +38668,7 @@
         <v>-6.99</v>
       </c>
       <c r="E1444">
-        <v>35.38</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="1445" spans="1:5">
@@ -38804,7 +38804,7 @@
         <v>0</v>
       </c>
       <c r="E1452">
-        <v>-12.19</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="1453" spans="1:5">
@@ -38821,7 +38821,7 @@
         <v>0</v>
       </c>
       <c r="E1453">
-        <v>-5.319999999999999</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -38923,7 +38923,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1459">
-        <v>4.83</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="1460" spans="1:5">
@@ -38940,7 +38940,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1460">
-        <v>4.94</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -38991,7 +38991,7 @@
         <v>0</v>
       </c>
       <c r="E1463">
-        <v>11.51</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -39059,7 +39059,7 @@
         <v>0.16</v>
       </c>
       <c r="E1467">
-        <v>10.89</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39501,7 +39501,7 @@
         <v>0</v>
       </c>
       <c r="E1493">
-        <v>11.14</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="1494" spans="1:5">
@@ -39722,7 +39722,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1506">
-        <v>21.81</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="1507" spans="1:5">
@@ -39739,7 +39739,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1507">
-        <v>21.81</v>
+        <v>24.55</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -39960,7 +39960,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1520">
-        <v>7.539999999999999</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -39977,7 +39977,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1521">
-        <v>7.539999999999999</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -39994,7 +39994,7 @@
         <v>10.9</v>
       </c>
       <c r="E1522">
-        <v>0.9400000000000001</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40062,7 +40062,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1526">
-        <v>18.64</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40096,7 +40096,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1528">
-        <v>18.64</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40113,7 +40113,7 @@
         <v>0</v>
       </c>
       <c r="E1529">
-        <v>3.06</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="1530" spans="1:5">
@@ -40130,7 +40130,7 @@
         <v>4.78</v>
       </c>
       <c r="E1530">
-        <v>3.06</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -40147,7 +40147,7 @@
         <v>4.78</v>
       </c>
       <c r="E1531">
-        <v>3.06</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -40164,7 +40164,7 @@
         <v>4.78</v>
       </c>
       <c r="E1532">
-        <v>3.06</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -40181,7 +40181,7 @@
         <v>-0.58</v>
       </c>
       <c r="E1533">
-        <v>27.91</v>
+        <v>31.38</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40300,7 +40300,7 @@
         <v>0</v>
       </c>
       <c r="E1540">
-        <v>-3.07</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40351,7 +40351,7 @@
         <v>0</v>
       </c>
       <c r="E1543">
-        <v>0</v>
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="1544" spans="1:5">
@@ -40368,7 +40368,7 @@
         <v>4.63</v>
       </c>
       <c r="E1544">
-        <v>11.01</v>
+        <v>7.149999999999999</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="E1545">
-        <v>0</v>
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -41133,7 +41133,7 @@
         <v>0</v>
       </c>
       <c r="E1589">
-        <v>-6.08</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="1590" spans="1:5">
@@ -41150,7 +41150,7 @@
         <v>6.329999999999999</v>
       </c>
       <c r="E1590">
-        <v>-3.45</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -41167,7 +41167,7 @@
         <v>0</v>
       </c>
       <c r="E1591">
-        <v>-15.4</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="1592" spans="1:5">
@@ -41184,7 +41184,7 @@
         <v>0</v>
       </c>
       <c r="E1592">
-        <v>-8.83</v>
+        <v>-9.950000000000001</v>
       </c>
     </row>
     <row r="1593" spans="1:5">
@@ -41388,7 +41388,7 @@
         <v>-10.26</v>
       </c>
       <c r="E1604">
-        <v>9.84</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="1605" spans="1:5">
@@ -41422,7 +41422,7 @@
         <v>-10.22</v>
       </c>
       <c r="E1606">
-        <v>7.630000000000001</v>
+        <v>8.51</v>
       </c>
     </row>
     <row r="1607" spans="1:5">
@@ -41677,7 +41677,7 @@
         <v>-38.58</v>
       </c>
       <c r="E1621">
-        <v>49.53</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="1622" spans="1:5">
@@ -41830,7 +41830,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E1630">
-        <v>5.220000000000001</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="1631" spans="1:5">
@@ -41881,7 +41881,7 @@
         <v>0</v>
       </c>
       <c r="E1633">
-        <v>-16.71</v>
+        <v>-18.81</v>
       </c>
     </row>
     <row r="1634" spans="1:5">
@@ -41915,7 +41915,7 @@
         <v>10.46</v>
       </c>
       <c r="E1635">
-        <v>1.58</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -41932,7 +41932,7 @@
         <v>18.21</v>
       </c>
       <c r="E1636">
-        <v>-10.25</v>
+        <v>-11.56</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -42051,7 +42051,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1643">
-        <v>14.37</v>
+        <v>5.390000000000001</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42068,7 +42068,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1644">
-        <v>-0.22</v>
+        <v>-5.609999999999999</v>
       </c>
     </row>
     <row r="1645" spans="1:5">
@@ -42085,7 +42085,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1645">
-        <v>14.37</v>
+        <v>5.390000000000001</v>
       </c>
     </row>
     <row r="1646" spans="1:5">
@@ -42102,7 +42102,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1646">
-        <v>14.37</v>
+        <v>5.390000000000001</v>
       </c>
     </row>
     <row r="1647" spans="1:5">
@@ -42119,7 +42119,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1647">
-        <v>14.37</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="1648" spans="1:5">
@@ -42136,7 +42136,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1648">
-        <v>14.37</v>
+        <v>5.390000000000001</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42272,7 +42272,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1656">
-        <v>0.6899999999999999</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="1657" spans="1:5">
@@ -42289,7 +42289,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1657">
-        <v>0.6899999999999999</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="1658" spans="1:5">
@@ -42306,7 +42306,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1658">
-        <v>0.6899999999999999</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -42476,7 +42476,7 @@
         <v>0.64</v>
       </c>
       <c r="E1668">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1669" spans="1:5">
@@ -42493,7 +42493,7 @@
         <v>0.64</v>
       </c>
       <c r="E1669">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1670" spans="1:5">
@@ -42510,7 +42510,7 @@
         <v>0.64</v>
       </c>
       <c r="E1670">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42527,7 +42527,7 @@
         <v>0.64</v>
       </c>
       <c r="E1671">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1672" spans="1:5">
@@ -42595,7 +42595,7 @@
         <v>0</v>
       </c>
       <c r="E1675">
-        <v>3.63</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="1676" spans="1:5">
@@ -42612,7 +42612,7 @@
         <v>0</v>
       </c>
       <c r="E1676">
-        <v>-10.7</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42629,7 +42629,7 @@
         <v>0</v>
       </c>
       <c r="E1677">
-        <v>-10.7</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42782,7 +42782,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1686">
-        <v>29.43</v>
+        <v>33.08</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -42867,7 +42867,7 @@
         <v>0.64</v>
       </c>
       <c r="E1691">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1692" spans="1:5">
@@ -42884,7 +42884,7 @@
         <v>9.229999999999999</v>
       </c>
       <c r="E1692">
-        <v>-5.24</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="1693" spans="1:5">
@@ -42901,7 +42901,7 @@
         <v>0.64</v>
       </c>
       <c r="E1693">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1694" spans="1:5">
@@ -42918,7 +42918,7 @@
         <v>0.64</v>
       </c>
       <c r="E1694">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -42969,7 +42969,7 @@
         <v>0.64</v>
       </c>
       <c r="E1697">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1698" spans="1:5">
@@ -43037,7 +43037,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1701">
-        <v>14.37</v>
+        <v>5.390000000000001</v>
       </c>
     </row>
     <row r="1702" spans="1:5">
@@ -43088,7 +43088,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1704">
-        <v>2.11</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="1705" spans="1:5">
@@ -43190,7 +43190,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1710">
-        <v>2.11</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="1711" spans="1:5">
@@ -43445,7 +43445,7 @@
         <v>6.17</v>
       </c>
       <c r="E1725">
-        <v>-16.03</v>
+        <v>-18.04</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -43564,7 +43564,7 @@
         <v>2.8</v>
       </c>
       <c r="E1732">
-        <v>-0.52</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="1733" spans="1:5">
@@ -43581,7 +43581,7 @@
         <v>1.4</v>
       </c>
       <c r="E1733">
-        <v>0.8500000000000001</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="1734" spans="1:5">
@@ -43615,7 +43615,7 @@
         <v>0</v>
       </c>
       <c r="E1735">
-        <v>-11.28</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="1736" spans="1:5">
@@ -44176,7 +44176,7 @@
         <v>-3.99</v>
       </c>
       <c r="E1768">
-        <v>-5.52</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="1769" spans="1:5">
@@ -44414,7 +44414,7 @@
         <v>0</v>
       </c>
       <c r="E1782">
-        <v>-12.1</v>
+        <v>-13.49</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -44533,7 +44533,7 @@
         <v>0</v>
       </c>
       <c r="E1789">
-        <v>2.89</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="1790" spans="1:5">
@@ -45060,7 +45060,7 @@
         <v>-4.61</v>
       </c>
       <c r="E1820">
-        <v>6.550000000000001</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="1821" spans="1:5">
@@ -45077,7 +45077,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1821">
-        <v>-2.64</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="1822" spans="1:5">
@@ -45094,7 +45094,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1822">
-        <v>-2.64</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="1823" spans="1:5">
@@ -45111,7 +45111,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1823">
-        <v>-2.64</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="1824" spans="1:5">
@@ -45128,7 +45128,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1824">
-        <v>-2.64</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45145,7 +45145,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1825">
-        <v>-2.64</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45162,7 +45162,7 @@
         <v>1.53</v>
       </c>
       <c r="E1826">
-        <v>-4.63</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45179,7 +45179,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1827">
-        <v>-2.64</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="1828" spans="1:5">
@@ -45332,7 +45332,7 @@
         <v>8.57</v>
       </c>
       <c r="E1836">
-        <v>1.97</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -45383,7 +45383,7 @@
         <v>8.57</v>
       </c>
       <c r="E1839">
-        <v>1.97</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="1840" spans="1:5">
@@ -45400,7 +45400,7 @@
         <v>8.57</v>
       </c>
       <c r="E1840">
-        <v>1.97</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="1841" spans="1:5">
@@ -45417,7 +45417,7 @@
         <v>8.57</v>
       </c>
       <c r="E1841">
-        <v>1.97</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="1842" spans="1:5">
@@ -45434,7 +45434,7 @@
         <v>8.57</v>
       </c>
       <c r="E1842">
-        <v>1.97</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="1843" spans="1:5">
@@ -45451,7 +45451,7 @@
         <v>8.57</v>
       </c>
       <c r="E1843">
-        <v>1.97</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="1844" spans="1:5">
@@ -45502,7 +45502,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1846">
-        <v>66.23</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="1847" spans="1:5">
@@ -45519,7 +45519,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1847">
-        <v>66.23</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="1848" spans="1:5">
@@ -46097,7 +46097,7 @@
         <v>0</v>
       </c>
       <c r="E1881">
-        <v>-10.42</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="1882" spans="1:5">
@@ -46335,7 +46335,7 @@
         <v>-12.96</v>
       </c>
       <c r="E1895">
-        <v>16.78</v>
+        <v>18.91</v>
       </c>
     </row>
     <row r="1896" spans="1:5">
@@ -47066,7 +47066,7 @@
         <v>0</v>
       </c>
       <c r="E1938">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="1939" spans="1:5">
@@ -47661,7 +47661,7 @@
         <v>0.28</v>
       </c>
       <c r="E1973">
-        <v>-11.11</v>
+        <v>-12.78</v>
       </c>
     </row>
     <row r="1974" spans="1:5">
@@ -47678,7 +47678,7 @@
         <v>-5.88</v>
       </c>
       <c r="E1974">
-        <v>1.46</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="1975" spans="1:5">
@@ -47933,7 +47933,7 @@
         <v>0</v>
       </c>
       <c r="E1989">
-        <v>8.369999999999999</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="1990" spans="1:5">
@@ -48443,7 +48443,7 @@
         <v>2.8</v>
       </c>
       <c r="E2019">
-        <v>-3.56</v>
+        <v>-4.93</v>
       </c>
     </row>
     <row r="2020" spans="1:5">
@@ -48562,7 +48562,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2026">
-        <v>-1.07</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="2027" spans="1:5">
@@ -48579,7 +48579,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2027">
-        <v>-1.07</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="2028" spans="1:5">
@@ -48987,7 +48987,7 @@
         <v>5</v>
       </c>
       <c r="E2051">
-        <v>-16.77</v>
+        <v>-18.84</v>
       </c>
     </row>
     <row r="2052" spans="1:5">
@@ -49293,7 +49293,7 @@
         <v>2.96</v>
       </c>
       <c r="E2069">
-        <v>2.8</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="2070" spans="1:5">
@@ -49344,7 +49344,7 @@
         <v>-3.13</v>
       </c>
       <c r="E2072">
-        <v>-0.52</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="2073" spans="1:5">
@@ -49361,7 +49361,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2073">
-        <v>0.59</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="2074" spans="1:5">
@@ -49531,7 +49531,7 @@
         <v>-5.06</v>
       </c>
       <c r="E2083">
-        <v>-0.8699999999999999</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="2084" spans="1:5">
@@ -49667,7 +49667,7 @@
         <v>-5.75</v>
       </c>
       <c r="E2091">
-        <v>3.83</v>
+        <v>4.399999999999999</v>
       </c>
     </row>
     <row r="2092" spans="1:5">
@@ -49684,7 +49684,7 @@
         <v>12.3</v>
       </c>
       <c r="E2092">
-        <v>-11.78</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="2093" spans="1:5">
@@ -49718,7 +49718,7 @@
         <v>-0.7000000000000001</v>
       </c>
       <c r="E2094">
-        <v>-8.41</v>
+        <v>-9.81</v>
       </c>
     </row>
     <row r="2095" spans="1:5">
@@ -49752,7 +49752,7 @@
         <v>0</v>
       </c>
       <c r="E2096">
-        <v>-1.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2097" spans="1:5">
@@ -49956,7 +49956,7 @@
         <v>-3.72</v>
       </c>
       <c r="E2108">
-        <v>-3.08</v>
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="2109" spans="1:5">
@@ -50109,7 +50109,7 @@
         <v>-20.5</v>
       </c>
       <c r="E2117">
-        <v>3.72</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="2118" spans="1:5">
@@ -50126,7 +50126,7 @@
         <v>-20.5</v>
       </c>
       <c r="E2118">
-        <v>3.72</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="2119" spans="1:5">
@@ -50143,7 +50143,7 @@
         <v>-1.24</v>
       </c>
       <c r="E2119">
-        <v>4.08</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2120" spans="1:5">
@@ -50160,7 +50160,7 @@
         <v>0</v>
       </c>
       <c r="E2120">
-        <v>-10.47</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="2121" spans="1:5">
@@ -50177,7 +50177,7 @@
         <v>-15.2</v>
       </c>
       <c r="E2121">
-        <v>11.83</v>
+        <v>13.26</v>
       </c>
     </row>
     <row r="2122" spans="1:5">
@@ -50194,7 +50194,7 @@
         <v>0</v>
       </c>
       <c r="E2122">
-        <v>-13.83</v>
+        <v>-15.63</v>
       </c>
     </row>
     <row r="2123" spans="1:5">
@@ -50211,7 +50211,7 @@
         <v>3.1</v>
       </c>
       <c r="E2123">
-        <v>-13.83</v>
+        <v>-15.63</v>
       </c>
     </row>
     <row r="2124" spans="1:5">
@@ -50245,7 +50245,7 @@
         <v>0</v>
       </c>
       <c r="E2125">
-        <v>3.18</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="2126" spans="1:5">
@@ -50262,7 +50262,7 @@
         <v>0</v>
       </c>
       <c r="E2126">
-        <v>-10.47</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="2127" spans="1:5">
@@ -50279,7 +50279,7 @@
         <v>0</v>
       </c>
       <c r="E2127">
-        <v>-1.59</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="2128" spans="1:5">
@@ -50296,7 +50296,7 @@
         <v>0</v>
       </c>
       <c r="E2128">
-        <v>1.84</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="2129" spans="1:5">
@@ -50313,7 +50313,7 @@
         <v>0</v>
       </c>
       <c r="E2129">
-        <v>8.08</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="2130" spans="1:5">
@@ -50517,7 +50517,7 @@
         <v>-2.81</v>
       </c>
       <c r="E2141">
-        <v>-17.56</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="2142" spans="1:5">
@@ -50534,7 +50534,7 @@
         <v>-2.66</v>
       </c>
       <c r="E2142">
-        <v>-16.18</v>
+        <v>-11.34</v>
       </c>
     </row>
     <row r="2143" spans="1:5">
@@ -50857,7 +50857,7 @@
         <v>0</v>
       </c>
       <c r="E2161">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="2162" spans="1:5">
@@ -50891,7 +50891,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2163">
-        <v>23.95</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="2164" spans="1:5">
@@ -50908,7 +50908,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2164">
-        <v>23.95</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="2165" spans="1:5">
@@ -51027,7 +51027,7 @@
         <v>-13.54</v>
       </c>
       <c r="E2171">
-        <v>10.47</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="2172" spans="1:5">
@@ -51265,7 +51265,7 @@
         <v>0</v>
       </c>
       <c r="E2185">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="2186" spans="1:5">
@@ -51350,7 +51350,7 @@
         <v>0</v>
       </c>
       <c r="E2190">
-        <v>33.44</v>
+        <v>37.79</v>
       </c>
     </row>
     <row r="2191" spans="1:5">
@@ -51401,7 +51401,7 @@
         <v>0</v>
       </c>
       <c r="E2193">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="2194" spans="1:5">
@@ -51452,7 +51452,7 @@
         <v>9.4</v>
       </c>
       <c r="E2196">
-        <v>-8.59</v>
+        <v>-9.470000000000001</v>
       </c>
     </row>
     <row r="2197" spans="1:5">
@@ -51469,7 +51469,7 @@
         <v>0</v>
       </c>
       <c r="E2197">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="2198" spans="1:5">
@@ -51486,7 +51486,7 @@
         <v>0</v>
       </c>
       <c r="E2198">
-        <v>0</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="2199" spans="1:5">
@@ -51503,7 +51503,7 @@
         <v>0</v>
       </c>
       <c r="E2199">
-        <v>0</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="2200" spans="1:5">
@@ -52081,7 +52081,7 @@
         <v>2.05</v>
       </c>
       <c r="E2233">
-        <v>-4.7</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="2234" spans="1:5">
@@ -52727,7 +52727,7 @@
         <v>2.84</v>
       </c>
       <c r="E2271">
-        <v>-3.68</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="2272" spans="1:5">
@@ -52778,7 +52778,7 @@
         <v>10.21</v>
       </c>
       <c r="E2274">
-        <v>-13.59</v>
+        <v>-15.76</v>
       </c>
     </row>
     <row r="2275" spans="1:5">
@@ -53152,7 +53152,7 @@
         <v>0</v>
       </c>
       <c r="E2296">
-        <v>0</v>
+        <v>-4.850000000000001</v>
       </c>
     </row>
     <row r="2297" spans="1:5">
@@ -53322,7 +53322,7 @@
         <v>0</v>
       </c>
       <c r="E2306">
-        <v>0</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="2307" spans="1:5">
@@ -53339,7 +53339,7 @@
         <v>0</v>
       </c>
       <c r="E2307">
-        <v>0</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="2308" spans="1:5">
@@ -53390,7 +53390,7 @@
         <v>26.01</v>
       </c>
       <c r="E2310">
-        <v>-18.76</v>
+        <v>-21.08</v>
       </c>
     </row>
     <row r="2311" spans="1:5">
@@ -53815,7 +53815,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2335">
-        <v>1.1</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="2336" spans="1:5">
@@ -53832,7 +53832,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2336">
-        <v>1.1</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="2337" spans="1:5">
@@ -54359,7 +54359,7 @@
         <v>0</v>
       </c>
       <c r="E2367">
-        <v>1.19</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="2368" spans="1:5">
@@ -54614,7 +54614,7 @@
         <v>0</v>
       </c>
       <c r="E2382">
-        <v>14.61</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="2383" spans="1:5">
@@ -54631,7 +54631,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2383">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="2384" spans="1:5">
@@ -54648,7 +54648,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2384">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="2385" spans="1:5">
@@ -54665,7 +54665,7 @@
         <v>-12.61</v>
       </c>
       <c r="E2385">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="2386" spans="1:5">
@@ -54682,7 +54682,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2386">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="2387" spans="1:5">
@@ -54699,7 +54699,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2387">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="2388" spans="1:5">
@@ -54716,7 +54716,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2388">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="2389" spans="1:5">
@@ -54733,7 +54733,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2389">
-        <v>16.67</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="2390" spans="1:5">
@@ -54750,7 +54750,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2390">
-        <v>16.67</v>
+        <v>20.39</v>
       </c>
     </row>
     <row r="2391" spans="1:5">
@@ -54767,7 +54767,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2391">
-        <v>-12.5</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="2392" spans="1:5">
@@ -54784,7 +54784,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2392">
-        <v>10.89</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="2393" spans="1:5">
@@ -54801,7 +54801,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2393">
-        <v>10.89</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="2394" spans="1:5">
@@ -54818,7 +54818,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2394">
-        <v>10.89</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="2395" spans="1:5">
@@ -55005,7 +55005,7 @@
         <v>11.16</v>
       </c>
       <c r="E2405">
-        <v>-26.15</v>
+        <v>-25.69</v>
       </c>
     </row>
     <row r="2406" spans="1:5">
@@ -55090,7 +55090,7 @@
         <v>-6.68</v>
       </c>
       <c r="E2410">
-        <v>-1.77</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="2411" spans="1:5">
@@ -55124,7 +55124,7 @@
         <v>-6.68</v>
       </c>
       <c r="E2412">
-        <v>-26.4</v>
+        <v>-17.18</v>
       </c>
     </row>
     <row r="2413" spans="1:5">
@@ -55260,7 +55260,7 @@
         <v>-2.91</v>
       </c>
       <c r="E2420">
-        <v>-0.41</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="2421" spans="1:5">
@@ -55430,7 +55430,7 @@
         <v>-6.01</v>
       </c>
       <c r="E2430">
-        <v>2.28</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="2431" spans="1:5">
@@ -55549,7 +55549,7 @@
         <v>0.91</v>
       </c>
       <c r="E2437">
-        <v>-2.42</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="2438" spans="1:5">
@@ -55600,7 +55600,7 @@
         <v>14.77</v>
       </c>
       <c r="E2440">
-        <v>3.75</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="2441" spans="1:5">
@@ -55617,7 +55617,7 @@
         <v>14.77</v>
       </c>
       <c r="E2441">
-        <v>3.75</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="2442" spans="1:5">
@@ -55634,7 +55634,7 @@
         <v>14.77</v>
       </c>
       <c r="E2442">
-        <v>3.75</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="2443" spans="1:5">
@@ -55651,7 +55651,7 @@
         <v>14.77</v>
       </c>
       <c r="E2443">
-        <v>3.75</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="2444" spans="1:5">
@@ -55668,7 +55668,7 @@
         <v>14.77</v>
       </c>
       <c r="E2444">
-        <v>3.75</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="2445" spans="1:5">
@@ -55685,7 +55685,7 @@
         <v>14.77</v>
       </c>
       <c r="E2445">
-        <v>3.75</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="2446" spans="1:5">
@@ -55821,7 +55821,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2453">
-        <v>44.64</v>
+        <v>50.21</v>
       </c>
     </row>
     <row r="2454" spans="1:5">
@@ -55838,7 +55838,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2454">
-        <v>0</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="2455" spans="1:5">
@@ -55855,7 +55855,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2455">
-        <v>44.64</v>
+        <v>50.21</v>
       </c>
     </row>
     <row r="2456" spans="1:5">
@@ -55889,7 +55889,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2457">
-        <v>44.64</v>
+        <v>50.21</v>
       </c>
     </row>
     <row r="2458" spans="1:5">
@@ -55906,7 +55906,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2458">
-        <v>44.64</v>
+        <v>50.21</v>
       </c>
     </row>
     <row r="2459" spans="1:5">
@@ -56076,7 +56076,7 @@
         <v>5.37</v>
       </c>
       <c r="E2468">
-        <v>2.28</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="2469" spans="1:5">
@@ -56093,7 +56093,7 @@
         <v>0</v>
       </c>
       <c r="E2469">
-        <v>29.37</v>
+        <v>33.02</v>
       </c>
     </row>
     <row r="2470" spans="1:5">
@@ -56110,7 +56110,7 @@
         <v>0</v>
       </c>
       <c r="E2470">
-        <v>0</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="2471" spans="1:5">
@@ -56229,7 +56229,7 @@
         <v>-5.5</v>
       </c>
       <c r="E2477">
-        <v>6.88</v>
+        <v>7.670000000000001</v>
       </c>
     </row>
     <row r="2478" spans="1:5">
@@ -56263,7 +56263,7 @@
         <v>-3.61</v>
       </c>
       <c r="E2479">
-        <v>13.75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2480" spans="1:5">
@@ -56467,7 +56467,7 @@
         <v>23.59</v>
       </c>
       <c r="E2491">
-        <v>-14.86</v>
+        <v>-16.7</v>
       </c>
     </row>
     <row r="2492" spans="1:5">
@@ -56518,7 +56518,7 @@
         <v>1.72</v>
       </c>
       <c r="E2494">
-        <v>-6.75</v>
+        <v>-7.580000000000001</v>
       </c>
     </row>
     <row r="2495" spans="1:5">
@@ -56535,7 +56535,7 @@
         <v>1.07</v>
       </c>
       <c r="E2495">
-        <v>-6.47</v>
+        <v>-7.630000000000001</v>
       </c>
     </row>
     <row r="2496" spans="1:5">
@@ -56552,7 +56552,7 @@
         <v>1.52</v>
       </c>
       <c r="E2496">
-        <v>-8.15</v>
+        <v>-8.959999999999999</v>
       </c>
     </row>
     <row r="2497" spans="1:5">
@@ -56569,7 +56569,7 @@
         <v>-22.22</v>
       </c>
       <c r="E2497">
-        <v>24.29</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="2498" spans="1:5">
@@ -56603,7 +56603,7 @@
         <v>2.73</v>
       </c>
       <c r="E2499">
-        <v>-2.27</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="2500" spans="1:5">
@@ -56671,7 +56671,7 @@
         <v>-2.64</v>
       </c>
       <c r="E2503">
-        <v>-17.19</v>
+        <v>-19.35</v>
       </c>
     </row>
     <row r="2504" spans="1:5">
@@ -56875,7 +56875,7 @@
         <v>-1.48</v>
       </c>
       <c r="E2515">
-        <v>2.81</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="2516" spans="1:5">
@@ -56994,7 +56994,7 @@
         <v>0</v>
       </c>
       <c r="E2522">
-        <v>0</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="2523" spans="1:5">
@@ -57062,7 +57062,7 @@
         <v>0</v>
       </c>
       <c r="E2526">
-        <v>10.38</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="2527" spans="1:5">
@@ -57079,7 +57079,7 @@
         <v>0</v>
       </c>
       <c r="E2527">
-        <v>-7.290000000000001</v>
+        <v>-8.200000000000001</v>
       </c>
     </row>
     <row r="2528" spans="1:5">
@@ -57351,7 +57351,7 @@
         <v>0</v>
       </c>
       <c r="E2543">
-        <v>0</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="2544" spans="1:5">
@@ -57419,7 +57419,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2547">
-        <v>21.44</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="2548" spans="1:5">
@@ -57657,7 +57657,7 @@
         <v>5.140000000000001</v>
       </c>
       <c r="E2561">
-        <v>-3.25</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="2562" spans="1:5">
@@ -57674,7 +57674,7 @@
         <v>-12.52</v>
       </c>
       <c r="E2562">
-        <v>0</v>
+        <v>6.260000000000001</v>
       </c>
     </row>
     <row r="2563" spans="1:5">
@@ -57776,7 +57776,7 @@
         <v>-2.86</v>
       </c>
       <c r="E2568">
-        <v>-3.93</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="2569" spans="1:5">
@@ -58167,7 +58167,7 @@
         <v>-21.06</v>
       </c>
       <c r="E2591">
-        <v>13.42</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="2592" spans="1:5">
@@ -58201,7 +58201,7 @@
         <v>-16.74</v>
       </c>
       <c r="E2593">
-        <v>13.42</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="2594" spans="1:5">
@@ -58235,7 +58235,7 @@
         <v>4.47</v>
       </c>
       <c r="E2595">
-        <v>-19.08</v>
+        <v>-21.44</v>
       </c>
     </row>
     <row r="2596" spans="1:5">
@@ -58320,7 +58320,7 @@
         <v>-7.27</v>
       </c>
       <c r="E2600">
-        <v>40.27</v>
+        <v>45.68</v>
       </c>
     </row>
     <row r="2601" spans="1:5">
@@ -58337,7 +58337,7 @@
         <v>-27.88</v>
       </c>
       <c r="E2601">
-        <v>40.27</v>
+        <v>45.68</v>
       </c>
     </row>
     <row r="2602" spans="1:5">
@@ -58473,7 +58473,7 @@
         <v>-7.85</v>
       </c>
       <c r="E2609">
-        <v>-10.14</v>
+        <v>-9.959999999999999</v>
       </c>
     </row>
     <row r="2610" spans="1:5">
@@ -58490,7 +58490,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2610">
-        <v>-10.14</v>
+        <v>-9.959999999999999</v>
       </c>
     </row>
     <row r="2611" spans="1:5">
@@ -58507,7 +58507,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2611">
-        <v>-10.14</v>
+        <v>-9.959999999999999</v>
       </c>
     </row>
     <row r="2612" spans="1:5">
@@ -58524,7 +58524,7 @@
         <v>16.5</v>
       </c>
       <c r="E2612">
-        <v>-10.87</v>
+        <v>-11.1</v>
       </c>
     </row>
     <row r="2613" spans="1:5">
@@ -58541,7 +58541,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2613">
-        <v>-10.14</v>
+        <v>-9.959999999999999</v>
       </c>
     </row>
     <row r="2614" spans="1:5">
@@ -58558,7 +58558,7 @@
         <v>-6.69</v>
       </c>
       <c r="E2614">
-        <v>-11.09</v>
+        <v>-12.51</v>
       </c>
     </row>
     <row r="2615" spans="1:5">
@@ -58609,7 +58609,7 @@
         <v>-5.3</v>
       </c>
       <c r="E2617">
-        <v>1.91</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="2618" spans="1:5">
@@ -58728,7 +58728,7 @@
         <v>2.78</v>
       </c>
       <c r="E2624">
-        <v>-4.84</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="2625" spans="1:5">
@@ -58745,7 +58745,7 @@
         <v>2.78</v>
       </c>
       <c r="E2625">
-        <v>-9.69</v>
+        <v>-10.88</v>
       </c>
     </row>
     <row r="2626" spans="1:5">
@@ -58762,7 +58762,7 @@
         <v>7.99</v>
       </c>
       <c r="E2626">
-        <v>1.62</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="2627" spans="1:5">
@@ -58779,7 +58779,7 @@
         <v>7.99</v>
       </c>
       <c r="E2627">
-        <v>1.62</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="2628" spans="1:5">
@@ -58796,7 +58796,7 @@
         <v>-3.74</v>
       </c>
       <c r="E2628">
-        <v>1.62</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="2629" spans="1:5">
@@ -58813,7 +58813,7 @@
         <v>7.99</v>
       </c>
       <c r="E2629">
-        <v>1.62</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="2630" spans="1:5">
@@ -58864,7 +58864,7 @@
         <v>7.61</v>
       </c>
       <c r="E2632">
-        <v>-2.67</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="2633" spans="1:5">
@@ -58881,7 +58881,7 @@
         <v>7.61</v>
       </c>
       <c r="E2633">
-        <v>-2.67</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="2634" spans="1:5">
@@ -58949,7 +58949,7 @@
         <v>23.17</v>
       </c>
       <c r="E2637">
-        <v>-15.55</v>
+        <v>-17.47</v>
       </c>
     </row>
     <row r="2638" spans="1:5">
@@ -59000,7 +59000,7 @@
         <v>-0.75</v>
       </c>
       <c r="E2640">
-        <v>-0.13</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="2641" spans="1:5">
@@ -59051,7 +59051,7 @@
         <v>-7.01</v>
       </c>
       <c r="E2643">
-        <v>20.17</v>
+        <v>24.63</v>
       </c>
     </row>
     <row r="2644" spans="1:5">
@@ -59085,7 +59085,7 @@
         <v>0</v>
       </c>
       <c r="E2645">
-        <v>8.01</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="2646" spans="1:5">
@@ -59102,7 +59102,7 @@
         <v>0</v>
       </c>
       <c r="E2646">
-        <v>-7.39</v>
+        <v>-8.34</v>
       </c>
     </row>
     <row r="2647" spans="1:5">
@@ -59187,7 +59187,7 @@
         <v>0</v>
       </c>
       <c r="E2651">
-        <v>-3.19</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="2652" spans="1:5">
@@ -59289,7 +59289,7 @@
         <v>-13.04</v>
       </c>
       <c r="E2657">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2658" spans="1:5">
@@ -59323,7 +59323,7 @@
         <v>-6.05</v>
       </c>
       <c r="E2659">
-        <v>-5.41</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="2660" spans="1:5">
@@ -59374,7 +59374,7 @@
         <v>15.32</v>
       </c>
       <c r="E2662">
-        <v>-4.14</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="2663" spans="1:5">
@@ -59663,7 +59663,7 @@
         <v>0</v>
       </c>
       <c r="E2679">
-        <v>16.7</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="2680" spans="1:5">
@@ -60020,7 +60020,7 @@
         <v>0</v>
       </c>
       <c r="E2700">
-        <v>4.41</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="2701" spans="1:5">
@@ -60224,7 +60224,7 @@
         <v>0</v>
       </c>
       <c r="E2712">
-        <v>-4.91</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="2713" spans="1:5">
@@ -60241,7 +60241,7 @@
         <v>32.22</v>
       </c>
       <c r="E2713">
-        <v>4.109999999999999</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="2714" spans="1:5">
@@ -60445,7 +60445,7 @@
         <v>0</v>
       </c>
       <c r="E2725">
-        <v>-5.13</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="2726" spans="1:5">
@@ -60462,7 +60462,7 @@
         <v>0</v>
       </c>
       <c r="E2726">
-        <v>-5.13</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="2727" spans="1:5">
@@ -60496,7 +60496,7 @@
         <v>0</v>
       </c>
       <c r="E2728">
-        <v>0</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="2729" spans="1:5">
@@ -60819,7 +60819,7 @@
         <v>0</v>
       </c>
       <c r="E2747">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="2748" spans="1:5">
@@ -60887,7 +60887,7 @@
         <v>-4.36</v>
       </c>
       <c r="E2751">
-        <v>13.39</v>
+        <v>13.11</v>
       </c>
     </row>
     <row r="2752" spans="1:5">
@@ -60921,7 +60921,7 @@
         <v>0</v>
       </c>
       <c r="E2753">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="2754" spans="1:5">
@@ -60955,7 +60955,7 @@
         <v>0</v>
       </c>
       <c r="E2755">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="2756" spans="1:5">
@@ -61057,7 +61057,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2761">
-        <v>-0.8200000000000001</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="2762" spans="1:5">
@@ -61074,7 +61074,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2762">
-        <v>-0.8200000000000001</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="2763" spans="1:5">
@@ -61091,7 +61091,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2763">
-        <v>-0.8200000000000001</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="2764" spans="1:5">
@@ -61380,7 +61380,7 @@
         <v>6.09</v>
       </c>
       <c r="E2780">
-        <v>-13.48</v>
+        <v>-15.09</v>
       </c>
     </row>
     <row r="2781" spans="1:5">
@@ -61397,7 +61397,7 @@
         <v>7.180000000000001</v>
       </c>
       <c r="E2781">
-        <v>0.9299999999999999</v>
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="2782" spans="1:5">
@@ -61907,7 +61907,7 @@
         <v>0</v>
       </c>
       <c r="E2811">
-        <v>0</v>
+        <v>7.829999999999999</v>
       </c>
     </row>
     <row r="2812" spans="1:5">
@@ -62230,7 +62230,7 @@
         <v>0</v>
       </c>
       <c r="E2830">
-        <v>-6.15</v>
+        <v>-9.229999999999999</v>
       </c>
     </row>
     <row r="2831" spans="1:5">
@@ -62383,7 +62383,7 @@
         <v>-11.22</v>
       </c>
       <c r="E2839">
-        <v>10.11</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="2840" spans="1:5">
@@ -62468,7 +62468,7 @@
         <v>0</v>
       </c>
       <c r="E2844">
-        <v>-4.17</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="2845" spans="1:5">
@@ -62774,7 +62774,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E2862">
-        <v>1.58</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="2863" spans="1:5">
@@ -62944,7 +62944,7 @@
         <v>-0.09</v>
       </c>
       <c r="E2872">
-        <v>13.21</v>
+        <v>13.86</v>
       </c>
     </row>
     <row r="2873" spans="1:5">
@@ -62995,7 +62995,7 @@
         <v>0</v>
       </c>
       <c r="E2875">
-        <v>0</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="2876" spans="1:5">
@@ -63012,7 +63012,7 @@
         <v>-2.13</v>
       </c>
       <c r="E2876">
-        <v>6.19</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="2877" spans="1:5">
@@ -63046,7 +63046,7 @@
         <v>0</v>
       </c>
       <c r="E2878">
-        <v>-10.42</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="2879" spans="1:5">
@@ -63131,7 +63131,7 @@
         <v>-0.34</v>
       </c>
       <c r="E2883">
-        <v>4.5</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="2884" spans="1:5">
@@ -63165,7 +63165,7 @@
         <v>-23.81</v>
       </c>
       <c r="E2885">
-        <v>19.08</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="2886" spans="1:5">
@@ -63216,7 +63216,7 @@
         <v>-17.74</v>
       </c>
       <c r="E2888">
-        <v>16.79</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="2889" spans="1:5">
@@ -63267,7 +63267,7 @@
         <v>11.01</v>
       </c>
       <c r="E2891">
-        <v>-1.83</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="2892" spans="1:5">
@@ -63284,7 +63284,7 @@
         <v>-0.44</v>
       </c>
       <c r="E2892">
-        <v>-2.67</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="2893" spans="1:5">
@@ -64202,7 +64202,7 @@
         <v>2.78</v>
       </c>
       <c r="E2946">
-        <v>3.6</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="2947" spans="1:5">
@@ -64678,7 +64678,7 @@
         <v>0</v>
       </c>
       <c r="E2974">
-        <v>33.41</v>
+        <v>37.59</v>
       </c>
     </row>
     <row r="2975" spans="1:5">
@@ -64695,7 +64695,7 @@
         <v>0</v>
       </c>
       <c r="E2975">
-        <v>6.68</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="2976" spans="1:5">
@@ -64712,7 +64712,7 @@
         <v>0</v>
       </c>
       <c r="E2976">
-        <v>6.68</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="2977" spans="1:5">
@@ -64763,7 +64763,7 @@
         <v>-4.01</v>
       </c>
       <c r="E2979">
-        <v>-0.63</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="2980" spans="1:5">
@@ -64848,7 +64848,7 @@
         <v>17.64</v>
       </c>
       <c r="E2984">
-        <v>2.49</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="2985" spans="1:5">
@@ -64899,7 +64899,7 @@
         <v>11.89</v>
       </c>
       <c r="E2987">
-        <v>-10.89</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="2988" spans="1:5">
@@ -65341,7 +65341,7 @@
         <v>-7.55</v>
       </c>
       <c r="E3013">
-        <v>0</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="3014" spans="1:5">
@@ -65392,7 +65392,7 @@
         <v>0</v>
       </c>
       <c r="E3016">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3017" spans="1:5">
@@ -65426,7 +65426,7 @@
         <v>-4.62</v>
       </c>
       <c r="E3018">
-        <v>-0.8099999999999999</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3019" spans="1:5">
@@ -66157,7 +66157,7 @@
         <v>-10.12</v>
       </c>
       <c r="E3061">
-        <v>2.5</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="3062" spans="1:5">
@@ -66344,7 +66344,7 @@
         <v>-19.65</v>
       </c>
       <c r="E3072">
-        <v>30.71</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="3073" spans="1:5">
@@ -66429,7 +66429,7 @@
         <v>0</v>
       </c>
       <c r="E3077">
-        <v>2.78</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="3078" spans="1:5">
@@ -66446,7 +66446,7 @@
         <v>0</v>
       </c>
       <c r="E3078">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3079" spans="1:5">
@@ -66463,7 +66463,7 @@
         <v>3.58</v>
       </c>
       <c r="E3079">
-        <v>-16.06</v>
+        <v>-11.04</v>
       </c>
     </row>
     <row r="3080" spans="1:5">
@@ -66480,7 +66480,7 @@
         <v>0</v>
       </c>
       <c r="E3080">
-        <v>1.37</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="3081" spans="1:5">
@@ -66497,7 +66497,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3081">
-        <v>12.02</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="3082" spans="1:5">
@@ -66531,7 +66531,7 @@
         <v>0</v>
       </c>
       <c r="E3083">
-        <v>0.6899999999999999</v>
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="3084" spans="1:5">
@@ -66565,7 +66565,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3085">
-        <v>12.02</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="3086" spans="1:5">
@@ -66769,7 +66769,7 @@
         <v>-22.35</v>
       </c>
       <c r="E3097">
-        <v>19.21</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="3098" spans="1:5">
@@ -66786,7 +66786,7 @@
         <v>-10.28</v>
       </c>
       <c r="E3098">
-        <v>3.72</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="3099" spans="1:5">
@@ -66803,7 +66803,7 @@
         <v>-24.1</v>
       </c>
       <c r="E3099">
-        <v>10.53</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="3100" spans="1:5">
@@ -66820,7 +66820,7 @@
         <v>15.55</v>
       </c>
       <c r="E3100">
-        <v>-25.22</v>
+        <v>-28.36</v>
       </c>
     </row>
     <row r="3101" spans="1:5">
@@ -66837,7 +66837,7 @@
         <v>-2.2</v>
       </c>
       <c r="E3101">
-        <v>7.42</v>
+        <v>8.309999999999999</v>
       </c>
     </row>
     <row r="3102" spans="1:5">
@@ -66854,7 +66854,7 @@
         <v>17.93</v>
       </c>
       <c r="E3102">
-        <v>-3.96</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="3103" spans="1:5">
@@ -67364,7 +67364,7 @@
         <v>0</v>
       </c>
       <c r="E3132">
-        <v>19.67</v>
+        <v>22.03</v>
       </c>
     </row>
     <row r="3133" spans="1:5">
@@ -67381,7 +67381,7 @@
         <v>0</v>
       </c>
       <c r="E3133">
-        <v>0</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="3134" spans="1:5">
@@ -67500,7 +67500,7 @@
         <v>-9.51</v>
       </c>
       <c r="E3140">
-        <v>-10.34</v>
+        <v>-11.53</v>
       </c>
     </row>
     <row r="3141" spans="1:5">
@@ -67517,7 +67517,7 @@
         <v>0</v>
       </c>
       <c r="E3141">
-        <v>-10.34</v>
+        <v>-11.53</v>
       </c>
     </row>
     <row r="3142" spans="1:5">
@@ -68044,7 +68044,7 @@
         <v>0</v>
       </c>
       <c r="E3172">
-        <v>1.84</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="3173" spans="1:5">
@@ -68231,7 +68231,7 @@
         <v>0</v>
       </c>
       <c r="E3183">
-        <v>7.69</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="3184" spans="1:5">
@@ -68401,7 +68401,7 @@
         <v>7.66</v>
       </c>
       <c r="E3193">
-        <v>0</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="3194" spans="1:5">
@@ -68418,7 +68418,7 @@
         <v>7.66</v>
       </c>
       <c r="E3194">
-        <v>0</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="3195" spans="1:5">
@@ -68435,7 +68435,7 @@
         <v>7.66</v>
       </c>
       <c r="E3195">
-        <v>0</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="3196" spans="1:5">
@@ -68656,7 +68656,7 @@
         <v>-5.76</v>
       </c>
       <c r="E3208">
-        <v>3.82</v>
+        <v>7.630000000000001</v>
       </c>
     </row>
     <row r="3209" spans="1:5">
@@ -69761,7 +69761,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3273">
-        <v>4.22</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="3274" spans="1:5">
@@ -69778,7 +69778,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3274">
-        <v>4.22</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="3275" spans="1:5">
@@ -69795,7 +69795,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3275">
-        <v>4.22</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="3276" spans="1:5">
@@ -70305,7 +70305,7 @@
         <v>8.6</v>
       </c>
       <c r="E3305">
-        <v>1.74</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3306" spans="1:5">
@@ -70322,7 +70322,7 @@
         <v>14.8</v>
       </c>
       <c r="E3306">
-        <v>-0.8999999999999999</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="3307" spans="1:5">
@@ -70356,7 +70356,7 @@
         <v>8.6</v>
       </c>
       <c r="E3308">
-        <v>-4.390000000000001</v>
+        <v>-5.970000000000001</v>
       </c>
     </row>
     <row r="3309" spans="1:5">
@@ -70373,7 +70373,7 @@
         <v>11.48</v>
       </c>
       <c r="E3309">
-        <v>-0.8999999999999999</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="3310" spans="1:5">
@@ -70509,7 +70509,7 @@
         <v>6.79</v>
       </c>
       <c r="E3317">
-        <v>-9.58</v>
+        <v>-10.79</v>
       </c>
     </row>
     <row r="3318" spans="1:5">
@@ -70526,7 +70526,7 @@
         <v>0</v>
       </c>
       <c r="E3318">
-        <v>0</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="3319" spans="1:5">
@@ -70594,7 +70594,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="E3322">
-        <v>-18.12</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="3323" spans="1:5">
@@ -70662,7 +70662,7 @@
         <v>-4.850000000000001</v>
       </c>
       <c r="E3326">
-        <v>8.790000000000001</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="3327" spans="1:5">
@@ -70730,7 +70730,7 @@
         <v>-13.92</v>
       </c>
       <c r="E3330">
-        <v>13.41</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="3331" spans="1:5">
@@ -70747,7 +70747,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E3331">
-        <v>0</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="3332" spans="1:5">
@@ -70764,7 +70764,7 @@
         <v>0</v>
       </c>
       <c r="E3332">
-        <v>21.29</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="3333" spans="1:5">
@@ -70832,7 +70832,7 @@
         <v>0</v>
       </c>
       <c r="E3336">
-        <v>0</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="3337" spans="1:5">
@@ -70883,7 +70883,7 @@
         <v>-4.95</v>
       </c>
       <c r="E3339">
-        <v>12.12</v>
+        <v>13.63</v>
       </c>
     </row>
     <row r="3340" spans="1:5">
@@ -70900,7 +70900,7 @@
         <v>-9.85</v>
       </c>
       <c r="E3340">
-        <v>0</v>
+        <v>9.520000000000001</v>
       </c>
     </row>
     <row r="3341" spans="1:5">
@@ -70917,7 +70917,7 @@
         <v>-15.5</v>
       </c>
       <c r="E3341">
-        <v>14.83</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="3342" spans="1:5">
@@ -70951,7 +70951,7 @@
         <v>4.87</v>
       </c>
       <c r="E3343">
-        <v>14.83</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="3344" spans="1:5">
@@ -70968,7 +70968,7 @@
         <v>4.390000000000001</v>
       </c>
       <c r="E3344">
-        <v>8.98</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="3345" spans="1:5">
@@ -70985,7 +70985,7 @@
         <v>3.89</v>
       </c>
       <c r="E3345">
-        <v>2.87</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3346" spans="1:5">
@@ -71002,7 +71002,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="E3346">
-        <v>14.83</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="3347" spans="1:5">
@@ -71019,7 +71019,7 @@
         <v>-5.800000000000001</v>
       </c>
       <c r="E3347">
-        <v>14.47</v>
+        <v>16.91</v>
       </c>
     </row>
     <row r="3348" spans="1:5">
@@ -71087,7 +71087,7 @@
         <v>12.91</v>
       </c>
       <c r="E3351">
-        <v>1.91</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="3352" spans="1:5">
@@ -71138,7 +71138,7 @@
         <v>11.23</v>
       </c>
       <c r="E3354">
-        <v>21.29</v>
+        <v>23.66</v>
       </c>
     </row>
     <row r="3355" spans="1:5">
@@ -71155,7 +71155,7 @@
         <v>0</v>
       </c>
       <c r="E3355">
-        <v>-11.81</v>
+        <v>-13.07</v>
       </c>
     </row>
     <row r="3356" spans="1:5">
@@ -71206,7 +71206,7 @@
         <v>6.1</v>
       </c>
       <c r="E3358">
-        <v>2.33</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3359" spans="1:5">
@@ -71393,7 +71393,7 @@
         <v>0</v>
       </c>
       <c r="E3369">
-        <v>0</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3370" spans="1:5">
@@ -71410,7 +71410,7 @@
         <v>0</v>
       </c>
       <c r="E3370">
-        <v>0</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3371" spans="1:5">
@@ -71648,7 +71648,7 @@
         <v>0</v>
       </c>
       <c r="E3384">
-        <v>0</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3385" spans="1:5">
@@ -71665,7 +71665,7 @@
         <v>0</v>
       </c>
       <c r="E3385">
-        <v>0</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="3386" spans="1:5">
@@ -72124,7 +72124,7 @@
         <v>-6.7</v>
       </c>
       <c r="E3412">
-        <v>7.89</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3413" spans="1:5">
@@ -72141,7 +72141,7 @@
         <v>-6.08</v>
       </c>
       <c r="E3413">
-        <v>7.89</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3414" spans="1:5">
@@ -72192,7 +72192,7 @@
         <v>-10.65</v>
       </c>
       <c r="E3416">
-        <v>16.56</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="3417" spans="1:5">
@@ -72277,7 +72277,7 @@
         <v>-6.329999999999999</v>
       </c>
       <c r="E3421">
-        <v>9.220000000000001</v>
+        <v>10.04</v>
       </c>
     </row>
     <row r="3422" spans="1:5">
@@ -72328,7 +72328,7 @@
         <v>-9.120000000000001</v>
       </c>
       <c r="E3424">
-        <v>6.69</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="3425" spans="1:5">
@@ -72362,7 +72362,7 @@
         <v>-1.6</v>
       </c>
       <c r="E3426">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="3427" spans="1:5">
@@ -72413,7 +72413,7 @@
         <v>11.28</v>
       </c>
       <c r="E3429">
-        <v>1.2</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3430" spans="1:5">
@@ -72515,7 +72515,7 @@
         <v>-1.65</v>
       </c>
       <c r="E3435">
-        <v>2.93</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="3436" spans="1:5">
@@ -72566,7 +72566,7 @@
         <v>-1.65</v>
       </c>
       <c r="E3438">
-        <v>22.18</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="3439" spans="1:5">
@@ -72600,7 +72600,7 @@
         <v>-8.32</v>
       </c>
       <c r="E3440">
-        <v>8.029999999999999</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="3441" spans="1:5">
@@ -72617,7 +72617,7 @@
         <v>0</v>
       </c>
       <c r="E3441">
-        <v>-19.09</v>
+        <v>-14.32</v>
       </c>
     </row>
     <row r="3442" spans="1:5">
@@ -72634,7 +72634,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3442">
-        <v>22.18</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="3443" spans="1:5">
@@ -72651,7 +72651,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3443">
-        <v>11.44</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="3444" spans="1:5">
@@ -72668,7 +72668,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E3444">
-        <v>21.58</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="3445" spans="1:5">
@@ -72685,7 +72685,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3445">
-        <v>11.44</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="3446" spans="1:5">
@@ -72702,7 +72702,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E3446">
-        <v>14.39</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="3447" spans="1:5">
@@ -72719,7 +72719,7 @@
         <v>-3.98</v>
       </c>
       <c r="E3447">
-        <v>9.59</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="3448" spans="1:5">
@@ -72804,7 +72804,7 @@
         <v>2.07</v>
       </c>
       <c r="E3452">
-        <v>1.42</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3453" spans="1:5">
@@ -72821,7 +72821,7 @@
         <v>0.59</v>
       </c>
       <c r="E3453">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="3454" spans="1:5">
@@ -72838,7 +72838,7 @@
         <v>11.49</v>
       </c>
       <c r="E3454">
-        <v>2.42</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="3455" spans="1:5">
@@ -72855,7 +72855,7 @@
         <v>0</v>
       </c>
       <c r="E3455">
-        <v>0</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="3456" spans="1:5">
@@ -72889,7 +72889,7 @@
         <v>0</v>
       </c>
       <c r="E3457">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3458" spans="1:5">
@@ -72906,7 +72906,7 @@
         <v>-1.4</v>
       </c>
       <c r="E3458">
-        <v>1.42</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3459" spans="1:5">
@@ -72957,7 +72957,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3461">
-        <v>22.18</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="3462" spans="1:5">
@@ -72974,7 +72974,7 @@
         <v>-3.59</v>
       </c>
       <c r="E3462">
-        <v>5.72</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="3463" spans="1:5">
@@ -73008,7 +73008,7 @@
         <v>-27.13</v>
       </c>
       <c r="E3464">
-        <v>45.88</v>
+        <v>51.11</v>
       </c>
     </row>
     <row r="3465" spans="1:5">
@@ -73059,7 +73059,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3467">
-        <v>22.18</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="3468" spans="1:5">
@@ -73314,7 +73314,7 @@
         <v>-11.38</v>
       </c>
       <c r="E3482">
-        <v>9.34</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="3483" spans="1:5">
@@ -74283,7 +74283,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3539">
-        <v>25.05</v>
+        <v>28.17</v>
       </c>
     </row>
     <row r="3540" spans="1:5">
@@ -74300,7 +74300,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3540">
-        <v>16.69</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="3541" spans="1:5">
@@ -74317,7 +74317,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3541">
-        <v>25.05</v>
+        <v>28.17</v>
       </c>
     </row>
     <row r="3542" spans="1:5">
@@ -74334,7 +74334,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3542">
-        <v>16.69</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="3543" spans="1:5">
@@ -74351,7 +74351,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3543">
-        <v>16.69</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="3544" spans="1:5">
@@ -74402,7 +74402,7 @@
         <v>-27.25</v>
       </c>
       <c r="E3546">
-        <v>34.92</v>
+        <v>39.32</v>
       </c>
     </row>
     <row r="3547" spans="1:5">
@@ -74912,7 +74912,7 @@
         <v>-14.67</v>
       </c>
       <c r="E3576">
-        <v>4.17</v>
+        <v>7.290000000000001</v>
       </c>
     </row>
     <row r="3577" spans="1:5">
@@ -75133,7 +75133,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3589">
-        <v>3.42</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="3590" spans="1:5">
@@ -75150,7 +75150,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3590">
-        <v>3.42</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="3591" spans="1:5">
@@ -75167,7 +75167,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3591">
-        <v>3.42</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="3592" spans="1:5">
@@ -75184,7 +75184,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3592">
-        <v>3.42</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="3593" spans="1:5">
@@ -75201,7 +75201,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="E3593">
-        <v>-19</v>
+        <v>-21.51</v>
       </c>
     </row>
     <row r="3594" spans="1:5">
@@ -75218,7 +75218,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3594">
-        <v>-13.74</v>
+        <v>-16.41</v>
       </c>
     </row>
     <row r="3595" spans="1:5">
@@ -75235,7 +75235,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3595">
-        <v>-13.74</v>
+        <v>-16.41</v>
       </c>
     </row>
     <row r="3596" spans="1:5">
@@ -75252,7 +75252,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3596">
-        <v>-13.74</v>
+        <v>-16.41</v>
       </c>
     </row>
     <row r="3597" spans="1:5">
@@ -75388,7 +75388,7 @@
         <v>-7.77</v>
       </c>
       <c r="E3604">
-        <v>1.85</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="3605" spans="1:5">
@@ -75643,7 +75643,7 @@
         <v>0</v>
       </c>
       <c r="E3619">
-        <v>0</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="3620" spans="1:5">
@@ -75660,7 +75660,7 @@
         <v>0</v>
       </c>
       <c r="E3620">
-        <v>0</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="3621" spans="1:5">
@@ -75677,7 +75677,7 @@
         <v>0</v>
       </c>
       <c r="E3621">
-        <v>0</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="3622" spans="1:5">
@@ -75694,7 +75694,7 @@
         <v>0</v>
       </c>
       <c r="E3622">
-        <v>0</v>
+        <v>-9.15</v>
       </c>
     </row>
     <row r="3623" spans="1:5">
@@ -75762,7 +75762,7 @@
         <v>-3.32</v>
       </c>
       <c r="E3626">
-        <v>-22.96</v>
+        <v>-23.24</v>
       </c>
     </row>
     <row r="3627" spans="1:5">
@@ -75847,7 +75847,7 @@
         <v>0</v>
       </c>
       <c r="E3631">
-        <v>-9.51</v>
+        <v>-10.66</v>
       </c>
     </row>
     <row r="3632" spans="1:5">
@@ -75864,7 +75864,7 @@
         <v>0</v>
       </c>
       <c r="E3632">
-        <v>-9.51</v>
+        <v>-10.66</v>
       </c>
     </row>
     <row r="3633" spans="1:5">
@@ -75949,7 +75949,7 @@
         <v>-12.01</v>
       </c>
       <c r="E3637">
-        <v>3.04</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="3638" spans="1:5">
@@ -75983,7 +75983,7 @@
         <v>-13.45</v>
       </c>
       <c r="E3639">
-        <v>-18.17</v>
+        <v>-8.58</v>
       </c>
     </row>
     <row r="3640" spans="1:5">
@@ -76017,7 +76017,7 @@
         <v>23.77</v>
       </c>
       <c r="E3641">
-        <v>-7.23</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="3642" spans="1:5">
@@ -76221,7 +76221,7 @@
         <v>2.44</v>
       </c>
       <c r="E3653">
-        <v>-2.78</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="3654" spans="1:5">
@@ -76255,7 +76255,7 @@
         <v>15.77</v>
       </c>
       <c r="E3655">
-        <v>-1.87</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="3656" spans="1:5">
@@ -76510,7 +76510,7 @@
         <v>-7.28</v>
       </c>
       <c r="E3670">
-        <v>2.66</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="3671" spans="1:5">
@@ -76527,7 +76527,7 @@
         <v>0</v>
       </c>
       <c r="E3671">
-        <v>0</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="3672" spans="1:5">
@@ -76544,7 +76544,7 @@
         <v>4.7</v>
       </c>
       <c r="E3672">
-        <v>-7.41</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="3673" spans="1:5">
@@ -76578,7 +76578,7 @@
         <v>0</v>
       </c>
       <c r="E3674">
-        <v>-17.19</v>
+        <v>-19.35</v>
       </c>
     </row>
     <row r="3675" spans="1:5">
@@ -76612,7 +76612,7 @@
         <v>0</v>
       </c>
       <c r="E3676">
-        <v>-17.19</v>
+        <v>-19.35</v>
       </c>
     </row>
     <row r="3677" spans="1:5">
@@ -76714,7 +76714,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3682">
-        <v>3.19</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="3683" spans="1:5">
@@ -76748,7 +76748,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3684">
-        <v>3.19</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="3685" spans="1:5">
@@ -76765,7 +76765,7 @@
         <v>-0.18</v>
       </c>
       <c r="E3685">
-        <v>-1.27</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3686" spans="1:5">
@@ -76782,7 +76782,7 @@
         <v>2.36</v>
       </c>
       <c r="E3686">
-        <v>-2.99</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="3687" spans="1:5">
@@ -76969,7 +76969,7 @@
         <v>47.34</v>
       </c>
       <c r="E3697">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3698" spans="1:5">
@@ -76986,7 +76986,7 @@
         <v>0</v>
       </c>
       <c r="E3698">
-        <v>0</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="3699" spans="1:5">
@@ -77598,7 +77598,7 @@
         <v>0</v>
       </c>
       <c r="E3734">
-        <v>0</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3735" spans="1:5">
@@ -77938,7 +77938,7 @@
         <v>21.42</v>
       </c>
       <c r="E3754">
-        <v>-17.59</v>
+        <v>-19.8</v>
       </c>
     </row>
     <row r="3755" spans="1:5">
@@ -78040,7 +78040,7 @@
         <v>0</v>
       </c>
       <c r="E3760">
-        <v>-8.210000000000001</v>
+        <v>-9.120000000000001</v>
       </c>
     </row>
     <row r="3761" spans="1:5">
@@ -78142,7 +78142,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3766">
-        <v>-1.55</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3767" spans="1:5">
@@ -78159,7 +78159,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3767">
-        <v>-1.55</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3768" spans="1:5">
@@ -78261,7 +78261,7 @@
         <v>0</v>
       </c>
       <c r="E3773">
-        <v>20.02</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="3774" spans="1:5">
@@ -78380,7 +78380,7 @@
         <v>-15.35</v>
       </c>
       <c r="E3780">
-        <v>-2.42</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="3781" spans="1:5">
@@ -78635,7 +78635,7 @@
         <v>6.859999999999999</v>
       </c>
       <c r="E3795">
-        <v>-16.72</v>
+        <v>-18.8</v>
       </c>
     </row>
     <row r="3796" spans="1:5">
@@ -78652,7 +78652,7 @@
         <v>-2.27</v>
       </c>
       <c r="E3796">
-        <v>-4.21</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="3797" spans="1:5">
@@ -78890,7 +78890,7 @@
         <v>0</v>
       </c>
       <c r="E3810">
-        <v>13.86</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="3811" spans="1:5">
@@ -79196,7 +79196,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3828">
-        <v>1.18</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3829" spans="1:5">
@@ -79213,7 +79213,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3829">
-        <v>1.18</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3830" spans="1:5">
@@ -79451,7 +79451,7 @@
         <v>0.52</v>
       </c>
       <c r="E3843">
-        <v>-10.04</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="3844" spans="1:5">
@@ -79468,7 +79468,7 @@
         <v>-12.85</v>
       </c>
       <c r="E3844">
-        <v>9.82</v>
+        <v>11.06</v>
       </c>
     </row>
     <row r="3845" spans="1:5">
@@ -79519,7 +79519,7 @@
         <v>1.05</v>
       </c>
       <c r="E3847">
-        <v>-12.08</v>
+        <v>-13.58</v>
       </c>
     </row>
     <row r="3848" spans="1:5">
@@ -79944,7 +79944,7 @@
         <v>-19.69</v>
       </c>
       <c r="E3872">
-        <v>38.06</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="3873" spans="1:5">
@@ -79961,7 +79961,7 @@
         <v>-10.89</v>
       </c>
       <c r="E3873">
-        <v>18.81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3874" spans="1:5">
@@ -80063,7 +80063,7 @@
         <v>8.32</v>
       </c>
       <c r="E3879">
-        <v>-23.37</v>
+        <v>-26.21</v>
       </c>
     </row>
     <row r="3880" spans="1:5">
@@ -80080,7 +80080,7 @@
         <v>8.32</v>
       </c>
       <c r="E3880">
-        <v>-23.37</v>
+        <v>-26.21</v>
       </c>
     </row>
     <row r="3881" spans="1:5">
@@ -80097,7 +80097,7 @@
         <v>8.32</v>
       </c>
       <c r="E3881">
-        <v>-23.37</v>
+        <v>-26.21</v>
       </c>
     </row>
     <row r="3882" spans="1:5">
@@ -80131,7 +80131,7 @@
         <v>-13.77</v>
       </c>
       <c r="E3883">
-        <v>11.13</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="3884" spans="1:5">
@@ -80301,7 +80301,7 @@
         <v>0</v>
       </c>
       <c r="E3893">
-        <v>2.65</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="3894" spans="1:5">
@@ -80335,7 +80335,7 @@
         <v>2.48</v>
       </c>
       <c r="E3895">
-        <v>2.65</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="3896" spans="1:5">
@@ -80573,7 +80573,7 @@
         <v>-9.93</v>
       </c>
       <c r="E3909">
-        <v>2.94</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3910" spans="1:5">
@@ -80947,7 +80947,7 @@
         <v>-1.41</v>
       </c>
       <c r="E3931">
-        <v>-8.859999999999999</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="3932" spans="1:5">
@@ -80998,7 +80998,7 @@
         <v>1.13</v>
       </c>
       <c r="E3934">
-        <v>-5.57</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="3935" spans="1:5">
@@ -81576,7 +81576,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3968">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3969" spans="1:5">
@@ -81593,7 +81593,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3969">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3970" spans="1:5">
@@ -81610,7 +81610,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3970">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3971" spans="1:5">
@@ -81627,7 +81627,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3971">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3972" spans="1:5">
@@ -81644,7 +81644,7 @@
         <v>-14.58</v>
       </c>
       <c r="E3972">
-        <v>20.73</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="3973" spans="1:5">
@@ -82120,7 +82120,7 @@
         <v>-4.01</v>
       </c>
       <c r="E4000">
-        <v>-0.8999999999999999</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4001" spans="1:5">
@@ -82273,7 +82273,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4009">
-        <v>27.45</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4010" spans="1:5">
@@ -82290,7 +82290,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4010">
-        <v>27.45</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4011" spans="1:5">
@@ -82307,7 +82307,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4011">
-        <v>27.45</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="4012" spans="1:5">
@@ -82460,7 +82460,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4020">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4021" spans="1:5">
@@ -82477,7 +82477,7 @@
         <v>-16.01</v>
       </c>
       <c r="E4021">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4022" spans="1:5">
@@ -82494,7 +82494,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4022">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4023" spans="1:5">
@@ -82511,7 +82511,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4023">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4024" spans="1:5">
@@ -82528,7 +82528,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4024">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4025" spans="1:5">
@@ -82545,7 +82545,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4025">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4026" spans="1:5">
@@ -82562,7 +82562,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4026">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4027" spans="1:5">
@@ -82579,7 +82579,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4027">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4028" spans="1:5">
@@ -82596,7 +82596,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4028">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4029" spans="1:5">
@@ -82613,7 +82613,7 @@
         <v>-17.74</v>
       </c>
       <c r="E4029">
-        <v>16.79</v>
+        <v>18.87</v>
       </c>
     </row>
     <row r="4030" spans="1:5">
@@ -82630,7 +82630,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4030">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4031" spans="1:5">
@@ -82647,7 +82647,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4031">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4032" spans="1:5">
@@ -83123,7 +83123,7 @@
         <v>0</v>
       </c>
       <c r="E4059">
-        <v>-17.23</v>
+        <v>-18.84</v>
       </c>
     </row>
     <row r="4060" spans="1:5">
@@ -83157,7 +83157,7 @@
         <v>36.27</v>
       </c>
       <c r="E4061">
-        <v>1.51</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="4062" spans="1:5">
@@ -83174,7 +83174,7 @@
         <v>15.42</v>
       </c>
       <c r="E4062">
-        <v>-17.49</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="4063" spans="1:5">
@@ -83191,7 +83191,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4063">
-        <v>5.13</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="4064" spans="1:5">
@@ -83208,7 +83208,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4064">
-        <v>5.13</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="4065" spans="1:5">
@@ -83242,7 +83242,7 @@
         <v>49.82</v>
       </c>
       <c r="E4066">
-        <v>-20.9</v>
+        <v>-19.95</v>
       </c>
     </row>
     <row r="4067" spans="1:5">
@@ -83259,7 +83259,7 @@
         <v>0</v>
       </c>
       <c r="E4067">
-        <v>-7.049999999999999</v>
+        <v>-7.920000000000001</v>
       </c>
     </row>
     <row r="4068" spans="1:5">
@@ -83276,7 +83276,7 @@
         <v>3.42</v>
       </c>
       <c r="E4068">
-        <v>-10.24</v>
+        <v>-11.55</v>
       </c>
     </row>
     <row r="4069" spans="1:5">
@@ -83293,7 +83293,7 @@
         <v>0</v>
       </c>
       <c r="E4069">
-        <v>-7.049999999999999</v>
+        <v>-7.920000000000001</v>
       </c>
     </row>
     <row r="4070" spans="1:5">
@@ -83412,7 +83412,7 @@
         <v>6.36</v>
       </c>
       <c r="E4076">
-        <v>7.07</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="4077" spans="1:5">
@@ -83565,7 +83565,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4085">
-        <v>-2.03</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="4086" spans="1:5">
@@ -83582,7 +83582,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4086">
-        <v>-2.03</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="4087" spans="1:5">
@@ -83650,7 +83650,7 @@
         <v>-7.16</v>
       </c>
       <c r="E4090">
-        <v>-1.29</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4091" spans="1:5">
@@ -83786,7 +83786,7 @@
         <v>-3.08</v>
       </c>
       <c r="E4098">
-        <v>9.539999999999999</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="4099" spans="1:5">
@@ -83820,7 +83820,7 @@
         <v>-3.9</v>
       </c>
       <c r="E4100">
-        <v>28.64</v>
+        <v>32.22</v>
       </c>
     </row>
     <row r="4101" spans="1:5">
@@ -83871,7 +83871,7 @@
         <v>-2.87</v>
       </c>
       <c r="E4103">
-        <v>3.38</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="4104" spans="1:5">
@@ -83973,7 +83973,7 @@
         <v>0</v>
       </c>
       <c r="E4109">
-        <v>5.62</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="4110" spans="1:5">
@@ -84126,7 +84126,7 @@
         <v>0</v>
       </c>
       <c r="E4118">
-        <v>8.709999999999999</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="4119" spans="1:5">
@@ -85894,7 +85894,7 @@
         <v>0</v>
       </c>
       <c r="E4222">
-        <v>9</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="4223" spans="1:5">
@@ -86897,7 +86897,7 @@
         <v>0</v>
       </c>
       <c r="E4281">
-        <v>8.93</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="4282" spans="1:5">
@@ -87951,7 +87951,7 @@
         <v>3.35</v>
       </c>
       <c r="E4343">
-        <v>-2.16</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="4344" spans="1:5">
@@ -88138,7 +88138,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4354">
-        <v>13.42</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="4355" spans="1:5">
@@ -88155,7 +88155,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4355">
-        <v>13.42</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="4356" spans="1:5">
@@ -88172,7 +88172,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4356">
-        <v>13.42</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="4357" spans="1:5">
@@ -88189,7 +88189,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4357">
-        <v>13.42</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="4358" spans="1:5">
@@ -88206,7 +88206,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4358">
-        <v>13.42</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="4359" spans="1:5">
@@ -88240,7 +88240,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4360">
-        <v>18.6</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="4361" spans="1:5">
@@ -88257,7 +88257,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4361">
-        <v>18.6</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="4362" spans="1:5">
@@ -88274,7 +88274,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4362">
-        <v>18.6</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="4363" spans="1:5">
@@ -88291,7 +88291,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4363">
-        <v>18.6</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="4364" spans="1:5">
@@ -89362,7 +89362,7 @@
         <v>-3.85</v>
       </c>
       <c r="E4426">
-        <v>22.26</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="4427" spans="1:5">
@@ -89974,7 +89974,7 @@
         <v>17.67</v>
       </c>
       <c r="E4462">
-        <v>3.330000000000001</v>
+        <v>6.260000000000001</v>
       </c>
     </row>
     <row r="4463" spans="1:5">
@@ -89991,7 +89991,7 @@
         <v>16.03</v>
       </c>
       <c r="E4463">
-        <v>-9.390000000000001</v>
+        <v>-10.84</v>
       </c>
     </row>
     <row r="4464" spans="1:5">
@@ -90416,7 +90416,7 @@
         <v>1.05</v>
       </c>
       <c r="E4488">
-        <v>3.12</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="4489" spans="1:5">
@@ -90433,7 +90433,7 @@
         <v>4.55</v>
       </c>
       <c r="E4489">
-        <v>3.26</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="4490" spans="1:5">
@@ -90450,7 +90450,7 @@
         <v>0</v>
       </c>
       <c r="E4490">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4491" spans="1:5">
@@ -90467,7 +90467,7 @@
         <v>0</v>
       </c>
       <c r="E4491">
-        <v>0</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="4492" spans="1:5">
@@ -90688,7 +90688,7 @@
         <v>0</v>
       </c>
       <c r="E4504">
-        <v>0</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="4505" spans="1:5">
@@ -90705,7 +90705,7 @@
         <v>0</v>
       </c>
       <c r="E4505">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4506" spans="1:5">
@@ -90722,7 +90722,7 @@
         <v>0</v>
       </c>
       <c r="E4506">
-        <v>0</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="4507" spans="1:5">
@@ -90909,7 +90909,7 @@
         <v>-1.84</v>
       </c>
       <c r="E4517">
-        <v>-2.42</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="4518" spans="1:5">
@@ -90943,7 +90943,7 @@
         <v>0</v>
       </c>
       <c r="E4519">
-        <v>0</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="4520" spans="1:5">
@@ -90960,7 +90960,7 @@
         <v>22.74</v>
       </c>
       <c r="E4520">
-        <v>-14.23</v>
+        <v>-16.02</v>
       </c>
     </row>
     <row r="4521" spans="1:5">
@@ -90977,7 +90977,7 @@
         <v>-18.74</v>
       </c>
       <c r="E4521">
-        <v>12.33</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="4522" spans="1:5">
@@ -90994,7 +90994,7 @@
         <v>10.91</v>
       </c>
       <c r="E4522">
-        <v>-17.21</v>
+        <v>-19.33</v>
       </c>
     </row>
     <row r="4523" spans="1:5">
@@ -91079,7 +91079,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E4527">
-        <v>-11.52</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="4528" spans="1:5">
@@ -91096,7 +91096,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E4528">
-        <v>-11.52</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="4529" spans="1:5">
@@ -91113,7 +91113,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E4529">
-        <v>4.91</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="4530" spans="1:5">
@@ -91130,7 +91130,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4530">
-        <v>9.34</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="4531" spans="1:5">
@@ -91147,7 +91147,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4531">
-        <v>9.34</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="4532" spans="1:5">
@@ -91266,7 +91266,7 @@
         <v>0</v>
       </c>
       <c r="E4538">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4539" spans="1:5">
@@ -91283,7 +91283,7 @@
         <v>0</v>
       </c>
       <c r="E4539">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4540" spans="1:5">
@@ -91300,7 +91300,7 @@
         <v>0</v>
       </c>
       <c r="E4540">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4541" spans="1:5">
@@ -91317,7 +91317,7 @@
         <v>0</v>
       </c>
       <c r="E4541">
-        <v>0</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4542" spans="1:5">
@@ -91334,7 +91334,7 @@
         <v>0</v>
       </c>
       <c r="E4542">
-        <v>0</v>
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="4543" spans="1:5">
@@ -91351,7 +91351,7 @@
         <v>0</v>
       </c>
       <c r="E4543">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4544" spans="1:5">
@@ -91453,7 +91453,7 @@
         <v>3.45</v>
       </c>
       <c r="E4549">
-        <v>-1.47</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="4550" spans="1:5">
@@ -91538,7 +91538,7 @@
         <v>0</v>
       </c>
       <c r="E4554">
-        <v>11.7</v>
+        <v>8.77</v>
       </c>
     </row>
     <row r="4555" spans="1:5">
@@ -91946,7 +91946,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="E4578">
-        <v>0.5700000000000001</v>
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>19.42</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>22.82</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -15089,7 +15089,7 @@
         <v>18.12</v>
       </c>
       <c r="E57">
-        <v>1.43</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15242,7 +15242,7 @@
         <v>0.11</v>
       </c>
       <c r="E66">
-        <v>9.44</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -15259,7 +15259,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E67">
-        <v>2.18</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -15548,7 +15548,7 @@
         <v>3.24</v>
       </c>
       <c r="E84">
-        <v>-1.57</v>
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -15582,7 +15582,7 @@
         <v>3.09</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -15837,7 +15837,7 @@
         <v>-9.26</v>
       </c>
       <c r="E101">
-        <v>5.92</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -15922,7 +15922,7 @@
         <v>-8.25</v>
       </c>
       <c r="E106">
-        <v>3.74</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -15939,7 +15939,7 @@
         <v>-12.91</v>
       </c>
       <c r="E107">
-        <v>10.5</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -15956,7 +15956,7 @@
         <v>33.1</v>
       </c>
       <c r="E108">
-        <v>-17.95</v>
+        <v>-19.42</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -15973,7 +15973,7 @@
         <v>14.66</v>
       </c>
       <c r="E109">
-        <v>-17.12</v>
+        <v>-18.25</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -16177,7 +16177,7 @@
         <v>-10.77</v>
       </c>
       <c r="E121">
-        <v>1.34</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -16194,7 +16194,7 @@
         <v>-10.77</v>
       </c>
       <c r="E122">
-        <v>6.54</v>
+        <v>7.670000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -16228,7 +16228,7 @@
         <v>6.78</v>
       </c>
       <c r="E124">
-        <v>-13.88</v>
+        <v>-14.79</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -16245,7 +16245,7 @@
         <v>-20.3</v>
       </c>
       <c r="E125">
-        <v>17.03</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -16296,7 +16296,7 @@
         <v>4.68</v>
       </c>
       <c r="E128">
-        <v>-9.220000000000001</v>
+        <v>-11.1</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -16398,7 +16398,7 @@
         <v>-13.96</v>
       </c>
       <c r="E134">
-        <v>6.78</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>-25.18</v>
+        <v>-26.85</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -16466,7 +16466,7 @@
         <v>31.84</v>
       </c>
       <c r="E138">
-        <v>-25.18</v>
+        <v>-26.85</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>-25.18</v>
+        <v>-26.85</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>-25.18</v>
+        <v>-26.85</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -16585,7 +16585,7 @@
         <v>10.86</v>
       </c>
       <c r="E145">
-        <v>-2.19</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -16636,7 +16636,7 @@
         <v>-9.24</v>
       </c>
       <c r="E148">
-        <v>6.370000000000001</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -16738,7 +16738,7 @@
         <v>-9.59</v>
       </c>
       <c r="E154">
-        <v>27.49</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -16806,7 +16806,7 @@
         <v>12.85</v>
       </c>
       <c r="E158">
-        <v>26.04</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -17622,7 +17622,7 @@
         <v>-16.92</v>
       </c>
       <c r="E206">
-        <v>26.73</v>
+        <v>28.53</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -17639,7 +17639,7 @@
         <v>-10.11</v>
       </c>
       <c r="E207">
-        <v>14.73</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -17724,7 +17724,7 @@
         <v>13.21</v>
       </c>
       <c r="E212">
-        <v>-8.58</v>
+        <v>-9.610000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -17775,7 +17775,7 @@
         <v>5.84</v>
       </c>
       <c r="E215">
-        <v>-2.07</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -18200,7 +18200,7 @@
         <v>-14.63</v>
       </c>
       <c r="E240">
-        <v>11.02</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -18251,7 +18251,7 @@
         <v>-12.32</v>
       </c>
       <c r="E243">
-        <v>-3.92</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="E246">
-        <v>3.3</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -18353,7 +18353,7 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <v>-5.62</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -18387,7 +18387,7 @@
         <v>-20.57</v>
       </c>
       <c r="E251">
-        <v>2.01</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -18404,7 +18404,7 @@
         <v>-14.54</v>
       </c>
       <c r="E252">
-        <v>-1.27</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -18455,7 +18455,7 @@
         <v>-5.319999999999999</v>
       </c>
       <c r="E255">
-        <v>-1.1</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>-1.35</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>-2.71</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -18540,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>-5.149999999999999</v>
+        <v>-8.25</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -18761,7 +18761,7 @@
         <v>-2.77</v>
       </c>
       <c r="E273">
-        <v>-6.02</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -18778,7 +18778,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="E274">
-        <v>-1.39</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -19033,7 +19033,7 @@
         <v>-5.38</v>
       </c>
       <c r="E289">
-        <v>-9.26</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -19220,7 +19220,7 @@
         <v>2.01</v>
       </c>
       <c r="E300">
-        <v>-16.56</v>
+        <v>-13.61</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>-7.630000000000001</v>
+        <v>-11.33</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -19305,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>-5.24</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>-2.43</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>-1.88</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>2.03</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -19475,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>-2.51</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -19560,7 +19560,7 @@
         <v>-3.06</v>
       </c>
       <c r="E320">
-        <v>-9.300000000000001</v>
+        <v>-8.630000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -19628,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>-6.12</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>-5.64</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>-5.24</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -20172,7 +20172,7 @@
         <v>-3.06</v>
       </c>
       <c r="E356">
-        <v>-1.63</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -20580,7 +20580,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>3.85</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -20631,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>-15.05</v>
+        <v>-16.05</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -21872,7 +21872,7 @@
         <v>2.8</v>
       </c>
       <c r="E456">
-        <v>1.99</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -21889,7 +21889,7 @@
         <v>1.26</v>
       </c>
       <c r="E457">
-        <v>0.41</v>
+        <v>0.9299999999999999</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -21906,7 +21906,7 @@
         <v>2.65</v>
       </c>
       <c r="E458">
-        <v>24.14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -21940,7 +21940,7 @@
         <v>-7.93</v>
       </c>
       <c r="E460">
-        <v>22.52</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -21957,7 +21957,7 @@
         <v>-7.93</v>
       </c>
       <c r="E461">
-        <v>22.52</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -21974,7 +21974,7 @@
         <v>-7.93</v>
       </c>
       <c r="E462">
-        <v>22.52</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -21991,7 +21991,7 @@
         <v>-7.93</v>
       </c>
       <c r="E463">
-        <v>22.52</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -22059,7 +22059,7 @@
         <v>-12.93</v>
       </c>
       <c r="E467">
-        <v>3.12</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -22110,7 +22110,7 @@
         <v>-5.79</v>
       </c>
       <c r="E470">
-        <v>-6.959999999999999</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -22246,7 +22246,7 @@
         <v>-3.12</v>
       </c>
       <c r="E478">
-        <v>-5.29</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -22263,7 +22263,7 @@
         <v>-3.12</v>
       </c>
       <c r="E479">
-        <v>-3.68</v>
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -22365,7 +22365,7 @@
         <v>-2.25</v>
       </c>
       <c r="E485">
-        <v>2.85</v>
+        <v>8.619999999999999</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -22467,7 +22467,7 @@
         <v>-1.2</v>
       </c>
       <c r="E491">
-        <v>-14.04</v>
+        <v>-14.56</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -22484,7 +22484,7 @@
         <v>-1.2</v>
       </c>
       <c r="E492">
-        <v>-3.64</v>
+        <v>-6.239999999999999</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -22501,7 +22501,7 @@
         <v>-2</v>
       </c>
       <c r="E493">
-        <v>8.35</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -22518,7 +22518,7 @@
         <v>-2</v>
       </c>
       <c r="E494">
-        <v>8.35</v>
+        <v>8.91</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -22535,7 +22535,7 @@
         <v>-12.39</v>
       </c>
       <c r="E495">
-        <v>15.15</v>
+        <v>16.16</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -22603,7 +22603,7 @@
         <v>-8.959999999999999</v>
       </c>
       <c r="E499">
-        <v>1.71</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -22671,7 +22671,7 @@
         <v>5.94</v>
       </c>
       <c r="E503">
-        <v>-2.12</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -22688,7 +22688,7 @@
         <v>5.94</v>
       </c>
       <c r="E504">
-        <v>-2.12</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -22705,7 +22705,7 @@
         <v>5.94</v>
       </c>
       <c r="E505">
-        <v>-2.12</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -22722,7 +22722,7 @@
         <v>5.94</v>
       </c>
       <c r="E506">
-        <v>-2.12</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>6.18</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>-6.890000000000001</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="E515">
-        <v>-4.52</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="E516">
-        <v>-4.52</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -22909,7 +22909,7 @@
         <v>1.46</v>
       </c>
       <c r="E517">
-        <v>-0.54</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -22926,7 +22926,7 @@
         <v>0</v>
       </c>
       <c r="E518">
-        <v>6.18</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -22943,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="E519">
-        <v>-6.890000000000001</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="E520">
-        <v>-6.890000000000001</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -23096,7 +23096,7 @@
         <v>15.22</v>
       </c>
       <c r="E528">
-        <v>28.23</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -23368,7 +23368,7 @@
         <v>-6.79</v>
       </c>
       <c r="E544">
-        <v>0.91</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -23487,7 +23487,7 @@
         <v>0</v>
       </c>
       <c r="E551">
-        <v>-6.88</v>
+        <v>-7.380000000000001</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="E554">
-        <v>-0.86</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -23674,7 +23674,7 @@
         <v>9.73</v>
       </c>
       <c r="E562">
-        <v>14.07</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="E575">
-        <v>-15.09</v>
+        <v>-16.02</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -23946,7 +23946,7 @@
         <v>-8.81</v>
       </c>
       <c r="E578">
-        <v>1.14</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="E591">
-        <v>1.32</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -24303,7 +24303,7 @@
         <v>-4.17</v>
       </c>
       <c r="E599">
-        <v>-13.44</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -24320,7 +24320,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="E600">
-        <v>1.1</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -24337,7 +24337,7 @@
         <v>0</v>
       </c>
       <c r="E601">
-        <v>7.52</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -24354,7 +24354,7 @@
         <v>2.75</v>
       </c>
       <c r="E602">
-        <v>9.289999999999999</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -24371,7 +24371,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="E603">
-        <v>-16.57</v>
+        <v>-11.05</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -24388,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="E604">
-        <v>4.35</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -24592,7 +24592,7 @@
         <v>0</v>
       </c>
       <c r="E616">
-        <v>3.13</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E617">
-        <v>6.44</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -24626,7 +24626,7 @@
         <v>0</v>
       </c>
       <c r="E618">
-        <v>6.44</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="E619">
-        <v>6.44</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -24796,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="E628">
-        <v>-17.73</v>
+        <v>-19.06</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -24847,7 +24847,7 @@
         <v>0.6</v>
       </c>
       <c r="E631">
-        <v>-7.39</v>
+        <v>-9.180000000000001</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -25119,7 +25119,7 @@
         <v>4.74</v>
       </c>
       <c r="E647">
-        <v>-7.539999999999999</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -25136,7 +25136,7 @@
         <v>4.74</v>
       </c>
       <c r="E648">
-        <v>-7.539999999999999</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25153,7 +25153,7 @@
         <v>4.74</v>
       </c>
       <c r="E649">
-        <v>-7.539999999999999</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -25170,7 +25170,7 @@
         <v>0.79</v>
       </c>
       <c r="E650">
-        <v>0.52</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -25221,7 +25221,7 @@
         <v>9.1</v>
       </c>
       <c r="E653">
-        <v>10.73</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -25255,7 +25255,7 @@
         <v>-8.81</v>
       </c>
       <c r="E655">
-        <v>1.14</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -25357,7 +25357,7 @@
         <v>-6.79</v>
       </c>
       <c r="E661">
-        <v>0.91</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -25476,7 +25476,7 @@
         <v>15.91</v>
       </c>
       <c r="E668">
-        <v>-10.92</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="E678">
-        <v>-5.01</v>
+        <v>-8.02</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -25680,7 +25680,7 @@
         <v>-9.550000000000001</v>
       </c>
       <c r="E680">
-        <v>6.529999999999999</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -25714,7 +25714,7 @@
         <v>0</v>
       </c>
       <c r="E682">
-        <v>22.42</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
       <c r="E683">
-        <v>22.42</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -25748,7 +25748,7 @@
         <v>0</v>
       </c>
       <c r="E684">
-        <v>22.42</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="E689">
-        <v>-1.09</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -25850,7 +25850,7 @@
         <v>-5.74</v>
       </c>
       <c r="E690">
-        <v>0.7799999999999999</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -25969,7 +25969,7 @@
         <v>0</v>
       </c>
       <c r="E697">
-        <v>99.40000000000001</v>
+        <v>106.02</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -26292,7 +26292,7 @@
         <v>-2.39</v>
       </c>
       <c r="E716">
-        <v>-1.83</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -26309,7 +26309,7 @@
         <v>-1.06</v>
       </c>
       <c r="E717">
-        <v>-0.8099999999999999</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -26326,7 +26326,7 @@
         <v>12.21</v>
       </c>
       <c r="E718">
-        <v>-1.18</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -26343,7 +26343,7 @@
         <v>3.95</v>
       </c>
       <c r="E719">
-        <v>-1.42</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -26598,7 +26598,7 @@
         <v>1.86</v>
       </c>
       <c r="E734">
-        <v>-8.790000000000001</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="E736">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -26666,7 +26666,7 @@
         <v>7.720000000000001</v>
       </c>
       <c r="E738">
-        <v>-8.790000000000001</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -26717,7 +26717,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E741">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -26734,7 +26734,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E742">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -26785,7 +26785,7 @@
         <v>-1.68</v>
       </c>
       <c r="E745">
-        <v>-1.29</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -26819,7 +26819,7 @@
         <v>-1.68</v>
       </c>
       <c r="E747">
-        <v>-1.29</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -27108,7 +27108,7 @@
         <v>0</v>
       </c>
       <c r="E764">
-        <v>-3.51</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -27125,7 +27125,7 @@
         <v>0</v>
       </c>
       <c r="E765">
-        <v>-3.38</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -27244,7 +27244,7 @@
         <v>-12.82</v>
       </c>
       <c r="E772">
-        <v>-3.48</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="E773">
-        <v>-6.54</v>
+        <v>-6.959999999999999</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -27278,7 +27278,7 @@
         <v>0</v>
       </c>
       <c r="E774">
-        <v>1.23</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -27312,7 +27312,7 @@
         <v>0</v>
       </c>
       <c r="E776">
-        <v>-4.130000000000001</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -27346,7 +27346,7 @@
         <v>0</v>
       </c>
       <c r="E778">
-        <v>-4.130000000000001</v>
+        <v>-4.41</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="E802">
-        <v>8.5</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="E807">
-        <v>-35.68</v>
+        <v>-38.06</v>
       </c>
     </row>
     <row r="808" spans="1:5">
@@ -27856,7 +27856,7 @@
         <v>16.67</v>
       </c>
       <c r="E808">
-        <v>-29.57</v>
+        <v>-32.17</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="E809">
-        <v>-35.68</v>
+        <v>-38.06</v>
       </c>
     </row>
     <row r="810" spans="1:5">
@@ -27890,7 +27890,7 @@
         <v>0</v>
       </c>
       <c r="E810">
-        <v>-35.68</v>
+        <v>-38.06</v>
       </c>
     </row>
     <row r="811" spans="1:5">
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="E811">
-        <v>-35.68</v>
+        <v>-38.06</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -28145,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="E825">
-        <v>6.35</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="826" spans="1:5">
@@ -28162,7 +28162,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E826">
-        <v>0.27</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="827" spans="1:5">
@@ -28961,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="E873">
-        <v>-5.73</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="874" spans="1:5">
@@ -29063,7 +29063,7 @@
         <v>0</v>
       </c>
       <c r="E879">
-        <v>-17.35</v>
+        <v>-18.47</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="E890">
-        <v>-5.79</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="891" spans="1:5">
@@ -29267,7 +29267,7 @@
         <v>7.41</v>
       </c>
       <c r="E891">
-        <v>-3.01</v>
+        <v>-4.84</v>
       </c>
     </row>
     <row r="892" spans="1:5">
@@ -29284,7 +29284,7 @@
         <v>8.25</v>
       </c>
       <c r="E892">
-        <v>-3.13</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="893" spans="1:5">
@@ -29522,7 +29522,7 @@
         <v>-8.210000000000001</v>
       </c>
       <c r="E906">
-        <v>9.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="907" spans="1:5">
@@ -29879,7 +29879,7 @@
         <v>-9.73</v>
       </c>
       <c r="E927">
-        <v>18.8</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="928" spans="1:5">
@@ -29896,7 +29896,7 @@
         <v>-12.2</v>
       </c>
       <c r="E928">
-        <v>14.29</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="929" spans="1:5">
@@ -29913,7 +29913,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E929">
-        <v>4.18</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="930" spans="1:5">
@@ -29947,7 +29947,7 @@
         <v>-3.92</v>
       </c>
       <c r="E931">
-        <v>7.21</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="932" spans="1:5">
@@ -29981,7 +29981,7 @@
         <v>-2.42</v>
       </c>
       <c r="E933">
-        <v>-1.95</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="934" spans="1:5">
@@ -30015,7 +30015,7 @@
         <v>-2.42</v>
       </c>
       <c r="E935">
-        <v>-1.95</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -30049,7 +30049,7 @@
         <v>-2.42</v>
       </c>
       <c r="E937">
-        <v>-1.95</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="938" spans="1:5">
@@ -30100,7 +30100,7 @@
         <v>-7.61</v>
       </c>
       <c r="E940">
-        <v>1.2</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="941" spans="1:5">
@@ -30151,7 +30151,7 @@
         <v>0.22</v>
       </c>
       <c r="E943">
-        <v>-1.33</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="944" spans="1:5">
@@ -30168,7 +30168,7 @@
         <v>1.07</v>
       </c>
       <c r="E944">
-        <v>15.68</v>
+        <v>17.16</v>
       </c>
     </row>
     <row r="945" spans="1:5">
@@ -30219,7 +30219,7 @@
         <v>-5.21</v>
       </c>
       <c r="E947">
-        <v>9.710000000000001</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -30253,7 +30253,7 @@
         <v>-2.32</v>
       </c>
       <c r="E949">
-        <v>0</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="950" spans="1:5">
@@ -30287,7 +30287,7 @@
         <v>42.56</v>
       </c>
       <c r="E951">
-        <v>-0.8699999999999999</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="952" spans="1:5">
@@ -30321,7 +30321,7 @@
         <v>30.52</v>
       </c>
       <c r="E953">
-        <v>7.720000000000001</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="954" spans="1:5">
@@ -30338,7 +30338,7 @@
         <v>26.72</v>
       </c>
       <c r="E954">
-        <v>16.55</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="955" spans="1:5">
@@ -30389,7 +30389,7 @@
         <v>-1.93</v>
       </c>
       <c r="E957">
-        <v>3.49</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="958" spans="1:5">
@@ -30406,7 +30406,7 @@
         <v>-1.61</v>
       </c>
       <c r="E958">
-        <v>2.73</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="959" spans="1:5">
@@ -30440,7 +30440,7 @@
         <v>-11.97</v>
       </c>
       <c r="E960">
-        <v>14.32</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="961" spans="1:5">
@@ -30491,7 +30491,7 @@
         <v>-12.53</v>
       </c>
       <c r="E963">
-        <v>15.19</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="964" spans="1:5">
@@ -30525,7 +30525,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="E965">
-        <v>15.19</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="966" spans="1:5">
@@ -30559,7 +30559,7 @@
         <v>-1.1</v>
       </c>
       <c r="E967">
-        <v>-1.79</v>
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="968" spans="1:5">
@@ -30576,7 +30576,7 @@
         <v>-2.15</v>
       </c>
       <c r="E968">
-        <v>-1.65</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="969" spans="1:5">
@@ -30593,7 +30593,7 @@
         <v>-7.51</v>
       </c>
       <c r="E969">
-        <v>14.32</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="970" spans="1:5">
@@ -30610,7 +30610,7 @@
         <v>-2.21</v>
       </c>
       <c r="E970">
-        <v>2.01</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="971" spans="1:5">
@@ -30627,7 +30627,7 @@
         <v>-3.29</v>
       </c>
       <c r="E971">
-        <v>6.01</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="972" spans="1:5">
@@ -30644,7 +30644,7 @@
         <v>-2.76</v>
       </c>
       <c r="E972">
-        <v>0</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="973" spans="1:5">
@@ -30661,7 +30661,7 @@
         <v>-1.8</v>
       </c>
       <c r="E973">
-        <v>6.18</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="974" spans="1:5">
@@ -30695,7 +30695,7 @@
         <v>0</v>
       </c>
       <c r="E975">
-        <v>15.48</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="976" spans="1:5">
@@ -30729,7 +30729,7 @@
         <v>3.55</v>
       </c>
       <c r="E977">
-        <v>-37.39</v>
+        <v>-39.19</v>
       </c>
     </row>
     <row r="978" spans="1:5">
@@ -30746,7 +30746,7 @@
         <v>-1.46</v>
       </c>
       <c r="E978">
-        <v>-1.07</v>
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="979" spans="1:5">
@@ -30797,7 +30797,7 @@
         <v>-7.779999999999999</v>
       </c>
       <c r="E981">
-        <v>14.86</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="982" spans="1:5">
@@ -30882,7 +30882,7 @@
         <v>11.14</v>
       </c>
       <c r="E986">
-        <v>6.94</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="987" spans="1:5">
@@ -30933,7 +30933,7 @@
         <v>-8.4</v>
       </c>
       <c r="E989">
-        <v>9.610000000000001</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="990" spans="1:5">
@@ -30950,7 +30950,7 @@
         <v>3.15</v>
       </c>
       <c r="E990">
-        <v>-1.02</v>
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="991" spans="1:5">
@@ -31052,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="E996">
-        <v>16.39</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="997" spans="1:5">
@@ -31069,7 +31069,7 @@
         <v>-5.65</v>
       </c>
       <c r="E997">
-        <v>-3.92</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="998" spans="1:5">
@@ -31086,7 +31086,7 @@
         <v>-3.8</v>
       </c>
       <c r="E998">
-        <v>6.69</v>
+        <v>7.290000000000001</v>
       </c>
     </row>
     <row r="999" spans="1:5">
@@ -31103,7 +31103,7 @@
         <v>-5.77</v>
       </c>
       <c r="E999">
-        <v>6.12</v>
+        <v>7.399999999999999</v>
       </c>
     </row>
     <row r="1000" spans="1:5">
@@ -31120,7 +31120,7 @@
         <v>-2.33</v>
       </c>
       <c r="E1000">
-        <v>5.489999999999999</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="1001" spans="1:5">
@@ -31188,7 +31188,7 @@
         <v>11.31</v>
       </c>
       <c r="E1004">
-        <v>-10.87</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="1005" spans="1:5">
@@ -31205,7 +31205,7 @@
         <v>11.31</v>
       </c>
       <c r="E1005">
-        <v>-10.87</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="1006" spans="1:5">
@@ -31239,7 +31239,7 @@
         <v>11.31</v>
       </c>
       <c r="E1007">
-        <v>-10.87</v>
+        <v>-11.59</v>
       </c>
     </row>
     <row r="1008" spans="1:5">
@@ -31256,7 +31256,7 @@
         <v>1.13</v>
       </c>
       <c r="E1008">
-        <v>22.3</v>
+        <v>23.79</v>
       </c>
     </row>
     <row r="1009" spans="1:5">
@@ -31307,7 +31307,7 @@
         <v>1.32</v>
       </c>
       <c r="E1011">
-        <v>-0.49</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="1012" spans="1:5">
@@ -31341,7 +31341,7 @@
         <v>1.58</v>
       </c>
       <c r="E1013">
-        <v>-0.58</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="1014" spans="1:5">
@@ -31392,7 +31392,7 @@
         <v>-5.21</v>
       </c>
       <c r="E1016">
-        <v>9.710000000000001</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="1017" spans="1:5">
@@ -31409,7 +31409,7 @@
         <v>-5.67</v>
       </c>
       <c r="E1017">
-        <v>10.62</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="1018" spans="1:5">
@@ -31426,7 +31426,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="E1018">
-        <v>3.84</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="1019" spans="1:5">
@@ -31443,7 +31443,7 @@
         <v>-0.95</v>
       </c>
       <c r="E1019">
-        <v>0.72</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="1020" spans="1:5">
@@ -31460,7 +31460,7 @@
         <v>-2.16</v>
       </c>
       <c r="E1020">
-        <v>3.9</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="1021" spans="1:5">
@@ -31477,7 +31477,7 @@
         <v>-4.04</v>
       </c>
       <c r="E1021">
-        <v>5.01</v>
+        <v>5.609999999999999</v>
       </c>
     </row>
     <row r="1022" spans="1:5">
@@ -31545,7 +31545,7 @@
         <v>-23.52</v>
       </c>
       <c r="E1025">
-        <v>7.73</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="1026" spans="1:5">
@@ -31681,7 +31681,7 @@
         <v>-6.13</v>
       </c>
       <c r="E1033">
-        <v>4.91</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="1034" spans="1:5">
@@ -31919,7 +31919,7 @@
         <v>0</v>
       </c>
       <c r="E1047">
-        <v>23.88</v>
+        <v>25.46</v>
       </c>
     </row>
     <row r="1048" spans="1:5">
@@ -32480,7 +32480,7 @@
         <v>0</v>
       </c>
       <c r="E1080">
-        <v>3.95</v>
+        <v>6.370000000000001</v>
       </c>
     </row>
     <row r="1081" spans="1:5">
@@ -32582,7 +32582,7 @@
         <v>0</v>
       </c>
       <c r="E1086">
-        <v>-1.17</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="1087" spans="1:5">
@@ -32650,7 +32650,7 @@
         <v>4.33</v>
       </c>
       <c r="E1090">
-        <v>-3.87</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="1091" spans="1:5">
@@ -32786,7 +32786,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1098">
-        <v>-3.38</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -32820,7 +32820,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1100">
-        <v>0.5599999999999999</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="1101" spans="1:5">
@@ -32837,7 +32837,7 @@
         <v>-7.61</v>
       </c>
       <c r="E1101">
-        <v>-9.890000000000001</v>
+        <v>-9.17</v>
       </c>
     </row>
     <row r="1102" spans="1:5">
@@ -32854,7 +32854,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1102">
-        <v>0.5599999999999999</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="1103" spans="1:5">
@@ -32888,7 +32888,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1104">
-        <v>0.5599999999999999</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="1105" spans="1:5">
@@ -32922,7 +32922,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1106">
-        <v>0.5599999999999999</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
@@ -32939,7 +32939,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1107">
-        <v>0.5599999999999999</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="1108" spans="1:5">
@@ -33075,7 +33075,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1115">
-        <v>-16.21</v>
+        <v>-17.05</v>
       </c>
     </row>
     <row r="1116" spans="1:5">
@@ -33092,7 +33092,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1116">
-        <v>-16.21</v>
+        <v>-17.05</v>
       </c>
     </row>
     <row r="1117" spans="1:5">
@@ -33160,7 +33160,7 @@
         <v>0</v>
       </c>
       <c r="E1120">
-        <v>-17.33</v>
+        <v>-18.49</v>
       </c>
     </row>
     <row r="1121" spans="1:5">
@@ -33177,7 +33177,7 @@
         <v>3.55</v>
       </c>
       <c r="E1121">
-        <v>-14.5</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="1122" spans="1:5">
@@ -33211,7 +33211,7 @@
         <v>3.55</v>
       </c>
       <c r="E1123">
-        <v>-14.5</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="1124" spans="1:5">
@@ -33228,7 +33228,7 @@
         <v>2.14</v>
       </c>
       <c r="E1124">
-        <v>0.5700000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="1125" spans="1:5">
@@ -33245,7 +33245,7 @@
         <v>2.14</v>
       </c>
       <c r="E1125">
-        <v>0.5700000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="1126" spans="1:5">
@@ -33262,7 +33262,7 @@
         <v>2.14</v>
       </c>
       <c r="E1126">
-        <v>0.5700000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="1127" spans="1:5">
@@ -33279,7 +33279,7 @@
         <v>2.14</v>
       </c>
       <c r="E1127">
-        <v>0.5700000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="1128" spans="1:5">
@@ -33296,7 +33296,7 @@
         <v>2.14</v>
       </c>
       <c r="E1128">
-        <v>0.5700000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="1129" spans="1:5">
@@ -33313,7 +33313,7 @@
         <v>2.14</v>
       </c>
       <c r="E1129">
-        <v>0.5700000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="1130" spans="1:5">
@@ -33330,7 +33330,7 @@
         <v>2.14</v>
       </c>
       <c r="E1130">
-        <v>0.5700000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="1131" spans="1:5">
@@ -33364,7 +33364,7 @@
         <v>2.14</v>
       </c>
       <c r="E1132">
-        <v>0.5700000000000001</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
@@ -33568,7 +33568,7 @@
         <v>0</v>
       </c>
       <c r="E1144">
-        <v>10.25</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="1145" spans="1:5">
@@ -33585,7 +33585,7 @@
         <v>0</v>
       </c>
       <c r="E1145">
-        <v>10.25</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="1146" spans="1:5">
@@ -33602,7 +33602,7 @@
         <v>0</v>
       </c>
       <c r="E1146">
-        <v>10.25</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="1147" spans="1:5">
@@ -33619,7 +33619,7 @@
         <v>0</v>
       </c>
       <c r="E1147">
-        <v>10.25</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="1148" spans="1:5">
@@ -33806,7 +33806,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1158">
-        <v>-7.41</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="1159" spans="1:5">
@@ -33942,7 +33942,7 @@
         <v>0</v>
       </c>
       <c r="E1166">
-        <v>14.49</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="1167" spans="1:5">
@@ -34027,7 +34027,7 @@
         <v>2.19</v>
       </c>
       <c r="E1171">
-        <v>0.5499999999999999</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="1172" spans="1:5">
@@ -34044,7 +34044,7 @@
         <v>2.19</v>
       </c>
       <c r="E1172">
-        <v>0.5499999999999999</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="1173" spans="1:5">
@@ -34061,7 +34061,7 @@
         <v>3.56</v>
       </c>
       <c r="E1173">
-        <v>1.12</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="1174" spans="1:5">
@@ -34095,7 +34095,7 @@
         <v>10.86</v>
       </c>
       <c r="E1175">
-        <v>-5.7</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="1176" spans="1:5">
@@ -34112,7 +34112,7 @@
         <v>-1.91</v>
       </c>
       <c r="E1176">
-        <v>0.5</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="1177" spans="1:5">
@@ -34129,7 +34129,7 @@
         <v>-0.67</v>
       </c>
       <c r="E1177">
-        <v>-0.53</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="1178" spans="1:5">
@@ -34146,7 +34146,7 @@
         <v>-0.84</v>
       </c>
       <c r="E1178">
-        <v>0.23</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="1179" spans="1:5">
@@ -34163,7 +34163,7 @@
         <v>-1.55</v>
       </c>
       <c r="E1179">
-        <v>-0.38</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="1180" spans="1:5">
@@ -34180,7 +34180,7 @@
         <v>0</v>
       </c>
       <c r="E1180">
-        <v>20.5</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="1181" spans="1:5">
@@ -34231,7 +34231,7 @@
         <v>0</v>
       </c>
       <c r="E1183">
-        <v>4.17</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="1184" spans="1:5">
@@ -34282,7 +34282,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="E1186">
-        <v>1.05</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="1187" spans="1:5">
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="E1211">
-        <v>-3.96</v>
+        <v>-6.329999999999999</v>
       </c>
     </row>
     <row r="1212" spans="1:5">
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="E1216">
-        <v>-2.78</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="1217" spans="1:5">
@@ -35047,7 +35047,7 @@
         <v>0</v>
       </c>
       <c r="E1231">
-        <v>-5.7</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="1232" spans="1:5">
@@ -35336,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="E1248">
-        <v>26.89</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="1249" spans="1:5">
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="E1252">
-        <v>2.65</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="1253" spans="1:5">
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="E1253">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="1254" spans="1:5">
@@ -35455,7 +35455,7 @@
         <v>0</v>
       </c>
       <c r="E1255">
-        <v>2.65</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="1256" spans="1:5">
@@ -35472,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="E1256">
-        <v>2.65</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="1257" spans="1:5">
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="E1257">
-        <v>-1.11</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="1258" spans="1:5">
@@ -35591,7 +35591,7 @@
         <v>49.34</v>
       </c>
       <c r="E1263">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1264" spans="1:5">
@@ -35608,7 +35608,7 @@
         <v>49.34</v>
       </c>
       <c r="E1264">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1265" spans="1:5">
@@ -35625,7 +35625,7 @@
         <v>49.34</v>
       </c>
       <c r="E1265">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1266" spans="1:5">
@@ -35642,7 +35642,7 @@
         <v>49.34</v>
       </c>
       <c r="E1266">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1267" spans="1:5">
@@ -35659,7 +35659,7 @@
         <v>49.34</v>
       </c>
       <c r="E1267">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1268" spans="1:5">
@@ -35676,7 +35676,7 @@
         <v>19.23</v>
       </c>
       <c r="E1268">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1269" spans="1:5">
@@ -35693,7 +35693,7 @@
         <v>49.34</v>
       </c>
       <c r="E1269">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1270" spans="1:5">
@@ -35710,7 +35710,7 @@
         <v>49.34</v>
       </c>
       <c r="E1270">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1271" spans="1:5">
@@ -35727,7 +35727,7 @@
         <v>49.34</v>
       </c>
       <c r="E1271">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1272" spans="1:5">
@@ -35744,7 +35744,7 @@
         <v>49.34</v>
       </c>
       <c r="E1272">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1273" spans="1:5">
@@ -35761,7 +35761,7 @@
         <v>49.34</v>
       </c>
       <c r="E1273">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1274" spans="1:5">
@@ -35778,7 +35778,7 @@
         <v>49.34</v>
       </c>
       <c r="E1274">
-        <v>-21.64</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="1275" spans="1:5">
@@ -36067,7 +36067,7 @@
         <v>0</v>
       </c>
       <c r="E1291">
-        <v>11.55</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="1292" spans="1:5">
@@ -36390,7 +36390,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1310">
-        <v>4.03</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="1311" spans="1:5">
@@ -36407,7 +36407,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1311">
-        <v>4.03</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="1312" spans="1:5">
@@ -36543,7 +36543,7 @@
         <v>12.12</v>
       </c>
       <c r="E1319">
-        <v>-15.25</v>
+        <v>-16.46</v>
       </c>
     </row>
     <row r="1320" spans="1:5">
@@ -36560,7 +36560,7 @@
         <v>-17.82</v>
       </c>
       <c r="E1320">
-        <v>16.26</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="1321" spans="1:5">
@@ -36577,7 +36577,7 @@
         <v>16.63</v>
       </c>
       <c r="E1321">
-        <v>-15.25</v>
+        <v>-16.46</v>
       </c>
     </row>
     <row r="1322" spans="1:5">
@@ -36883,7 +36883,7 @@
         <v>-6.01</v>
       </c>
       <c r="E1339">
-        <v>4.8</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="1340" spans="1:5">
@@ -36900,7 +36900,7 @@
         <v>4.88</v>
       </c>
       <c r="E1340">
-        <v>-1.73</v>
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -36934,7 +36934,7 @@
         <v>8.35</v>
       </c>
       <c r="E1342">
-        <v>4.79</v>
+        <v>6.140000000000001</v>
       </c>
     </row>
     <row r="1343" spans="1:5">
@@ -36968,7 +36968,7 @@
         <v>0</v>
       </c>
       <c r="E1344">
-        <v>-28.16</v>
+        <v>-30.04</v>
       </c>
     </row>
     <row r="1345" spans="1:5">
@@ -37257,7 +37257,7 @@
         <v>0</v>
       </c>
       <c r="E1361">
-        <v>-12.45</v>
+        <v>-13.23</v>
       </c>
     </row>
     <row r="1362" spans="1:5">
@@ -37682,7 +37682,7 @@
         <v>1.69</v>
       </c>
       <c r="E1386">
-        <v>-3.75</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="1387" spans="1:5">
@@ -37818,7 +37818,7 @@
         <v>-11.46</v>
       </c>
       <c r="E1394">
-        <v>30.78</v>
+        <v>31.96</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -37852,7 +37852,7 @@
         <v>0</v>
       </c>
       <c r="E1396">
-        <v>3.76</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="1397" spans="1:5">
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="E1398">
-        <v>2.49</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E1400">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -38005,7 +38005,7 @@
         <v>17.35</v>
       </c>
       <c r="E1405">
-        <v>-5.510000000000001</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -38022,7 +38022,7 @@
         <v>17.35</v>
       </c>
       <c r="E1406">
-        <v>-5.510000000000001</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="1407" spans="1:5">
@@ -38039,7 +38039,7 @@
         <v>17.35</v>
       </c>
       <c r="E1407">
-        <v>-5.510000000000001</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38141,7 +38141,7 @@
         <v>0</v>
       </c>
       <c r="E1413">
-        <v>0</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="1414" spans="1:5">
@@ -38498,7 +38498,7 @@
         <v>23.85</v>
       </c>
       <c r="E1434">
-        <v>-24.23</v>
+        <v>-25.82</v>
       </c>
     </row>
     <row r="1435" spans="1:5">
@@ -38668,7 +38668,7 @@
         <v>-6.99</v>
       </c>
       <c r="E1444">
-        <v>39.83</v>
+        <v>42.34</v>
       </c>
     </row>
     <row r="1445" spans="1:5">
@@ -38804,7 +38804,7 @@
         <v>0</v>
       </c>
       <c r="E1452">
-        <v>-9.130000000000001</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="1453" spans="1:5">
@@ -38821,7 +38821,7 @@
         <v>0</v>
       </c>
       <c r="E1453">
-        <v>-3.98</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -38923,7 +38923,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1459">
-        <v>9.289999999999999</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="1460" spans="1:5">
@@ -38940,7 +38940,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1460">
-        <v>9.289999999999999</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -38991,7 +38991,7 @@
         <v>0</v>
       </c>
       <c r="E1463">
-        <v>12.96</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -39059,7 +39059,7 @@
         <v>0.16</v>
       </c>
       <c r="E1467">
-        <v>12.25</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39501,7 +39501,7 @@
         <v>0</v>
       </c>
       <c r="E1493">
-        <v>8.359999999999999</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="1494" spans="1:5">
@@ -39722,7 +39722,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1506">
-        <v>24.55</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="1507" spans="1:5">
@@ -39739,7 +39739,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1507">
-        <v>24.55</v>
+        <v>26.22</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -39960,7 +39960,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1520">
-        <v>6.4</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -39977,7 +39977,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1521">
-        <v>6.4</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -39994,7 +39994,7 @@
         <v>10.9</v>
       </c>
       <c r="E1522">
-        <v>-0.13</v>
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40062,7 +40062,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1526">
-        <v>21.04</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40096,7 +40096,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1528">
-        <v>21.04</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40113,7 +40113,7 @@
         <v>0</v>
       </c>
       <c r="E1529">
-        <v>5.71</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="1530" spans="1:5">
@@ -40130,7 +40130,7 @@
         <v>4.78</v>
       </c>
       <c r="E1530">
-        <v>5.71</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -40147,7 +40147,7 @@
         <v>4.78</v>
       </c>
       <c r="E1531">
-        <v>5.71</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -40164,7 +40164,7 @@
         <v>4.78</v>
       </c>
       <c r="E1532">
-        <v>5.71</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -40181,7 +40181,7 @@
         <v>-0.58</v>
       </c>
       <c r="E1533">
-        <v>31.38</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40300,7 +40300,7 @@
         <v>0</v>
       </c>
       <c r="E1540">
-        <v>-2.31</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40351,7 +40351,7 @@
         <v>0</v>
       </c>
       <c r="E1543">
-        <v>-0.8099999999999999</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="1544" spans="1:5">
@@ -40368,7 +40368,7 @@
         <v>4.63</v>
       </c>
       <c r="E1544">
-        <v>7.149999999999999</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="E1545">
-        <v>-0.8099999999999999</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -41133,7 +41133,7 @@
         <v>0</v>
       </c>
       <c r="E1589">
-        <v>-6.84</v>
+        <v>-7.32</v>
       </c>
     </row>
     <row r="1590" spans="1:5">
@@ -41150,7 +41150,7 @@
         <v>6.329999999999999</v>
       </c>
       <c r="E1590">
-        <v>-3.88</v>
+        <v>-4.14</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -41167,7 +41167,7 @@
         <v>0</v>
       </c>
       <c r="E1591">
-        <v>-17.32</v>
+        <v>-18.48</v>
       </c>
     </row>
     <row r="1592" spans="1:5">
@@ -41184,7 +41184,7 @@
         <v>0</v>
       </c>
       <c r="E1592">
-        <v>-9.950000000000001</v>
+        <v>-10.62</v>
       </c>
     </row>
     <row r="1593" spans="1:5">
@@ -41388,7 +41388,7 @@
         <v>-10.26</v>
       </c>
       <c r="E1604">
-        <v>8.859999999999999</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="1605" spans="1:5">
@@ -41422,7 +41422,7 @@
         <v>-10.22</v>
       </c>
       <c r="E1606">
-        <v>8.51</v>
+        <v>9.139999999999999</v>
       </c>
     </row>
     <row r="1607" spans="1:5">
@@ -41677,7 +41677,7 @@
         <v>-38.58</v>
       </c>
       <c r="E1621">
-        <v>55.7</v>
+        <v>59.46</v>
       </c>
     </row>
     <row r="1622" spans="1:5">
@@ -41830,7 +41830,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E1630">
-        <v>6.32</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="1631" spans="1:5">
@@ -41881,7 +41881,7 @@
         <v>0</v>
       </c>
       <c r="E1633">
-        <v>-18.81</v>
+        <v>-20.06</v>
       </c>
     </row>
     <row r="1634" spans="1:5">
@@ -41915,7 +41915,7 @@
         <v>10.46</v>
       </c>
       <c r="E1635">
-        <v>2.99</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -41932,7 +41932,7 @@
         <v>18.21</v>
       </c>
       <c r="E1636">
-        <v>-11.56</v>
+        <v>-12.33</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -42051,7 +42051,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1643">
-        <v>5.390000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42068,7 +42068,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1644">
-        <v>-5.609999999999999</v>
+        <v>-8.75</v>
       </c>
     </row>
     <row r="1645" spans="1:5">
@@ -42085,7 +42085,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1645">
-        <v>5.390000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1646" spans="1:5">
@@ -42102,7 +42102,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1646">
-        <v>5.390000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1647" spans="1:5">
@@ -42119,7 +42119,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1647">
-        <v>18.07</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="1648" spans="1:5">
@@ -42136,7 +42136,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1648">
-        <v>5.390000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42272,7 +42272,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1656">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="1657" spans="1:5">
@@ -42289,7 +42289,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1657">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="1658" spans="1:5">
@@ -42306,7 +42306,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1658">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -42408,7 +42408,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1664">
-        <v>0.59</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1665" spans="1:5">
@@ -42442,7 +42442,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1666">
-        <v>0.59</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1667" spans="1:5">
@@ -42459,7 +42459,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1667">
-        <v>0.59</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1668" spans="1:5">
@@ -42476,7 +42476,7 @@
         <v>0.64</v>
       </c>
       <c r="E1668">
-        <v>5.3</v>
+        <v>6.819999999999999</v>
       </c>
     </row>
     <row r="1669" spans="1:5">
@@ -42493,7 +42493,7 @@
         <v>0.64</v>
       </c>
       <c r="E1669">
-        <v>5.3</v>
+        <v>6.819999999999999</v>
       </c>
     </row>
     <row r="1670" spans="1:5">
@@ -42510,7 +42510,7 @@
         <v>0.64</v>
       </c>
       <c r="E1670">
-        <v>5.3</v>
+        <v>6.819999999999999</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42527,7 +42527,7 @@
         <v>0.64</v>
       </c>
       <c r="E1671">
-        <v>5.3</v>
+        <v>6.819999999999999</v>
       </c>
     </row>
     <row r="1672" spans="1:5">
@@ -42595,7 +42595,7 @@
         <v>0</v>
       </c>
       <c r="E1675">
-        <v>-3.56</v>
+        <v>-7.95</v>
       </c>
     </row>
     <row r="1676" spans="1:5">
@@ -42612,7 +42612,7 @@
         <v>0</v>
       </c>
       <c r="E1676">
-        <v>-12.09</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42629,7 +42629,7 @@
         <v>0</v>
       </c>
       <c r="E1677">
-        <v>-12.09</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42782,7 +42782,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1686">
-        <v>33.08</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -42799,7 +42799,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1687">
-        <v>0.59</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1688" spans="1:5">
@@ -42816,7 +42816,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1688">
-        <v>0.59</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -42833,7 +42833,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1689">
-        <v>0.59</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1690" spans="1:5">
@@ -42867,7 +42867,7 @@
         <v>0.64</v>
       </c>
       <c r="E1691">
-        <v>5.3</v>
+        <v>6.819999999999999</v>
       </c>
     </row>
     <row r="1692" spans="1:5">
@@ -42884,7 +42884,7 @@
         <v>9.229999999999999</v>
       </c>
       <c r="E1692">
-        <v>-2.98</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="1693" spans="1:5">
@@ -42901,7 +42901,7 @@
         <v>0.64</v>
       </c>
       <c r="E1693">
-        <v>5.3</v>
+        <v>6.819999999999999</v>
       </c>
     </row>
     <row r="1694" spans="1:5">
@@ -42918,7 +42918,7 @@
         <v>0.64</v>
       </c>
       <c r="E1694">
-        <v>5.3</v>
+        <v>6.819999999999999</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -42935,7 +42935,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1695">
-        <v>0.59</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1696" spans="1:5">
@@ -42969,7 +42969,7 @@
         <v>0.64</v>
       </c>
       <c r="E1697">
-        <v>5.3</v>
+        <v>6.819999999999999</v>
       </c>
     </row>
     <row r="1698" spans="1:5">
@@ -43037,7 +43037,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1701">
-        <v>5.390000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1702" spans="1:5">
@@ -43088,7 +43088,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1704">
-        <v>4.04</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="1705" spans="1:5">
@@ -43190,7 +43190,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1710">
-        <v>4.04</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="1711" spans="1:5">
@@ -43445,7 +43445,7 @@
         <v>6.17</v>
       </c>
       <c r="E1725">
-        <v>-18.04</v>
+        <v>-19.24</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -43564,7 +43564,7 @@
         <v>2.8</v>
       </c>
       <c r="E1732">
-        <v>-2.62</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="1733" spans="1:5">
@@ -43581,7 +43581,7 @@
         <v>1.4</v>
       </c>
       <c r="E1733">
-        <v>-1.28</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="1734" spans="1:5">
@@ -43615,7 +43615,7 @@
         <v>0</v>
       </c>
       <c r="E1735">
-        <v>-12.7</v>
+        <v>-13.53</v>
       </c>
     </row>
     <row r="1736" spans="1:5">
@@ -44176,7 +44176,7 @@
         <v>-3.99</v>
       </c>
       <c r="E1768">
-        <v>-3.11</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="1769" spans="1:5">
@@ -44414,7 +44414,7 @@
         <v>0</v>
       </c>
       <c r="E1782">
-        <v>-13.49</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -44533,7 +44533,7 @@
         <v>0</v>
       </c>
       <c r="E1789">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="1790" spans="1:5">
@@ -45060,7 +45060,7 @@
         <v>-4.61</v>
       </c>
       <c r="E1820">
-        <v>8.27</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="1821" spans="1:5">
@@ -45077,7 +45077,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1821">
-        <v>-1.54</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="1822" spans="1:5">
@@ -45094,7 +45094,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1822">
-        <v>-1.54</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="1823" spans="1:5">
@@ -45111,7 +45111,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1823">
-        <v>-1.54</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="1824" spans="1:5">
@@ -45128,7 +45128,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1824">
-        <v>-1.54</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45145,7 +45145,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1825">
-        <v>-1.54</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45162,7 +45162,7 @@
         <v>1.53</v>
       </c>
       <c r="E1826">
-        <v>-3.55</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45179,7 +45179,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1827">
-        <v>-1.54</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="1828" spans="1:5">
@@ -45332,7 +45332,7 @@
         <v>8.57</v>
       </c>
       <c r="E1836">
-        <v>-3.07</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -45383,7 +45383,7 @@
         <v>8.57</v>
       </c>
       <c r="E1839">
-        <v>-3.07</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="1840" spans="1:5">
@@ -45400,7 +45400,7 @@
         <v>8.57</v>
       </c>
       <c r="E1840">
-        <v>-3.07</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="1841" spans="1:5">
@@ -45417,7 +45417,7 @@
         <v>8.57</v>
       </c>
       <c r="E1841">
-        <v>-3.07</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="1842" spans="1:5">
@@ -45434,7 +45434,7 @@
         <v>8.57</v>
       </c>
       <c r="E1842">
-        <v>-3.07</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="1843" spans="1:5">
@@ -45451,7 +45451,7 @@
         <v>8.57</v>
       </c>
       <c r="E1843">
-        <v>-3.07</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="1844" spans="1:5">
@@ -45502,7 +45502,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1846">
-        <v>49.7</v>
+        <v>39.78</v>
       </c>
     </row>
     <row r="1847" spans="1:5">
@@ -45519,7 +45519,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1847">
-        <v>49.7</v>
+        <v>39.78</v>
       </c>
     </row>
     <row r="1848" spans="1:5">
@@ -46097,7 +46097,7 @@
         <v>0</v>
       </c>
       <c r="E1881">
-        <v>-11.58</v>
+        <v>-12.36</v>
       </c>
     </row>
     <row r="1882" spans="1:5">
@@ -46335,7 +46335,7 @@
         <v>-12.96</v>
       </c>
       <c r="E1895">
-        <v>18.91</v>
+        <v>20.17</v>
       </c>
     </row>
     <row r="1896" spans="1:5">
@@ -47066,7 +47066,7 @@
         <v>0</v>
       </c>
       <c r="E1938">
-        <v>-0.5</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="1939" spans="1:5">
@@ -47083,7 +47083,7 @@
         <v>-6.27</v>
       </c>
       <c r="E1939">
-        <v>-5.73</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="1940" spans="1:5">
@@ -47661,7 +47661,7 @@
         <v>0.28</v>
       </c>
       <c r="E1973">
-        <v>-12.78</v>
+        <v>-13.89</v>
       </c>
     </row>
     <row r="1974" spans="1:5">
@@ -47678,7 +47678,7 @@
         <v>-5.88</v>
       </c>
       <c r="E1974">
-        <v>2.66</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="1975" spans="1:5">
@@ -47933,7 +47933,7 @@
         <v>0</v>
       </c>
       <c r="E1989">
-        <v>12.55</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="1990" spans="1:5">
@@ -48443,7 +48443,7 @@
         <v>2.8</v>
       </c>
       <c r="E2019">
-        <v>-4.93</v>
+        <v>-5.77</v>
       </c>
     </row>
     <row r="2020" spans="1:5">
@@ -48562,7 +48562,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2026">
-        <v>0.9199999999999999</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="2027" spans="1:5">
@@ -48579,7 +48579,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2027">
-        <v>0.9199999999999999</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="2028" spans="1:5">
@@ -48987,7 +48987,7 @@
         <v>5</v>
       </c>
       <c r="E2051">
-        <v>-18.84</v>
+        <v>-20.29</v>
       </c>
     </row>
     <row r="2052" spans="1:5">
@@ -49293,7 +49293,7 @@
         <v>2.96</v>
       </c>
       <c r="E2069">
-        <v>1.59</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="2070" spans="1:5">
@@ -49344,7 +49344,7 @@
         <v>-3.13</v>
       </c>
       <c r="E2072">
-        <v>0.4</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="2073" spans="1:5">
@@ -49361,7 +49361,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2073">
-        <v>-0.52</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="2074" spans="1:5">
@@ -49531,7 +49531,7 @@
         <v>-5.06</v>
       </c>
       <c r="E2083">
-        <v>0.62</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="2084" spans="1:5">
@@ -49667,7 +49667,7 @@
         <v>-5.75</v>
       </c>
       <c r="E2091">
-        <v>4.399999999999999</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="2092" spans="1:5">
@@ -49684,7 +49684,7 @@
         <v>12.3</v>
       </c>
       <c r="E2092">
-        <v>-13.31</v>
+        <v>-14.13</v>
       </c>
     </row>
     <row r="2093" spans="1:5">
@@ -49718,7 +49718,7 @@
         <v>-0.7000000000000001</v>
       </c>
       <c r="E2094">
-        <v>-9.81</v>
+        <v>-10.51</v>
       </c>
     </row>
     <row r="2095" spans="1:5">
@@ -49752,7 +49752,7 @@
         <v>0</v>
       </c>
       <c r="E2096">
-        <v>0</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="2097" spans="1:5">
@@ -49956,7 +49956,7 @@
         <v>-3.72</v>
       </c>
       <c r="E2108">
-        <v>-0.9299999999999999</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="2109" spans="1:5">
@@ -50109,7 +50109,7 @@
         <v>-20.5</v>
       </c>
       <c r="E2117">
-        <v>4.3</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="2118" spans="1:5">
@@ -50126,7 +50126,7 @@
         <v>-20.5</v>
       </c>
       <c r="E2118">
-        <v>4.3</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="2119" spans="1:5">
@@ -50143,7 +50143,7 @@
         <v>-1.24</v>
       </c>
       <c r="E2119">
-        <v>4.7</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="2120" spans="1:5">
@@ -50160,7 +50160,7 @@
         <v>0</v>
       </c>
       <c r="E2120">
-        <v>-11.8</v>
+        <v>-12.47</v>
       </c>
     </row>
     <row r="2121" spans="1:5">
@@ -50177,7 +50177,7 @@
         <v>-15.2</v>
       </c>
       <c r="E2121">
-        <v>13.26</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="2122" spans="1:5">
@@ -50194,7 +50194,7 @@
         <v>0</v>
       </c>
       <c r="E2122">
-        <v>-15.63</v>
+        <v>-16.63</v>
       </c>
     </row>
     <row r="2123" spans="1:5">
@@ -50211,7 +50211,7 @@
         <v>3.1</v>
       </c>
       <c r="E2123">
-        <v>-15.63</v>
+        <v>-16.63</v>
       </c>
     </row>
     <row r="2124" spans="1:5">
@@ -50245,7 +50245,7 @@
         <v>0</v>
       </c>
       <c r="E2125">
-        <v>3.66</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="2126" spans="1:5">
@@ -50262,7 +50262,7 @@
         <v>0</v>
       </c>
       <c r="E2126">
-        <v>-11.8</v>
+        <v>-12.47</v>
       </c>
     </row>
     <row r="2127" spans="1:5">
@@ -50279,7 +50279,7 @@
         <v>0</v>
       </c>
       <c r="E2127">
-        <v>-2.37</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="2128" spans="1:5">
@@ -50296,7 +50296,7 @@
         <v>0</v>
       </c>
       <c r="E2128">
-        <v>2.79</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="2129" spans="1:5">
@@ -50313,7 +50313,7 @@
         <v>0</v>
       </c>
       <c r="E2129">
-        <v>6.05</v>
+        <v>4.859999999999999</v>
       </c>
     </row>
     <row r="2130" spans="1:5">
@@ -50517,7 +50517,7 @@
         <v>-2.81</v>
       </c>
       <c r="E2141">
-        <v>-12.4</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="2142" spans="1:5">
@@ -50534,7 +50534,7 @@
         <v>-2.66</v>
       </c>
       <c r="E2142">
-        <v>-11.34</v>
+        <v>-8.609999999999999</v>
       </c>
     </row>
     <row r="2143" spans="1:5">
@@ -50857,7 +50857,7 @@
         <v>0</v>
       </c>
       <c r="E2161">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="2162" spans="1:5">
@@ -50891,7 +50891,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2163">
-        <v>26.94</v>
+        <v>28.73</v>
       </c>
     </row>
     <row r="2164" spans="1:5">
@@ -50908,7 +50908,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2164">
-        <v>26.94</v>
+        <v>28.73</v>
       </c>
     </row>
     <row r="2165" spans="1:5">
@@ -51027,7 +51027,7 @@
         <v>-13.54</v>
       </c>
       <c r="E2171">
-        <v>7.88</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="2172" spans="1:5">
@@ -51265,7 +51265,7 @@
         <v>0</v>
       </c>
       <c r="E2185">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="2186" spans="1:5">
@@ -51350,7 +51350,7 @@
         <v>0</v>
       </c>
       <c r="E2190">
-        <v>37.79</v>
+        <v>40.13</v>
       </c>
     </row>
     <row r="2191" spans="1:5">
@@ -51401,7 +51401,7 @@
         <v>0</v>
       </c>
       <c r="E2193">
-        <v>-0.96</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="2194" spans="1:5">
@@ -51452,7 +51452,7 @@
         <v>9.4</v>
       </c>
       <c r="E2196">
-        <v>-9.470000000000001</v>
+        <v>-9.91</v>
       </c>
     </row>
     <row r="2197" spans="1:5">
@@ -51469,7 +51469,7 @@
         <v>0</v>
       </c>
       <c r="E2197">
-        <v>-0.96</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="2198" spans="1:5">
@@ -51486,7 +51486,7 @@
         <v>0</v>
       </c>
       <c r="E2198">
-        <v>-0.96</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="2199" spans="1:5">
@@ -51503,7 +51503,7 @@
         <v>0</v>
       </c>
       <c r="E2199">
-        <v>-2.53</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="2200" spans="1:5">
@@ -52081,7 +52081,7 @@
         <v>2.05</v>
       </c>
       <c r="E2233">
-        <v>-5.37</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="2234" spans="1:5">
@@ -52251,7 +52251,7 @@
         <v>2.05</v>
       </c>
       <c r="E2243">
-        <v>-4.7</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="2244" spans="1:5">
@@ -52727,7 +52727,7 @@
         <v>2.84</v>
       </c>
       <c r="E2271">
-        <v>-2.07</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="2272" spans="1:5">
@@ -52778,7 +52778,7 @@
         <v>10.21</v>
       </c>
       <c r="E2274">
-        <v>-15.76</v>
+        <v>-17.06</v>
       </c>
     </row>
     <row r="2275" spans="1:5">
@@ -53152,7 +53152,7 @@
         <v>0</v>
       </c>
       <c r="E2296">
-        <v>-4.850000000000001</v>
+        <v>-7.779999999999999</v>
       </c>
     </row>
     <row r="2297" spans="1:5">
@@ -53322,7 +53322,7 @@
         <v>0</v>
       </c>
       <c r="E2306">
-        <v>-1.04</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="2307" spans="1:5">
@@ -53339,7 +53339,7 @@
         <v>0</v>
       </c>
       <c r="E2307">
-        <v>0.8099999999999999</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="2308" spans="1:5">
@@ -53390,7 +53390,7 @@
         <v>26.01</v>
       </c>
       <c r="E2310">
-        <v>-21.08</v>
+        <v>-22.49</v>
       </c>
     </row>
     <row r="2311" spans="1:5">
@@ -53815,7 +53815,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2335">
-        <v>2.08</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="2336" spans="1:5">
@@ -53832,7 +53832,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2336">
-        <v>2.08</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="2337" spans="1:5">
@@ -54359,7 +54359,7 @@
         <v>0</v>
       </c>
       <c r="E2367">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="2368" spans="1:5">
@@ -54614,7 +54614,7 @@
         <v>0</v>
       </c>
       <c r="E2382">
-        <v>16.33</v>
+        <v>17.48</v>
       </c>
     </row>
     <row r="2383" spans="1:5">
@@ -54631,7 +54631,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2383">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="2384" spans="1:5">
@@ -54648,7 +54648,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2384">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="2385" spans="1:5">
@@ -54665,7 +54665,7 @@
         <v>-12.61</v>
       </c>
       <c r="E2385">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="2386" spans="1:5">
@@ -54682,7 +54682,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2386">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="2387" spans="1:5">
@@ -54699,7 +54699,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2387">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="2388" spans="1:5">
@@ -54716,7 +54716,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2388">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="2389" spans="1:5">
@@ -54733,7 +54733,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2389">
-        <v>31.36</v>
+        <v>40.13</v>
       </c>
     </row>
     <row r="2390" spans="1:5">
@@ -54750,7 +54750,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2390">
-        <v>20.39</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="2391" spans="1:5">
@@ -54767,7 +54767,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2391">
-        <v>9.43</v>
+        <v>22.59</v>
       </c>
     </row>
     <row r="2392" spans="1:5">
@@ -54784,7 +54784,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2392">
-        <v>12.15</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="2393" spans="1:5">
@@ -54801,7 +54801,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2393">
-        <v>12.15</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="2394" spans="1:5">
@@ -54818,7 +54818,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2394">
-        <v>12.15</v>
+        <v>12.91</v>
       </c>
     </row>
     <row r="2395" spans="1:5">
@@ -55005,7 +55005,7 @@
         <v>11.16</v>
       </c>
       <c r="E2405">
-        <v>-25.69</v>
+        <v>-25.39</v>
       </c>
     </row>
     <row r="2406" spans="1:5">
@@ -55090,7 +55090,7 @@
         <v>-6.68</v>
       </c>
       <c r="E2410">
-        <v>1.33</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="2411" spans="1:5">
@@ -55124,7 +55124,7 @@
         <v>-6.68</v>
       </c>
       <c r="E2412">
-        <v>-17.18</v>
+        <v>-11.65</v>
       </c>
     </row>
     <row r="2413" spans="1:5">
@@ -55260,7 +55260,7 @@
         <v>-2.91</v>
       </c>
       <c r="E2420">
-        <v>0.52</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="2421" spans="1:5">
@@ -55430,7 +55430,7 @@
         <v>-6.01</v>
       </c>
       <c r="E2430">
-        <v>4.25</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="2431" spans="1:5">
@@ -55549,7 +55549,7 @@
         <v>0.91</v>
       </c>
       <c r="E2437">
-        <v>-1.36</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="2438" spans="1:5">
@@ -55600,7 +55600,7 @@
         <v>14.77</v>
       </c>
       <c r="E2440">
-        <v>7.07</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="2441" spans="1:5">
@@ -55617,7 +55617,7 @@
         <v>14.77</v>
       </c>
       <c r="E2441">
-        <v>7.07</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="2442" spans="1:5">
@@ -55634,7 +55634,7 @@
         <v>14.77</v>
       </c>
       <c r="E2442">
-        <v>7.07</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="2443" spans="1:5">
@@ -55651,7 +55651,7 @@
         <v>14.77</v>
       </c>
       <c r="E2443">
-        <v>7.07</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="2444" spans="1:5">
@@ -55668,7 +55668,7 @@
         <v>14.77</v>
       </c>
       <c r="E2444">
-        <v>7.07</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="2445" spans="1:5">
@@ -55685,7 +55685,7 @@
         <v>14.77</v>
       </c>
       <c r="E2445">
-        <v>7.07</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="2446" spans="1:5">
@@ -55821,7 +55821,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2453">
-        <v>50.21</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="2454" spans="1:5">
@@ -55838,7 +55838,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2454">
-        <v>16.74</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="2455" spans="1:5">
@@ -55855,7 +55855,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2455">
-        <v>50.21</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="2456" spans="1:5">
@@ -55889,7 +55889,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2457">
-        <v>50.21</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="2458" spans="1:5">
@@ -55906,7 +55906,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2458">
-        <v>50.21</v>
+        <v>53.56</v>
       </c>
     </row>
     <row r="2459" spans="1:5">
@@ -56076,7 +56076,7 @@
         <v>5.37</v>
       </c>
       <c r="E2468">
-        <v>4.25</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="2469" spans="1:5">
@@ -56093,7 +56093,7 @@
         <v>0</v>
       </c>
       <c r="E2469">
-        <v>33.02</v>
+        <v>35.22</v>
       </c>
     </row>
     <row r="2470" spans="1:5">
@@ -56110,7 +56110,7 @@
         <v>0</v>
       </c>
       <c r="E2470">
-        <v>0.9299999999999999</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="2471" spans="1:5">
@@ -56229,7 +56229,7 @@
         <v>-5.5</v>
       </c>
       <c r="E2477">
-        <v>7.670000000000001</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="2478" spans="1:5">
@@ -56263,7 +56263,7 @@
         <v>-3.61</v>
       </c>
       <c r="E2479">
-        <v>15</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="2480" spans="1:5">
@@ -56467,7 +56467,7 @@
         <v>23.59</v>
       </c>
       <c r="E2491">
-        <v>-16.7</v>
+        <v>-17.82</v>
       </c>
     </row>
     <row r="2492" spans="1:5">
@@ -56518,7 +56518,7 @@
         <v>1.72</v>
       </c>
       <c r="E2494">
-        <v>-7.580000000000001</v>
+        <v>-8.1</v>
       </c>
     </row>
     <row r="2495" spans="1:5">
@@ -56535,7 +56535,7 @@
         <v>1.07</v>
       </c>
       <c r="E2495">
-        <v>-7.630000000000001</v>
+        <v>-8.32</v>
       </c>
     </row>
     <row r="2496" spans="1:5">
@@ -56552,7 +56552,7 @@
         <v>1.52</v>
       </c>
       <c r="E2496">
-        <v>-8.959999999999999</v>
+        <v>-9.48</v>
       </c>
     </row>
     <row r="2497" spans="1:5">
@@ -56569,7 +56569,7 @@
         <v>-22.22</v>
       </c>
       <c r="E2497">
-        <v>27.3</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="2498" spans="1:5">
@@ -56603,7 +56603,7 @@
         <v>2.73</v>
       </c>
       <c r="E2499">
-        <v>-0.66</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="2500" spans="1:5">
@@ -56671,7 +56671,7 @@
         <v>-2.64</v>
       </c>
       <c r="E2503">
-        <v>-19.35</v>
+        <v>-20.57</v>
       </c>
     </row>
     <row r="2504" spans="1:5">
@@ -56875,7 +56875,7 @@
         <v>-1.48</v>
       </c>
       <c r="E2515">
-        <v>0.5599999999999999</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="2516" spans="1:5">
@@ -56994,7 +56994,7 @@
         <v>0</v>
       </c>
       <c r="E2522">
-        <v>6.13</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="2523" spans="1:5">
@@ -57062,7 +57062,7 @@
         <v>0</v>
       </c>
       <c r="E2526">
-        <v>11.66</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="2527" spans="1:5">
@@ -57079,7 +57079,7 @@
         <v>0</v>
       </c>
       <c r="E2527">
-        <v>-8.200000000000001</v>
+        <v>-8.74</v>
       </c>
     </row>
     <row r="2528" spans="1:5">
@@ -57351,7 +57351,7 @@
         <v>0</v>
       </c>
       <c r="E2543">
-        <v>4.04</v>
+        <v>6.460000000000001</v>
       </c>
     </row>
     <row r="2544" spans="1:5">
@@ -57419,7 +57419,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2547">
-        <v>24.05</v>
+        <v>25.65</v>
       </c>
     </row>
     <row r="2548" spans="1:5">
@@ -57657,7 +57657,7 @@
         <v>5.140000000000001</v>
       </c>
       <c r="E2561">
-        <v>-1.83</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="2562" spans="1:5">
@@ -57674,7 +57674,7 @@
         <v>-12.52</v>
       </c>
       <c r="E2562">
-        <v>6.260000000000001</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="2563" spans="1:5">
@@ -57776,7 +57776,7 @@
         <v>-2.86</v>
       </c>
       <c r="E2568">
-        <v>-2.22</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="2569" spans="1:5">
@@ -58167,7 +58167,7 @@
         <v>-21.06</v>
       </c>
       <c r="E2591">
-        <v>15.08</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="2592" spans="1:5">
@@ -58201,7 +58201,7 @@
         <v>-16.74</v>
       </c>
       <c r="E2593">
-        <v>15.08</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="2594" spans="1:5">
@@ -58235,7 +58235,7 @@
         <v>4.47</v>
       </c>
       <c r="E2595">
-        <v>-21.44</v>
+        <v>-22.88</v>
       </c>
     </row>
     <row r="2596" spans="1:5">
@@ -58286,7 +58286,7 @@
         <v>0</v>
       </c>
       <c r="E2598">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="2599" spans="1:5">
@@ -58320,7 +58320,7 @@
         <v>-7.27</v>
       </c>
       <c r="E2600">
-        <v>45.68</v>
+        <v>48.92</v>
       </c>
     </row>
     <row r="2601" spans="1:5">
@@ -58337,7 +58337,7 @@
         <v>-27.88</v>
       </c>
       <c r="E2601">
-        <v>45.68</v>
+        <v>48.92</v>
       </c>
     </row>
     <row r="2602" spans="1:5">
@@ -58524,7 +58524,7 @@
         <v>16.5</v>
       </c>
       <c r="E2612">
-        <v>-11.1</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="2613" spans="1:5">
@@ -58558,7 +58558,7 @@
         <v>-6.69</v>
       </c>
       <c r="E2614">
-        <v>-12.51</v>
+        <v>-13.34</v>
       </c>
     </row>
     <row r="2615" spans="1:5">
@@ -58609,7 +58609,7 @@
         <v>-5.3</v>
       </c>
       <c r="E2617">
-        <v>3.55</v>
+        <v>4.569999999999999</v>
       </c>
     </row>
     <row r="2618" spans="1:5">
@@ -58728,7 +58728,7 @@
         <v>2.78</v>
       </c>
       <c r="E2624">
-        <v>-7.3</v>
+        <v>-8.74</v>
       </c>
     </row>
     <row r="2625" spans="1:5">
@@ -58745,7 +58745,7 @@
         <v>2.78</v>
       </c>
       <c r="E2625">
-        <v>-10.88</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="2626" spans="1:5">
@@ -58762,7 +58762,7 @@
         <v>7.99</v>
       </c>
       <c r="E2626">
-        <v>3.07</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="2627" spans="1:5">
@@ -58779,7 +58779,7 @@
         <v>7.99</v>
       </c>
       <c r="E2627">
-        <v>3.07</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="2628" spans="1:5">
@@ -58796,7 +58796,7 @@
         <v>-3.74</v>
       </c>
       <c r="E2628">
-        <v>3.07</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="2629" spans="1:5">
@@ -58813,7 +58813,7 @@
         <v>7.99</v>
       </c>
       <c r="E2629">
-        <v>3.07</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="2630" spans="1:5">
@@ -58864,7 +58864,7 @@
         <v>7.61</v>
       </c>
       <c r="E2632">
-        <v>-5.34</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="2633" spans="1:5">
@@ -58881,7 +58881,7 @@
         <v>7.61</v>
       </c>
       <c r="E2633">
-        <v>-5.34</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="2634" spans="1:5">
@@ -58949,7 +58949,7 @@
         <v>23.17</v>
       </c>
       <c r="E2637">
-        <v>-17.47</v>
+        <v>-18.62</v>
       </c>
     </row>
     <row r="2638" spans="1:5">
@@ -59000,7 +59000,7 @@
         <v>-0.75</v>
       </c>
       <c r="E2640">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="2641" spans="1:5">
@@ -59051,7 +59051,7 @@
         <v>-7.01</v>
       </c>
       <c r="E2643">
-        <v>24.63</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="2644" spans="1:5">
@@ -59085,7 +59085,7 @@
         <v>0</v>
       </c>
       <c r="E2645">
-        <v>12.01</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="2646" spans="1:5">
@@ -59102,7 +59102,7 @@
         <v>0</v>
       </c>
       <c r="E2646">
-        <v>-8.34</v>
+        <v>-8.890000000000001</v>
       </c>
     </row>
     <row r="2647" spans="1:5">
@@ -59187,7 +59187,7 @@
         <v>0</v>
       </c>
       <c r="E2651">
-        <v>-3.57</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="2652" spans="1:5">
@@ -59323,7 +59323,7 @@
         <v>-6.05</v>
       </c>
       <c r="E2659">
-        <v>-1.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="2660" spans="1:5">
@@ -59374,7 +59374,7 @@
         <v>15.32</v>
       </c>
       <c r="E2662">
-        <v>-6.27</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="2663" spans="1:5">
@@ -59663,7 +59663,7 @@
         <v>0</v>
       </c>
       <c r="E2679">
-        <v>18.76</v>
+        <v>20.01</v>
       </c>
     </row>
     <row r="2680" spans="1:5">
@@ -60020,7 +60020,7 @@
         <v>0</v>
       </c>
       <c r="E2700">
-        <v>4.95</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="2701" spans="1:5">
@@ -60224,7 +60224,7 @@
         <v>0</v>
       </c>
       <c r="E2712">
-        <v>-5.48</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="2713" spans="1:5">
@@ -60241,7 +60241,7 @@
         <v>32.22</v>
       </c>
       <c r="E2713">
-        <v>-3.16</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="2714" spans="1:5">
@@ -60445,7 +60445,7 @@
         <v>0</v>
       </c>
       <c r="E2725">
-        <v>-5.72</v>
+        <v>-6.140000000000001</v>
       </c>
     </row>
     <row r="2726" spans="1:5">
@@ -60462,7 +60462,7 @@
         <v>0</v>
       </c>
       <c r="E2726">
-        <v>-5.72</v>
+        <v>-6.140000000000001</v>
       </c>
     </row>
     <row r="2727" spans="1:5">
@@ -60496,7 +60496,7 @@
         <v>0</v>
       </c>
       <c r="E2728">
-        <v>-1.93</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="2729" spans="1:5">
@@ -61057,7 +61057,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2761">
-        <v>4.92</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="2762" spans="1:5">
@@ -61074,7 +61074,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2762">
-        <v>4.92</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="2763" spans="1:5">
@@ -61091,7 +61091,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2763">
-        <v>4.92</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="2764" spans="1:5">
@@ -61380,7 +61380,7 @@
         <v>6.09</v>
       </c>
       <c r="E2780">
-        <v>-15.09</v>
+        <v>-16.15</v>
       </c>
     </row>
     <row r="2781" spans="1:5">
@@ -61397,7 +61397,7 @@
         <v>7.180000000000001</v>
       </c>
       <c r="E2781">
-        <v>-0.9299999999999999</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="2782" spans="1:5">
@@ -61907,7 +61907,7 @@
         <v>0</v>
       </c>
       <c r="E2811">
-        <v>7.829999999999999</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="2812" spans="1:5">
@@ -62230,7 +62230,7 @@
         <v>0</v>
       </c>
       <c r="E2830">
-        <v>-9.229999999999999</v>
+        <v>-11.07</v>
       </c>
     </row>
     <row r="2831" spans="1:5">
@@ -62383,7 +62383,7 @@
         <v>-11.22</v>
       </c>
       <c r="E2839">
-        <v>11.91</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="2840" spans="1:5">
@@ -62468,7 +62468,7 @@
         <v>0</v>
       </c>
       <c r="E2844">
-        <v>-4.69</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="2845" spans="1:5">
@@ -62774,7 +62774,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E2862">
-        <v>-1.24</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="2863" spans="1:5">
@@ -62944,7 +62944,7 @@
         <v>-0.09</v>
       </c>
       <c r="E2872">
-        <v>13.86</v>
+        <v>14.14</v>
       </c>
     </row>
     <row r="2873" spans="1:5">
@@ -62995,7 +62995,7 @@
         <v>0</v>
       </c>
       <c r="E2875">
-        <v>-1.08</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="2876" spans="1:5">
@@ -63012,7 +63012,7 @@
         <v>-2.13</v>
       </c>
       <c r="E2876">
-        <v>1.3</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="2877" spans="1:5">
@@ -63046,7 +63046,7 @@
         <v>0</v>
       </c>
       <c r="E2878">
-        <v>-11.58</v>
+        <v>-12.36</v>
       </c>
     </row>
     <row r="2879" spans="1:5">
@@ -63131,7 +63131,7 @@
         <v>-0.34</v>
       </c>
       <c r="E2883">
-        <v>2.42</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="2884" spans="1:5">
@@ -63165,7 +63165,7 @@
         <v>-23.81</v>
       </c>
       <c r="E2885">
-        <v>22.04</v>
+        <v>24.01</v>
       </c>
     </row>
     <row r="2886" spans="1:5">
@@ -63216,7 +63216,7 @@
         <v>-17.74</v>
       </c>
       <c r="E2888">
-        <v>18.87</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="2889" spans="1:5">
@@ -63267,7 +63267,7 @@
         <v>11.01</v>
       </c>
       <c r="E2891">
-        <v>-1.04</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="2892" spans="1:5">
@@ -63284,7 +63284,7 @@
         <v>-0.44</v>
       </c>
       <c r="E2892">
-        <v>-1.33</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="2893" spans="1:5">
@@ -64202,7 +64202,7 @@
         <v>2.78</v>
       </c>
       <c r="E2946">
-        <v>6.31</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="2947" spans="1:5">
@@ -64678,7 +64678,7 @@
         <v>0</v>
       </c>
       <c r="E2974">
-        <v>37.59</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="2975" spans="1:5">
@@ -64695,7 +64695,7 @@
         <v>0</v>
       </c>
       <c r="E2975">
-        <v>5.029999999999999</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="2976" spans="1:5">
@@ -64712,7 +64712,7 @@
         <v>0</v>
       </c>
       <c r="E2976">
-        <v>5.029999999999999</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="2977" spans="1:5">
@@ -64763,7 +64763,7 @@
         <v>-4.01</v>
       </c>
       <c r="E2979">
-        <v>0.52</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="2980" spans="1:5">
@@ -64848,7 +64848,7 @@
         <v>17.64</v>
       </c>
       <c r="E2984">
-        <v>4.65</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="2985" spans="1:5">
@@ -64899,7 +64899,7 @@
         <v>11.89</v>
       </c>
       <c r="E2987">
-        <v>-12.26</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="2988" spans="1:5">
@@ -65341,7 +65341,7 @@
         <v>-7.55</v>
       </c>
       <c r="E3013">
-        <v>7.16</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="3014" spans="1:5">
@@ -65392,7 +65392,7 @@
         <v>0</v>
       </c>
       <c r="E3016">
-        <v>3.75</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="3017" spans="1:5">
@@ -65426,7 +65426,7 @@
         <v>-4.62</v>
       </c>
       <c r="E3018">
-        <v>0.59</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="3019" spans="1:5">
@@ -66157,7 +66157,7 @@
         <v>-10.12</v>
       </c>
       <c r="E3061">
-        <v>4.67</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="3062" spans="1:5">
@@ -66344,7 +66344,7 @@
         <v>-19.65</v>
       </c>
       <c r="E3072">
-        <v>35.4</v>
+        <v>38.21</v>
       </c>
     </row>
     <row r="3073" spans="1:5">
@@ -66429,7 +66429,7 @@
         <v>0</v>
       </c>
       <c r="E3077">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="3078" spans="1:5">
@@ -66446,7 +66446,7 @@
         <v>0</v>
       </c>
       <c r="E3078">
-        <v>2.04</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3079" spans="1:5">
@@ -66463,7 +66463,7 @@
         <v>3.58</v>
       </c>
       <c r="E3079">
-        <v>-11.04</v>
+        <v>-8.029999999999999</v>
       </c>
     </row>
     <row r="3080" spans="1:5">
@@ -66480,7 +66480,7 @@
         <v>0</v>
       </c>
       <c r="E3080">
-        <v>2.04</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3081" spans="1:5">
@@ -66497,7 +66497,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3081">
-        <v>13.53</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="3082" spans="1:5">
@@ -66565,7 +66565,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3085">
-        <v>13.53</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="3086" spans="1:5">
@@ -66769,7 +66769,7 @@
         <v>-22.35</v>
       </c>
       <c r="E3097">
-        <v>21.58</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="3098" spans="1:5">
@@ -66786,7 +66786,7 @@
         <v>-10.28</v>
       </c>
       <c r="E3098">
-        <v>4.3</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="3099" spans="1:5">
@@ -66803,7 +66803,7 @@
         <v>-24.1</v>
       </c>
       <c r="E3099">
-        <v>9.210000000000001</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="3100" spans="1:5">
@@ -66820,7 +66820,7 @@
         <v>15.55</v>
       </c>
       <c r="E3100">
-        <v>-28.36</v>
+        <v>-30.25</v>
       </c>
     </row>
     <row r="3101" spans="1:5">
@@ -66837,7 +66837,7 @@
         <v>-2.2</v>
       </c>
       <c r="E3101">
-        <v>8.309999999999999</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="3102" spans="1:5">
@@ -66854,7 +66854,7 @@
         <v>17.93</v>
       </c>
       <c r="E3102">
-        <v>-4.44</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="3103" spans="1:5">
@@ -67160,7 +67160,7 @@
         <v>0</v>
       </c>
       <c r="E3120">
-        <v>0</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="3121" spans="1:5">
@@ -67364,7 +67364,7 @@
         <v>0</v>
       </c>
       <c r="E3132">
-        <v>22.03</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="3133" spans="1:5">
@@ -67381,7 +67381,7 @@
         <v>0</v>
       </c>
       <c r="E3133">
-        <v>-1.79</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="3134" spans="1:5">
@@ -67500,7 +67500,7 @@
         <v>-9.51</v>
       </c>
       <c r="E3140">
-        <v>-11.53</v>
+        <v>-12.37</v>
       </c>
     </row>
     <row r="3141" spans="1:5">
@@ -67517,7 +67517,7 @@
         <v>0</v>
       </c>
       <c r="E3141">
-        <v>-11.53</v>
+        <v>-12.37</v>
       </c>
     </row>
     <row r="3142" spans="1:5">
@@ -68044,7 +68044,7 @@
         <v>0</v>
       </c>
       <c r="E3172">
-        <v>2.79</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="3173" spans="1:5">
@@ -68231,7 +68231,7 @@
         <v>0</v>
       </c>
       <c r="E3183">
-        <v>8.619999999999999</v>
+        <v>9.229999999999999</v>
       </c>
     </row>
     <row r="3184" spans="1:5">
@@ -68401,7 +68401,7 @@
         <v>7.66</v>
       </c>
       <c r="E3193">
-        <v>-4.18</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="3194" spans="1:5">
@@ -68418,7 +68418,7 @@
         <v>7.66</v>
       </c>
       <c r="E3194">
-        <v>-4.18</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="3195" spans="1:5">
@@ -68435,7 +68435,7 @@
         <v>7.66</v>
       </c>
       <c r="E3195">
-        <v>-4.18</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="3196" spans="1:5">
@@ -68656,7 +68656,7 @@
         <v>-5.76</v>
       </c>
       <c r="E3208">
-        <v>7.630000000000001</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="3209" spans="1:5">
@@ -69761,7 +69761,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3273">
-        <v>7.920000000000001</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="3274" spans="1:5">
@@ -69778,7 +69778,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3274">
-        <v>7.920000000000001</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="3275" spans="1:5">
@@ -69795,7 +69795,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3275">
-        <v>7.920000000000001</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="3276" spans="1:5">
@@ -70305,7 +70305,7 @@
         <v>8.6</v>
       </c>
       <c r="E3305">
-        <v>3.31</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="3306" spans="1:5">
@@ -70322,7 +70322,7 @@
         <v>14.8</v>
       </c>
       <c r="E3306">
-        <v>-3.86</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="3307" spans="1:5">
@@ -70356,7 +70356,7 @@
         <v>8.6</v>
       </c>
       <c r="E3308">
-        <v>-5.970000000000001</v>
+        <v>-6.890000000000001</v>
       </c>
     </row>
     <row r="3309" spans="1:5">
@@ -70373,7 +70373,7 @@
         <v>11.48</v>
       </c>
       <c r="E3309">
-        <v>-3.86</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="3310" spans="1:5">
@@ -70509,7 +70509,7 @@
         <v>6.79</v>
       </c>
       <c r="E3317">
-        <v>-10.79</v>
+        <v>-11.51</v>
       </c>
     </row>
     <row r="3318" spans="1:5">
@@ -70526,7 +70526,7 @@
         <v>0</v>
       </c>
       <c r="E3318">
-        <v>6.27</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="3319" spans="1:5">
@@ -70594,7 +70594,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="E3322">
-        <v>-20.4</v>
+        <v>-21.77</v>
       </c>
     </row>
     <row r="3323" spans="1:5">
@@ -70662,7 +70662,7 @@
         <v>-4.850000000000001</v>
       </c>
       <c r="E3326">
-        <v>13.53</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="3327" spans="1:5">
@@ -70730,7 +70730,7 @@
         <v>-13.92</v>
       </c>
       <c r="E3330">
-        <v>15.16</v>
+        <v>16.17</v>
       </c>
     </row>
     <row r="3331" spans="1:5">
@@ -70747,7 +70747,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E3331">
-        <v>4.01</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="3332" spans="1:5">
@@ -70764,7 +70764,7 @@
         <v>0</v>
       </c>
       <c r="E3332">
-        <v>22.4</v>
+        <v>23.03</v>
       </c>
     </row>
     <row r="3333" spans="1:5">
@@ -70832,7 +70832,7 @@
         <v>0</v>
       </c>
       <c r="E3336">
-        <v>-2.21</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="3337" spans="1:5">
@@ -70883,7 +70883,7 @@
         <v>-4.95</v>
       </c>
       <c r="E3339">
-        <v>13.63</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="3340" spans="1:5">
@@ -70900,7 +70900,7 @@
         <v>-9.85</v>
       </c>
       <c r="E3340">
-        <v>9.520000000000001</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="3341" spans="1:5">
@@ -70917,7 +70917,7 @@
         <v>-15.5</v>
       </c>
       <c r="E3341">
-        <v>16.54</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="3342" spans="1:5">
@@ -70951,7 +70951,7 @@
         <v>4.87</v>
       </c>
       <c r="E3343">
-        <v>16.54</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="3344" spans="1:5">
@@ -70968,7 +70968,7 @@
         <v>4.390000000000001</v>
       </c>
       <c r="E3344">
-        <v>14.41</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="3345" spans="1:5">
@@ -70985,7 +70985,7 @@
         <v>3.89</v>
       </c>
       <c r="E3345">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="3346" spans="1:5">
@@ -71002,7 +71002,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="E3346">
-        <v>16.54</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="3347" spans="1:5">
@@ -71019,7 +71019,7 @@
         <v>-5.800000000000001</v>
       </c>
       <c r="E3347">
-        <v>16.91</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="3348" spans="1:5">
@@ -71087,7 +71087,7 @@
         <v>12.91</v>
       </c>
       <c r="E3351">
-        <v>-0.4</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="3352" spans="1:5">
@@ -71138,7 +71138,7 @@
         <v>11.23</v>
       </c>
       <c r="E3354">
-        <v>23.66</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="3355" spans="1:5">
@@ -71155,7 +71155,7 @@
         <v>0</v>
       </c>
       <c r="E3355">
-        <v>-13.07</v>
+        <v>-14.07</v>
       </c>
     </row>
     <row r="3356" spans="1:5">
@@ -71393,7 +71393,7 @@
         <v>0</v>
       </c>
       <c r="E3369">
-        <v>1.94</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="3370" spans="1:5">
@@ -71410,7 +71410,7 @@
         <v>0</v>
       </c>
       <c r="E3370">
-        <v>1.94</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="3371" spans="1:5">
@@ -71648,7 +71648,7 @@
         <v>0</v>
       </c>
       <c r="E3384">
-        <v>1.94</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="3385" spans="1:5">
@@ -71665,7 +71665,7 @@
         <v>0</v>
       </c>
       <c r="E3385">
-        <v>1.94</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="3386" spans="1:5">
@@ -72124,7 +72124,7 @@
         <v>-6.7</v>
       </c>
       <c r="E3412">
-        <v>8.699999999999999</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="3413" spans="1:5">
@@ -72141,7 +72141,7 @@
         <v>-6.08</v>
       </c>
       <c r="E3413">
-        <v>8.699999999999999</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="3414" spans="1:5">
@@ -72192,7 +72192,7 @@
         <v>-10.65</v>
       </c>
       <c r="E3416">
-        <v>17.88</v>
+        <v>19.21</v>
       </c>
     </row>
     <row r="3417" spans="1:5">
@@ -72277,7 +72277,7 @@
         <v>-6.329999999999999</v>
       </c>
       <c r="E3421">
-        <v>10.04</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="3422" spans="1:5">
@@ -72328,7 +72328,7 @@
         <v>-9.120000000000001</v>
       </c>
       <c r="E3424">
-        <v>7.69</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="3425" spans="1:5">
@@ -72362,7 +72362,7 @@
         <v>-1.6</v>
       </c>
       <c r="E3426">
-        <v>2.88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3427" spans="1:5">
@@ -72413,7 +72413,7 @@
         <v>11.28</v>
       </c>
       <c r="E3429">
-        <v>0.6899999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3430" spans="1:5">
@@ -72532,7 +72532,7 @@
         <v>-0.61</v>
       </c>
       <c r="E3436">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="3437" spans="1:5">
@@ -72566,7 +72566,7 @@
         <v>-1.65</v>
       </c>
       <c r="E3438">
-        <v>25.1</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="3439" spans="1:5">
@@ -72600,7 +72600,7 @@
         <v>-8.32</v>
       </c>
       <c r="E3440">
-        <v>9.77</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="3441" spans="1:5">
@@ -72617,7 +72617,7 @@
         <v>0</v>
       </c>
       <c r="E3441">
-        <v>-14.32</v>
+        <v>-11.46</v>
       </c>
     </row>
     <row r="3442" spans="1:5">
@@ -72634,7 +72634,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3442">
-        <v>25.1</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="3443" spans="1:5">
@@ -72651,7 +72651,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3443">
-        <v>12.88</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="3444" spans="1:5">
@@ -72668,7 +72668,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E3444">
-        <v>23.74</v>
+        <v>24.46</v>
       </c>
     </row>
     <row r="3445" spans="1:5">
@@ -72685,7 +72685,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3445">
-        <v>12.88</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="3446" spans="1:5">
@@ -72702,7 +72702,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E3446">
-        <v>16.55</v>
+        <v>17.27</v>
       </c>
     </row>
     <row r="3447" spans="1:5">
@@ -72719,7 +72719,7 @@
         <v>-3.98</v>
       </c>
       <c r="E3447">
-        <v>14.31</v>
+        <v>17.17</v>
       </c>
     </row>
     <row r="3448" spans="1:5">
@@ -72753,7 +72753,7 @@
         <v>0</v>
       </c>
       <c r="E3449">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3450" spans="1:5">
@@ -72804,7 +72804,7 @@
         <v>2.07</v>
       </c>
       <c r="E3452">
-        <v>3.05</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="3453" spans="1:5">
@@ -72821,7 +72821,7 @@
         <v>0.59</v>
       </c>
       <c r="E3453">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3454" spans="1:5">
@@ -72838,7 +72838,7 @@
         <v>11.49</v>
       </c>
       <c r="E3454">
-        <v>-1.21</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="3455" spans="1:5">
@@ -72855,7 +72855,7 @@
         <v>0</v>
       </c>
       <c r="E3455">
-        <v>-1.47</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="3456" spans="1:5">
@@ -72889,7 +72889,7 @@
         <v>0</v>
       </c>
       <c r="E3457">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3458" spans="1:5">
@@ -72906,7 +72906,7 @@
         <v>-1.4</v>
       </c>
       <c r="E3458">
-        <v>3.05</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="3459" spans="1:5">
@@ -72923,7 +72923,7 @@
         <v>-7.69</v>
       </c>
       <c r="E3459">
-        <v>8.33</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="3460" spans="1:5">
@@ -72957,7 +72957,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3461">
-        <v>25.1</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="3462" spans="1:5">
@@ -72974,7 +72974,7 @@
         <v>-3.59</v>
       </c>
       <c r="E3462">
-        <v>6.44</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="3463" spans="1:5">
@@ -73008,7 +73008,7 @@
         <v>-27.13</v>
       </c>
       <c r="E3464">
-        <v>51.11</v>
+        <v>54.33</v>
       </c>
     </row>
     <row r="3465" spans="1:5">
@@ -73059,7 +73059,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3467">
-        <v>25.1</v>
+        <v>26.78</v>
       </c>
     </row>
     <row r="3468" spans="1:5">
@@ -73314,7 +73314,7 @@
         <v>-11.38</v>
       </c>
       <c r="E3482">
-        <v>11.28</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="3483" spans="1:5">
@@ -74283,7 +74283,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3539">
-        <v>28.17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3540" spans="1:5">
@@ -74300,7 +74300,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3540">
-        <v>18.86</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="3541" spans="1:5">
@@ -74317,7 +74317,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3541">
-        <v>28.17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3542" spans="1:5">
@@ -74334,7 +74334,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3542">
-        <v>18.86</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="3543" spans="1:5">
@@ -74351,7 +74351,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3543">
-        <v>18.86</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="3544" spans="1:5">
@@ -74385,7 +74385,7 @@
         <v>-27.25</v>
       </c>
       <c r="E3545">
-        <v>0</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="3546" spans="1:5">
@@ -74402,7 +74402,7 @@
         <v>-27.25</v>
       </c>
       <c r="E3546">
-        <v>39.32</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="3547" spans="1:5">
@@ -74878,7 +74878,7 @@
         <v>-0.53</v>
       </c>
       <c r="E3574">
-        <v>-1.06</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="3575" spans="1:5">
@@ -74895,7 +74895,7 @@
         <v>-0.53</v>
       </c>
       <c r="E3575">
-        <v>-1.06</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="3576" spans="1:5">
@@ -74912,7 +74912,7 @@
         <v>-14.67</v>
       </c>
       <c r="E3576">
-        <v>7.290000000000001</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="3577" spans="1:5">
@@ -75133,7 +75133,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3589">
-        <v>6.850000000000001</v>
+        <v>8.559999999999999</v>
       </c>
     </row>
     <row r="3590" spans="1:5">
@@ -75150,7 +75150,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3590">
-        <v>6.850000000000001</v>
+        <v>8.559999999999999</v>
       </c>
     </row>
     <row r="3591" spans="1:5">
@@ -75167,7 +75167,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3591">
-        <v>6.850000000000001</v>
+        <v>8.559999999999999</v>
       </c>
     </row>
     <row r="3592" spans="1:5">
@@ -75184,7 +75184,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3592">
-        <v>6.850000000000001</v>
+        <v>8.559999999999999</v>
       </c>
     </row>
     <row r="3593" spans="1:5">
@@ -75201,7 +75201,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="E3593">
-        <v>-21.51</v>
+        <v>-22.94</v>
       </c>
     </row>
     <row r="3594" spans="1:5">
@@ -75218,7 +75218,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3594">
-        <v>-16.41</v>
+        <v>-17.94</v>
       </c>
     </row>
     <row r="3595" spans="1:5">
@@ -75235,7 +75235,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3595">
-        <v>-16.41</v>
+        <v>-17.94</v>
       </c>
     </row>
     <row r="3596" spans="1:5">
@@ -75252,7 +75252,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3596">
-        <v>-16.41</v>
+        <v>-17.94</v>
       </c>
     </row>
     <row r="3597" spans="1:5">
@@ -75388,7 +75388,7 @@
         <v>-7.77</v>
       </c>
       <c r="E3604">
-        <v>3.51</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="3605" spans="1:5">
@@ -75643,7 +75643,7 @@
         <v>0</v>
       </c>
       <c r="E3619">
-        <v>-9.15</v>
+        <v>-14.66</v>
       </c>
     </row>
     <row r="3620" spans="1:5">
@@ -75660,7 +75660,7 @@
         <v>0</v>
       </c>
       <c r="E3620">
-        <v>-9.15</v>
+        <v>-14.66</v>
       </c>
     </row>
     <row r="3621" spans="1:5">
@@ -75677,7 +75677,7 @@
         <v>0</v>
       </c>
       <c r="E3621">
-        <v>-9.15</v>
+        <v>-14.66</v>
       </c>
     </row>
     <row r="3622" spans="1:5">
@@ -75694,7 +75694,7 @@
         <v>0</v>
       </c>
       <c r="E3622">
-        <v>-9.15</v>
+        <v>-14.66</v>
       </c>
     </row>
     <row r="3623" spans="1:5">
@@ -75762,7 +75762,7 @@
         <v>-3.32</v>
       </c>
       <c r="E3626">
-        <v>-23.24</v>
+        <v>-23.44</v>
       </c>
     </row>
     <row r="3627" spans="1:5">
@@ -75847,7 +75847,7 @@
         <v>0</v>
       </c>
       <c r="E3631">
-        <v>-10.66</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="3632" spans="1:5">
@@ -75864,7 +75864,7 @@
         <v>0</v>
       </c>
       <c r="E3632">
-        <v>-10.66</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="3633" spans="1:5">
@@ -75949,7 +75949,7 @@
         <v>-12.01</v>
       </c>
       <c r="E3637">
-        <v>5.7</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="3638" spans="1:5">
@@ -75983,7 +75983,7 @@
         <v>-13.45</v>
       </c>
       <c r="E3639">
-        <v>-8.58</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="3640" spans="1:5">
@@ -76017,7 +76017,7 @@
         <v>23.77</v>
       </c>
       <c r="E3641">
-        <v>-11</v>
+        <v>-13.27</v>
       </c>
     </row>
     <row r="3642" spans="1:5">
@@ -76221,7 +76221,7 @@
         <v>2.44</v>
       </c>
       <c r="E3653">
-        <v>-4.19</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3654" spans="1:5">
@@ -76255,7 +76255,7 @@
         <v>15.77</v>
       </c>
       <c r="E3655">
-        <v>-5.09</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="3656" spans="1:5">
@@ -76510,7 +76510,7 @@
         <v>-7.28</v>
       </c>
       <c r="E3670">
-        <v>4.91</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="3671" spans="1:5">
@@ -76527,7 +76527,7 @@
         <v>0</v>
       </c>
       <c r="E3671">
-        <v>11.92</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="3672" spans="1:5">
@@ -76544,7 +76544,7 @@
         <v>4.7</v>
       </c>
       <c r="E3672">
-        <v>-6.67</v>
+        <v>-6.239999999999999</v>
       </c>
     </row>
     <row r="3673" spans="1:5">
@@ -76578,7 +76578,7 @@
         <v>0</v>
       </c>
       <c r="E3674">
-        <v>-19.35</v>
+        <v>-20.57</v>
       </c>
     </row>
     <row r="3675" spans="1:5">
@@ -76612,7 +76612,7 @@
         <v>0</v>
       </c>
       <c r="E3676">
-        <v>-19.35</v>
+        <v>-20.57</v>
       </c>
     </row>
     <row r="3677" spans="1:5">
@@ -76714,7 +76714,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3682">
-        <v>5.96</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="3683" spans="1:5">
@@ -76748,7 +76748,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3684">
-        <v>5.96</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="3685" spans="1:5">
@@ -76765,7 +76765,7 @@
         <v>-0.18</v>
       </c>
       <c r="E3685">
-        <v>0.8999999999999999</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="3686" spans="1:5">
@@ -76782,7 +76782,7 @@
         <v>2.36</v>
       </c>
       <c r="E3686">
-        <v>-1.68</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="3687" spans="1:5">
@@ -76969,7 +76969,7 @@
         <v>47.34</v>
       </c>
       <c r="E3697">
-        <v>-1</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="3698" spans="1:5">
@@ -76986,7 +76986,7 @@
         <v>0</v>
       </c>
       <c r="E3698">
-        <v>-1.54</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="3699" spans="1:5">
@@ -77598,7 +77598,7 @@
         <v>0</v>
       </c>
       <c r="E3734">
-        <v>0.88</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="3735" spans="1:5">
@@ -77938,7 +77938,7 @@
         <v>21.42</v>
       </c>
       <c r="E3754">
-        <v>-19.8</v>
+        <v>-21.13</v>
       </c>
     </row>
     <row r="3755" spans="1:5">
@@ -78040,7 +78040,7 @@
         <v>0</v>
       </c>
       <c r="E3760">
-        <v>-9.120000000000001</v>
+        <v>-9.73</v>
       </c>
     </row>
     <row r="3761" spans="1:5">
@@ -78142,7 +78142,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3766">
-        <v>1.22</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3767" spans="1:5">
@@ -78159,7 +78159,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3767">
-        <v>1.22</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="3768" spans="1:5">
@@ -78261,7 +78261,7 @@
         <v>0</v>
       </c>
       <c r="E3773">
-        <v>22.52</v>
+        <v>24.02</v>
       </c>
     </row>
     <row r="3774" spans="1:5">
@@ -78380,7 +78380,7 @@
         <v>-15.35</v>
       </c>
       <c r="E3780">
-        <v>-4.53</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="3781" spans="1:5">
@@ -78635,7 +78635,7 @@
         <v>6.859999999999999</v>
       </c>
       <c r="E3795">
-        <v>-18.8</v>
+        <v>-20.05</v>
       </c>
     </row>
     <row r="3796" spans="1:5">
@@ -78652,7 +78652,7 @@
         <v>-2.27</v>
       </c>
       <c r="E3796">
-        <v>-4.72</v>
+        <v>-5.029999999999999</v>
       </c>
     </row>
     <row r="3797" spans="1:5">
@@ -78890,7 +78890,7 @@
         <v>0</v>
       </c>
       <c r="E3810">
-        <v>15.63</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="3811" spans="1:5">
@@ -79196,7 +79196,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3828">
-        <v>2.19</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3829" spans="1:5">
@@ -79213,7 +79213,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3829">
-        <v>2.19</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3830" spans="1:5">
@@ -79451,7 +79451,7 @@
         <v>0.52</v>
       </c>
       <c r="E3843">
-        <v>-11.3</v>
+        <v>-12.04</v>
       </c>
     </row>
     <row r="3844" spans="1:5">
@@ -79468,7 +79468,7 @@
         <v>-12.85</v>
       </c>
       <c r="E3844">
-        <v>11.06</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="3845" spans="1:5">
@@ -79519,7 +79519,7 @@
         <v>1.05</v>
       </c>
       <c r="E3847">
-        <v>-13.58</v>
+        <v>-14.48</v>
       </c>
     </row>
     <row r="3848" spans="1:5">
@@ -79944,7 +79944,7 @@
         <v>-19.69</v>
       </c>
       <c r="E3872">
-        <v>42.8</v>
+        <v>45.59</v>
       </c>
     </row>
     <row r="3873" spans="1:5">
@@ -79961,7 +79961,7 @@
         <v>-10.89</v>
       </c>
       <c r="E3873">
-        <v>21</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="3874" spans="1:5">
@@ -80063,7 +80063,7 @@
         <v>8.32</v>
       </c>
       <c r="E3879">
-        <v>-26.21</v>
+        <v>-28.05</v>
       </c>
     </row>
     <row r="3880" spans="1:5">
@@ -80080,7 +80080,7 @@
         <v>8.32</v>
       </c>
       <c r="E3880">
-        <v>-26.21</v>
+        <v>-28.05</v>
       </c>
     </row>
     <row r="3881" spans="1:5">
@@ -80097,7 +80097,7 @@
         <v>8.32</v>
       </c>
       <c r="E3881">
-        <v>-26.21</v>
+        <v>-28.05</v>
       </c>
     </row>
     <row r="3882" spans="1:5">
@@ -80131,7 +80131,7 @@
         <v>-13.77</v>
       </c>
       <c r="E3883">
-        <v>14.71</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="3884" spans="1:5">
@@ -80301,7 +80301,7 @@
         <v>0</v>
       </c>
       <c r="E3893">
-        <v>5.01</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="3894" spans="1:5">
@@ -80335,7 +80335,7 @@
         <v>2.48</v>
       </c>
       <c r="E3895">
-        <v>5.01</v>
+        <v>6.419999999999999</v>
       </c>
     </row>
     <row r="3896" spans="1:5">
@@ -80573,7 +80573,7 @@
         <v>-9.93</v>
       </c>
       <c r="E3909">
-        <v>1.65</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3910" spans="1:5">
@@ -80590,7 +80590,7 @@
         <v>0</v>
       </c>
       <c r="E3910">
-        <v>0</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="3911" spans="1:5">
@@ -80947,7 +80947,7 @@
         <v>-1.41</v>
       </c>
       <c r="E3931">
-        <v>-6</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="3932" spans="1:5">
@@ -80998,7 +80998,7 @@
         <v>1.13</v>
       </c>
       <c r="E3934">
-        <v>-4.18</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="3935" spans="1:5">
@@ -81576,7 +81576,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3968">
-        <v>2.6</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="3969" spans="1:5">
@@ -81593,7 +81593,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3969">
-        <v>2.6</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="3970" spans="1:5">
@@ -81610,7 +81610,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3970">
-        <v>2.6</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="3971" spans="1:5">
@@ -81627,7 +81627,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3971">
-        <v>2.6</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="3972" spans="1:5">
@@ -81644,7 +81644,7 @@
         <v>-14.58</v>
       </c>
       <c r="E3972">
-        <v>24.39</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="3973" spans="1:5">
@@ -82120,7 +82120,7 @@
         <v>-4.01</v>
       </c>
       <c r="E4000">
-        <v>0.3</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="4001" spans="1:5">
@@ -82273,7 +82273,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4009">
-        <v>20.59</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="4010" spans="1:5">
@@ -82290,7 +82290,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4010">
-        <v>20.59</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="4011" spans="1:5">
@@ -82307,7 +82307,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4011">
-        <v>20.59</v>
+        <v>16.44</v>
       </c>
     </row>
     <row r="4012" spans="1:5">
@@ -82613,7 +82613,7 @@
         <v>-17.74</v>
       </c>
       <c r="E4029">
-        <v>18.87</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="4030" spans="1:5">
@@ -83123,7 +83123,7 @@
         <v>0</v>
       </c>
       <c r="E4059">
-        <v>-18.84</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="4060" spans="1:5">
@@ -83157,7 +83157,7 @@
         <v>36.27</v>
       </c>
       <c r="E4061">
-        <v>-0.8</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="4062" spans="1:5">
@@ -83174,7 +83174,7 @@
         <v>15.42</v>
       </c>
       <c r="E4062">
-        <v>-19.7</v>
+        <v>-21.03</v>
       </c>
     </row>
     <row r="4063" spans="1:5">
@@ -83191,7 +83191,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4063">
-        <v>5.800000000000001</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="4064" spans="1:5">
@@ -83208,7 +83208,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4064">
-        <v>5.800000000000001</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="4065" spans="1:5">
@@ -83225,7 +83225,7 @@
         <v>22.24</v>
       </c>
       <c r="E4065">
-        <v>-17.98</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="4066" spans="1:5">
@@ -83242,7 +83242,7 @@
         <v>49.82</v>
       </c>
       <c r="E4066">
-        <v>-19.95</v>
+        <v>-13.66</v>
       </c>
     </row>
     <row r="4067" spans="1:5">
@@ -83259,7 +83259,7 @@
         <v>0</v>
       </c>
       <c r="E4067">
-        <v>-7.920000000000001</v>
+        <v>-8.459999999999999</v>
       </c>
     </row>
     <row r="4068" spans="1:5">
@@ -83276,7 +83276,7 @@
         <v>3.42</v>
       </c>
       <c r="E4068">
-        <v>-11.55</v>
+        <v>-12.32</v>
       </c>
     </row>
     <row r="4069" spans="1:5">
@@ -83293,7 +83293,7 @@
         <v>0</v>
       </c>
       <c r="E4069">
-        <v>-7.920000000000001</v>
+        <v>-8.459999999999999</v>
       </c>
     </row>
     <row r="4070" spans="1:5">
@@ -83565,7 +83565,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4085">
-        <v>-1.22</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="4086" spans="1:5">
@@ -83582,7 +83582,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4086">
-        <v>-1.22</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="4087" spans="1:5">
@@ -83650,7 +83650,7 @@
         <v>-7.16</v>
       </c>
       <c r="E4090">
-        <v>0.97</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="4091" spans="1:5">
@@ -83786,7 +83786,7 @@
         <v>-3.08</v>
       </c>
       <c r="E4098">
-        <v>3.97</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4099" spans="1:5">
@@ -83820,7 +83820,7 @@
         <v>-3.9</v>
       </c>
       <c r="E4100">
-        <v>32.22</v>
+        <v>34.37</v>
       </c>
     </row>
     <row r="4101" spans="1:5">
@@ -83871,7 +83871,7 @@
         <v>-2.87</v>
       </c>
       <c r="E4103">
-        <v>6.22</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="4104" spans="1:5">
@@ -83973,7 +83973,7 @@
         <v>0</v>
       </c>
       <c r="E4109">
-        <v>6.31</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="4110" spans="1:5">
@@ -84126,7 +84126,7 @@
         <v>0</v>
       </c>
       <c r="E4118">
-        <v>9.85</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="4119" spans="1:5">
@@ -85894,7 +85894,7 @@
         <v>0</v>
       </c>
       <c r="E4222">
-        <v>13.51</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="4223" spans="1:5">
@@ -86897,7 +86897,7 @@
         <v>0</v>
       </c>
       <c r="E4281">
-        <v>10.03</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="4282" spans="1:5">
@@ -87951,7 +87951,7 @@
         <v>3.35</v>
       </c>
       <c r="E4343">
-        <v>-1.19</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="4344" spans="1:5">
@@ -88138,7 +88138,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4354">
-        <v>15.08</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="4355" spans="1:5">
@@ -88155,7 +88155,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4355">
-        <v>15.08</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="4356" spans="1:5">
@@ -88172,7 +88172,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4356">
-        <v>15.08</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="4357" spans="1:5">
@@ -88189,7 +88189,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4357">
-        <v>15.08</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="4358" spans="1:5">
@@ -88206,7 +88206,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4358">
-        <v>15.08</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="4359" spans="1:5">
@@ -88240,7 +88240,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4360">
-        <v>20.95</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="4361" spans="1:5">
@@ -88257,7 +88257,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4361">
-        <v>20.95</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="4362" spans="1:5">
@@ -88274,7 +88274,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4362">
-        <v>20.95</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="4363" spans="1:5">
@@ -88291,7 +88291,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4363">
-        <v>20.95</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="4364" spans="1:5">
@@ -89362,7 +89362,7 @@
         <v>-3.85</v>
       </c>
       <c r="E4426">
-        <v>25.03</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="4427" spans="1:5">
@@ -89974,7 +89974,7 @@
         <v>17.67</v>
       </c>
       <c r="E4462">
-        <v>6.260000000000001</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="4463" spans="1:5">
@@ -89991,7 +89991,7 @@
         <v>16.03</v>
       </c>
       <c r="E4463">
-        <v>-10.84</v>
+        <v>-11.71</v>
       </c>
     </row>
     <row r="4464" spans="1:5">
@@ -90416,7 +90416,7 @@
         <v>1.05</v>
       </c>
       <c r="E4488">
-        <v>4.17</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="4489" spans="1:5">
@@ -90433,7 +90433,7 @@
         <v>4.55</v>
       </c>
       <c r="E4489">
-        <v>4.35</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="4490" spans="1:5">
@@ -90450,7 +90450,7 @@
         <v>0</v>
       </c>
       <c r="E4490">
-        <v>1.75</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="4491" spans="1:5">
@@ -90467,7 +90467,7 @@
         <v>0</v>
       </c>
       <c r="E4491">
-        <v>3.02</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="4492" spans="1:5">
@@ -90688,7 +90688,7 @@
         <v>0</v>
       </c>
       <c r="E4504">
-        <v>1.64</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="4505" spans="1:5">
@@ -90705,7 +90705,7 @@
         <v>0</v>
       </c>
       <c r="E4505">
-        <v>1.49</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="4506" spans="1:5">
@@ -90722,7 +90722,7 @@
         <v>0</v>
       </c>
       <c r="E4506">
-        <v>2.09</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4507" spans="1:5">
@@ -90909,7 +90909,7 @@
         <v>-1.84</v>
       </c>
       <c r="E4517">
-        <v>-1.34</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="4518" spans="1:5">
@@ -90943,7 +90943,7 @@
         <v>0</v>
       </c>
       <c r="E4519">
-        <v>-3.6</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="4520" spans="1:5">
@@ -90960,7 +90960,7 @@
         <v>22.74</v>
       </c>
       <c r="E4520">
-        <v>-16.02</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="4521" spans="1:5">
@@ -90977,7 +90977,7 @@
         <v>-18.74</v>
       </c>
       <c r="E4521">
-        <v>15.01</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="4522" spans="1:5">
@@ -90994,7 +90994,7 @@
         <v>10.91</v>
       </c>
       <c r="E4522">
-        <v>-19.33</v>
+        <v>-20.64</v>
       </c>
     </row>
     <row r="4523" spans="1:5">
@@ -91079,7 +91079,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E4527">
-        <v>-10.91</v>
+        <v>-10.61</v>
       </c>
     </row>
     <row r="4528" spans="1:5">
@@ -91096,7 +91096,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E4528">
-        <v>-10.91</v>
+        <v>-10.61</v>
       </c>
     </row>
     <row r="4529" spans="1:5">
@@ -91113,7 +91113,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E4529">
-        <v>4.21</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="4530" spans="1:5">
@@ -91130,7 +91130,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4530">
-        <v>10.38</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="4531" spans="1:5">
@@ -91147,7 +91147,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4531">
-        <v>10.38</v>
+        <v>11.07</v>
       </c>
     </row>
     <row r="4532" spans="1:5">
@@ -91266,7 +91266,7 @@
         <v>0</v>
       </c>
       <c r="E4538">
-        <v>3.35</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="4539" spans="1:5">
@@ -91283,7 +91283,7 @@
         <v>0</v>
       </c>
       <c r="E4539">
-        <v>3.35</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="4540" spans="1:5">
@@ -91300,7 +91300,7 @@
         <v>0</v>
       </c>
       <c r="E4540">
-        <v>3.35</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="4541" spans="1:5">
@@ -91317,7 +91317,7 @@
         <v>0</v>
       </c>
       <c r="E4541">
-        <v>3.35</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="4542" spans="1:5">
@@ -91334,7 +91334,7 @@
         <v>0</v>
       </c>
       <c r="E4542">
-        <v>0.7799999999999999</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4543" spans="1:5">
@@ -91351,7 +91351,7 @@
         <v>0</v>
       </c>
       <c r="E4543">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="4544" spans="1:5">
@@ -91453,7 +91453,7 @@
         <v>3.45</v>
       </c>
       <c r="E4549">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="4550" spans="1:5">
@@ -91538,7 +91538,7 @@
         <v>0</v>
       </c>
       <c r="E4554">
-        <v>8.77</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="4555" spans="1:5">
@@ -91946,7 +91946,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="E4578">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
     </row>
   </sheetData>

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -14171,7 +14171,7 @@
         <v>-12.57</v>
       </c>
       <c r="E3">
-        <v>33.44</v>
+        <v>38.96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14222,7 +14222,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-8.890000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14426,7 +14426,7 @@
         <v>4.08</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>20.69</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -15089,7 +15089,7 @@
         <v>18.12</v>
       </c>
       <c r="E57">
-        <v>0.76</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15242,7 +15242,7 @@
         <v>0.11</v>
       </c>
       <c r="E66">
-        <v>14.49</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -15259,7 +15259,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E67">
-        <v>3.48</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -15548,7 +15548,7 @@
         <v>3.24</v>
       </c>
       <c r="E84">
-        <v>-0.8500000000000001</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -15582,7 +15582,7 @@
         <v>3.09</v>
       </c>
       <c r="E86">
-        <v>-4.67</v>
+        <v>-7.779999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -15786,7 +15786,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -15837,7 +15837,7 @@
         <v>-9.26</v>
       </c>
       <c r="E101">
-        <v>3.82</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -15922,7 +15922,7 @@
         <v>-8.25</v>
       </c>
       <c r="E106">
-        <v>4.79</v>
+        <v>5.489999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -15939,7 +15939,7 @@
         <v>-12.91</v>
       </c>
       <c r="E107">
-        <v>11.37</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -15956,7 +15956,7 @@
         <v>33.1</v>
       </c>
       <c r="E108">
-        <v>-19.42</v>
+        <v>-20.39</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -15973,7 +15973,7 @@
         <v>14.66</v>
       </c>
       <c r="E109">
-        <v>-18.25</v>
+        <v>-19.03</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -16177,7 +16177,7 @@
         <v>-10.77</v>
       </c>
       <c r="E121">
-        <v>-0.75</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -16194,7 +16194,7 @@
         <v>-10.77</v>
       </c>
       <c r="E122">
-        <v>7.670000000000001</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -16228,7 +16228,7 @@
         <v>6.78</v>
       </c>
       <c r="E124">
-        <v>-14.79</v>
+        <v>-15.39</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -16245,7 +16245,7 @@
         <v>-20.3</v>
       </c>
       <c r="E125">
-        <v>18.72</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -16296,7 +16296,7 @@
         <v>4.68</v>
       </c>
       <c r="E128">
-        <v>-11.1</v>
+        <v>-13.74</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -16398,7 +16398,7 @@
         <v>-13.96</v>
       </c>
       <c r="E134">
-        <v>8.66</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>-26.85</v>
+        <v>-28.36</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -16466,7 +16466,7 @@
         <v>31.84</v>
       </c>
       <c r="E138">
-        <v>-26.85</v>
+        <v>-27.97</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>-26.85</v>
+        <v>-28.36</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>-26.85</v>
+        <v>-28.36</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -16568,7 +16568,7 @@
         <v>12.57</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -16585,7 +16585,7 @@
         <v>10.86</v>
       </c>
       <c r="E145">
-        <v>-1.16</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -16636,7 +16636,7 @@
         <v>-9.24</v>
       </c>
       <c r="E148">
-        <v>8.119999999999999</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -16738,7 +16738,7 @@
         <v>-9.59</v>
       </c>
       <c r="E154">
-        <v>29.34</v>
+        <v>30.55</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -16806,7 +16806,7 @@
         <v>12.85</v>
       </c>
       <c r="E158">
-        <v>24.41</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -17384,7 +17384,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -17622,7 +17622,7 @@
         <v>-16.92</v>
       </c>
       <c r="E206">
-        <v>28.53</v>
+        <v>26.37</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -17639,7 +17639,7 @@
         <v>-10.11</v>
       </c>
       <c r="E207">
-        <v>15.73</v>
+        <v>15.69</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -17724,7 +17724,7 @@
         <v>13.21</v>
       </c>
       <c r="E212">
-        <v>-9.610000000000001</v>
+        <v>-10.28</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -17758,7 +17758,7 @@
         <v>11.56</v>
       </c>
       <c r="E214">
-        <v>4.61</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -17775,7 +17775,7 @@
         <v>5.84</v>
       </c>
       <c r="E215">
-        <v>-1.11</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -18200,7 +18200,7 @@
         <v>-14.63</v>
       </c>
       <c r="E240">
-        <v>11.98</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -18251,7 +18251,7 @@
         <v>-12.32</v>
       </c>
       <c r="E243">
-        <v>-4.9</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="E246">
-        <v>5.19</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -18353,7 +18353,7 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <v>-9.1</v>
+        <v>-11.35</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -18387,7 +18387,7 @@
         <v>-20.57</v>
       </c>
       <c r="E251">
-        <v>3.21</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -18404,7 +18404,7 @@
         <v>-14.54</v>
       </c>
       <c r="E252">
-        <v>-1.91</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -18455,7 +18455,7 @@
         <v>-5.319999999999999</v>
       </c>
       <c r="E255">
-        <v>-3.04</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>-2.15</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>-4.34</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -18540,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>-8.25</v>
+        <v>-10.46</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -18761,7 +18761,7 @@
         <v>-2.77</v>
       </c>
       <c r="E273">
-        <v>-6.43</v>
+        <v>-6.710000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -18778,7 +18778,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="E274">
-        <v>-2.22</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -19033,7 +19033,7 @@
         <v>-5.38</v>
       </c>
       <c r="E289">
-        <v>-6.22</v>
+        <v>-4.23</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -19220,7 +19220,7 @@
         <v>2.01</v>
       </c>
       <c r="E300">
-        <v>-13.61</v>
+        <v>-11.64</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>-11.33</v>
+        <v>-13.79</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -19305,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>-5.59</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>-3.88</v>
+        <v>-4.850000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>-2.01</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>3.25</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -19475,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>-4.01</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -19560,7 +19560,7 @@
         <v>-3.06</v>
       </c>
       <c r="E320">
-        <v>-8.630000000000001</v>
+        <v>-8.17</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -19628,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>-9.800000000000001</v>
+        <v>-12.25</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>-6.02</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>-5.59</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -20172,7 +20172,7 @@
         <v>-3.06</v>
       </c>
       <c r="E356">
-        <v>-1.25</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -20240,7 +20240,7 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>-0.32</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -20580,7 +20580,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>4.18</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -20631,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>-16.05</v>
+        <v>-16.72</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -21872,7 +21872,7 @@
         <v>2.8</v>
       </c>
       <c r="E456">
-        <v>2.52</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -21889,7 +21889,7 @@
         <v>1.26</v>
       </c>
       <c r="E457">
-        <v>0.9299999999999999</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -21906,7 +21906,7 @@
         <v>2.65</v>
       </c>
       <c r="E458">
-        <v>25</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -21940,7 +21940,7 @@
         <v>-7.93</v>
       </c>
       <c r="E460">
-        <v>24.02</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -21957,7 +21957,7 @@
         <v>-7.93</v>
       </c>
       <c r="E461">
-        <v>24.02</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -21974,7 +21974,7 @@
         <v>-7.93</v>
       </c>
       <c r="E462">
-        <v>24.02</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -21991,7 +21991,7 @@
         <v>-7.93</v>
       </c>
       <c r="E463">
-        <v>24.02</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -22059,7 +22059,7 @@
         <v>-12.93</v>
       </c>
       <c r="E467">
-        <v>6.25</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -22110,7 +22110,7 @@
         <v>-5.79</v>
       </c>
       <c r="E470">
-        <v>-5.24</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -22246,7 +22246,7 @@
         <v>-3.12</v>
       </c>
       <c r="E478">
-        <v>-3.68</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -22263,7 +22263,7 @@
         <v>-3.12</v>
       </c>
       <c r="E479">
-        <v>-0.9199999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -22365,7 +22365,7 @@
         <v>-2.25</v>
       </c>
       <c r="E485">
-        <v>8.619999999999999</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -22467,7 +22467,7 @@
         <v>-1.2</v>
       </c>
       <c r="E491">
-        <v>-14.56</v>
+        <v>-14.9</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -22484,7 +22484,7 @@
         <v>-1.2</v>
       </c>
       <c r="E492">
-        <v>-6.239999999999999</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -22501,7 +22501,7 @@
         <v>-2</v>
       </c>
       <c r="E493">
-        <v>8.91</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -22518,7 +22518,7 @@
         <v>-2</v>
       </c>
       <c r="E494">
-        <v>8.91</v>
+        <v>9.279999999999999</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -22535,7 +22535,7 @@
         <v>-12.39</v>
       </c>
       <c r="E495">
-        <v>16.16</v>
+        <v>17.17</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -22603,7 +22603,7 @@
         <v>-8.959999999999999</v>
       </c>
       <c r="E499">
-        <v>4.14</v>
+        <v>5.850000000000001</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -22671,7 +22671,7 @@
         <v>5.94</v>
       </c>
       <c r="E503">
-        <v>-1.06</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -22688,7 +22688,7 @@
         <v>5.94</v>
       </c>
       <c r="E504">
-        <v>-1.06</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -22705,7 +22705,7 @@
         <v>5.94</v>
       </c>
       <c r="E505">
-        <v>-1.06</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -22722,7 +22722,7 @@
         <v>5.94</v>
       </c>
       <c r="E506">
-        <v>-1.06</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>6.68</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>-7.28</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="E515">
-        <v>-4.88</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="E516">
-        <v>-4.88</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -22909,7 +22909,7 @@
         <v>1.46</v>
       </c>
       <c r="E517">
-        <v>-0.29</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -22926,7 +22926,7 @@
         <v>0</v>
       </c>
       <c r="E518">
-        <v>6.68</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -22943,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="E519">
-        <v>-7.28</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="E520">
-        <v>-7.28</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -23096,7 +23096,7 @@
         <v>15.22</v>
       </c>
       <c r="E528">
-        <v>29.43</v>
+        <v>30.33</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -23368,7 +23368,7 @@
         <v>-6.79</v>
       </c>
       <c r="E544">
-        <v>2.19</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -23487,7 +23487,7 @@
         <v>0</v>
       </c>
       <c r="E551">
-        <v>-7.380000000000001</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="E554">
-        <v>-1.29</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -23674,7 +23674,7 @@
         <v>9.73</v>
       </c>
       <c r="E562">
-        <v>15.6</v>
+        <v>16.51</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="E575">
-        <v>-16.02</v>
+        <v>-16.69</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -23946,7 +23946,7 @@
         <v>-8.81</v>
       </c>
       <c r="E578">
-        <v>2.84</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="E591">
-        <v>2.12</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -24303,7 +24303,7 @@
         <v>-4.17</v>
       </c>
       <c r="E599">
-        <v>-6.32</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -24320,7 +24320,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="E600">
-        <v>2.76</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -24337,7 +24337,7 @@
         <v>0</v>
       </c>
       <c r="E601">
-        <v>7.89</v>
+        <v>8.260000000000002</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -24354,7 +24354,7 @@
         <v>2.75</v>
       </c>
       <c r="E602">
-        <v>8.75</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -24371,7 +24371,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="E603">
-        <v>-11.05</v>
+        <v>-7.73</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -24388,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="E604">
-        <v>6.69</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -24592,7 +24592,7 @@
         <v>0</v>
       </c>
       <c r="E616">
-        <v>5.01</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E617">
-        <v>7.95</v>
+        <v>8.709999999999999</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -24626,7 +24626,7 @@
         <v>0</v>
       </c>
       <c r="E618">
-        <v>7.95</v>
+        <v>8.709999999999999</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="E619">
-        <v>7.95</v>
+        <v>8.709999999999999</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -24796,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="E628">
-        <v>-19.06</v>
+        <v>-19.73</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -24847,7 +24847,7 @@
         <v>0.6</v>
       </c>
       <c r="E631">
-        <v>-9.180000000000001</v>
+        <v>-10.38</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -25119,7 +25119,7 @@
         <v>4.74</v>
       </c>
       <c r="E647">
-        <v>-8.039999999999999</v>
+        <v>-8.540000000000001</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -25136,7 +25136,7 @@
         <v>4.74</v>
       </c>
       <c r="E648">
-        <v>-8.039999999999999</v>
+        <v>-8.540000000000001</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -25153,7 +25153,7 @@
         <v>4.74</v>
       </c>
       <c r="E649">
-        <v>-8.039999999999999</v>
+        <v>-8.540000000000001</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -25170,7 +25170,7 @@
         <v>0.79</v>
       </c>
       <c r="E650">
-        <v>1.31</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -25221,7 +25221,7 @@
         <v>9.1</v>
       </c>
       <c r="E653">
-        <v>5.83</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -25255,7 +25255,7 @@
         <v>-8.81</v>
       </c>
       <c r="E655">
-        <v>2.84</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -25357,7 +25357,7 @@
         <v>-6.79</v>
       </c>
       <c r="E661">
-        <v>2.19</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -25476,7 +25476,7 @@
         <v>15.91</v>
       </c>
       <c r="E668">
-        <v>-11.9</v>
+        <v>-12.61</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="E678">
-        <v>-8.02</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -25680,7 +25680,7 @@
         <v>-9.550000000000001</v>
       </c>
       <c r="E680">
-        <v>10.05</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -25714,7 +25714,7 @@
         <v>0</v>
       </c>
       <c r="E682">
-        <v>23.92</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
       <c r="E683">
-        <v>23.92</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -25748,7 +25748,7 @@
         <v>0</v>
       </c>
       <c r="E684">
-        <v>23.92</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="E689">
-        <v>-1.74</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -25850,7 +25850,7 @@
         <v>-5.74</v>
       </c>
       <c r="E690">
-        <v>1.84</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -25969,7 +25969,7 @@
         <v>0</v>
       </c>
       <c r="E697">
-        <v>106.02</v>
+        <v>110.44</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -26292,7 +26292,7 @@
         <v>-2.39</v>
       </c>
       <c r="E716">
-        <v>-0.97</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -26309,7 +26309,7 @@
         <v>-1.06</v>
       </c>
       <c r="E717">
-        <v>-0.43</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -26326,7 +26326,7 @@
         <v>12.21</v>
       </c>
       <c r="E718">
-        <v>-0.64</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -26343,7 +26343,7 @@
         <v>3.95</v>
       </c>
       <c r="E719">
-        <v>-0.75</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -26598,7 +26598,7 @@
         <v>1.86</v>
       </c>
       <c r="E734">
-        <v>-7.89</v>
+        <v>-7.290000000000001</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -26666,7 +26666,7 @@
         <v>7.720000000000001</v>
       </c>
       <c r="E738">
-        <v>-7.89</v>
+        <v>-7.290000000000001</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -26717,7 +26717,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E741">
-        <v>0.43</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -26734,7 +26734,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E742">
-        <v>0.43</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -26785,7 +26785,7 @@
         <v>-1.68</v>
       </c>
       <c r="E745">
-        <v>-0.6899999999999999</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -26819,7 +26819,7 @@
         <v>-1.68</v>
       </c>
       <c r="E747">
-        <v>-0.6899999999999999</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -27108,7 +27108,7 @@
         <v>0</v>
       </c>
       <c r="E764">
-        <v>-3.88</v>
+        <v>-4.130000000000001</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -27125,7 +27125,7 @@
         <v>0</v>
       </c>
       <c r="E765">
-        <v>-3.59</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -27244,7 +27244,7 @@
         <v>-12.82</v>
       </c>
       <c r="E772">
-        <v>-2.88</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="E773">
-        <v>-6.959999999999999</v>
+        <v>-7.249999999999999</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -27278,7 +27278,7 @@
         <v>0</v>
       </c>
       <c r="E774">
-        <v>1.76</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -27312,7 +27312,7 @@
         <v>0</v>
       </c>
       <c r="E776">
-        <v>-4.41</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -27346,7 +27346,7 @@
         <v>0</v>
       </c>
       <c r="E778">
-        <v>-4.41</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="E802">
-        <v>9.779999999999999</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="E807">
-        <v>-38.06</v>
+        <v>-39.63</v>
       </c>
     </row>
     <row r="808" spans="1:5">
@@ -27856,7 +27856,7 @@
         <v>16.67</v>
       </c>
       <c r="E808">
-        <v>-32.17</v>
+        <v>-33.90000000000001</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="E809">
-        <v>-38.06</v>
+        <v>-39.63</v>
       </c>
     </row>
     <row r="810" spans="1:5">
@@ -27890,7 +27890,7 @@
         <v>0</v>
       </c>
       <c r="E810">
-        <v>-38.06</v>
+        <v>-39.63</v>
       </c>
     </row>
     <row r="811" spans="1:5">
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="E811">
-        <v>-38.06</v>
+        <v>-39.63</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -28145,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="E825">
-        <v>10.17</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="826" spans="1:5">
@@ -28162,7 +28162,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E826">
-        <v>0.43</v>
+        <v>0.5599999999999999</v>
       </c>
     </row>
     <row r="827" spans="1:5">
@@ -28961,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="E873">
-        <v>-9.1</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="874" spans="1:5">
@@ -29063,7 +29063,7 @@
         <v>0</v>
       </c>
       <c r="E879">
-        <v>-18.47</v>
+        <v>-19.24</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -29199,7 +29199,7 @@
         <v>7.969999999999999</v>
       </c>
       <c r="E887">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="888" spans="1:5">
@@ -29233,7 +29233,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="E889">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="890" spans="1:5">
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="E890">
-        <v>-9.27</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="891" spans="1:5">
@@ -29267,7 +29267,7 @@
         <v>7.41</v>
       </c>
       <c r="E891">
-        <v>-4.84</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="892" spans="1:5">
@@ -29284,7 +29284,7 @@
         <v>8.25</v>
       </c>
       <c r="E892">
-        <v>-5.02</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="893" spans="1:5">
@@ -29522,7 +29522,7 @@
         <v>-8.210000000000001</v>
       </c>
       <c r="E906">
-        <v>10</v>
+        <v>10.45</v>
       </c>
     </row>
     <row r="907" spans="1:5">
@@ -29590,7 +29590,7 @@
         <v>0.83</v>
       </c>
       <c r="E910">
-        <v>0</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="911" spans="1:5">
@@ -29879,7 +29879,7 @@
         <v>-9.73</v>
       </c>
       <c r="E927">
-        <v>20.05</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="928" spans="1:5">
@@ -29896,7 +29896,7 @@
         <v>-12.2</v>
       </c>
       <c r="E928">
-        <v>15.44</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="929" spans="1:5">
@@ -29913,7 +29913,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E929">
-        <v>5.37</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="930" spans="1:5">
@@ -29947,7 +29947,7 @@
         <v>-3.92</v>
       </c>
       <c r="E931">
-        <v>7.52</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="932" spans="1:5">
@@ -29981,7 +29981,7 @@
         <v>-2.42</v>
       </c>
       <c r="E933">
-        <v>-1.06</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="934" spans="1:5">
@@ -30015,7 +30015,7 @@
         <v>-2.42</v>
       </c>
       <c r="E935">
-        <v>-1.06</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -30049,7 +30049,7 @@
         <v>-2.42</v>
       </c>
       <c r="E937">
-        <v>-1.06</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="938" spans="1:5">
@@ -30100,7 +30100,7 @@
         <v>-7.61</v>
       </c>
       <c r="E940">
-        <v>2.61</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="941" spans="1:5">
@@ -30151,7 +30151,7 @@
         <v>0.22</v>
       </c>
       <c r="E943">
-        <v>-0.67</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="944" spans="1:5">
@@ -30168,7 +30168,7 @@
         <v>1.07</v>
       </c>
       <c r="E944">
-        <v>17.16</v>
+        <v>18.01</v>
       </c>
     </row>
     <row r="945" spans="1:5">
@@ -30219,7 +30219,7 @@
         <v>-5.21</v>
       </c>
       <c r="E947">
-        <v>10.36</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -30253,7 +30253,7 @@
         <v>-2.32</v>
       </c>
       <c r="E949">
-        <v>1.06</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="950" spans="1:5">
@@ -30287,7 +30287,7 @@
         <v>42.56</v>
       </c>
       <c r="E951">
-        <v>-0.58</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="952" spans="1:5">
@@ -30321,7 +30321,7 @@
         <v>30.52</v>
       </c>
       <c r="E953">
-        <v>8.35</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="954" spans="1:5">
@@ -30338,7 +30338,7 @@
         <v>26.72</v>
       </c>
       <c r="E954">
-        <v>16.78</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="955" spans="1:5">
@@ -30389,7 +30389,7 @@
         <v>-1.93</v>
       </c>
       <c r="E957">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="958" spans="1:5">
@@ -30406,7 +30406,7 @@
         <v>-1.61</v>
       </c>
       <c r="E958">
-        <v>2.91</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="959" spans="1:5">
@@ -30440,7 +30440,7 @@
         <v>-11.97</v>
       </c>
       <c r="E960">
-        <v>15.27</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="961" spans="1:5">
@@ -30491,7 +30491,7 @@
         <v>-12.53</v>
       </c>
       <c r="E963">
-        <v>16.05</v>
+        <v>16.62</v>
       </c>
     </row>
     <row r="964" spans="1:5">
@@ -30525,7 +30525,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="E965">
-        <v>16.05</v>
+        <v>13.47</v>
       </c>
     </row>
     <row r="966" spans="1:5">
@@ -30559,7 +30559,7 @@
         <v>-1.1</v>
       </c>
       <c r="E967">
-        <v>-0.9400000000000001</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="968" spans="1:5">
@@ -30576,7 +30576,7 @@
         <v>-2.15</v>
       </c>
       <c r="E968">
-        <v>-0.88</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="969" spans="1:5">
@@ -30593,7 +30593,7 @@
         <v>-7.51</v>
       </c>
       <c r="E969">
-        <v>15.27</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="970" spans="1:5">
@@ -30610,7 +30610,7 @@
         <v>-2.21</v>
       </c>
       <c r="E970">
-        <v>2.51</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="971" spans="1:5">
@@ -30627,7 +30627,7 @@
         <v>-3.29</v>
       </c>
       <c r="E971">
-        <v>6.41</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="972" spans="1:5">
@@ -30644,7 +30644,7 @@
         <v>-2.76</v>
       </c>
       <c r="E972">
-        <v>3.01</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="973" spans="1:5">
@@ -30661,7 +30661,7 @@
         <v>-1.8</v>
       </c>
       <c r="E973">
-        <v>6.68</v>
+        <v>5.510000000000001</v>
       </c>
     </row>
     <row r="974" spans="1:5">
@@ -30695,7 +30695,7 @@
         <v>0</v>
       </c>
       <c r="E975">
-        <v>16.74</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="976" spans="1:5">
@@ -30729,7 +30729,7 @@
         <v>3.55</v>
       </c>
       <c r="E977">
-        <v>-39.19</v>
+        <v>-40.40000000000001</v>
       </c>
     </row>
     <row r="978" spans="1:5">
@@ -30746,7 +30746,7 @@
         <v>-1.46</v>
       </c>
       <c r="E978">
-        <v>-0.5599999999999999</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="979" spans="1:5">
@@ -30797,7 +30797,7 @@
         <v>-7.779999999999999</v>
       </c>
       <c r="E981">
-        <v>16.06</v>
+        <v>16.87</v>
       </c>
     </row>
     <row r="982" spans="1:5">
@@ -30882,7 +30882,7 @@
         <v>11.14</v>
       </c>
       <c r="E986">
-        <v>5.66</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="987" spans="1:5">
@@ -30933,7 +30933,7 @@
         <v>-8.4</v>
       </c>
       <c r="E989">
-        <v>10.48</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="990" spans="1:5">
@@ -30950,7 +30950,7 @@
         <v>3.15</v>
       </c>
       <c r="E990">
-        <v>-0.6799999999999999</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="991" spans="1:5">
@@ -31035,7 +31035,7 @@
         <v>-24.62</v>
       </c>
       <c r="E995">
-        <v>0</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="996" spans="1:5">
@@ -31052,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="E996">
-        <v>17.56</v>
+        <v>18.23</v>
       </c>
     </row>
     <row r="997" spans="1:5">
@@ -31069,7 +31069,7 @@
         <v>-5.65</v>
       </c>
       <c r="E997">
-        <v>-2.88</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="998" spans="1:5">
@@ -31086,7 +31086,7 @@
         <v>-3.8</v>
       </c>
       <c r="E998">
-        <v>7.290000000000001</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="999" spans="1:5">
@@ -31103,7 +31103,7 @@
         <v>-5.77</v>
       </c>
       <c r="E999">
-        <v>7.399999999999999</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="1000" spans="1:5">
@@ -31120,7 +31120,7 @@
         <v>-2.33</v>
       </c>
       <c r="E1000">
-        <v>5.73</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="1001" spans="1:5">
@@ -31188,7 +31188,7 @@
         <v>11.31</v>
       </c>
       <c r="E1004">
-        <v>-11.59</v>
+        <v>-12.02</v>
       </c>
     </row>
     <row r="1005" spans="1:5">
@@ -31205,7 +31205,7 @@
         <v>11.31</v>
       </c>
       <c r="E1005">
-        <v>-11.59</v>
+        <v>-12.02</v>
       </c>
     </row>
     <row r="1006" spans="1:5">
@@ -31239,7 +31239,7 @@
         <v>11.31</v>
       </c>
       <c r="E1007">
-        <v>-11.59</v>
+        <v>-12.02</v>
       </c>
     </row>
     <row r="1008" spans="1:5">
@@ -31256,7 +31256,7 @@
         <v>1.13</v>
       </c>
       <c r="E1008">
-        <v>23.79</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="1009" spans="1:5">
@@ -31307,7 +31307,7 @@
         <v>1.32</v>
       </c>
       <c r="E1011">
-        <v>-0.33</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="1012" spans="1:5">
@@ -31341,7 +31341,7 @@
         <v>1.58</v>
       </c>
       <c r="E1013">
-        <v>-0.39</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="1014" spans="1:5">
@@ -31392,7 +31392,7 @@
         <v>-5.21</v>
       </c>
       <c r="E1016">
-        <v>10.36</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="1017" spans="1:5">
@@ -31409,7 +31409,7 @@
         <v>-5.67</v>
       </c>
       <c r="E1017">
-        <v>11.22</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="1018" spans="1:5">
@@ -31426,7 +31426,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="E1018">
-        <v>4.75</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="1019" spans="1:5">
@@ -31443,7 +31443,7 @@
         <v>-0.95</v>
       </c>
       <c r="E1019">
-        <v>0.95</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="1020" spans="1:5">
@@ -31460,7 +31460,7 @@
         <v>-2.16</v>
       </c>
       <c r="E1020">
-        <v>4.21</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="1021" spans="1:5">
@@ -31477,7 +31477,7 @@
         <v>-4.04</v>
       </c>
       <c r="E1021">
-        <v>5.609999999999999</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="1022" spans="1:5">
@@ -31545,7 +31545,7 @@
         <v>-23.52</v>
       </c>
       <c r="E1025">
-        <v>18.53</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="1026" spans="1:5">
@@ -31681,7 +31681,7 @@
         <v>-6.13</v>
       </c>
       <c r="E1033">
-        <v>5.23</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="1034" spans="1:5">
@@ -31919,7 +31919,7 @@
         <v>0</v>
       </c>
       <c r="E1047">
-        <v>25.46</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="1048" spans="1:5">
@@ -32480,7 +32480,7 @@
         <v>0</v>
       </c>
       <c r="E1080">
-        <v>6.370000000000001</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="1081" spans="1:5">
@@ -32650,7 +32650,7 @@
         <v>4.33</v>
       </c>
       <c r="E1090">
-        <v>-6.3</v>
+        <v>-7.739999999999999</v>
       </c>
     </row>
     <row r="1091" spans="1:5">
@@ -32786,7 +32786,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1098">
-        <v>1.45</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -32820,7 +32820,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1100">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="1101" spans="1:5">
@@ -32837,7 +32837,7 @@
         <v>-7.61</v>
       </c>
       <c r="E1101">
-        <v>-9.17</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="1102" spans="1:5">
@@ -32854,7 +32854,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1102">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="1103" spans="1:5">
@@ -32888,7 +32888,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1104">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="1105" spans="1:5">
@@ -32922,7 +32922,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1106">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
@@ -32939,7 +32939,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1107">
-        <v>1.37</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="1108" spans="1:5">
@@ -32973,7 +32973,7 @@
         <v>4.33</v>
       </c>
       <c r="E1109">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:5">
@@ -33075,7 +33075,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1115">
-        <v>-17.05</v>
+        <v>-17.68</v>
       </c>
     </row>
     <row r="1116" spans="1:5">
@@ -33092,7 +33092,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1116">
-        <v>-17.05</v>
+        <v>-17.68</v>
       </c>
     </row>
     <row r="1117" spans="1:5">
@@ -33160,7 +33160,7 @@
         <v>0</v>
       </c>
       <c r="E1120">
-        <v>-18.49</v>
+        <v>-19.26</v>
       </c>
     </row>
     <row r="1121" spans="1:5">
@@ -33177,7 +33177,7 @@
         <v>3.55</v>
       </c>
       <c r="E1121">
-        <v>-15.7</v>
+        <v>-16.49</v>
       </c>
     </row>
     <row r="1122" spans="1:5">
@@ -33211,7 +33211,7 @@
         <v>3.55</v>
       </c>
       <c r="E1123">
-        <v>-15.7</v>
+        <v>-16.49</v>
       </c>
     </row>
     <row r="1124" spans="1:5">
@@ -33228,7 +33228,7 @@
         <v>2.14</v>
       </c>
       <c r="E1124">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1125" spans="1:5">
@@ -33245,7 +33245,7 @@
         <v>2.14</v>
       </c>
       <c r="E1125">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1126" spans="1:5">
@@ -33262,7 +33262,7 @@
         <v>2.14</v>
       </c>
       <c r="E1126">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1127" spans="1:5">
@@ -33279,7 +33279,7 @@
         <v>2.14</v>
       </c>
       <c r="E1127">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1128" spans="1:5">
@@ -33296,7 +33296,7 @@
         <v>2.14</v>
       </c>
       <c r="E1128">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1129" spans="1:5">
@@ -33313,7 +33313,7 @@
         <v>2.14</v>
       </c>
       <c r="E1129">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1130" spans="1:5">
@@ -33330,7 +33330,7 @@
         <v>2.14</v>
       </c>
       <c r="E1130">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1131" spans="1:5">
@@ -33364,7 +33364,7 @@
         <v>2.14</v>
       </c>
       <c r="E1132">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
@@ -33568,7 +33568,7 @@
         <v>0</v>
       </c>
       <c r="E1144">
-        <v>10.93</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="1145" spans="1:5">
@@ -33585,7 +33585,7 @@
         <v>0</v>
       </c>
       <c r="E1145">
-        <v>10.93</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="1146" spans="1:5">
@@ -33602,7 +33602,7 @@
         <v>0</v>
       </c>
       <c r="E1146">
-        <v>10.93</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="1147" spans="1:5">
@@ -33619,7 +33619,7 @@
         <v>0</v>
       </c>
       <c r="E1147">
-        <v>10.93</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="1148" spans="1:5">
@@ -33806,7 +33806,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1158">
-        <v>-5</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="1159" spans="1:5">
@@ -33942,7 +33942,7 @@
         <v>0</v>
       </c>
       <c r="E1166">
-        <v>23.18</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="1167" spans="1:5">
@@ -34027,7 +34027,7 @@
         <v>2.19</v>
       </c>
       <c r="E1171">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1172" spans="1:5">
@@ -34044,7 +34044,7 @@
         <v>2.19</v>
       </c>
       <c r="E1172">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="1173" spans="1:5">
@@ -34061,7 +34061,7 @@
         <v>3.56</v>
       </c>
       <c r="E1173">
-        <v>1.92</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="1174" spans="1:5">
@@ -34095,7 +34095,7 @@
         <v>10.86</v>
       </c>
       <c r="E1175">
-        <v>-4.56</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="1176" spans="1:5">
@@ -34112,7 +34112,7 @@
         <v>-1.91</v>
       </c>
       <c r="E1176">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="1177" spans="1:5">
@@ -34129,7 +34129,7 @@
         <v>-0.67</v>
       </c>
       <c r="E1177">
-        <v>-0.29</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="1178" spans="1:5">
@@ -34146,7 +34146,7 @@
         <v>-0.84</v>
       </c>
       <c r="E1178">
-        <v>0.51</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1179" spans="1:5">
@@ -34163,7 +34163,7 @@
         <v>-1.55</v>
       </c>
       <c r="E1179">
-        <v>0.16</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="1180" spans="1:5">
@@ -34180,7 +34180,7 @@
         <v>0</v>
       </c>
       <c r="E1180">
-        <v>21.86</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="1181" spans="1:5">
@@ -34231,7 +34231,7 @@
         <v>0</v>
       </c>
       <c r="E1183">
-        <v>4.45</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="1184" spans="1:5">
@@ -34282,7 +34282,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="E1186">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="1187" spans="1:5">
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="E1211">
-        <v>-6.329999999999999</v>
+        <v>-7.920000000000001</v>
       </c>
     </row>
     <row r="1212" spans="1:5">
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="E1216">
-        <v>-4.45</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="1217" spans="1:5">
@@ -35047,7 +35047,7 @@
         <v>0</v>
       </c>
       <c r="E1231">
-        <v>-6.16</v>
+        <v>-6.47</v>
       </c>
     </row>
     <row r="1232" spans="1:5">
@@ -35336,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="E1248">
-        <v>28.67</v>
+        <v>29.77</v>
       </c>
     </row>
     <row r="1249" spans="1:5">
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="E1252">
-        <v>4.34</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1253" spans="1:5">
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="E1253">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="1254" spans="1:5">
@@ -35455,7 +35455,7 @@
         <v>0</v>
       </c>
       <c r="E1255">
-        <v>4.34</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1256" spans="1:5">
@@ -35472,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="E1256">
-        <v>4.34</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1257" spans="1:5">
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="E1257">
-        <v>-1.91</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="1258" spans="1:5">
@@ -35591,7 +35591,7 @@
         <v>49.34</v>
       </c>
       <c r="E1263">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1264" spans="1:5">
@@ -35608,7 +35608,7 @@
         <v>49.34</v>
       </c>
       <c r="E1264">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1265" spans="1:5">
@@ -35625,7 +35625,7 @@
         <v>49.34</v>
       </c>
       <c r="E1265">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1266" spans="1:5">
@@ -35642,7 +35642,7 @@
         <v>49.34</v>
       </c>
       <c r="E1266">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1267" spans="1:5">
@@ -35659,7 +35659,7 @@
         <v>49.34</v>
       </c>
       <c r="E1267">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1268" spans="1:5">
@@ -35676,7 +35676,7 @@
         <v>19.23</v>
       </c>
       <c r="E1268">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1269" spans="1:5">
@@ -35693,7 +35693,7 @@
         <v>49.34</v>
       </c>
       <c r="E1269">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1270" spans="1:5">
@@ -35710,7 +35710,7 @@
         <v>49.34</v>
       </c>
       <c r="E1270">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1271" spans="1:5">
@@ -35727,7 +35727,7 @@
         <v>49.34</v>
       </c>
       <c r="E1271">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1272" spans="1:5">
@@ -35744,7 +35744,7 @@
         <v>49.34</v>
       </c>
       <c r="E1272">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1273" spans="1:5">
@@ -35761,7 +35761,7 @@
         <v>49.34</v>
       </c>
       <c r="E1273">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1274" spans="1:5">
@@ -35778,7 +35778,7 @@
         <v>49.34</v>
       </c>
       <c r="E1274">
-        <v>-23.08</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="1275" spans="1:5">
@@ -36067,7 +36067,7 @@
         <v>0</v>
       </c>
       <c r="E1291">
-        <v>12.32</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="1292" spans="1:5">
@@ -36169,7 +36169,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1297">
-        <v>-14.52</v>
+        <v>-15.57</v>
       </c>
     </row>
     <row r="1298" spans="1:5">
@@ -36203,7 +36203,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1299">
-        <v>-14.52</v>
+        <v>-15.57</v>
       </c>
     </row>
     <row r="1300" spans="1:5">
@@ -36237,7 +36237,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1301">
-        <v>-14.52</v>
+        <v>-15.57</v>
       </c>
     </row>
     <row r="1302" spans="1:5">
@@ -36254,7 +36254,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1302">
-        <v>-14.52</v>
+        <v>-15.57</v>
       </c>
     </row>
     <row r="1303" spans="1:5">
@@ -36288,7 +36288,7 @@
         <v>0</v>
       </c>
       <c r="E1304">
-        <v>0</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="1305" spans="1:5">
@@ -36305,7 +36305,7 @@
         <v>0</v>
       </c>
       <c r="E1305">
-        <v>0</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="1306" spans="1:5">
@@ -36390,7 +36390,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1310">
-        <v>5.17</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="1311" spans="1:5">
@@ -36407,7 +36407,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1311">
-        <v>5.17</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="1312" spans="1:5">
@@ -36543,7 +36543,7 @@
         <v>12.12</v>
       </c>
       <c r="E1319">
-        <v>-16.46</v>
+        <v>-17.29</v>
       </c>
     </row>
     <row r="1320" spans="1:5">
@@ -36560,7 +36560,7 @@
         <v>-17.82</v>
       </c>
       <c r="E1320">
-        <v>17.34</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="1321" spans="1:5">
@@ -36577,7 +36577,7 @@
         <v>16.63</v>
       </c>
       <c r="E1321">
-        <v>-16.46</v>
+        <v>-17.29</v>
       </c>
     </row>
     <row r="1322" spans="1:5">
@@ -36883,7 +36883,7 @@
         <v>-6.01</v>
       </c>
       <c r="E1339">
-        <v>5.12</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="1340" spans="1:5">
@@ -36900,7 +36900,7 @@
         <v>4.88</v>
       </c>
       <c r="E1340">
-        <v>-0.9199999999999999</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -36934,7 +36934,7 @@
         <v>8.35</v>
       </c>
       <c r="E1342">
-        <v>6.140000000000001</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="1343" spans="1:5">
@@ -36968,7 +36968,7 @@
         <v>0</v>
       </c>
       <c r="E1344">
-        <v>-30.04</v>
+        <v>-31.29</v>
       </c>
     </row>
     <row r="1345" spans="1:5">
@@ -37257,7 +37257,7 @@
         <v>0</v>
       </c>
       <c r="E1361">
-        <v>-13.23</v>
+        <v>-13.75</v>
       </c>
     </row>
     <row r="1362" spans="1:5">
@@ -37682,7 +37682,7 @@
         <v>1.69</v>
       </c>
       <c r="E1386">
-        <v>-6.67</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="1387" spans="1:5">
@@ -37818,7 +37818,7 @@
         <v>-11.46</v>
       </c>
       <c r="E1394">
-        <v>31.96</v>
+        <v>36.08</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -37852,7 +37852,7 @@
         <v>0</v>
       </c>
       <c r="E1396">
-        <v>4.48</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="1397" spans="1:5">
@@ -37869,7 +37869,7 @@
         <v>-2.66</v>
       </c>
       <c r="E1397">
-        <v>0</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1398" spans="1:5">
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="E1398">
-        <v>3.03</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E1400">
-        <v>1.94</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -38005,7 +38005,7 @@
         <v>17.35</v>
       </c>
       <c r="E1405">
-        <v>-2.9</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -38022,7 +38022,7 @@
         <v>17.35</v>
       </c>
       <c r="E1406">
-        <v>-2.9</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="1407" spans="1:5">
@@ -38039,7 +38039,7 @@
         <v>17.35</v>
       </c>
       <c r="E1407">
-        <v>-2.9</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38141,7 +38141,7 @@
         <v>0</v>
       </c>
       <c r="E1413">
-        <v>3.53</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="1414" spans="1:5">
@@ -38498,7 +38498,7 @@
         <v>23.85</v>
       </c>
       <c r="E1434">
-        <v>-25.82</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="1435" spans="1:5">
@@ -38549,7 +38549,7 @@
         <v>5.67</v>
       </c>
       <c r="E1437">
-        <v>0</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="1438" spans="1:5">
@@ -38583,7 +38583,7 @@
         <v>5.92</v>
       </c>
       <c r="E1439">
-        <v>0</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="1440" spans="1:5">
@@ -38600,7 +38600,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="E1440">
-        <v>0</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="1441" spans="1:5">
@@ -38668,7 +38668,7 @@
         <v>-6.99</v>
       </c>
       <c r="E1444">
-        <v>42.34</v>
+        <v>33.15</v>
       </c>
     </row>
     <row r="1445" spans="1:5">
@@ -38702,7 +38702,7 @@
         <v>0</v>
       </c>
       <c r="E1446">
-        <v>0</v>
+        <v>-6.569999999999999</v>
       </c>
     </row>
     <row r="1447" spans="1:5">
@@ -38787,7 +38787,7 @@
         <v>0</v>
       </c>
       <c r="E1451">
-        <v>0</v>
+        <v>-6.569999999999999</v>
       </c>
     </row>
     <row r="1452" spans="1:5">
@@ -38804,7 +38804,7 @@
         <v>0</v>
       </c>
       <c r="E1452">
-        <v>-7.31</v>
+        <v>-6.069999999999999</v>
       </c>
     </row>
     <row r="1453" spans="1:5">
@@ -38821,7 +38821,7 @@
         <v>0</v>
       </c>
       <c r="E1453">
-        <v>-3.19</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -38838,7 +38838,7 @@
         <v>-11.4</v>
       </c>
       <c r="E1454">
-        <v>0</v>
+        <v>-6.569999999999999</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -38923,7 +38923,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1459">
-        <v>11.9</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="1460" spans="1:5">
@@ -38940,7 +38940,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1460">
-        <v>11.9</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -38991,7 +38991,7 @@
         <v>0</v>
       </c>
       <c r="E1463">
-        <v>13.8</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -39059,7 +39059,7 @@
         <v>0.16</v>
       </c>
       <c r="E1467">
-        <v>13.06</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39501,7 +39501,7 @@
         <v>0</v>
       </c>
       <c r="E1493">
-        <v>6.69</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="1494" spans="1:5">
@@ -39722,7 +39722,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1506">
-        <v>26.22</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="1507" spans="1:5">
@@ -39739,7 +39739,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1507">
-        <v>26.22</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -39960,7 +39960,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1520">
-        <v>5.72</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -39977,7 +39977,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1521">
-        <v>5.72</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -39994,7 +39994,7 @@
         <v>10.9</v>
       </c>
       <c r="E1522">
-        <v>-0.7799999999999999</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40062,7 +40062,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1526">
-        <v>22.44</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40096,7 +40096,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1528">
-        <v>22.44</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40113,7 +40113,7 @@
         <v>0</v>
       </c>
       <c r="E1529">
-        <v>7.31</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="1530" spans="1:5">
@@ -40130,7 +40130,7 @@
         <v>4.78</v>
       </c>
       <c r="E1530">
-        <v>7.31</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -40147,7 +40147,7 @@
         <v>4.78</v>
       </c>
       <c r="E1531">
-        <v>7.31</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -40164,7 +40164,7 @@
         <v>4.78</v>
       </c>
       <c r="E1532">
-        <v>7.31</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -40181,7 +40181,7 @@
         <v>-0.58</v>
       </c>
       <c r="E1533">
-        <v>33.47</v>
+        <v>34.84999999999999</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40300,7 +40300,7 @@
         <v>0</v>
       </c>
       <c r="E1540">
-        <v>-1.81</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40351,7 +40351,7 @@
         <v>0</v>
       </c>
       <c r="E1543">
-        <v>-1.29</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="1544" spans="1:5">
@@ -40368,7 +40368,7 @@
         <v>4.63</v>
       </c>
       <c r="E1544">
-        <v>4.83</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="E1545">
-        <v>-1.29</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40402,7 +40402,7 @@
         <v>0</v>
       </c>
       <c r="E1546">
-        <v>0</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="1547" spans="1:5">
@@ -40419,7 +40419,7 @@
         <v>0</v>
       </c>
       <c r="E1547">
-        <v>0</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="1548" spans="1:5">
@@ -41133,7 +41133,7 @@
         <v>0</v>
       </c>
       <c r="E1589">
-        <v>-7.32</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="1590" spans="1:5">
@@ -41150,7 +41150,7 @@
         <v>6.329999999999999</v>
       </c>
       <c r="E1590">
-        <v>-4.14</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -41167,7 +41167,7 @@
         <v>0</v>
       </c>
       <c r="E1591">
-        <v>-18.48</v>
+        <v>-19.25</v>
       </c>
     </row>
     <row r="1592" spans="1:5">
@@ -41184,7 +41184,7 @@
         <v>0</v>
       </c>
       <c r="E1592">
-        <v>-10.62</v>
+        <v>-11.08</v>
       </c>
     </row>
     <row r="1593" spans="1:5">
@@ -41388,7 +41388,7 @@
         <v>-10.26</v>
       </c>
       <c r="E1604">
-        <v>8.119999999999999</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="1605" spans="1:5">
@@ -41422,7 +41422,7 @@
         <v>-10.22</v>
       </c>
       <c r="E1606">
-        <v>9.139999999999999</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="1607" spans="1:5">
@@ -41439,7 +41439,7 @@
         <v>11.81</v>
       </c>
       <c r="E1607">
-        <v>-15.1</v>
+        <v>-15.92</v>
       </c>
     </row>
     <row r="1608" spans="1:5">
@@ -41456,7 +41456,7 @@
         <v>0</v>
       </c>
       <c r="E1608">
-        <v>0</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="1609" spans="1:5">
@@ -41473,7 +41473,7 @@
         <v>0</v>
       </c>
       <c r="E1609">
-        <v>0</v>
+        <v>-7.08</v>
       </c>
     </row>
     <row r="1610" spans="1:5">
@@ -41660,7 +41660,7 @@
         <v>0</v>
       </c>
       <c r="E1620">
-        <v>0</v>
+        <v>-4.760000000000001</v>
       </c>
     </row>
     <row r="1621" spans="1:5">
@@ -41677,7 +41677,7 @@
         <v>-38.58</v>
       </c>
       <c r="E1621">
-        <v>59.46</v>
+        <v>47.92</v>
       </c>
     </row>
     <row r="1622" spans="1:5">
@@ -41830,7 +41830,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E1630">
-        <v>7.01</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="1631" spans="1:5">
@@ -41864,7 +41864,7 @@
         <v>0</v>
       </c>
       <c r="E1632">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="1633" spans="1:5">
@@ -41881,7 +41881,7 @@
         <v>0</v>
       </c>
       <c r="E1633">
-        <v>-20.06</v>
+        <v>-20.86</v>
       </c>
     </row>
     <row r="1634" spans="1:5">
@@ -41915,7 +41915,7 @@
         <v>10.46</v>
       </c>
       <c r="E1635">
-        <v>3.82</v>
+        <v>4.399999999999999</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -41932,7 +41932,7 @@
         <v>18.21</v>
       </c>
       <c r="E1636">
-        <v>-12.33</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -42051,7 +42051,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1643">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42068,7 +42068,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1644">
-        <v>-8.75</v>
+        <v>-10.89</v>
       </c>
     </row>
     <row r="1645" spans="1:5">
@@ -42085,7 +42085,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1645">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="1646" spans="1:5">
@@ -42102,7 +42102,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1646">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="1647" spans="1:5">
@@ -42119,7 +42119,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1647">
-        <v>10.1</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="1648" spans="1:5">
@@ -42136,7 +42136,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1648">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42153,7 +42153,7 @@
         <v>0</v>
       </c>
       <c r="E1649">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1650" spans="1:5">
@@ -42170,7 +42170,7 @@
         <v>0</v>
       </c>
       <c r="E1650">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1651" spans="1:5">
@@ -42272,7 +42272,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1656">
-        <v>1.72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1657" spans="1:5">
@@ -42289,7 +42289,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1657">
-        <v>1.72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1658" spans="1:5">
@@ -42306,7 +42306,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1658">
-        <v>1.72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -42323,7 +42323,7 @@
         <v>0</v>
       </c>
       <c r="E1659">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1660" spans="1:5">
@@ -42340,7 +42340,7 @@
         <v>0</v>
       </c>
       <c r="E1660">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1661" spans="1:5">
@@ -42357,7 +42357,7 @@
         <v>0</v>
       </c>
       <c r="E1661">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1662" spans="1:5">
@@ -42374,7 +42374,7 @@
         <v>0</v>
       </c>
       <c r="E1662">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1663" spans="1:5">
@@ -42391,7 +42391,7 @@
         <v>0</v>
       </c>
       <c r="E1663">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1664" spans="1:5">
@@ -42476,7 +42476,7 @@
         <v>0.64</v>
       </c>
       <c r="E1668">
-        <v>6.819999999999999</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="1669" spans="1:5">
@@ -42493,7 +42493,7 @@
         <v>0.64</v>
       </c>
       <c r="E1669">
-        <v>6.819999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1670" spans="1:5">
@@ -42510,7 +42510,7 @@
         <v>0.64</v>
       </c>
       <c r="E1670">
-        <v>6.819999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42527,7 +42527,7 @@
         <v>0.64</v>
       </c>
       <c r="E1671">
-        <v>6.819999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1672" spans="1:5">
@@ -42595,7 +42595,7 @@
         <v>0</v>
       </c>
       <c r="E1675">
-        <v>-7.95</v>
+        <v>-10.83</v>
       </c>
     </row>
     <row r="1676" spans="1:5">
@@ -42612,7 +42612,7 @@
         <v>0</v>
       </c>
       <c r="E1676">
-        <v>-12.86</v>
+        <v>-13.39</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42629,7 +42629,7 @@
         <v>0</v>
       </c>
       <c r="E1677">
-        <v>-12.86</v>
+        <v>-13.39</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42646,7 +42646,7 @@
         <v>0</v>
       </c>
       <c r="E1678">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -42663,7 +42663,7 @@
         <v>0</v>
       </c>
       <c r="E1679">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -42782,7 +42782,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1686">
-        <v>35.28</v>
+        <v>36.73</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -42867,7 +42867,7 @@
         <v>0.64</v>
       </c>
       <c r="E1691">
-        <v>6.819999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1692" spans="1:5">
@@ -42884,7 +42884,7 @@
         <v>9.229999999999999</v>
       </c>
       <c r="E1692">
-        <v>-1.58</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="1693" spans="1:5">
@@ -42901,7 +42901,7 @@
         <v>0.64</v>
       </c>
       <c r="E1693">
-        <v>6.819999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1694" spans="1:5">
@@ -42918,7 +42918,7 @@
         <v>0.64</v>
       </c>
       <c r="E1694">
-        <v>6.819999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -42969,7 +42969,7 @@
         <v>0.64</v>
       </c>
       <c r="E1697">
-        <v>6.819999999999999</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1698" spans="1:5">
@@ -43037,7 +43037,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1701">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="1702" spans="1:5">
@@ -43088,7 +43088,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1704">
-        <v>5.18</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="1705" spans="1:5">
@@ -43190,7 +43190,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1710">
-        <v>5.18</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="1711" spans="1:5">
@@ -43326,7 +43326,7 @@
         <v>9.02</v>
       </c>
       <c r="E1718">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="1719" spans="1:5">
@@ -43343,7 +43343,7 @@
         <v>9.02</v>
       </c>
       <c r="E1719">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="1720" spans="1:5">
@@ -43428,7 +43428,7 @@
         <v>6.48</v>
       </c>
       <c r="E1724">
-        <v>8.07</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43445,7 +43445,7 @@
         <v>6.17</v>
       </c>
       <c r="E1725">
-        <v>-19.24</v>
+        <v>-20.04</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -43564,7 +43564,7 @@
         <v>2.8</v>
       </c>
       <c r="E1732">
-        <v>-3.88</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="1733" spans="1:5">
@@ -43581,7 +43581,7 @@
         <v>1.4</v>
       </c>
       <c r="E1733">
-        <v>-2.55</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="1734" spans="1:5">
@@ -43615,7 +43615,7 @@
         <v>0</v>
       </c>
       <c r="E1735">
-        <v>-13.53</v>
+        <v>-14.09</v>
       </c>
     </row>
     <row r="1736" spans="1:5">
@@ -43700,7 +43700,7 @@
         <v>2.58</v>
       </c>
       <c r="E1740">
-        <v>0</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="1741" spans="1:5">
@@ -43751,7 +43751,7 @@
         <v>2.58</v>
       </c>
       <c r="E1743">
-        <v>0</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="1744" spans="1:5">
@@ -43768,7 +43768,7 @@
         <v>16.67</v>
       </c>
       <c r="E1744">
-        <v>2.78</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="1745" spans="1:5">
@@ -43785,7 +43785,7 @@
         <v>12.61</v>
       </c>
       <c r="E1745">
-        <v>0</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -43802,7 +43802,7 @@
         <v>12.61</v>
       </c>
       <c r="E1746">
-        <v>0</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -43819,7 +43819,7 @@
         <v>12.61</v>
       </c>
       <c r="E1747">
-        <v>0</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="1748" spans="1:5">
@@ -43853,7 +43853,7 @@
         <v>12.61</v>
       </c>
       <c r="E1749">
-        <v>0</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="1750" spans="1:5">
@@ -43989,7 +43989,7 @@
         <v>0</v>
       </c>
       <c r="E1757">
-        <v>0</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="1758" spans="1:5">
@@ -44057,7 +44057,7 @@
         <v>0</v>
       </c>
       <c r="E1761">
-        <v>0</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="1762" spans="1:5">
@@ -44176,7 +44176,7 @@
         <v>-3.99</v>
       </c>
       <c r="E1768">
-        <v>-1.65</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="1769" spans="1:5">
@@ -44414,7 +44414,7 @@
         <v>0</v>
       </c>
       <c r="E1782">
-        <v>-14.46</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -44533,7 +44533,7 @@
         <v>0</v>
       </c>
       <c r="E1789">
-        <v>3.45</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="1790" spans="1:5">
@@ -44856,7 +44856,7 @@
         <v>10.62</v>
       </c>
       <c r="E1808">
-        <v>9.77</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="1809" spans="1:5">
@@ -44873,7 +44873,7 @@
         <v>11.67</v>
       </c>
       <c r="E1809">
-        <v>5.27</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1810" spans="1:5">
@@ -44907,7 +44907,7 @@
         <v>-6.069999999999999</v>
       </c>
       <c r="E1811">
-        <v>9.77</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="1812" spans="1:5">
@@ -44924,7 +44924,7 @@
         <v>8.73</v>
       </c>
       <c r="E1812">
-        <v>8.119999999999999</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="1813" spans="1:5">
@@ -44941,7 +44941,7 @@
         <v>11.67</v>
       </c>
       <c r="E1813">
-        <v>5.27</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1814" spans="1:5">
@@ -44975,7 +44975,7 @@
         <v>14.29</v>
       </c>
       <c r="E1815">
-        <v>6.25</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="1816" spans="1:5">
@@ -44992,7 +44992,7 @@
         <v>14.29</v>
       </c>
       <c r="E1816">
-        <v>6.25</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="1817" spans="1:5">
@@ -45009,7 +45009,7 @@
         <v>14.29</v>
       </c>
       <c r="E1817">
-        <v>6.25</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="1818" spans="1:5">
@@ -45026,7 +45026,7 @@
         <v>8.48</v>
       </c>
       <c r="E1818">
-        <v>5.27</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1819" spans="1:5">
@@ -45060,7 +45060,7 @@
         <v>-4.61</v>
       </c>
       <c r="E1820">
-        <v>9.359999999999999</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="1821" spans="1:5">
@@ -45077,7 +45077,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1821">
-        <v>-0.77</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="1822" spans="1:5">
@@ -45094,7 +45094,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1822">
-        <v>-0.77</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="1823" spans="1:5">
@@ -45111,7 +45111,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1823">
-        <v>-0.77</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="1824" spans="1:5">
@@ -45128,7 +45128,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1824">
-        <v>-0.77</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45145,7 +45145,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1825">
-        <v>-0.77</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45162,7 +45162,7 @@
         <v>1.53</v>
       </c>
       <c r="E1826">
-        <v>-2.8</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45179,7 +45179,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1827">
-        <v>-0.77</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="1828" spans="1:5">
@@ -45332,7 +45332,7 @@
         <v>8.57</v>
       </c>
       <c r="E1836">
-        <v>-6.03</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -45383,7 +45383,7 @@
         <v>8.57</v>
       </c>
       <c r="E1839">
-        <v>-6.03</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="1840" spans="1:5">
@@ -45400,7 +45400,7 @@
         <v>8.57</v>
       </c>
       <c r="E1840">
-        <v>-6.03</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="1841" spans="1:5">
@@ -45417,7 +45417,7 @@
         <v>8.57</v>
       </c>
       <c r="E1841">
-        <v>-6.03</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="1842" spans="1:5">
@@ -45434,7 +45434,7 @@
         <v>8.57</v>
       </c>
       <c r="E1842">
-        <v>-6.03</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="1843" spans="1:5">
@@ -45451,7 +45451,7 @@
         <v>8.57</v>
       </c>
       <c r="E1843">
-        <v>-6.03</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="1844" spans="1:5">
@@ -45502,7 +45502,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1846">
-        <v>39.78</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="1847" spans="1:5">
@@ -45519,7 +45519,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1847">
-        <v>39.78</v>
+        <v>33.17</v>
       </c>
     </row>
     <row r="1848" spans="1:5">
@@ -45825,7 +45825,7 @@
         <v>0</v>
       </c>
       <c r="E1865">
-        <v>0</v>
+        <v>-5.24</v>
       </c>
     </row>
     <row r="1866" spans="1:5">
@@ -46097,7 +46097,7 @@
         <v>0</v>
       </c>
       <c r="E1881">
-        <v>-12.36</v>
+        <v>-12.74</v>
       </c>
     </row>
     <row r="1882" spans="1:5">
@@ -46199,7 +46199,7 @@
         <v>2.08</v>
       </c>
       <c r="E1887">
-        <v>0</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1888" spans="1:5">
@@ -46335,7 +46335,7 @@
         <v>-12.96</v>
       </c>
       <c r="E1895">
-        <v>20.17</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="1896" spans="1:5">
@@ -46522,7 +46522,7 @@
         <v>6.68</v>
       </c>
       <c r="E1906">
-        <v>0</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="1907" spans="1:5">
@@ -46607,7 +46607,7 @@
         <v>6.69</v>
       </c>
       <c r="E1911">
-        <v>12.49</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="1912" spans="1:5">
@@ -47066,7 +47066,7 @@
         <v>0</v>
       </c>
       <c r="E1938">
-        <v>-0.67</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="1939" spans="1:5">
@@ -47661,7 +47661,7 @@
         <v>0.28</v>
       </c>
       <c r="E1973">
-        <v>-13.89</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="1974" spans="1:5">
@@ -47678,7 +47678,7 @@
         <v>-5.88</v>
       </c>
       <c r="E1974">
-        <v>3.32</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="1975" spans="1:5">
@@ -47746,7 +47746,7 @@
         <v>3.67</v>
       </c>
       <c r="E1978">
-        <v>0</v>
+        <v>-4.14</v>
       </c>
     </row>
     <row r="1979" spans="1:5">
@@ -47831,7 +47831,7 @@
         <v>0.59</v>
       </c>
       <c r="E1983">
-        <v>0</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="1984" spans="1:5">
@@ -47933,7 +47933,7 @@
         <v>0</v>
       </c>
       <c r="E1989">
-        <v>15.06</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="1990" spans="1:5">
@@ -48443,7 +48443,7 @@
         <v>2.8</v>
       </c>
       <c r="E2019">
-        <v>-5.77</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="2020" spans="1:5">
@@ -48562,7 +48562,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2026">
-        <v>2.15</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="2027" spans="1:5">
@@ -48579,7 +48579,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2027">
-        <v>2.15</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="2028" spans="1:5">
@@ -48987,7 +48987,7 @@
         <v>5</v>
       </c>
       <c r="E2051">
-        <v>-20.29</v>
+        <v>-21.12</v>
       </c>
     </row>
     <row r="2052" spans="1:5">
@@ -49293,7 +49293,7 @@
         <v>2.96</v>
       </c>
       <c r="E2069">
-        <v>0.83</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="2070" spans="1:5">
@@ -49344,7 +49344,7 @@
         <v>-3.13</v>
       </c>
       <c r="E2072">
-        <v>0.98</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="2073" spans="1:5">
@@ -49361,7 +49361,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2073">
-        <v>-1.12</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="2074" spans="1:5">
@@ -49531,7 +49531,7 @@
         <v>-5.06</v>
       </c>
       <c r="E2083">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="2084" spans="1:5">
@@ -49667,7 +49667,7 @@
         <v>-5.75</v>
       </c>
       <c r="E2091">
-        <v>4.82</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="2092" spans="1:5">
@@ -49684,7 +49684,7 @@
         <v>12.3</v>
       </c>
       <c r="E2092">
-        <v>-14.13</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="2093" spans="1:5">
@@ -49718,7 +49718,7 @@
         <v>-0.7000000000000001</v>
       </c>
       <c r="E2094">
-        <v>-10.51</v>
+        <v>-11.21</v>
       </c>
     </row>
     <row r="2095" spans="1:5">
@@ -49752,7 +49752,7 @@
         <v>0</v>
       </c>
       <c r="E2096">
-        <v>0.73</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="2097" spans="1:5">
@@ -49956,7 +49956,7 @@
         <v>-3.72</v>
       </c>
       <c r="E2108">
-        <v>-2.2</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="2109" spans="1:5">
@@ -50109,7 +50109,7 @@
         <v>-20.5</v>
       </c>
       <c r="E2117">
-        <v>4.58</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="2118" spans="1:5">
@@ -50126,7 +50126,7 @@
         <v>-20.5</v>
       </c>
       <c r="E2118">
-        <v>4.58</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="2119" spans="1:5">
@@ -50143,7 +50143,7 @@
         <v>-1.24</v>
       </c>
       <c r="E2119">
-        <v>5.02</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="2120" spans="1:5">
@@ -50160,7 +50160,7 @@
         <v>0</v>
       </c>
       <c r="E2120">
-        <v>-12.47</v>
+        <v>-12.92</v>
       </c>
     </row>
     <row r="2121" spans="1:5">
@@ -50177,7 +50177,7 @@
         <v>-15.2</v>
       </c>
       <c r="E2121">
-        <v>14.34</v>
+        <v>15.05</v>
       </c>
     </row>
     <row r="2122" spans="1:5">
@@ -50194,7 +50194,7 @@
         <v>0</v>
       </c>
       <c r="E2122">
-        <v>-16.63</v>
+        <v>-17.43</v>
       </c>
     </row>
     <row r="2123" spans="1:5">
@@ -50211,7 +50211,7 @@
         <v>3.1</v>
       </c>
       <c r="E2123">
-        <v>-16.63</v>
+        <v>-17.43</v>
       </c>
     </row>
     <row r="2124" spans="1:5">
@@ -50245,7 +50245,7 @@
         <v>0</v>
       </c>
       <c r="E2125">
-        <v>3.82</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="2126" spans="1:5">
@@ -50262,7 +50262,7 @@
         <v>0</v>
       </c>
       <c r="E2126">
-        <v>-12.47</v>
+        <v>-12.92</v>
       </c>
     </row>
     <row r="2127" spans="1:5">
@@ -50279,7 +50279,7 @@
         <v>0</v>
       </c>
       <c r="E2127">
-        <v>-2.87</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="2128" spans="1:5">
@@ -50296,7 +50296,7 @@
         <v>0</v>
       </c>
       <c r="E2128">
-        <v>3.37</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="2129" spans="1:5">
@@ -50313,7 +50313,7 @@
         <v>0</v>
       </c>
       <c r="E2129">
-        <v>4.859999999999999</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="2130" spans="1:5">
@@ -50517,7 +50517,7 @@
         <v>-2.81</v>
       </c>
       <c r="E2141">
-        <v>-9.300000000000001</v>
+        <v>-7.23</v>
       </c>
     </row>
     <row r="2142" spans="1:5">
@@ -50534,7 +50534,7 @@
         <v>-2.66</v>
       </c>
       <c r="E2142">
-        <v>-8.609999999999999</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="2143" spans="1:5">
@@ -50857,7 +50857,7 @@
         <v>0</v>
       </c>
       <c r="E2161">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="2162" spans="1:5">
@@ -50891,7 +50891,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2163">
-        <v>28.73</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="2164" spans="1:5">
@@ -50908,7 +50908,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2164">
-        <v>28.73</v>
+        <v>29.92</v>
       </c>
     </row>
     <row r="2165" spans="1:5">
@@ -51027,7 +51027,7 @@
         <v>-13.54</v>
       </c>
       <c r="E2171">
-        <v>6.3</v>
+        <v>7.88</v>
       </c>
     </row>
     <row r="2172" spans="1:5">
@@ -51265,7 +51265,7 @@
         <v>0</v>
       </c>
       <c r="E2185">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="2186" spans="1:5">
@@ -51350,7 +51350,7 @@
         <v>0</v>
       </c>
       <c r="E2190">
-        <v>40.13</v>
+        <v>41.81</v>
       </c>
     </row>
     <row r="2191" spans="1:5">
@@ -51401,7 +51401,7 @@
         <v>0</v>
       </c>
       <c r="E2193">
-        <v>-1.45</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="2194" spans="1:5">
@@ -51452,7 +51452,7 @@
         <v>9.4</v>
       </c>
       <c r="E2196">
-        <v>-9.91</v>
+        <v>-10.35</v>
       </c>
     </row>
     <row r="2197" spans="1:5">
@@ -51469,7 +51469,7 @@
         <v>0</v>
       </c>
       <c r="E2197">
-        <v>-1.45</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="2198" spans="1:5">
@@ -51486,7 +51486,7 @@
         <v>0</v>
       </c>
       <c r="E2198">
-        <v>-1.45</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="2199" spans="1:5">
@@ -51503,7 +51503,7 @@
         <v>0</v>
       </c>
       <c r="E2199">
-        <v>-4.04</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="2200" spans="1:5">
@@ -52727,7 +52727,7 @@
         <v>2.84</v>
       </c>
       <c r="E2271">
-        <v>-1.11</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="2272" spans="1:5">
@@ -52778,7 +52778,7 @@
         <v>10.21</v>
       </c>
       <c r="E2274">
-        <v>-17.06</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="2275" spans="1:5">
@@ -52829,7 +52829,7 @@
         <v>-24.05</v>
       </c>
       <c r="E2277">
-        <v>0</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="2278" spans="1:5">
@@ -53152,7 +53152,7 @@
         <v>0</v>
       </c>
       <c r="E2296">
-        <v>-7.779999999999999</v>
+        <v>-9.700000000000001</v>
       </c>
     </row>
     <row r="2297" spans="1:5">
@@ -53322,7 +53322,7 @@
         <v>0</v>
       </c>
       <c r="E2306">
-        <v>-1.67</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="2307" spans="1:5">
@@ -53339,7 +53339,7 @@
         <v>0</v>
       </c>
       <c r="E2307">
-        <v>1.08</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="2308" spans="1:5">
@@ -53390,7 +53390,7 @@
         <v>26.01</v>
       </c>
       <c r="E2310">
-        <v>-22.49</v>
+        <v>-23.41</v>
       </c>
     </row>
     <row r="2311" spans="1:5">
@@ -53424,7 +53424,7 @@
         <v>0</v>
       </c>
       <c r="E2312">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="2313" spans="1:5">
@@ -53696,7 +53696,7 @@
         <v>0</v>
       </c>
       <c r="E2328">
-        <v>0</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="2329" spans="1:5">
@@ -53781,7 +53781,7 @@
         <v>0</v>
       </c>
       <c r="E2333">
-        <v>0</v>
+        <v>-6.950000000000001</v>
       </c>
     </row>
     <row r="2334" spans="1:5">
@@ -53798,7 +53798,7 @@
         <v>6.22</v>
       </c>
       <c r="E2334">
-        <v>0</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="2335" spans="1:5">
@@ -53815,7 +53815,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2335">
-        <v>2.66</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="2336" spans="1:5">
@@ -53832,7 +53832,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2336">
-        <v>2.66</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="2337" spans="1:5">
@@ -54359,7 +54359,7 @@
         <v>0</v>
       </c>
       <c r="E2367">
-        <v>2.18</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="2368" spans="1:5">
@@ -54410,7 +54410,7 @@
         <v>3.95</v>
       </c>
       <c r="E2370">
-        <v>1.55</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="2371" spans="1:5">
@@ -54427,7 +54427,7 @@
         <v>3.95</v>
       </c>
       <c r="E2371">
-        <v>1.55</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="2372" spans="1:5">
@@ -54444,7 +54444,7 @@
         <v>3.95</v>
       </c>
       <c r="E2372">
-        <v>1.55</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="2373" spans="1:5">
@@ -54614,7 +54614,7 @@
         <v>0</v>
       </c>
       <c r="E2382">
-        <v>17.48</v>
+        <v>18.05</v>
       </c>
     </row>
     <row r="2383" spans="1:5">
@@ -54682,7 +54682,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2386">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="2387" spans="1:5">
@@ -54733,7 +54733,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2389">
-        <v>40.13</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="2390" spans="1:5">
@@ -54750,7 +54750,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2390">
-        <v>22.59</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="2391" spans="1:5">
@@ -54767,7 +54767,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2391">
-        <v>22.59</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="2392" spans="1:5">
@@ -54784,7 +54784,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2392">
-        <v>12.91</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="2393" spans="1:5">
@@ -54801,7 +54801,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2393">
-        <v>12.91</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="2394" spans="1:5">
@@ -54818,7 +54818,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2394">
-        <v>12.91</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="2395" spans="1:5">
@@ -55005,7 +55005,7 @@
         <v>11.16</v>
       </c>
       <c r="E2405">
-        <v>-25.39</v>
+        <v>-25.16</v>
       </c>
     </row>
     <row r="2406" spans="1:5">
@@ -55090,7 +55090,7 @@
         <v>-6.68</v>
       </c>
       <c r="E2410">
-        <v>3.17</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="2411" spans="1:5">
@@ -55124,7 +55124,7 @@
         <v>-6.68</v>
       </c>
       <c r="E2412">
-        <v>-11.65</v>
+        <v>-7.960000000000001</v>
       </c>
     </row>
     <row r="2413" spans="1:5">
@@ -55260,7 +55260,7 @@
         <v>-2.91</v>
       </c>
       <c r="E2420">
-        <v>1.03</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="2421" spans="1:5">
@@ -55430,7 +55430,7 @@
         <v>-6.01</v>
       </c>
       <c r="E2430">
-        <v>5.46</v>
+        <v>6.260000000000001</v>
       </c>
     </row>
     <row r="2431" spans="1:5">
@@ -55549,7 +55549,7 @@
         <v>0.91</v>
       </c>
       <c r="E2437">
-        <v>-0.73</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="2438" spans="1:5">
@@ -55600,7 +55600,7 @@
         <v>14.77</v>
       </c>
       <c r="E2440">
-        <v>9.02</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="2441" spans="1:5">
@@ -55617,7 +55617,7 @@
         <v>14.77</v>
       </c>
       <c r="E2441">
-        <v>9.02</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="2442" spans="1:5">
@@ -55634,7 +55634,7 @@
         <v>14.77</v>
       </c>
       <c r="E2442">
-        <v>9.02</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="2443" spans="1:5">
@@ -55651,7 +55651,7 @@
         <v>14.77</v>
       </c>
       <c r="E2443">
-        <v>9.02</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="2444" spans="1:5">
@@ -55668,7 +55668,7 @@
         <v>14.77</v>
       </c>
       <c r="E2444">
-        <v>9.02</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="2445" spans="1:5">
@@ -55685,7 +55685,7 @@
         <v>14.77</v>
       </c>
       <c r="E2445">
-        <v>9.02</v>
+        <v>10.33</v>
       </c>
     </row>
     <row r="2446" spans="1:5">
@@ -55821,7 +55821,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2453">
-        <v>53.56</v>
+        <v>55.77</v>
       </c>
     </row>
     <row r="2454" spans="1:5">
@@ -55838,7 +55838,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2454">
-        <v>26.78</v>
+        <v>33.47</v>
       </c>
     </row>
     <row r="2455" spans="1:5">
@@ -55855,7 +55855,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2455">
-        <v>53.56</v>
+        <v>55.77</v>
       </c>
     </row>
     <row r="2456" spans="1:5">
@@ -55889,7 +55889,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2457">
-        <v>53.56</v>
+        <v>55.77</v>
       </c>
     </row>
     <row r="2458" spans="1:5">
@@ -55906,7 +55906,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2458">
-        <v>53.56</v>
+        <v>55.77</v>
       </c>
     </row>
     <row r="2459" spans="1:5">
@@ -56076,7 +56076,7 @@
         <v>5.37</v>
       </c>
       <c r="E2468">
-        <v>5.46</v>
+        <v>6.260000000000001</v>
       </c>
     </row>
     <row r="2469" spans="1:5">
@@ -56093,7 +56093,7 @@
         <v>0</v>
       </c>
       <c r="E2469">
-        <v>35.22</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="2470" spans="1:5">
@@ -56110,7 +56110,7 @@
         <v>0</v>
       </c>
       <c r="E2470">
-        <v>1.49</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="2471" spans="1:5">
@@ -56229,7 +56229,7 @@
         <v>-5.5</v>
       </c>
       <c r="E2477">
-        <v>8.200000000000001</v>
+        <v>8.469999999999999</v>
       </c>
     </row>
     <row r="2478" spans="1:5">
@@ -56467,7 +56467,7 @@
         <v>23.59</v>
       </c>
       <c r="E2491">
-        <v>-17.82</v>
+        <v>-18.55</v>
       </c>
     </row>
     <row r="2492" spans="1:5">
@@ -56518,7 +56518,7 @@
         <v>1.72</v>
       </c>
       <c r="E2494">
-        <v>-8.1</v>
+        <v>-8.41</v>
       </c>
     </row>
     <row r="2495" spans="1:5">
@@ -56535,7 +56535,7 @@
         <v>1.07</v>
       </c>
       <c r="E2495">
-        <v>-8.32</v>
+        <v>-8.76</v>
       </c>
     </row>
     <row r="2496" spans="1:5">
@@ -56552,7 +56552,7 @@
         <v>1.52</v>
       </c>
       <c r="E2496">
-        <v>-9.48</v>
+        <v>-9.779999999999999</v>
       </c>
     </row>
     <row r="2497" spans="1:5">
@@ -56569,7 +56569,7 @@
         <v>-22.22</v>
       </c>
       <c r="E2497">
-        <v>29.12</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="2498" spans="1:5">
@@ -56603,7 +56603,7 @@
         <v>2.73</v>
       </c>
       <c r="E2499">
-        <v>0.28</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="2500" spans="1:5">
@@ -56654,7 +56654,7 @@
         <v>10.08</v>
       </c>
       <c r="E2502">
-        <v>-10.58</v>
+        <v>-7.489999999999999</v>
       </c>
     </row>
     <row r="2503" spans="1:5">
@@ -56671,7 +56671,7 @@
         <v>-2.64</v>
       </c>
       <c r="E2503">
-        <v>-20.57</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="2504" spans="1:5">
@@ -56875,7 +56875,7 @@
         <v>-1.48</v>
       </c>
       <c r="E2515">
-        <v>-0.75</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="2516" spans="1:5">
@@ -56994,7 +56994,7 @@
         <v>0</v>
       </c>
       <c r="E2522">
-        <v>9.82</v>
+        <v>12.07</v>
       </c>
     </row>
     <row r="2523" spans="1:5">
@@ -57062,7 +57062,7 @@
         <v>0</v>
       </c>
       <c r="E2526">
-        <v>12.39</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="2527" spans="1:5">
@@ -57079,7 +57079,7 @@
         <v>0</v>
       </c>
       <c r="E2527">
-        <v>-8.74</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="2528" spans="1:5">
@@ -57351,7 +57351,7 @@
         <v>0</v>
       </c>
       <c r="E2543">
-        <v>6.460000000000001</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="2544" spans="1:5">
@@ -57419,7 +57419,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2547">
-        <v>25.65</v>
+        <v>21.44</v>
       </c>
     </row>
     <row r="2548" spans="1:5">
@@ -57657,7 +57657,7 @@
         <v>5.140000000000001</v>
       </c>
       <c r="E2561">
-        <v>-0.97</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="2562" spans="1:5">
@@ -57674,7 +57674,7 @@
         <v>-12.52</v>
       </c>
       <c r="E2562">
-        <v>10.02</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="2563" spans="1:5">
@@ -57776,7 +57776,7 @@
         <v>-2.86</v>
       </c>
       <c r="E2568">
-        <v>-1.19</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="2569" spans="1:5">
@@ -57963,7 +57963,7 @@
         <v>2.06</v>
       </c>
       <c r="E2579">
-        <v>-10.42</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="2580" spans="1:5">
@@ -58167,7 +58167,7 @@
         <v>-21.06</v>
       </c>
       <c r="E2591">
-        <v>16.08</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="2592" spans="1:5">
@@ -58201,7 +58201,7 @@
         <v>-16.74</v>
       </c>
       <c r="E2593">
-        <v>16.08</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="2594" spans="1:5">
@@ -58235,7 +58235,7 @@
         <v>4.47</v>
       </c>
       <c r="E2595">
-        <v>-22.88</v>
+        <v>-23.84</v>
       </c>
     </row>
     <row r="2596" spans="1:5">
@@ -58286,7 +58286,7 @@
         <v>0</v>
       </c>
       <c r="E2598">
-        <v>-1.4</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="2599" spans="1:5">
@@ -58320,7 +58320,7 @@
         <v>-7.27</v>
       </c>
       <c r="E2600">
-        <v>48.92</v>
+        <v>51.08000000000001</v>
       </c>
     </row>
     <row r="2601" spans="1:5">
@@ -58337,7 +58337,7 @@
         <v>-27.88</v>
       </c>
       <c r="E2601">
-        <v>48.92</v>
+        <v>51.08000000000001</v>
       </c>
     </row>
     <row r="2602" spans="1:5">
@@ -58388,7 +58388,7 @@
         <v>20.61</v>
       </c>
       <c r="E2604">
-        <v>-2</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="2605" spans="1:5">
@@ -58405,7 +58405,7 @@
         <v>20.61</v>
       </c>
       <c r="E2605">
-        <v>-2</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="2606" spans="1:5">
@@ -58422,7 +58422,7 @@
         <v>20.61</v>
       </c>
       <c r="E2606">
-        <v>-2</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="2607" spans="1:5">
@@ -58439,7 +58439,7 @@
         <v>20.61</v>
       </c>
       <c r="E2607">
-        <v>-2</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="2608" spans="1:5">
@@ -58473,7 +58473,7 @@
         <v>-7.85</v>
       </c>
       <c r="E2609">
-        <v>-9.959999999999999</v>
+        <v>-9.779999999999999</v>
       </c>
     </row>
     <row r="2610" spans="1:5">
@@ -58490,7 +58490,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2610">
-        <v>-9.959999999999999</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="2611" spans="1:5">
@@ -58507,7 +58507,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2611">
-        <v>-9.959999999999999</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="2612" spans="1:5">
@@ -58524,7 +58524,7 @@
         <v>16.5</v>
       </c>
       <c r="E2612">
-        <v>-11.24</v>
+        <v>-9.379999999999999</v>
       </c>
     </row>
     <row r="2613" spans="1:5">
@@ -58541,7 +58541,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2613">
-        <v>-9.959999999999999</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="2614" spans="1:5">
@@ -58558,7 +58558,7 @@
         <v>-6.69</v>
       </c>
       <c r="E2614">
-        <v>-13.34</v>
+        <v>-13.93</v>
       </c>
     </row>
     <row r="2615" spans="1:5">
@@ -58575,7 +58575,7 @@
         <v>0</v>
       </c>
       <c r="E2615">
-        <v>0</v>
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="2616" spans="1:5">
@@ -58592,7 +58592,7 @@
         <v>0</v>
       </c>
       <c r="E2616">
-        <v>0</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="2617" spans="1:5">
@@ -58609,7 +58609,7 @@
         <v>-5.3</v>
       </c>
       <c r="E2617">
-        <v>4.569999999999999</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="2618" spans="1:5">
@@ -58728,7 +58728,7 @@
         <v>2.78</v>
       </c>
       <c r="E2624">
-        <v>-8.74</v>
+        <v>-10.31</v>
       </c>
     </row>
     <row r="2625" spans="1:5">
@@ -58745,7 +58745,7 @@
         <v>2.78</v>
       </c>
       <c r="E2625">
-        <v>-11.64</v>
+        <v>-9.69</v>
       </c>
     </row>
     <row r="2626" spans="1:5">
@@ -58762,7 +58762,7 @@
         <v>7.99</v>
       </c>
       <c r="E2626">
-        <v>3.97</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="2627" spans="1:5">
@@ -58779,7 +58779,7 @@
         <v>7.99</v>
       </c>
       <c r="E2627">
-        <v>3.97</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="2628" spans="1:5">
@@ -58796,7 +58796,7 @@
         <v>-3.74</v>
       </c>
       <c r="E2628">
-        <v>3.97</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="2629" spans="1:5">
@@ -58813,7 +58813,7 @@
         <v>7.99</v>
       </c>
       <c r="E2629">
-        <v>3.97</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="2630" spans="1:5">
@@ -58830,7 +58830,7 @@
         <v>0</v>
       </c>
       <c r="E2630">
-        <v>0</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="2631" spans="1:5">
@@ -58864,7 +58864,7 @@
         <v>7.61</v>
       </c>
       <c r="E2632">
-        <v>-6.94</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="2633" spans="1:5">
@@ -58881,7 +58881,7 @@
         <v>7.61</v>
       </c>
       <c r="E2633">
-        <v>-6.94</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="2634" spans="1:5">
@@ -58915,7 +58915,7 @@
         <v>0.32</v>
       </c>
       <c r="E2635">
-        <v>-10.96</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="2636" spans="1:5">
@@ -58932,7 +58932,7 @@
         <v>0.32</v>
       </c>
       <c r="E2636">
-        <v>-10.96</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="2637" spans="1:5">
@@ -58949,7 +58949,7 @@
         <v>23.17</v>
       </c>
       <c r="E2637">
-        <v>-18.62</v>
+        <v>-19.39</v>
       </c>
     </row>
     <row r="2638" spans="1:5">
@@ -58966,7 +58966,7 @@
         <v>0.32</v>
       </c>
       <c r="E2638">
-        <v>-10.96</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="2639" spans="1:5">
@@ -58983,7 +58983,7 @@
         <v>-1.13</v>
       </c>
       <c r="E2639">
-        <v>-10.96</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="2640" spans="1:5">
@@ -59000,7 +59000,7 @@
         <v>-0.75</v>
       </c>
       <c r="E2640">
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="2641" spans="1:5">
@@ -59051,7 +59051,7 @@
         <v>-7.01</v>
       </c>
       <c r="E2643">
-        <v>27.28</v>
+        <v>29.09</v>
       </c>
     </row>
     <row r="2644" spans="1:5">
@@ -59085,7 +59085,7 @@
         <v>0</v>
       </c>
       <c r="E2645">
-        <v>14.41</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="2646" spans="1:5">
@@ -59102,7 +59102,7 @@
         <v>0</v>
       </c>
       <c r="E2646">
-        <v>-8.890000000000001</v>
+        <v>-9.279999999999999</v>
       </c>
     </row>
     <row r="2647" spans="1:5">
@@ -59187,7 +59187,7 @@
         <v>0</v>
       </c>
       <c r="E2651">
-        <v>-3.81</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="2652" spans="1:5">
@@ -59289,7 +59289,7 @@
         <v>-13.04</v>
       </c>
       <c r="E2657">
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="2658" spans="1:5">
@@ -59323,7 +59323,7 @@
         <v>-6.05</v>
       </c>
       <c r="E2659">
-        <v>0.64</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="2660" spans="1:5">
@@ -59374,7 +59374,7 @@
         <v>15.32</v>
       </c>
       <c r="E2662">
-        <v>-7.39</v>
+        <v>-8.27</v>
       </c>
     </row>
     <row r="2663" spans="1:5">
@@ -59408,7 +59408,7 @@
         <v>0</v>
       </c>
       <c r="E2664">
-        <v>0</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="2665" spans="1:5">
@@ -59663,7 +59663,7 @@
         <v>0</v>
       </c>
       <c r="E2679">
-        <v>20.01</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="2680" spans="1:5">
@@ -60020,7 +60020,7 @@
         <v>0</v>
       </c>
       <c r="E2700">
-        <v>5.27</v>
+        <v>5.489999999999999</v>
       </c>
     </row>
     <row r="2701" spans="1:5">
@@ -60224,7 +60224,7 @@
         <v>0</v>
       </c>
       <c r="E2712">
-        <v>-5.86</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="2713" spans="1:5">
@@ -60241,7 +60241,7 @@
         <v>32.22</v>
       </c>
       <c r="E2713">
-        <v>-7.28</v>
+        <v>-10.13</v>
       </c>
     </row>
     <row r="2714" spans="1:5">
@@ -60445,7 +60445,7 @@
         <v>0</v>
       </c>
       <c r="E2725">
-        <v>-6.140000000000001</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="2726" spans="1:5">
@@ -60462,7 +60462,7 @@
         <v>0</v>
       </c>
       <c r="E2726">
-        <v>-6.140000000000001</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="2727" spans="1:5">
@@ -60496,7 +60496,7 @@
         <v>0</v>
       </c>
       <c r="E2728">
-        <v>-3.03</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="2729" spans="1:5">
@@ -60887,7 +60887,7 @@
         <v>-4.36</v>
       </c>
       <c r="E2751">
-        <v>13.11</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="2752" spans="1:5">
@@ -60921,7 +60921,7 @@
         <v>0</v>
       </c>
       <c r="E2753">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="2754" spans="1:5">
@@ -60955,7 +60955,7 @@
         <v>0</v>
       </c>
       <c r="E2755">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="2756" spans="1:5">
@@ -61057,7 +61057,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2761">
-        <v>8.200000000000001</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="2762" spans="1:5">
@@ -61074,7 +61074,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2762">
-        <v>8.200000000000001</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="2763" spans="1:5">
@@ -61091,7 +61091,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2763">
-        <v>8.200000000000001</v>
+        <v>10.66</v>
       </c>
     </row>
     <row r="2764" spans="1:5">
@@ -61380,7 +61380,7 @@
         <v>6.09</v>
       </c>
       <c r="E2780">
-        <v>-16.15</v>
+        <v>-16.82</v>
       </c>
     </row>
     <row r="2781" spans="1:5">
@@ -61397,7 +61397,7 @@
         <v>7.180000000000001</v>
       </c>
       <c r="E2781">
-        <v>-2.18</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="2782" spans="1:5">
@@ -61907,7 +61907,7 @@
         <v>0</v>
       </c>
       <c r="E2811">
-        <v>12.39</v>
+        <v>15.48</v>
       </c>
     </row>
     <row r="2812" spans="1:5">
@@ -62230,7 +62230,7 @@
         <v>0</v>
       </c>
       <c r="E2830">
-        <v>-11.07</v>
+        <v>-12.3</v>
       </c>
     </row>
     <row r="2831" spans="1:5">
@@ -62383,7 +62383,7 @@
         <v>-11.22</v>
       </c>
       <c r="E2839">
-        <v>12.64</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="2840" spans="1:5">
@@ -62468,7 +62468,7 @@
         <v>0</v>
       </c>
       <c r="E2844">
-        <v>-5.01</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="2845" spans="1:5">
@@ -62774,7 +62774,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E2862">
-        <v>-2.94</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="2863" spans="1:5">
@@ -62944,7 +62944,7 @@
         <v>-0.09</v>
       </c>
       <c r="E2872">
-        <v>14.14</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="2873" spans="1:5">
@@ -62995,7 +62995,7 @@
         <v>0</v>
       </c>
       <c r="E2875">
-        <v>-1.67</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="2876" spans="1:5">
@@ -63012,7 +63012,7 @@
         <v>-2.13</v>
       </c>
       <c r="E2876">
-        <v>-1.63</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="2877" spans="1:5">
@@ -63046,7 +63046,7 @@
         <v>0</v>
       </c>
       <c r="E2878">
-        <v>-12.36</v>
+        <v>-12.74</v>
       </c>
     </row>
     <row r="2879" spans="1:5">
@@ -63131,7 +63131,7 @@
         <v>-0.34</v>
       </c>
       <c r="E2883">
-        <v>1.38</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="2884" spans="1:5">
@@ -63165,7 +63165,7 @@
         <v>-23.81</v>
       </c>
       <c r="E2885">
-        <v>24.01</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2886" spans="1:5">
@@ -63216,7 +63216,7 @@
         <v>-17.74</v>
       </c>
       <c r="E2888">
-        <v>20.13</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="2889" spans="1:5">
@@ -63267,7 +63267,7 @@
         <v>11.01</v>
       </c>
       <c r="E2891">
-        <v>-0.52</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="2892" spans="1:5">
@@ -63284,7 +63284,7 @@
         <v>-0.44</v>
       </c>
       <c r="E2892">
-        <v>-0.89</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="2893" spans="1:5">
@@ -64202,7 +64202,7 @@
         <v>2.78</v>
       </c>
       <c r="E2946">
-        <v>9.01</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="2947" spans="1:5">
@@ -64678,7 +64678,7 @@
         <v>0</v>
       </c>
       <c r="E2974">
-        <v>40.1</v>
+        <v>41.78</v>
       </c>
     </row>
     <row r="2975" spans="1:5">
@@ -64695,7 +64695,7 @@
         <v>0</v>
       </c>
       <c r="E2975">
-        <v>4.02</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="2976" spans="1:5">
@@ -64712,7 +64712,7 @@
         <v>0</v>
       </c>
       <c r="E2976">
-        <v>4.02</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="2977" spans="1:5">
@@ -64763,7 +64763,7 @@
         <v>-4.01</v>
       </c>
       <c r="E2979">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="2980" spans="1:5">
@@ -64848,7 +64848,7 @@
         <v>17.64</v>
       </c>
       <c r="E2984">
-        <v>5.96</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="2985" spans="1:5">
@@ -64865,7 +64865,7 @@
         <v>0</v>
       </c>
       <c r="E2985">
-        <v>0</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="2986" spans="1:5">
@@ -64899,7 +64899,7 @@
         <v>11.89</v>
       </c>
       <c r="E2987">
-        <v>-13.06</v>
+        <v>-21.65</v>
       </c>
     </row>
     <row r="2988" spans="1:5">
@@ -64933,7 +64933,7 @@
         <v>1.28</v>
       </c>
       <c r="E2989">
-        <v>0</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="2990" spans="1:5">
@@ -64984,7 +64984,7 @@
         <v>22.81</v>
       </c>
       <c r="E2992">
-        <v>-4.29</v>
+        <v>-7.470000000000001</v>
       </c>
     </row>
     <row r="2993" spans="1:5">
@@ -65018,7 +65018,7 @@
         <v>0.08</v>
       </c>
       <c r="E2994">
-        <v>-5.510000000000001</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="2995" spans="1:5">
@@ -65086,7 +65086,7 @@
         <v>0</v>
       </c>
       <c r="E2998">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="2999" spans="1:5">
@@ -65103,7 +65103,7 @@
         <v>0</v>
       </c>
       <c r="E2999">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="3000" spans="1:5">
@@ -65341,7 +65341,7 @@
         <v>-7.55</v>
       </c>
       <c r="E3013">
-        <v>11.46</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="3014" spans="1:5">
@@ -65392,7 +65392,7 @@
         <v>0</v>
       </c>
       <c r="E3016">
-        <v>6.01</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="3017" spans="1:5">
@@ -65426,7 +65426,7 @@
         <v>-4.62</v>
       </c>
       <c r="E3018">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="3019" spans="1:5">
@@ -66157,7 +66157,7 @@
         <v>-10.12</v>
       </c>
       <c r="E3061">
-        <v>5.99</v>
+        <v>6.850000000000001</v>
       </c>
     </row>
     <row r="3062" spans="1:5">
@@ -66276,7 +66276,7 @@
         <v>24.07</v>
       </c>
       <c r="E3068">
-        <v>-1.64</v>
+        <v>-6.569999999999999</v>
       </c>
     </row>
     <row r="3069" spans="1:5">
@@ -66310,7 +66310,7 @@
         <v>-2</v>
       </c>
       <c r="E3070">
-        <v>-2.5</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="3071" spans="1:5">
@@ -66344,7 +66344,7 @@
         <v>-19.65</v>
       </c>
       <c r="E3072">
-        <v>38.21</v>
+        <v>40.09</v>
       </c>
     </row>
     <row r="3073" spans="1:5">
@@ -66429,7 +66429,7 @@
         <v>0</v>
       </c>
       <c r="E3077">
-        <v>3.34</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="3078" spans="1:5">
@@ -66446,7 +66446,7 @@
         <v>0</v>
       </c>
       <c r="E3078">
-        <v>2.45</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="3079" spans="1:5">
@@ -66463,7 +66463,7 @@
         <v>3.58</v>
       </c>
       <c r="E3079">
-        <v>-8.029999999999999</v>
+        <v>-10.72</v>
       </c>
     </row>
     <row r="3080" spans="1:5">
@@ -66480,7 +66480,7 @@
         <v>0</v>
       </c>
       <c r="E3080">
-        <v>2.45</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="3081" spans="1:5">
@@ -66497,7 +66497,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3081">
-        <v>14.43</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="3082" spans="1:5">
@@ -66565,7 +66565,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3085">
-        <v>14.43</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="3086" spans="1:5">
@@ -66633,7 +66633,7 @@
         <v>0</v>
       </c>
       <c r="E3089">
-        <v>0</v>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="3090" spans="1:5">
@@ -66769,7 +66769,7 @@
         <v>-22.35</v>
       </c>
       <c r="E3097">
-        <v>23.02</v>
+        <v>23.96</v>
       </c>
     </row>
     <row r="3098" spans="1:5">
@@ -66786,7 +66786,7 @@
         <v>-10.28</v>
       </c>
       <c r="E3098">
-        <v>4.58</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="3099" spans="1:5">
@@ -66803,7 +66803,7 @@
         <v>-24.1</v>
       </c>
       <c r="E3099">
-        <v>8.41</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="3100" spans="1:5">
@@ -66820,7 +66820,7 @@
         <v>15.55</v>
       </c>
       <c r="E3100">
-        <v>-30.25</v>
+        <v>-31.51</v>
       </c>
     </row>
     <row r="3101" spans="1:5">
@@ -66837,7 +66837,7 @@
         <v>-2.2</v>
       </c>
       <c r="E3101">
-        <v>8.880000000000001</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="3102" spans="1:5">
@@ -66854,7 +66854,7 @@
         <v>17.93</v>
       </c>
       <c r="E3102">
-        <v>-4.73</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="3103" spans="1:5">
@@ -67160,7 +67160,7 @@
         <v>0</v>
       </c>
       <c r="E3120">
-        <v>-2.67</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="3121" spans="1:5">
@@ -67364,7 +67364,7 @@
         <v>0</v>
       </c>
       <c r="E3132">
-        <v>23.56</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="3133" spans="1:5">
@@ -67381,7 +67381,7 @@
         <v>0</v>
       </c>
       <c r="E3133">
-        <v>-2.87</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="3134" spans="1:5">
@@ -67500,7 +67500,7 @@
         <v>-9.51</v>
       </c>
       <c r="E3140">
-        <v>-12.37</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="3141" spans="1:5">
@@ -67517,7 +67517,7 @@
         <v>0</v>
       </c>
       <c r="E3141">
-        <v>-12.37</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="3142" spans="1:5">
@@ -68044,7 +68044,7 @@
         <v>0</v>
       </c>
       <c r="E3172">
-        <v>3.35</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="3173" spans="1:5">
@@ -68214,7 +68214,7 @@
         <v>0</v>
       </c>
       <c r="E3182">
-        <v>0</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="3183" spans="1:5">
@@ -68231,7 +68231,7 @@
         <v>0</v>
       </c>
       <c r="E3183">
-        <v>9.229999999999999</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="3184" spans="1:5">
@@ -68401,7 +68401,7 @@
         <v>7.66</v>
       </c>
       <c r="E3193">
-        <v>-6.69</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="3194" spans="1:5">
@@ -68418,7 +68418,7 @@
         <v>7.66</v>
       </c>
       <c r="E3194">
-        <v>-6.69</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="3195" spans="1:5">
@@ -68435,7 +68435,7 @@
         <v>7.66</v>
       </c>
       <c r="E3195">
-        <v>-6.69</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="3196" spans="1:5">
@@ -68656,7 +68656,7 @@
         <v>-5.76</v>
       </c>
       <c r="E3208">
-        <v>9.92</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="3209" spans="1:5">
@@ -69761,7 +69761,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3273">
-        <v>10.13</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="3274" spans="1:5">
@@ -69778,7 +69778,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3274">
-        <v>10.13</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="3275" spans="1:5">
@@ -69795,7 +69795,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3275">
-        <v>10.13</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="3276" spans="1:5">
@@ -69846,7 +69846,7 @@
         <v>1.91</v>
       </c>
       <c r="E3278">
-        <v>0</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="3279" spans="1:5">
@@ -69863,7 +69863,7 @@
         <v>1.91</v>
       </c>
       <c r="E3279">
-        <v>0</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="3280" spans="1:5">
@@ -70084,7 +70084,7 @@
         <v>0</v>
       </c>
       <c r="E3292">
-        <v>0</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="3293" spans="1:5">
@@ -70135,7 +70135,7 @@
         <v>0</v>
       </c>
       <c r="E3295">
-        <v>0</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="3296" spans="1:5">
@@ -70305,7 +70305,7 @@
         <v>8.6</v>
       </c>
       <c r="E3305">
-        <v>0.54</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="3306" spans="1:5">
@@ -70322,7 +70322,7 @@
         <v>14.8</v>
       </c>
       <c r="E3306">
-        <v>-5.71</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="3307" spans="1:5">
@@ -70356,7 +70356,7 @@
         <v>8.6</v>
       </c>
       <c r="E3308">
-        <v>-6.890000000000001</v>
+        <v>-7.48</v>
       </c>
     </row>
     <row r="3309" spans="1:5">
@@ -70373,7 +70373,7 @@
         <v>11.48</v>
       </c>
       <c r="E3309">
-        <v>-5.71</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="3310" spans="1:5">
@@ -70509,7 +70509,7 @@
         <v>6.79</v>
       </c>
       <c r="E3317">
-        <v>-11.51</v>
+        <v>-11.94</v>
       </c>
     </row>
     <row r="3318" spans="1:5">
@@ -70526,7 +70526,7 @@
         <v>0</v>
       </c>
       <c r="E3318">
-        <v>10.03</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="3319" spans="1:5">
@@ -70594,7 +70594,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="E3322">
-        <v>-21.77</v>
+        <v>-22.68</v>
       </c>
     </row>
     <row r="3323" spans="1:5">
@@ -70662,7 +70662,7 @@
         <v>-4.850000000000001</v>
       </c>
       <c r="E3326">
-        <v>16.52</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="3327" spans="1:5">
@@ -70730,7 +70730,7 @@
         <v>-13.92</v>
       </c>
       <c r="E3330">
-        <v>16.17</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="3331" spans="1:5">
@@ -70747,7 +70747,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E3331">
-        <v>6.34</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="3332" spans="1:5">
@@ -70764,7 +70764,7 @@
         <v>0</v>
       </c>
       <c r="E3332">
-        <v>23.03</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="3333" spans="1:5">
@@ -70832,7 +70832,7 @@
         <v>0</v>
       </c>
       <c r="E3336">
-        <v>-3.64</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="3337" spans="1:5">
@@ -70883,7 +70883,7 @@
         <v>-4.95</v>
       </c>
       <c r="E3339">
-        <v>14.53</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="3340" spans="1:5">
@@ -70900,7 +70900,7 @@
         <v>-9.85</v>
       </c>
       <c r="E3340">
-        <v>15.23</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="3341" spans="1:5">
@@ -70917,7 +70917,7 @@
         <v>-15.5</v>
       </c>
       <c r="E3341">
-        <v>17.52</v>
+        <v>18.17</v>
       </c>
     </row>
     <row r="3342" spans="1:5">
@@ -70951,7 +70951,7 @@
         <v>4.87</v>
       </c>
       <c r="E3343">
-        <v>17.52</v>
+        <v>18.17</v>
       </c>
     </row>
     <row r="3344" spans="1:5">
@@ -70968,7 +70968,7 @@
         <v>4.390000000000001</v>
       </c>
       <c r="E3344">
-        <v>17.68</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="3345" spans="1:5">
@@ -70985,7 +70985,7 @@
         <v>3.89</v>
       </c>
       <c r="E3345">
-        <v>3.48</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="3346" spans="1:5">
@@ -71002,7 +71002,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="E3346">
-        <v>17.52</v>
+        <v>18.17</v>
       </c>
     </row>
     <row r="3347" spans="1:5">
@@ -71019,7 +71019,7 @@
         <v>-5.800000000000001</v>
       </c>
       <c r="E3347">
-        <v>18.48</v>
+        <v>19.48</v>
       </c>
     </row>
     <row r="3348" spans="1:5">
@@ -71087,7 +71087,7 @@
         <v>12.91</v>
       </c>
       <c r="E3351">
-        <v>-1.82</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="3352" spans="1:5">
@@ -71138,7 +71138,7 @@
         <v>11.23</v>
       </c>
       <c r="E3354">
-        <v>25.08</v>
+        <v>26.03</v>
       </c>
     </row>
     <row r="3355" spans="1:5">
@@ -71155,7 +71155,7 @@
         <v>0</v>
       </c>
       <c r="E3355">
-        <v>-14.07</v>
+        <v>-14.57</v>
       </c>
     </row>
     <row r="3356" spans="1:5">
@@ -71206,7 +71206,7 @@
         <v>6.1</v>
       </c>
       <c r="E3358">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3359" spans="1:5">
@@ -71393,7 +71393,7 @@
         <v>0</v>
       </c>
       <c r="E3369">
-        <v>3.87</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="3370" spans="1:5">
@@ -71410,7 +71410,7 @@
         <v>0</v>
       </c>
       <c r="E3370">
-        <v>3.87</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="3371" spans="1:5">
@@ -71512,7 +71512,7 @@
         <v>58.7</v>
       </c>
       <c r="E3376">
-        <v>8.219999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3377" spans="1:5">
@@ -71546,7 +71546,7 @@
         <v>36</v>
       </c>
       <c r="E3378">
-        <v>16.18</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="3379" spans="1:5">
@@ -71597,7 +71597,7 @@
         <v>58.7</v>
       </c>
       <c r="E3381">
-        <v>8.219999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3382" spans="1:5">
@@ -71631,7 +71631,7 @@
         <v>58.7</v>
       </c>
       <c r="E3383">
-        <v>8.219999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3384" spans="1:5">
@@ -71648,7 +71648,7 @@
         <v>0</v>
       </c>
       <c r="E3384">
-        <v>3.87</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="3385" spans="1:5">
@@ -71665,7 +71665,7 @@
         <v>0</v>
       </c>
       <c r="E3385">
-        <v>3.87</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="3386" spans="1:5">
@@ -71682,7 +71682,7 @@
         <v>13.89</v>
       </c>
       <c r="E3386">
-        <v>8.540000000000001</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="3387" spans="1:5">
@@ -72039,7 +72039,7 @@
         <v>12.2</v>
       </c>
       <c r="E3407">
-        <v>7.61</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3408" spans="1:5">
@@ -72056,7 +72056,7 @@
         <v>12.2</v>
       </c>
       <c r="E3408">
-        <v>7.61</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3409" spans="1:5">
@@ -72090,7 +72090,7 @@
         <v>12.2</v>
       </c>
       <c r="E3410">
-        <v>7.61</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3411" spans="1:5">
@@ -72124,7 +72124,7 @@
         <v>-6.7</v>
       </c>
       <c r="E3412">
-        <v>9.210000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3413" spans="1:5">
@@ -72141,7 +72141,7 @@
         <v>-6.08</v>
       </c>
       <c r="E3413">
-        <v>9.210000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="3414" spans="1:5">
@@ -72175,7 +72175,7 @@
         <v>-12.03</v>
       </c>
       <c r="E3415">
-        <v>13.68</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="3416" spans="1:5">
@@ -72192,7 +72192,7 @@
         <v>-10.65</v>
       </c>
       <c r="E3416">
-        <v>19.21</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="3417" spans="1:5">
@@ -72243,7 +72243,7 @@
         <v>-7.84</v>
       </c>
       <c r="E3419">
-        <v>8.5</v>
+        <v>6.800000000000001</v>
       </c>
     </row>
     <row r="3420" spans="1:5">
@@ -72277,7 +72277,7 @@
         <v>-6.329999999999999</v>
       </c>
       <c r="E3421">
-        <v>10.55</v>
+        <v>9.220000000000001</v>
       </c>
     </row>
     <row r="3422" spans="1:5">
@@ -72294,7 +72294,7 @@
         <v>-5.81</v>
       </c>
       <c r="E3422">
-        <v>14.2</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="3423" spans="1:5">
@@ -72328,7 +72328,7 @@
         <v>-9.120000000000001</v>
       </c>
       <c r="E3424">
-        <v>8.029999999999999</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="3425" spans="1:5">
@@ -72362,7 +72362,7 @@
         <v>-1.6</v>
       </c>
       <c r="E3426">
-        <v>3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3427" spans="1:5">
@@ -72413,7 +72413,7 @@
         <v>11.28</v>
       </c>
       <c r="E3429">
-        <v>0.52</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="3430" spans="1:5">
@@ -72430,7 +72430,7 @@
         <v>7.88</v>
       </c>
       <c r="E3430">
-        <v>4.79</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3431" spans="1:5">
@@ -72481,7 +72481,7 @@
         <v>7.960000000000001</v>
       </c>
       <c r="E3433">
-        <v>4.14</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3434" spans="1:5">
@@ -72498,7 +72498,7 @@
         <v>6.510000000000001</v>
       </c>
       <c r="E3434">
-        <v>4.14</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3435" spans="1:5">
@@ -72515,7 +72515,7 @@
         <v>-1.65</v>
       </c>
       <c r="E3435">
-        <v>3.35</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="3436" spans="1:5">
@@ -72532,7 +72532,7 @@
         <v>-0.61</v>
       </c>
       <c r="E3436">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3437" spans="1:5">
@@ -72566,7 +72566,7 @@
         <v>-1.65</v>
       </c>
       <c r="E3438">
-        <v>26.78</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="3439" spans="1:5">
@@ -72600,7 +72600,7 @@
         <v>-8.32</v>
       </c>
       <c r="E3440">
-        <v>10.82</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="3441" spans="1:5">
@@ -72617,7 +72617,7 @@
         <v>0</v>
       </c>
       <c r="E3441">
-        <v>-11.46</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="3442" spans="1:5">
@@ -72634,7 +72634,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3442">
-        <v>26.78</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="3443" spans="1:5">
@@ -72651,7 +72651,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3443">
-        <v>13.73</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="3444" spans="1:5">
@@ -72668,7 +72668,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E3444">
-        <v>24.46</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="3445" spans="1:5">
@@ -72685,7 +72685,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3445">
-        <v>13.73</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="3446" spans="1:5">
@@ -72702,7 +72702,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E3446">
-        <v>17.27</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="3447" spans="1:5">
@@ -72719,7 +72719,7 @@
         <v>-3.98</v>
       </c>
       <c r="E3447">
-        <v>17.17</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="3448" spans="1:5">
@@ -72753,7 +72753,7 @@
         <v>0</v>
       </c>
       <c r="E3449">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3450" spans="1:5">
@@ -72770,7 +72770,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="E3450">
-        <v>1.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3451" spans="1:5">
@@ -72787,7 +72787,7 @@
         <v>1.4</v>
       </c>
       <c r="E3451">
-        <v>0.9199999999999999</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="3452" spans="1:5">
@@ -72804,7 +72804,7 @@
         <v>2.07</v>
       </c>
       <c r="E3452">
-        <v>3.86</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="3453" spans="1:5">
@@ -72821,7 +72821,7 @@
         <v>0.59</v>
       </c>
       <c r="E3453">
-        <v>0.73</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="3454" spans="1:5">
@@ -72838,7 +72838,7 @@
         <v>11.49</v>
       </c>
       <c r="E3454">
-        <v>-3.64</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="3455" spans="1:5">
@@ -72855,7 +72855,7 @@
         <v>0</v>
       </c>
       <c r="E3455">
-        <v>-2.36</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="3456" spans="1:5">
@@ -72889,7 +72889,7 @@
         <v>0</v>
       </c>
       <c r="E3457">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3458" spans="1:5">
@@ -72906,7 +72906,7 @@
         <v>-1.4</v>
       </c>
       <c r="E3458">
-        <v>3.86</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="3459" spans="1:5">
@@ -72923,7 +72923,7 @@
         <v>-7.69</v>
       </c>
       <c r="E3459">
-        <v>5.13</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3460" spans="1:5">
@@ -72957,7 +72957,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3461">
-        <v>26.78</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="3462" spans="1:5">
@@ -72974,7 +72974,7 @@
         <v>-3.59</v>
       </c>
       <c r="E3462">
-        <v>6.87</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="3463" spans="1:5">
@@ -73008,7 +73008,7 @@
         <v>-27.13</v>
       </c>
       <c r="E3464">
-        <v>54.33</v>
+        <v>51.91</v>
       </c>
     </row>
     <row r="3465" spans="1:5">
@@ -73059,7 +73059,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3467">
-        <v>26.78</v>
+        <v>28.03</v>
       </c>
     </row>
     <row r="3468" spans="1:5">
@@ -73314,7 +73314,7 @@
         <v>-11.38</v>
       </c>
       <c r="E3482">
-        <v>12.06</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="3483" spans="1:5">
@@ -73739,7 +73739,7 @@
         <v>0</v>
       </c>
       <c r="E3507">
-        <v>0</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="3508" spans="1:5">
@@ -73756,7 +73756,7 @@
         <v>0</v>
       </c>
       <c r="E3508">
-        <v>0</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="3509" spans="1:5">
@@ -74045,7 +74045,7 @@
         <v>4.67</v>
       </c>
       <c r="E3525">
-        <v>0</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="3526" spans="1:5">
@@ -74215,7 +74215,7 @@
         <v>4.67</v>
       </c>
       <c r="E3535">
-        <v>0</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="3536" spans="1:5">
@@ -74283,7 +74283,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3539">
-        <v>30</v>
+        <v>31.28</v>
       </c>
     </row>
     <row r="3540" spans="1:5">
@@ -74300,7 +74300,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3540">
-        <v>20.03</v>
+        <v>18.03</v>
       </c>
     </row>
     <row r="3541" spans="1:5">
@@ -74317,7 +74317,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3541">
-        <v>30</v>
+        <v>25.05</v>
       </c>
     </row>
     <row r="3542" spans="1:5">
@@ -74334,7 +74334,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3542">
-        <v>20.03</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="3543" spans="1:5">
@@ -74351,7 +74351,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3543">
-        <v>20.03</v>
+        <v>18.03</v>
       </c>
     </row>
     <row r="3544" spans="1:5">
@@ -74385,7 +74385,7 @@
         <v>-27.25</v>
       </c>
       <c r="E3545">
-        <v>10.51</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="3546" spans="1:5">
@@ -74402,7 +74402,7 @@
         <v>-27.25</v>
       </c>
       <c r="E3546">
-        <v>41.86</v>
+        <v>43.73</v>
       </c>
     </row>
     <row r="3547" spans="1:5">
@@ -74436,7 +74436,7 @@
         <v>0</v>
       </c>
       <c r="E3548">
-        <v>0</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="3549" spans="1:5">
@@ -74453,7 +74453,7 @@
         <v>0</v>
       </c>
       <c r="E3549">
-        <v>0</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="3550" spans="1:5">
@@ -74606,7 +74606,7 @@
         <v>0</v>
       </c>
       <c r="E3558">
-        <v>0</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="3559" spans="1:5">
@@ -74861,7 +74861,7 @@
         <v>0</v>
       </c>
       <c r="E3573">
-        <v>0</v>
+        <v>-4.100000000000001</v>
       </c>
     </row>
     <row r="3574" spans="1:5">
@@ -74878,7 +74878,7 @@
         <v>-0.53</v>
       </c>
       <c r="E3574">
-        <v>-0.53</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="3575" spans="1:5">
@@ -74895,7 +74895,7 @@
         <v>-0.53</v>
       </c>
       <c r="E3575">
-        <v>-0.53</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="3576" spans="1:5">
@@ -74912,7 +74912,7 @@
         <v>-14.67</v>
       </c>
       <c r="E3576">
-        <v>9.379999999999999</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="3577" spans="1:5">
@@ -75133,7 +75133,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3589">
-        <v>8.559999999999999</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="3590" spans="1:5">
@@ -75150,7 +75150,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3590">
-        <v>8.559999999999999</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="3591" spans="1:5">
@@ -75167,7 +75167,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3591">
-        <v>8.559999999999999</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="3592" spans="1:5">
@@ -75184,7 +75184,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3592">
-        <v>8.559999999999999</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="3593" spans="1:5">
@@ -75201,7 +75201,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="E3593">
-        <v>-22.94</v>
+        <v>-24.01</v>
       </c>
     </row>
     <row r="3594" spans="1:5">
@@ -75218,7 +75218,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3594">
-        <v>-17.94</v>
+        <v>-19.08</v>
       </c>
     </row>
     <row r="3595" spans="1:5">
@@ -75235,7 +75235,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3595">
-        <v>-17.94</v>
+        <v>-19.08</v>
       </c>
     </row>
     <row r="3596" spans="1:5">
@@ -75252,7 +75252,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3596">
-        <v>-17.94</v>
+        <v>-19.08</v>
       </c>
     </row>
     <row r="3597" spans="1:5">
@@ -75286,7 +75286,7 @@
         <v>0</v>
       </c>
       <c r="E3598">
-        <v>8.59</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="3599" spans="1:5">
@@ -75388,7 +75388,7 @@
         <v>-7.77</v>
       </c>
       <c r="E3604">
-        <v>4.47</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="3605" spans="1:5">
@@ -75643,7 +75643,7 @@
         <v>0</v>
       </c>
       <c r="E3619">
-        <v>-14.66</v>
+        <v>-18.31</v>
       </c>
     </row>
     <row r="3620" spans="1:5">
@@ -75660,7 +75660,7 @@
         <v>0</v>
       </c>
       <c r="E3620">
-        <v>-14.66</v>
+        <v>-18.31</v>
       </c>
     </row>
     <row r="3621" spans="1:5">
@@ -75677,7 +75677,7 @@
         <v>0</v>
       </c>
       <c r="E3621">
-        <v>-14.66</v>
+        <v>-18.31</v>
       </c>
     </row>
     <row r="3622" spans="1:5">
@@ -75694,7 +75694,7 @@
         <v>0</v>
       </c>
       <c r="E3622">
-        <v>-14.66</v>
+        <v>-18.31</v>
       </c>
     </row>
     <row r="3623" spans="1:5">
@@ -75762,7 +75762,7 @@
         <v>-3.32</v>
       </c>
       <c r="E3626">
-        <v>-23.44</v>
+        <v>-23.56</v>
       </c>
     </row>
     <row r="3627" spans="1:5">
@@ -75847,7 +75847,7 @@
         <v>0</v>
       </c>
       <c r="E3631">
-        <v>-11.37</v>
+        <v>-11.87</v>
       </c>
     </row>
     <row r="3632" spans="1:5">
@@ -75864,7 +75864,7 @@
         <v>0</v>
       </c>
       <c r="E3632">
-        <v>-11.37</v>
+        <v>-11.87</v>
       </c>
     </row>
     <row r="3633" spans="1:5">
@@ -75949,7 +75949,7 @@
         <v>-12.01</v>
       </c>
       <c r="E3637">
-        <v>7.28</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="3638" spans="1:5">
@@ -75966,7 +75966,7 @@
         <v>0</v>
       </c>
       <c r="E3638">
-        <v>0</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="3639" spans="1:5">
@@ -75983,7 +75983,7 @@
         <v>-13.45</v>
       </c>
       <c r="E3639">
-        <v>-2.79</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3640" spans="1:5">
@@ -76000,7 +76000,7 @@
         <v>-1.77</v>
       </c>
       <c r="E3640">
-        <v>-7.21</v>
+        <v>-10.08</v>
       </c>
     </row>
     <row r="3641" spans="1:5">
@@ -76017,7 +76017,7 @@
         <v>23.77</v>
       </c>
       <c r="E3641">
-        <v>-13.27</v>
+        <v>-14.76</v>
       </c>
     </row>
     <row r="3642" spans="1:5">
@@ -76136,7 +76136,7 @@
         <v>0</v>
       </c>
       <c r="E3648">
-        <v>0</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="3649" spans="1:5">
@@ -76170,7 +76170,7 @@
         <v>0</v>
       </c>
       <c r="E3650">
-        <v>0</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="3651" spans="1:5">
@@ -76187,7 +76187,7 @@
         <v>0</v>
       </c>
       <c r="E3651">
-        <v>0</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="3652" spans="1:5">
@@ -76221,7 +76221,7 @@
         <v>2.44</v>
       </c>
       <c r="E3653">
-        <v>-5</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="3654" spans="1:5">
@@ -76238,7 +76238,7 @@
         <v>8.200000000000001</v>
       </c>
       <c r="E3654">
-        <v>0</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="3655" spans="1:5">
@@ -76255,7 +76255,7 @@
         <v>15.77</v>
       </c>
       <c r="E3655">
-        <v>-6.99</v>
+        <v>-6.140000000000001</v>
       </c>
     </row>
     <row r="3656" spans="1:5">
@@ -76425,7 +76425,7 @@
         <v>0</v>
       </c>
       <c r="E3665">
-        <v>0</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="3666" spans="1:5">
@@ -76510,7 +76510,7 @@
         <v>-7.28</v>
       </c>
       <c r="E3670">
-        <v>6.31</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="3671" spans="1:5">
@@ -76527,7 +76527,7 @@
         <v>0</v>
       </c>
       <c r="E3671">
-        <v>19.09</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="3672" spans="1:5">
@@ -76544,7 +76544,7 @@
         <v>4.7</v>
       </c>
       <c r="E3672">
-        <v>-6.239999999999999</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="3673" spans="1:5">
@@ -76578,7 +76578,7 @@
         <v>0</v>
       </c>
       <c r="E3674">
-        <v>-20.57</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="3675" spans="1:5">
@@ -76612,7 +76612,7 @@
         <v>0</v>
       </c>
       <c r="E3676">
-        <v>-20.57</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="3677" spans="1:5">
@@ -76663,7 +76663,7 @@
         <v>2.99</v>
       </c>
       <c r="E3679">
-        <v>-3.75</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="3680" spans="1:5">
@@ -76680,7 +76680,7 @@
         <v>0</v>
       </c>
       <c r="E3680">
-        <v>0</v>
+        <v>-5.220000000000001</v>
       </c>
     </row>
     <row r="3681" spans="1:5">
@@ -76714,7 +76714,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3682">
-        <v>7.62</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="3683" spans="1:5">
@@ -76748,7 +76748,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3684">
-        <v>7.62</v>
+        <v>8.720000000000001</v>
       </c>
     </row>
     <row r="3685" spans="1:5">
@@ -76765,7 +76765,7 @@
         <v>-0.18</v>
       </c>
       <c r="E3685">
-        <v>2.26</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="3686" spans="1:5">
@@ -76782,7 +76782,7 @@
         <v>2.36</v>
       </c>
       <c r="E3686">
-        <v>-0.89</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="3687" spans="1:5">
@@ -76969,7 +76969,7 @@
         <v>47.34</v>
       </c>
       <c r="E3697">
-        <v>-1.61</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="3698" spans="1:5">
@@ -76986,7 +76986,7 @@
         <v>0</v>
       </c>
       <c r="E3698">
-        <v>-2.48</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="3699" spans="1:5">
@@ -77598,7 +77598,7 @@
         <v>0</v>
       </c>
       <c r="E3734">
-        <v>1.41</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="3735" spans="1:5">
@@ -77938,7 +77938,7 @@
         <v>21.42</v>
       </c>
       <c r="E3754">
-        <v>-21.13</v>
+        <v>-21.97</v>
       </c>
     </row>
     <row r="3755" spans="1:5">
@@ -78040,7 +78040,7 @@
         <v>0</v>
       </c>
       <c r="E3760">
-        <v>-9.73</v>
+        <v>-10.03</v>
       </c>
     </row>
     <row r="3761" spans="1:5">
@@ -78142,7 +78142,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3766">
-        <v>2.83</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="3767" spans="1:5">
@@ -78159,7 +78159,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3767">
-        <v>2.83</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="3768" spans="1:5">
@@ -78261,7 +78261,7 @@
         <v>0</v>
       </c>
       <c r="E3773">
-        <v>24.02</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="3774" spans="1:5">
@@ -78312,7 +78312,7 @@
         <v>10.08</v>
       </c>
       <c r="E3776">
-        <v>-10.58</v>
+        <v>-7.489999999999999</v>
       </c>
     </row>
     <row r="3777" spans="1:5">
@@ -78380,7 +78380,7 @@
         <v>-15.35</v>
       </c>
       <c r="E3780">
-        <v>-5.74</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="3781" spans="1:5">
@@ -78635,7 +78635,7 @@
         <v>6.859999999999999</v>
       </c>
       <c r="E3795">
-        <v>-20.05</v>
+        <v>-20.88</v>
       </c>
     </row>
     <row r="3796" spans="1:5">
@@ -78652,7 +78652,7 @@
         <v>-2.27</v>
       </c>
       <c r="E3796">
-        <v>-5.029999999999999</v>
+        <v>-5.220000000000001</v>
       </c>
     </row>
     <row r="3797" spans="1:5">
@@ -78890,7 +78890,7 @@
         <v>0</v>
       </c>
       <c r="E3810">
-        <v>16.63</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="3811" spans="1:5">
@@ -79060,7 +79060,7 @@
         <v>-5.24</v>
       </c>
       <c r="E3820">
-        <v>-11.43</v>
+        <v>-12.51</v>
       </c>
     </row>
     <row r="3821" spans="1:5">
@@ -79077,7 +79077,7 @@
         <v>-5.24</v>
       </c>
       <c r="E3821">
-        <v>-11.43</v>
+        <v>-12.51</v>
       </c>
     </row>
     <row r="3822" spans="1:5">
@@ -79094,7 +79094,7 @@
         <v>-5.24</v>
       </c>
       <c r="E3822">
-        <v>-11.43</v>
+        <v>-12.51</v>
       </c>
     </row>
     <row r="3823" spans="1:5">
@@ -79111,7 +79111,7 @@
         <v>0.51</v>
       </c>
       <c r="E3823">
-        <v>-20.3</v>
+        <v>-21.27</v>
       </c>
     </row>
     <row r="3824" spans="1:5">
@@ -79128,7 +79128,7 @@
         <v>0</v>
       </c>
       <c r="E3824">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="3825" spans="1:5">
@@ -79196,7 +79196,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3828">
-        <v>2.8</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="3829" spans="1:5">
@@ -79213,7 +79213,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3829">
-        <v>2.8</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="3830" spans="1:5">
@@ -79451,7 +79451,7 @@
         <v>0.52</v>
       </c>
       <c r="E3843">
-        <v>-12.04</v>
+        <v>-12.57</v>
       </c>
     </row>
     <row r="3844" spans="1:5">
@@ -79468,7 +79468,7 @@
         <v>-12.85</v>
       </c>
       <c r="E3844">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="3845" spans="1:5">
@@ -79519,7 +79519,7 @@
         <v>1.05</v>
       </c>
       <c r="E3847">
-        <v>-14.48</v>
+        <v>-15.09</v>
       </c>
     </row>
     <row r="3848" spans="1:5">
@@ -79944,7 +79944,7 @@
         <v>-19.69</v>
       </c>
       <c r="E3872">
-        <v>45.59</v>
+        <v>47.53</v>
       </c>
     </row>
     <row r="3873" spans="1:5">
@@ -79961,7 +79961,7 @@
         <v>-10.89</v>
       </c>
       <c r="E3873">
-        <v>22.57</v>
+        <v>23.51</v>
       </c>
     </row>
     <row r="3874" spans="1:5">
@@ -80063,7 +80063,7 @@
         <v>8.32</v>
       </c>
       <c r="E3879">
-        <v>-28.05</v>
+        <v>-29.22</v>
       </c>
     </row>
     <row r="3880" spans="1:5">
@@ -80080,7 +80080,7 @@
         <v>8.32</v>
       </c>
       <c r="E3880">
-        <v>-28.05</v>
+        <v>-29.22</v>
       </c>
     </row>
     <row r="3881" spans="1:5">
@@ -80097,7 +80097,7 @@
         <v>8.32</v>
       </c>
       <c r="E3881">
-        <v>-28.05</v>
+        <v>-29.22</v>
       </c>
     </row>
     <row r="3882" spans="1:5">
@@ -80131,7 +80131,7 @@
         <v>-13.77</v>
       </c>
       <c r="E3883">
-        <v>17.02</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="3884" spans="1:5">
@@ -80301,7 +80301,7 @@
         <v>0</v>
       </c>
       <c r="E3893">
-        <v>6.419999999999999</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="3894" spans="1:5">
@@ -80335,7 +80335,7 @@
         <v>2.48</v>
       </c>
       <c r="E3895">
-        <v>6.419999999999999</v>
+        <v>7.380000000000001</v>
       </c>
     </row>
     <row r="3896" spans="1:5">
@@ -80573,7 +80573,7 @@
         <v>-9.93</v>
       </c>
       <c r="E3909">
-        <v>0.88</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="3910" spans="1:5">
@@ -80590,7 +80590,7 @@
         <v>0</v>
       </c>
       <c r="E3910">
-        <v>-2.66</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="3911" spans="1:5">
@@ -80947,7 +80947,7 @@
         <v>-1.41</v>
       </c>
       <c r="E3931">
-        <v>-4.29</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="3932" spans="1:5">
@@ -80998,7 +80998,7 @@
         <v>1.13</v>
       </c>
       <c r="E3934">
-        <v>-3.34</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="3935" spans="1:5">
@@ -81066,7 +81066,7 @@
         <v>8.790000000000001</v>
       </c>
       <c r="E3938">
-        <v>5.58</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="3939" spans="1:5">
@@ -81576,7 +81576,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3968">
-        <v>3.36</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="3969" spans="1:5">
@@ -81593,7 +81593,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3969">
-        <v>3.36</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="3970" spans="1:5">
@@ -81610,7 +81610,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3970">
-        <v>3.36</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="3971" spans="1:5">
@@ -81627,7 +81627,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3971">
-        <v>3.36</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="3972" spans="1:5">
@@ -81644,7 +81644,7 @@
         <v>-14.58</v>
       </c>
       <c r="E3972">
-        <v>25.61</v>
+        <v>28.05</v>
       </c>
     </row>
     <row r="3973" spans="1:5">
@@ -82120,7 +82120,7 @@
         <v>-4.01</v>
       </c>
       <c r="E4000">
-        <v>1.19</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="4001" spans="1:5">
@@ -82273,7 +82273,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4009">
-        <v>16.44</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="4010" spans="1:5">
@@ -82290,7 +82290,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4010">
-        <v>16.44</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="4011" spans="1:5">
@@ -82307,7 +82307,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4011">
-        <v>16.44</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="4012" spans="1:5">
@@ -82460,7 +82460,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4020">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4021" spans="1:5">
@@ -82477,7 +82477,7 @@
         <v>-16.01</v>
       </c>
       <c r="E4021">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4022" spans="1:5">
@@ -82494,7 +82494,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4022">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4023" spans="1:5">
@@ -82511,7 +82511,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4023">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4024" spans="1:5">
@@ -82528,7 +82528,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4024">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4025" spans="1:5">
@@ -82545,7 +82545,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4025">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4026" spans="1:5">
@@ -82562,7 +82562,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4026">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4027" spans="1:5">
@@ -82579,7 +82579,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4027">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4028" spans="1:5">
@@ -82596,7 +82596,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4028">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4029" spans="1:5">
@@ -82613,7 +82613,7 @@
         <v>-17.74</v>
       </c>
       <c r="E4029">
-        <v>20.13</v>
+        <v>20.94</v>
       </c>
     </row>
     <row r="4030" spans="1:5">
@@ -82630,7 +82630,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4030">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4031" spans="1:5">
@@ -82647,7 +82647,7 @@
         <v>-11.86</v>
       </c>
       <c r="E4031">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4032" spans="1:5">
@@ -82681,7 +82681,7 @@
         <v>12.06</v>
       </c>
       <c r="E4033">
-        <v>28.75</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="4034" spans="1:5">
@@ -82698,7 +82698,7 @@
         <v>68.61</v>
       </c>
       <c r="E4034">
-        <v>28.75</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="4035" spans="1:5">
@@ -82715,7 +82715,7 @@
         <v>68.61</v>
       </c>
       <c r="E4035">
-        <v>28.75</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="4036" spans="1:5">
@@ -82732,7 +82732,7 @@
         <v>60.13</v>
       </c>
       <c r="E4036">
-        <v>23.24</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="4037" spans="1:5">
@@ -82749,7 +82749,7 @@
         <v>68.61</v>
       </c>
       <c r="E4037">
-        <v>28.75</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="4038" spans="1:5">
@@ -82783,7 +82783,7 @@
         <v>68.61</v>
       </c>
       <c r="E4039">
-        <v>28.75</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="4040" spans="1:5">
@@ -82800,7 +82800,7 @@
         <v>68.61</v>
       </c>
       <c r="E4040">
-        <v>28.75</v>
+        <v>20.35</v>
       </c>
     </row>
     <row r="4041" spans="1:5">
@@ -83089,7 +83089,7 @@
         <v>0</v>
       </c>
       <c r="E4057">
-        <v>0</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="4058" spans="1:5">
@@ -83106,7 +83106,7 @@
         <v>0</v>
       </c>
       <c r="E4058">
-        <v>0</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="4059" spans="1:5">
@@ -83123,7 +83123,7 @@
         <v>0</v>
       </c>
       <c r="E4059">
-        <v>-11.14</v>
+        <v>-13.94</v>
       </c>
     </row>
     <row r="4060" spans="1:5">
@@ -83140,7 +83140,7 @@
         <v>0</v>
       </c>
       <c r="E4060">
-        <v>0</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="4061" spans="1:5">
@@ -83157,7 +83157,7 @@
         <v>36.27</v>
       </c>
       <c r="E4061">
-        <v>-2.18</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="4062" spans="1:5">
@@ -83174,7 +83174,7 @@
         <v>15.42</v>
       </c>
       <c r="E4062">
-        <v>-21.03</v>
+        <v>-21.92</v>
       </c>
     </row>
     <row r="4063" spans="1:5">
@@ -83191,7 +83191,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4063">
-        <v>6.16</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="4064" spans="1:5">
@@ -83208,7 +83208,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4064">
-        <v>6.16</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="4065" spans="1:5">
@@ -83242,7 +83242,7 @@
         <v>49.82</v>
       </c>
       <c r="E4066">
-        <v>-13.66</v>
+        <v>-9.5</v>
       </c>
     </row>
     <row r="4067" spans="1:5">
@@ -83259,7 +83259,7 @@
         <v>0</v>
       </c>
       <c r="E4067">
-        <v>-8.459999999999999</v>
+        <v>-8.799999999999999</v>
       </c>
     </row>
     <row r="4068" spans="1:5">
@@ -83276,7 +83276,7 @@
         <v>3.42</v>
       </c>
       <c r="E4068">
-        <v>-12.32</v>
+        <v>-12.86</v>
       </c>
     </row>
     <row r="4069" spans="1:5">
@@ -83293,7 +83293,7 @@
         <v>0</v>
       </c>
       <c r="E4069">
-        <v>-8.459999999999999</v>
+        <v>-8.799999999999999</v>
       </c>
     </row>
     <row r="4070" spans="1:5">
@@ -83565,7 +83565,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4085">
-        <v>-0.61</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="4086" spans="1:5">
@@ -83582,7 +83582,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4086">
-        <v>-0.61</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="4087" spans="1:5">
@@ -83650,7 +83650,7 @@
         <v>-7.16</v>
       </c>
       <c r="E4090">
-        <v>2.32</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="4091" spans="1:5">
@@ -83684,7 +83684,7 @@
         <v>0</v>
       </c>
       <c r="E4092">
-        <v>0</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="4093" spans="1:5">
@@ -83786,7 +83786,7 @@
         <v>-3.08</v>
       </c>
       <c r="E4098">
-        <v>0.64</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="4099" spans="1:5">
@@ -83820,7 +83820,7 @@
         <v>-3.9</v>
       </c>
       <c r="E4100">
-        <v>34.37</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="4101" spans="1:5">
@@ -83871,7 +83871,7 @@
         <v>-2.87</v>
       </c>
       <c r="E4103">
-        <v>8.02</v>
+        <v>9.180000000000001</v>
       </c>
     </row>
     <row r="4104" spans="1:5">
@@ -83973,7 +83973,7 @@
         <v>0</v>
       </c>
       <c r="E4109">
-        <v>6.72</v>
+        <v>7.000000000000001</v>
       </c>
     </row>
     <row r="4110" spans="1:5">
@@ -84126,7 +84126,7 @@
         <v>0</v>
       </c>
       <c r="E4118">
-        <v>10.5</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="4119" spans="1:5">
@@ -85894,7 +85894,7 @@
         <v>0</v>
       </c>
       <c r="E4222">
-        <v>10.81</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4223" spans="1:5">
@@ -85911,7 +85911,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="E4223">
-        <v>-4.22</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="4224" spans="1:5">
@@ -86897,7 +86897,7 @@
         <v>0</v>
       </c>
       <c r="E4281">
-        <v>10.7</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="4282" spans="1:5">
@@ -87951,7 +87951,7 @@
         <v>3.35</v>
       </c>
       <c r="E4343">
-        <v>-0.62</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="4344" spans="1:5">
@@ -88138,7 +88138,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4354">
-        <v>16.08</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="4355" spans="1:5">
@@ -88155,7 +88155,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4355">
-        <v>16.08</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="4356" spans="1:5">
@@ -88172,7 +88172,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4356">
-        <v>16.08</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="4357" spans="1:5">
@@ -88189,7 +88189,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4357">
-        <v>16.08</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="4358" spans="1:5">
@@ -88206,7 +88206,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4358">
-        <v>16.08</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="4359" spans="1:5">
@@ -88240,7 +88240,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4360">
-        <v>22.35</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="4361" spans="1:5">
@@ -88257,7 +88257,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4361">
-        <v>22.35</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="4362" spans="1:5">
@@ -88274,7 +88274,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4362">
-        <v>22.35</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="4363" spans="1:5">
@@ -88291,7 +88291,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4363">
-        <v>22.35</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="4364" spans="1:5">
@@ -89362,7 +89362,7 @@
         <v>-3.85</v>
       </c>
       <c r="E4426">
-        <v>26.7</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="4427" spans="1:5">
@@ -89617,7 +89617,7 @@
         <v>5.28</v>
       </c>
       <c r="E4441">
-        <v>2.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4442" spans="1:5">
@@ -89634,7 +89634,7 @@
         <v>0</v>
       </c>
       <c r="E4442">
-        <v>0</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="4443" spans="1:5">
@@ -89804,7 +89804,7 @@
         <v>38</v>
       </c>
       <c r="E4452">
-        <v>0</v>
+        <v>-5.220000000000001</v>
       </c>
     </row>
     <row r="4453" spans="1:5">
@@ -89974,7 +89974,7 @@
         <v>17.67</v>
       </c>
       <c r="E4462">
-        <v>8.01</v>
+        <v>9.180000000000001</v>
       </c>
     </row>
     <row r="4463" spans="1:5">
@@ -89991,7 +89991,7 @@
         <v>16.03</v>
       </c>
       <c r="E4463">
-        <v>-11.71</v>
+        <v>-12.29</v>
       </c>
     </row>
     <row r="4464" spans="1:5">
@@ -90195,7 +90195,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="E4475">
-        <v>3.04</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="4476" spans="1:5">
@@ -90229,7 +90229,7 @@
         <v>1.57</v>
       </c>
       <c r="E4477">
-        <v>3.84</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="4478" spans="1:5">
@@ -90416,7 +90416,7 @@
         <v>1.05</v>
       </c>
       <c r="E4488">
-        <v>5.21</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="4489" spans="1:5">
@@ -90433,7 +90433,7 @@
         <v>4.55</v>
       </c>
       <c r="E4489">
-        <v>5.43</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="4490" spans="1:5">
@@ -90450,7 +90450,7 @@
         <v>0</v>
       </c>
       <c r="E4490">
-        <v>2.51</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="4491" spans="1:5">
@@ -90467,7 +90467,7 @@
         <v>0</v>
       </c>
       <c r="E4491">
-        <v>5.029999999999999</v>
+        <v>6.529999999999999</v>
       </c>
     </row>
     <row r="4492" spans="1:5">
@@ -90518,7 +90518,7 @@
         <v>0</v>
       </c>
       <c r="E4494">
-        <v>0</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="4495" spans="1:5">
@@ -90535,7 +90535,7 @@
         <v>0</v>
       </c>
       <c r="E4495">
-        <v>0</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="4496" spans="1:5">
@@ -90552,7 +90552,7 @@
         <v>0</v>
       </c>
       <c r="E4496">
-        <v>0</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="4497" spans="1:5">
@@ -90586,7 +90586,7 @@
         <v>5.81</v>
       </c>
       <c r="E4498">
-        <v>4.41</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4499" spans="1:5">
@@ -90603,7 +90603,7 @@
         <v>7.580000000000001</v>
       </c>
       <c r="E4499">
-        <v>4.93</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="4500" spans="1:5">
@@ -90620,7 +90620,7 @@
         <v>6.23</v>
       </c>
       <c r="E4500">
-        <v>4.05</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="4501" spans="1:5">
@@ -90637,7 +90637,7 @@
         <v>3.55</v>
       </c>
       <c r="E4501">
-        <v>2.4</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="4502" spans="1:5">
@@ -90654,7 +90654,7 @@
         <v>8.200000000000001</v>
       </c>
       <c r="E4502">
-        <v>5.3</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="4503" spans="1:5">
@@ -90688,7 +90688,7 @@
         <v>0</v>
       </c>
       <c r="E4504">
-        <v>2.55</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="4505" spans="1:5">
@@ -90705,7 +90705,7 @@
         <v>0</v>
       </c>
       <c r="E4505">
-        <v>2.23</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="4506" spans="1:5">
@@ -90722,7 +90722,7 @@
         <v>0</v>
       </c>
       <c r="E4506">
-        <v>3.35</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="4507" spans="1:5">
@@ -90739,7 +90739,7 @@
         <v>3.03</v>
       </c>
       <c r="E4507">
-        <v>2.21</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4508" spans="1:5">
@@ -90773,7 +90773,7 @@
         <v>11.6</v>
       </c>
       <c r="E4509">
-        <v>2.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4510" spans="1:5">
@@ -90790,7 +90790,7 @@
         <v>3.28</v>
       </c>
       <c r="E4510">
-        <v>2.38</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4511" spans="1:5">
@@ -90909,7 +90909,7 @@
         <v>-1.84</v>
       </c>
       <c r="E4517">
-        <v>-0.72</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="4518" spans="1:5">
@@ -90943,7 +90943,7 @@
         <v>0</v>
       </c>
       <c r="E4519">
-        <v>-5.63</v>
+        <v>-7.04</v>
       </c>
     </row>
     <row r="4520" spans="1:5">
@@ -90960,7 +90960,7 @@
         <v>22.74</v>
       </c>
       <c r="E4520">
-        <v>-17.1</v>
+        <v>-17.81</v>
       </c>
     </row>
     <row r="4521" spans="1:5">
@@ -90977,7 +90977,7 @@
         <v>-18.74</v>
       </c>
       <c r="E4521">
-        <v>16.62</v>
+        <v>17.69</v>
       </c>
     </row>
     <row r="4522" spans="1:5">
@@ -90994,7 +90994,7 @@
         <v>10.91</v>
       </c>
       <c r="E4522">
-        <v>-20.64</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="4523" spans="1:5">
@@ -91062,7 +91062,7 @@
         <v>6.45</v>
       </c>
       <c r="E4526">
-        <v>4.55</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4527" spans="1:5">
@@ -91079,7 +91079,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E4527">
-        <v>-10.61</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="4528" spans="1:5">
@@ -91096,7 +91096,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E4528">
-        <v>-10.61</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="4529" spans="1:5">
@@ -91113,7 +91113,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E4529">
-        <v>3.51</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="4530" spans="1:5">
@@ -91130,7 +91130,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4530">
-        <v>11.07</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="4531" spans="1:5">
@@ -91147,7 +91147,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4531">
-        <v>11.07</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="4532" spans="1:5">
@@ -91266,7 +91266,7 @@
         <v>0</v>
       </c>
       <c r="E4538">
-        <v>5.74</v>
+        <v>7.180000000000001</v>
       </c>
     </row>
     <row r="4539" spans="1:5">
@@ -91283,7 +91283,7 @@
         <v>0</v>
       </c>
       <c r="E4539">
-        <v>5.74</v>
+        <v>7.180000000000001</v>
       </c>
     </row>
     <row r="4540" spans="1:5">
@@ -91300,7 +91300,7 @@
         <v>0</v>
       </c>
       <c r="E4540">
-        <v>5.74</v>
+        <v>7.180000000000001</v>
       </c>
     </row>
     <row r="4541" spans="1:5">
@@ -91317,7 +91317,7 @@
         <v>0</v>
       </c>
       <c r="E4541">
-        <v>5.74</v>
+        <v>7.180000000000001</v>
       </c>
     </row>
     <row r="4542" spans="1:5">
@@ -91334,7 +91334,7 @@
         <v>0</v>
       </c>
       <c r="E4542">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4543" spans="1:5">
@@ -91351,7 +91351,7 @@
         <v>0</v>
       </c>
       <c r="E4543">
-        <v>1.7</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="4544" spans="1:5">
@@ -91453,7 +91453,7 @@
         <v>3.45</v>
       </c>
       <c r="E4549">
-        <v>-0.4</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="4550" spans="1:5">
@@ -91538,7 +91538,7 @@
         <v>0</v>
       </c>
       <c r="E4554">
-        <v>7.02</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="4555" spans="1:5">
@@ -91657,7 +91657,7 @@
         <v>0</v>
       </c>
       <c r="E4561">
-        <v>0</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="4562" spans="1:5">

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -14171,7 +14171,7 @@
         <v>-12.57</v>
       </c>
       <c r="E3">
-        <v>38.96</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -14222,7 +14222,7 @@
         <v>8.029999999999999</v>
       </c>
       <c r="E6">
-        <v>-8.890000000000001</v>
+        <v>-15.19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -14375,7 +14375,7 @@
         <v>4.08</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -14426,7 +14426,7 @@
         <v>4.08</v>
       </c>
       <c r="E18">
-        <v>-4.01</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -14460,7 +14460,7 @@
         <v>13.06</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -14511,7 +14511,7 @@
         <v>13.06</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>21.59</v>
+        <v>22.17</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>25.5</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -15089,7 +15089,7 @@
         <v>18.12</v>
       </c>
       <c r="E57">
-        <v>0.27</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15242,7 +15242,7 @@
         <v>0.11</v>
       </c>
       <c r="E66">
-        <v>17.87</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -15259,7 +15259,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E67">
-        <v>4.35</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -15548,7 +15548,7 @@
         <v>3.24</v>
       </c>
       <c r="E84">
-        <v>-0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -15582,7 +15582,7 @@
         <v>3.09</v>
       </c>
       <c r="E86">
-        <v>-7.779999999999999</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -15786,7 +15786,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>-2.41</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -15837,7 +15837,7 @@
         <v>-9.26</v>
       </c>
       <c r="E101">
-        <v>2.39</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -15922,7 +15922,7 @@
         <v>-8.25</v>
       </c>
       <c r="E106">
-        <v>5.489999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -15939,7 +15939,7 @@
         <v>-12.91</v>
       </c>
       <c r="E107">
-        <v>11.94</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -15956,7 +15956,7 @@
         <v>33.1</v>
       </c>
       <c r="E108">
-        <v>-20.39</v>
+        <v>-21.11</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -15973,7 +15973,7 @@
         <v>14.66</v>
       </c>
       <c r="E109">
-        <v>-19.03</v>
+        <v>-19.55</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -16177,7 +16177,7 @@
         <v>-10.77</v>
       </c>
       <c r="E121">
-        <v>-2.09</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -16194,7 +16194,7 @@
         <v>-10.77</v>
       </c>
       <c r="E122">
-        <v>6.7</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -16228,7 +16228,7 @@
         <v>6.78</v>
       </c>
       <c r="E124">
-        <v>-15.39</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -16245,7 +16245,7 @@
         <v>-20.3</v>
       </c>
       <c r="E125">
-        <v>19.88</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -16296,7 +16296,7 @@
         <v>4.68</v>
       </c>
       <c r="E128">
-        <v>-13.74</v>
+        <v>-15.62</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -16398,7 +16398,7 @@
         <v>-13.96</v>
       </c>
       <c r="E134">
-        <v>3.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -16415,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>-28.36</v>
+        <v>-29.44</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -16466,7 +16466,7 @@
         <v>31.84</v>
       </c>
       <c r="E138">
-        <v>-27.97</v>
+        <v>-28.77</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -16500,7 +16500,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>-28.36</v>
+        <v>-29.44</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>-28.36</v>
+        <v>-29.44</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -16568,7 +16568,7 @@
         <v>12.57</v>
       </c>
       <c r="E144">
-        <v>-1.97</v>
+        <v>-3.330000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -16585,7 +16585,7 @@
         <v>10.86</v>
       </c>
       <c r="E145">
-        <v>-2.52</v>
+        <v>-3.47</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -16636,7 +16636,7 @@
         <v>-9.24</v>
       </c>
       <c r="E148">
-        <v>9.32</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -16738,7 +16738,7 @@
         <v>-9.59</v>
       </c>
       <c r="E154">
-        <v>30.55</v>
+        <v>31.45</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -16806,7 +16806,7 @@
         <v>12.85</v>
       </c>
       <c r="E158">
-        <v>23.37</v>
+        <v>22.63</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -17010,7 +17010,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="E170">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -17384,7 +17384,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>-1.07</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>-3.21</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -17622,7 +17622,7 @@
         <v>-16.92</v>
       </c>
       <c r="E206">
-        <v>26.37</v>
+        <v>24.85</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -17724,7 +17724,7 @@
         <v>13.21</v>
       </c>
       <c r="E212">
-        <v>-10.28</v>
+        <v>-10.77</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -17758,7 +17758,7 @@
         <v>11.56</v>
       </c>
       <c r="E214">
-        <v>0.58</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -17775,7 +17775,7 @@
         <v>5.84</v>
       </c>
       <c r="E215">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -18200,7 +18200,7 @@
         <v>-14.63</v>
       </c>
       <c r="E240">
-        <v>12.63</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -18251,7 +18251,7 @@
         <v>-12.32</v>
       </c>
       <c r="E243">
-        <v>-5.56</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -18302,7 +18302,7 @@
         <v>0</v>
       </c>
       <c r="E246">
-        <v>6.49</v>
+        <v>7.430000000000001</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -18353,7 +18353,7 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <v>-11.35</v>
+        <v>-12.92</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -18387,7 +18387,7 @@
         <v>-20.57</v>
       </c>
       <c r="E251">
-        <v>4.02</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -18404,7 +18404,7 @@
         <v>-14.54</v>
       </c>
       <c r="E252">
-        <v>-2.38</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -18455,7 +18455,7 @@
         <v>-5.319999999999999</v>
       </c>
       <c r="E255">
-        <v>-4.390000000000001</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -18472,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>-2.7</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -18489,7 +18489,7 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>-5.69</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -18540,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="E260">
-        <v>-10.46</v>
+        <v>-11.93</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -18761,7 +18761,7 @@
         <v>-2.77</v>
       </c>
       <c r="E273">
-        <v>-6.710000000000001</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -18778,7 +18778,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="E274">
-        <v>-2.78</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -19033,7 +19033,7 @@
         <v>-5.38</v>
       </c>
       <c r="E289">
-        <v>-4.23</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -19220,7 +19220,7 @@
         <v>2.01</v>
       </c>
       <c r="E300">
-        <v>-11.64</v>
+        <v>-10.33</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -19288,7 +19288,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>-13.79</v>
+        <v>-15.56</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -19305,7 +19305,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>-5.83</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>-4.850000000000001</v>
+        <v>-5.53</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -19441,7 +19441,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>-2.08</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -19458,7 +19458,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>4.07</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -19475,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>-5.02</v>
+        <v>-5.72</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -19560,7 +19560,7 @@
         <v>-3.06</v>
       </c>
       <c r="E320">
-        <v>-8.17</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -19628,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>-12.25</v>
+        <v>-14.01</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>-6.27</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -19662,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>-5.83</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -20172,7 +20172,7 @@
         <v>-3.06</v>
       </c>
       <c r="E356">
-        <v>-0.98</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -20291,7 +20291,7 @@
         <v>-1.54</v>
       </c>
       <c r="E363">
-        <v>-2.08</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -20580,7 +20580,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>4.35</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -20631,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>-16.72</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -21872,7 +21872,7 @@
         <v>2.8</v>
       </c>
       <c r="E456">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -21889,7 +21889,7 @@
         <v>1.26</v>
       </c>
       <c r="E457">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -21940,7 +21940,7 @@
         <v>-7.93</v>
       </c>
       <c r="E460">
-        <v>25.03</v>
+        <v>25.73</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -21957,7 +21957,7 @@
         <v>-7.93</v>
       </c>
       <c r="E461">
-        <v>25.03</v>
+        <v>25.73</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -21974,7 +21974,7 @@
         <v>-7.93</v>
       </c>
       <c r="E462">
-        <v>25.03</v>
+        <v>25.73</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -21991,7 +21991,7 @@
         <v>-7.93</v>
       </c>
       <c r="E463">
-        <v>25.03</v>
+        <v>25.73</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -22110,7 +22110,7 @@
         <v>-5.79</v>
       </c>
       <c r="E470">
-        <v>-4.07</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -22246,7 +22246,7 @@
         <v>-3.12</v>
       </c>
       <c r="E478">
-        <v>-2.53</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -22263,7 +22263,7 @@
         <v>-3.12</v>
       </c>
       <c r="E479">
-        <v>0.9199999999999999</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -22365,7 +22365,7 @@
         <v>-2.25</v>
       </c>
       <c r="E485">
-        <v>12.46</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -22467,7 +22467,7 @@
         <v>-1.2</v>
       </c>
       <c r="E491">
-        <v>-14.9</v>
+        <v>-15.25</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -22484,7 +22484,7 @@
         <v>-1.2</v>
       </c>
       <c r="E492">
-        <v>-8.15</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -22501,7 +22501,7 @@
         <v>-2</v>
       </c>
       <c r="E493">
-        <v>9.279999999999999</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -22518,7 +22518,7 @@
         <v>-2</v>
       </c>
       <c r="E494">
-        <v>9.279999999999999</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -22603,7 +22603,7 @@
         <v>-8.959999999999999</v>
       </c>
       <c r="E499">
-        <v>5.850000000000001</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -22671,7 +22671,7 @@
         <v>5.94</v>
       </c>
       <c r="E503">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -22688,7 +22688,7 @@
         <v>5.94</v>
       </c>
       <c r="E504">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -22705,7 +22705,7 @@
         <v>5.94</v>
       </c>
       <c r="E505">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -22722,7 +22722,7 @@
         <v>5.94</v>
       </c>
       <c r="E506">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="E507">
-        <v>7.01</v>
+        <v>7.180000000000001</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="E508">
-        <v>-7.539999999999999</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="E515">
-        <v>-5.13</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="E516">
-        <v>-5.13</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -22909,7 +22909,7 @@
         <v>1.46</v>
       </c>
       <c r="E517">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -22926,7 +22926,7 @@
         <v>0</v>
       </c>
       <c r="E518">
-        <v>7.01</v>
+        <v>7.180000000000001</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -22943,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="E519">
-        <v>-7.539999999999999</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -22960,7 +22960,7 @@
         <v>0</v>
       </c>
       <c r="E520">
-        <v>-7.539999999999999</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -23096,7 +23096,7 @@
         <v>15.22</v>
       </c>
       <c r="E528">
-        <v>30.33</v>
+        <v>30.93</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -23368,7 +23368,7 @@
         <v>-6.79</v>
       </c>
       <c r="E544">
-        <v>3.1</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -23487,7 +23487,7 @@
         <v>0</v>
       </c>
       <c r="E551">
-        <v>-7.68</v>
+        <v>-7.89</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="E554">
-        <v>-1.61</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -23674,7 +23674,7 @@
         <v>9.73</v>
       </c>
       <c r="E562">
-        <v>16.51</v>
+        <v>17.43</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="E575">
-        <v>-16.69</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -23946,7 +23946,7 @@
         <v>-8.81</v>
       </c>
       <c r="E578">
-        <v>3.98</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -24048,7 +24048,7 @@
         <v>0</v>
       </c>
       <c r="E584">
-        <v>-0.33</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -24167,7 +24167,7 @@
         <v>0</v>
       </c>
       <c r="E591">
-        <v>2.65</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -24303,7 +24303,7 @@
         <v>-4.17</v>
       </c>
       <c r="E599">
-        <v>-1.58</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -24320,7 +24320,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="E600">
-        <v>3.87</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -24337,7 +24337,7 @@
         <v>0</v>
       </c>
       <c r="E601">
-        <v>8.260000000000002</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -24354,7 +24354,7 @@
         <v>2.75</v>
       </c>
       <c r="E602">
-        <v>8.390000000000001</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -24371,7 +24371,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="E603">
-        <v>-7.73</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -24388,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="E604">
-        <v>8.359999999999999</v>
+        <v>9.700000000000001</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -24592,7 +24592,7 @@
         <v>0</v>
       </c>
       <c r="E616">
-        <v>6.27</v>
+        <v>7.140000000000001</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E617">
-        <v>8.709999999999999</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -24626,7 +24626,7 @@
         <v>0</v>
       </c>
       <c r="E618">
-        <v>8.709999999999999</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="E619">
-        <v>8.709999999999999</v>
+        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -24796,7 +24796,7 @@
         <v>0</v>
       </c>
       <c r="E628">
-        <v>-19.73</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -24847,7 +24847,7 @@
         <v>0.6</v>
       </c>
       <c r="E631">
-        <v>-10.38</v>
+        <v>-11.18</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -25170,7 +25170,7 @@
         <v>0.79</v>
       </c>
       <c r="E650">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -25221,7 +25221,7 @@
         <v>9.1</v>
       </c>
       <c r="E653">
-        <v>2.52</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -25255,7 +25255,7 @@
         <v>-8.81</v>
       </c>
       <c r="E655">
-        <v>3.98</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -25357,7 +25357,7 @@
         <v>-6.79</v>
       </c>
       <c r="E661">
-        <v>3.1</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -25476,7 +25476,7 @@
         <v>15.91</v>
       </c>
       <c r="E668">
-        <v>-12.61</v>
+        <v>-13.17</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="E678">
-        <v>-10.02</v>
+        <v>-11.42</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -25680,7 +25680,7 @@
         <v>-9.550000000000001</v>
       </c>
       <c r="E680">
-        <v>12.56</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -25714,7 +25714,7 @@
         <v>0</v>
       </c>
       <c r="E682">
-        <v>24.92</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -25731,7 +25731,7 @@
         <v>0</v>
       </c>
       <c r="E683">
-        <v>24.92</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -25748,7 +25748,7 @@
         <v>0</v>
       </c>
       <c r="E684">
-        <v>24.92</v>
+        <v>25.63</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="E689">
-        <v>-2.18</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -25850,7 +25850,7 @@
         <v>-5.74</v>
       </c>
       <c r="E690">
-        <v>2.55</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -25969,7 +25969,7 @@
         <v>0</v>
       </c>
       <c r="E697">
-        <v>110.44</v>
+        <v>113.61</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -26292,7 +26292,7 @@
         <v>-2.39</v>
       </c>
       <c r="E716">
-        <v>-0.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -26309,7 +26309,7 @@
         <v>-1.06</v>
       </c>
       <c r="E717">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -26326,7 +26326,7 @@
         <v>12.21</v>
       </c>
       <c r="E718">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -26343,7 +26343,7 @@
         <v>3.95</v>
       </c>
       <c r="E719">
-        <v>-0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -26598,7 +26598,7 @@
         <v>1.86</v>
       </c>
       <c r="E734">
-        <v>-7.290000000000001</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -26632,7 +26632,7 @@
         <v>0</v>
       </c>
       <c r="E736">
-        <v>-0.08</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -26666,7 +26666,7 @@
         <v>7.720000000000001</v>
       </c>
       <c r="E738">
-        <v>-7.290000000000001</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -26717,7 +26717,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E741">
-        <v>0.5599999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -26734,7 +26734,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E742">
-        <v>0.5599999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -26785,7 +26785,7 @@
         <v>-1.68</v>
       </c>
       <c r="E745">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -26819,7 +26819,7 @@
         <v>-1.68</v>
       </c>
       <c r="E747">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -27108,7 +27108,7 @@
         <v>0</v>
       </c>
       <c r="E764">
-        <v>-4.130000000000001</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="765" spans="1:5">
@@ -27125,7 +27125,7 @@
         <v>0</v>
       </c>
       <c r="E765">
-        <v>-3.75</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="766" spans="1:5">
@@ -27244,7 +27244,7 @@
         <v>-12.82</v>
       </c>
       <c r="E772">
-        <v>-2.48</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="773" spans="1:5">
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="E773">
-        <v>-7.249999999999999</v>
+        <v>-7.46</v>
       </c>
     </row>
     <row r="774" spans="1:5">
@@ -27278,7 +27278,7 @@
         <v>0</v>
       </c>
       <c r="E774">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="775" spans="1:5">
@@ -27312,7 +27312,7 @@
         <v>0</v>
       </c>
       <c r="E776">
-        <v>-4.58</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="777" spans="1:5">
@@ -27346,7 +27346,7 @@
         <v>0</v>
       </c>
       <c r="E778">
-        <v>-4.58</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="779" spans="1:5">
@@ -27754,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="E802">
-        <v>10.68</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="803" spans="1:5">
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="E807">
-        <v>-39.63</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="808" spans="1:5">
@@ -27856,7 +27856,7 @@
         <v>16.67</v>
       </c>
       <c r="E808">
-        <v>-33.90000000000001</v>
+        <v>-35.16</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="E809">
-        <v>-39.63</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="810" spans="1:5">
@@ -27890,7 +27890,7 @@
         <v>0</v>
       </c>
       <c r="E810">
-        <v>-39.63</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="811" spans="1:5">
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="E811">
-        <v>-39.63</v>
+        <v>-40.78</v>
       </c>
     </row>
     <row r="812" spans="1:5">
@@ -28145,7 +28145,7 @@
         <v>0</v>
       </c>
       <c r="E825">
-        <v>12.71</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="826" spans="1:5">
@@ -28162,7 +28162,7 @@
         <v>6.140000000000001</v>
       </c>
       <c r="E826">
-        <v>0.5599999999999999</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="827" spans="1:5">
@@ -28961,7 +28961,7 @@
         <v>0</v>
       </c>
       <c r="E873">
-        <v>-11.37</v>
+        <v>-13.01</v>
       </c>
     </row>
     <row r="874" spans="1:5">
@@ -29063,7 +29063,7 @@
         <v>0</v>
       </c>
       <c r="E879">
-        <v>-19.24</v>
+        <v>-19.78</v>
       </c>
     </row>
     <row r="880" spans="1:5">
@@ -29165,7 +29165,7 @@
         <v>7.01</v>
       </c>
       <c r="E885">
-        <v>0</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="886" spans="1:5">
@@ -29199,7 +29199,7 @@
         <v>7.969999999999999</v>
       </c>
       <c r="E887">
-        <v>-3.23</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="888" spans="1:5">
@@ -29233,7 +29233,7 @@
         <v>5.609999999999999</v>
       </c>
       <c r="E889">
-        <v>-3.23</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="890" spans="1:5">
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="E890">
-        <v>-11.58</v>
+        <v>-13.24</v>
       </c>
     </row>
     <row r="891" spans="1:5">
@@ -29267,7 +29267,7 @@
         <v>7.41</v>
       </c>
       <c r="E891">
-        <v>-6.08</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="892" spans="1:5">
@@ -29284,7 +29284,7 @@
         <v>8.25</v>
       </c>
       <c r="E892">
-        <v>-6.27</v>
+        <v>-7.180000000000001</v>
       </c>
     </row>
     <row r="893" spans="1:5">
@@ -29522,7 +29522,7 @@
         <v>-8.210000000000001</v>
       </c>
       <c r="E906">
-        <v>10.45</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="907" spans="1:5">
@@ -29590,7 +29590,7 @@
         <v>0.83</v>
       </c>
       <c r="E910">
-        <v>-1.94</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="911" spans="1:5">
@@ -29709,7 +29709,7 @@
         <v>12.97</v>
       </c>
       <c r="E917">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="918" spans="1:5">
@@ -29879,7 +29879,7 @@
         <v>-9.73</v>
       </c>
       <c r="E927">
-        <v>16.79</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="928" spans="1:5">
@@ -29896,7 +29896,7 @@
         <v>-12.2</v>
       </c>
       <c r="E928">
-        <v>12.74</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="929" spans="1:5">
@@ -29913,7 +29913,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="E929">
-        <v>6.27</v>
+        <v>6.87</v>
       </c>
     </row>
     <row r="930" spans="1:5">
@@ -29947,7 +29947,7 @@
         <v>-3.92</v>
       </c>
       <c r="E931">
-        <v>6.27</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="932" spans="1:5">
@@ -29981,7 +29981,7 @@
         <v>-2.42</v>
       </c>
       <c r="E933">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:5">
@@ -30015,7 +30015,7 @@
         <v>-2.42</v>
       </c>
       <c r="E935">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:5">
@@ -30049,7 +30049,7 @@
         <v>-2.42</v>
       </c>
       <c r="E937">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:5">
@@ -30100,7 +30100,7 @@
         <v>-7.61</v>
       </c>
       <c r="E940">
-        <v>3.61</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="941" spans="1:5">
@@ -30151,7 +30151,7 @@
         <v>0.22</v>
       </c>
       <c r="E943">
-        <v>-0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:5">
@@ -30168,7 +30168,7 @@
         <v>1.07</v>
       </c>
       <c r="E944">
-        <v>18.01</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="945" spans="1:5">
@@ -30219,7 +30219,7 @@
         <v>-5.21</v>
       </c>
       <c r="E947">
-        <v>10.68</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -30236,7 +30236,7 @@
         <v>-11.76</v>
       </c>
       <c r="E948">
-        <v>-1.25</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="949" spans="1:5">
@@ -30287,7 +30287,7 @@
         <v>42.56</v>
       </c>
       <c r="E951">
-        <v>-0.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:5">
@@ -30321,7 +30321,7 @@
         <v>30.52</v>
       </c>
       <c r="E953">
-        <v>0.63</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="954" spans="1:5">
@@ -30338,7 +30338,7 @@
         <v>26.72</v>
       </c>
       <c r="E954">
-        <v>17.01</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="955" spans="1:5">
@@ -30389,7 +30389,7 @@
         <v>-1.93</v>
       </c>
       <c r="E957">
-        <v>3.03</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="958" spans="1:5">
@@ -30406,7 +30406,7 @@
         <v>-1.61</v>
       </c>
       <c r="E958">
-        <v>2.37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:5">
@@ -30440,7 +30440,7 @@
         <v>-11.97</v>
       </c>
       <c r="E960">
-        <v>12.65</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="961" spans="1:5">
@@ -30491,7 +30491,7 @@
         <v>-12.53</v>
       </c>
       <c r="E963">
-        <v>16.62</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="964" spans="1:5">
@@ -30525,7 +30525,7 @@
         <v>-7.920000000000001</v>
       </c>
       <c r="E965">
-        <v>13.47</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="966" spans="1:5">
@@ -30559,7 +30559,7 @@
         <v>-1.1</v>
       </c>
       <c r="E967">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:5">
@@ -30576,7 +30576,7 @@
         <v>-2.15</v>
       </c>
       <c r="E968">
-        <v>-0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:5">
@@ -30593,7 +30593,7 @@
         <v>-7.51</v>
       </c>
       <c r="E969">
-        <v>15.99</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="970" spans="1:5">
@@ -30610,7 +30610,7 @@
         <v>-2.21</v>
       </c>
       <c r="E970">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="971" spans="1:5">
@@ -30627,7 +30627,7 @@
         <v>-3.29</v>
       </c>
       <c r="E971">
-        <v>5.41</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="972" spans="1:5">
@@ -30644,7 +30644,7 @@
         <v>-2.76</v>
       </c>
       <c r="E972">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="973" spans="1:5">
@@ -30661,7 +30661,7 @@
         <v>-1.8</v>
       </c>
       <c r="E973">
-        <v>5.510000000000001</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="974" spans="1:5">
@@ -30695,7 +30695,7 @@
         <v>0</v>
       </c>
       <c r="E975">
-        <v>17.57</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="976" spans="1:5">
@@ -30729,7 +30729,7 @@
         <v>3.55</v>
       </c>
       <c r="E977">
-        <v>-40.40000000000001</v>
+        <v>-41.24</v>
       </c>
     </row>
     <row r="978" spans="1:5">
@@ -30746,7 +30746,7 @@
         <v>-1.46</v>
       </c>
       <c r="E978">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:5">
@@ -30797,7 +30797,7 @@
         <v>-7.779999999999999</v>
       </c>
       <c r="E981">
-        <v>16.87</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="982" spans="1:5">
@@ -30882,7 +30882,7 @@
         <v>11.14</v>
       </c>
       <c r="E986">
-        <v>4.63</v>
+        <v>4.109999999999999</v>
       </c>
     </row>
     <row r="987" spans="1:5">
@@ -30933,7 +30933,7 @@
         <v>-8.4</v>
       </c>
       <c r="E989">
-        <v>8.73</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="990" spans="1:5">
@@ -30950,7 +30950,7 @@
         <v>3.15</v>
       </c>
       <c r="E990">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:5">
@@ -31035,7 +31035,7 @@
         <v>-24.62</v>
       </c>
       <c r="E995">
-        <v>5.65</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="996" spans="1:5">
@@ -31052,7 +31052,7 @@
         <v>0</v>
       </c>
       <c r="E996">
-        <v>18.23</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="997" spans="1:5">
@@ -31069,7 +31069,7 @@
         <v>-5.65</v>
       </c>
       <c r="E997">
-        <v>-2.19</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="998" spans="1:5">
@@ -31086,7 +31086,7 @@
         <v>-3.8</v>
       </c>
       <c r="E998">
-        <v>3.65</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="999" spans="1:5">
@@ -31103,7 +31103,7 @@
         <v>-5.77</v>
       </c>
       <c r="E999">
-        <v>6.38</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="1000" spans="1:5">
@@ -31120,7 +31120,7 @@
         <v>-2.33</v>
       </c>
       <c r="E1000">
-        <v>4.77</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="1001" spans="1:5">
@@ -31188,7 +31188,7 @@
         <v>11.31</v>
       </c>
       <c r="E1004">
-        <v>-12.02</v>
+        <v>-12.45</v>
       </c>
     </row>
     <row r="1005" spans="1:5">
@@ -31205,7 +31205,7 @@
         <v>11.31</v>
       </c>
       <c r="E1005">
-        <v>-12.02</v>
+        <v>-12.45</v>
       </c>
     </row>
     <row r="1006" spans="1:5">
@@ -31239,7 +31239,7 @@
         <v>11.31</v>
       </c>
       <c r="E1007">
-        <v>-12.02</v>
+        <v>-12.45</v>
       </c>
     </row>
     <row r="1008" spans="1:5">
@@ -31256,7 +31256,7 @@
         <v>1.13</v>
       </c>
       <c r="E1008">
-        <v>19.7</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="1009" spans="1:5">
@@ -31307,7 +31307,7 @@
         <v>1.32</v>
       </c>
       <c r="E1011">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:5">
@@ -31341,7 +31341,7 @@
         <v>1.58</v>
       </c>
       <c r="E1013">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:5">
@@ -31392,7 +31392,7 @@
         <v>-5.21</v>
       </c>
       <c r="E1016">
-        <v>10.68</v>
+        <v>9.390000000000001</v>
       </c>
     </row>
     <row r="1017" spans="1:5">
@@ -31409,7 +31409,7 @@
         <v>-5.67</v>
       </c>
       <c r="E1017">
-        <v>11.62</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="1018" spans="1:5">
@@ -31426,7 +31426,7 @@
         <v>0.6799999999999999</v>
       </c>
       <c r="E1018">
-        <v>5.31</v>
+        <v>4.859999999999999</v>
       </c>
     </row>
     <row r="1019" spans="1:5">
@@ -31460,7 +31460,7 @@
         <v>-2.16</v>
       </c>
       <c r="E1020">
-        <v>4.43</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="1021" spans="1:5">
@@ -31477,7 +31477,7 @@
         <v>-4.04</v>
       </c>
       <c r="E1021">
-        <v>4.61</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="1022" spans="1:5">
@@ -31545,7 +31545,7 @@
         <v>-23.52</v>
       </c>
       <c r="E1025">
-        <v>25.72</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="1026" spans="1:5">
@@ -31681,7 +31681,7 @@
         <v>-6.13</v>
       </c>
       <c r="E1033">
-        <v>5.44</v>
+        <v>5.600000000000001</v>
       </c>
     </row>
     <row r="1034" spans="1:5">
@@ -31715,7 +31715,7 @@
         <v>0</v>
       </c>
       <c r="E1035">
-        <v>0</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="1036" spans="1:5">
@@ -31919,7 +31919,7 @@
         <v>0</v>
       </c>
       <c r="E1047">
-        <v>26.52</v>
+        <v>27.31</v>
       </c>
     </row>
     <row r="1048" spans="1:5">
@@ -32480,7 +32480,7 @@
         <v>0</v>
       </c>
       <c r="E1080">
-        <v>7.9</v>
+        <v>9.049999999999999</v>
       </c>
     </row>
     <row r="1081" spans="1:5">
@@ -32582,7 +32582,7 @@
         <v>0</v>
       </c>
       <c r="E1086">
-        <v>-1.34</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="1087" spans="1:5">
@@ -32650,7 +32650,7 @@
         <v>4.33</v>
       </c>
       <c r="E1090">
-        <v>-7.739999999999999</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="1091" spans="1:5">
@@ -32786,7 +32786,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1098">
-        <v>4.67</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="1099" spans="1:5">
@@ -32820,7 +32820,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1100">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="1101" spans="1:5">
@@ -32837,7 +32837,7 @@
         <v>-7.61</v>
       </c>
       <c r="E1101">
-        <v>-8.66</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="1102" spans="1:5">
@@ -32854,7 +32854,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1102">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="1103" spans="1:5">
@@ -32888,7 +32888,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1104">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="1105" spans="1:5">
@@ -32922,7 +32922,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1106">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="1107" spans="1:5">
@@ -32939,7 +32939,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1107">
-        <v>1.93</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="1108" spans="1:5">
@@ -33075,7 +33075,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1115">
-        <v>-17.68</v>
+        <v>-18.11</v>
       </c>
     </row>
     <row r="1116" spans="1:5">
@@ -33092,7 +33092,7 @@
         <v>-0.63</v>
       </c>
       <c r="E1116">
-        <v>-17.68</v>
+        <v>-18.11</v>
       </c>
     </row>
     <row r="1117" spans="1:5">
@@ -33160,7 +33160,7 @@
         <v>0</v>
       </c>
       <c r="E1120">
-        <v>-19.26</v>
+        <v>-19.8</v>
       </c>
     </row>
     <row r="1121" spans="1:5">
@@ -33177,7 +33177,7 @@
         <v>3.55</v>
       </c>
       <c r="E1121">
-        <v>-16.49</v>
+        <v>-17.05</v>
       </c>
     </row>
     <row r="1122" spans="1:5">
@@ -33211,7 +33211,7 @@
         <v>3.55</v>
       </c>
       <c r="E1123">
-        <v>-16.49</v>
+        <v>-17.05</v>
       </c>
     </row>
     <row r="1124" spans="1:5">
@@ -33228,7 +33228,7 @@
         <v>2.14</v>
       </c>
       <c r="E1124">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="1125" spans="1:5">
@@ -33245,7 +33245,7 @@
         <v>2.14</v>
       </c>
       <c r="E1125">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="1126" spans="1:5">
@@ -33262,7 +33262,7 @@
         <v>2.14</v>
       </c>
       <c r="E1126">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="1127" spans="1:5">
@@ -33279,7 +33279,7 @@
         <v>2.14</v>
       </c>
       <c r="E1127">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="1128" spans="1:5">
@@ -33296,7 +33296,7 @@
         <v>2.14</v>
       </c>
       <c r="E1128">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="1129" spans="1:5">
@@ -33313,7 +33313,7 @@
         <v>2.14</v>
       </c>
       <c r="E1129">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="1130" spans="1:5">
@@ -33330,7 +33330,7 @@
         <v>2.14</v>
       </c>
       <c r="E1130">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="1131" spans="1:5">
@@ -33364,7 +33364,7 @@
         <v>2.14</v>
       </c>
       <c r="E1132">
-        <v>1.9</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
@@ -33568,7 +33568,7 @@
         <v>0</v>
       </c>
       <c r="E1144">
-        <v>11.39</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="1145" spans="1:5">
@@ -33585,7 +33585,7 @@
         <v>0</v>
       </c>
       <c r="E1145">
-        <v>11.39</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="1146" spans="1:5">
@@ -33602,7 +33602,7 @@
         <v>0</v>
       </c>
       <c r="E1146">
-        <v>11.39</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="1147" spans="1:5">
@@ -33619,7 +33619,7 @@
         <v>0</v>
       </c>
       <c r="E1147">
-        <v>11.39</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="1148" spans="1:5">
@@ -33806,7 +33806,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E1158">
-        <v>-3.46</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="1159" spans="1:5">
@@ -33942,7 +33942,7 @@
         <v>0</v>
       </c>
       <c r="E1166">
-        <v>28.98</v>
+        <v>33.14</v>
       </c>
     </row>
     <row r="1167" spans="1:5">
@@ -34027,7 +34027,7 @@
         <v>2.19</v>
       </c>
       <c r="E1171">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="1172" spans="1:5">
@@ -34044,7 +34044,7 @@
         <v>2.19</v>
       </c>
       <c r="E1172">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="1173" spans="1:5">
@@ -34061,7 +34061,7 @@
         <v>3.56</v>
       </c>
       <c r="E1173">
-        <v>2.45</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="1174" spans="1:5">
@@ -34095,7 +34095,7 @@
         <v>10.86</v>
       </c>
       <c r="E1175">
-        <v>-3.83</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="1176" spans="1:5">
@@ -34112,7 +34112,7 @@
         <v>-1.91</v>
       </c>
       <c r="E1176">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="1177" spans="1:5">
@@ -34129,7 +34129,7 @@
         <v>-0.67</v>
       </c>
       <c r="E1177">
-        <v>-0.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:5">
@@ -34146,7 +34146,7 @@
         <v>-0.84</v>
       </c>
       <c r="E1178">
-        <v>0.6799999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1179" spans="1:5">
@@ -34163,7 +34163,7 @@
         <v>-1.55</v>
       </c>
       <c r="E1179">
-        <v>0.54</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="1180" spans="1:5">
@@ -34180,7 +34180,7 @@
         <v>0</v>
       </c>
       <c r="E1180">
-        <v>22.74</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="1181" spans="1:5">
@@ -34231,7 +34231,7 @@
         <v>0</v>
       </c>
       <c r="E1183">
-        <v>4.63</v>
+        <v>4.760000000000001</v>
       </c>
     </row>
     <row r="1184" spans="1:5">
@@ -34282,7 +34282,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="E1186">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="1187" spans="1:5">
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="E1211">
-        <v>-7.920000000000001</v>
+        <v>-8.970000000000001</v>
       </c>
     </row>
     <row r="1212" spans="1:5">
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="E1216">
-        <v>-5.57</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="1217" spans="1:5">
@@ -35047,7 +35047,7 @@
         <v>0</v>
       </c>
       <c r="E1231">
-        <v>-6.47</v>
+        <v>-6.63</v>
       </c>
     </row>
     <row r="1232" spans="1:5">
@@ -35336,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="E1248">
-        <v>29.77</v>
+        <v>30.73</v>
       </c>
     </row>
     <row r="1249" spans="1:5">
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="E1252">
-        <v>5.3</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="1253" spans="1:5">
@@ -35421,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="E1253">
-        <v>4.5</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="1254" spans="1:5">
@@ -35455,7 +35455,7 @@
         <v>0</v>
       </c>
       <c r="E1255">
-        <v>5.3</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="1256" spans="1:5">
@@ -35472,7 +35472,7 @@
         <v>0</v>
       </c>
       <c r="E1256">
-        <v>5.3</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="1257" spans="1:5">
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="E1257">
-        <v>-2.38</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="1258" spans="1:5">
@@ -35591,7 +35591,7 @@
         <v>49.34</v>
       </c>
       <c r="E1263">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1264" spans="1:5">
@@ -35608,7 +35608,7 @@
         <v>49.34</v>
       </c>
       <c r="E1264">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1265" spans="1:5">
@@ -35625,7 +35625,7 @@
         <v>49.34</v>
       </c>
       <c r="E1265">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1266" spans="1:5">
@@ -35642,7 +35642,7 @@
         <v>49.34</v>
       </c>
       <c r="E1266">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1267" spans="1:5">
@@ -35659,7 +35659,7 @@
         <v>49.34</v>
       </c>
       <c r="E1267">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1268" spans="1:5">
@@ -35676,7 +35676,7 @@
         <v>19.23</v>
       </c>
       <c r="E1268">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1269" spans="1:5">
@@ -35693,7 +35693,7 @@
         <v>49.34</v>
       </c>
       <c r="E1269">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1270" spans="1:5">
@@ -35710,7 +35710,7 @@
         <v>49.34</v>
       </c>
       <c r="E1270">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1271" spans="1:5">
@@ -35727,7 +35727,7 @@
         <v>49.34</v>
       </c>
       <c r="E1271">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1272" spans="1:5">
@@ -35744,7 +35744,7 @@
         <v>49.34</v>
       </c>
       <c r="E1272">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1273" spans="1:5">
@@ -35761,7 +35761,7 @@
         <v>49.34</v>
       </c>
       <c r="E1273">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1274" spans="1:5">
@@ -35778,7 +35778,7 @@
         <v>49.34</v>
       </c>
       <c r="E1274">
-        <v>-24.03</v>
+        <v>-24.75</v>
       </c>
     </row>
     <row r="1275" spans="1:5">
@@ -36067,7 +36067,7 @@
         <v>0</v>
       </c>
       <c r="E1291">
-        <v>12.86</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="1292" spans="1:5">
@@ -36169,7 +36169,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1297">
-        <v>-15.57</v>
+        <v>-16.33</v>
       </c>
     </row>
     <row r="1298" spans="1:5">
@@ -36186,7 +36186,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1298">
-        <v>-14.52</v>
+        <v>-15.44</v>
       </c>
     </row>
     <row r="1299" spans="1:5">
@@ -36203,7 +36203,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1299">
-        <v>-15.57</v>
+        <v>-16.33</v>
       </c>
     </row>
     <row r="1300" spans="1:5">
@@ -36220,7 +36220,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1300">
-        <v>-14.52</v>
+        <v>-15.44</v>
       </c>
     </row>
     <row r="1301" spans="1:5">
@@ -36237,7 +36237,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1301">
-        <v>-15.57</v>
+        <v>-16.33</v>
       </c>
     </row>
     <row r="1302" spans="1:5">
@@ -36254,7 +36254,7 @@
         <v>-6.619999999999999</v>
       </c>
       <c r="E1302">
-        <v>-15.57</v>
+        <v>-16.33</v>
       </c>
     </row>
     <row r="1303" spans="1:5">
@@ -36288,7 +36288,7 @@
         <v>0</v>
       </c>
       <c r="E1304">
-        <v>-6.39</v>
+        <v>-11.01</v>
       </c>
     </row>
     <row r="1305" spans="1:5">
@@ -36305,7 +36305,7 @@
         <v>0</v>
       </c>
       <c r="E1305">
-        <v>-6.39</v>
+        <v>-11.01</v>
       </c>
     </row>
     <row r="1306" spans="1:5">
@@ -36390,7 +36390,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1310">
-        <v>5.93</v>
+        <v>6.460000000000001</v>
       </c>
     </row>
     <row r="1311" spans="1:5">
@@ -36407,7 +36407,7 @@
         <v>-8.84</v>
       </c>
       <c r="E1311">
-        <v>5.93</v>
+        <v>6.460000000000001</v>
       </c>
     </row>
     <row r="1312" spans="1:5">
@@ -36543,7 +36543,7 @@
         <v>12.12</v>
       </c>
       <c r="E1319">
-        <v>-17.29</v>
+        <v>-17.84</v>
       </c>
     </row>
     <row r="1320" spans="1:5">
@@ -36560,7 +36560,7 @@
         <v>-17.82</v>
       </c>
       <c r="E1320">
-        <v>18.08</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="1321" spans="1:5">
@@ -36577,7 +36577,7 @@
         <v>16.63</v>
       </c>
       <c r="E1321">
-        <v>-17.29</v>
+        <v>-17.84</v>
       </c>
     </row>
     <row r="1322" spans="1:5">
@@ -36883,7 +36883,7 @@
         <v>-6.01</v>
       </c>
       <c r="E1339">
-        <v>5.33</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="1340" spans="1:5">
@@ -36900,7 +36900,7 @@
         <v>4.88</v>
       </c>
       <c r="E1340">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:5">
@@ -36934,7 +36934,7 @@
         <v>8.35</v>
       </c>
       <c r="E1342">
-        <v>7.03</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="1343" spans="1:5">
@@ -36968,7 +36968,7 @@
         <v>0</v>
       </c>
       <c r="E1344">
-        <v>-31.29</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="1345" spans="1:5">
@@ -37257,7 +37257,7 @@
         <v>0</v>
       </c>
       <c r="E1361">
-        <v>-13.75</v>
+        <v>-14.19</v>
       </c>
     </row>
     <row r="1362" spans="1:5">
@@ -37682,7 +37682,7 @@
         <v>1.69</v>
       </c>
       <c r="E1386">
-        <v>-8.619999999999999</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="1387" spans="1:5">
@@ -37818,7 +37818,7 @@
         <v>-11.46</v>
       </c>
       <c r="E1394">
-        <v>36.08</v>
+        <v>39.02</v>
       </c>
     </row>
     <row r="1395" spans="1:5">
@@ -37852,7 +37852,7 @@
         <v>0</v>
       </c>
       <c r="E1396">
-        <v>5.04</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="1397" spans="1:5">
@@ -37869,7 +37869,7 @@
         <v>-2.66</v>
       </c>
       <c r="E1397">
-        <v>-3.42</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="1398" spans="1:5">
@@ -37886,7 +37886,7 @@
         <v>0</v>
       </c>
       <c r="E1398">
-        <v>3.35</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="1399" spans="1:5">
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E1400">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="1401" spans="1:5">
@@ -38005,7 +38005,7 @@
         <v>17.35</v>
       </c>
       <c r="E1405">
-        <v>-1.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406" spans="1:5">
@@ -38022,7 +38022,7 @@
         <v>17.35</v>
       </c>
       <c r="E1406">
-        <v>-1.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1407" spans="1:5">
@@ -38039,7 +38039,7 @@
         <v>17.35</v>
       </c>
       <c r="E1407">
-        <v>-1.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1408" spans="1:5">
@@ -38141,7 +38141,7 @@
         <v>0</v>
       </c>
       <c r="E1413">
-        <v>5.89</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="1414" spans="1:5">
@@ -38498,7 +38498,7 @@
         <v>23.85</v>
       </c>
       <c r="E1434">
-        <v>-26.88</v>
+        <v>-27.67</v>
       </c>
     </row>
     <row r="1435" spans="1:5">
@@ -38549,7 +38549,7 @@
         <v>5.67</v>
       </c>
       <c r="E1437">
-        <v>-5.37</v>
+        <v>-9.120000000000001</v>
       </c>
     </row>
     <row r="1438" spans="1:5">
@@ -38583,7 +38583,7 @@
         <v>5.92</v>
       </c>
       <c r="E1439">
-        <v>-5.7</v>
+        <v>-9.779999999999999</v>
       </c>
     </row>
     <row r="1440" spans="1:5">
@@ -38600,7 +38600,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="E1440">
-        <v>-7.55</v>
+        <v>-12.94</v>
       </c>
     </row>
     <row r="1441" spans="1:5">
@@ -38668,7 +38668,7 @@
         <v>-6.99</v>
       </c>
       <c r="E1444">
-        <v>33.15</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="1445" spans="1:5">
@@ -38702,7 +38702,7 @@
         <v>0</v>
       </c>
       <c r="E1446">
-        <v>-6.569999999999999</v>
+        <v>-11.31</v>
       </c>
     </row>
     <row r="1447" spans="1:5">
@@ -38787,7 +38787,7 @@
         <v>0</v>
       </c>
       <c r="E1451">
-        <v>-6.569999999999999</v>
+        <v>-11.31</v>
       </c>
     </row>
     <row r="1452" spans="1:5">
@@ -38804,7 +38804,7 @@
         <v>0</v>
       </c>
       <c r="E1452">
-        <v>-6.069999999999999</v>
+        <v>-5.21</v>
       </c>
     </row>
     <row r="1453" spans="1:5">
@@ -38821,7 +38821,7 @@
         <v>0</v>
       </c>
       <c r="E1453">
-        <v>-2.65</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="1454" spans="1:5">
@@ -38838,7 +38838,7 @@
         <v>-11.4</v>
       </c>
       <c r="E1454">
-        <v>-6.569999999999999</v>
+        <v>-11.31</v>
       </c>
     </row>
     <row r="1455" spans="1:5">
@@ -38923,7 +38923,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1459">
-        <v>4.46</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="1460" spans="1:5">
@@ -38940,7 +38940,7 @@
         <v>-18.24</v>
       </c>
       <c r="E1460">
-        <v>13.64</v>
+        <v>6.909999999999999</v>
       </c>
     </row>
     <row r="1461" spans="1:5">
@@ -38991,7 +38991,7 @@
         <v>0</v>
       </c>
       <c r="E1463">
-        <v>14.36</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="1464" spans="1:5">
@@ -39059,7 +39059,7 @@
         <v>0.16</v>
       </c>
       <c r="E1467">
-        <v>13.58</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="1468" spans="1:5">
@@ -39501,7 +39501,7 @@
         <v>0</v>
       </c>
       <c r="E1493">
-        <v>5.59</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="1494" spans="1:5">
@@ -39722,7 +39722,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1506">
-        <v>27.28</v>
+        <v>28.09</v>
       </c>
     </row>
     <row r="1507" spans="1:5">
@@ -39739,7 +39739,7 @@
         <v>-24.67</v>
       </c>
       <c r="E1507">
-        <v>27.28</v>
+        <v>28.09</v>
       </c>
     </row>
     <row r="1508" spans="1:5">
@@ -39960,7 +39960,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1520">
-        <v>5.27</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="1521" spans="1:5">
@@ -39977,7 +39977,7 @@
         <v>-1.93</v>
       </c>
       <c r="E1521">
-        <v>5.27</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="1522" spans="1:5">
@@ -39994,7 +39994,7 @@
         <v>10.9</v>
       </c>
       <c r="E1522">
-        <v>-1.2</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="1523" spans="1:5">
@@ -40062,7 +40062,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1526">
-        <v>23.45</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="1527" spans="1:5">
@@ -40096,7 +40096,7 @@
         <v>-16.69</v>
       </c>
       <c r="E1528">
-        <v>23.45</v>
+        <v>24.05</v>
       </c>
     </row>
     <row r="1529" spans="1:5">
@@ -40113,7 +40113,7 @@
         <v>0</v>
       </c>
       <c r="E1529">
-        <v>8.359999999999999</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="1530" spans="1:5">
@@ -40130,7 +40130,7 @@
         <v>4.78</v>
       </c>
       <c r="E1530">
-        <v>8.359999999999999</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="1531" spans="1:5">
@@ -40147,7 +40147,7 @@
         <v>4.78</v>
       </c>
       <c r="E1531">
-        <v>8.359999999999999</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="1532" spans="1:5">
@@ -40164,7 +40164,7 @@
         <v>4.78</v>
       </c>
       <c r="E1532">
-        <v>8.359999999999999</v>
+        <v>9.130000000000001</v>
       </c>
     </row>
     <row r="1533" spans="1:5">
@@ -40181,7 +40181,7 @@
         <v>-0.58</v>
       </c>
       <c r="E1533">
-        <v>34.84999999999999</v>
+        <v>35.86</v>
       </c>
     </row>
     <row r="1534" spans="1:5">
@@ -40300,7 +40300,7 @@
         <v>0</v>
       </c>
       <c r="E1540">
-        <v>-1.51</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="1541" spans="1:5">
@@ -40351,7 +40351,7 @@
         <v>0</v>
       </c>
       <c r="E1543">
-        <v>-1.62</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="1544" spans="1:5">
@@ -40368,7 +40368,7 @@
         <v>4.63</v>
       </c>
       <c r="E1544">
-        <v>3.31</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="1545" spans="1:5">
@@ -40385,7 +40385,7 @@
         <v>0</v>
       </c>
       <c r="E1545">
-        <v>-1.62</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="1546" spans="1:5">
@@ -40402,7 +40402,7 @@
         <v>0</v>
       </c>
       <c r="E1546">
-        <v>-1.01</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="1547" spans="1:5">
@@ -40419,7 +40419,7 @@
         <v>0</v>
       </c>
       <c r="E1547">
-        <v>-1.01</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="1548" spans="1:5">
@@ -40436,7 +40436,7 @@
         <v>0</v>
       </c>
       <c r="E1548">
-        <v>0</v>
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="1549" spans="1:5">
@@ -40453,7 +40453,7 @@
         <v>0</v>
       </c>
       <c r="E1549">
-        <v>0</v>
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="1550" spans="1:5">
@@ -40470,7 +40470,7 @@
         <v>10.55</v>
       </c>
       <c r="E1550">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="1551" spans="1:5">
@@ -41133,7 +41133,7 @@
         <v>0</v>
       </c>
       <c r="E1589">
-        <v>-7.61</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="1590" spans="1:5">
@@ -41150,7 +41150,7 @@
         <v>6.329999999999999</v>
       </c>
       <c r="E1590">
-        <v>-4.31</v>
+        <v>-4.399999999999999</v>
       </c>
     </row>
     <row r="1591" spans="1:5">
@@ -41167,7 +41167,7 @@
         <v>0</v>
       </c>
       <c r="E1591">
-        <v>-19.25</v>
+        <v>-19.78</v>
       </c>
     </row>
     <row r="1592" spans="1:5">
@@ -41184,7 +41184,7 @@
         <v>0</v>
       </c>
       <c r="E1592">
-        <v>-11.08</v>
+        <v>-11.38</v>
       </c>
     </row>
     <row r="1593" spans="1:5">
@@ -41388,7 +41388,7 @@
         <v>-10.26</v>
       </c>
       <c r="E1604">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="1605" spans="1:5">
@@ -41422,7 +41422,7 @@
         <v>-10.22</v>
       </c>
       <c r="E1606">
-        <v>9.51</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="1607" spans="1:5">
@@ -41439,7 +41439,7 @@
         <v>11.81</v>
       </c>
       <c r="E1607">
-        <v>-15.92</v>
+        <v>-16.54</v>
       </c>
     </row>
     <row r="1608" spans="1:5">
@@ -41456,7 +41456,7 @@
         <v>0</v>
       </c>
       <c r="E1608">
-        <v>-7.08</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="1609" spans="1:5">
@@ -41473,7 +41473,7 @@
         <v>0</v>
       </c>
       <c r="E1609">
-        <v>-7.08</v>
+        <v>-12.09</v>
       </c>
     </row>
     <row r="1610" spans="1:5">
@@ -41660,7 +41660,7 @@
         <v>0</v>
       </c>
       <c r="E1620">
-        <v>-4.760000000000001</v>
+        <v>-8.260000000000002</v>
       </c>
     </row>
     <row r="1621" spans="1:5">
@@ -41677,7 +41677,7 @@
         <v>-38.58</v>
       </c>
       <c r="E1621">
-        <v>47.92</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="1622" spans="1:5">
@@ -41830,7 +41830,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E1630">
-        <v>7.42</v>
+        <v>7.829999999999999</v>
       </c>
     </row>
     <row r="1631" spans="1:5">
@@ -41864,7 +41864,7 @@
         <v>0</v>
       </c>
       <c r="E1632">
-        <v>-5</v>
+        <v>-8.550000000000001</v>
       </c>
     </row>
     <row r="1633" spans="1:5">
@@ -41881,7 +41881,7 @@
         <v>0</v>
       </c>
       <c r="E1633">
-        <v>-20.86</v>
+        <v>-21.46</v>
       </c>
     </row>
     <row r="1634" spans="1:5">
@@ -41915,7 +41915,7 @@
         <v>10.46</v>
       </c>
       <c r="E1635">
-        <v>4.399999999999999</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="1636" spans="1:5">
@@ -41932,7 +41932,7 @@
         <v>18.21</v>
       </c>
       <c r="E1636">
-        <v>-12.87</v>
+        <v>-13.17</v>
       </c>
     </row>
     <row r="1637" spans="1:5">
@@ -42051,7 +42051,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1643">
-        <v>-3.59</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="1644" spans="1:5">
@@ -42068,7 +42068,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1644">
-        <v>-10.89</v>
+        <v>-12.46</v>
       </c>
     </row>
     <row r="1645" spans="1:5">
@@ -42085,7 +42085,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1645">
-        <v>-3.59</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="1646" spans="1:5">
@@ -42102,7 +42102,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1646">
-        <v>-3.59</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="1647" spans="1:5">
@@ -42119,7 +42119,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1647">
-        <v>4.83</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="1648" spans="1:5">
@@ -42136,7 +42136,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1648">
-        <v>-3.59</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -42153,7 +42153,7 @@
         <v>0</v>
       </c>
       <c r="E1649">
-        <v>-3.31</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1650" spans="1:5">
@@ -42170,7 +42170,7 @@
         <v>0</v>
       </c>
       <c r="E1650">
-        <v>-3.31</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1651" spans="1:5">
@@ -42272,7 +42272,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1656">
-        <v>2</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="1657" spans="1:5">
@@ -42289,7 +42289,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1657">
-        <v>2</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="1658" spans="1:5">
@@ -42306,7 +42306,7 @@
         <v>-2.09</v>
       </c>
       <c r="E1658">
-        <v>2</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="1659" spans="1:5">
@@ -42323,7 +42323,7 @@
         <v>0</v>
       </c>
       <c r="E1659">
-        <v>-3.31</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1660" spans="1:5">
@@ -42340,7 +42340,7 @@
         <v>0</v>
       </c>
       <c r="E1660">
-        <v>-3.31</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1661" spans="1:5">
@@ -42357,7 +42357,7 @@
         <v>0</v>
       </c>
       <c r="E1661">
-        <v>-3.31</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1662" spans="1:5">
@@ -42374,7 +42374,7 @@
         <v>0</v>
       </c>
       <c r="E1662">
-        <v>-3.31</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1663" spans="1:5">
@@ -42391,7 +42391,7 @@
         <v>0</v>
       </c>
       <c r="E1663">
-        <v>-3.31</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1664" spans="1:5">
@@ -42408,7 +42408,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1664">
-        <v>0.6799999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="1665" spans="1:5">
@@ -42442,7 +42442,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1666">
-        <v>0.6799999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="1667" spans="1:5">
@@ -42459,7 +42459,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1667">
-        <v>0.6799999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="1668" spans="1:5">
@@ -42476,7 +42476,7 @@
         <v>0.64</v>
       </c>
       <c r="E1668">
-        <v>7.8</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="1669" spans="1:5">
@@ -42493,7 +42493,7 @@
         <v>0.64</v>
       </c>
       <c r="E1669">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1670" spans="1:5">
@@ -42510,7 +42510,7 @@
         <v>0.64</v>
       </c>
       <c r="E1670">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1671" spans="1:5">
@@ -42527,7 +42527,7 @@
         <v>0.64</v>
       </c>
       <c r="E1671">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1672" spans="1:5">
@@ -42595,7 +42595,7 @@
         <v>0</v>
       </c>
       <c r="E1675">
-        <v>-10.83</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="1676" spans="1:5">
@@ -42612,7 +42612,7 @@
         <v>0</v>
       </c>
       <c r="E1676">
-        <v>-13.39</v>
+        <v>-13.78</v>
       </c>
     </row>
     <row r="1677" spans="1:5">
@@ -42629,7 +42629,7 @@
         <v>0</v>
       </c>
       <c r="E1677">
-        <v>-13.39</v>
+        <v>-13.78</v>
       </c>
     </row>
     <row r="1678" spans="1:5">
@@ -42646,7 +42646,7 @@
         <v>0</v>
       </c>
       <c r="E1678">
-        <v>-3.31</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1679" spans="1:5">
@@ -42663,7 +42663,7 @@
         <v>0</v>
       </c>
       <c r="E1679">
-        <v>-3.31</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="1680" spans="1:5">
@@ -42680,7 +42680,7 @@
         <v>0</v>
       </c>
       <c r="E1680">
-        <v>0</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="1681" spans="1:5">
@@ -42782,7 +42782,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1686">
-        <v>36.73</v>
+        <v>37.83000000000001</v>
       </c>
     </row>
     <row r="1687" spans="1:5">
@@ -42799,7 +42799,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1687">
-        <v>0.6799999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="1688" spans="1:5">
@@ -42816,7 +42816,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1688">
-        <v>0.6799999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="1689" spans="1:5">
@@ -42833,7 +42833,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1689">
-        <v>0.6799999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="1690" spans="1:5">
@@ -42867,7 +42867,7 @@
         <v>0.64</v>
       </c>
       <c r="E1691">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1692" spans="1:5">
@@ -42884,7 +42884,7 @@
         <v>9.229999999999999</v>
       </c>
       <c r="E1692">
-        <v>-5.24</v>
+        <v>-7.870000000000001</v>
       </c>
     </row>
     <row r="1693" spans="1:5">
@@ -42901,7 +42901,7 @@
         <v>0.64</v>
       </c>
       <c r="E1693">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1694" spans="1:5">
@@ -42918,7 +42918,7 @@
         <v>0.64</v>
       </c>
       <c r="E1694">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1695" spans="1:5">
@@ -42935,7 +42935,7 @@
         <v>-30.24</v>
       </c>
       <c r="E1695">
-        <v>0.6799999999999999</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="1696" spans="1:5">
@@ -42969,7 +42969,7 @@
         <v>0.64</v>
       </c>
       <c r="E1697">
-        <v>2.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1698" spans="1:5">
@@ -43037,7 +43037,7 @@
         <v>-17.58</v>
       </c>
       <c r="E1701">
-        <v>-3.59</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="1702" spans="1:5">
@@ -43088,7 +43088,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1704">
-        <v>5.98</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="1705" spans="1:5">
@@ -43190,7 +43190,7 @@
         <v>-6.11</v>
       </c>
       <c r="E1710">
-        <v>5.98</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="1711" spans="1:5">
@@ -43326,7 +43326,7 @@
         <v>9.02</v>
       </c>
       <c r="E1718">
-        <v>-0.73</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="1719" spans="1:5">
@@ -43343,7 +43343,7 @@
         <v>9.02</v>
       </c>
       <c r="E1719">
-        <v>-0.73</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="1720" spans="1:5">
@@ -43428,7 +43428,7 @@
         <v>6.48</v>
       </c>
       <c r="E1724">
-        <v>3.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1725" spans="1:5">
@@ -43445,7 +43445,7 @@
         <v>6.17</v>
       </c>
       <c r="E1725">
-        <v>-20.04</v>
+        <v>-20.64</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -43564,7 +43564,7 @@
         <v>2.8</v>
       </c>
       <c r="E1732">
-        <v>-4.72</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="1733" spans="1:5">
@@ -43581,7 +43581,7 @@
         <v>1.4</v>
       </c>
       <c r="E1733">
-        <v>-3.4</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="1734" spans="1:5">
@@ -43615,7 +43615,7 @@
         <v>0</v>
       </c>
       <c r="E1735">
-        <v>-14.09</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="1736" spans="1:5">
@@ -43700,7 +43700,7 @@
         <v>2.58</v>
       </c>
       <c r="E1740">
-        <v>-2.93</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="1741" spans="1:5">
@@ -43751,7 +43751,7 @@
         <v>2.58</v>
       </c>
       <c r="E1743">
-        <v>-2.93</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="1744" spans="1:5">
@@ -43768,7 +43768,7 @@
         <v>16.67</v>
       </c>
       <c r="E1744">
-        <v>-1.19</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="1745" spans="1:5">
@@ -43785,7 +43785,7 @@
         <v>12.61</v>
       </c>
       <c r="E1745">
-        <v>-3.86</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="1746" spans="1:5">
@@ -43802,7 +43802,7 @@
         <v>12.61</v>
       </c>
       <c r="E1746">
-        <v>-3.86</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="1747" spans="1:5">
@@ -43819,7 +43819,7 @@
         <v>12.61</v>
       </c>
       <c r="E1747">
-        <v>-3.86</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="1748" spans="1:5">
@@ -43853,7 +43853,7 @@
         <v>12.61</v>
       </c>
       <c r="E1749">
-        <v>-3.86</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="1750" spans="1:5">
@@ -43989,7 +43989,7 @@
         <v>0</v>
       </c>
       <c r="E1757">
-        <v>-3.08</v>
+        <v>-5.220000000000001</v>
       </c>
     </row>
     <row r="1758" spans="1:5">
@@ -44057,7 +44057,7 @@
         <v>0</v>
       </c>
       <c r="E1761">
-        <v>-3.08</v>
+        <v>-5.220000000000001</v>
       </c>
     </row>
     <row r="1762" spans="1:5">
@@ -44176,7 +44176,7 @@
         <v>-3.99</v>
       </c>
       <c r="E1768">
-        <v>-5.41</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="1769" spans="1:5">
@@ -44210,7 +44210,7 @@
         <v>4.56</v>
       </c>
       <c r="E1770">
-        <v>-5.31</v>
+        <v>-7.46</v>
       </c>
     </row>
     <row r="1771" spans="1:5">
@@ -44414,7 +44414,7 @@
         <v>0</v>
       </c>
       <c r="E1782">
-        <v>-15.02</v>
+        <v>-15.44</v>
       </c>
     </row>
     <row r="1783" spans="1:5">
@@ -44771,7 +44771,7 @@
         <v>11.67</v>
       </c>
       <c r="E1803">
-        <v>5.27</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="1804" spans="1:5">
@@ -44805,7 +44805,7 @@
         <v>11.67</v>
       </c>
       <c r="E1805">
-        <v>5.27</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="1806" spans="1:5">
@@ -44822,7 +44822,7 @@
         <v>17.76</v>
       </c>
       <c r="E1806">
-        <v>3.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1807" spans="1:5">
@@ -44839,7 +44839,7 @@
         <v>11.67</v>
       </c>
       <c r="E1807">
-        <v>5.27</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="1808" spans="1:5">
@@ -44856,7 +44856,7 @@
         <v>10.62</v>
       </c>
       <c r="E1808">
-        <v>5.93</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="1809" spans="1:5">
@@ -44873,7 +44873,7 @@
         <v>11.67</v>
       </c>
       <c r="E1809">
-        <v>2.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1810" spans="1:5">
@@ -44890,7 +44890,7 @@
         <v>10.62</v>
       </c>
       <c r="E1810">
-        <v>9.77</v>
+        <v>6.460000000000001</v>
       </c>
     </row>
     <row r="1811" spans="1:5">
@@ -44907,7 +44907,7 @@
         <v>-6.069999999999999</v>
       </c>
       <c r="E1811">
-        <v>5.93</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="1812" spans="1:5">
@@ -44924,7 +44924,7 @@
         <v>8.73</v>
       </c>
       <c r="E1812">
-        <v>4.96</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="1813" spans="1:5">
@@ -44941,7 +44941,7 @@
         <v>11.67</v>
       </c>
       <c r="E1813">
-        <v>2.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1814" spans="1:5">
@@ -44958,7 +44958,7 @@
         <v>10.62</v>
       </c>
       <c r="E1814">
-        <v>9.77</v>
+        <v>6.460000000000001</v>
       </c>
     </row>
     <row r="1815" spans="1:5">
@@ -44975,7 +44975,7 @@
         <v>14.29</v>
       </c>
       <c r="E1815">
-        <v>2.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1816" spans="1:5">
@@ -44992,7 +44992,7 @@
         <v>14.29</v>
       </c>
       <c r="E1816">
-        <v>2.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1817" spans="1:5">
@@ -45009,7 +45009,7 @@
         <v>14.29</v>
       </c>
       <c r="E1817">
-        <v>2.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1818" spans="1:5">
@@ -45026,7 +45026,7 @@
         <v>8.48</v>
       </c>
       <c r="E1818">
-        <v>2.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819" spans="1:5">
@@ -45060,7 +45060,7 @@
         <v>-4.61</v>
       </c>
       <c r="E1820">
-        <v>10.14</v>
+        <v>10.61</v>
       </c>
     </row>
     <row r="1821" spans="1:5">
@@ -45077,7 +45077,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1821">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1822" spans="1:5">
@@ -45094,7 +45094,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1822">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1823" spans="1:5">
@@ -45111,7 +45111,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1823">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1824" spans="1:5">
@@ -45128,7 +45128,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1824">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1825" spans="1:5">
@@ -45145,7 +45145,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1825">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1826" spans="1:5">
@@ -45162,7 +45162,7 @@
         <v>1.53</v>
       </c>
       <c r="E1826">
-        <v>-2.37</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="1827" spans="1:5">
@@ -45179,7 +45179,7 @@
         <v>-0.5499999999999999</v>
       </c>
       <c r="E1827">
-        <v>-0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1828" spans="1:5">
@@ -45332,7 +45332,7 @@
         <v>8.57</v>
       </c>
       <c r="E1836">
-        <v>-8</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="1837" spans="1:5">
@@ -45383,7 +45383,7 @@
         <v>8.57</v>
       </c>
       <c r="E1839">
-        <v>-8</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="1840" spans="1:5">
@@ -45400,7 +45400,7 @@
         <v>8.57</v>
       </c>
       <c r="E1840">
-        <v>-8</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="1841" spans="1:5">
@@ -45417,7 +45417,7 @@
         <v>8.57</v>
       </c>
       <c r="E1841">
-        <v>-8</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="1842" spans="1:5">
@@ -45434,7 +45434,7 @@
         <v>8.57</v>
       </c>
       <c r="E1842">
-        <v>-8</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="1843" spans="1:5">
@@ -45451,7 +45451,7 @@
         <v>8.57</v>
       </c>
       <c r="E1843">
-        <v>-8</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="1844" spans="1:5">
@@ -45502,7 +45502,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1846">
-        <v>33.17</v>
+        <v>28.36</v>
       </c>
     </row>
     <row r="1847" spans="1:5">
@@ -45519,7 +45519,7 @@
         <v>-41.53</v>
       </c>
       <c r="E1847">
-        <v>33.17</v>
+        <v>28.36</v>
       </c>
     </row>
     <row r="1848" spans="1:5">
@@ -45825,7 +45825,7 @@
         <v>0</v>
       </c>
       <c r="E1865">
-        <v>-5.24</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="1866" spans="1:5">
@@ -46097,7 +46097,7 @@
         <v>0</v>
       </c>
       <c r="E1881">
-        <v>-12.74</v>
+        <v>-13.13</v>
       </c>
     </row>
     <row r="1882" spans="1:5">
@@ -46199,7 +46199,7 @@
         <v>2.08</v>
       </c>
       <c r="E1887">
-        <v>-5.73</v>
+        <v>-9.81</v>
       </c>
     </row>
     <row r="1888" spans="1:5">
@@ -46335,7 +46335,7 @@
         <v>-12.96</v>
       </c>
       <c r="E1895">
-        <v>21.04</v>
+        <v>21.59</v>
       </c>
     </row>
     <row r="1896" spans="1:5">
@@ -46522,7 +46522,7 @@
         <v>6.68</v>
       </c>
       <c r="E1906">
-        <v>-6.02</v>
+        <v>-10.32</v>
       </c>
     </row>
     <row r="1907" spans="1:5">
@@ -46607,7 +46607,7 @@
         <v>6.69</v>
       </c>
       <c r="E1911">
-        <v>10.62</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="1912" spans="1:5">
@@ -47066,7 +47066,7 @@
         <v>0</v>
       </c>
       <c r="E1938">
-        <v>-0.83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1939" spans="1:5">
@@ -47083,7 +47083,7 @@
         <v>-6.27</v>
       </c>
       <c r="E1939">
-        <v>-5.89</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="1940" spans="1:5">
@@ -47185,7 +47185,7 @@
         <v>0</v>
       </c>
       <c r="E1945">
-        <v>0</v>
+        <v>-3.32</v>
       </c>
     </row>
     <row r="1946" spans="1:5">
@@ -47202,7 +47202,7 @@
         <v>0</v>
       </c>
       <c r="E1946">
-        <v>0</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="1947" spans="1:5">
@@ -47661,7 +47661,7 @@
         <v>0.28</v>
       </c>
       <c r="E1973">
-        <v>-14.72</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="1974" spans="1:5">
@@ -47678,7 +47678,7 @@
         <v>-5.88</v>
       </c>
       <c r="E1974">
-        <v>3.86</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="1975" spans="1:5">
@@ -47746,7 +47746,7 @@
         <v>3.67</v>
       </c>
       <c r="E1978">
-        <v>-4.14</v>
+        <v>-7.07</v>
       </c>
     </row>
     <row r="1979" spans="1:5">
@@ -47763,7 +47763,7 @@
         <v>3.42</v>
       </c>
       <c r="E1979">
-        <v>0</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1980" spans="1:5">
@@ -47831,7 +47831,7 @@
         <v>0.59</v>
       </c>
       <c r="E1983">
-        <v>-3.43</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="1984" spans="1:5">
@@ -47933,7 +47933,7 @@
         <v>0</v>
       </c>
       <c r="E1989">
-        <v>16.74</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="1990" spans="1:5">
@@ -48443,7 +48443,7 @@
         <v>2.8</v>
       </c>
       <c r="E2019">
-        <v>-6.29</v>
+        <v>-6.600000000000001</v>
       </c>
     </row>
     <row r="2020" spans="1:5">
@@ -48562,7 +48562,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2026">
-        <v>2.91</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="2027" spans="1:5">
@@ -48579,7 +48579,7 @@
         <v>-6.32</v>
       </c>
       <c r="E2027">
-        <v>2.91</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="2028" spans="1:5">
@@ -48851,7 +48851,7 @@
         <v>2.95</v>
       </c>
       <c r="E2043">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="2044" spans="1:5">
@@ -48987,7 +48987,7 @@
         <v>5</v>
       </c>
       <c r="E2051">
-        <v>-21.12</v>
+        <v>-21.74</v>
       </c>
     </row>
     <row r="2052" spans="1:5">
@@ -49293,7 +49293,7 @@
         <v>2.96</v>
       </c>
       <c r="E2069">
-        <v>0.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2070" spans="1:5">
@@ -49344,7 +49344,7 @@
         <v>-3.13</v>
       </c>
       <c r="E2072">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="2073" spans="1:5">
@@ -49361,7 +49361,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2073">
-        <v>-1.56</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="2074" spans="1:5">
@@ -49531,7 +49531,7 @@
         <v>-5.06</v>
       </c>
       <c r="E2083">
-        <v>2.23</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="2084" spans="1:5">
@@ -49667,7 +49667,7 @@
         <v>-5.75</v>
       </c>
       <c r="E2091">
-        <v>4.96</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="2092" spans="1:5">
@@ -49684,7 +49684,7 @@
         <v>12.3</v>
       </c>
       <c r="E2092">
-        <v>-14.72</v>
+        <v>-15.19</v>
       </c>
     </row>
     <row r="2093" spans="1:5">
@@ -49718,7 +49718,7 @@
         <v>-0.7000000000000001</v>
       </c>
       <c r="E2094">
-        <v>-11.21</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="2095" spans="1:5">
@@ -49752,7 +49752,7 @@
         <v>0</v>
       </c>
       <c r="E2096">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="2097" spans="1:5">
@@ -49956,7 +49956,7 @@
         <v>-3.72</v>
       </c>
       <c r="E2108">
-        <v>-3.08</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="2109" spans="1:5">
@@ -49973,7 +49973,7 @@
         <v>-12.78</v>
       </c>
       <c r="E2109">
-        <v>-19.83</v>
+        <v>-23.28</v>
       </c>
     </row>
     <row r="2110" spans="1:5">
@@ -50007,7 +50007,7 @@
         <v>0</v>
       </c>
       <c r="E2111">
-        <v>0</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="2112" spans="1:5">
@@ -50041,7 +50041,7 @@
         <v>-10.59</v>
       </c>
       <c r="E2113">
-        <v>-15.64</v>
+        <v>-19.24</v>
       </c>
     </row>
     <row r="2114" spans="1:5">
@@ -50160,7 +50160,7 @@
         <v>0</v>
       </c>
       <c r="E2120">
-        <v>-12.92</v>
+        <v>-13.36</v>
       </c>
     </row>
     <row r="2121" spans="1:5">
@@ -50177,7 +50177,7 @@
         <v>-15.2</v>
       </c>
       <c r="E2121">
-        <v>15.05</v>
+        <v>15.41</v>
       </c>
     </row>
     <row r="2122" spans="1:5">
@@ -50194,7 +50194,7 @@
         <v>0</v>
       </c>
       <c r="E2122">
-        <v>-17.43</v>
+        <v>-17.84</v>
       </c>
     </row>
     <row r="2123" spans="1:5">
@@ -50211,7 +50211,7 @@
         <v>3.1</v>
       </c>
       <c r="E2123">
-        <v>-17.43</v>
+        <v>-17.84</v>
       </c>
     </row>
     <row r="2124" spans="1:5">
@@ -50245,7 +50245,7 @@
         <v>0</v>
       </c>
       <c r="E2125">
-        <v>3.97</v>
+        <v>4.130000000000001</v>
       </c>
     </row>
     <row r="2126" spans="1:5">
@@ -50262,7 +50262,7 @@
         <v>0</v>
       </c>
       <c r="E2126">
-        <v>-12.92</v>
+        <v>-13.36</v>
       </c>
     </row>
     <row r="2127" spans="1:5">
@@ -50279,7 +50279,7 @@
         <v>0</v>
       </c>
       <c r="E2127">
-        <v>-3.18</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="2128" spans="1:5">
@@ -50296,7 +50296,7 @@
         <v>0</v>
       </c>
       <c r="E2128">
-        <v>3.74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2129" spans="1:5">
@@ -50313,7 +50313,7 @@
         <v>0</v>
       </c>
       <c r="E2129">
-        <v>4.05</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="2130" spans="1:5">
@@ -50517,7 +50517,7 @@
         <v>-2.81</v>
       </c>
       <c r="E2141">
-        <v>-7.23</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="2142" spans="1:5">
@@ -50534,7 +50534,7 @@
         <v>-2.66</v>
       </c>
       <c r="E2142">
-        <v>-6.72</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="2143" spans="1:5">
@@ -50891,7 +50891,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2163">
-        <v>29.92</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="2164" spans="1:5">
@@ -50908,7 +50908,7 @@
         <v>-26.42</v>
       </c>
       <c r="E2164">
-        <v>29.92</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="2165" spans="1:5">
@@ -51027,7 +51027,7 @@
         <v>-13.54</v>
       </c>
       <c r="E2171">
-        <v>7.88</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="2172" spans="1:5">
@@ -51265,7 +51265,7 @@
         <v>0</v>
       </c>
       <c r="E2185">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="2186" spans="1:5">
@@ -51350,7 +51350,7 @@
         <v>0</v>
       </c>
       <c r="E2190">
-        <v>41.81</v>
+        <v>43.14</v>
       </c>
     </row>
     <row r="2191" spans="1:5">
@@ -51401,7 +51401,7 @@
         <v>0</v>
       </c>
       <c r="E2193">
-        <v>-1.93</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="2194" spans="1:5">
@@ -51452,7 +51452,7 @@
         <v>9.4</v>
       </c>
       <c r="E2196">
-        <v>-10.35</v>
+        <v>-10.57</v>
       </c>
     </row>
     <row r="2197" spans="1:5">
@@ -51469,7 +51469,7 @@
         <v>0</v>
       </c>
       <c r="E2197">
-        <v>-1.93</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="2198" spans="1:5">
@@ -51486,7 +51486,7 @@
         <v>0</v>
       </c>
       <c r="E2198">
-        <v>-1.93</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="2199" spans="1:5">
@@ -51503,7 +51503,7 @@
         <v>0</v>
       </c>
       <c r="E2199">
-        <v>-5.050000000000001</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="2200" spans="1:5">
@@ -51588,7 +51588,7 @@
         <v>0</v>
       </c>
       <c r="E2204">
-        <v>0</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="2205" spans="1:5">
@@ -52251,7 +52251,7 @@
         <v>2.05</v>
       </c>
       <c r="E2243">
-        <v>-5.37</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="2244" spans="1:5">
@@ -52727,7 +52727,7 @@
         <v>2.84</v>
       </c>
       <c r="E2271">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2272" spans="1:5">
@@ -52744,7 +52744,7 @@
         <v>22.81</v>
       </c>
       <c r="E2272">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2273" spans="1:5">
@@ -52778,7 +52778,7 @@
         <v>10.21</v>
       </c>
       <c r="E2274">
-        <v>-17.93</v>
+        <v>-18.54</v>
       </c>
     </row>
     <row r="2275" spans="1:5">
@@ -52795,7 +52795,7 @@
         <v>22.81</v>
       </c>
       <c r="E2275">
-        <v>3.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2276" spans="1:5">
@@ -52829,7 +52829,7 @@
         <v>-24.05</v>
       </c>
       <c r="E2277">
-        <v>5.28</v>
+        <v>9.049999999999999</v>
       </c>
     </row>
     <row r="2278" spans="1:5">
@@ -52846,7 +52846,7 @@
         <v>15.01</v>
       </c>
       <c r="E2278">
-        <v>6.529999999999999</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="2279" spans="1:5">
@@ -52880,7 +52880,7 @@
         <v>14.47</v>
       </c>
       <c r="E2280">
-        <v>3.16</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="2281" spans="1:5">
@@ -52897,7 +52897,7 @@
         <v>18.76</v>
       </c>
       <c r="E2281">
-        <v>3.16</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="2282" spans="1:5">
@@ -53050,7 +53050,7 @@
         <v>0</v>
       </c>
       <c r="E2290">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="2291" spans="1:5">
@@ -53118,7 +53118,7 @@
         <v>0</v>
       </c>
       <c r="E2294">
-        <v>0</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="2295" spans="1:5">
@@ -53152,7 +53152,7 @@
         <v>0</v>
       </c>
       <c r="E2296">
-        <v>-9.700000000000001</v>
+        <v>-11.11</v>
       </c>
     </row>
     <row r="2297" spans="1:5">
@@ -53322,7 +53322,7 @@
         <v>0</v>
       </c>
       <c r="E2306">
-        <v>-2.09</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="2307" spans="1:5">
@@ -53339,7 +53339,7 @@
         <v>0</v>
       </c>
       <c r="E2307">
-        <v>1.36</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="2308" spans="1:5">
@@ -53390,7 +53390,7 @@
         <v>26.01</v>
       </c>
       <c r="E2310">
-        <v>-23.41</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="2311" spans="1:5">
@@ -53696,7 +53696,7 @@
         <v>0</v>
       </c>
       <c r="E2328">
-        <v>2.02</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="2329" spans="1:5">
@@ -53781,7 +53781,7 @@
         <v>0</v>
       </c>
       <c r="E2333">
-        <v>-6.950000000000001</v>
+        <v>-11.89</v>
       </c>
     </row>
     <row r="2334" spans="1:5">
@@ -53798,7 +53798,7 @@
         <v>6.22</v>
       </c>
       <c r="E2334">
-        <v>-6.2</v>
+        <v>-10.63</v>
       </c>
     </row>
     <row r="2335" spans="1:5">
@@ -53815,7 +53815,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2335">
-        <v>3.06</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="2336" spans="1:5">
@@ -53832,7 +53832,7 @@
         <v>-0.97</v>
       </c>
       <c r="E2336">
-        <v>3.06</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="2337" spans="1:5">
@@ -53883,7 +53883,7 @@
         <v>0</v>
       </c>
       <c r="E2339">
-        <v>0</v>
+        <v>-4.590000000000001</v>
       </c>
     </row>
     <row r="2340" spans="1:5">
@@ -53900,7 +53900,7 @@
         <v>2.7</v>
       </c>
       <c r="E2340">
-        <v>0</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="2341" spans="1:5">
@@ -54359,7 +54359,7 @@
         <v>0</v>
       </c>
       <c r="E2367">
-        <v>2.44</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="2368" spans="1:5">
@@ -54410,7 +54410,7 @@
         <v>3.95</v>
       </c>
       <c r="E2370">
-        <v>-2.89</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="2371" spans="1:5">
@@ -54427,7 +54427,7 @@
         <v>3.95</v>
       </c>
       <c r="E2371">
-        <v>-2.89</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="2372" spans="1:5">
@@ -54444,7 +54444,7 @@
         <v>3.95</v>
       </c>
       <c r="E2372">
-        <v>-2.89</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="2373" spans="1:5">
@@ -54614,7 +54614,7 @@
         <v>0</v>
       </c>
       <c r="E2382">
-        <v>18.05</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="2383" spans="1:5">
@@ -54682,7 +54682,7 @@
         <v>-8.17</v>
       </c>
       <c r="E2386">
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="2387" spans="1:5">
@@ -54733,7 +54733,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2389">
-        <v>31.36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2390" spans="1:5">
@@ -54750,7 +54750,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2390">
-        <v>16.67</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="2391" spans="1:5">
@@ -54767,7 +54767,7 @@
         <v>-23.87</v>
       </c>
       <c r="E2391">
-        <v>16.67</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="2392" spans="1:5">
@@ -54784,7 +54784,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2392">
-        <v>13.42</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="2393" spans="1:5">
@@ -54801,7 +54801,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2393">
-        <v>13.42</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="2394" spans="1:5">
@@ -54818,7 +54818,7 @@
         <v>-13.94</v>
       </c>
       <c r="E2394">
-        <v>13.42</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="2395" spans="1:5">
@@ -55005,7 +55005,7 @@
         <v>11.16</v>
       </c>
       <c r="E2405">
-        <v>-25.16</v>
+        <v>-25.04</v>
       </c>
     </row>
     <row r="2406" spans="1:5">
@@ -55090,7 +55090,7 @@
         <v>-6.68</v>
       </c>
       <c r="E2410">
-        <v>4.42</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="2411" spans="1:5">
@@ -55124,7 +55124,7 @@
         <v>-6.68</v>
       </c>
       <c r="E2412">
-        <v>-7.960000000000001</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="2413" spans="1:5">
@@ -55260,7 +55260,7 @@
         <v>-2.91</v>
       </c>
       <c r="E2420">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="2421" spans="1:5">
@@ -55430,7 +55430,7 @@
         <v>-6.01</v>
       </c>
       <c r="E2430">
-        <v>6.260000000000001</v>
+        <v>6.800000000000001</v>
       </c>
     </row>
     <row r="2431" spans="1:5">
@@ -55549,7 +55549,7 @@
         <v>0.91</v>
       </c>
       <c r="E2437">
-        <v>-0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2438" spans="1:5">
@@ -55600,7 +55600,7 @@
         <v>14.77</v>
       </c>
       <c r="E2440">
-        <v>10.33</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="2441" spans="1:5">
@@ -55617,7 +55617,7 @@
         <v>14.77</v>
       </c>
       <c r="E2441">
-        <v>10.33</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="2442" spans="1:5">
@@ -55634,7 +55634,7 @@
         <v>14.77</v>
       </c>
       <c r="E2442">
-        <v>10.33</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="2443" spans="1:5">
@@ -55651,7 +55651,7 @@
         <v>14.77</v>
       </c>
       <c r="E2443">
-        <v>10.33</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="2444" spans="1:5">
@@ -55668,7 +55668,7 @@
         <v>14.77</v>
       </c>
       <c r="E2444">
-        <v>10.33</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="2445" spans="1:5">
@@ -55685,7 +55685,7 @@
         <v>14.77</v>
       </c>
       <c r="E2445">
-        <v>10.33</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="2446" spans="1:5">
@@ -55753,7 +55753,7 @@
         <v>3.69</v>
       </c>
       <c r="E2449">
-        <v>13.72</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="2450" spans="1:5">
@@ -55821,7 +55821,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2453">
-        <v>55.77</v>
+        <v>57.36</v>
       </c>
     </row>
     <row r="2454" spans="1:5">
@@ -55838,7 +55838,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2454">
-        <v>33.47</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="2455" spans="1:5">
@@ -55855,7 +55855,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2455">
-        <v>55.77</v>
+        <v>57.36</v>
       </c>
     </row>
     <row r="2456" spans="1:5">
@@ -55889,7 +55889,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2457">
-        <v>55.77</v>
+        <v>57.36</v>
       </c>
     </row>
     <row r="2458" spans="1:5">
@@ -55906,7 +55906,7 @@
         <v>-40.1</v>
       </c>
       <c r="E2458">
-        <v>55.77</v>
+        <v>57.36</v>
       </c>
     </row>
     <row r="2459" spans="1:5">
@@ -56076,7 +56076,7 @@
         <v>5.37</v>
       </c>
       <c r="E2468">
-        <v>6.260000000000001</v>
+        <v>6.800000000000001</v>
       </c>
     </row>
     <row r="2469" spans="1:5">
@@ -56093,7 +56093,7 @@
         <v>0</v>
       </c>
       <c r="E2469">
-        <v>36.67</v>
+        <v>37.74</v>
       </c>
     </row>
     <row r="2470" spans="1:5">
@@ -56110,7 +56110,7 @@
         <v>0</v>
       </c>
       <c r="E2470">
-        <v>1.86</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="2471" spans="1:5">
@@ -56229,7 +56229,7 @@
         <v>-5.5</v>
       </c>
       <c r="E2477">
-        <v>8.469999999999999</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="2478" spans="1:5">
@@ -56263,7 +56263,7 @@
         <v>-3.61</v>
       </c>
       <c r="E2479">
-        <v>16.25</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="2480" spans="1:5">
@@ -56467,7 +56467,7 @@
         <v>23.59</v>
       </c>
       <c r="E2491">
-        <v>-18.55</v>
+        <v>-19.09</v>
       </c>
     </row>
     <row r="2492" spans="1:5">
@@ -56518,7 +56518,7 @@
         <v>1.72</v>
       </c>
       <c r="E2494">
-        <v>-8.41</v>
+        <v>-8.649999999999999</v>
       </c>
     </row>
     <row r="2495" spans="1:5">
@@ -56535,7 +56535,7 @@
         <v>1.07</v>
       </c>
       <c r="E2495">
-        <v>-8.76</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="2496" spans="1:5">
@@ -56552,7 +56552,7 @@
         <v>1.52</v>
       </c>
       <c r="E2496">
-        <v>-9.779999999999999</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="2497" spans="1:5">
@@ -56569,7 +56569,7 @@
         <v>-22.22</v>
       </c>
       <c r="E2497">
-        <v>30.3</v>
+        <v>31.21</v>
       </c>
     </row>
     <row r="2498" spans="1:5">
@@ -56603,7 +56603,7 @@
         <v>2.73</v>
       </c>
       <c r="E2499">
-        <v>0.95</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="2500" spans="1:5">
@@ -56654,7 +56654,7 @@
         <v>10.08</v>
       </c>
       <c r="E2502">
-        <v>-7.489999999999999</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="2503" spans="1:5">
@@ -56671,7 +56671,7 @@
         <v>-2.64</v>
       </c>
       <c r="E2503">
-        <v>-21.38</v>
+        <v>-22.06</v>
       </c>
     </row>
     <row r="2504" spans="1:5">
@@ -56875,7 +56875,7 @@
         <v>-1.48</v>
       </c>
       <c r="E2515">
-        <v>-1.69</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="2516" spans="1:5">
@@ -56994,7 +56994,7 @@
         <v>0</v>
       </c>
       <c r="E2522">
-        <v>12.07</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="2523" spans="1:5">
@@ -57062,7 +57062,7 @@
         <v>0</v>
       </c>
       <c r="E2526">
-        <v>12.93</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="2527" spans="1:5">
@@ -57079,7 +57079,7 @@
         <v>0</v>
       </c>
       <c r="E2527">
-        <v>-9.109999999999999</v>
+        <v>-9.289999999999999</v>
       </c>
     </row>
     <row r="2528" spans="1:5">
@@ -57351,7 +57351,7 @@
         <v>0</v>
       </c>
       <c r="E2543">
-        <v>8.08</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="2544" spans="1:5">
@@ -57419,7 +57419,7 @@
         <v>-8.44</v>
       </c>
       <c r="E2547">
-        <v>21.44</v>
+        <v>18.24</v>
       </c>
     </row>
     <row r="2548" spans="1:5">
@@ -57640,7 +57640,7 @@
         <v>33.41</v>
       </c>
       <c r="E2560">
-        <v>10.02</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="2561" spans="1:5">
@@ -57657,7 +57657,7 @@
         <v>5.140000000000001</v>
       </c>
       <c r="E2561">
-        <v>-0.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2562" spans="1:5">
@@ -57674,7 +57674,7 @@
         <v>-12.52</v>
       </c>
       <c r="E2562">
-        <v>12.52</v>
+        <v>14.31</v>
       </c>
     </row>
     <row r="2563" spans="1:5">
@@ -57776,7 +57776,7 @@
         <v>-2.86</v>
       </c>
       <c r="E2568">
-        <v>-0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2569" spans="1:5">
@@ -57963,7 +57963,7 @@
         <v>2.06</v>
       </c>
       <c r="E2579">
-        <v>-5.27</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="2580" spans="1:5">
@@ -58167,7 +58167,7 @@
         <v>-21.06</v>
       </c>
       <c r="E2591">
-        <v>16.73</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="2592" spans="1:5">
@@ -58201,7 +58201,7 @@
         <v>-16.74</v>
       </c>
       <c r="E2593">
-        <v>16.73</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="2594" spans="1:5">
@@ -58235,7 +58235,7 @@
         <v>4.47</v>
       </c>
       <c r="E2595">
-        <v>-23.84</v>
+        <v>-24.5</v>
       </c>
     </row>
     <row r="2596" spans="1:5">
@@ -58286,7 +58286,7 @@
         <v>0</v>
       </c>
       <c r="E2598">
-        <v>-2.33</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="2599" spans="1:5">
@@ -58320,7 +58320,7 @@
         <v>-7.27</v>
       </c>
       <c r="E2600">
-        <v>51.08000000000001</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="2601" spans="1:5">
@@ -58337,7 +58337,7 @@
         <v>-27.88</v>
       </c>
       <c r="E2601">
-        <v>51.08000000000001</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="2602" spans="1:5">
@@ -58388,7 +58388,7 @@
         <v>20.61</v>
       </c>
       <c r="E2604">
-        <v>-6.18</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="2605" spans="1:5">
@@ -58405,7 +58405,7 @@
         <v>20.61</v>
       </c>
       <c r="E2605">
-        <v>-6.18</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="2606" spans="1:5">
@@ -58422,7 +58422,7 @@
         <v>20.61</v>
       </c>
       <c r="E2606">
-        <v>-6.18</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="2607" spans="1:5">
@@ -58439,7 +58439,7 @@
         <v>20.61</v>
       </c>
       <c r="E2607">
-        <v>-6.18</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="2608" spans="1:5">
@@ -58456,7 +58456,7 @@
         <v>-4.61</v>
       </c>
       <c r="E2608">
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="2609" spans="1:5">
@@ -58473,7 +58473,7 @@
         <v>-7.85</v>
       </c>
       <c r="E2609">
-        <v>-9.779999999999999</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="2610" spans="1:5">
@@ -58490,7 +58490,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2610">
-        <v>-8.699999999999999</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="2611" spans="1:5">
@@ -58507,7 +58507,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2611">
-        <v>-3.8</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="2612" spans="1:5">
@@ -58524,7 +58524,7 @@
         <v>16.5</v>
       </c>
       <c r="E2612">
-        <v>-9.379999999999999</v>
+        <v>-8.08</v>
       </c>
     </row>
     <row r="2613" spans="1:5">
@@ -58541,7 +58541,7 @@
         <v>-5.64</v>
       </c>
       <c r="E2613">
-        <v>-8.699999999999999</v>
+        <v>-7.79</v>
       </c>
     </row>
     <row r="2614" spans="1:5">
@@ -58558,7 +58558,7 @@
         <v>-6.69</v>
       </c>
       <c r="E2614">
-        <v>-13.93</v>
+        <v>-14.26</v>
       </c>
     </row>
     <row r="2615" spans="1:5">
@@ -58575,7 +58575,7 @@
         <v>0</v>
       </c>
       <c r="E2615">
-        <v>-0.8200000000000001</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="2616" spans="1:5">
@@ -58592,7 +58592,7 @@
         <v>0</v>
       </c>
       <c r="E2616">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="2617" spans="1:5">
@@ -58609,7 +58609,7 @@
         <v>-5.3</v>
       </c>
       <c r="E2617">
-        <v>5.26</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="2618" spans="1:5">
@@ -58728,7 +58728,7 @@
         <v>2.78</v>
       </c>
       <c r="E2624">
-        <v>-10.31</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="2625" spans="1:5">
@@ -58745,7 +58745,7 @@
         <v>2.78</v>
       </c>
       <c r="E2625">
-        <v>-9.69</v>
+        <v>-8.300000000000001</v>
       </c>
     </row>
     <row r="2626" spans="1:5">
@@ -58762,7 +58762,7 @@
         <v>7.99</v>
       </c>
       <c r="E2626">
-        <v>0.18</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="2627" spans="1:5">
@@ -58779,7 +58779,7 @@
         <v>7.99</v>
       </c>
       <c r="E2627">
-        <v>0.18</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="2628" spans="1:5">
@@ -58796,7 +58796,7 @@
         <v>-3.74</v>
       </c>
       <c r="E2628">
-        <v>0.18</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="2629" spans="1:5">
@@ -58813,7 +58813,7 @@
         <v>7.99</v>
       </c>
       <c r="E2629">
-        <v>0.18</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="2630" spans="1:5">
@@ -58830,7 +58830,7 @@
         <v>0</v>
       </c>
       <c r="E2630">
-        <v>-3.71</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="2631" spans="1:5">
@@ -58864,7 +58864,7 @@
         <v>7.61</v>
       </c>
       <c r="E2632">
-        <v>-6.2</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="2633" spans="1:5">
@@ -58881,7 +58881,7 @@
         <v>7.61</v>
       </c>
       <c r="E2633">
-        <v>-8.07</v>
+        <v>-8.94</v>
       </c>
     </row>
     <row r="2634" spans="1:5">
@@ -58915,7 +58915,7 @@
         <v>0.32</v>
       </c>
       <c r="E2635">
-        <v>-12.1</v>
+        <v>-12.93</v>
       </c>
     </row>
     <row r="2636" spans="1:5">
@@ -58932,7 +58932,7 @@
         <v>0.32</v>
       </c>
       <c r="E2636">
-        <v>-12.1</v>
+        <v>-12.93</v>
       </c>
     </row>
     <row r="2637" spans="1:5">
@@ -58949,7 +58949,7 @@
         <v>23.17</v>
       </c>
       <c r="E2637">
-        <v>-19.39</v>
+        <v>-19.96</v>
       </c>
     </row>
     <row r="2638" spans="1:5">
@@ -58966,7 +58966,7 @@
         <v>0.32</v>
       </c>
       <c r="E2638">
-        <v>-12.1</v>
+        <v>-12.93</v>
       </c>
     </row>
     <row r="2639" spans="1:5">
@@ -58983,7 +58983,7 @@
         <v>-1.13</v>
       </c>
       <c r="E2639">
-        <v>-12.1</v>
+        <v>-12.93</v>
       </c>
     </row>
     <row r="2640" spans="1:5">
@@ -59051,7 +59051,7 @@
         <v>-7.01</v>
       </c>
       <c r="E2643">
-        <v>29.09</v>
+        <v>30.36</v>
       </c>
     </row>
     <row r="2644" spans="1:5">
@@ -59085,7 +59085,7 @@
         <v>0</v>
       </c>
       <c r="E2645">
-        <v>16.02</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="2646" spans="1:5">
@@ -59102,7 +59102,7 @@
         <v>0</v>
       </c>
       <c r="E2646">
-        <v>-9.279999999999999</v>
+        <v>-9.51</v>
       </c>
     </row>
     <row r="2647" spans="1:5">
@@ -59187,7 +59187,7 @@
         <v>0</v>
       </c>
       <c r="E2651">
-        <v>-3.95</v>
+        <v>-4.100000000000001</v>
       </c>
     </row>
     <row r="2652" spans="1:5">
@@ -59323,7 +59323,7 @@
         <v>-6.05</v>
       </c>
       <c r="E2659">
-        <v>-2.94</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="2660" spans="1:5">
@@ -59374,7 +59374,7 @@
         <v>15.32</v>
       </c>
       <c r="E2662">
-        <v>-8.27</v>
+        <v>-8.9</v>
       </c>
     </row>
     <row r="2663" spans="1:5">
@@ -59408,7 +59408,7 @@
         <v>0</v>
       </c>
       <c r="E2664">
-        <v>-4.15</v>
+        <v>-7.149999999999999</v>
       </c>
     </row>
     <row r="2665" spans="1:5">
@@ -59663,7 +59663,7 @@
         <v>0</v>
       </c>
       <c r="E2679">
-        <v>20.83</v>
+        <v>21.45</v>
       </c>
     </row>
     <row r="2680" spans="1:5">
@@ -60020,7 +60020,7 @@
         <v>0</v>
       </c>
       <c r="E2700">
-        <v>5.489999999999999</v>
+        <v>5.600000000000001</v>
       </c>
     </row>
     <row r="2701" spans="1:5">
@@ -60224,7 +60224,7 @@
         <v>0</v>
       </c>
       <c r="E2712">
-        <v>-6.05</v>
+        <v>-6.239999999999999</v>
       </c>
     </row>
     <row r="2713" spans="1:5">
@@ -60241,7 +60241,7 @@
         <v>32.22</v>
       </c>
       <c r="E2713">
-        <v>-10.13</v>
+        <v>-12.03</v>
       </c>
     </row>
     <row r="2714" spans="1:5">
@@ -60445,7 +60445,7 @@
         <v>0</v>
       </c>
       <c r="E2725">
-        <v>-6.39</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="2726" spans="1:5">
@@ -60462,7 +60462,7 @@
         <v>0</v>
       </c>
       <c r="E2726">
-        <v>-6.39</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="2727" spans="1:5">
@@ -60496,7 +60496,7 @@
         <v>0</v>
       </c>
       <c r="E2728">
-        <v>-3.78</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="2729" spans="1:5">
@@ -60819,7 +60819,7 @@
         <v>0</v>
       </c>
       <c r="E2747">
-        <v>0.34</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="2748" spans="1:5">
@@ -61057,7 +61057,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2761">
-        <v>10.66</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2762" spans="1:5">
@@ -61074,7 +61074,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2762">
-        <v>10.66</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2763" spans="1:5">
@@ -61091,7 +61091,7 @@
         <v>-4.69</v>
       </c>
       <c r="E2763">
-        <v>10.66</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2764" spans="1:5">
@@ -61380,7 +61380,7 @@
         <v>6.09</v>
       </c>
       <c r="E2780">
-        <v>-16.82</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="2781" spans="1:5">
@@ -61397,7 +61397,7 @@
         <v>7.180000000000001</v>
       </c>
       <c r="E2781">
-        <v>-2.96</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="2782" spans="1:5">
@@ -61907,7 +61907,7 @@
         <v>0</v>
       </c>
       <c r="E2811">
-        <v>15.48</v>
+        <v>17.67</v>
       </c>
     </row>
     <row r="2812" spans="1:5">
@@ -62230,7 +62230,7 @@
         <v>0</v>
       </c>
       <c r="E2830">
-        <v>-12.3</v>
+        <v>-13.18</v>
       </c>
     </row>
     <row r="2831" spans="1:5">
@@ -62383,7 +62383,7 @@
         <v>-11.22</v>
       </c>
       <c r="E2839">
-        <v>13.36</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="2840" spans="1:5">
@@ -62468,7 +62468,7 @@
         <v>0</v>
       </c>
       <c r="E2844">
-        <v>-5.21</v>
+        <v>-5.319999999999999</v>
       </c>
     </row>
     <row r="2845" spans="1:5">
@@ -62774,7 +62774,7 @@
         <v>-0.8999999999999999</v>
       </c>
       <c r="E2862">
-        <v>1.58</v>
+        <v>4.859999999999999</v>
       </c>
     </row>
     <row r="2863" spans="1:5">
@@ -62944,7 +62944,7 @@
         <v>-0.09</v>
       </c>
       <c r="E2872">
-        <v>14.42</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="2873" spans="1:5">
@@ -62995,7 +62995,7 @@
         <v>0</v>
       </c>
       <c r="E2875">
-        <v>-2.09</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="2876" spans="1:5">
@@ -63012,7 +63012,7 @@
         <v>-2.13</v>
       </c>
       <c r="E2876">
-        <v>-0.33</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="2877" spans="1:5">
@@ -63046,7 +63046,7 @@
         <v>0</v>
       </c>
       <c r="E2878">
-        <v>-12.74</v>
+        <v>-13.13</v>
       </c>
     </row>
     <row r="2879" spans="1:5">
@@ -63131,7 +63131,7 @@
         <v>-0.34</v>
       </c>
       <c r="E2883">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2884" spans="1:5">
@@ -63165,7 +63165,7 @@
         <v>-23.81</v>
       </c>
       <c r="E2885">
-        <v>25</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="2886" spans="1:5">
@@ -63216,7 +63216,7 @@
         <v>-17.74</v>
       </c>
       <c r="E2888">
-        <v>20.94</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="2889" spans="1:5">
@@ -63267,7 +63267,7 @@
         <v>11.01</v>
       </c>
       <c r="E2891">
-        <v>-0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2892" spans="1:5">
@@ -63284,7 +63284,7 @@
         <v>-0.44</v>
       </c>
       <c r="E2892">
-        <v>-0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2893" spans="1:5">
@@ -64202,7 +64202,7 @@
         <v>2.78</v>
       </c>
       <c r="E2946">
-        <v>9.91</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="2947" spans="1:5">
@@ -64678,7 +64678,7 @@
         <v>0</v>
       </c>
       <c r="E2974">
-        <v>41.78</v>
+        <v>42.96</v>
       </c>
     </row>
     <row r="2975" spans="1:5">
@@ -64695,7 +64695,7 @@
         <v>0</v>
       </c>
       <c r="E2975">
-        <v>3.37</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="2976" spans="1:5">
@@ -64712,7 +64712,7 @@
         <v>0</v>
       </c>
       <c r="E2976">
-        <v>3.37</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="2977" spans="1:5">
@@ -64763,7 +64763,7 @@
         <v>-4.01</v>
       </c>
       <c r="E2979">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="2980" spans="1:5">
@@ -64848,7 +64848,7 @@
         <v>17.64</v>
       </c>
       <c r="E2984">
-        <v>6.81</v>
+        <v>7.470000000000001</v>
       </c>
     </row>
     <row r="2985" spans="1:5">
@@ -64865,7 +64865,7 @@
         <v>0</v>
       </c>
       <c r="E2985">
-        <v>-4.26</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="2986" spans="1:5">
@@ -64899,7 +64899,7 @@
         <v>11.89</v>
       </c>
       <c r="E2987">
-        <v>-21.65</v>
+        <v>-27.8</v>
       </c>
     </row>
     <row r="2988" spans="1:5">
@@ -64916,7 +64916,7 @@
         <v>0</v>
       </c>
       <c r="E2988">
-        <v>0</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="2989" spans="1:5">
@@ -64933,7 +64933,7 @@
         <v>1.28</v>
       </c>
       <c r="E2989">
-        <v>-1.47</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="2990" spans="1:5">
@@ -64984,7 +64984,7 @@
         <v>22.81</v>
       </c>
       <c r="E2992">
-        <v>-7.470000000000001</v>
+        <v>-9.77</v>
       </c>
     </row>
     <row r="2993" spans="1:5">
@@ -65018,7 +65018,7 @@
         <v>0.08</v>
       </c>
       <c r="E2994">
-        <v>-8.15</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="2995" spans="1:5">
@@ -65086,7 +65086,7 @@
         <v>0</v>
       </c>
       <c r="E2998">
-        <v>-2.3</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="2999" spans="1:5">
@@ -65103,7 +65103,7 @@
         <v>0</v>
       </c>
       <c r="E2999">
-        <v>-2.3</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="3000" spans="1:5">
@@ -65341,7 +65341,7 @@
         <v>-7.55</v>
       </c>
       <c r="E3013">
-        <v>14.33</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="3014" spans="1:5">
@@ -65392,7 +65392,7 @@
         <v>0</v>
       </c>
       <c r="E3016">
-        <v>7.51</v>
+        <v>8.609999999999999</v>
       </c>
     </row>
     <row r="3017" spans="1:5">
@@ -65426,7 +65426,7 @@
         <v>-4.62</v>
       </c>
       <c r="E3018">
-        <v>1.98</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="3019" spans="1:5">
@@ -66157,7 +66157,7 @@
         <v>-10.12</v>
       </c>
       <c r="E3061">
-        <v>6.850000000000001</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3062" spans="1:5">
@@ -66259,7 +66259,7 @@
         <v>-10.03</v>
       </c>
       <c r="E3067">
-        <v>-10.53</v>
+        <v>-15.48</v>
       </c>
     </row>
     <row r="3068" spans="1:5">
@@ -66276,7 +66276,7 @@
         <v>24.07</v>
       </c>
       <c r="E3068">
-        <v>-6.569999999999999</v>
+        <v>-10.15</v>
       </c>
     </row>
     <row r="3069" spans="1:5">
@@ -66293,7 +66293,7 @@
         <v>0</v>
       </c>
       <c r="E3069">
-        <v>-0.1</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="3070" spans="1:5">
@@ -66310,7 +66310,7 @@
         <v>-2</v>
       </c>
       <c r="E3070">
-        <v>-7.5</v>
+        <v>-10.91</v>
       </c>
     </row>
     <row r="3071" spans="1:5">
@@ -66327,7 +66327,7 @@
         <v>-0.61</v>
       </c>
       <c r="E3071">
-        <v>-0.9199999999999999</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="3072" spans="1:5">
@@ -66344,7 +66344,7 @@
         <v>-19.65</v>
       </c>
       <c r="E3072">
-        <v>40.09</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="3073" spans="1:5">
@@ -66429,7 +66429,7 @@
         <v>0</v>
       </c>
       <c r="E3077">
-        <v>3.49</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="3078" spans="1:5">
@@ -66446,7 +66446,7 @@
         <v>0</v>
       </c>
       <c r="E3078">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="3079" spans="1:5">
@@ -66463,7 +66463,7 @@
         <v>3.58</v>
       </c>
       <c r="E3079">
-        <v>-10.72</v>
+        <v>-12.61</v>
       </c>
     </row>
     <row r="3080" spans="1:5">
@@ -66480,7 +66480,7 @@
         <v>0</v>
       </c>
       <c r="E3080">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="3081" spans="1:5">
@@ -66497,7 +66497,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3081">
-        <v>11.36</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="3082" spans="1:5">
@@ -66531,7 +66531,7 @@
         <v>0</v>
       </c>
       <c r="E3083">
-        <v>0.8099999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="3084" spans="1:5">
@@ -66565,7 +66565,7 @@
         <v>-4.9</v>
       </c>
       <c r="E3085">
-        <v>11.36</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="3086" spans="1:5">
@@ -66633,7 +66633,7 @@
         <v>0</v>
       </c>
       <c r="E3089">
-        <v>-7.66</v>
+        <v>-13.14</v>
       </c>
     </row>
     <row r="3090" spans="1:5">
@@ -66701,7 +66701,7 @@
         <v>-1.5</v>
       </c>
       <c r="E3093">
-        <v>-1.86</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="3094" spans="1:5">
@@ -66735,7 +66735,7 @@
         <v>-0.5700000000000001</v>
       </c>
       <c r="E3095">
-        <v>-0.86</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="3096" spans="1:5">
@@ -66769,7 +66769,7 @@
         <v>-22.35</v>
       </c>
       <c r="E3097">
-        <v>23.96</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="3098" spans="1:5">
@@ -66803,7 +66803,7 @@
         <v>-24.1</v>
       </c>
       <c r="E3099">
-        <v>12.33</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="3100" spans="1:5">
@@ -66820,7 +66820,7 @@
         <v>15.55</v>
       </c>
       <c r="E3100">
-        <v>-31.51</v>
+        <v>-32.39</v>
       </c>
     </row>
     <row r="3101" spans="1:5">
@@ -66837,7 +66837,7 @@
         <v>-2.2</v>
       </c>
       <c r="E3101">
-        <v>3.82</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3102" spans="1:5">
@@ -66854,7 +66854,7 @@
         <v>17.93</v>
       </c>
       <c r="E3102">
-        <v>-4.91</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="3103" spans="1:5">
@@ -66905,7 +66905,7 @@
         <v>-0.53</v>
       </c>
       <c r="E3105">
-        <v>-0.8099999999999999</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="3106" spans="1:5">
@@ -67160,7 +67160,7 @@
         <v>0</v>
       </c>
       <c r="E3120">
-        <v>-4.45</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="3121" spans="1:5">
@@ -67364,7 +67364,7 @@
         <v>0</v>
       </c>
       <c r="E3132">
-        <v>24.5</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="3133" spans="1:5">
@@ -67381,7 +67381,7 @@
         <v>0</v>
       </c>
       <c r="E3133">
-        <v>-3.58</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="3134" spans="1:5">
@@ -67500,7 +67500,7 @@
         <v>-9.51</v>
       </c>
       <c r="E3140">
-        <v>-12.88</v>
+        <v>-13.22</v>
       </c>
     </row>
     <row r="3141" spans="1:5">
@@ -67517,7 +67517,7 @@
         <v>0</v>
       </c>
       <c r="E3141">
-        <v>-12.88</v>
+        <v>-13.22</v>
       </c>
     </row>
     <row r="3142" spans="1:5">
@@ -68044,7 +68044,7 @@
         <v>0</v>
       </c>
       <c r="E3172">
-        <v>3.74</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="3173" spans="1:5">
@@ -68214,7 +68214,7 @@
         <v>0</v>
       </c>
       <c r="E3182">
-        <v>1.58</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="3183" spans="1:5">
@@ -68231,7 +68231,7 @@
         <v>0</v>
       </c>
       <c r="E3183">
-        <v>9.539999999999999</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="3184" spans="1:5">
@@ -68401,7 +68401,7 @@
         <v>7.66</v>
       </c>
       <c r="E3193">
-        <v>-8.369999999999999</v>
+        <v>-9.619999999999999</v>
       </c>
     </row>
     <row r="3194" spans="1:5">
@@ -68418,7 +68418,7 @@
         <v>7.66</v>
       </c>
       <c r="E3194">
-        <v>-8.369999999999999</v>
+        <v>-9.619999999999999</v>
       </c>
     </row>
     <row r="3195" spans="1:5">
@@ -68435,7 +68435,7 @@
         <v>7.66</v>
       </c>
       <c r="E3195">
-        <v>-8.369999999999999</v>
+        <v>-9.619999999999999</v>
       </c>
     </row>
     <row r="3196" spans="1:5">
@@ -68656,7 +68656,7 @@
         <v>-5.76</v>
       </c>
       <c r="E3208">
-        <v>11.45</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="3209" spans="1:5">
@@ -69761,7 +69761,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3273">
-        <v>3.06</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="3274" spans="1:5">
@@ -69778,7 +69778,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3274">
-        <v>3.06</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="3275" spans="1:5">
@@ -69795,7 +69795,7 @@
         <v>-15.95</v>
       </c>
       <c r="E3275">
-        <v>3.06</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="3276" spans="1:5">
@@ -69846,7 +69846,7 @@
         <v>1.91</v>
       </c>
       <c r="E3278">
-        <v>-2.84</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="3279" spans="1:5">
@@ -69863,7 +69863,7 @@
         <v>1.91</v>
       </c>
       <c r="E3279">
-        <v>-2.84</v>
+        <v>-4.89</v>
       </c>
     </row>
     <row r="3280" spans="1:5">
@@ -70084,7 +70084,7 @@
         <v>0</v>
       </c>
       <c r="E3292">
-        <v>-2.38</v>
+        <v>-4.100000000000001</v>
       </c>
     </row>
     <row r="3293" spans="1:5">
@@ -70135,7 +70135,7 @@
         <v>0</v>
       </c>
       <c r="E3295">
-        <v>-2.38</v>
+        <v>-4.100000000000001</v>
       </c>
     </row>
     <row r="3296" spans="1:5">
@@ -70305,7 +70305,7 @@
         <v>8.6</v>
       </c>
       <c r="E3305">
-        <v>-1.36</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="3306" spans="1:5">
@@ -70322,7 +70322,7 @@
         <v>14.8</v>
       </c>
       <c r="E3306">
-        <v>-6.87</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="3307" spans="1:5">
@@ -70356,7 +70356,7 @@
         <v>8.6</v>
       </c>
       <c r="E3308">
-        <v>-7.48</v>
+        <v>-7.920000000000001</v>
       </c>
     </row>
     <row r="3309" spans="1:5">
@@ -70373,7 +70373,7 @@
         <v>11.48</v>
       </c>
       <c r="E3309">
-        <v>-6.87</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="3310" spans="1:5">
@@ -70509,7 +70509,7 @@
         <v>6.79</v>
       </c>
       <c r="E3317">
-        <v>-11.94</v>
+        <v>-12.29</v>
       </c>
     </row>
     <row r="3318" spans="1:5">
@@ -70526,7 +70526,7 @@
         <v>0</v>
       </c>
       <c r="E3318">
-        <v>12.66</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="3319" spans="1:5">
@@ -70594,7 +70594,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="E3322">
-        <v>-22.68</v>
+        <v>-23.32</v>
       </c>
     </row>
     <row r="3323" spans="1:5">
@@ -70662,7 +70662,7 @@
         <v>-4.850000000000001</v>
       </c>
       <c r="E3326">
-        <v>18.45</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="3327" spans="1:5">
@@ -70730,7 +70730,7 @@
         <v>-13.92</v>
       </c>
       <c r="E3330">
-        <v>16.79</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="3331" spans="1:5">
@@ -70747,7 +70747,7 @@
         <v>-4.390000000000001</v>
       </c>
       <c r="E3331">
-        <v>8.01</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="3332" spans="1:5">
@@ -70764,7 +70764,7 @@
         <v>0</v>
       </c>
       <c r="E3332">
-        <v>23.5</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="3333" spans="1:5">
@@ -70832,7 +70832,7 @@
         <v>0</v>
       </c>
       <c r="E3336">
-        <v>-4.55</v>
+        <v>-5.2</v>
       </c>
     </row>
     <row r="3337" spans="1:5">
@@ -70883,7 +70883,7 @@
         <v>-4.95</v>
       </c>
       <c r="E3339">
-        <v>15.13</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="3340" spans="1:5">
@@ -70900,7 +70900,7 @@
         <v>-9.85</v>
       </c>
       <c r="E3340">
-        <v>19.04</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="3341" spans="1:5">
@@ -70917,7 +70917,7 @@
         <v>-15.5</v>
       </c>
       <c r="E3341">
-        <v>18.17</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="3342" spans="1:5">
@@ -70951,7 +70951,7 @@
         <v>4.87</v>
       </c>
       <c r="E3343">
-        <v>18.17</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="3344" spans="1:5">
@@ -70968,7 +70968,7 @@
         <v>4.390000000000001</v>
       </c>
       <c r="E3344">
-        <v>19.93</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="3345" spans="1:5">
@@ -70985,7 +70985,7 @@
         <v>3.89</v>
       </c>
       <c r="E3345">
-        <v>3.66</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3346" spans="1:5">
@@ -71002,7 +71002,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="E3346">
-        <v>18.17</v>
+        <v>18.58</v>
       </c>
     </row>
     <row r="3347" spans="1:5">
@@ -71019,7 +71019,7 @@
         <v>-5.800000000000001</v>
       </c>
       <c r="E3347">
-        <v>19.48</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="3348" spans="1:5">
@@ -71087,7 +71087,7 @@
         <v>12.91</v>
       </c>
       <c r="E3351">
-        <v>-2.75</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="3352" spans="1:5">
@@ -71138,7 +71138,7 @@
         <v>11.23</v>
       </c>
       <c r="E3354">
-        <v>26.03</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="3355" spans="1:5">
@@ -71155,7 +71155,7 @@
         <v>0</v>
       </c>
       <c r="E3355">
-        <v>-14.57</v>
+        <v>-15.08</v>
       </c>
     </row>
     <row r="3356" spans="1:5">
@@ -71393,7 +71393,7 @@
         <v>0</v>
       </c>
       <c r="E3369">
-        <v>4.52</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="3370" spans="1:5">
@@ -71410,7 +71410,7 @@
         <v>0</v>
       </c>
       <c r="E3370">
-        <v>4.52</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="3371" spans="1:5">
@@ -71495,7 +71495,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="E3375">
-        <v>7.52</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="3376" spans="1:5">
@@ -71512,7 +71512,7 @@
         <v>58.7</v>
       </c>
       <c r="E3376">
-        <v>0</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="3377" spans="1:5">
@@ -71529,7 +71529,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="E3377">
-        <v>7.52</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="3378" spans="1:5">
@@ -71546,7 +71546,7 @@
         <v>36</v>
       </c>
       <c r="E3378">
-        <v>7.35</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="3379" spans="1:5">
@@ -71563,7 +71563,7 @@
         <v>12.84</v>
       </c>
       <c r="E3379">
-        <v>7.52</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="3380" spans="1:5">
@@ -71580,7 +71580,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="E3380">
-        <v>7.52</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="3381" spans="1:5">
@@ -71597,7 +71597,7 @@
         <v>58.7</v>
       </c>
       <c r="E3381">
-        <v>0</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="3382" spans="1:5">
@@ -71614,7 +71614,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="E3382">
-        <v>7.52</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="3383" spans="1:5">
@@ -71631,7 +71631,7 @@
         <v>58.7</v>
       </c>
       <c r="E3383">
-        <v>0</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="3384" spans="1:5">
@@ -71648,7 +71648,7 @@
         <v>0</v>
       </c>
       <c r="E3384">
-        <v>4.52</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="3385" spans="1:5">
@@ -71665,7 +71665,7 @@
         <v>0</v>
       </c>
       <c r="E3385">
-        <v>4.52</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="3386" spans="1:5">
@@ -71682,7 +71682,7 @@
         <v>13.89</v>
       </c>
       <c r="E3386">
-        <v>6.1</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="3387" spans="1:5">
@@ -72022,7 +72022,7 @@
         <v>12.2</v>
       </c>
       <c r="E3406">
-        <v>7.61</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="3407" spans="1:5">
@@ -72039,7 +72039,7 @@
         <v>12.2</v>
       </c>
       <c r="E3407">
-        <v>2.17</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="3408" spans="1:5">
@@ -72056,7 +72056,7 @@
         <v>12.2</v>
       </c>
       <c r="E3408">
-        <v>2.17</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="3409" spans="1:5">
@@ -72073,7 +72073,7 @@
         <v>12.2</v>
       </c>
       <c r="E3409">
-        <v>7.61</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="3410" spans="1:5">
@@ -72090,7 +72090,7 @@
         <v>12.2</v>
       </c>
       <c r="E3410">
-        <v>2.17</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="3411" spans="1:5">
@@ -72107,7 +72107,7 @@
         <v>12.2</v>
       </c>
       <c r="E3411">
-        <v>7.61</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="3412" spans="1:5">
@@ -72124,7 +72124,7 @@
         <v>-6.7</v>
       </c>
       <c r="E3412">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3413" spans="1:5">
@@ -72141,7 +72141,7 @@
         <v>-6.08</v>
       </c>
       <c r="E3413">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3414" spans="1:5">
@@ -72175,7 +72175,7 @@
         <v>-12.03</v>
       </c>
       <c r="E3415">
-        <v>10.42</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="3416" spans="1:5">
@@ -72192,7 +72192,7 @@
         <v>-10.65</v>
       </c>
       <c r="E3416">
-        <v>16.56</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="3417" spans="1:5">
@@ -72243,7 +72243,7 @@
         <v>-7.84</v>
       </c>
       <c r="E3419">
-        <v>6.800000000000001</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="3420" spans="1:5">
@@ -72277,7 +72277,7 @@
         <v>-6.329999999999999</v>
       </c>
       <c r="E3421">
-        <v>9.220000000000001</v>
+        <v>8.200000000000001</v>
       </c>
     </row>
     <row r="3422" spans="1:5">
@@ -72294,7 +72294,7 @@
         <v>-5.81</v>
       </c>
       <c r="E3422">
-        <v>11.73</v>
+        <v>9.879999999999999</v>
       </c>
     </row>
     <row r="3423" spans="1:5">
@@ -72328,7 +72328,7 @@
         <v>-9.120000000000001</v>
       </c>
       <c r="E3424">
-        <v>8.359999999999999</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="3425" spans="1:5">
@@ -72362,7 +72362,7 @@
         <v>-1.6</v>
       </c>
       <c r="E3426">
-        <v>0.38</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="3427" spans="1:5">
@@ -72413,7 +72413,7 @@
         <v>11.28</v>
       </c>
       <c r="E3429">
-        <v>-1.89</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="3430" spans="1:5">
@@ -72430,7 +72430,7 @@
         <v>7.88</v>
       </c>
       <c r="E3430">
-        <v>2.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3431" spans="1:5">
@@ -72464,7 +72464,7 @@
         <v>7.960000000000001</v>
       </c>
       <c r="E3432">
-        <v>4.14</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="3433" spans="1:5">
@@ -72481,7 +72481,7 @@
         <v>7.960000000000001</v>
       </c>
       <c r="E3433">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3434" spans="1:5">
@@ -72498,7 +72498,7 @@
         <v>6.510000000000001</v>
       </c>
       <c r="E3434">
-        <v>1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3435" spans="1:5">
@@ -72515,7 +72515,7 @@
         <v>-1.65</v>
       </c>
       <c r="E3435">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="3436" spans="1:5">
@@ -72532,7 +72532,7 @@
         <v>-0.61</v>
       </c>
       <c r="E3436">
-        <v>1.08</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="3437" spans="1:5">
@@ -72566,7 +72566,7 @@
         <v>-1.65</v>
       </c>
       <c r="E3438">
-        <v>22.18</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="3439" spans="1:5">
@@ -72600,7 +72600,7 @@
         <v>-8.32</v>
       </c>
       <c r="E3440">
-        <v>9.77</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="3441" spans="1:5">
@@ -72617,7 +72617,7 @@
         <v>0</v>
       </c>
       <c r="E3441">
-        <v>-9.550000000000001</v>
+        <v>-8.110000000000001</v>
       </c>
     </row>
     <row r="3442" spans="1:5">
@@ -72634,7 +72634,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3442">
-        <v>22.18</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="3443" spans="1:5">
@@ -72651,7 +72651,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3443">
-        <v>11.44</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="3444" spans="1:5">
@@ -72668,7 +72668,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E3444">
-        <v>25.18</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="3445" spans="1:5">
@@ -72685,7 +72685,7 @@
         <v>-6.800000000000001</v>
       </c>
       <c r="E3445">
-        <v>11.44</v>
+        <v>9.869999999999999</v>
       </c>
     </row>
     <row r="3446" spans="1:5">
@@ -72702,7 +72702,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E3446">
-        <v>14.39</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="3447" spans="1:5">
@@ -72719,7 +72719,7 @@
         <v>-3.98</v>
       </c>
       <c r="E3447">
-        <v>14.31</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="3448" spans="1:5">
@@ -72753,7 +72753,7 @@
         <v>0</v>
       </c>
       <c r="E3449">
-        <v>0.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3450" spans="1:5">
@@ -72770,7 +72770,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="E3450">
-        <v>0</v>
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="3451" spans="1:5">
@@ -72787,7 +72787,7 @@
         <v>1.4</v>
       </c>
       <c r="E3451">
-        <v>-0.46</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="3452" spans="1:5">
@@ -72804,7 +72804,7 @@
         <v>2.07</v>
       </c>
       <c r="E3452">
-        <v>1.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3453" spans="1:5">
@@ -72821,7 +72821,7 @@
         <v>0.59</v>
       </c>
       <c r="E3453">
-        <v>-1.76</v>
+        <v>-3.52</v>
       </c>
     </row>
     <row r="3454" spans="1:5">
@@ -72838,7 +72838,7 @@
         <v>11.49</v>
       </c>
       <c r="E3454">
-        <v>-7.27</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="3455" spans="1:5">
@@ -72855,7 +72855,7 @@
         <v>0</v>
       </c>
       <c r="E3455">
-        <v>-3.83</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="3456" spans="1:5">
@@ -72872,7 +72872,7 @@
         <v>1.4</v>
       </c>
       <c r="E3456">
-        <v>0.9199999999999999</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="3457" spans="1:5">
@@ -72889,7 +72889,7 @@
         <v>0</v>
       </c>
       <c r="E3457">
-        <v>0</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="3458" spans="1:5">
@@ -72906,7 +72906,7 @@
         <v>-1.4</v>
       </c>
       <c r="E3458">
-        <v>1.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3459" spans="1:5">
@@ -72923,7 +72923,7 @@
         <v>-7.69</v>
       </c>
       <c r="E3459">
-        <v>0.64</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="3460" spans="1:5">
@@ -72957,7 +72957,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3461">
-        <v>22.18</v>
+        <v>19.25</v>
       </c>
     </row>
     <row r="3462" spans="1:5">
@@ -72974,7 +72974,7 @@
         <v>-3.59</v>
       </c>
       <c r="E3462">
-        <v>5.72</v>
+        <v>4.859999999999999</v>
       </c>
     </row>
     <row r="3463" spans="1:5">
@@ -73008,7 +73008,7 @@
         <v>-27.13</v>
       </c>
       <c r="E3464">
-        <v>51.91</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="3465" spans="1:5">
@@ -73059,7 +73059,7 @@
         <v>-12.45</v>
       </c>
       <c r="E3467">
-        <v>28.03</v>
+        <v>23.85</v>
       </c>
     </row>
     <row r="3468" spans="1:5">
@@ -73314,7 +73314,7 @@
         <v>-11.38</v>
       </c>
       <c r="E3482">
-        <v>9.34</v>
+        <v>7.779999999999999</v>
       </c>
     </row>
     <row r="3483" spans="1:5">
@@ -73671,7 +73671,7 @@
         <v>4.06</v>
       </c>
       <c r="E3503">
-        <v>0</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="3504" spans="1:5">
@@ -73739,7 +73739,7 @@
         <v>0</v>
       </c>
       <c r="E3507">
-        <v>-2.39</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="3508" spans="1:5">
@@ -73756,7 +73756,7 @@
         <v>0</v>
       </c>
       <c r="E3508">
-        <v>-2.39</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="3509" spans="1:5">
@@ -74045,7 +74045,7 @@
         <v>4.67</v>
       </c>
       <c r="E3525">
-        <v>-3.02</v>
+        <v>-5.220000000000001</v>
       </c>
     </row>
     <row r="3526" spans="1:5">
@@ -74130,7 +74130,7 @@
         <v>-3.69</v>
       </c>
       <c r="E3530">
-        <v>0</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="3531" spans="1:5">
@@ -74215,7 +74215,7 @@
         <v>4.67</v>
       </c>
       <c r="E3535">
-        <v>-3.02</v>
+        <v>-5.220000000000001</v>
       </c>
     </row>
     <row r="3536" spans="1:5">
@@ -74283,7 +74283,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3539">
-        <v>31.28</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="3540" spans="1:5">
@@ -74300,7 +74300,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3540">
-        <v>18.03</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="3541" spans="1:5">
@@ -74317,7 +74317,7 @@
         <v>-21.13</v>
       </c>
       <c r="E3541">
-        <v>25.05</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="3542" spans="1:5">
@@ -74334,7 +74334,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3542">
-        <v>20.87</v>
+        <v>19.03</v>
       </c>
     </row>
     <row r="3543" spans="1:5">
@@ -74351,7 +74351,7 @@
         <v>-15.16</v>
       </c>
       <c r="E3543">
-        <v>18.03</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="3544" spans="1:5">
@@ -74385,7 +74385,7 @@
         <v>-27.25</v>
       </c>
       <c r="E3545">
-        <v>17.46</v>
+        <v>22.37</v>
       </c>
     </row>
     <row r="3546" spans="1:5">
@@ -74402,7 +74402,7 @@
         <v>-27.25</v>
       </c>
       <c r="E3546">
-        <v>43.73</v>
+        <v>44.92</v>
       </c>
     </row>
     <row r="3547" spans="1:5">
@@ -74436,7 +74436,7 @@
         <v>0</v>
       </c>
       <c r="E3548">
-        <v>-1.73</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="3549" spans="1:5">
@@ -74453,7 +74453,7 @@
         <v>0</v>
       </c>
       <c r="E3549">
-        <v>-5.37</v>
+        <v>-9.220000000000001</v>
       </c>
     </row>
     <row r="3550" spans="1:5">
@@ -74606,7 +74606,7 @@
         <v>0</v>
       </c>
       <c r="E3558">
-        <v>-6.04</v>
+        <v>-10.36</v>
       </c>
     </row>
     <row r="3559" spans="1:5">
@@ -74861,7 +74861,7 @@
         <v>0</v>
       </c>
       <c r="E3573">
-        <v>-4.100000000000001</v>
+        <v>-7.049999999999999</v>
       </c>
     </row>
     <row r="3574" spans="1:5">
@@ -74878,7 +74878,7 @@
         <v>-0.53</v>
       </c>
       <c r="E3574">
-        <v>-2.13</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="3575" spans="1:5">
@@ -74895,7 +74895,7 @@
         <v>-0.53</v>
       </c>
       <c r="E3575">
-        <v>-2.13</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="3576" spans="1:5">
@@ -74912,7 +74912,7 @@
         <v>-14.67</v>
       </c>
       <c r="E3576">
-        <v>10.42</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="3577" spans="1:5">
@@ -75133,7 +75133,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3589">
-        <v>9.93</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="3590" spans="1:5">
@@ -75150,7 +75150,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3590">
-        <v>9.93</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="3591" spans="1:5">
@@ -75167,7 +75167,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3591">
-        <v>9.93</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="3592" spans="1:5">
@@ -75184,7 +75184,7 @@
         <v>-13.86</v>
       </c>
       <c r="E3592">
-        <v>9.93</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="3593" spans="1:5">
@@ -75201,7 +75201,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="E3593">
-        <v>-24.01</v>
+        <v>-24.73</v>
       </c>
     </row>
     <row r="3594" spans="1:5">
@@ -75218,7 +75218,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3594">
-        <v>-19.08</v>
+        <v>-19.85</v>
       </c>
     </row>
     <row r="3595" spans="1:5">
@@ -75235,7 +75235,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3595">
-        <v>-19.08</v>
+        <v>-19.85</v>
       </c>
     </row>
     <row r="3596" spans="1:5">
@@ -75252,7 +75252,7 @@
         <v>-2.24</v>
       </c>
       <c r="E3596">
-        <v>-19.08</v>
+        <v>-19.85</v>
       </c>
     </row>
     <row r="3597" spans="1:5">
@@ -75286,7 +75286,7 @@
         <v>0</v>
       </c>
       <c r="E3598">
-        <v>3.12</v>
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="3599" spans="1:5">
@@ -75388,7 +75388,7 @@
         <v>-7.77</v>
       </c>
       <c r="E3604">
-        <v>5.11</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="3605" spans="1:5">
@@ -75643,7 +75643,7 @@
         <v>0</v>
       </c>
       <c r="E3619">
-        <v>-18.31</v>
+        <v>-20.9</v>
       </c>
     </row>
     <row r="3620" spans="1:5">
@@ -75660,7 +75660,7 @@
         <v>0</v>
       </c>
       <c r="E3620">
-        <v>-18.31</v>
+        <v>-20.9</v>
       </c>
     </row>
     <row r="3621" spans="1:5">
@@ -75677,7 +75677,7 @@
         <v>0</v>
       </c>
       <c r="E3621">
-        <v>-18.31</v>
+        <v>-20.9</v>
       </c>
     </row>
     <row r="3622" spans="1:5">
@@ -75694,7 +75694,7 @@
         <v>0</v>
       </c>
       <c r="E3622">
-        <v>-18.31</v>
+        <v>-20.9</v>
       </c>
     </row>
     <row r="3623" spans="1:5">
@@ -75762,7 +75762,7 @@
         <v>-3.32</v>
       </c>
       <c r="E3626">
-        <v>-23.56</v>
+        <v>-23.64</v>
       </c>
     </row>
     <row r="3627" spans="1:5">
@@ -75847,7 +75847,7 @@
         <v>0</v>
       </c>
       <c r="E3631">
-        <v>-11.87</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="3632" spans="1:5">
@@ -75864,7 +75864,7 @@
         <v>0</v>
       </c>
       <c r="E3632">
-        <v>-11.87</v>
+        <v>-12.23</v>
       </c>
     </row>
     <row r="3633" spans="1:5">
@@ -75949,7 +75949,7 @@
         <v>-12.01</v>
       </c>
       <c r="E3637">
-        <v>4.18</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="3638" spans="1:5">
@@ -75966,7 +75966,7 @@
         <v>0</v>
       </c>
       <c r="E3638">
-        <v>-3.09</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="3639" spans="1:5">
@@ -75983,7 +75983,7 @@
         <v>-13.45</v>
       </c>
       <c r="E3639">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3640" spans="1:5">
@@ -76000,7 +76000,7 @@
         <v>-1.77</v>
       </c>
       <c r="E3640">
-        <v>-10.08</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="3641" spans="1:5">
@@ -76017,7 +76017,7 @@
         <v>23.77</v>
       </c>
       <c r="E3641">
-        <v>-14.76</v>
+        <v>-15.84</v>
       </c>
     </row>
     <row r="3642" spans="1:5">
@@ -76119,7 +76119,7 @@
         <v>0</v>
       </c>
       <c r="E3647">
-        <v>0</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="3648" spans="1:5">
@@ -76136,7 +76136,7 @@
         <v>0</v>
       </c>
       <c r="E3648">
-        <v>-3.6</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="3649" spans="1:5">
@@ -76170,7 +76170,7 @@
         <v>0</v>
       </c>
       <c r="E3650">
-        <v>-3.97</v>
+        <v>-6.81</v>
       </c>
     </row>
     <row r="3651" spans="1:5">
@@ -76187,7 +76187,7 @@
         <v>0</v>
       </c>
       <c r="E3651">
-        <v>-3.6</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="3652" spans="1:5">
@@ -76221,7 +76221,7 @@
         <v>2.44</v>
       </c>
       <c r="E3653">
-        <v>-5.57</v>
+        <v>-5.970000000000001</v>
       </c>
     </row>
     <row r="3654" spans="1:5">
@@ -76238,7 +76238,7 @@
         <v>8.200000000000001</v>
       </c>
       <c r="E3654">
-        <v>-4.37</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="3655" spans="1:5">
@@ -76255,7 +76255,7 @@
         <v>15.77</v>
       </c>
       <c r="E3655">
-        <v>-6.140000000000001</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="3656" spans="1:5">
@@ -76425,7 +76425,7 @@
         <v>0</v>
       </c>
       <c r="E3665">
-        <v>-5.13</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="3666" spans="1:5">
@@ -76510,7 +76510,7 @@
         <v>-7.28</v>
       </c>
       <c r="E3670">
-        <v>2.38</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="3671" spans="1:5">
@@ -76527,7 +76527,7 @@
         <v>0</v>
       </c>
       <c r="E3671">
-        <v>20.91</v>
+        <v>22.24</v>
       </c>
     </row>
     <row r="3672" spans="1:5">
@@ -76544,7 +76544,7 @@
         <v>4.7</v>
       </c>
       <c r="E3672">
-        <v>-1.18</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="3673" spans="1:5">
@@ -76561,7 +76561,7 @@
         <v>-4.19</v>
       </c>
       <c r="E3673">
-        <v>0</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="3674" spans="1:5">
@@ -76578,7 +76578,7 @@
         <v>0</v>
       </c>
       <c r="E3674">
-        <v>-21.38</v>
+        <v>-18.4</v>
       </c>
     </row>
     <row r="3675" spans="1:5">
@@ -76612,7 +76612,7 @@
         <v>0</v>
       </c>
       <c r="E3676">
-        <v>-21.38</v>
+        <v>-22.06</v>
       </c>
     </row>
     <row r="3677" spans="1:5">
@@ -76663,7 +76663,7 @@
         <v>2.99</v>
       </c>
       <c r="E3679">
-        <v>-2.66</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="3680" spans="1:5">
@@ -76680,7 +76680,7 @@
         <v>0</v>
       </c>
       <c r="E3680">
-        <v>-5.220000000000001</v>
+        <v>-8.94</v>
       </c>
     </row>
     <row r="3681" spans="1:5">
@@ -76714,7 +76714,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3682">
-        <v>8.720000000000001</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="3683" spans="1:5">
@@ -76748,7 +76748,7 @@
         <v>-12.51</v>
       </c>
       <c r="E3684">
-        <v>8.720000000000001</v>
+        <v>9.529999999999999</v>
       </c>
     </row>
     <row r="3685" spans="1:5">
@@ -76765,7 +76765,7 @@
         <v>-0.18</v>
       </c>
       <c r="E3685">
-        <v>3.07</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="3686" spans="1:5">
@@ -76782,7 +76782,7 @@
         <v>2.36</v>
       </c>
       <c r="E3686">
-        <v>-0.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3687" spans="1:5">
@@ -76969,7 +76969,7 @@
         <v>47.34</v>
       </c>
       <c r="E3697">
-        <v>-2.01</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="3698" spans="1:5">
@@ -76986,7 +76986,7 @@
         <v>0</v>
       </c>
       <c r="E3698">
-        <v>-3.11</v>
+        <v>-3.54</v>
       </c>
     </row>
     <row r="3699" spans="1:5">
@@ -77598,7 +77598,7 @@
         <v>0</v>
       </c>
       <c r="E3734">
-        <v>1.77</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="3735" spans="1:5">
@@ -77938,7 +77938,7 @@
         <v>21.42</v>
       </c>
       <c r="E3754">
-        <v>-21.97</v>
+        <v>-22.6</v>
       </c>
     </row>
     <row r="3755" spans="1:5">
@@ -78040,7 +78040,7 @@
         <v>0</v>
       </c>
       <c r="E3760">
-        <v>-10.03</v>
+        <v>-10.33</v>
       </c>
     </row>
     <row r="3761" spans="1:5">
@@ -78142,7 +78142,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3766">
-        <v>3.93</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3767" spans="1:5">
@@ -78159,7 +78159,7 @@
         <v>-8.59</v>
       </c>
       <c r="E3767">
-        <v>3.93</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3768" spans="1:5">
@@ -78261,7 +78261,7 @@
         <v>0</v>
       </c>
       <c r="E3773">
-        <v>25.03</v>
+        <v>25.74</v>
       </c>
     </row>
     <row r="3774" spans="1:5">
@@ -78312,7 +78312,7 @@
         <v>10.08</v>
       </c>
       <c r="E3776">
-        <v>-7.489999999999999</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="3777" spans="1:5">
@@ -78380,7 +78380,7 @@
         <v>-15.35</v>
       </c>
       <c r="E3780">
-        <v>-8.91</v>
+        <v>-11.18</v>
       </c>
     </row>
     <row r="3781" spans="1:5">
@@ -78635,7 +78635,7 @@
         <v>6.859999999999999</v>
       </c>
       <c r="E3795">
-        <v>-20.88</v>
+        <v>-21.48</v>
       </c>
     </row>
     <row r="3796" spans="1:5">
@@ -78652,7 +78652,7 @@
         <v>-2.27</v>
       </c>
       <c r="E3796">
-        <v>-5.220000000000001</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="3797" spans="1:5">
@@ -78890,7 +78890,7 @@
         <v>0</v>
       </c>
       <c r="E3810">
-        <v>17.32</v>
+        <v>14.86</v>
       </c>
     </row>
     <row r="3811" spans="1:5">
@@ -79060,7 +79060,7 @@
         <v>-5.24</v>
       </c>
       <c r="E3820">
-        <v>-12.51</v>
+        <v>-13.3</v>
       </c>
     </row>
     <row r="3821" spans="1:5">
@@ -79077,7 +79077,7 @@
         <v>-5.24</v>
       </c>
       <c r="E3821">
-        <v>-12.51</v>
+        <v>-13.3</v>
       </c>
     </row>
     <row r="3822" spans="1:5">
@@ -79094,7 +79094,7 @@
         <v>-5.24</v>
       </c>
       <c r="E3822">
-        <v>-12.51</v>
+        <v>-13.3</v>
       </c>
     </row>
     <row r="3823" spans="1:5">
@@ -79111,7 +79111,7 @@
         <v>0.51</v>
       </c>
       <c r="E3823">
-        <v>-21.27</v>
+        <v>-21.99</v>
       </c>
     </row>
     <row r="3824" spans="1:5">
@@ -79128,7 +79128,7 @@
         <v>0</v>
       </c>
       <c r="E3824">
-        <v>-3.3</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="3825" spans="1:5">
@@ -79196,7 +79196,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3828">
-        <v>3.21</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="3829" spans="1:5">
@@ -79213,7 +79213,7 @@
         <v>-4.98</v>
       </c>
       <c r="E3829">
-        <v>3.21</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="3830" spans="1:5">
@@ -79451,7 +79451,7 @@
         <v>0.52</v>
       </c>
       <c r="E3843">
-        <v>-12.57</v>
+        <v>-12.9</v>
       </c>
     </row>
     <row r="3844" spans="1:5">
@@ -79468,7 +79468,7 @@
         <v>-12.85</v>
       </c>
       <c r="E3844">
-        <v>12.3</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="3845" spans="1:5">
@@ -79519,7 +79519,7 @@
         <v>1.05</v>
       </c>
       <c r="E3847">
-        <v>-15.09</v>
+        <v>-15.52</v>
       </c>
     </row>
     <row r="3848" spans="1:5">
@@ -79944,7 +79944,7 @@
         <v>-19.69</v>
       </c>
       <c r="E3872">
-        <v>47.53</v>
+        <v>48.82</v>
       </c>
     </row>
     <row r="3873" spans="1:5">
@@ -79961,7 +79961,7 @@
         <v>-10.89</v>
       </c>
       <c r="E3873">
-        <v>23.51</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="3874" spans="1:5">
@@ -80063,7 +80063,7 @@
         <v>8.32</v>
       </c>
       <c r="E3879">
-        <v>-29.22</v>
+        <v>-30.05</v>
       </c>
     </row>
     <row r="3880" spans="1:5">
@@ -80080,7 +80080,7 @@
         <v>8.32</v>
       </c>
       <c r="E3880">
-        <v>-29.22</v>
+        <v>-30.05</v>
       </c>
     </row>
     <row r="3881" spans="1:5">
@@ -80097,7 +80097,7 @@
         <v>8.32</v>
       </c>
       <c r="E3881">
-        <v>-29.22</v>
+        <v>-30.05</v>
       </c>
     </row>
     <row r="3882" spans="1:5">
@@ -80131,7 +80131,7 @@
         <v>-13.77</v>
       </c>
       <c r="E3883">
-        <v>18.49</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="3884" spans="1:5">
@@ -80301,7 +80301,7 @@
         <v>0</v>
       </c>
       <c r="E3893">
-        <v>7.380000000000001</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="3894" spans="1:5">
@@ -80335,7 +80335,7 @@
         <v>2.48</v>
       </c>
       <c r="E3895">
-        <v>7.380000000000001</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="3896" spans="1:5">
@@ -80573,7 +80573,7 @@
         <v>-9.93</v>
       </c>
       <c r="E3909">
-        <v>2.94</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="3910" spans="1:5">
@@ -80590,7 +80590,7 @@
         <v>0</v>
       </c>
       <c r="E3910">
-        <v>-4.43</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="3911" spans="1:5">
@@ -80947,7 +80947,7 @@
         <v>-1.41</v>
       </c>
       <c r="E3931">
-        <v>-3.14</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="3932" spans="1:5">
@@ -80998,7 +80998,7 @@
         <v>1.13</v>
       </c>
       <c r="E3934">
-        <v>-2.79</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="3935" spans="1:5">
@@ -81032,7 +81032,7 @@
         <v>8.790000000000001</v>
       </c>
       <c r="E3936">
-        <v>5.58</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="3937" spans="1:5">
@@ -81066,7 +81066,7 @@
         <v>8.790000000000001</v>
       </c>
       <c r="E3938">
-        <v>2.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3939" spans="1:5">
@@ -81440,7 +81440,7 @@
         <v>0</v>
       </c>
       <c r="E3960">
-        <v>0</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="3961" spans="1:5">
@@ -81457,7 +81457,7 @@
         <v>-1.07</v>
       </c>
       <c r="E3961">
-        <v>0</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="3962" spans="1:5">
@@ -81576,7 +81576,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3968">
-        <v>-1.15</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="3969" spans="1:5">
@@ -81593,7 +81593,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3969">
-        <v>-1.15</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="3970" spans="1:5">
@@ -81610,7 +81610,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3970">
-        <v>-1.15</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="3971" spans="1:5">
@@ -81627,7 +81627,7 @@
         <v>-5.899999999999999</v>
       </c>
       <c r="E3971">
-        <v>-1.15</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="3972" spans="1:5">
@@ -82120,7 +82120,7 @@
         <v>-4.01</v>
       </c>
       <c r="E4000">
-        <v>1.79</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="4001" spans="1:5">
@@ -82273,7 +82273,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4009">
-        <v>13.72</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="4010" spans="1:5">
@@ -82290,7 +82290,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4010">
-        <v>13.72</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="4011" spans="1:5">
@@ -82307,7 +82307,7 @@
         <v>-16.43</v>
       </c>
       <c r="E4011">
-        <v>13.72</v>
+        <v>11.79</v>
       </c>
     </row>
     <row r="4012" spans="1:5">
@@ -82613,7 +82613,7 @@
         <v>-17.74</v>
       </c>
       <c r="E4029">
-        <v>20.94</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="4030" spans="1:5">
@@ -82681,7 +82681,7 @@
         <v>12.06</v>
       </c>
       <c r="E4033">
-        <v>20.35</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="4034" spans="1:5">
@@ -82698,7 +82698,7 @@
         <v>68.61</v>
       </c>
       <c r="E4034">
-        <v>20.35</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="4035" spans="1:5">
@@ -82715,7 +82715,7 @@
         <v>68.61</v>
       </c>
       <c r="E4035">
-        <v>20.35</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="4036" spans="1:5">
@@ -82732,7 +82732,7 @@
         <v>60.13</v>
       </c>
       <c r="E4036">
-        <v>16.46</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="4037" spans="1:5">
@@ -82749,7 +82749,7 @@
         <v>68.61</v>
       </c>
       <c r="E4037">
-        <v>20.35</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="4038" spans="1:5">
@@ -82783,7 +82783,7 @@
         <v>68.61</v>
       </c>
       <c r="E4039">
-        <v>20.35</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="4040" spans="1:5">
@@ -82800,7 +82800,7 @@
         <v>68.61</v>
       </c>
       <c r="E4040">
-        <v>20.35</v>
+        <v>14.38</v>
       </c>
     </row>
     <row r="4041" spans="1:5">
@@ -83089,7 +83089,7 @@
         <v>0</v>
       </c>
       <c r="E4057">
-        <v>-1.55</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="4058" spans="1:5">
@@ -83106,7 +83106,7 @@
         <v>0</v>
       </c>
       <c r="E4058">
-        <v>2.94</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="4059" spans="1:5">
@@ -83123,7 +83123,7 @@
         <v>0</v>
       </c>
       <c r="E4059">
-        <v>-13.94</v>
+        <v>-15.96</v>
       </c>
     </row>
     <row r="4060" spans="1:5">
@@ -83140,7 +83140,7 @@
         <v>0</v>
       </c>
       <c r="E4060">
-        <v>-0.46</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="4061" spans="1:5">
@@ -83157,7 +83157,7 @@
         <v>36.27</v>
       </c>
       <c r="E4061">
-        <v>-3.11</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="4062" spans="1:5">
@@ -83174,7 +83174,7 @@
         <v>15.42</v>
       </c>
       <c r="E4062">
-        <v>-21.92</v>
+        <v>-22.51</v>
       </c>
     </row>
     <row r="4063" spans="1:5">
@@ -83191,7 +83191,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4063">
-        <v>6.41</v>
+        <v>6.619999999999999</v>
       </c>
     </row>
     <row r="4064" spans="1:5">
@@ -83208,7 +83208,7 @@
         <v>-30.14</v>
       </c>
       <c r="E4064">
-        <v>6.41</v>
+        <v>6.619999999999999</v>
       </c>
     </row>
     <row r="4065" spans="1:5">
@@ -83225,7 +83225,7 @@
         <v>22.24</v>
       </c>
       <c r="E4065">
-        <v>-17.93</v>
+        <v>-17.88</v>
       </c>
     </row>
     <row r="4066" spans="1:5">
@@ -83242,7 +83242,7 @@
         <v>49.82</v>
       </c>
       <c r="E4066">
-        <v>-9.5</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="4067" spans="1:5">
@@ -83259,7 +83259,7 @@
         <v>0</v>
       </c>
       <c r="E4067">
-        <v>-8.799999999999999</v>
+        <v>-9.07</v>
       </c>
     </row>
     <row r="4068" spans="1:5">
@@ -83276,7 +83276,7 @@
         <v>3.42</v>
       </c>
       <c r="E4068">
-        <v>-12.86</v>
+        <v>-13.16</v>
       </c>
     </row>
     <row r="4069" spans="1:5">
@@ -83293,7 +83293,7 @@
         <v>0</v>
       </c>
       <c r="E4069">
-        <v>-8.799999999999999</v>
+        <v>-9.07</v>
       </c>
     </row>
     <row r="4070" spans="1:5">
@@ -83412,7 +83412,7 @@
         <v>6.36</v>
       </c>
       <c r="E4076">
-        <v>7.61</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="4077" spans="1:5">
@@ -83565,7 +83565,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4085">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4086" spans="1:5">
@@ -83582,7 +83582,7 @@
         <v>-1.4</v>
       </c>
       <c r="E4086">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4087" spans="1:5">
@@ -83650,7 +83650,7 @@
         <v>-7.16</v>
       </c>
       <c r="E4090">
-        <v>3.23</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="4091" spans="1:5">
@@ -83684,7 +83684,7 @@
         <v>0</v>
       </c>
       <c r="E4092">
-        <v>-3.41</v>
+        <v>-5.81</v>
       </c>
     </row>
     <row r="4093" spans="1:5">
@@ -83786,7 +83786,7 @@
         <v>-3.08</v>
       </c>
       <c r="E4098">
-        <v>2.15</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="4099" spans="1:5">
@@ -83820,7 +83820,7 @@
         <v>-3.9</v>
       </c>
       <c r="E4100">
-        <v>35.8</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="4101" spans="1:5">
@@ -83871,7 +83871,7 @@
         <v>-2.87</v>
       </c>
       <c r="E4103">
-        <v>9.180000000000001</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="4104" spans="1:5">
@@ -83973,7 +83973,7 @@
         <v>0</v>
       </c>
       <c r="E4109">
-        <v>7.000000000000001</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="4110" spans="1:5">
@@ -84126,7 +84126,7 @@
         <v>0</v>
       </c>
       <c r="E4118">
-        <v>10.9</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="4119" spans="1:5">
@@ -85894,7 +85894,7 @@
         <v>0</v>
       </c>
       <c r="E4222">
-        <v>9</v>
+        <v>7.720000000000001</v>
       </c>
     </row>
     <row r="4223" spans="1:5">
@@ -85911,7 +85911,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="E4223">
-        <v>-1.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4224" spans="1:5">
@@ -86897,7 +86897,7 @@
         <v>0</v>
       </c>
       <c r="E4281">
-        <v>11.14</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="4282" spans="1:5">
@@ -87951,7 +87951,7 @@
         <v>3.35</v>
       </c>
       <c r="E4343">
-        <v>-0.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4344" spans="1:5">
@@ -88138,7 +88138,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4354">
-        <v>16.73</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="4355" spans="1:5">
@@ -88155,7 +88155,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4355">
-        <v>16.73</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="4356" spans="1:5">
@@ -88172,7 +88172,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4356">
-        <v>16.73</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="4357" spans="1:5">
@@ -88189,7 +88189,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4357">
-        <v>16.73</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="4358" spans="1:5">
@@ -88206,7 +88206,7 @@
         <v>-14.7</v>
       </c>
       <c r="E4358">
-        <v>16.73</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="4359" spans="1:5">
@@ -88240,7 +88240,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4360">
-        <v>23.3</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="4361" spans="1:5">
@@ -88257,7 +88257,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4361">
-        <v>23.3</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="4362" spans="1:5">
@@ -88274,7 +88274,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4362">
-        <v>23.3</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="4363" spans="1:5">
@@ -88291,7 +88291,7 @@
         <v>-19.33</v>
       </c>
       <c r="E4363">
-        <v>23.3</v>
+        <v>23.97</v>
       </c>
     </row>
     <row r="4364" spans="1:5">
@@ -89362,7 +89362,7 @@
         <v>-3.85</v>
       </c>
       <c r="E4426">
-        <v>22.92</v>
+        <v>20.21</v>
       </c>
     </row>
     <row r="4427" spans="1:5">
@@ -89464,7 +89464,7 @@
         <v>20.13</v>
       </c>
       <c r="E4432">
-        <v>22.35</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="4433" spans="1:5">
@@ -89532,7 +89532,7 @@
         <v>0</v>
       </c>
       <c r="E4436">
-        <v>0</v>
+        <v>-5.36</v>
       </c>
     </row>
     <row r="4437" spans="1:5">
@@ -89566,7 +89566,7 @@
         <v>7.99</v>
       </c>
       <c r="E4438">
-        <v>3.18</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="4439" spans="1:5">
@@ -89600,7 +89600,7 @@
         <v>13.83</v>
       </c>
       <c r="E4440">
-        <v>6.01</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="4441" spans="1:5">
@@ -89617,7 +89617,7 @@
         <v>5.28</v>
       </c>
       <c r="E4441">
-        <v>0.44</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="4442" spans="1:5">
@@ -89634,7 +89634,7 @@
         <v>0</v>
       </c>
       <c r="E4442">
-        <v>1.87</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="4443" spans="1:5">
@@ -89719,7 +89719,7 @@
         <v>18.14</v>
       </c>
       <c r="E4447">
-        <v>3.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4448" spans="1:5">
@@ -89804,7 +89804,7 @@
         <v>38</v>
       </c>
       <c r="E4452">
-        <v>-5.220000000000001</v>
+        <v>-8.94</v>
       </c>
     </row>
     <row r="4453" spans="1:5">
@@ -89855,7 +89855,7 @@
         <v>0</v>
       </c>
       <c r="E4455">
-        <v>0</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="4456" spans="1:5">
@@ -89872,7 +89872,7 @@
         <v>20.89</v>
       </c>
       <c r="E4456">
-        <v>1.82</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="4457" spans="1:5">
@@ -89923,7 +89923,7 @@
         <v>8.74</v>
       </c>
       <c r="E4459">
-        <v>4.02</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="4460" spans="1:5">
@@ -89957,7 +89957,7 @@
         <v>20.79</v>
       </c>
       <c r="E4461">
-        <v>8.609999999999999</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="4462" spans="1:5">
@@ -89974,7 +89974,7 @@
         <v>17.67</v>
       </c>
       <c r="E4462">
-        <v>9.180000000000001</v>
+        <v>7.870000000000001</v>
       </c>
     </row>
     <row r="4463" spans="1:5">
@@ -89991,7 +89991,7 @@
         <v>16.03</v>
       </c>
       <c r="E4463">
-        <v>-12.29</v>
+        <v>-12.69</v>
       </c>
     </row>
     <row r="4464" spans="1:5">
@@ -90008,7 +90008,7 @@
         <v>8.01</v>
       </c>
       <c r="E4464">
-        <v>3.71</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="4465" spans="1:5">
@@ -90059,7 +90059,7 @@
         <v>3.49</v>
       </c>
       <c r="E4467">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4468" spans="1:5">
@@ -90178,7 +90178,7 @@
         <v>1.83</v>
       </c>
       <c r="E4474">
-        <v>3.04</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4475" spans="1:5">
@@ -90195,7 +90195,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="E4475">
-        <v>0.6799999999999999</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="4476" spans="1:5">
@@ -90212,7 +90212,7 @@
         <v>5.62</v>
       </c>
       <c r="E4476">
-        <v>3.04</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="4477" spans="1:5">
@@ -90229,7 +90229,7 @@
         <v>1.57</v>
       </c>
       <c r="E4477">
-        <v>1.45</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="4478" spans="1:5">
@@ -90246,7 +90246,7 @@
         <v>4.81</v>
       </c>
       <c r="E4478">
-        <v>3.84</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="4479" spans="1:5">
@@ -90416,7 +90416,7 @@
         <v>1.05</v>
       </c>
       <c r="E4488">
-        <v>3.12</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4489" spans="1:5">
@@ -90433,7 +90433,7 @@
         <v>4.55</v>
       </c>
       <c r="E4489">
-        <v>3.26</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="4490" spans="1:5">
@@ -90450,7 +90450,7 @@
         <v>0</v>
       </c>
       <c r="E4490">
-        <v>3.26</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="4491" spans="1:5">
@@ -90467,7 +90467,7 @@
         <v>0</v>
       </c>
       <c r="E4491">
-        <v>6.529999999999999</v>
+        <v>7.539999999999999</v>
       </c>
     </row>
     <row r="4492" spans="1:5">
@@ -90518,7 +90518,7 @@
         <v>0</v>
       </c>
       <c r="E4494">
-        <v>-2.11</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="4495" spans="1:5">
@@ -90535,7 +90535,7 @@
         <v>0</v>
       </c>
       <c r="E4495">
-        <v>-3.36</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="4496" spans="1:5">
@@ -90552,7 +90552,7 @@
         <v>0</v>
       </c>
       <c r="E4496">
-        <v>-3.88</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="4497" spans="1:5">
@@ -90586,7 +90586,7 @@
         <v>5.81</v>
       </c>
       <c r="E4498">
-        <v>1.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4499" spans="1:5">
@@ -90603,7 +90603,7 @@
         <v>7.580000000000001</v>
       </c>
       <c r="E4499">
-        <v>2.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4500" spans="1:5">
@@ -90620,7 +90620,7 @@
         <v>6.23</v>
       </c>
       <c r="E4500">
-        <v>1.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4501" spans="1:5">
@@ -90637,7 +90637,7 @@
         <v>3.55</v>
       </c>
       <c r="E4501">
-        <v>1.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4502" spans="1:5">
@@ -90654,7 +90654,7 @@
         <v>8.200000000000001</v>
       </c>
       <c r="E4502">
-        <v>2.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4503" spans="1:5">
@@ -90688,7 +90688,7 @@
         <v>0</v>
       </c>
       <c r="E4504">
-        <v>3.28</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="4505" spans="1:5">
@@ -90705,7 +90705,7 @@
         <v>0</v>
       </c>
       <c r="E4505">
-        <v>2.97</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4506" spans="1:5">
@@ -90722,7 +90722,7 @@
         <v>0</v>
       </c>
       <c r="E4506">
-        <v>4.18</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="4507" spans="1:5">
@@ -90739,7 +90739,7 @@
         <v>3.03</v>
       </c>
       <c r="E4507">
-        <v>0.74</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="4508" spans="1:5">
@@ -90773,7 +90773,7 @@
         <v>11.6</v>
       </c>
       <c r="E4509">
-        <v>0.16</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="4510" spans="1:5">
@@ -90790,7 +90790,7 @@
         <v>3.28</v>
       </c>
       <c r="E4510">
-        <v>0.79</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="4511" spans="1:5">
@@ -90909,7 +90909,7 @@
         <v>-1.84</v>
       </c>
       <c r="E4517">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4518" spans="1:5">
@@ -90943,7 +90943,7 @@
         <v>0</v>
       </c>
       <c r="E4519">
-        <v>-7.04</v>
+        <v>-7.98</v>
       </c>
     </row>
     <row r="4520" spans="1:5">
@@ -90960,7 +90960,7 @@
         <v>22.74</v>
       </c>
       <c r="E4520">
-        <v>-17.81</v>
+        <v>-18.38</v>
       </c>
     </row>
     <row r="4521" spans="1:5">
@@ -90977,7 +90977,7 @@
         <v>-18.74</v>
       </c>
       <c r="E4521">
-        <v>17.69</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="4522" spans="1:5">
@@ -90994,7 +90994,7 @@
         <v>10.91</v>
       </c>
       <c r="E4522">
-        <v>-21.5</v>
+        <v>-22.13</v>
       </c>
     </row>
     <row r="4523" spans="1:5">
@@ -91062,7 +91062,7 @@
         <v>6.45</v>
       </c>
       <c r="E4526">
-        <v>1.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4527" spans="1:5">
@@ -91113,7 +91113,7 @@
         <v>8.369999999999999</v>
       </c>
       <c r="E4529">
-        <v>0.7000000000000001</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="4530" spans="1:5">
@@ -91130,7 +91130,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4530">
-        <v>11.42</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="4531" spans="1:5">
@@ -91147,7 +91147,7 @@
         <v>-12.16</v>
       </c>
       <c r="E4531">
-        <v>11.42</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="4532" spans="1:5">
@@ -91266,7 +91266,7 @@
         <v>0</v>
       </c>
       <c r="E4538">
-        <v>7.180000000000001</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="4539" spans="1:5">
@@ -91283,7 +91283,7 @@
         <v>0</v>
       </c>
       <c r="E4539">
-        <v>7.180000000000001</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="4540" spans="1:5">
@@ -91300,7 +91300,7 @@
         <v>0</v>
       </c>
       <c r="E4540">
-        <v>7.180000000000001</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="4541" spans="1:5">
@@ -91317,7 +91317,7 @@
         <v>0</v>
       </c>
       <c r="E4541">
-        <v>7.180000000000001</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="4542" spans="1:5">
@@ -91334,7 +91334,7 @@
         <v>0</v>
       </c>
       <c r="E4542">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="4543" spans="1:5">
@@ -91351,7 +91351,7 @@
         <v>0</v>
       </c>
       <c r="E4543">
-        <v>2.13</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="4544" spans="1:5">
@@ -91453,7 +91453,7 @@
         <v>3.45</v>
       </c>
       <c r="E4549">
-        <v>-3.73</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="4550" spans="1:5">
@@ -91538,7 +91538,7 @@
         <v>0</v>
       </c>
       <c r="E4554">
-        <v>5.84</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="4555" spans="1:5">
@@ -91657,7 +91657,7 @@
         <v>0</v>
       </c>
       <c r="E4561">
-        <v>-3.82</v>
+        <v>-6.56</v>
       </c>
     </row>
     <row r="4562" spans="1:5">
@@ -91674,7 +91674,7 @@
         <v>0</v>
       </c>
       <c r="E4562">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="4563" spans="1:5">
@@ -91946,7 +91946,7 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="E4578">
-        <v>0.14</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -14423,7 +14423,7 @@
         <v>-3.43</v>
       </c>
       <c r="F15">
-        <v>-21.34</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -14483,7 +14483,7 @@
         <v>-6.87</v>
       </c>
       <c r="F18">
-        <v>-18.44</v>
+        <v>-5.55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -15303,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>-4.34</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -15383,7 +15383,7 @@
         <v>-3.7</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -16143,7 +16143,7 @@
         <v>1.34</v>
       </c>
       <c r="F101">
-        <v>-6.03</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -16243,7 +16243,7 @@
         <v>6</v>
       </c>
       <c r="F106">
-        <v>2.83</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -16283,7 +16283,7 @@
         <v>-21.11</v>
       </c>
       <c r="F108">
-        <v>-8.73</v>
+        <v>6.950000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -16303,7 +16303,7 @@
         <v>-19.55</v>
       </c>
       <c r="F109">
-        <v>-7.52</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -16563,7 +16563,7 @@
         <v>6.01</v>
       </c>
       <c r="F122">
-        <v>-3.95</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -16603,7 +16603,7 @@
         <v>-17.08</v>
       </c>
       <c r="F124">
-        <v>-11.95</v>
+        <v>-6.83</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -16683,7 +16683,7 @@
         <v>-15.62</v>
       </c>
       <c r="F128">
-        <v>-13.47</v>
+        <v>-8.44</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -16823,7 +16823,7 @@
         <v>-29.44</v>
       </c>
       <c r="F135">
-        <v>-9.24</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -16883,7 +16883,7 @@
         <v>-28.77</v>
       </c>
       <c r="F138">
-        <v>-6.73</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -16923,7 +16923,7 @@
         <v>-29.44</v>
       </c>
       <c r="F140">
-        <v>-9.24</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -16963,7 +16963,7 @@
         <v>-29.44</v>
       </c>
       <c r="F142">
-        <v>-9.24</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -17003,7 +17003,7 @@
         <v>-3.330000000000001</v>
       </c>
       <c r="F144">
-        <v>-8.68</v>
+        <v>-33.61</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -17023,7 +17023,7 @@
         <v>-3.47</v>
       </c>
       <c r="F145">
-        <v>-5.91</v>
+        <v>-8.219999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -17523,7 +17523,7 @@
         <v>0.59</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -18363,7 +18363,7 @@
         <v>-10.77</v>
       </c>
       <c r="F212">
-        <v>-3.28</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -18403,7 +18403,7 @@
         <v>-2.3</v>
       </c>
       <c r="F214">
-        <v>-17.67</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -19223,7 +19223,7 @@
         <v>-5.3</v>
       </c>
       <c r="F255">
-        <v>-5.93</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -19283,7 +19283,7 @@
         <v>-5.54</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -19583,7 +19583,7 @@
         <v>-6.87</v>
       </c>
       <c r="F273">
-        <v>-1.25</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -20503,7 +20503,7 @@
         <v>-20.35</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -21543,7 +21543,7 @@
         <v>0</v>
       </c>
       <c r="F371">
-        <v>0</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -21783,7 +21783,7 @@
         <v>-17.22</v>
       </c>
       <c r="F383">
-        <v>-3.43</v>
+        <v>8.690000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -22123,7 +22123,7 @@
         <v>2.89</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -23203,7 +23203,7 @@
         <v>-4.01</v>
       </c>
       <c r="F454">
-        <v>0</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -23223,7 +23223,7 @@
         <v>-4.01</v>
       </c>
       <c r="F455">
-        <v>0</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="F482">
-        <v>0</v>
+        <v>-10.38</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -23943,7 +23943,7 @@
         <v>-15.25</v>
       </c>
       <c r="F491">
-        <v>-2.04</v>
+        <v>25.15</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -23963,7 +23963,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="F492">
-        <v>-8.41</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -24543,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="F521">
-        <v>0</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -24763,7 +24763,7 @@
         <v>-28.52</v>
       </c>
       <c r="F532">
-        <v>0</v>
+        <v>33.39</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="F540">
-        <v>0</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -25363,7 +25363,7 @@
         <v>17.43</v>
       </c>
       <c r="F562">
-        <v>3.65</v>
+        <v>-9.379999999999999</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="F573">
-        <v>0</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="F574">
-        <v>0</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -25623,7 +25623,7 @@
         <v>-17.22</v>
       </c>
       <c r="F575">
-        <v>-3.39</v>
+        <v>8.709999999999999</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -26103,7 +26103,7 @@
         <v>1.98</v>
       </c>
       <c r="F599">
-        <v>19.77</v>
+        <v>17.83</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -26123,7 +26123,7 @@
         <v>4.97</v>
       </c>
       <c r="F600">
-        <v>4.74</v>
+        <v>-13.68</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -26183,7 +26183,7 @@
         <v>-4.97</v>
       </c>
       <c r="F603">
-        <v>15.7</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -26203,7 +26203,7 @@
         <v>9.700000000000001</v>
       </c>
       <c r="F604">
-        <v>6.4</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -26243,7 +26243,7 @@
         <v>-25.3</v>
       </c>
       <c r="F606">
-        <v>0</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -26263,7 +26263,7 @@
         <v>34.35</v>
       </c>
       <c r="F607">
-        <v>0</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="F613">
-        <v>0</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -26443,7 +26443,7 @@
         <v>7.140000000000001</v>
       </c>
       <c r="F616">
-        <v>5.029999999999999</v>
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -26663,7 +26663,7 @@
         <v>-18.28</v>
       </c>
       <c r="F627">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -26703,7 +26703,7 @@
         <v>-18.28</v>
       </c>
       <c r="F629">
-        <v>0</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -27083,7 +27083,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F648">
-        <v>-1.65</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -27103,7 +27103,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F649">
-        <v>-1.65</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="F651">
-        <v>0</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -27483,7 +27483,7 @@
         <v>-13.17</v>
       </c>
       <c r="F668">
-        <v>-3.39</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -27503,7 +27503,7 @@
         <v>19.96</v>
       </c>
       <c r="F669">
-        <v>0</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -27683,7 +27683,7 @@
         <v>-11.42</v>
       </c>
       <c r="F678">
-        <v>-9.73</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="F679">
-        <v>0</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -27843,7 +27843,7 @@
         <v>0</v>
       </c>
       <c r="F686">
-        <v>0</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -28003,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="F694">
-        <v>0</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="F713">
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="F743">
-        <v>0</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="F744">
-        <v>0</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -29083,7 +29083,7 @@
         <v>-16.71</v>
       </c>
       <c r="F748">
-        <v>0</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -29103,7 +29103,7 @@
         <v>-18.13</v>
       </c>
       <c r="F749">
-        <v>0</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -29403,7 +29403,7 @@
         <v>-4.34</v>
       </c>
       <c r="F764">
-        <v>-1.17</v>
+        <v>-0.9900000000000001</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -29423,7 +29423,7 @@
         <v>-3.88</v>
       </c>
       <c r="F765">
-        <v>-0.65</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -29803,7 +29803,7 @@
         <v>9.25</v>
       </c>
       <c r="F784">
-        <v>0</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -29823,7 +29823,7 @@
         <v>27.67</v>
       </c>
       <c r="F785">
-        <v>0</v>
+        <v>-15.19</v>
       </c>
     </row>
     <row r="786" spans="1:6">
@@ -29843,7 +29843,7 @@
         <v>9.25</v>
       </c>
       <c r="F786">
-        <v>0</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="787" spans="1:6">
@@ -29963,7 +29963,7 @@
         <v>-16.71</v>
       </c>
       <c r="F792">
-        <v>0</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -29983,7 +29983,7 @@
         <v>-23.12</v>
       </c>
       <c r="F793">
-        <v>0</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -30203,7 +30203,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="F804">
-        <v>0</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -30223,7 +30223,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="F805">
-        <v>0</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -30243,7 +30243,7 @@
         <v>-27.46</v>
       </c>
       <c r="F806">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -30363,7 +30363,7 @@
         <v>-20.96</v>
       </c>
       <c r="F812">
-        <v>0</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -30423,7 +30423,7 @@
         <v>-27.46</v>
       </c>
       <c r="F815">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="816" spans="1:6">
@@ -30443,7 +30443,7 @@
         <v>-27.46</v>
       </c>
       <c r="F816">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="817" spans="1:6">
@@ -30463,7 +30463,7 @@
         <v>-27.46</v>
       </c>
       <c r="F817">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="F832">
-        <v>0</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -31443,7 +31443,7 @@
         <v>0</v>
       </c>
       <c r="F866">
-        <v>0</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -31623,7 +31623,7 @@
         <v>-20.45</v>
       </c>
       <c r="F875">
-        <v>0</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="876" spans="1:6">
@@ -31703,7 +31703,7 @@
         <v>-19.78</v>
       </c>
       <c r="F879">
-        <v>-4.130000000000001</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="880" spans="1:6">
@@ -31723,7 +31723,7 @@
         <v>-20.45</v>
       </c>
       <c r="F880">
-        <v>0</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="881" spans="1:6">
@@ -31923,7 +31923,7 @@
         <v>-13.24</v>
       </c>
       <c r="F890">
-        <v>-11.44</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="891" spans="1:6">
@@ -31943,7 +31943,7 @@
         <v>-6.9</v>
       </c>
       <c r="F891">
-        <v>-5.58</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -31963,7 +31963,7 @@
         <v>-7.180000000000001</v>
       </c>
       <c r="F892">
-        <v>-5.779999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -32463,7 +32463,7 @@
         <v>0.08</v>
       </c>
       <c r="F917">
-        <v>0.04</v>
+        <v>-15.36</v>
       </c>
     </row>
     <row r="918" spans="1:6">
@@ -33083,7 +33083,7 @@
         <v>-0.83</v>
       </c>
       <c r="F948">
-        <v>0.42</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="949" spans="1:6">
@@ -33183,7 +33183,7 @@
         <v>-4.8</v>
       </c>
       <c r="F953">
-        <v>-34.87</v>
+        <v>-14.91</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -34043,7 +34043,7 @@
         <v>14.55</v>
       </c>
       <c r="F996">
-        <v>-19.85</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -34063,7 +34063,7 @@
         <v>-1.73</v>
       </c>
       <c r="F997">
-        <v>3.05</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -34083,7 +34083,7 @@
         <v>0.91</v>
       </c>
       <c r="F998">
-        <v>-15.96</v>
+        <v>-8.43</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -34223,7 +34223,7 @@
         <v>-12.45</v>
       </c>
       <c r="F1005">
-        <v>-2.29</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -34263,7 +34263,7 @@
         <v>-12.45</v>
       </c>
       <c r="F1007">
-        <v>-2.29</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -34543,7 +34543,7 @@
         <v>4.01</v>
       </c>
       <c r="F1021">
-        <v>-3.85</v>
+        <v>-5.779999999999999</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -34823,7 +34823,7 @@
         <v>-3.06</v>
       </c>
       <c r="F1035">
-        <v>-18.98</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="1036" spans="1:6">
@@ -35023,7 +35023,7 @@
         <v>-1.27</v>
       </c>
       <c r="F1045">
-        <v>0</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="1046" spans="1:6">
@@ -35423,7 +35423,7 @@
         <v>0</v>
       </c>
       <c r="F1065">
-        <v>0</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="1066" spans="1:6">
@@ -35623,7 +35623,7 @@
         <v>0</v>
       </c>
       <c r="F1075">
-        <v>0</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -35723,7 +35723,7 @@
         <v>9.049999999999999</v>
       </c>
       <c r="F1080">
-        <v>6.25</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="1081" spans="1:6">
@@ -35823,7 +35823,7 @@
         <v>-6.140000000000001</v>
       </c>
       <c r="F1085">
-        <v>0</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -35843,7 +35843,7 @@
         <v>-1.5</v>
       </c>
       <c r="F1086">
-        <v>-0.17</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -35883,7 +35883,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1088">
-        <v>0</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="1089" spans="1:6">
@@ -35903,7 +35903,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1089">
-        <v>0</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="1090" spans="1:6">
@@ -35923,7 +35923,7 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="F1090">
-        <v>-7.39</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="1091" spans="1:6">
@@ -35963,7 +35963,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1092">
-        <v>0</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="1093" spans="1:6">
@@ -35983,7 +35983,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1093">
-        <v>0</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="1094" spans="1:6">
@@ -36303,7 +36303,7 @@
         <v>0</v>
       </c>
       <c r="F1109">
-        <v>0</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="F1111">
-        <v>0</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="1112" spans="1:6">
@@ -36503,7 +36503,7 @@
         <v>-2.1</v>
       </c>
       <c r="F1119">
-        <v>0</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="1120" spans="1:6">
@@ -36563,7 +36563,7 @@
         <v>0</v>
       </c>
       <c r="F1122">
-        <v>0</v>
+        <v>-11.56</v>
       </c>
     </row>
     <row r="1123" spans="1:6">
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="F1136">
-        <v>0</v>
+        <v>18.24</v>
       </c>
     </row>
     <row r="1137" spans="1:6">
@@ -39383,7 +39383,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1263">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -39403,7 +39403,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1264">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -39423,7 +39423,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1265">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1266" spans="1:6">
@@ -39443,7 +39443,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1266">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -39463,7 +39463,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1267">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1268" spans="1:6">
@@ -39483,7 +39483,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1268">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -39503,7 +39503,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1269">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -39523,7 +39523,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1270">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1271" spans="1:6">
@@ -39543,7 +39543,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1271">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1272" spans="1:6">
@@ -39583,7 +39583,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1273">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1274" spans="1:6">
@@ -39603,7 +39603,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1274">
-        <v>-5.47</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1275" spans="1:6">
@@ -40063,7 +40063,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1297">
-        <v>-5.43</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -40083,7 +40083,7 @@
         <v>-15.44</v>
       </c>
       <c r="F1298">
-        <v>-6.43</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -40103,7 +40103,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1299">
-        <v>-5.43</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -40123,7 +40123,7 @@
         <v>-15.44</v>
       </c>
       <c r="F1300">
-        <v>-6.43</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -40143,7 +40143,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1301">
-        <v>-5.43</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="1302" spans="1:6">
@@ -40163,7 +40163,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1302">
-        <v>-5.43</v>
+        <v>13.56</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -40503,7 +40503,7 @@
         <v>-17.84</v>
       </c>
       <c r="F1319">
-        <v>-4.23</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="1320" spans="1:6">
@@ -40543,7 +40543,7 @@
         <v>-17.84</v>
       </c>
       <c r="F1321">
-        <v>-4.23</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="1322" spans="1:6">
@@ -40963,7 +40963,7 @@
         <v>4.48</v>
       </c>
       <c r="F1342">
-        <v>-14.7</v>
+        <v>-18.99</v>
       </c>
     </row>
     <row r="1343" spans="1:6">
@@ -41143,7 +41143,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1351">
-        <v>0</v>
+        <v>-6.279999999999999</v>
       </c>
     </row>
     <row r="1352" spans="1:6">
@@ -41163,7 +41163,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1352">
-        <v>0</v>
+        <v>-6.279999999999999</v>
       </c>
     </row>
     <row r="1353" spans="1:6">
@@ -41203,7 +41203,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1354">
-        <v>0</v>
+        <v>-6.279999999999999</v>
       </c>
     </row>
     <row r="1355" spans="1:6">
@@ -41263,7 +41263,7 @@
         <v>0</v>
       </c>
       <c r="F1357">
-        <v>0</v>
+        <v>10.72</v>
       </c>
     </row>
     <row r="1358" spans="1:6">
@@ -41343,7 +41343,7 @@
         <v>-14.19</v>
       </c>
       <c r="F1361">
-        <v>-2.74</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="1362" spans="1:6">
@@ -42803,7 +42803,7 @@
         <v>-27.67</v>
       </c>
       <c r="F1434">
-        <v>-6.36</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="1435" spans="1:6">
@@ -43043,7 +43043,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1446">
-        <v>-31.85</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="1447" spans="1:6">
@@ -43143,7 +43143,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1451">
-        <v>-31.85</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="1452" spans="1:6">
@@ -43163,7 +43163,7 @@
         <v>-5.21</v>
       </c>
       <c r="F1452">
-        <v>5.489999999999999</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="1453" spans="1:6">
@@ -43183,7 +43183,7 @@
         <v>-2.29</v>
       </c>
       <c r="F1453">
-        <v>2.34</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="1454" spans="1:6">
@@ -43203,7 +43203,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1454">
-        <v>-31.85</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="1455" spans="1:6">
@@ -43303,7 +43303,7 @@
         <v>-1.12</v>
       </c>
       <c r="F1459">
-        <v>-32.71</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="1460" spans="1:6">
@@ -43323,7 +43323,7 @@
         <v>6.909999999999999</v>
       </c>
       <c r="F1460">
-        <v>-37.76</v>
+        <v>-11.68</v>
       </c>
     </row>
     <row r="1461" spans="1:6">
@@ -43463,7 +43463,7 @@
         <v>13.98</v>
       </c>
       <c r="F1467">
-        <v>2.04</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="1468" spans="1:6">
@@ -43843,7 +43843,7 @@
         <v>-12.57</v>
       </c>
       <c r="F1486">
-        <v>0</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -43863,7 +43863,7 @@
         <v>-12.57</v>
       </c>
       <c r="F1487">
-        <v>0</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -45043,7 +45043,7 @@
         <v>-1.74</v>
       </c>
       <c r="F1546">
-        <v>-4.44</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -45063,7 +45063,7 @@
         <v>-1.74</v>
       </c>
       <c r="F1547">
-        <v>-4.44</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="1548" spans="1:6">
@@ -45483,7 +45483,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1568">
-        <v>0</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="1569" spans="1:6">
@@ -45503,7 +45503,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1569">
-        <v>0</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="1570" spans="1:6">
@@ -45543,7 +45543,7 @@
         <v>0</v>
       </c>
       <c r="F1571">
-        <v>0</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="1572" spans="1:6">
@@ -45563,7 +45563,7 @@
         <v>-27.46</v>
       </c>
       <c r="F1572">
-        <v>0</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="1573" spans="1:6">
@@ -45583,7 +45583,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1573">
-        <v>0</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="1574" spans="1:6">
@@ -45623,7 +45623,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1575">
-        <v>0</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="1576" spans="1:6">
@@ -45663,7 +45663,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1577">
-        <v>0</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="1578" spans="1:6">
@@ -45743,7 +45743,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1581">
-        <v>0</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -45763,7 +45763,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1582">
-        <v>0</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="1583" spans="1:6">
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="F1598">
-        <v>0</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="1599" spans="1:6">
@@ -46203,7 +46203,7 @@
         <v>7.5</v>
       </c>
       <c r="F1604">
-        <v>-1.72</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="1605" spans="1:6">
@@ -46223,7 +46223,7 @@
         <v>-15.1</v>
       </c>
       <c r="F1605">
-        <v>-6.01</v>
+        <v>7.399999999999999</v>
       </c>
     </row>
     <row r="1606" spans="1:6">
@@ -46243,7 +46243,7 @@
         <v>9.76</v>
       </c>
       <c r="F1606">
-        <v>1.48</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="1607" spans="1:6">
@@ -46463,7 +46463,7 @@
         <v>0</v>
       </c>
       <c r="F1617">
-        <v>0</v>
+        <v>-14.89</v>
       </c>
     </row>
     <row r="1618" spans="1:6">
@@ -46723,7 +46723,7 @@
         <v>7.829999999999999</v>
       </c>
       <c r="F1630">
-        <v>1.78</v>
+        <v>-7.77</v>
       </c>
     </row>
     <row r="1631" spans="1:6">
@@ -46783,7 +46783,7 @@
         <v>-21.46</v>
       </c>
       <c r="F1633">
-        <v>-10.89</v>
+        <v>8.219999999999999</v>
       </c>
     </row>
     <row r="1634" spans="1:6">
@@ -46803,7 +46803,7 @@
         <v>0</v>
       </c>
       <c r="F1634">
-        <v>-13.19</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="1635" spans="1:6">
@@ -47403,7 +47403,7 @@
         <v>0.76</v>
       </c>
       <c r="F1664">
-        <v>0.08</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="1665" spans="1:6">
@@ -47443,7 +47443,7 @@
         <v>0.76</v>
       </c>
       <c r="F1666">
-        <v>0.08</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="1667" spans="1:6">
@@ -47463,7 +47463,7 @@
         <v>0.76</v>
       </c>
       <c r="F1667">
-        <v>0.08</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="1668" spans="1:6">
@@ -47483,7 +47483,7 @@
         <v>4.27</v>
       </c>
       <c r="F1668">
-        <v>-20.52</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="1669" spans="1:6">
@@ -47503,7 +47503,7 @@
         <v>0</v>
       </c>
       <c r="F1669">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1670" spans="1:6">
@@ -47543,7 +47543,7 @@
         <v>0</v>
       </c>
       <c r="F1671">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1672" spans="1:6">
@@ -47643,7 +47643,7 @@
         <v>-13.78</v>
       </c>
       <c r="F1676">
-        <v>-2.68</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="1677" spans="1:6">
@@ -47843,7 +47843,7 @@
         <v>37.83000000000001</v>
       </c>
       <c r="F1686">
-        <v>4.55</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="1687" spans="1:6">
@@ -47863,7 +47863,7 @@
         <v>0.76</v>
       </c>
       <c r="F1687">
-        <v>0.08</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="1688" spans="1:6">
@@ -47883,7 +47883,7 @@
         <v>0.76</v>
       </c>
       <c r="F1688">
-        <v>0.08</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="1689" spans="1:6">
@@ -47903,7 +47903,7 @@
         <v>0.76</v>
       </c>
       <c r="F1689">
-        <v>0.08</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="1690" spans="1:6">
@@ -47983,7 +47983,7 @@
         <v>0</v>
       </c>
       <c r="F1693">
-        <v>-17.12</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1694" spans="1:6">
@@ -48023,7 +48023,7 @@
         <v>0.76</v>
       </c>
       <c r="F1695">
-        <v>0.08</v>
+        <v>21.21</v>
       </c>
     </row>
     <row r="1696" spans="1:6">
@@ -48163,7 +48163,7 @@
         <v>0</v>
       </c>
       <c r="F1702">
-        <v>0</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="1703" spans="1:6">
@@ -48183,7 +48183,7 @@
         <v>0</v>
       </c>
       <c r="F1703">
-        <v>0</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="1704" spans="1:6">
@@ -48243,7 +48243,7 @@
         <v>0</v>
       </c>
       <c r="F1706">
-        <v>0</v>
+        <v>-12.05</v>
       </c>
     </row>
     <row r="1707" spans="1:6">
@@ -48343,7 +48343,7 @@
         <v>0</v>
       </c>
       <c r="F1711">
-        <v>0</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="1712" spans="1:6">
@@ -48363,7 +48363,7 @@
         <v>0</v>
       </c>
       <c r="F1712">
-        <v>0</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="1713" spans="1:6">
@@ -48603,7 +48603,7 @@
         <v>0</v>
       </c>
       <c r="F1724">
-        <v>-20.25</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="1725" spans="1:6">
@@ -48923,7 +48923,7 @@
         <v>-4.6</v>
       </c>
       <c r="F1740">
-        <v>-12.72</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="1741" spans="1:6">
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="F1741">
-        <v>-16.74</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="1742" spans="1:6">
@@ -48963,7 +48963,7 @@
         <v>0</v>
       </c>
       <c r="F1742">
-        <v>-16.74</v>
+        <v>-8.369999999999999</v>
       </c>
     </row>
     <row r="1743" spans="1:6">
@@ -48983,7 +48983,7 @@
         <v>-4.6</v>
       </c>
       <c r="F1743">
-        <v>-12.72</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="1744" spans="1:6">
@@ -49003,7 +49003,7 @@
         <v>-3.97</v>
       </c>
       <c r="F1744">
-        <v>-18.18</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="1745" spans="1:6">
@@ -49023,7 +49023,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1745">
-        <v>-18.18</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="1746" spans="1:6">
@@ -49103,7 +49103,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1749">
-        <v>-18.18</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="1750" spans="1:6">
@@ -49143,7 +49143,7 @@
         <v>0</v>
       </c>
       <c r="F1751">
-        <v>0</v>
+        <v>7.03</v>
       </c>
     </row>
     <row r="1752" spans="1:6">
@@ -49263,7 +49263,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F1757">
-        <v>-13.87</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="1758" spans="1:6">
@@ -49343,7 +49343,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F1761">
-        <v>-13.87</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="1762" spans="1:6">
@@ -49443,7 +49443,7 @@
         <v>0</v>
       </c>
       <c r="F1766">
-        <v>0</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="1767" spans="1:6">
@@ -49483,7 +49483,7 @@
         <v>-8.08</v>
       </c>
       <c r="F1768">
-        <v>-17.48</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="1769" spans="1:6">
@@ -49783,7 +49783,7 @@
         <v>0</v>
       </c>
       <c r="F1783">
-        <v>0</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="1784" spans="1:6">
@@ -49803,7 +49803,7 @@
         <v>0</v>
       </c>
       <c r="F1784">
-        <v>0</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="1785" spans="1:6">
@@ -49823,7 +49823,7 @@
         <v>0</v>
       </c>
       <c r="F1785">
-        <v>0</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="1786" spans="1:6">
@@ -49863,7 +49863,7 @@
         <v>0</v>
       </c>
       <c r="F1787">
-        <v>0</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="1788" spans="1:6">
@@ -50183,7 +50183,7 @@
         <v>2.63</v>
       </c>
       <c r="F1803">
-        <v>-15.31</v>
+        <v>-6.419999999999999</v>
       </c>
     </row>
     <row r="1804" spans="1:6">
@@ -50223,7 +50223,7 @@
         <v>2.63</v>
       </c>
       <c r="F1805">
-        <v>-15.31</v>
+        <v>-6.419999999999999</v>
       </c>
     </row>
     <row r="1806" spans="1:6">
@@ -50243,7 +50243,7 @@
         <v>0</v>
       </c>
       <c r="F1806">
-        <v>-18.2</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="1807" spans="1:6">
@@ -50263,7 +50263,7 @@
         <v>2.63</v>
       </c>
       <c r="F1807">
-        <v>-15.31</v>
+        <v>-6.419999999999999</v>
       </c>
     </row>
     <row r="1808" spans="1:6">
@@ -50283,7 +50283,7 @@
         <v>3.32</v>
       </c>
       <c r="F1808">
-        <v>-15.71</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="1809" spans="1:6">
@@ -50303,7 +50303,7 @@
         <v>0</v>
       </c>
       <c r="F1809">
-        <v>-13.08</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="1810" spans="1:6">
@@ -50323,7 +50323,7 @@
         <v>6.460000000000001</v>
       </c>
       <c r="F1810">
-        <v>-18.2</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="1811" spans="1:6">
@@ -50363,7 +50363,7 @@
         <v>2.71</v>
       </c>
       <c r="F1812">
-        <v>-13.08</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="1813" spans="1:6">
@@ -50383,7 +50383,7 @@
         <v>0</v>
       </c>
       <c r="F1813">
-        <v>-13.08</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="1814" spans="1:6">
@@ -50403,7 +50403,7 @@
         <v>6.460000000000001</v>
       </c>
       <c r="F1814">
-        <v>-18.2</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="1815" spans="1:6">
@@ -50423,7 +50423,7 @@
         <v>0</v>
       </c>
       <c r="F1815">
-        <v>-15.71</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="1816" spans="1:6">
@@ -50443,7 +50443,7 @@
         <v>0</v>
       </c>
       <c r="F1816">
-        <v>-15.71</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="1817" spans="1:6">
@@ -50463,7 +50463,7 @@
         <v>0</v>
       </c>
       <c r="F1817">
-        <v>-15.71</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="1818" spans="1:6">
@@ -50483,7 +50483,7 @@
         <v>0</v>
       </c>
       <c r="F1818">
-        <v>-13.08</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="1819" spans="1:6">
@@ -50543,7 +50543,7 @@
         <v>0</v>
       </c>
       <c r="F1821">
-        <v>2.09</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1822" spans="1:6">
@@ -50563,7 +50563,7 @@
         <v>0</v>
       </c>
       <c r="F1822">
-        <v>2.09</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1823" spans="1:6">
@@ -50583,7 +50583,7 @@
         <v>0</v>
       </c>
       <c r="F1823">
-        <v>2.09</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1824" spans="1:6">
@@ -50603,7 +50603,7 @@
         <v>0</v>
       </c>
       <c r="F1824">
-        <v>2.09</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1825" spans="1:6">
@@ -50623,7 +50623,7 @@
         <v>0</v>
       </c>
       <c r="F1825">
-        <v>2.09</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1826" spans="1:6">
@@ -50643,7 +50643,7 @@
         <v>-2.05</v>
       </c>
       <c r="F1826">
-        <v>2.09</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1827" spans="1:6">
@@ -50663,7 +50663,7 @@
         <v>0</v>
       </c>
       <c r="F1827">
-        <v>2.09</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1828" spans="1:6">
@@ -50843,7 +50843,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1836">
-        <v>-9.32</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="1837" spans="1:6">
@@ -50903,7 +50903,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1839">
-        <v>-9.32</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="1840" spans="1:6">
@@ -50923,7 +50923,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1840">
-        <v>-9.32</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="1841" spans="1:6">
@@ -50943,7 +50943,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1841">
-        <v>-9.32</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="1842" spans="1:6">
@@ -50963,7 +50963,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1842">
-        <v>-9.32</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="1843" spans="1:6">
@@ -50983,7 +50983,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1843">
-        <v>-9.32</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="1844" spans="1:6">
@@ -51743,7 +51743,7 @@
         <v>-13.13</v>
       </c>
       <c r="F1881">
-        <v>-2.67</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="1882" spans="1:6">
@@ -51863,7 +51863,7 @@
         <v>-9.81</v>
       </c>
       <c r="F1887">
-        <v>-27.15</v>
+        <v>-8.18</v>
       </c>
     </row>
     <row r="1888" spans="1:6">
@@ -51923,7 +51923,7 @@
         <v>0</v>
       </c>
       <c r="F1890">
-        <v>0</v>
+        <v>-8.359999999999999</v>
       </c>
     </row>
     <row r="1891" spans="1:6">
@@ -52343,7 +52343,7 @@
         <v>9.33</v>
       </c>
       <c r="F1911">
-        <v>-7.31</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="1912" spans="1:6">
@@ -52903,7 +52903,7 @@
         <v>-6.05</v>
       </c>
       <c r="F1939">
-        <v>-0.17</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="1940" spans="1:6">
@@ -53583,7 +53583,7 @@
         <v>-15</v>
       </c>
       <c r="F1973">
-        <v>-3.59</v>
+        <v>6.859999999999999</v>
       </c>
     </row>
     <row r="1974" spans="1:6">
@@ -55143,7 +55143,7 @@
         <v>-21.74</v>
       </c>
       <c r="F2051">
-        <v>-5.029999999999999</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="2052" spans="1:6">
@@ -55503,7 +55503,7 @@
         <v>0</v>
       </c>
       <c r="F2069">
-        <v>-2.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="2070" spans="1:6">
@@ -55583,7 +55583,7 @@
         <v>-1.86</v>
       </c>
       <c r="F2073">
-        <v>-1.89</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2074" spans="1:6">
@@ -55643,7 +55643,7 @@
         <v>0</v>
       </c>
       <c r="F2076">
-        <v>0</v>
+        <v>-6.260000000000001</v>
       </c>
     </row>
     <row r="2077" spans="1:6">
@@ -55683,7 +55683,7 @@
         <v>1.45</v>
       </c>
       <c r="F2078">
-        <v>0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="2079" spans="1:6">
@@ -55723,7 +55723,7 @@
         <v>0</v>
       </c>
       <c r="F2080">
-        <v>0</v>
+        <v>-13.65</v>
       </c>
     </row>
     <row r="2081" spans="1:6">
@@ -56003,7 +56003,7 @@
         <v>-11.45</v>
       </c>
       <c r="F2094">
-        <v>-2.64</v>
+        <v>6.600000000000001</v>
       </c>
     </row>
     <row r="2095" spans="1:6">
@@ -56023,7 +56023,7 @@
         <v>9.07</v>
       </c>
       <c r="F2095">
-        <v>0</v>
+        <v>-7.75</v>
       </c>
     </row>
     <row r="2096" spans="1:6">
@@ -56143,7 +56143,7 @@
         <v>0</v>
       </c>
       <c r="F2101">
-        <v>0</v>
+        <v>47.03</v>
       </c>
     </row>
     <row r="2102" spans="1:6">
@@ -56303,7 +56303,7 @@
         <v>-23.28</v>
       </c>
       <c r="F2109">
-        <v>-26.97</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="2110" spans="1:6">
@@ -56383,7 +56383,7 @@
         <v>-19.24</v>
       </c>
       <c r="F2113">
-        <v>-26.96</v>
+        <v>-11.26</v>
       </c>
     </row>
     <row r="2114" spans="1:6">
@@ -56463,7 +56463,7 @@
         <v>4.87</v>
       </c>
       <c r="F2117">
-        <v>0.8200000000000001</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="2118" spans="1:6">
@@ -56483,7 +56483,7 @@
         <v>4.87</v>
       </c>
       <c r="F2118">
-        <v>0.8200000000000001</v>
+        <v>10.38</v>
       </c>
     </row>
     <row r="2119" spans="1:6">
@@ -56523,7 +56523,7 @@
         <v>-13.36</v>
       </c>
       <c r="F2120">
-        <v>-2.57</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="2121" spans="1:6">
@@ -56563,7 +56563,7 @@
         <v>-17.84</v>
       </c>
       <c r="F2122">
-        <v>-3.66</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="2123" spans="1:6">
@@ -56583,7 +56583,7 @@
         <v>-17.84</v>
       </c>
       <c r="F2123">
-        <v>-3.66</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="2124" spans="1:6">
@@ -56643,7 +56643,7 @@
         <v>-13.36</v>
       </c>
       <c r="F2126">
-        <v>-2.57</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="2127" spans="1:6">
@@ -56943,7 +56943,7 @@
         <v>-5.79</v>
       </c>
       <c r="F2141">
-        <v>9.210000000000001</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="2142" spans="1:6">
@@ -56963,7 +56963,7 @@
         <v>-5.46</v>
       </c>
       <c r="F2142">
-        <v>8.67</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="2143" spans="1:6">
@@ -58543,7 +58543,7 @@
         <v>0</v>
       </c>
       <c r="F2221">
-        <v>0</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="2222" spans="1:6">
@@ -58563,7 +58563,7 @@
         <v>0</v>
       </c>
       <c r="F2222">
-        <v>0</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="2223" spans="1:6">
@@ -59483,7 +59483,7 @@
         <v>0</v>
       </c>
       <c r="F2268">
-        <v>0</v>
+        <v>-11.55</v>
       </c>
     </row>
     <row r="2269" spans="1:6">
@@ -59563,7 +59563,7 @@
         <v>0</v>
       </c>
       <c r="F2272">
-        <v>-22.31</v>
+        <v>-9.289999999999999</v>
       </c>
     </row>
     <row r="2273" spans="1:6">
@@ -59623,7 +59623,7 @@
         <v>0</v>
       </c>
       <c r="F2275">
-        <v>-22.31</v>
+        <v>-9.289999999999999</v>
       </c>
     </row>
     <row r="2276" spans="1:6">
@@ -59683,7 +59683,7 @@
         <v>4.24</v>
       </c>
       <c r="F2278">
-        <v>-13.15</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="2279" spans="1:6">
@@ -59723,7 +59723,7 @@
         <v>0.95</v>
       </c>
       <c r="F2280">
-        <v>-13.15</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="2281" spans="1:6">
@@ -59743,7 +59743,7 @@
         <v>0.95</v>
       </c>
       <c r="F2281">
-        <v>-13.15</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="2282" spans="1:6">
@@ -60323,7 +60323,7 @@
         <v>-24.1</v>
       </c>
       <c r="F2310">
-        <v>-5.29</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="2311" spans="1:6">
@@ -60903,7 +60903,7 @@
         <v>-4.590000000000001</v>
       </c>
       <c r="F2339">
-        <v>-29.1</v>
+        <v>33.98999999999999</v>
       </c>
     </row>
     <row r="2340" spans="1:6">
@@ -61523,7 +61523,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2370">
-        <v>-20.33</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="2371" spans="1:6">
@@ -61543,7 +61543,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2371">
-        <v>-20.33</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="2372" spans="1:6">
@@ -61563,7 +61563,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2372">
-        <v>-20.33</v>
+        <v>-6.09</v>
       </c>
     </row>
     <row r="2373" spans="1:6">
@@ -61763,7 +61763,7 @@
         <v>18.62</v>
       </c>
       <c r="F2382">
-        <v>2.66</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="2383" spans="1:6">
@@ -62223,7 +62223,7 @@
         <v>-25.04</v>
       </c>
       <c r="F2405">
-        <v>1.09</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="2406" spans="1:6">
@@ -62243,7 +62243,7 @@
         <v>0</v>
       </c>
       <c r="F2406">
-        <v>0</v>
+        <v>-9.44</v>
       </c>
     </row>
     <row r="2407" spans="1:6">
@@ -63103,7 +63103,7 @@
         <v>16.18</v>
       </c>
       <c r="F2449">
-        <v>12.73</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="2450" spans="1:6">
@@ -63543,7 +63543,7 @@
         <v>0</v>
       </c>
       <c r="F2471">
-        <v>0</v>
+        <v>-17.24</v>
       </c>
     </row>
     <row r="2472" spans="1:6">
@@ -63563,7 +63563,7 @@
         <v>0</v>
       </c>
       <c r="F2472">
-        <v>0</v>
+        <v>-17.24</v>
       </c>
     </row>
     <row r="2473" spans="1:6">
@@ -63583,7 +63583,7 @@
         <v>0</v>
       </c>
       <c r="F2473">
-        <v>0</v>
+        <v>-17.24</v>
       </c>
     </row>
     <row r="2474" spans="1:6">
@@ -63603,7 +63603,7 @@
         <v>0</v>
       </c>
       <c r="F2474">
-        <v>0</v>
+        <v>-17.24</v>
       </c>
     </row>
     <row r="2475" spans="1:6">
@@ -63743,7 +63743,7 @@
         <v>0</v>
       </c>
       <c r="F2481">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="2482" spans="1:6">
@@ -63823,7 +63823,7 @@
         <v>-7.539999999999999</v>
       </c>
       <c r="F2485">
-        <v>0</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="2486" spans="1:6">
@@ -63943,7 +63943,7 @@
         <v>-19.09</v>
       </c>
       <c r="F2491">
-        <v>-3.94</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="2492" spans="1:6">
@@ -64263,7 +64263,7 @@
         <v>0</v>
       </c>
       <c r="F2507">
-        <v>0</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="2508" spans="1:6">
@@ -64663,7 +64663,7 @@
         <v>-9.289999999999999</v>
       </c>
       <c r="F2527">
-        <v>-1.81</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="2528" spans="1:6">
@@ -64903,7 +64903,7 @@
         <v>5.79</v>
       </c>
       <c r="F2539">
-        <v>0</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="2540" spans="1:6">
@@ -65043,7 +65043,7 @@
         <v>0</v>
       </c>
       <c r="F2546">
-        <v>0</v>
+        <v>25.04</v>
       </c>
     </row>
     <row r="2547" spans="1:6">
@@ -65323,7 +65323,7 @@
         <v>5.01</v>
       </c>
       <c r="F2560">
-        <v>-28.62</v>
+        <v>-11.92</v>
       </c>
     </row>
     <row r="2561" spans="1:6">
@@ -66023,7 +66023,7 @@
         <v>-24.5</v>
       </c>
       <c r="F2595">
-        <v>-5.44</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="2596" spans="1:6">
@@ -66183,7 +66183,7 @@
         <v>0</v>
       </c>
       <c r="F2603">
-        <v>0</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="2604" spans="1:6">
@@ -66243,7 +66243,7 @@
         <v>-9.27</v>
       </c>
       <c r="F2606">
-        <v>-20.04</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="2607" spans="1:6">
@@ -66603,7 +66603,7 @@
         <v>-11.45</v>
       </c>
       <c r="F2624">
-        <v>-7.81</v>
+        <v>-5.680000000000001</v>
       </c>
     </row>
     <row r="2625" spans="1:6">
@@ -66623,7 +66623,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="F2625">
-        <v>9.049999999999999</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="2626" spans="1:6">
@@ -66743,7 +66743,7 @@
         <v>0</v>
       </c>
       <c r="F2631">
-        <v>0</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="2632" spans="1:6">
@@ -66783,7 +66783,7 @@
         <v>-8.94</v>
       </c>
       <c r="F2633">
-        <v>-5.489999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="2634" spans="1:6">
@@ -66803,7 +66803,7 @@
         <v>-10.96</v>
       </c>
       <c r="F2634">
-        <v>-7.73</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="2635" spans="1:6">
@@ -66823,7 +66823,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2635">
-        <v>-5.63</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="2636" spans="1:6">
@@ -66843,7 +66843,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2636">
-        <v>-5.63</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="2637" spans="1:6">
@@ -68863,7 +68863,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2737">
-        <v>0</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="2738" spans="1:6">
@@ -68923,7 +68923,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2740">
-        <v>0</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="2741" spans="1:6">
@@ -69003,7 +69003,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2744">
-        <v>0</v>
+        <v>10.09</v>
       </c>
     </row>
     <row r="2745" spans="1:6">
@@ -69243,7 +69243,7 @@
         <v>0</v>
       </c>
       <c r="F2756">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="2757" spans="1:6">
@@ -69403,7 +69403,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2764">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="2765" spans="1:6">
@@ -69423,7 +69423,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2765">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="2766" spans="1:6">
@@ -69443,7 +69443,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2766">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="2767" spans="1:6">
@@ -69463,7 +69463,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2767">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="2768" spans="1:6">
@@ -69483,7 +69483,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2768">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="2769" spans="1:6">
@@ -69503,7 +69503,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2769">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="2770" spans="1:6">
@@ -69523,7 +69523,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2770">
-        <v>0</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="2771" spans="1:6">
@@ -69743,7 +69743,7 @@
         <v>-3.43</v>
       </c>
       <c r="F2781">
-        <v>-3.55</v>
+        <v>8.709999999999999</v>
       </c>
     </row>
     <row r="2782" spans="1:6">
@@ -70043,7 +70043,7 @@
         <v>0</v>
       </c>
       <c r="F2796">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="2797" spans="1:6">
@@ -70423,7 +70423,7 @@
         <v>0</v>
       </c>
       <c r="F2815">
-        <v>0</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="2816" spans="1:6">
@@ -70543,7 +70543,7 @@
         <v>-28.09</v>
       </c>
       <c r="F2821">
-        <v>0</v>
+        <v>27.32</v>
       </c>
     </row>
     <row r="2822" spans="1:6">
@@ -71263,7 +71263,7 @@
         <v>0</v>
       </c>
       <c r="F2857">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="2858" spans="1:6">
@@ -71303,7 +71303,7 @@
         <v>0</v>
       </c>
       <c r="F2859">
-        <v>0</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="2860" spans="1:6">
@@ -71323,7 +71323,7 @@
         <v>0</v>
       </c>
       <c r="F2860">
-        <v>0</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="2861" spans="1:6">
@@ -71683,7 +71683,7 @@
         <v>-13.13</v>
       </c>
       <c r="F2878">
-        <v>-2.67</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="2879" spans="1:6">
@@ -71763,7 +71763,7 @@
         <v>0</v>
       </c>
       <c r="F2882">
-        <v>0</v>
+        <v>-10.04</v>
       </c>
     </row>
     <row r="2883" spans="1:6">
@@ -71883,7 +71883,7 @@
         <v>21.57</v>
       </c>
       <c r="F2888">
-        <v>2.95</v>
+        <v>-7.399999999999999</v>
       </c>
     </row>
     <row r="2889" spans="1:6">
@@ -72963,7 +72963,7 @@
         <v>0.53</v>
       </c>
       <c r="F2942">
-        <v>0</v>
+        <v>-10.82</v>
       </c>
     </row>
     <row r="2943" spans="1:6">
@@ -73823,7 +73823,7 @@
         <v>-7.3</v>
       </c>
       <c r="F2985">
-        <v>-19.7</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="2986" spans="1:6">
@@ -73863,7 +73863,7 @@
         <v>-27.8</v>
       </c>
       <c r="F2987">
-        <v>-51.01</v>
+        <v>-6.25</v>
       </c>
     </row>
     <row r="2988" spans="1:6">
@@ -73883,7 +73883,7 @@
         <v>-1.52</v>
       </c>
       <c r="F2988">
-        <v>-9.19</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="2989" spans="1:6">
@@ -73903,7 +73903,7 @@
         <v>-2.47</v>
       </c>
       <c r="F2989">
-        <v>-6.36</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="2990" spans="1:6">
@@ -73963,7 +73963,7 @@
         <v>-9.77</v>
       </c>
       <c r="F2992">
-        <v>-15.15</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="2993" spans="1:6">
@@ -74003,7 +74003,7 @@
         <v>-10</v>
       </c>
       <c r="F2994">
-        <v>-12.52</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="2995" spans="1:6">
@@ -74483,7 +74483,7 @@
         <v>2.42</v>
       </c>
       <c r="F3018">
-        <v>2.36</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="3019" spans="1:6">
@@ -74543,7 +74543,7 @@
         <v>0</v>
       </c>
       <c r="F3021">
-        <v>0</v>
+        <v>-8.35</v>
       </c>
     </row>
     <row r="3022" spans="1:6">
@@ -75463,7 +75463,7 @@
         <v>-15.48</v>
       </c>
       <c r="F3067">
-        <v>-34.43</v>
+        <v>-14.29</v>
       </c>
     </row>
     <row r="3068" spans="1:6">
@@ -75503,7 +75503,7 @@
         <v>-4.44</v>
       </c>
       <c r="F3069">
-        <v>-27.17</v>
+        <v>-11.31</v>
       </c>
     </row>
     <row r="3070" spans="1:6">
@@ -75523,7 +75523,7 @@
         <v>-10.91</v>
       </c>
       <c r="F3070">
-        <v>-23.72</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="3071" spans="1:6">
@@ -75543,7 +75543,7 @@
         <v>-5.34</v>
       </c>
       <c r="F3071">
-        <v>-27.58</v>
+        <v>-11.45</v>
       </c>
     </row>
     <row r="3072" spans="1:6">
@@ -75703,7 +75703,7 @@
         <v>-12.61</v>
       </c>
       <c r="F3079">
-        <v>-13.14</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="3080" spans="1:6">
@@ -75763,7 +75763,7 @@
         <v>0</v>
       </c>
       <c r="F3082">
-        <v>0</v>
+        <v>-17.92</v>
       </c>
     </row>
     <row r="3083" spans="1:6">
@@ -75823,7 +75823,7 @@
         <v>9.16</v>
       </c>
       <c r="F3085">
-        <v>-12.06</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="3086" spans="1:6">
@@ -75903,7 +75903,7 @@
         <v>-13.14</v>
       </c>
       <c r="F3089">
-        <v>-37.86</v>
+        <v>-11.37</v>
       </c>
     </row>
     <row r="3090" spans="1:6">
@@ -75983,7 +75983,7 @@
         <v>-6.27</v>
       </c>
       <c r="F3093">
-        <v>-27.85</v>
+        <v>-11.57</v>
       </c>
     </row>
     <row r="3094" spans="1:6">
@@ -76023,7 +76023,7 @@
         <v>-5.04</v>
       </c>
       <c r="F3095">
-        <v>-25.91</v>
+        <v>-10.76</v>
       </c>
     </row>
     <row r="3096" spans="1:6">
@@ -76043,7 +76043,7 @@
         <v>0</v>
       </c>
       <c r="F3096">
-        <v>0</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="3097" spans="1:6">
@@ -76083,7 +76083,7 @@
         <v>4.87</v>
       </c>
       <c r="F3098">
-        <v>0.8200000000000001</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="3099" spans="1:6">
@@ -76123,7 +76123,7 @@
         <v>-32.39</v>
       </c>
       <c r="F3100">
-        <v>-8</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="3101" spans="1:6">
@@ -76143,7 +76143,7 @@
         <v>0.22</v>
       </c>
       <c r="F3101">
-        <v>-21.75</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="3102" spans="1:6">
@@ -76163,7 +76163,7 @@
         <v>-5.09</v>
       </c>
       <c r="F3102">
-        <v>-0.8699999999999999</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="3103" spans="1:6">
@@ -76223,7 +76223,7 @@
         <v>-3.89</v>
       </c>
       <c r="F3105">
-        <v>-19.13</v>
+        <v>-7.960000000000001</v>
       </c>
     </row>
     <row r="3106" spans="1:6">
@@ -77983,7 +77983,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3193">
-        <v>-7.870000000000001</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3194" spans="1:6">
@@ -78003,7 +78003,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3194">
-        <v>-7.870000000000001</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3195" spans="1:6">
@@ -78023,7 +78023,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3195">
-        <v>-7.870000000000001</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="3196" spans="1:6">
@@ -79603,7 +79603,7 @@
         <v>-2.01</v>
       </c>
       <c r="F3274">
-        <v>-30.99</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="3275" spans="1:6">
@@ -80463,7 +80463,7 @@
         <v>-12.29</v>
       </c>
       <c r="F3317">
-        <v>-2.36</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="3318" spans="1:6">
@@ -80743,7 +80743,7 @@
         <v>9.1</v>
       </c>
       <c r="F3331">
-        <v>6.27</v>
+        <v>17.83</v>
       </c>
     </row>
     <row r="3332" spans="1:6">
@@ -80763,7 +80763,7 @@
         <v>23.82</v>
       </c>
       <c r="F3332">
-        <v>1.66</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="3333" spans="1:6">
@@ -80943,7 +80943,7 @@
         <v>18.58</v>
       </c>
       <c r="F3341">
-        <v>2.41</v>
+        <v>-7.630000000000001</v>
       </c>
     </row>
     <row r="3342" spans="1:6">
@@ -80983,7 +80983,7 @@
         <v>18.58</v>
       </c>
       <c r="F3343">
-        <v>2.41</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="3344" spans="1:6">
@@ -81003,7 +81003,7 @@
         <v>21.52</v>
       </c>
       <c r="F3344">
-        <v>7.7</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="3345" spans="1:6">
@@ -81043,7 +81043,7 @@
         <v>18.58</v>
       </c>
       <c r="F3346">
-        <v>2.41</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="3347" spans="1:6">
@@ -81063,7 +81063,7 @@
         <v>20.2</v>
       </c>
       <c r="F3347">
-        <v>3.58</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="3348" spans="1:6">
@@ -81203,7 +81203,7 @@
         <v>26.66</v>
       </c>
       <c r="F3354">
-        <v>3.24</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="3355" spans="1:6">
@@ -81283,7 +81283,7 @@
         <v>2.05</v>
       </c>
       <c r="F3358">
-        <v>-0.13</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="3359" spans="1:6">
@@ -81543,7 +81543,7 @@
         <v>0</v>
       </c>
       <c r="F3371">
-        <v>0</v>
+        <v>-13.38</v>
       </c>
     </row>
     <row r="3372" spans="1:6">
@@ -81563,7 +81563,7 @@
         <v>0</v>
       </c>
       <c r="F3372">
-        <v>0</v>
+        <v>-13.38</v>
       </c>
     </row>
     <row r="3373" spans="1:6">
@@ -82063,7 +82063,7 @@
         <v>0</v>
       </c>
       <c r="F3397">
-        <v>0</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="3398" spans="1:6">
@@ -82103,7 +82103,7 @@
         <v>0</v>
       </c>
       <c r="F3399">
-        <v>0</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="3400" spans="1:6">
@@ -82123,7 +82123,7 @@
         <v>0</v>
       </c>
       <c r="F3400">
-        <v>0</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="3401" spans="1:6">
@@ -82163,7 +82163,7 @@
         <v>0</v>
       </c>
       <c r="F3402">
-        <v>0</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="3403" spans="1:6">
@@ -82183,7 +82183,7 @@
         <v>0</v>
       </c>
       <c r="F3403">
-        <v>0</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="3404" spans="1:6">
@@ -82223,7 +82223,7 @@
         <v>0</v>
       </c>
       <c r="F3405">
-        <v>0</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="3406" spans="1:6">
@@ -82423,7 +82423,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="F3415">
-        <v>-12.95</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="3416" spans="1:6">
@@ -82443,7 +82443,7 @@
         <v>15.23</v>
       </c>
       <c r="F3416">
-        <v>-8.619999999999999</v>
+        <v>-11.49</v>
       </c>
     </row>
     <row r="3417" spans="1:6">
@@ -82503,7 +82503,7 @@
         <v>5.44</v>
       </c>
       <c r="F3419">
-        <v>-6.77</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="3420" spans="1:6">
@@ -82563,7 +82563,7 @@
         <v>9.879999999999999</v>
       </c>
       <c r="F3422">
-        <v>-10.67</v>
+        <v>-13.48</v>
       </c>
     </row>
     <row r="3423" spans="1:6">
@@ -82743,7 +82743,7 @@
         <v>0</v>
       </c>
       <c r="F3431">
-        <v>0</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="3432" spans="1:6">
@@ -83763,7 +83763,7 @@
         <v>7.779999999999999</v>
       </c>
       <c r="F3482">
-        <v>-10.47</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="3483" spans="1:6">
@@ -84723,7 +84723,7 @@
         <v>-2.64</v>
       </c>
       <c r="F3530">
-        <v>-16.09</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="3531" spans="1:6">
@@ -84823,7 +84823,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F3535">
-        <v>-13.8</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="3536" spans="1:6">
@@ -85283,7 +85283,7 @@
         <v>-10.36</v>
       </c>
       <c r="F3558">
-        <v>-28.91</v>
+        <v>-8.690000000000001</v>
       </c>
     </row>
     <row r="3559" spans="1:6">
@@ -85583,7 +85583,7 @@
         <v>-7.049999999999999</v>
       </c>
       <c r="F3573">
-        <v>-18.93</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="3574" spans="1:6">
@@ -86043,7 +86043,7 @@
         <v>-19.85</v>
       </c>
       <c r="F3596">
-        <v>-5.24</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="3597" spans="1:6">
@@ -86083,7 +86083,7 @@
         <v>-0.7799999999999999</v>
       </c>
       <c r="F3598">
-        <v>-22.83</v>
+        <v>-7.090000000000001</v>
       </c>
     </row>
     <row r="3599" spans="1:6">
@@ -86103,7 +86103,7 @@
         <v>8.59</v>
       </c>
       <c r="F3599">
-        <v>-29.5</v>
+        <v>-15.11</v>
       </c>
     </row>
     <row r="3600" spans="1:6">
@@ -86303,7 +86303,7 @@
         <v>0</v>
       </c>
       <c r="F3609">
-        <v>0</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="3610" spans="1:6">
@@ -86743,7 +86743,7 @@
         <v>-12.23</v>
       </c>
       <c r="F3631">
-        <v>-2.28</v>
+        <v>-8.390000000000001</v>
       </c>
     </row>
     <row r="3632" spans="1:6">
@@ -86763,7 +86763,7 @@
         <v>-12.23</v>
       </c>
       <c r="F3632">
-        <v>13.94</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="3633" spans="1:6">
@@ -86843,7 +86843,7 @@
         <v>0</v>
       </c>
       <c r="F3636">
-        <v>0</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="3637" spans="1:6">
@@ -87223,7 +87223,7 @@
         <v>-5.55</v>
       </c>
       <c r="F3655">
-        <v>3.89</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="3656" spans="1:6">
@@ -87363,7 +87363,7 @@
         <v>0</v>
       </c>
       <c r="F3662">
-        <v>0</v>
+        <v>-11.83</v>
       </c>
     </row>
     <row r="3663" spans="1:6">
@@ -87423,7 +87423,7 @@
         <v>-8.619999999999999</v>
       </c>
       <c r="F3665">
-        <v>-23.72</v>
+        <v>-7.140000000000001</v>
       </c>
     </row>
     <row r="3666" spans="1:6">
@@ -87523,7 +87523,7 @@
         <v>-0.42</v>
       </c>
       <c r="F3670">
-        <v>-17.04</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="3671" spans="1:6">
@@ -87623,7 +87623,7 @@
         <v>0</v>
       </c>
       <c r="F3675">
-        <v>0</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="3676" spans="1:6">
@@ -87723,7 +87723,7 @@
         <v>-8.94</v>
       </c>
       <c r="F3680">
-        <v>-24.55</v>
+        <v>-7.37</v>
       </c>
     </row>
     <row r="3681" spans="1:6">
@@ -89203,7 +89203,7 @@
         <v>-22.6</v>
       </c>
       <c r="F3754">
-        <v>-4.89</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="3755" spans="1:6">
@@ -89363,7 +89363,7 @@
         <v>0</v>
       </c>
       <c r="F3762">
-        <v>0</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="3763" spans="1:6">
@@ -89443,7 +89443,7 @@
         <v>4.7</v>
       </c>
       <c r="F3766">
-        <v>4.49</v>
+        <v>-7.870000000000001</v>
       </c>
     </row>
     <row r="3767" spans="1:6">
@@ -89463,7 +89463,7 @@
         <v>4.7</v>
       </c>
       <c r="F3767">
-        <v>4.49</v>
+        <v>-7.870000000000001</v>
       </c>
     </row>
     <row r="3768" spans="1:6">
@@ -90043,7 +90043,7 @@
         <v>-5.41</v>
       </c>
       <c r="F3796">
-        <v>-0.9299999999999999</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="3797" spans="1:6">
@@ -90523,7 +90523,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3820">
-        <v>-5.43</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="3821" spans="1:6">
@@ -90543,7 +90543,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3821">
-        <v>-5.43</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="3822" spans="1:6">
@@ -90563,7 +90563,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3822">
-        <v>-5.43</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="3823" spans="1:6">
@@ -90583,7 +90583,7 @@
         <v>-21.99</v>
       </c>
       <c r="F3823">
-        <v>-5.43</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="3824" spans="1:6">
@@ -90983,7 +90983,7 @@
         <v>-12.9</v>
       </c>
       <c r="F3843">
-        <v>-2.48</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="3844" spans="1:6">
@@ -91063,7 +91063,7 @@
         <v>-15.52</v>
       </c>
       <c r="F3847">
-        <v>-3.05</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="3848" spans="1:6">
@@ -91703,7 +91703,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3879">
-        <v>-7.16</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="3880" spans="1:6">
@@ -91723,7 +91723,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3880">
-        <v>-7.16</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="3881" spans="1:6">
@@ -91743,7 +91743,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3881">
-        <v>-7.16</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="3882" spans="1:6">
@@ -92023,7 +92023,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="F3895">
-        <v>3.7</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="3896" spans="1:6">
@@ -92323,7 +92323,7 @@
         <v>-5.71</v>
       </c>
       <c r="F3910">
-        <v>-8.07</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="3911" spans="1:6">
@@ -92743,7 +92743,7 @@
         <v>-2.29</v>
       </c>
       <c r="F3931">
-        <v>4.97</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="3932" spans="1:6">
@@ -92803,7 +92803,7 @@
         <v>-2.51</v>
       </c>
       <c r="F3934">
-        <v>2.57</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="3935" spans="1:6">
@@ -93323,7 +93323,7 @@
         <v>-3.53</v>
       </c>
       <c r="F3960">
-        <v>-21.78</v>
+        <v>-9.06</v>
       </c>
     </row>
     <row r="3961" spans="1:6">
@@ -93343,7 +93343,7 @@
         <v>-4.34</v>
       </c>
       <c r="F3961">
-        <v>-27.23</v>
+        <v>-11.35</v>
       </c>
     </row>
     <row r="3962" spans="1:6">
@@ -93403,7 +93403,7 @@
         <v>-12.52</v>
       </c>
       <c r="F3964">
-        <v>0</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="3965" spans="1:6">
@@ -93483,7 +93483,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3968">
-        <v>-20.14</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="3969" spans="1:6">
@@ -93503,7 +93503,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3969">
-        <v>-20.14</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="3970" spans="1:6">
@@ -93523,7 +93523,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3970">
-        <v>-20.14</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="3971" spans="1:6">
@@ -93823,7 +93823,7 @@
         <v>15.41</v>
       </c>
       <c r="F3985">
-        <v>0</v>
+        <v>-15.54</v>
       </c>
     </row>
     <row r="3986" spans="1:6">
@@ -94523,7 +94523,7 @@
         <v>0.5</v>
       </c>
       <c r="F4020">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4021" spans="1:6">
@@ -94543,7 +94543,7 @@
         <v>0.5</v>
       </c>
       <c r="F4021">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4022" spans="1:6">
@@ -94583,7 +94583,7 @@
         <v>0.5</v>
       </c>
       <c r="F4023">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4024" spans="1:6">
@@ -94603,7 +94603,7 @@
         <v>0.5</v>
       </c>
       <c r="F4024">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4025" spans="1:6">
@@ -94643,7 +94643,7 @@
         <v>0.5</v>
       </c>
       <c r="F4026">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4027" spans="1:6">
@@ -94663,7 +94663,7 @@
         <v>0.5</v>
       </c>
       <c r="F4027">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4028" spans="1:6">
@@ -94683,7 +94683,7 @@
         <v>0.5</v>
       </c>
       <c r="F4028">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4029" spans="1:6">
@@ -94703,7 +94703,7 @@
         <v>21.57</v>
       </c>
       <c r="F4029">
-        <v>2.95</v>
+        <v>-7.399999999999999</v>
       </c>
     </row>
     <row r="4030" spans="1:6">
@@ -94723,7 +94723,7 @@
         <v>0.5</v>
       </c>
       <c r="F4030">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4031" spans="1:6">
@@ -94743,7 +94743,7 @@
         <v>0.5</v>
       </c>
       <c r="F4031">
-        <v>0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4032" spans="1:6">
@@ -95283,7 +95283,7 @@
         <v>5.02</v>
       </c>
       <c r="F4058">
-        <v>11.99</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="4059" spans="1:6">
@@ -95423,7 +95423,7 @@
         <v>-17.88</v>
       </c>
       <c r="F4065">
-        <v>0.06</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="4066" spans="1:6">
@@ -95743,7 +95743,7 @@
         <v>0</v>
       </c>
       <c r="F4081">
-        <v>0</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="4082" spans="1:6">
@@ -95763,7 +95763,7 @@
         <v>0</v>
       </c>
       <c r="F4082">
-        <v>0</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="4083" spans="1:6">
@@ -95803,7 +95803,7 @@
         <v>0</v>
       </c>
       <c r="F4084">
-        <v>0</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="4085" spans="1:6">
@@ -96183,7 +96183,7 @@
         <v>10.02</v>
       </c>
       <c r="F4103">
-        <v>4.51</v>
+        <v>-14.67</v>
       </c>
     </row>
     <row r="4104" spans="1:6">
@@ -98143,7 +98143,7 @@
         <v>-22.27</v>
       </c>
       <c r="F4201">
-        <v>0</v>
+        <v>25.06</v>
       </c>
     </row>
     <row r="4202" spans="1:6">
@@ -99083,7 +99083,7 @@
         <v>0</v>
       </c>
       <c r="F4248">
-        <v>0</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="4249" spans="1:6">
@@ -101083,7 +101083,7 @@
         <v>0</v>
       </c>
       <c r="F4348">
-        <v>0</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="4349" spans="1:6">
@@ -101103,7 +101103,7 @@
         <v>0</v>
       </c>
       <c r="F4349">
-        <v>0</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="4350" spans="1:6">
@@ -101123,7 +101123,7 @@
         <v>0</v>
       </c>
       <c r="F4350">
-        <v>0</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="4351" spans="1:6">
@@ -102643,7 +102643,7 @@
         <v>20.21</v>
       </c>
       <c r="F4426">
-        <v>-13.48</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="4427" spans="1:6">
@@ -102843,7 +102843,7 @@
         <v>-5.36</v>
       </c>
       <c r="F4436">
-        <v>-34.06</v>
+        <v>-14.19</v>
       </c>
     </row>
     <row r="4437" spans="1:6">
@@ -102883,7 +102883,7 @@
         <v>2.66</v>
       </c>
       <c r="F4438">
-        <v>-3.1</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="4439" spans="1:6">
@@ -102923,7 +102923,7 @@
         <v>2.95</v>
       </c>
       <c r="F4440">
-        <v>-17.64</v>
+        <v>-18.79</v>
       </c>
     </row>
     <row r="4441" spans="1:6">
@@ -102943,7 +102943,7 @@
         <v>-0.97</v>
       </c>
       <c r="F4441">
-        <v>-8.640000000000001</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="4442" spans="1:6">
@@ -102963,7 +102963,7 @@
         <v>3.18</v>
       </c>
       <c r="F4442">
-        <v>7.720000000000001</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="4443" spans="1:6">
@@ -103063,7 +103063,7 @@
         <v>0</v>
       </c>
       <c r="F4447">
-        <v>-18.42</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="4448" spans="1:6">
@@ -103163,7 +103163,7 @@
         <v>-8.94</v>
       </c>
       <c r="F4452">
-        <v>-24.55</v>
+        <v>-22.48</v>
       </c>
     </row>
     <row r="4453" spans="1:6">
@@ -103223,7 +103223,7 @@
         <v>-0.91</v>
       </c>
       <c r="F4455">
-        <v>-5.510000000000001</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="4456" spans="1:6">
@@ -103243,7 +103243,7 @@
         <v>-0.91</v>
       </c>
       <c r="F4456">
-        <v>-16.52</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="4457" spans="1:6">
@@ -103303,7 +103303,7 @@
         <v>3.21</v>
       </c>
       <c r="F4459">
-        <v>-4.67</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="4460" spans="1:6">
@@ -103343,7 +103343,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F4461">
-        <v>-3.12</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="4462" spans="1:6">
@@ -103363,7 +103363,7 @@
         <v>7.870000000000001</v>
       </c>
       <c r="F4462">
-        <v>-7.290000000000001</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="4463" spans="1:6">
@@ -103383,7 +103383,7 @@
         <v>-12.69</v>
       </c>
       <c r="F4463">
-        <v>-2.85</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="4464" spans="1:6">
@@ -103403,7 +103403,7 @@
         <v>1.86</v>
       </c>
       <c r="F4464">
-        <v>-10.92</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="4465" spans="1:6">
@@ -103463,7 +103463,7 @@
         <v>1.9</v>
       </c>
       <c r="F4467">
-        <v>1.24</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4468" spans="1:6">
@@ -103603,7 +103603,7 @@
         <v>1.01</v>
       </c>
       <c r="F4474">
-        <v>-12.09</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="4475" spans="1:6">
@@ -103623,7 +103623,7 @@
         <v>-1.03</v>
       </c>
       <c r="F4475">
-        <v>-10.27</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="4476" spans="1:6">
@@ -103643,7 +103643,7 @@
         <v>1.01</v>
       </c>
       <c r="F4476">
-        <v>-12.09</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="4477" spans="1:6">
@@ -103683,7 +103683,7 @@
         <v>1.79</v>
       </c>
       <c r="F4478">
-        <v>-12.09</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="4479" spans="1:6">
@@ -104523,7 +104523,7 @@
         <v>-18.38</v>
       </c>
       <c r="F4520">
-        <v>-3.77</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="4521" spans="1:6">
@@ -104563,7 +104563,7 @@
         <v>-22.13</v>
       </c>
       <c r="F4522">
-        <v>-4.7</v>
+        <v>-4.850000000000001</v>
       </c>
     </row>
     <row r="4523" spans="1:6">
@@ -104623,7 +104623,7 @@
         <v>7.89</v>
       </c>
       <c r="F4525">
-        <v>-19.6</v>
+        <v>-9.800000000000001</v>
       </c>
     </row>
     <row r="4526" spans="1:6">
@@ -104663,7 +104663,7 @@
         <v>-10.3</v>
       </c>
       <c r="F4527">
-        <v>1.01</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="4528" spans="1:6">
@@ -104683,7 +104683,7 @@
         <v>-10.3</v>
       </c>
       <c r="F4528">
-        <v>1.01</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="4529" spans="1:6">
@@ -105103,7 +105103,7 @@
         <v>-6</v>
       </c>
       <c r="F4549">
-        <v>-15.04</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="4550" spans="1:6">
@@ -105543,7 +105543,7 @@
         <v>2.48</v>
       </c>
       <c r="F4571">
-        <v>0</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="4572" spans="1:6">
@@ -105623,7 +105623,7 @@
         <v>0</v>
       </c>
       <c r="F4575">
-        <v>0</v>
+        <v>-14.34</v>
       </c>
     </row>
     <row r="4576" spans="1:6">

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -14183,7 +14183,7 @@
         <v>42.98</v>
       </c>
       <c r="F3">
-        <v>16.73</v>
+        <v>8.540000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -14423,7 +14423,7 @@
         <v>-3.43</v>
       </c>
       <c r="F15">
-        <v>-8.91</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -14483,7 +14483,7 @@
         <v>-6.87</v>
       </c>
       <c r="F18">
-        <v>-5.55</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>-6.710000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -15303,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-4.34</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -15383,7 +15383,7 @@
         <v>-3.7</v>
       </c>
       <c r="F63">
-        <v>-0.06</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -15723,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -16143,7 +16143,7 @@
         <v>1.34</v>
       </c>
       <c r="F101">
-        <v>3.39</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-7.52</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -16243,7 +16243,7 @@
         <v>6</v>
       </c>
       <c r="F106">
-        <v>-6.36</v>
+        <v>-9.4</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -16283,7 +16283,7 @@
         <v>-21.11</v>
       </c>
       <c r="F108">
-        <v>6.950000000000001</v>
+        <v>13.97</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -16303,7 +16303,7 @@
         <v>-19.55</v>
       </c>
       <c r="F109">
-        <v>8.369999999999999</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -16483,7 +16483,7 @@
         <v>-1.36</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -16563,7 +16563,7 @@
         <v>6.01</v>
       </c>
       <c r="F122">
-        <v>0.86</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -16603,7 +16603,7 @@
         <v>-17.08</v>
       </c>
       <c r="F124">
-        <v>-6.83</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -16683,7 +16683,7 @@
         <v>-15.62</v>
       </c>
       <c r="F128">
-        <v>-8.44</v>
+        <v>-6.76</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -16823,7 +16823,7 @@
         <v>-29.44</v>
       </c>
       <c r="F135">
-        <v>16.23</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -16883,7 +16883,7 @@
         <v>-28.77</v>
       </c>
       <c r="F138">
-        <v>16.86</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -16923,7 +16923,7 @@
         <v>-29.44</v>
       </c>
       <c r="F140">
-        <v>16.23</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -16963,7 +16963,7 @@
         <v>-29.44</v>
       </c>
       <c r="F142">
-        <v>16.23</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -17003,7 +17003,7 @@
         <v>-3.330000000000001</v>
       </c>
       <c r="F144">
-        <v>-33.61</v>
+        <v>-29.58</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -17023,7 +17023,7 @@
         <v>-3.47</v>
       </c>
       <c r="F145">
-        <v>-8.219999999999999</v>
+        <v>-11.86</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -17423,7 +17423,7 @@
         <v>29.5</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.03</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>-1.73</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -18063,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -18283,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -18363,7 +18363,7 @@
         <v>-10.77</v>
       </c>
       <c r="F212">
-        <v>8.17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -18403,7 +18403,7 @@
         <v>-2.3</v>
       </c>
       <c r="F214">
-        <v>-5.3</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -19223,7 +19223,7 @@
         <v>-5.3</v>
       </c>
       <c r="F255">
-        <v>4.91</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -19283,7 +19283,7 @@
         <v>-5.54</v>
       </c>
       <c r="F258">
-        <v>-1.22</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -19583,7 +19583,7 @@
         <v>-6.87</v>
       </c>
       <c r="F273">
-        <v>3.06</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -19843,7 +19843,7 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -19863,7 +19863,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -20043,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -20503,7 +20503,7 @@
         <v>-20.35</v>
       </c>
       <c r="F319">
-        <v>1.36</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -20683,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="F328">
-        <v>0</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="F346">
-        <v>0</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -21243,7 +21243,7 @@
         <v>-0.76</v>
       </c>
       <c r="F356">
-        <v>1.2</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="F357">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -21543,7 +21543,7 @@
         <v>0</v>
       </c>
       <c r="F371">
-        <v>-6.99</v>
+        <v>-9.229999999999999</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -21783,7 +21783,7 @@
         <v>-17.22</v>
       </c>
       <c r="F383">
-        <v>8.690000000000001</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -22123,7 +22123,7 @@
         <v>2.89</v>
       </c>
       <c r="F400">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -22803,7 +22803,7 @@
         <v>0</v>
       </c>
       <c r="F434">
-        <v>0</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -22923,7 +22923,7 @@
         <v>0</v>
       </c>
       <c r="F440">
-        <v>0</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -23203,7 +23203,7 @@
         <v>-4.01</v>
       </c>
       <c r="F454">
-        <v>14.71</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -23223,7 +23223,7 @@
         <v>-4.01</v>
       </c>
       <c r="F455">
-        <v>14.71</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -23323,7 +23323,7 @@
         <v>25.73</v>
       </c>
       <c r="F460">
-        <v>3.42</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -23363,7 +23363,7 @@
         <v>25.73</v>
       </c>
       <c r="F462">
-        <v>3.42</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -23383,7 +23383,7 @@
         <v>25.73</v>
       </c>
       <c r="F463">
-        <v>3.42</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -23463,7 +23463,7 @@
         <v>4.69</v>
       </c>
       <c r="F467">
-        <v>-4.48</v>
+        <v>-14.18</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -23703,7 +23703,7 @@
         <v>2.3</v>
       </c>
       <c r="F479">
-        <v>7.64</v>
+        <v>6.069999999999999</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -23723,7 +23723,7 @@
         <v>0</v>
       </c>
       <c r="F480">
-        <v>0</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F481">
-        <v>0</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="F482">
-        <v>-10.38</v>
+        <v>-13.84</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -23943,7 +23943,7 @@
         <v>-15.25</v>
       </c>
       <c r="F491">
-        <v>25.15</v>
+        <v>34.15000000000001</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -23963,7 +23963,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="F492">
-        <v>17.02</v>
+        <v>25.43</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -24543,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="F521">
-        <v>5.01</v>
+        <v>6.79</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -24763,7 +24763,7 @@
         <v>-28.52</v>
       </c>
       <c r="F532">
-        <v>33.39</v>
+        <v>44.57</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -24863,7 +24863,7 @@
         <v>0</v>
       </c>
       <c r="F537">
-        <v>0</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="F540">
-        <v>-1.67</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -25003,7 +25003,7 @@
         <v>3.64</v>
       </c>
       <c r="F544">
-        <v>3.51</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -25363,7 +25363,7 @@
         <v>17.43</v>
       </c>
       <c r="F562">
-        <v>-9.379999999999999</v>
+        <v>-13.8</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -25503,7 +25503,7 @@
         <v>0</v>
       </c>
       <c r="F569">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="F570">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="F572">
-        <v>0</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="F573">
-        <v>-5.31</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="F574">
-        <v>2.87</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -25623,7 +25623,7 @@
         <v>-17.22</v>
       </c>
       <c r="F575">
-        <v>8.709999999999999</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -25823,7 +25823,7 @@
         <v>0</v>
       </c>
       <c r="F585">
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -26103,7 +26103,7 @@
         <v>1.98</v>
       </c>
       <c r="F599">
-        <v>17.83</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -26123,7 +26123,7 @@
         <v>4.97</v>
       </c>
       <c r="F600">
-        <v>-13.68</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -26183,7 +26183,7 @@
         <v>-4.97</v>
       </c>
       <c r="F603">
-        <v>-4.65</v>
+        <v>-11.63</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -26203,7 +26203,7 @@
         <v>9.700000000000001</v>
       </c>
       <c r="F604">
-        <v>-1.22</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -26223,7 +26223,7 @@
         <v>-25.3</v>
       </c>
       <c r="F605">
-        <v>0</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -26243,7 +26243,7 @@
         <v>-25.3</v>
       </c>
       <c r="F606">
-        <v>29.1</v>
+        <v>38.62</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -26263,7 +26263,7 @@
         <v>34.35</v>
       </c>
       <c r="F607">
-        <v>-1.62</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -26283,7 +26283,7 @@
         <v>0</v>
       </c>
       <c r="F608">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -26303,7 +26303,7 @@
         <v>18.27</v>
       </c>
       <c r="F609">
-        <v>0</v>
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -26343,7 +26343,7 @@
         <v>0.89</v>
       </c>
       <c r="F611">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -26363,7 +26363,7 @@
         <v>0.89</v>
       </c>
       <c r="F612">
-        <v>0</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="F613">
-        <v>29.41</v>
+        <v>28.72</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -26443,7 +26443,7 @@
         <v>7.140000000000001</v>
       </c>
       <c r="F616">
-        <v>-0.8200000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -26483,7 +26483,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="F618">
-        <v>3.46</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -26603,7 +26603,7 @@
         <v>-14.86</v>
       </c>
       <c r="F624">
-        <v>0</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -26663,7 +26663,7 @@
         <v>-18.28</v>
       </c>
       <c r="F627">
-        <v>15.79</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -26683,7 +26683,7 @@
         <v>-20.4</v>
       </c>
       <c r="F628">
-        <v>-4.2</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -26703,7 +26703,7 @@
         <v>-18.28</v>
       </c>
       <c r="F629">
-        <v>15.79</v>
+        <v>20.61</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -27063,7 +27063,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F647">
-        <v>-1.65</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -27083,7 +27083,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F648">
-        <v>3.85</v>
+        <v>5.489999999999999</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -27103,7 +27103,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F649">
-        <v>3.85</v>
+        <v>5.489999999999999</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="F651">
-        <v>2.65</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -27243,7 +27243,7 @@
         <v>0</v>
       </c>
       <c r="F656">
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -27343,7 +27343,7 @@
         <v>3.64</v>
       </c>
       <c r="F661">
-        <v>3.51</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -27483,7 +27483,7 @@
         <v>-13.17</v>
       </c>
       <c r="F668">
-        <v>4.68</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -27503,7 +27503,7 @@
         <v>19.96</v>
       </c>
       <c r="F669">
-        <v>3.24</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -27683,7 +27683,7 @@
         <v>-11.42</v>
       </c>
       <c r="F678">
-        <v>1.58</v>
+        <v>5.319999999999999</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="F679">
-        <v>12.56</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -27843,7 +27843,7 @@
         <v>0</v>
       </c>
       <c r="F686">
-        <v>-4.55</v>
+        <v>-6.05</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -28003,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="F694">
-        <v>4.54</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="F713">
-        <v>8.4</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -28483,7 +28483,7 @@
         <v>0</v>
       </c>
       <c r="F718">
-        <v>1.58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -28583,7 +28583,7 @@
         <v>0</v>
       </c>
       <c r="F723">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="F743">
-        <v>-7.68</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="F744">
-        <v>-7.68</v>
+        <v>-10.23</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -29083,7 +29083,7 @@
         <v>-16.71</v>
       </c>
       <c r="F748">
-        <v>11.71</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -29103,7 +29103,7 @@
         <v>-18.13</v>
       </c>
       <c r="F749">
-        <v>13.51</v>
+        <v>18.03</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -29403,7 +29403,7 @@
         <v>-4.34</v>
       </c>
       <c r="F764">
-        <v>-0.9900000000000001</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -29423,7 +29423,7 @@
         <v>-3.88</v>
       </c>
       <c r="F765">
-        <v>-0.48</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -29803,7 +29803,7 @@
         <v>9.25</v>
       </c>
       <c r="F784">
-        <v>-5.92</v>
+        <v>-7.920000000000001</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -29823,7 +29823,7 @@
         <v>27.67</v>
       </c>
       <c r="F785">
-        <v>-15.19</v>
+        <v>-20.23</v>
       </c>
     </row>
     <row r="786" spans="1:6">
@@ -29843,7 +29843,7 @@
         <v>9.25</v>
       </c>
       <c r="F786">
-        <v>-5.92</v>
+        <v>-7.920000000000001</v>
       </c>
     </row>
     <row r="787" spans="1:6">
@@ -29963,7 +29963,7 @@
         <v>-16.71</v>
       </c>
       <c r="F792">
-        <v>11.71</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -29983,7 +29983,7 @@
         <v>-23.12</v>
       </c>
       <c r="F793">
-        <v>11.71</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -30203,7 +30203,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="F804">
-        <v>7.01</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -30223,7 +30223,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="F805">
-        <v>7.01</v>
+        <v>9.289999999999999</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -30243,7 +30243,7 @@
         <v>-27.46</v>
       </c>
       <c r="F806">
-        <v>26.52</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -30363,7 +30363,7 @@
         <v>-20.96</v>
       </c>
       <c r="F812">
-        <v>21.23</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -30383,7 +30383,7 @@
         <v>-20.96</v>
       </c>
       <c r="F813">
-        <v>0</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -30423,7 +30423,7 @@
         <v>-27.46</v>
       </c>
       <c r="F815">
-        <v>26.52</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="816" spans="1:6">
@@ -30443,7 +30443,7 @@
         <v>-27.46</v>
       </c>
       <c r="F816">
-        <v>26.52</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="817" spans="1:6">
@@ -30463,7 +30463,7 @@
         <v>-27.46</v>
       </c>
       <c r="F817">
-        <v>26.52</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="F832">
-        <v>28.99</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -30963,7 +30963,7 @@
         <v>0</v>
       </c>
       <c r="F842">
-        <v>0</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -31003,7 +31003,7 @@
         <v>0</v>
       </c>
       <c r="F844">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="845" spans="1:6">
@@ -31323,7 +31323,7 @@
         <v>0</v>
       </c>
       <c r="F860">
-        <v>0</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -31343,7 +31343,7 @@
         <v>0</v>
       </c>
       <c r="F861">
-        <v>0</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -31443,7 +31443,7 @@
         <v>0</v>
       </c>
       <c r="F866">
-        <v>16.96</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -31623,7 +31623,7 @@
         <v>-20.45</v>
       </c>
       <c r="F875">
-        <v>15.01</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="876" spans="1:6">
@@ -31703,7 +31703,7 @@
         <v>-19.78</v>
       </c>
       <c r="F879">
-        <v>10.26</v>
+        <v>15.06</v>
       </c>
     </row>
     <row r="880" spans="1:6">
@@ -31723,7 +31723,7 @@
         <v>-20.45</v>
       </c>
       <c r="F880">
-        <v>15.01</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="881" spans="1:6">
@@ -31923,7 +31923,7 @@
         <v>-13.24</v>
       </c>
       <c r="F890">
-        <v>1.91</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="891" spans="1:6">
@@ -31943,7 +31943,7 @@
         <v>-6.9</v>
       </c>
       <c r="F891">
-        <v>0.89</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -31963,7 +31963,7 @@
         <v>-7.180000000000001</v>
       </c>
       <c r="F892">
-        <v>0.98</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -32363,7 +32363,7 @@
         <v>0</v>
       </c>
       <c r="F912">
-        <v>0</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="913" spans="1:6">
@@ -32463,7 +32463,7 @@
         <v>0.08</v>
       </c>
       <c r="F917">
-        <v>-15.36</v>
+        <v>-20.49</v>
       </c>
     </row>
     <row r="918" spans="1:6">
@@ -33083,7 +33083,7 @@
         <v>-0.83</v>
       </c>
       <c r="F948">
-        <v>2.52</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="949" spans="1:6">
@@ -33183,7 +33183,7 @@
         <v>-4.8</v>
       </c>
       <c r="F953">
-        <v>-14.91</v>
+        <v>-8.33</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -33663,7 +33663,7 @@
         <v>-41.24</v>
       </c>
       <c r="F977">
-        <v>-8.81</v>
+        <v>18.55</v>
       </c>
     </row>
     <row r="978" spans="1:6">
@@ -34043,7 +34043,7 @@
         <v>14.55</v>
       </c>
       <c r="F996">
-        <v>-6.72</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -34063,7 +34063,7 @@
         <v>-1.73</v>
       </c>
       <c r="F997">
-        <v>1.29</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -34083,7 +34083,7 @@
         <v>0.91</v>
       </c>
       <c r="F998">
-        <v>-8.43</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -34223,7 +34223,7 @@
         <v>-12.45</v>
       </c>
       <c r="F1005">
-        <v>5.88</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -34263,7 +34263,7 @@
         <v>-12.45</v>
       </c>
       <c r="F1007">
-        <v>5.88</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -34543,7 +34543,7 @@
         <v>4.01</v>
       </c>
       <c r="F1021">
-        <v>-5.779999999999999</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -34823,7 +34823,7 @@
         <v>-3.06</v>
       </c>
       <c r="F1035">
-        <v>-7.91</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="1036" spans="1:6">
@@ -35023,7 +35023,7 @@
         <v>-1.27</v>
       </c>
       <c r="F1045">
-        <v>4.29</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="1046" spans="1:6">
@@ -35423,7 +35423,7 @@
         <v>0</v>
       </c>
       <c r="F1065">
-        <v>-3.13</v>
+        <v>-4.130000000000001</v>
       </c>
     </row>
     <row r="1066" spans="1:6">
@@ -35583,7 +35583,7 @@
         <v>-6.239999999999999</v>
       </c>
       <c r="F1073">
-        <v>0</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="1074" spans="1:6">
@@ -35623,7 +35623,7 @@
         <v>0</v>
       </c>
       <c r="F1075">
-        <v>12.86</v>
+        <v>17.19</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -35723,7 +35723,7 @@
         <v>9.049999999999999</v>
       </c>
       <c r="F1080">
-        <v>-1.05</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="1081" spans="1:6">
@@ -35743,7 +35743,7 @@
         <v>-10.65</v>
       </c>
       <c r="F1081">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -35763,7 +35763,7 @@
         <v>-10.65</v>
       </c>
       <c r="F1082">
-        <v>0</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="1083" spans="1:6">
@@ -35803,7 +35803,7 @@
         <v>-6.140000000000001</v>
       </c>
       <c r="F1084">
-        <v>0</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -35823,7 +35823,7 @@
         <v>-6.140000000000001</v>
       </c>
       <c r="F1085">
-        <v>4.6</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -35843,7 +35843,7 @@
         <v>-1.5</v>
       </c>
       <c r="F1086">
-        <v>0.6799999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -35883,7 +35883,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1088">
-        <v>9.34</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="1089" spans="1:6">
@@ -35903,7 +35903,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1089">
-        <v>9.34</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="1090" spans="1:6">
@@ -35923,7 +35923,7 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="F1090">
-        <v>1.26</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="1091" spans="1:6">
@@ -35963,7 +35963,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1092">
-        <v>9.34</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="1093" spans="1:6">
@@ -35983,7 +35983,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1093">
-        <v>9.34</v>
+        <v>12.39</v>
       </c>
     </row>
     <row r="1094" spans="1:6">
@@ -36123,7 +36123,7 @@
         <v>2.34</v>
       </c>
       <c r="F1100">
-        <v>2.2</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="1101" spans="1:6">
@@ -36143,7 +36143,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="F1101">
-        <v>2.2</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="1102" spans="1:6">
@@ -36163,7 +36163,7 @@
         <v>2.34</v>
       </c>
       <c r="F1102">
-        <v>2.2</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="1103" spans="1:6">
@@ -36243,7 +36243,7 @@
         <v>2.34</v>
       </c>
       <c r="F1106">
-        <v>2.2</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="1107" spans="1:6">
@@ -36303,7 +36303,7 @@
         <v>0</v>
       </c>
       <c r="F1109">
-        <v>-7.16</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="F1111">
-        <v>-7.16</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="1112" spans="1:6">
@@ -36503,7 +36503,7 @@
         <v>-2.1</v>
       </c>
       <c r="F1119">
-        <v>-7.16</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="1120" spans="1:6">
@@ -36523,7 +36523,7 @@
         <v>-19.8</v>
       </c>
       <c r="F1120">
-        <v>-4.130000000000001</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="1121" spans="1:6">
@@ -36563,7 +36563,7 @@
         <v>0</v>
       </c>
       <c r="F1122">
-        <v>-11.56</v>
+        <v>-15.41</v>
       </c>
     </row>
     <row r="1123" spans="1:6">
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="F1136">
-        <v>18.24</v>
+        <v>24.32</v>
       </c>
     </row>
     <row r="1137" spans="1:6">
@@ -37043,7 +37043,7 @@
         <v>11.62</v>
       </c>
       <c r="F1146">
-        <v>1.84</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="1147" spans="1:6">
@@ -37283,7 +37283,7 @@
         <v>-2.26</v>
       </c>
       <c r="F1158">
-        <v>7.01</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="1159" spans="1:6">
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="F1184">
-        <v>0</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="1185" spans="1:6">
@@ -37863,7 +37863,7 @@
         <v>0</v>
       </c>
       <c r="F1187">
-        <v>0</v>
+        <v>-8.18</v>
       </c>
     </row>
     <row r="1188" spans="1:6">
@@ -38743,7 +38743,7 @@
         <v>-6.63</v>
       </c>
       <c r="F1231">
-        <v>-1.16</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="1232" spans="1:6">
@@ -39263,7 +39263,7 @@
         <v>-2.7</v>
       </c>
       <c r="F1257">
-        <v>-2.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:6">
@@ -39343,7 +39343,7 @@
         <v>0</v>
       </c>
       <c r="F1261">
-        <v>0</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="1262" spans="1:6">
@@ -39383,7 +39383,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1263">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -39403,7 +39403,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1264">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -39423,7 +39423,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1265">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1266" spans="1:6">
@@ -39443,7 +39443,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1266">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -39463,7 +39463,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1267">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1268" spans="1:6">
@@ -39483,7 +39483,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1268">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -39503,7 +39503,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1269">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -39523,7 +39523,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1270">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1271" spans="1:6">
@@ -39543,7 +39543,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1271">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1272" spans="1:6">
@@ -39563,7 +39563,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1272">
-        <v>-5.47</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="1273" spans="1:6">
@@ -39583,7 +39583,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1273">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1274" spans="1:6">
@@ -39603,7 +39603,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1274">
-        <v>13.67</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1275" spans="1:6">
@@ -39703,7 +39703,7 @@
         <v>0</v>
       </c>
       <c r="F1279">
-        <v>0</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="1280" spans="1:6">
@@ -39803,7 +39803,7 @@
         <v>6.76</v>
       </c>
       <c r="F1284">
-        <v>0</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="1285" spans="1:6">
@@ -40063,7 +40063,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1297">
-        <v>13.56</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -40083,7 +40083,7 @@
         <v>-15.44</v>
       </c>
       <c r="F1298">
-        <v>12.36</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -40103,7 +40103,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1299">
-        <v>13.56</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -40123,7 +40123,7 @@
         <v>-15.44</v>
       </c>
       <c r="F1300">
-        <v>12.36</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -40143,7 +40143,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1301">
-        <v>13.56</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="1302" spans="1:6">
@@ -40163,7 +40163,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1302">
-        <v>13.56</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -40223,7 +40223,7 @@
         <v>-11.01</v>
       </c>
       <c r="F1305">
-        <v>-30.88</v>
+        <v>-16.44</v>
       </c>
     </row>
     <row r="1306" spans="1:6">
@@ -40503,7 +40503,7 @@
         <v>-17.84</v>
       </c>
       <c r="F1319">
-        <v>10.56</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="1320" spans="1:6">
@@ -40543,7 +40543,7 @@
         <v>-17.84</v>
       </c>
       <c r="F1321">
-        <v>10.56</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="1322" spans="1:6">
@@ -40563,7 +40563,7 @@
         <v>0.98</v>
       </c>
       <c r="F1322">
-        <v>0</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="1323" spans="1:6">
@@ -40963,7 +40963,7 @@
         <v>4.48</v>
       </c>
       <c r="F1342">
-        <v>-18.99</v>
+        <v>-20.4</v>
       </c>
     </row>
     <row r="1343" spans="1:6">
@@ -40983,7 +40983,7 @@
         <v>0</v>
       </c>
       <c r="F1343">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="1344" spans="1:6">
@@ -41143,7 +41143,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1351">
-        <v>-6.279999999999999</v>
+        <v>-8.290000000000001</v>
       </c>
     </row>
     <row r="1352" spans="1:6">
@@ -41163,7 +41163,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1352">
-        <v>-6.279999999999999</v>
+        <v>-8.290000000000001</v>
       </c>
     </row>
     <row r="1353" spans="1:6">
@@ -41203,7 +41203,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1354">
-        <v>-6.279999999999999</v>
+        <v>7.539999999999999</v>
       </c>
     </row>
     <row r="1355" spans="1:6">
@@ -41263,7 +41263,7 @@
         <v>0</v>
       </c>
       <c r="F1357">
-        <v>10.72</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="1358" spans="1:6">
@@ -41303,7 +41303,7 @@
         <v>0</v>
       </c>
       <c r="F1359">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="1360" spans="1:6">
@@ -41343,7 +41343,7 @@
         <v>-14.19</v>
       </c>
       <c r="F1361">
-        <v>-7.3</v>
+        <v>-8.82</v>
       </c>
     </row>
     <row r="1362" spans="1:6">
@@ -42343,7 +42343,7 @@
         <v>0</v>
       </c>
       <c r="F1411">
-        <v>0</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1412" spans="1:6">
@@ -42803,7 +42803,7 @@
         <v>-27.67</v>
       </c>
       <c r="F1434">
-        <v>15.95</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="1435" spans="1:6">
@@ -43043,7 +43043,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1446">
-        <v>-9.550000000000001</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="1447" spans="1:6">
@@ -43123,7 +43123,7 @@
         <v>3.79</v>
       </c>
       <c r="F1450">
-        <v>0</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="1451" spans="1:6">
@@ -43143,7 +43143,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1451">
-        <v>-9.550000000000001</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="1452" spans="1:6">
@@ -43163,7 +43163,7 @@
         <v>-5.21</v>
       </c>
       <c r="F1452">
-        <v>-2.22</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="1453" spans="1:6">
@@ -43183,7 +43183,7 @@
         <v>-2.29</v>
       </c>
       <c r="F1453">
-        <v>0.29</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="1454" spans="1:6">
@@ -43203,7 +43203,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1454">
-        <v>-9.550000000000001</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="1455" spans="1:6">
@@ -43283,7 +43283,7 @@
         <v>0</v>
       </c>
       <c r="F1458">
-        <v>0</v>
+        <v>-15.62</v>
       </c>
     </row>
     <row r="1459" spans="1:6">
@@ -43303,7 +43303,7 @@
         <v>-1.12</v>
       </c>
       <c r="F1459">
-        <v>-4.51</v>
+        <v>4.89</v>
       </c>
     </row>
     <row r="1460" spans="1:6">
@@ -43323,7 +43323,7 @@
         <v>6.909999999999999</v>
       </c>
       <c r="F1460">
-        <v>-11.68</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="1461" spans="1:6">
@@ -43443,7 +43443,7 @@
         <v>0</v>
       </c>
       <c r="F1466">
-        <v>0</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1467" spans="1:6">
@@ -43463,7 +43463,7 @@
         <v>13.98</v>
       </c>
       <c r="F1467">
-        <v>-4.97</v>
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="1468" spans="1:6">
@@ -43483,7 +43483,7 @@
         <v>0</v>
       </c>
       <c r="F1468">
-        <v>0</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="1469" spans="1:6">
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="F1471">
-        <v>0</v>
+        <v>10.22</v>
       </c>
     </row>
     <row r="1472" spans="1:6">
@@ -43603,7 +43603,7 @@
         <v>-2.41</v>
       </c>
       <c r="F1474">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="1475" spans="1:6">
@@ -43623,7 +43623,7 @@
         <v>7.430000000000001</v>
       </c>
       <c r="F1475">
-        <v>0</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="1476" spans="1:6">
@@ -43743,7 +43743,7 @@
         <v>0</v>
       </c>
       <c r="F1481">
-        <v>0</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -43843,7 +43843,7 @@
         <v>-12.57</v>
       </c>
       <c r="F1486">
-        <v>12.56</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -43863,7 +43863,7 @@
         <v>-12.57</v>
       </c>
       <c r="F1487">
-        <v>12.56</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -45043,7 +45043,7 @@
         <v>-1.74</v>
       </c>
       <c r="F1546">
-        <v>-1.37</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -45063,7 +45063,7 @@
         <v>-1.74</v>
       </c>
       <c r="F1547">
-        <v>-1.37</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="1548" spans="1:6">
@@ -45083,7 +45083,7 @@
         <v>-0.8699999999999999</v>
       </c>
       <c r="F1548">
-        <v>-5.28</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="1549" spans="1:6">
@@ -45103,7 +45103,7 @@
         <v>-0.8699999999999999</v>
       </c>
       <c r="F1549">
-        <v>-5.28</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="1550" spans="1:6">
@@ -45483,7 +45483,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1568">
-        <v>21.23</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="1569" spans="1:6">
@@ -45503,7 +45503,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1569">
-        <v>21.23</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="1570" spans="1:6">
@@ -45543,7 +45543,7 @@
         <v>0</v>
       </c>
       <c r="F1571">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="1572" spans="1:6">
@@ -45563,7 +45563,7 @@
         <v>-27.46</v>
       </c>
       <c r="F1572">
-        <v>26.52</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="1573" spans="1:6">
@@ -45583,7 +45583,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1573">
-        <v>21.23</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="1574" spans="1:6">
@@ -45623,7 +45623,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1575">
-        <v>21.23</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="1576" spans="1:6">
@@ -45663,7 +45663,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1577">
-        <v>21.23</v>
+        <v>23.13</v>
       </c>
     </row>
     <row r="1578" spans="1:6">
@@ -45743,7 +45743,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1581">
-        <v>21.23</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -45763,7 +45763,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1582">
-        <v>21.23</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="1583" spans="1:6">
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="F1598">
-        <v>12.52</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="1599" spans="1:6">
@@ -46103,7 +46103,7 @@
         <v>0</v>
       </c>
       <c r="F1599">
-        <v>0</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="1600" spans="1:6">
@@ -46203,7 +46203,7 @@
         <v>7.5</v>
       </c>
       <c r="F1604">
-        <v>-5.26</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="1605" spans="1:6">
@@ -46223,7 +46223,7 @@
         <v>-15.1</v>
       </c>
       <c r="F1605">
-        <v>7.399999999999999</v>
+        <v>11.83</v>
       </c>
     </row>
     <row r="1606" spans="1:6">
@@ -46243,7 +46243,7 @@
         <v>9.76</v>
       </c>
       <c r="F1606">
-        <v>-3.76</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="1607" spans="1:6">
@@ -46263,7 +46263,7 @@
         <v>-16.54</v>
       </c>
       <c r="F1607">
-        <v>-4.38</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="1608" spans="1:6">
@@ -46403,7 +46403,7 @@
         <v>0</v>
       </c>
       <c r="F1614">
-        <v>0</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="1615" spans="1:6">
@@ -46463,7 +46463,7 @@
         <v>0</v>
       </c>
       <c r="F1617">
-        <v>-14.89</v>
+        <v>-19.86</v>
       </c>
     </row>
     <row r="1618" spans="1:6">
@@ -46503,7 +46503,7 @@
         <v>0</v>
       </c>
       <c r="F1619">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="1620" spans="1:6">
@@ -46663,7 +46663,7 @@
         <v>0</v>
       </c>
       <c r="F1627">
-        <v>0</v>
+        <v>-4.569999999999999</v>
       </c>
     </row>
     <row r="1628" spans="1:6">
@@ -46723,7 +46723,7 @@
         <v>7.829999999999999</v>
       </c>
       <c r="F1630">
-        <v>-7.77</v>
+        <v>-10.96</v>
       </c>
     </row>
     <row r="1631" spans="1:6">
@@ -46783,7 +46783,7 @@
         <v>-21.46</v>
       </c>
       <c r="F1633">
-        <v>8.219999999999999</v>
+        <v>14.59</v>
       </c>
     </row>
     <row r="1634" spans="1:6">
@@ -46803,7 +46803,7 @@
         <v>0</v>
       </c>
       <c r="F1634">
-        <v>-6.67</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="1635" spans="1:6">
@@ -47103,7 +47103,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1649">
-        <v>-15.24</v>
+        <v>-8.129999999999999</v>
       </c>
     </row>
     <row r="1650" spans="1:6">
@@ -47123,7 +47123,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1650">
-        <v>-15.24</v>
+        <v>-8.129999999999999</v>
       </c>
     </row>
     <row r="1651" spans="1:6">
@@ -47163,7 +47163,7 @@
         <v>0</v>
       </c>
       <c r="F1652">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="1653" spans="1:6">
@@ -47183,7 +47183,7 @@
         <v>0</v>
       </c>
       <c r="F1653">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="1654" spans="1:6">
@@ -47203,7 +47203,7 @@
         <v>0</v>
       </c>
       <c r="F1654">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="1655" spans="1:6">
@@ -47223,7 +47223,7 @@
         <v>0</v>
       </c>
       <c r="F1655">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="1656" spans="1:6">
@@ -47323,7 +47323,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1660">
-        <v>-15.24</v>
+        <v>-8.129999999999999</v>
       </c>
     </row>
     <row r="1661" spans="1:6">
@@ -47343,7 +47343,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1661">
-        <v>-15.24</v>
+        <v>-8.129999999999999</v>
       </c>
     </row>
     <row r="1662" spans="1:6">
@@ -47363,7 +47363,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1662">
-        <v>-15.24</v>
+        <v>-8.129999999999999</v>
       </c>
     </row>
     <row r="1663" spans="1:6">
@@ -47383,7 +47383,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1663">
-        <v>-15.24</v>
+        <v>-8.129999999999999</v>
       </c>
     </row>
     <row r="1664" spans="1:6">
@@ -47403,7 +47403,7 @@
         <v>0.76</v>
       </c>
       <c r="F1664">
-        <v>21.21</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="1665" spans="1:6">
@@ -47423,7 +47423,7 @@
         <v>0</v>
       </c>
       <c r="F1665">
-        <v>0</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="1666" spans="1:6">
@@ -47443,7 +47443,7 @@
         <v>0.76</v>
       </c>
       <c r="F1666">
-        <v>21.21</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="1667" spans="1:6">
@@ -47463,7 +47463,7 @@
         <v>0.76</v>
       </c>
       <c r="F1667">
-        <v>21.21</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="1668" spans="1:6">
@@ -47483,7 +47483,7 @@
         <v>4.27</v>
       </c>
       <c r="F1668">
-        <v>-6.16</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="1669" spans="1:6">
@@ -47503,7 +47503,7 @@
         <v>0</v>
       </c>
       <c r="F1669">
-        <v>-2.16</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1670" spans="1:6">
@@ -47523,7 +47523,7 @@
         <v>0</v>
       </c>
       <c r="F1670">
-        <v>-17.12</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="1671" spans="1:6">
@@ -47543,7 +47543,7 @@
         <v>0</v>
       </c>
       <c r="F1671">
-        <v>-2.16</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1672" spans="1:6">
@@ -47643,7 +47643,7 @@
         <v>-13.78</v>
       </c>
       <c r="F1676">
-        <v>15.18</v>
+        <v>21.07</v>
       </c>
     </row>
     <row r="1677" spans="1:6">
@@ -47663,7 +47663,7 @@
         <v>-13.78</v>
       </c>
       <c r="F1677">
-        <v>-2.68</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="1678" spans="1:6">
@@ -47723,7 +47723,7 @@
         <v>-2.91</v>
       </c>
       <c r="F1680">
-        <v>-17.71</v>
+        <v>-10.81</v>
       </c>
     </row>
     <row r="1681" spans="1:6">
@@ -47763,7 +47763,7 @@
         <v>0</v>
       </c>
       <c r="F1682">
-        <v>0</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
@@ -47803,7 +47803,7 @@
         <v>0</v>
       </c>
       <c r="F1684">
-        <v>0</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="1685" spans="1:6">
@@ -47823,7 +47823,7 @@
         <v>0</v>
       </c>
       <c r="F1685">
-        <v>0</v>
+        <v>-9.33</v>
       </c>
     </row>
     <row r="1686" spans="1:6">
@@ -47843,7 +47843,7 @@
         <v>37.83000000000001</v>
       </c>
       <c r="F1686">
-        <v>4.25</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="1687" spans="1:6">
@@ -47863,7 +47863,7 @@
         <v>0.76</v>
       </c>
       <c r="F1687">
-        <v>21.21</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="1688" spans="1:6">
@@ -47883,7 +47883,7 @@
         <v>0.76</v>
       </c>
       <c r="F1688">
-        <v>21.21</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="1689" spans="1:6">
@@ -47903,7 +47903,7 @@
         <v>0.76</v>
       </c>
       <c r="F1689">
-        <v>21.21</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="1690" spans="1:6">
@@ -47943,7 +47943,7 @@
         <v>0</v>
       </c>
       <c r="F1691">
-        <v>-17.12</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="1692" spans="1:6">
@@ -47963,7 +47963,7 @@
         <v>-7.870000000000001</v>
       </c>
       <c r="F1692">
-        <v>-17.12</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="1693" spans="1:6">
@@ -47983,7 +47983,7 @@
         <v>0</v>
       </c>
       <c r="F1693">
-        <v>-2.16</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="1694" spans="1:6">
@@ -48003,7 +48003,7 @@
         <v>0</v>
       </c>
       <c r="F1694">
-        <v>-17.12</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="1695" spans="1:6">
@@ -48023,7 +48023,7 @@
         <v>0.76</v>
       </c>
       <c r="F1695">
-        <v>21.21</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="1696" spans="1:6">
@@ -48063,7 +48063,7 @@
         <v>0</v>
       </c>
       <c r="F1697">
-        <v>-17.12</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="1698" spans="1:6">
@@ -48163,7 +48163,7 @@
         <v>0</v>
       </c>
       <c r="F1702">
-        <v>-15.02</v>
+        <v>-19.95</v>
       </c>
     </row>
     <row r="1703" spans="1:6">
@@ -48183,7 +48183,7 @@
         <v>0</v>
       </c>
       <c r="F1703">
-        <v>-15.02</v>
+        <v>-19.95</v>
       </c>
     </row>
     <row r="1704" spans="1:6">
@@ -48243,7 +48243,7 @@
         <v>0</v>
       </c>
       <c r="F1706">
-        <v>-12.05</v>
+        <v>-16.04</v>
       </c>
     </row>
     <row r="1707" spans="1:6">
@@ -48343,7 +48343,7 @@
         <v>0</v>
       </c>
       <c r="F1711">
-        <v>-15.02</v>
+        <v>-19.95</v>
       </c>
     </row>
     <row r="1712" spans="1:6">
@@ -48363,7 +48363,7 @@
         <v>0</v>
       </c>
       <c r="F1712">
-        <v>-15.02</v>
+        <v>-19.95</v>
       </c>
     </row>
     <row r="1713" spans="1:6">
@@ -48523,7 +48523,7 @@
         <v>0</v>
       </c>
       <c r="F1720">
-        <v>0</v>
+        <v>-9.520000000000001</v>
       </c>
     </row>
     <row r="1721" spans="1:6">
@@ -48543,7 +48543,7 @@
         <v>0</v>
       </c>
       <c r="F1721">
-        <v>0</v>
+        <v>-9.520000000000001</v>
       </c>
     </row>
     <row r="1722" spans="1:6">
@@ -48603,7 +48603,7 @@
         <v>0</v>
       </c>
       <c r="F1724">
-        <v>-6.09</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="1725" spans="1:6">
@@ -48923,7 +48923,7 @@
         <v>-4.6</v>
       </c>
       <c r="F1740">
-        <v>-3.95</v>
+        <v>-8.33</v>
       </c>
     </row>
     <row r="1741" spans="1:6">
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="F1741">
-        <v>-8.369999999999999</v>
+        <v>-12.55</v>
       </c>
     </row>
     <row r="1742" spans="1:6">
@@ -48963,7 +48963,7 @@
         <v>0</v>
       </c>
       <c r="F1742">
-        <v>-8.369999999999999</v>
+        <v>-12.55</v>
       </c>
     </row>
     <row r="1743" spans="1:6">
@@ -48983,7 +48983,7 @@
         <v>-4.6</v>
       </c>
       <c r="F1743">
-        <v>-3.95</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="1744" spans="1:6">
@@ -49003,7 +49003,7 @@
         <v>-3.97</v>
       </c>
       <c r="F1744">
-        <v>-5.79</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="1745" spans="1:6">
@@ -49023,7 +49023,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1745">
-        <v>-5.79</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="1746" spans="1:6">
@@ -49043,7 +49043,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1746">
-        <v>-18.18</v>
+        <v>-15.29</v>
       </c>
     </row>
     <row r="1747" spans="1:6">
@@ -49103,7 +49103,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1749">
-        <v>-5.79</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="1750" spans="1:6">
@@ -49143,7 +49143,7 @@
         <v>0</v>
       </c>
       <c r="F1751">
-        <v>7.03</v>
+        <v>9.359999999999999</v>
       </c>
     </row>
     <row r="1752" spans="1:6">
@@ -49263,7 +49263,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F1757">
-        <v>-4.18</v>
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="1758" spans="1:6">
@@ -49343,7 +49343,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F1761">
-        <v>-4.18</v>
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="1762" spans="1:6">
@@ -49443,7 +49443,7 @@
         <v>0</v>
       </c>
       <c r="F1766">
-        <v>10.35</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="1767" spans="1:6">
@@ -49483,7 +49483,7 @@
         <v>-8.08</v>
       </c>
       <c r="F1768">
-        <v>-2.08</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="1769" spans="1:6">
@@ -49523,7 +49523,7 @@
         <v>-7.46</v>
       </c>
       <c r="F1770">
-        <v>-14.09</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="1771" spans="1:6">
@@ -49663,7 +49663,7 @@
         <v>0</v>
       </c>
       <c r="F1777">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="1778" spans="1:6">
@@ -49783,7 +49783,7 @@
         <v>0</v>
       </c>
       <c r="F1783">
-        <v>4.84</v>
+        <v>6.460000000000001</v>
       </c>
     </row>
     <row r="1784" spans="1:6">
@@ -49803,7 +49803,7 @@
         <v>0</v>
       </c>
       <c r="F1784">
-        <v>13.66</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="1785" spans="1:6">
@@ -49823,7 +49823,7 @@
         <v>0</v>
       </c>
       <c r="F1785">
-        <v>-6.4</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="1786" spans="1:6">
@@ -49863,7 +49863,7 @@
         <v>0</v>
       </c>
       <c r="F1787">
-        <v>-10.02</v>
+        <v>-13.42</v>
       </c>
     </row>
     <row r="1788" spans="1:6">
@@ -50183,7 +50183,7 @@
         <v>2.63</v>
       </c>
       <c r="F1803">
-        <v>-6.419999999999999</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1804" spans="1:6">
@@ -50223,7 +50223,7 @@
         <v>2.63</v>
       </c>
       <c r="F1805">
-        <v>-6.419999999999999</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1806" spans="1:6">
@@ -50243,7 +50243,7 @@
         <v>0</v>
       </c>
       <c r="F1806">
-        <v>-7.539999999999999</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="1807" spans="1:6">
@@ -50263,7 +50263,7 @@
         <v>2.63</v>
       </c>
       <c r="F1807">
-        <v>-6.419999999999999</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1808" spans="1:6">
@@ -50283,7 +50283,7 @@
         <v>3.32</v>
       </c>
       <c r="F1808">
-        <v>-4.73</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="1809" spans="1:6">
@@ -50303,7 +50303,7 @@
         <v>0</v>
       </c>
       <c r="F1809">
-        <v>-3.95</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="1810" spans="1:6">
@@ -50323,7 +50323,7 @@
         <v>6.460000000000001</v>
       </c>
       <c r="F1810">
-        <v>-7.539999999999999</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="1811" spans="1:6">
@@ -50363,7 +50363,7 @@
         <v>2.71</v>
       </c>
       <c r="F1812">
-        <v>-3.95</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="1813" spans="1:6">
@@ -50383,7 +50383,7 @@
         <v>0</v>
       </c>
       <c r="F1813">
-        <v>-3.95</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="1814" spans="1:6">
@@ -50403,7 +50403,7 @@
         <v>6.460000000000001</v>
       </c>
       <c r="F1814">
-        <v>-7.539999999999999</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="1815" spans="1:6">
@@ -50423,7 +50423,7 @@
         <v>0</v>
       </c>
       <c r="F1815">
-        <v>-4.73</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="1816" spans="1:6">
@@ -50443,7 +50443,7 @@
         <v>0</v>
       </c>
       <c r="F1816">
-        <v>-4.73</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="1817" spans="1:6">
@@ -50463,7 +50463,7 @@
         <v>0</v>
       </c>
       <c r="F1817">
-        <v>-4.73</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="1818" spans="1:6">
@@ -50483,7 +50483,7 @@
         <v>0</v>
       </c>
       <c r="F1818">
-        <v>-3.95</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="1819" spans="1:6">
@@ -50543,7 +50543,7 @@
         <v>0</v>
       </c>
       <c r="F1821">
-        <v>-5.050000000000001</v>
+        <v>-7.470000000000001</v>
       </c>
     </row>
     <row r="1822" spans="1:6">
@@ -50563,7 +50563,7 @@
         <v>0</v>
       </c>
       <c r="F1822">
-        <v>-5.050000000000001</v>
+        <v>-7.470000000000001</v>
       </c>
     </row>
     <row r="1823" spans="1:6">
@@ -50583,7 +50583,7 @@
         <v>0</v>
       </c>
       <c r="F1823">
-        <v>-5.050000000000001</v>
+        <v>-7.470000000000001</v>
       </c>
     </row>
     <row r="1824" spans="1:6">
@@ -50603,7 +50603,7 @@
         <v>0</v>
       </c>
       <c r="F1824">
-        <v>-5.050000000000001</v>
+        <v>-7.470000000000001</v>
       </c>
     </row>
     <row r="1825" spans="1:6">
@@ -50623,7 +50623,7 @@
         <v>0</v>
       </c>
       <c r="F1825">
-        <v>-5.050000000000001</v>
+        <v>-7.470000000000001</v>
       </c>
     </row>
     <row r="1826" spans="1:6">
@@ -50643,7 +50643,7 @@
         <v>-2.05</v>
       </c>
       <c r="F1826">
-        <v>-5.050000000000001</v>
+        <v>-7.470000000000001</v>
       </c>
     </row>
     <row r="1827" spans="1:6">
@@ -50663,7 +50663,7 @@
         <v>0</v>
       </c>
       <c r="F1827">
-        <v>-5.050000000000001</v>
+        <v>-7.470000000000001</v>
       </c>
     </row>
     <row r="1828" spans="1:6">
@@ -50843,7 +50843,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1836">
-        <v>2.54</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="1837" spans="1:6">
@@ -50903,7 +50903,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1839">
-        <v>2.54</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="1840" spans="1:6">
@@ -50923,7 +50923,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1840">
-        <v>2.54</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="1841" spans="1:6">
@@ -50943,7 +50943,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1841">
-        <v>2.54</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="1842" spans="1:6">
@@ -50963,7 +50963,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1842">
-        <v>2.54</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="1843" spans="1:6">
@@ -50983,7 +50983,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1843">
-        <v>2.54</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="1844" spans="1:6">
@@ -51143,7 +51143,7 @@
         <v>-12.07</v>
       </c>
       <c r="F1851">
-        <v>0</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="1852" spans="1:6">
@@ -51523,7 +51523,7 @@
         <v>0</v>
       </c>
       <c r="F1870">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="1871" spans="1:6">
@@ -51743,7 +51743,7 @@
         <v>-13.13</v>
       </c>
       <c r="F1881">
-        <v>6.22</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="1882" spans="1:6">
@@ -51863,7 +51863,7 @@
         <v>-9.81</v>
       </c>
       <c r="F1887">
-        <v>-8.18</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="1888" spans="1:6">
@@ -51923,7 +51923,7 @@
         <v>0</v>
       </c>
       <c r="F1890">
-        <v>-8.359999999999999</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="1891" spans="1:6">
@@ -52063,7 +52063,7 @@
         <v>5.27</v>
       </c>
       <c r="F1897">
-        <v>0</v>
+        <v>-6.260000000000001</v>
       </c>
     </row>
     <row r="1898" spans="1:6">
@@ -52343,7 +52343,7 @@
         <v>9.33</v>
       </c>
       <c r="F1911">
-        <v>-2.21</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="1912" spans="1:6">
@@ -52903,7 +52903,7 @@
         <v>-6.05</v>
       </c>
       <c r="F1939">
-        <v>9.15</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="1940" spans="1:6">
@@ -53023,7 +53023,7 @@
         <v>-3.32</v>
       </c>
       <c r="F1945">
-        <v>-20.5</v>
+        <v>-12.52</v>
       </c>
     </row>
     <row r="1946" spans="1:6">
@@ -53043,7 +53043,7 @@
         <v>-2.71</v>
       </c>
       <c r="F1946">
-        <v>-16.71</v>
+        <v>-10.22</v>
       </c>
     </row>
     <row r="1947" spans="1:6">
@@ -53063,7 +53063,7 @@
         <v>0</v>
       </c>
       <c r="F1947">
-        <v>0</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="1948" spans="1:6">
@@ -53083,7 +53083,7 @@
         <v>0</v>
       </c>
       <c r="F1948">
-        <v>0</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="1949" spans="1:6">
@@ -53103,7 +53103,7 @@
         <v>0</v>
       </c>
       <c r="F1949">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="1950" spans="1:6">
@@ -53123,7 +53123,7 @@
         <v>0</v>
       </c>
       <c r="F1950">
-        <v>0</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="1951" spans="1:6">
@@ -53143,7 +53143,7 @@
         <v>0</v>
       </c>
       <c r="F1951">
-        <v>0</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="1952" spans="1:6">
@@ -53183,7 +53183,7 @@
         <v>0</v>
       </c>
       <c r="F1953">
-        <v>0</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="1954" spans="1:6">
@@ -53203,7 +53203,7 @@
         <v>0</v>
       </c>
       <c r="F1954">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="1955" spans="1:6">
@@ -53583,7 +53583,7 @@
         <v>-15</v>
       </c>
       <c r="F1973">
-        <v>6.859999999999999</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="1974" spans="1:6">
@@ -53783,7 +53783,7 @@
         <v>-5.86</v>
       </c>
       <c r="F1983">
-        <v>-15.6</v>
+        <v>-8.309999999999999</v>
       </c>
     </row>
     <row r="1984" spans="1:6">
@@ -53843,7 +53843,7 @@
         <v>-7.049999999999999</v>
       </c>
       <c r="F1986">
-        <v>0</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="1987" spans="1:6">
@@ -54663,7 +54663,7 @@
         <v>3.53</v>
       </c>
       <c r="F2027">
-        <v>3.41</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="2028" spans="1:6">
@@ -54723,7 +54723,7 @@
         <v>0</v>
       </c>
       <c r="F2030">
-        <v>0</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="2031" spans="1:6">
@@ -54763,7 +54763,7 @@
         <v>0</v>
       </c>
       <c r="F2032">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="2033" spans="1:6">
@@ -55143,7 +55143,7 @@
         <v>-21.74</v>
       </c>
       <c r="F2051">
-        <v>12.17</v>
+        <v>17.99</v>
       </c>
     </row>
     <row r="2052" spans="1:6">
@@ -55503,7 +55503,7 @@
         <v>0</v>
       </c>
       <c r="F2069">
-        <v>0.38</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="2070" spans="1:6">
@@ -55583,7 +55583,7 @@
         <v>-1.86</v>
       </c>
       <c r="F2073">
-        <v>4.7</v>
+        <v>6.890000000000001</v>
       </c>
     </row>
     <row r="2074" spans="1:6">
@@ -55643,7 +55643,7 @@
         <v>0</v>
       </c>
       <c r="F2076">
-        <v>-6.260000000000001</v>
+        <v>-8.41</v>
       </c>
     </row>
     <row r="2077" spans="1:6">
@@ -55683,7 +55683,7 @@
         <v>1.45</v>
       </c>
       <c r="F2078">
-        <v>0.21</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="2079" spans="1:6">
@@ -55723,7 +55723,7 @@
         <v>0</v>
       </c>
       <c r="F2080">
-        <v>-13.65</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="2081" spans="1:6">
@@ -55923,7 +55923,7 @@
         <v>11.01</v>
       </c>
       <c r="F2090">
-        <v>0</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="2091" spans="1:6">
@@ -55943,7 +55943,7 @@
         <v>5.25</v>
       </c>
       <c r="F2091">
-        <v>0.9400000000000001</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="2092" spans="1:6">
@@ -55983,7 +55983,7 @@
         <v>0</v>
       </c>
       <c r="F2093">
-        <v>0</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="2094" spans="1:6">
@@ -56003,7 +56003,7 @@
         <v>-11.45</v>
       </c>
       <c r="F2094">
-        <v>6.600000000000001</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="2095" spans="1:6">
@@ -56023,7 +56023,7 @@
         <v>9.07</v>
       </c>
       <c r="F2095">
-        <v>-7.75</v>
+        <v>-7.56</v>
       </c>
     </row>
     <row r="2096" spans="1:6">
@@ -56083,7 +56083,7 @@
         <v>0</v>
       </c>
       <c r="F2098">
-        <v>0</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="2099" spans="1:6">
@@ -56143,7 +56143,7 @@
         <v>0</v>
       </c>
       <c r="F2101">
-        <v>47.03</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="2102" spans="1:6">
@@ -56303,7 +56303,7 @@
         <v>-23.28</v>
       </c>
       <c r="F2109">
-        <v>-11.24</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="2110" spans="1:6">
@@ -56383,7 +56383,7 @@
         <v>-19.24</v>
       </c>
       <c r="F2113">
-        <v>-11.26</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="2114" spans="1:6">
@@ -56463,7 +56463,7 @@
         <v>4.87</v>
       </c>
       <c r="F2117">
-        <v>10.38</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="2118" spans="1:6">
@@ -56483,7 +56483,7 @@
         <v>4.87</v>
       </c>
       <c r="F2118">
-        <v>10.38</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="2119" spans="1:6">
@@ -56503,7 +56503,7 @@
         <v>5.33</v>
       </c>
       <c r="F2119">
-        <v>0.89</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="2120" spans="1:6">
@@ -56523,7 +56523,7 @@
         <v>-13.36</v>
       </c>
       <c r="F2120">
-        <v>6.43</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="2121" spans="1:6">
@@ -56563,7 +56563,7 @@
         <v>-17.84</v>
       </c>
       <c r="F2122">
-        <v>9.02</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="2123" spans="1:6">
@@ -56583,7 +56583,7 @@
         <v>-17.84</v>
       </c>
       <c r="F2123">
-        <v>9.02</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="2124" spans="1:6">
@@ -56643,7 +56643,7 @@
         <v>-13.36</v>
       </c>
       <c r="F2126">
-        <v>6.43</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="2127" spans="1:6">
@@ -56943,7 +56943,7 @@
         <v>-5.79</v>
       </c>
       <c r="F2141">
-        <v>-1.54</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="2142" spans="1:6">
@@ -56963,7 +56963,7 @@
         <v>-5.46</v>
       </c>
       <c r="F2142">
-        <v>-1.33</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="2143" spans="1:6">
@@ -57103,7 +57103,7 @@
         <v>0</v>
       </c>
       <c r="F2149">
-        <v>0</v>
+        <v>9.030000000000001</v>
       </c>
     </row>
     <row r="2150" spans="1:6">
@@ -57983,7 +57983,7 @@
         <v>-2.17</v>
       </c>
       <c r="F2193">
-        <v>-1.72</v>
+        <v>18.72</v>
       </c>
     </row>
     <row r="2194" spans="1:6">
@@ -58043,7 +58043,7 @@
         <v>-10.57</v>
       </c>
       <c r="F2196">
-        <v>-1.72</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="2197" spans="1:6">
@@ -58083,7 +58083,7 @@
         <v>-2.17</v>
       </c>
       <c r="F2198">
-        <v>-1.72</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="2199" spans="1:6">
@@ -58203,7 +58203,7 @@
         <v>-4.51</v>
       </c>
       <c r="F2204">
-        <v>-28.33</v>
+        <v>-17.31</v>
       </c>
     </row>
     <row r="2205" spans="1:6">
@@ -58543,7 +58543,7 @@
         <v>0</v>
       </c>
       <c r="F2221">
-        <v>-3.36</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="2222" spans="1:6">
@@ -58563,7 +58563,7 @@
         <v>0</v>
       </c>
       <c r="F2222">
-        <v>-3.36</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="2223" spans="1:6">
@@ -58743,7 +58743,7 @@
         <v>0</v>
       </c>
       <c r="F2231">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="2232" spans="1:6">
@@ -59283,7 +59283,7 @@
         <v>0</v>
       </c>
       <c r="F2258">
-        <v>0</v>
+        <v>13.31</v>
       </c>
     </row>
     <row r="2259" spans="1:6">
@@ -59483,7 +59483,7 @@
         <v>0</v>
       </c>
       <c r="F2268">
-        <v>-11.55</v>
+        <v>-15.4</v>
       </c>
     </row>
     <row r="2269" spans="1:6">
@@ -59563,7 +59563,7 @@
         <v>0</v>
       </c>
       <c r="F2272">
-        <v>-9.289999999999999</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="2273" spans="1:6">
@@ -59623,7 +59623,7 @@
         <v>0</v>
       </c>
       <c r="F2275">
-        <v>-9.289999999999999</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="2276" spans="1:6">
@@ -59683,7 +59683,7 @@
         <v>4.24</v>
       </c>
       <c r="F2278">
-        <v>-5.48</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="2279" spans="1:6">
@@ -59723,7 +59723,7 @@
         <v>0.95</v>
       </c>
       <c r="F2280">
-        <v>-5.48</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="2281" spans="1:6">
@@ -59743,7 +59743,7 @@
         <v>0.95</v>
       </c>
       <c r="F2281">
-        <v>-5.48</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="2282" spans="1:6">
@@ -59923,7 +59923,7 @@
         <v>-2.6</v>
       </c>
       <c r="F2290">
-        <v>-16.01</v>
+        <v>-9.790000000000001</v>
       </c>
     </row>
     <row r="2291" spans="1:6">
@@ -59943,7 +59943,7 @@
         <v>0</v>
       </c>
       <c r="F2291">
-        <v>0</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="2292" spans="1:6">
@@ -59963,7 +59963,7 @@
         <v>0</v>
       </c>
       <c r="F2292">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2293" spans="1:6">
@@ -59983,7 +59983,7 @@
         <v>0</v>
       </c>
       <c r="F2293">
-        <v>0</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="2294" spans="1:6">
@@ -60003,7 +60003,7 @@
         <v>-2.86</v>
       </c>
       <c r="F2294">
-        <v>-17.66</v>
+        <v>-10.79</v>
       </c>
     </row>
     <row r="2295" spans="1:6">
@@ -60323,7 +60323,7 @@
         <v>-24.1</v>
       </c>
       <c r="F2310">
-        <v>13.23</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="2311" spans="1:6">
@@ -60783,7 +60783,7 @@
         <v>-11.89</v>
       </c>
       <c r="F2333">
-        <v>-33.7</v>
+        <v>-17.99</v>
       </c>
     </row>
     <row r="2334" spans="1:6">
@@ -60803,7 +60803,7 @@
         <v>-10.63</v>
       </c>
       <c r="F2334">
-        <v>-29.79</v>
+        <v>-15.88</v>
       </c>
     </row>
     <row r="2335" spans="1:6">
@@ -60883,7 +60883,7 @@
         <v>0</v>
       </c>
       <c r="F2338">
-        <v>0</v>
+        <v>-6.819999999999999</v>
       </c>
     </row>
     <row r="2339" spans="1:6">
@@ -60903,7 +60903,7 @@
         <v>-4.590000000000001</v>
       </c>
       <c r="F2339">
-        <v>33.98999999999999</v>
+        <v>24.29</v>
       </c>
     </row>
     <row r="2340" spans="1:6">
@@ -60923,7 +60923,7 @@
         <v>-4.02</v>
       </c>
       <c r="F2340">
-        <v>-25.27</v>
+        <v>-15.45</v>
       </c>
     </row>
     <row r="2341" spans="1:6">
@@ -61523,7 +61523,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2370">
-        <v>-6.09</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="2371" spans="1:6">
@@ -61543,7 +61543,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2371">
-        <v>-6.09</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="2372" spans="1:6">
@@ -61563,7 +61563,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2372">
-        <v>-6.09</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="2373" spans="1:6">
@@ -61763,7 +61763,7 @@
         <v>18.62</v>
       </c>
       <c r="F2382">
-        <v>-6.52</v>
+        <v>-9.66</v>
       </c>
     </row>
     <row r="2383" spans="1:6">
@@ -62223,7 +62223,7 @@
         <v>-25.04</v>
       </c>
       <c r="F2405">
-        <v>20.56</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="2406" spans="1:6">
@@ -62243,7 +62243,7 @@
         <v>0</v>
       </c>
       <c r="F2406">
-        <v>-9.44</v>
+        <v>-12.57</v>
       </c>
     </row>
     <row r="2407" spans="1:6">
@@ -62443,7 +62443,7 @@
         <v>0</v>
       </c>
       <c r="F2416">
-        <v>0</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="2417" spans="1:6">
@@ -62463,7 +62463,7 @@
         <v>0</v>
       </c>
       <c r="F2417">
-        <v>0</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="2418" spans="1:6">
@@ -62883,7 +62883,7 @@
         <v>0</v>
       </c>
       <c r="F2438">
-        <v>0</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="2439" spans="1:6">
@@ -62903,7 +62903,7 @@
         <v>0</v>
       </c>
       <c r="F2439">
-        <v>0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="2440" spans="1:6">
@@ -63043,7 +63043,7 @@
         <v>13.72</v>
       </c>
       <c r="F2446">
-        <v>0</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="2447" spans="1:6">
@@ -63063,7 +63063,7 @@
         <v>13.72</v>
       </c>
       <c r="F2447">
-        <v>0</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="2448" spans="1:6">
@@ -63083,7 +63083,7 @@
         <v>13.72</v>
       </c>
       <c r="F2448">
-        <v>0</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="2449" spans="1:6">
@@ -63103,7 +63103,7 @@
         <v>16.18</v>
       </c>
       <c r="F2449">
-        <v>5.3</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="2450" spans="1:6">
@@ -63543,7 +63543,7 @@
         <v>0</v>
       </c>
       <c r="F2471">
-        <v>-17.24</v>
+        <v>-22.98</v>
       </c>
     </row>
     <row r="2472" spans="1:6">
@@ -63563,7 +63563,7 @@
         <v>0</v>
       </c>
       <c r="F2472">
-        <v>-17.24</v>
+        <v>-22.98</v>
       </c>
     </row>
     <row r="2473" spans="1:6">
@@ -63583,7 +63583,7 @@
         <v>0</v>
       </c>
       <c r="F2473">
-        <v>-17.24</v>
+        <v>-22.98</v>
       </c>
     </row>
     <row r="2474" spans="1:6">
@@ -63603,7 +63603,7 @@
         <v>0</v>
       </c>
       <c r="F2474">
-        <v>-17.24</v>
+        <v>-22.98</v>
       </c>
     </row>
     <row r="2475" spans="1:6">
@@ -63743,7 +63743,7 @@
         <v>0</v>
       </c>
       <c r="F2481">
-        <v>2.75</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="2482" spans="1:6">
@@ -63763,7 +63763,7 @@
         <v>0</v>
       </c>
       <c r="F2482">
-        <v>0</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="2483" spans="1:6">
@@ -63823,7 +63823,7 @@
         <v>-7.539999999999999</v>
       </c>
       <c r="F2485">
-        <v>7.01</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="2486" spans="1:6">
@@ -63943,7 +63943,7 @@
         <v>-19.09</v>
       </c>
       <c r="F2491">
-        <v>-5.31</v>
+        <v>-5.779999999999999</v>
       </c>
     </row>
     <row r="2492" spans="1:6">
@@ -64263,7 +64263,7 @@
         <v>0</v>
       </c>
       <c r="F2507">
-        <v>-4.25</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="2508" spans="1:6">
@@ -64663,7 +64663,7 @@
         <v>-9.289999999999999</v>
       </c>
       <c r="F2527">
-        <v>4.22</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="2528" spans="1:6">
@@ -64903,7 +64903,7 @@
         <v>5.79</v>
       </c>
       <c r="F2539">
-        <v>5.24</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="2540" spans="1:6">
@@ -65003,7 +65003,7 @@
         <v>10.59</v>
       </c>
       <c r="F2544">
-        <v>0</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="2545" spans="1:6">
@@ -65043,7 +65043,7 @@
         <v>0</v>
       </c>
       <c r="F2546">
-        <v>25.04</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="2547" spans="1:6">
@@ -65223,7 +65223,7 @@
         <v>0</v>
       </c>
       <c r="F2555">
-        <v>0</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="2556" spans="1:6">
@@ -65323,7 +65323,7 @@
         <v>5.01</v>
       </c>
       <c r="F2560">
-        <v>-11.92</v>
+        <v>-6.36</v>
       </c>
     </row>
     <row r="2561" spans="1:6">
@@ -66023,7 +66023,7 @@
         <v>-24.5</v>
       </c>
       <c r="F2595">
-        <v>13.48</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="2596" spans="1:6">
@@ -66163,7 +66163,7 @@
         <v>0</v>
       </c>
       <c r="F2602">
-        <v>0</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="2603" spans="1:6">
@@ -66183,7 +66183,7 @@
         <v>0</v>
       </c>
       <c r="F2603">
-        <v>-10.01</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="2604" spans="1:6">
@@ -66243,7 +66243,7 @@
         <v>-9.27</v>
       </c>
       <c r="F2606">
-        <v>-6.01</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="2607" spans="1:6">
@@ -66263,7 +66263,7 @@
         <v>-9.27</v>
       </c>
       <c r="F2607">
-        <v>-20.04</v>
+        <v>-13.43</v>
       </c>
     </row>
     <row r="2608" spans="1:6">
@@ -66343,7 +66343,7 @@
         <v>0.54</v>
       </c>
       <c r="F2611">
-        <v>25.95</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="2612" spans="1:6">
@@ -66363,7 +66363,7 @@
         <v>-8.08</v>
       </c>
       <c r="F2612">
-        <v>8.59</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="2613" spans="1:6">
@@ -66423,7 +66423,7 @@
         <v>-1.48</v>
       </c>
       <c r="F2615">
-        <v>-3.5</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="2616" spans="1:6">
@@ -66443,7 +66443,7 @@
         <v>0.44</v>
       </c>
       <c r="F2616">
-        <v>1.17</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="2617" spans="1:6">
@@ -66603,7 +66603,7 @@
         <v>-11.45</v>
       </c>
       <c r="F2624">
-        <v>-5.680000000000001</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="2625" spans="1:6">
@@ -66623,7 +66623,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="F2625">
-        <v>1.1</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="2626" spans="1:6">
@@ -66743,7 +66743,7 @@
         <v>0</v>
       </c>
       <c r="F2631">
-        <v>-10.01</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="2632" spans="1:6">
@@ -66783,7 +66783,7 @@
         <v>-8.94</v>
       </c>
       <c r="F2633">
-        <v>0.66</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="2634" spans="1:6">
@@ -66803,7 +66803,7 @@
         <v>-10.96</v>
       </c>
       <c r="F2634">
-        <v>-3.86</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="2635" spans="1:6">
@@ -66823,7 +66823,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2635">
-        <v>-1.68</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="2636" spans="1:6">
@@ -66843,7 +66843,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2636">
-        <v>-1.68</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="2637" spans="1:6">
@@ -66883,7 +66883,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2638">
-        <v>-5.63</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2639" spans="1:6">
@@ -68543,7 +68543,7 @@
         <v>0</v>
       </c>
       <c r="F2721">
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="2722" spans="1:6">
@@ -68563,7 +68563,7 @@
         <v>0</v>
       </c>
       <c r="F2722">
-        <v>0</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="2723" spans="1:6">
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="F2724">
-        <v>0</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="2725" spans="1:6">
@@ -68863,7 +68863,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2737">
-        <v>10.09</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="2738" spans="1:6">
@@ -68923,7 +68923,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2740">
-        <v>10.09</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="2741" spans="1:6">
@@ -69003,7 +69003,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2744">
-        <v>10.09</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="2745" spans="1:6">
@@ -69403,7 +69403,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2764">
-        <v>5.800000000000001</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="2765" spans="1:6">
@@ -69423,7 +69423,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2765">
-        <v>5.800000000000001</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="2766" spans="1:6">
@@ -69443,7 +69443,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2766">
-        <v>5.800000000000001</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="2767" spans="1:6">
@@ -69463,7 +69463,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2767">
-        <v>5.800000000000001</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="2768" spans="1:6">
@@ -69483,7 +69483,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2768">
-        <v>5.800000000000001</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="2769" spans="1:6">
@@ -69503,7 +69503,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2769">
-        <v>5.800000000000001</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="2770" spans="1:6">
@@ -69523,7 +69523,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2770">
-        <v>5.800000000000001</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="2771" spans="1:6">
@@ -69743,7 +69743,7 @@
         <v>-3.43</v>
       </c>
       <c r="F2781">
-        <v>8.709999999999999</v>
+        <v>12.74</v>
       </c>
     </row>
     <row r="2782" spans="1:6">
@@ -69783,7 +69783,7 @@
         <v>0</v>
       </c>
       <c r="F2783">
-        <v>0</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="2784" spans="1:6">
@@ -69803,7 +69803,7 @@
         <v>0</v>
       </c>
       <c r="F2784">
-        <v>0</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="2785" spans="1:6">
@@ -70043,7 +70043,7 @@
         <v>0</v>
       </c>
       <c r="F2796">
-        <v>1.52</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="2797" spans="1:6">
@@ -70243,7 +70243,7 @@
         <v>0</v>
       </c>
       <c r="F2806">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="2807" spans="1:6">
@@ -70343,7 +70343,7 @@
         <v>17.67</v>
       </c>
       <c r="F2811">
-        <v>11.3</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="2812" spans="1:6">
@@ -70423,7 +70423,7 @@
         <v>0</v>
       </c>
       <c r="F2815">
-        <v>-5.11</v>
+        <v>-6.710000000000001</v>
       </c>
     </row>
     <row r="2816" spans="1:6">
@@ -70543,7 +70543,7 @@
         <v>-28.09</v>
       </c>
       <c r="F2821">
-        <v>27.32</v>
+        <v>36.52</v>
       </c>
     </row>
     <row r="2822" spans="1:6">
@@ -70563,7 +70563,7 @@
         <v>0</v>
       </c>
       <c r="F2822">
-        <v>0</v>
+        <v>-5.680000000000001</v>
       </c>
     </row>
     <row r="2823" spans="1:6">
@@ -71303,7 +71303,7 @@
         <v>0</v>
       </c>
       <c r="F2859">
-        <v>-3.78</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="2860" spans="1:6">
@@ -71323,7 +71323,7 @@
         <v>0</v>
       </c>
       <c r="F2860">
-        <v>-4.6</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="2861" spans="1:6">
@@ -71583,7 +71583,7 @@
         <v>0</v>
       </c>
       <c r="F2873">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="2874" spans="1:6">
@@ -71643,7 +71643,7 @@
         <v>0.65</v>
       </c>
       <c r="F2876">
-        <v>5.5</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="2877" spans="1:6">
@@ -71663,7 +71663,7 @@
         <v>-6.79</v>
       </c>
       <c r="F2877">
-        <v>0</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="2878" spans="1:6">
@@ -71683,7 +71683,7 @@
         <v>-13.13</v>
       </c>
       <c r="F2878">
-        <v>6.22</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="2879" spans="1:6">
@@ -71763,7 +71763,7 @@
         <v>0</v>
       </c>
       <c r="F2882">
-        <v>-10.04</v>
+        <v>-13.37</v>
       </c>
     </row>
     <row r="2883" spans="1:6">
@@ -71803,7 +71803,7 @@
         <v>7.44</v>
       </c>
       <c r="F2884">
-        <v>0</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="2885" spans="1:6">
@@ -71883,7 +71883,7 @@
         <v>21.57</v>
       </c>
       <c r="F2888">
-        <v>-7.399999999999999</v>
+        <v>-10.86</v>
       </c>
     </row>
     <row r="2889" spans="1:6">
@@ -71963,7 +71963,7 @@
         <v>0</v>
       </c>
       <c r="F2892">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="2893" spans="1:6">
@@ -71983,7 +71983,7 @@
         <v>0</v>
       </c>
       <c r="F2893">
-        <v>0</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="2894" spans="1:6">
@@ -72243,7 +72243,7 @@
         <v>0</v>
       </c>
       <c r="F2906">
-        <v>0</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="2907" spans="1:6">
@@ -72383,7 +72383,7 @@
         <v>0</v>
       </c>
       <c r="F2913">
-        <v>0</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="2914" spans="1:6">
@@ -72603,7 +72603,7 @@
         <v>0</v>
       </c>
       <c r="F2924">
-        <v>0</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="2925" spans="1:6">
@@ -72683,7 +72683,7 @@
         <v>0</v>
       </c>
       <c r="F2928">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="2929" spans="1:6">
@@ -72723,7 +72723,7 @@
         <v>0</v>
       </c>
       <c r="F2930">
-        <v>0</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="2931" spans="1:6">
@@ -72883,7 +72883,7 @@
         <v>0</v>
       </c>
       <c r="F2938">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="2939" spans="1:6">
@@ -72963,7 +72963,7 @@
         <v>0.53</v>
       </c>
       <c r="F2942">
-        <v>-10.82</v>
+        <v>-14.25</v>
       </c>
     </row>
     <row r="2943" spans="1:6">
@@ -72983,7 +72983,7 @@
         <v>0</v>
       </c>
       <c r="F2943">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="2944" spans="1:6">
@@ -73103,7 +73103,7 @@
         <v>0</v>
       </c>
       <c r="F2949">
-        <v>0</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="2950" spans="1:6">
@@ -73143,7 +73143,7 @@
         <v>4.08</v>
       </c>
       <c r="F2951">
-        <v>0</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="2952" spans="1:6">
@@ -73163,7 +73163,7 @@
         <v>0</v>
       </c>
       <c r="F2952">
-        <v>0</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="2953" spans="1:6">
@@ -73223,7 +73223,7 @@
         <v>0</v>
       </c>
       <c r="F2955">
-        <v>0</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="2956" spans="1:6">
@@ -73543,7 +73543,7 @@
         <v>0</v>
       </c>
       <c r="F2971">
-        <v>0</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="2972" spans="1:6">
@@ -73823,7 +73823,7 @@
         <v>-7.3</v>
       </c>
       <c r="F2985">
-        <v>-5.91</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="2986" spans="1:6">
@@ -73863,7 +73863,7 @@
         <v>-27.8</v>
       </c>
       <c r="F2987">
-        <v>-6.25</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="2988" spans="1:6">
@@ -73883,7 +73883,7 @@
         <v>-1.52</v>
       </c>
       <c r="F2988">
-        <v>-3.84</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="2989" spans="1:6">
@@ -73903,7 +73903,7 @@
         <v>-2.47</v>
       </c>
       <c r="F2989">
-        <v>-1.92</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="2990" spans="1:6">
@@ -73963,7 +73963,7 @@
         <v>-9.77</v>
       </c>
       <c r="F2992">
-        <v>-4.54</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="2993" spans="1:6">
@@ -74003,7 +74003,7 @@
         <v>-10</v>
       </c>
       <c r="F2994">
-        <v>-3.76</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="2995" spans="1:6">
@@ -74323,7 +74323,7 @@
         <v>0</v>
       </c>
       <c r="F3010">
-        <v>0</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="3011" spans="1:6">
@@ -74443,7 +74443,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="F3016">
-        <v>5.899999999999999</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="3017" spans="1:6">
@@ -74463,7 +74463,7 @@
         <v>2.86</v>
       </c>
       <c r="F3017">
-        <v>0</v>
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="3018" spans="1:6">
@@ -74483,7 +74483,7 @@
         <v>2.42</v>
       </c>
       <c r="F3018">
-        <v>-2.29</v>
+        <v>-3.87</v>
       </c>
     </row>
     <row r="3019" spans="1:6">
@@ -74543,7 +74543,7 @@
         <v>0</v>
       </c>
       <c r="F3021">
-        <v>-8.35</v>
+        <v>-11.14</v>
       </c>
     </row>
     <row r="3022" spans="1:6">
@@ -75463,7 +75463,7 @@
         <v>-15.48</v>
       </c>
       <c r="F3067">
-        <v>-14.29</v>
+        <v>-7.69</v>
       </c>
     </row>
     <row r="3068" spans="1:6">
@@ -75483,7 +75483,7 @@
         <v>-10.15</v>
       </c>
       <c r="F3068">
-        <v>-23.75</v>
+        <v>-12.62</v>
       </c>
     </row>
     <row r="3069" spans="1:6">
@@ -75503,7 +75503,7 @@
         <v>-4.44</v>
       </c>
       <c r="F3069">
-        <v>-11.31</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="3070" spans="1:6">
@@ -75523,7 +75523,7 @@
         <v>-10.91</v>
       </c>
       <c r="F3070">
-        <v>1.79</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="3071" spans="1:6">
@@ -75543,7 +75543,7 @@
         <v>-5.34</v>
       </c>
       <c r="F3071">
-        <v>-11.45</v>
+        <v>-6.13</v>
       </c>
     </row>
     <row r="3072" spans="1:6">
@@ -75643,7 +75643,7 @@
         <v>2.04</v>
       </c>
       <c r="F3076">
-        <v>0</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="3077" spans="1:6">
@@ -75703,7 +75703,7 @@
         <v>-12.61</v>
       </c>
       <c r="F3079">
-        <v>2.94</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="3080" spans="1:6">
@@ -75743,7 +75743,7 @@
         <v>9.16</v>
       </c>
       <c r="F3081">
-        <v>-12.06</v>
+        <v>-5.319999999999999</v>
       </c>
     </row>
     <row r="3082" spans="1:6">
@@ -75763,7 +75763,7 @@
         <v>0</v>
       </c>
       <c r="F3082">
-        <v>-17.92</v>
+        <v>-23.91</v>
       </c>
     </row>
     <row r="3083" spans="1:6">
@@ -75823,7 +75823,7 @@
         <v>9.16</v>
       </c>
       <c r="F3085">
-        <v>-1.96</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3086" spans="1:6">
@@ -75843,7 +75843,7 @@
         <v>0</v>
       </c>
       <c r="F3086">
-        <v>0</v>
+        <v>-7.630000000000001</v>
       </c>
     </row>
     <row r="3087" spans="1:6">
@@ -75903,7 +75903,7 @@
         <v>-13.14</v>
       </c>
       <c r="F3089">
-        <v>-11.37</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="3090" spans="1:6">
@@ -75963,7 +75963,7 @@
         <v>0</v>
       </c>
       <c r="F3092">
-        <v>0</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="3093" spans="1:6">
@@ -75983,7 +75983,7 @@
         <v>-6.27</v>
       </c>
       <c r="F3093">
-        <v>-11.57</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="3094" spans="1:6">
@@ -76023,7 +76023,7 @@
         <v>-5.04</v>
       </c>
       <c r="F3095">
-        <v>-10.76</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="3096" spans="1:6">
@@ -76043,7 +76043,7 @@
         <v>0</v>
       </c>
       <c r="F3096">
-        <v>-7.16</v>
+        <v>-9.539999999999999</v>
       </c>
     </row>
     <row r="3097" spans="1:6">
@@ -76063,7 +76063,7 @@
         <v>24.68</v>
       </c>
       <c r="F3097">
-        <v>3.29</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="3098" spans="1:6">
@@ -76083,7 +76083,7 @@
         <v>4.87</v>
       </c>
       <c r="F3098">
-        <v>3.55</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="3099" spans="1:6">
@@ -76103,7 +76103,7 @@
         <v>15.08</v>
       </c>
       <c r="F3099">
-        <v>14.48</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="3100" spans="1:6">
@@ -76123,7 +76123,7 @@
         <v>-32.39</v>
       </c>
       <c r="F3100">
-        <v>6.05</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="3101" spans="1:6">
@@ -76143,7 +76143,7 @@
         <v>0.22</v>
       </c>
       <c r="F3101">
-        <v>-5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3102" spans="1:6">
@@ -76163,7 +76163,7 @@
         <v>-5.09</v>
       </c>
       <c r="F3102">
-        <v>2.24</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3103" spans="1:6">
@@ -76223,7 +76223,7 @@
         <v>-3.89</v>
       </c>
       <c r="F3105">
-        <v>-7.960000000000001</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="3106" spans="1:6">
@@ -76283,7 +76283,7 @@
         <v>0</v>
       </c>
       <c r="F3108">
-        <v>0</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="3109" spans="1:6">
@@ -77183,7 +77183,7 @@
         <v>0</v>
       </c>
       <c r="F3153">
-        <v>0</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3154" spans="1:6">
@@ -77603,7 +77603,7 @@
         <v>0</v>
       </c>
       <c r="F3174">
-        <v>0</v>
+        <v>7.180000000000001</v>
       </c>
     </row>
     <row r="3175" spans="1:6">
@@ -77983,7 +77983,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3193">
-        <v>1.39</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="3194" spans="1:6">
@@ -78003,7 +78003,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3194">
-        <v>1.39</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="3195" spans="1:6">
@@ -78023,7 +78023,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3195">
-        <v>1.39</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="3196" spans="1:6">
@@ -78323,7 +78323,7 @@
         <v>0</v>
       </c>
       <c r="F3210">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3211" spans="1:6">
@@ -78503,7 +78503,7 @@
         <v>0</v>
       </c>
       <c r="F3219">
-        <v>0</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="3220" spans="1:6">
@@ -79603,7 +79603,7 @@
         <v>-2.01</v>
       </c>
       <c r="F3274">
-        <v>-4.79</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="3275" spans="1:6">
@@ -79623,7 +79623,7 @@
         <v>-2.01</v>
       </c>
       <c r="F3275">
-        <v>-30.99</v>
+        <v>-13.53</v>
       </c>
     </row>
     <row r="3276" spans="1:6">
@@ -80463,7 +80463,7 @@
         <v>-12.29</v>
       </c>
       <c r="F3317">
-        <v>-6.44</v>
+        <v>-7.82</v>
       </c>
     </row>
     <row r="3318" spans="1:6">
@@ -80503,7 +80503,7 @@
         <v>0</v>
       </c>
       <c r="F3319">
-        <v>0</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="3320" spans="1:6">
@@ -80583,7 +80583,7 @@
         <v>-2.82</v>
       </c>
       <c r="F3323">
-        <v>0</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="3324" spans="1:6">
@@ -80743,7 +80743,7 @@
         <v>9.1</v>
       </c>
       <c r="F3331">
-        <v>17.83</v>
+        <v>21.65</v>
       </c>
     </row>
     <row r="3332" spans="1:6">
@@ -80763,7 +80763,7 @@
         <v>23.82</v>
       </c>
       <c r="F3332">
-        <v>-7.9</v>
+        <v>-11.08</v>
       </c>
     </row>
     <row r="3333" spans="1:6">
@@ -80943,7 +80943,7 @@
         <v>18.58</v>
       </c>
       <c r="F3341">
-        <v>-7.630000000000001</v>
+        <v>-8.66</v>
       </c>
     </row>
     <row r="3342" spans="1:6">
@@ -80983,7 +80983,7 @@
         <v>18.58</v>
       </c>
       <c r="F3343">
-        <v>-4.19</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="3344" spans="1:6">
@@ -81003,7 +81003,7 @@
         <v>21.52</v>
       </c>
       <c r="F3344">
-        <v>-3.93</v>
+        <v>-7.779999999999999</v>
       </c>
     </row>
     <row r="3345" spans="1:6">
@@ -81023,7 +81023,7 @@
         <v>3.75</v>
       </c>
       <c r="F3345">
-        <v>0.59</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="3346" spans="1:6">
@@ -81043,7 +81043,7 @@
         <v>18.58</v>
       </c>
       <c r="F3346">
-        <v>-4.19</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="3347" spans="1:6">
@@ -81063,7 +81063,7 @@
         <v>20.2</v>
       </c>
       <c r="F3347">
-        <v>-3.58</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="3348" spans="1:6">
@@ -81163,7 +81163,7 @@
         <v>-0.8500000000000001</v>
       </c>
       <c r="F3352">
-        <v>0</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="3353" spans="1:6">
@@ -81203,7 +81203,7 @@
         <v>26.66</v>
       </c>
       <c r="F3354">
-        <v>-8.09</v>
+        <v>-11.83</v>
       </c>
     </row>
     <row r="3355" spans="1:6">
@@ -81283,7 +81283,7 @@
         <v>2.05</v>
       </c>
       <c r="F3358">
-        <v>-7.24</v>
+        <v>-9.65</v>
       </c>
     </row>
     <row r="3359" spans="1:6">
@@ -81443,7 +81443,7 @@
         <v>0</v>
       </c>
       <c r="F3366">
-        <v>0</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="3367" spans="1:6">
@@ -81543,7 +81543,7 @@
         <v>0</v>
       </c>
       <c r="F3371">
-        <v>-13.38</v>
+        <v>-17.73</v>
       </c>
     </row>
     <row r="3372" spans="1:6">
@@ -81563,7 +81563,7 @@
         <v>0</v>
       </c>
       <c r="F3372">
-        <v>-13.38</v>
+        <v>-17.73</v>
       </c>
     </row>
     <row r="3373" spans="1:6">
@@ -81623,7 +81623,7 @@
         <v>4.67</v>
       </c>
       <c r="F3375">
-        <v>-16.7</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="3376" spans="1:6">
@@ -81643,7 +81643,7 @@
         <v>-5.48</v>
       </c>
       <c r="F3376">
-        <v>-34.78</v>
+        <v>-18.84</v>
       </c>
     </row>
     <row r="3377" spans="1:6">
@@ -81663,7 +81663,7 @@
         <v>4.67</v>
       </c>
       <c r="F3377">
-        <v>-16.7</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="3378" spans="1:6">
@@ -81683,7 +81683,7 @@
         <v>1.47</v>
       </c>
       <c r="F3378">
-        <v>-34.78</v>
+        <v>-18.84</v>
       </c>
     </row>
     <row r="3379" spans="1:6">
@@ -81703,7 +81703,7 @@
         <v>4.67</v>
       </c>
       <c r="F3379">
-        <v>-16.7</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="3380" spans="1:6">
@@ -81743,7 +81743,7 @@
         <v>-5.48</v>
       </c>
       <c r="F3381">
-        <v>-34.78</v>
+        <v>-18.84</v>
       </c>
     </row>
     <row r="3382" spans="1:6">
@@ -81763,7 +81763,7 @@
         <v>4.67</v>
       </c>
       <c r="F3382">
-        <v>-16.7</v>
+        <v>-10.29</v>
       </c>
     </row>
     <row r="3383" spans="1:6">
@@ -81783,7 +81783,7 @@
         <v>-5.48</v>
       </c>
       <c r="F3383">
-        <v>-34.78</v>
+        <v>-18.84</v>
       </c>
     </row>
     <row r="3384" spans="1:6">
@@ -82063,7 +82063,7 @@
         <v>0</v>
       </c>
       <c r="F3397">
-        <v>6.27</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="3398" spans="1:6">
@@ -82103,7 +82103,7 @@
         <v>0</v>
       </c>
       <c r="F3399">
-        <v>6.27</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="3400" spans="1:6">
@@ -82123,7 +82123,7 @@
         <v>0</v>
       </c>
       <c r="F3400">
-        <v>6.27</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="3401" spans="1:6">
@@ -82163,7 +82163,7 @@
         <v>0</v>
       </c>
       <c r="F3402">
-        <v>6.27</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="3403" spans="1:6">
@@ -82183,7 +82183,7 @@
         <v>0</v>
       </c>
       <c r="F3403">
-        <v>6.27</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="3404" spans="1:6">
@@ -82223,7 +82223,7 @@
         <v>0</v>
       </c>
       <c r="F3405">
-        <v>6.27</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="3406" spans="1:6">
@@ -82243,7 +82243,7 @@
         <v>3.26</v>
       </c>
       <c r="F3406">
-        <v>-27.37</v>
+        <v>-16.84</v>
       </c>
     </row>
     <row r="3407" spans="1:6">
@@ -82263,7 +82263,7 @@
         <v>-2.17</v>
       </c>
       <c r="F3407">
-        <v>-23.33</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="3408" spans="1:6">
@@ -82283,7 +82283,7 @@
         <v>-2.17</v>
       </c>
       <c r="F3408">
-        <v>-23.33</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="3409" spans="1:6">
@@ -82303,7 +82303,7 @@
         <v>3.26</v>
       </c>
       <c r="F3409">
-        <v>-27.37</v>
+        <v>-16.84</v>
       </c>
     </row>
     <row r="3410" spans="1:6">
@@ -82323,7 +82323,7 @@
         <v>-2.17</v>
       </c>
       <c r="F3410">
-        <v>-23.33</v>
+        <v>-12.22</v>
       </c>
     </row>
     <row r="3411" spans="1:6">
@@ -82343,7 +82343,7 @@
         <v>3.26</v>
       </c>
       <c r="F3411">
-        <v>-27.37</v>
+        <v>-16.84</v>
       </c>
     </row>
     <row r="3412" spans="1:6">
@@ -82423,7 +82423,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="F3415">
-        <v>-3.92</v>
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="3416" spans="1:6">
@@ -82443,7 +82443,7 @@
         <v>15.23</v>
       </c>
       <c r="F3416">
-        <v>-11.49</v>
+        <v>-12.64</v>
       </c>
     </row>
     <row r="3417" spans="1:6">
@@ -82503,7 +82503,7 @@
         <v>5.44</v>
       </c>
       <c r="F3419">
-        <v>-1.94</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="3420" spans="1:6">
@@ -82563,7 +82563,7 @@
         <v>9.879999999999999</v>
       </c>
       <c r="F3422">
-        <v>-13.48</v>
+        <v>-14.61</v>
       </c>
     </row>
     <row r="3423" spans="1:6">
@@ -82703,7 +82703,7 @@
         <v>-3.78</v>
       </c>
       <c r="F3429">
-        <v>-10.89</v>
+        <v>-6.069999999999999</v>
       </c>
     </row>
     <row r="3430" spans="1:6">
@@ -82723,7 +82723,7 @@
         <v>0</v>
       </c>
       <c r="F3430">
-        <v>-12.1</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="3431" spans="1:6">
@@ -82743,7 +82743,7 @@
         <v>0</v>
       </c>
       <c r="F3431">
-        <v>12.61</v>
+        <v>16.81</v>
       </c>
     </row>
     <row r="3432" spans="1:6">
@@ -82763,7 +82763,7 @@
         <v>2.16</v>
       </c>
       <c r="F3432">
-        <v>-12.15</v>
+        <v>-7.39</v>
       </c>
     </row>
     <row r="3433" spans="1:6">
@@ -82783,7 +82783,7 @@
         <v>0</v>
       </c>
       <c r="F3433">
-        <v>-10.25</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="3434" spans="1:6">
@@ -82803,7 +82803,7 @@
         <v>0</v>
       </c>
       <c r="F3434">
-        <v>-10.25</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="3435" spans="1:6">
@@ -83043,7 +83043,7 @@
         <v>12.23</v>
       </c>
       <c r="F3446">
-        <v>-10.9</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="3447" spans="1:6">
@@ -83143,7 +83143,7 @@
         <v>-1.38</v>
       </c>
       <c r="F3451">
-        <v>-5.59</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="3452" spans="1:6">
@@ -83163,7 +83163,7 @@
         <v>0</v>
       </c>
       <c r="F3452">
-        <v>-9.550000000000001</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="3453" spans="1:6">
@@ -83183,7 +83183,7 @@
         <v>-3.52</v>
       </c>
       <c r="F3453">
-        <v>-11.09</v>
+        <v>-5.779999999999999</v>
       </c>
     </row>
     <row r="3454" spans="1:6">
@@ -83203,7 +83203,7 @@
         <v>-10.3</v>
       </c>
       <c r="F3454">
-        <v>-19.59</v>
+        <v>-13.51</v>
       </c>
     </row>
     <row r="3455" spans="1:6">
@@ -83243,7 +83243,7 @@
         <v>-0.23</v>
       </c>
       <c r="F3456">
-        <v>-6.68</v>
+        <v>-4.15</v>
       </c>
     </row>
     <row r="3457" spans="1:6">
@@ -83263,7 +83263,7 @@
         <v>-0.32</v>
       </c>
       <c r="F3457">
-        <v>-2.92</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="3458" spans="1:6">
@@ -83303,7 +83303,7 @@
         <v>-3.21</v>
       </c>
       <c r="F3459">
-        <v>-21.19</v>
+        <v>-15.23</v>
       </c>
     </row>
     <row r="3460" spans="1:6">
@@ -83763,7 +83763,7 @@
         <v>7.779999999999999</v>
       </c>
       <c r="F3482">
-        <v>-1.44</v>
+        <v>-10.83</v>
       </c>
     </row>
     <row r="3483" spans="1:6">
@@ -84723,7 +84723,7 @@
         <v>-2.64</v>
       </c>
       <c r="F3530">
-        <v>-6.72</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="3531" spans="1:6">
@@ -84823,7 +84823,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F3535">
-        <v>-4.18</v>
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="3536" spans="1:6">
@@ -85083,7 +85083,7 @@
         <v>-2.97</v>
       </c>
       <c r="F3548">
-        <v>-7.61</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="3549" spans="1:6">
@@ -85103,7 +85103,7 @@
         <v>-9.220000000000001</v>
       </c>
       <c r="F3549">
-        <v>-25.43</v>
+        <v>-13.55</v>
       </c>
     </row>
     <row r="3550" spans="1:6">
@@ -85283,7 +85283,7 @@
         <v>-10.36</v>
       </c>
       <c r="F3558">
-        <v>-8.690000000000001</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="3559" spans="1:6">
@@ -85583,7 +85583,7 @@
         <v>-7.049999999999999</v>
       </c>
       <c r="F3573">
-        <v>-5.69</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="3574" spans="1:6">
@@ -85983,7 +85983,7 @@
         <v>-24.73</v>
       </c>
       <c r="F3593">
-        <v>-5.24</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="3594" spans="1:6">
@@ -86003,7 +86003,7 @@
         <v>-19.85</v>
       </c>
       <c r="F3594">
-        <v>-5.24</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="3595" spans="1:6">
@@ -86043,7 +86043,7 @@
         <v>-19.85</v>
       </c>
       <c r="F3596">
-        <v>13.81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3597" spans="1:6">
@@ -86083,7 +86083,7 @@
         <v>-0.7799999999999999</v>
       </c>
       <c r="F3598">
-        <v>-7.090000000000001</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="3599" spans="1:6">
@@ -86103,7 +86103,7 @@
         <v>8.59</v>
       </c>
       <c r="F3599">
-        <v>-15.11</v>
+        <v>-10.07</v>
       </c>
     </row>
     <row r="3600" spans="1:6">
@@ -86303,7 +86303,7 @@
         <v>0</v>
       </c>
       <c r="F3609">
-        <v>-12.4</v>
+        <v>-16.56</v>
       </c>
     </row>
     <row r="3610" spans="1:6">
@@ -86463,7 +86463,7 @@
         <v>3.12</v>
       </c>
       <c r="F3617">
-        <v>0</v>
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="3618" spans="1:6">
@@ -86743,7 +86743,7 @@
         <v>-12.23</v>
       </c>
       <c r="F3631">
-        <v>-8.390000000000001</v>
+        <v>-10.51</v>
       </c>
     </row>
     <row r="3632" spans="1:6">
@@ -86763,7 +86763,7 @@
         <v>-12.23</v>
       </c>
       <c r="F3632">
-        <v>-0.33</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="3633" spans="1:6">
@@ -86843,7 +86843,7 @@
         <v>0</v>
       </c>
       <c r="F3636">
-        <v>-10.02</v>
+        <v>-13.35</v>
       </c>
     </row>
     <row r="3637" spans="1:6">
@@ -87103,7 +87103,7 @@
         <v>0</v>
       </c>
       <c r="F3649">
-        <v>-15.81</v>
+        <v>-20.2</v>
       </c>
     </row>
     <row r="3650" spans="1:6">
@@ -87223,7 +87223,7 @@
         <v>-5.55</v>
       </c>
       <c r="F3655">
-        <v>-3.96</v>
+        <v>-6.569999999999999</v>
       </c>
     </row>
     <row r="3656" spans="1:6">
@@ -87363,7 +87363,7 @@
         <v>0</v>
       </c>
       <c r="F3662">
-        <v>-11.83</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="3663" spans="1:6">
@@ -87423,7 +87423,7 @@
         <v>-8.619999999999999</v>
       </c>
       <c r="F3665">
-        <v>-7.140000000000001</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="3666" spans="1:6">
@@ -87523,7 +87523,7 @@
         <v>-0.42</v>
       </c>
       <c r="F3670">
-        <v>-2.25</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="3671" spans="1:6">
@@ -87623,7 +87623,7 @@
         <v>0</v>
       </c>
       <c r="F3675">
-        <v>14.06</v>
+        <v>18.76</v>
       </c>
     </row>
     <row r="3676" spans="1:6">
@@ -87723,7 +87723,7 @@
         <v>-8.94</v>
       </c>
       <c r="F3680">
-        <v>-7.37</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="3681" spans="1:6">
@@ -88483,7 +88483,7 @@
         <v>0</v>
       </c>
       <c r="F3718">
-        <v>0</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="3719" spans="1:6">
@@ -88783,7 +88783,7 @@
         <v>0</v>
       </c>
       <c r="F3733">
-        <v>0</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="3734" spans="1:6">
@@ -89203,7 +89203,7 @@
         <v>-22.6</v>
       </c>
       <c r="F3754">
-        <v>12.13</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="3755" spans="1:6">
@@ -89363,7 +89363,7 @@
         <v>0</v>
       </c>
       <c r="F3762">
-        <v>13.36</v>
+        <v>17.93</v>
       </c>
     </row>
     <row r="3763" spans="1:6">
@@ -89443,7 +89443,7 @@
         <v>4.7</v>
       </c>
       <c r="F3766">
-        <v>-7.870000000000001</v>
+        <v>-11.93</v>
       </c>
     </row>
     <row r="3767" spans="1:6">
@@ -89463,7 +89463,7 @@
         <v>4.7</v>
       </c>
       <c r="F3767">
-        <v>-7.870000000000001</v>
+        <v>-11.93</v>
       </c>
     </row>
     <row r="3768" spans="1:6">
@@ -89903,7 +89903,7 @@
         <v>0</v>
       </c>
       <c r="F3789">
-        <v>0</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="3790" spans="1:6">
@@ -89943,7 +89943,7 @@
         <v>0</v>
       </c>
       <c r="F3791">
-        <v>0</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="3792" spans="1:6">
@@ -90043,7 +90043,7 @@
         <v>-5.41</v>
       </c>
       <c r="F3796">
-        <v>12.63</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="3797" spans="1:6">
@@ -90123,7 +90123,7 @@
         <v>0</v>
       </c>
       <c r="F3800">
-        <v>0</v>
+        <v>-8.119999999999999</v>
       </c>
     </row>
     <row r="3801" spans="1:6">
@@ -90203,7 +90203,7 @@
         <v>0</v>
       </c>
       <c r="F3804">
-        <v>0</v>
+        <v>25.13</v>
       </c>
     </row>
     <row r="3805" spans="1:6">
@@ -90523,7 +90523,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3820">
-        <v>9.91</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="3821" spans="1:6">
@@ -90543,7 +90543,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3821">
-        <v>9.91</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="3822" spans="1:6">
@@ -90563,7 +90563,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3822">
-        <v>9.91</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="3823" spans="1:6">
@@ -90583,7 +90583,7 @@
         <v>-21.99</v>
       </c>
       <c r="F3823">
-        <v>9.91</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="3824" spans="1:6">
@@ -90603,7 +90603,7 @@
         <v>-5.71</v>
       </c>
       <c r="F3824">
-        <v>-15.18</v>
+        <v>-8.07</v>
       </c>
     </row>
     <row r="3825" spans="1:6">
@@ -90983,7 +90983,7 @@
         <v>-12.9</v>
       </c>
       <c r="F3843">
-        <v>6.19</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="3844" spans="1:6">
@@ -91063,7 +91063,7 @@
         <v>-15.52</v>
       </c>
       <c r="F3847">
-        <v>7.68</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="3848" spans="1:6">
@@ -91703,7 +91703,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3879">
-        <v>17.9</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="3880" spans="1:6">
@@ -91723,7 +91723,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3880">
-        <v>17.9</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="3881" spans="1:6">
@@ -91743,7 +91743,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3881">
-        <v>17.9</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="3882" spans="1:6">
@@ -92023,7 +92023,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="F3895">
-        <v>-9.33</v>
+        <v>-13.65</v>
       </c>
     </row>
     <row r="3896" spans="1:6">
@@ -92183,7 +92183,7 @@
         <v>0</v>
       </c>
       <c r="F3903">
-        <v>0</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="3904" spans="1:6">
@@ -92343,7 +92343,7 @@
         <v>0</v>
       </c>
       <c r="F3911">
-        <v>0</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="3912" spans="1:6">
@@ -92363,7 +92363,7 @@
         <v>0</v>
       </c>
       <c r="F3912">
-        <v>0</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="3913" spans="1:6">
@@ -92383,7 +92383,7 @@
         <v>0</v>
       </c>
       <c r="F3913">
-        <v>0</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="3914" spans="1:6">
@@ -92403,7 +92403,7 @@
         <v>0</v>
       </c>
       <c r="F3914">
-        <v>0</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="3915" spans="1:6">
@@ -92423,7 +92423,7 @@
         <v>0</v>
       </c>
       <c r="F3915">
-        <v>0</v>
+        <v>-6.069999999999999</v>
       </c>
     </row>
     <row r="3916" spans="1:6">
@@ -92743,7 +92743,7 @@
         <v>-2.29</v>
       </c>
       <c r="F3931">
-        <v>-3.8</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="3932" spans="1:6">
@@ -92803,7 +92803,7 @@
         <v>-2.51</v>
       </c>
       <c r="F3934">
-        <v>15.43</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="3935" spans="1:6">
@@ -92843,7 +92843,7 @@
         <v>2.88</v>
       </c>
       <c r="F3936">
-        <v>-16.07</v>
+        <v>-9.91</v>
       </c>
     </row>
     <row r="3937" spans="1:6">
@@ -92883,7 +92883,7 @@
         <v>0</v>
       </c>
       <c r="F3938">
-        <v>-13.65</v>
+        <v>-7.31</v>
       </c>
     </row>
     <row r="3939" spans="1:6">
@@ -93323,7 +93323,7 @@
         <v>-3.53</v>
       </c>
       <c r="F3960">
-        <v>-9.06</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="3961" spans="1:6">
@@ -93343,7 +93343,7 @@
         <v>-4.34</v>
       </c>
       <c r="F3961">
-        <v>-11.35</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="3962" spans="1:6">
@@ -93403,7 +93403,7 @@
         <v>-12.52</v>
       </c>
       <c r="F3964">
-        <v>12.53</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="3965" spans="1:6">
@@ -93483,7 +93483,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3968">
-        <v>-4.56</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3969" spans="1:6">
@@ -93503,7 +93503,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3969">
-        <v>-4.56</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3970" spans="1:6">
@@ -93523,7 +93523,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3970">
-        <v>-4.56</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3971" spans="1:6">
@@ -93823,7 +93823,7 @@
         <v>15.41</v>
       </c>
       <c r="F3985">
-        <v>-15.54</v>
+        <v>-20.71</v>
       </c>
     </row>
     <row r="3986" spans="1:6">
@@ -93843,7 +93843,7 @@
         <v>0</v>
       </c>
       <c r="F3986">
-        <v>0</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="3987" spans="1:6">
@@ -93903,7 +93903,7 @@
         <v>0</v>
       </c>
       <c r="F3989">
-        <v>0</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="3990" spans="1:6">
@@ -94283,7 +94283,7 @@
         <v>0</v>
       </c>
       <c r="F4008">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4009" spans="1:6">
@@ -94523,7 +94523,7 @@
         <v>0.5</v>
       </c>
       <c r="F4020">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4021" spans="1:6">
@@ -94543,7 +94543,7 @@
         <v>0.5</v>
       </c>
       <c r="F4021">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4022" spans="1:6">
@@ -94563,7 +94563,7 @@
         <v>0.5</v>
       </c>
       <c r="F4022">
-        <v>0.06</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="4023" spans="1:6">
@@ -94583,7 +94583,7 @@
         <v>0.5</v>
       </c>
       <c r="F4023">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4024" spans="1:6">
@@ -94603,7 +94603,7 @@
         <v>0.5</v>
       </c>
       <c r="F4024">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4025" spans="1:6">
@@ -94623,7 +94623,7 @@
         <v>0.5</v>
       </c>
       <c r="F4025">
-        <v>0.06</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="4026" spans="1:6">
@@ -94643,7 +94643,7 @@
         <v>0.5</v>
       </c>
       <c r="F4026">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4027" spans="1:6">
@@ -94663,7 +94663,7 @@
         <v>0.5</v>
       </c>
       <c r="F4027">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4028" spans="1:6">
@@ -94683,7 +94683,7 @@
         <v>0.5</v>
       </c>
       <c r="F4028">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4029" spans="1:6">
@@ -94703,7 +94703,7 @@
         <v>21.57</v>
       </c>
       <c r="F4029">
-        <v>-7.399999999999999</v>
+        <v>-10.86</v>
       </c>
     </row>
     <row r="4030" spans="1:6">
@@ -94723,7 +94723,7 @@
         <v>0.5</v>
       </c>
       <c r="F4030">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4031" spans="1:6">
@@ -94743,7 +94743,7 @@
         <v>0.5</v>
       </c>
       <c r="F4031">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4032" spans="1:6">
@@ -94783,7 +94783,7 @@
         <v>14.38</v>
       </c>
       <c r="F4033">
-        <v>-31.39</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="4034" spans="1:6">
@@ -94803,7 +94803,7 @@
         <v>14.38</v>
       </c>
       <c r="F4034">
-        <v>-31.39</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="4035" spans="1:6">
@@ -94823,7 +94823,7 @@
         <v>14.38</v>
       </c>
       <c r="F4035">
-        <v>-31.39</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="4036" spans="1:6">
@@ -94843,7 +94843,7 @@
         <v>11.66</v>
       </c>
       <c r="F4036">
-        <v>-26</v>
+        <v>-13.85</v>
       </c>
     </row>
     <row r="4037" spans="1:6">
@@ -94863,7 +94863,7 @@
         <v>14.38</v>
       </c>
       <c r="F4037">
-        <v>-31.39</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="4038" spans="1:6">
@@ -94903,7 +94903,7 @@
         <v>14.38</v>
       </c>
       <c r="F4039">
-        <v>-31.39</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="4040" spans="1:6">
@@ -94923,7 +94923,7 @@
         <v>14.38</v>
       </c>
       <c r="F4040">
-        <v>-31.39</v>
+        <v>-16.76</v>
       </c>
     </row>
     <row r="4041" spans="1:6">
@@ -95263,7 +95263,7 @@
         <v>-2.64</v>
       </c>
       <c r="F4057">
-        <v>-6.64</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="4058" spans="1:6">
@@ -95283,7 +95283,7 @@
         <v>5.02</v>
       </c>
       <c r="F4058">
-        <v>3.59</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="4059" spans="1:6">
@@ -95323,7 +95323,7 @@
         <v>-0.8</v>
       </c>
       <c r="F4060">
-        <v>-2.07</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="4061" spans="1:6">
@@ -95423,7 +95423,7 @@
         <v>-17.88</v>
       </c>
       <c r="F4065">
-        <v>4.91</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="4066" spans="1:6">
@@ -95743,7 +95743,7 @@
         <v>0</v>
       </c>
       <c r="F4081">
-        <v>-11.14</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="4082" spans="1:6">
@@ -95763,7 +95763,7 @@
         <v>0</v>
       </c>
       <c r="F4082">
-        <v>-11.14</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="4083" spans="1:6">
@@ -95803,7 +95803,7 @@
         <v>0</v>
       </c>
       <c r="F4084">
-        <v>-11.14</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="4085" spans="1:6">
@@ -96043,7 +96043,7 @@
         <v>0</v>
       </c>
       <c r="F4096">
-        <v>0</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="4097" spans="1:6">
@@ -96083,7 +96083,7 @@
         <v>3.18</v>
       </c>
       <c r="F4098">
-        <v>6.16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4099" spans="1:6">
@@ -96183,7 +96183,7 @@
         <v>10.02</v>
       </c>
       <c r="F4103">
-        <v>-14.67</v>
+        <v>-21.09</v>
       </c>
     </row>
     <row r="4104" spans="1:6">
@@ -97603,7 +97603,7 @@
         <v>0</v>
       </c>
       <c r="F4174">
-        <v>0</v>
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="4175" spans="1:6">
@@ -98143,7 +98143,7 @@
         <v>-22.27</v>
       </c>
       <c r="F4201">
-        <v>25.06</v>
+        <v>33.41</v>
       </c>
     </row>
     <row r="4202" spans="1:6">
@@ -99083,7 +99083,7 @@
         <v>0</v>
       </c>
       <c r="F4248">
-        <v>4.07</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4249" spans="1:6">
@@ -101043,7 +101043,7 @@
         <v>0</v>
       </c>
       <c r="F4346">
-        <v>0</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="4347" spans="1:6">
@@ -101083,7 +101083,7 @@
         <v>0</v>
       </c>
       <c r="F4348">
-        <v>-5.87</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="4349" spans="1:6">
@@ -101103,7 +101103,7 @@
         <v>0</v>
       </c>
       <c r="F4349">
-        <v>-5.87</v>
+        <v>-7.8</v>
       </c>
     </row>
     <row r="4350" spans="1:6">
@@ -101123,7 +101123,7 @@
         <v>0</v>
       </c>
       <c r="F4350">
-        <v>-5.87</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="4351" spans="1:6">
@@ -102643,7 +102643,7 @@
         <v>20.21</v>
       </c>
       <c r="F4426">
-        <v>-1.27</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="4427" spans="1:6">
@@ -102843,7 +102843,7 @@
         <v>-5.36</v>
       </c>
       <c r="F4436">
-        <v>-14.19</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="4437" spans="1:6">
@@ -102883,7 +102883,7 @@
         <v>2.66</v>
       </c>
       <c r="F4438">
-        <v>-1.3</v>
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="4439" spans="1:6">
@@ -102923,7 +102923,7 @@
         <v>2.95</v>
       </c>
       <c r="F4440">
-        <v>-18.79</v>
+        <v>-19.13</v>
       </c>
     </row>
     <row r="4441" spans="1:6">
@@ -102943,7 +102943,7 @@
         <v>-0.97</v>
       </c>
       <c r="F4441">
-        <v>-2.59</v>
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="4442" spans="1:6">
@@ -102963,7 +102963,7 @@
         <v>3.18</v>
       </c>
       <c r="F4442">
-        <v>2.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4443" spans="1:6">
@@ -103063,7 +103063,7 @@
         <v>0</v>
       </c>
       <c r="F4447">
-        <v>-7.68</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="4448" spans="1:6">
@@ -103163,7 +103163,7 @@
         <v>-8.94</v>
       </c>
       <c r="F4452">
-        <v>-22.48</v>
+        <v>-21.8</v>
       </c>
     </row>
     <row r="4453" spans="1:6">
@@ -103223,7 +103223,7 @@
         <v>-0.91</v>
       </c>
       <c r="F4455">
-        <v>-2.3</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="4456" spans="1:6">
@@ -103243,7 +103243,7 @@
         <v>-0.91</v>
       </c>
       <c r="F4456">
-        <v>-6.88</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="4457" spans="1:6">
@@ -103303,7 +103303,7 @@
         <v>3.21</v>
       </c>
       <c r="F4459">
-        <v>-1.95</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="4460" spans="1:6">
@@ -103343,7 +103343,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F4461">
-        <v>-1.3</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="4462" spans="1:6">
@@ -103363,7 +103363,7 @@
         <v>7.870000000000001</v>
       </c>
       <c r="F4462">
-        <v>-0.33</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="4463" spans="1:6">
@@ -103383,7 +103383,7 @@
         <v>-12.69</v>
       </c>
       <c r="F4463">
-        <v>7.1</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="4464" spans="1:6">
@@ -103403,7 +103403,7 @@
         <v>1.86</v>
       </c>
       <c r="F4464">
-        <v>-4.55</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="4465" spans="1:6">
@@ -103463,7 +103463,7 @@
         <v>1.9</v>
       </c>
       <c r="F4467">
-        <v>0.51</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4468" spans="1:6">
@@ -103603,7 +103603,7 @@
         <v>1.01</v>
       </c>
       <c r="F4474">
-        <v>-5.04</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="4475" spans="1:6">
@@ -103623,7 +103623,7 @@
         <v>-1.03</v>
       </c>
       <c r="F4475">
-        <v>-3.07</v>
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="4476" spans="1:6">
@@ -103643,7 +103643,7 @@
         <v>1.01</v>
       </c>
       <c r="F4476">
-        <v>-5.04</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="4477" spans="1:6">
@@ -103683,7 +103683,7 @@
         <v>1.79</v>
       </c>
       <c r="F4478">
-        <v>-5.04</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="4479" spans="1:6">
@@ -103903,7 +103903,7 @@
         <v>1.09</v>
       </c>
       <c r="F4489">
-        <v>-8.6</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="4490" spans="1:6">
@@ -104043,7 +104043,7 @@
         <v>-6.98</v>
       </c>
       <c r="F4496">
-        <v>-17.5</v>
+        <v>-9.17</v>
       </c>
     </row>
     <row r="4497" spans="1:6">
@@ -104103,7 +104103,7 @@
         <v>0</v>
       </c>
       <c r="F4499">
-        <v>-11.97</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="4500" spans="1:6">
@@ -104123,7 +104123,7 @@
         <v>0</v>
       </c>
       <c r="F4500">
-        <v>-9.92</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="4501" spans="1:6">
@@ -104143,7 +104143,7 @@
         <v>0</v>
       </c>
       <c r="F4501">
-        <v>-5.82</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="4502" spans="1:6">
@@ -104163,7 +104163,7 @@
         <v>0</v>
       </c>
       <c r="F4502">
-        <v>-12.88</v>
+        <v>-6.819999999999999</v>
       </c>
     </row>
     <row r="4503" spans="1:6">
@@ -104263,7 +104263,7 @@
         <v>-0.74</v>
       </c>
       <c r="F4507">
-        <v>-7.41</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="4508" spans="1:6">
@@ -104303,7 +104303,7 @@
         <v>-1.42</v>
       </c>
       <c r="F4509">
-        <v>-9.109999999999999</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="4510" spans="1:6">
@@ -104323,7 +104323,7 @@
         <v>-0.79</v>
       </c>
       <c r="F4510">
-        <v>-8</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4511" spans="1:6">
@@ -104523,7 +104523,7 @@
         <v>-18.38</v>
       </c>
       <c r="F4520">
-        <v>9.379999999999999</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="4521" spans="1:6">
@@ -104563,7 +104563,7 @@
         <v>-22.13</v>
       </c>
       <c r="F4522">
-        <v>-4.850000000000001</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="4523" spans="1:6">
@@ -104623,7 +104623,7 @@
         <v>7.89</v>
       </c>
       <c r="F4525">
-        <v>-9.800000000000001</v>
+        <v>-11.01</v>
       </c>
     </row>
     <row r="4526" spans="1:6">
@@ -104643,7 +104643,7 @@
         <v>0</v>
       </c>
       <c r="F4526">
-        <v>-10.61</v>
+        <v>-6.06</v>
       </c>
     </row>
     <row r="4527" spans="1:6">
@@ -104663,7 +104663,7 @@
         <v>-10.3</v>
       </c>
       <c r="F4527">
-        <v>7.77</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="4528" spans="1:6">
@@ -104683,7 +104683,7 @@
         <v>-10.3</v>
       </c>
       <c r="F4528">
-        <v>7.77</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="4529" spans="1:6">
@@ -104703,7 +104703,7 @@
         <v>-1.05</v>
       </c>
       <c r="F4529">
-        <v>-11.7</v>
+        <v>-7.090000000000001</v>
       </c>
     </row>
     <row r="4530" spans="1:6">
@@ -104783,7 +104783,7 @@
         <v>0</v>
       </c>
       <c r="F4533">
-        <v>0</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="4534" spans="1:6">
@@ -104803,7 +104803,7 @@
         <v>0</v>
       </c>
       <c r="F4534">
-        <v>0</v>
+        <v>-18.51</v>
       </c>
     </row>
     <row r="4535" spans="1:6">
@@ -104883,7 +104883,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4538">
-        <v>5.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4539" spans="1:6">
@@ -104903,7 +104903,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4539">
-        <v>5.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4540" spans="1:6">
@@ -104923,7 +104923,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4540">
-        <v>5.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4541" spans="1:6">
@@ -104943,7 +104943,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4541">
-        <v>5.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4542" spans="1:6">
@@ -105103,7 +105103,7 @@
         <v>-6</v>
       </c>
       <c r="F4549">
-        <v>-3.69</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4550" spans="1:6">
@@ -105263,7 +105263,7 @@
         <v>0</v>
       </c>
       <c r="F4557">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="4558" spans="1:6">
@@ -105343,7 +105343,7 @@
         <v>-6.56</v>
       </c>
       <c r="F4561">
-        <v>-17.58</v>
+        <v>-9.370000000000001</v>
       </c>
     </row>
     <row r="4562" spans="1:6">
@@ -105363,7 +105363,7 @@
         <v>-3.3</v>
       </c>
       <c r="F4562">
-        <v>-20.36</v>
+        <v>-12.43</v>
       </c>
     </row>
     <row r="4563" spans="1:6">
@@ -105483,7 +105483,7 @@
         <v>0</v>
       </c>
       <c r="F4568">
-        <v>0</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="4569" spans="1:6">
@@ -105543,7 +105543,7 @@
         <v>2.48</v>
       </c>
       <c r="F4571">
-        <v>16.69</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="4572" spans="1:6">
@@ -105623,7 +105623,7 @@
         <v>0</v>
       </c>
       <c r="F4575">
-        <v>-14.34</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="4576" spans="1:6">

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -14183,7 +14183,7 @@
         <v>42.98</v>
       </c>
       <c r="F3">
-        <v>8.540000000000001</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -14423,7 +14423,7 @@
         <v>-3.43</v>
       </c>
       <c r="F15">
-        <v>-4.75</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -14483,7 +14483,7 @@
         <v>-6.87</v>
       </c>
       <c r="F18">
-        <v>-1.24</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-6.710000000000001</v>
+        <v>-10.01</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -15303,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-5.74</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -15383,7 +15383,7 @@
         <v>-3.7</v>
       </c>
       <c r="F63">
-        <v>-0.1</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -15403,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>8.459999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.91</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -15723,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.86</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -16143,7 +16143,7 @@
         <v>1.34</v>
       </c>
       <c r="F101">
-        <v>0.28</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>-7.52</v>
+        <v>-11.32</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -16243,7 +16243,7 @@
         <v>6</v>
       </c>
       <c r="F106">
-        <v>-9.4</v>
+        <v>-10.95</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -16283,7 +16283,7 @@
         <v>-21.11</v>
       </c>
       <c r="F108">
-        <v>13.97</v>
+        <v>17.51</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -16303,7 +16303,7 @@
         <v>-19.55</v>
       </c>
       <c r="F109">
-        <v>15.49</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>5.43</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>-5.01</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>5.43</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -16483,7 +16483,7 @@
         <v>-1.36</v>
       </c>
       <c r="F118">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -16563,7 +16563,7 @@
         <v>6.01</v>
       </c>
       <c r="F122">
-        <v>2.48</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -16603,7 +16603,7 @@
         <v>-17.08</v>
       </c>
       <c r="F124">
-        <v>-5.12</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -16683,7 +16683,7 @@
         <v>-15.62</v>
       </c>
       <c r="F128">
-        <v>-6.76</v>
+        <v>-5.899999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>-21.6</v>
+        <v>-12.15</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -16823,7 +16823,7 @@
         <v>-29.44</v>
       </c>
       <c r="F135">
-        <v>24.75</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -16883,7 +16883,7 @@
         <v>-28.77</v>
       </c>
       <c r="F138">
-        <v>24.68</v>
+        <v>28.63</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -16923,7 +16923,7 @@
         <v>-29.44</v>
       </c>
       <c r="F140">
-        <v>24.75</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -16963,7 +16963,7 @@
         <v>-29.44</v>
       </c>
       <c r="F142">
-        <v>24.75</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -17003,7 +17003,7 @@
         <v>-3.330000000000001</v>
       </c>
       <c r="F144">
-        <v>-29.58</v>
+        <v>-27.54</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -17023,7 +17023,7 @@
         <v>-3.47</v>
       </c>
       <c r="F145">
-        <v>-11.86</v>
+        <v>-13.66</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -17423,7 +17423,7 @@
         <v>29.5</v>
       </c>
       <c r="F165">
-        <v>-5.73</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>-2.32</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -17583,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>8.870000000000001</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -18063,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>4.32</v>
+        <v>6.529999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -18283,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>-6.36</v>
+        <v>-9.569999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -18363,7 +18363,7 @@
         <v>-10.77</v>
       </c>
       <c r="F212">
-        <v>12</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -18403,7 +18403,7 @@
         <v>-2.3</v>
       </c>
       <c r="F214">
-        <v>-1.17</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -19163,7 +19163,7 @@
         <v>-2.86</v>
       </c>
       <c r="F252">
-        <v>-2.13</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -19223,7 +19223,7 @@
         <v>-5.3</v>
       </c>
       <c r="F255">
-        <v>8.59</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -19283,7 +19283,7 @@
         <v>-5.54</v>
       </c>
       <c r="F258">
-        <v>-1.65</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -19583,7 +19583,7 @@
         <v>-6.87</v>
       </c>
       <c r="F273">
-        <v>4.48</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>0.97</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>0.97</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -19843,7 +19843,7 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -19863,7 +19863,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>3.85</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -19983,7 +19983,7 @@
         <v>0</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -20003,7 +20003,7 @@
         <v>0</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -20043,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>-1.19</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -20443,7 +20443,7 @@
         <v>0</v>
       </c>
       <c r="F316">
-        <v>0</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -20483,7 +20483,7 @@
         <v>-14.87</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -20503,7 +20503,7 @@
         <v>-20.35</v>
       </c>
       <c r="F319">
-        <v>0.08</v>
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -20683,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="F328">
-        <v>5.53</v>
+        <v>8.290000000000001</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="F346">
-        <v>4.34</v>
+        <v>6.510000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -21243,7 +21243,7 @@
         <v>-0.76</v>
       </c>
       <c r="F356">
-        <v>-1.59</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="F357">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -21543,7 +21543,7 @@
         <v>0</v>
       </c>
       <c r="F371">
-        <v>-9.229999999999999</v>
+        <v>-10.44</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -21783,7 +21783,7 @@
         <v>-17.22</v>
       </c>
       <c r="F383">
-        <v>12.73</v>
+        <v>14.75</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -22123,7 +22123,7 @@
         <v>2.89</v>
       </c>
       <c r="F400">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="F430">
-        <v>0</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -22803,7 +22803,7 @@
         <v>0</v>
       </c>
       <c r="F434">
-        <v>3.37</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -22923,7 +22923,7 @@
         <v>0</v>
       </c>
       <c r="F440">
-        <v>3.72</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -23203,7 +23203,7 @@
         <v>-4.01</v>
       </c>
       <c r="F454">
-        <v>19.6</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -23223,7 +23223,7 @@
         <v>-4.01</v>
       </c>
       <c r="F455">
-        <v>19.6</v>
+        <v>22.07</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -23323,7 +23323,7 @@
         <v>25.73</v>
       </c>
       <c r="F460">
-        <v>-4.54</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -23363,7 +23363,7 @@
         <v>25.73</v>
       </c>
       <c r="F462">
-        <v>-4.54</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -23383,7 +23383,7 @@
         <v>25.73</v>
       </c>
       <c r="F463">
-        <v>-4.54</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -23463,7 +23463,7 @@
         <v>4.69</v>
       </c>
       <c r="F467">
-        <v>-14.18</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -23703,7 +23703,7 @@
         <v>2.3</v>
       </c>
       <c r="F479">
-        <v>6.069999999999999</v>
+        <v>5.390000000000001</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -23723,7 +23723,7 @@
         <v>0</v>
       </c>
       <c r="F480">
-        <v>-6.67</v>
+        <v>-10.07</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F481">
-        <v>-6.67</v>
+        <v>-10.07</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="F482">
-        <v>-13.84</v>
+        <v>-15.57</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -23823,7 +23823,7 @@
         <v>15.2</v>
       </c>
       <c r="F485">
-        <v>14.29</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -23943,7 +23943,7 @@
         <v>-15.25</v>
       </c>
       <c r="F491">
-        <v>34.15000000000001</v>
+        <v>38.65</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -23963,7 +23963,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="F492">
-        <v>25.43</v>
+        <v>29.64</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -24543,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="F521">
-        <v>6.79</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -24763,7 +24763,7 @@
         <v>-28.52</v>
       </c>
       <c r="F532">
-        <v>44.57</v>
+        <v>50.08000000000001</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="F536">
-        <v>0</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -24863,7 +24863,7 @@
         <v>0</v>
       </c>
       <c r="F537">
-        <v>9.42</v>
+        <v>14.03</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="F540">
-        <v>-2.17</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -25003,7 +25003,7 @@
         <v>3.64</v>
       </c>
       <c r="F544">
-        <v>4.04</v>
+        <v>4.390000000000001</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -25363,7 +25363,7 @@
         <v>17.43</v>
       </c>
       <c r="F562">
-        <v>-13.8</v>
+        <v>-15.89</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -25423,7 +25423,7 @@
         <v>0</v>
       </c>
       <c r="F565">
-        <v>0</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -25503,7 +25503,7 @@
         <v>0</v>
       </c>
       <c r="F569">
-        <v>2.84</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="F570">
-        <v>2.84</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="F572">
-        <v>2.84</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="F573">
-        <v>-7.13</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="F574">
-        <v>3.98</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -25623,7 +25623,7 @@
         <v>-17.22</v>
       </c>
       <c r="F575">
-        <v>12.74</v>
+        <v>14.84</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -25823,7 +25823,7 @@
         <v>0</v>
       </c>
       <c r="F585">
-        <v>0.51</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -25943,7 +25943,7 @@
         <v>2.91</v>
       </c>
       <c r="F591">
-        <v>2.31</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -26123,7 +26123,7 @@
         <v>4.97</v>
       </c>
       <c r="F600">
-        <v>-20</v>
+        <v>-23.16</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -26183,7 +26183,7 @@
         <v>-4.97</v>
       </c>
       <c r="F603">
-        <v>-11.63</v>
+        <v>-15.12</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -26203,7 +26203,7 @@
         <v>9.700000000000001</v>
       </c>
       <c r="F604">
-        <v>-3.66</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -26223,7 +26223,7 @@
         <v>-25.3</v>
       </c>
       <c r="F605">
-        <v>23.81</v>
+        <v>35.98</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -26243,7 +26243,7 @@
         <v>-25.3</v>
       </c>
       <c r="F606">
-        <v>38.62</v>
+        <v>43.91999999999999</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -26263,7 +26263,7 @@
         <v>34.35</v>
       </c>
       <c r="F607">
-        <v>-0.32</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -26283,7 +26283,7 @@
         <v>0</v>
       </c>
       <c r="F608">
-        <v>-1.2</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -26303,7 +26303,7 @@
         <v>18.27</v>
       </c>
       <c r="F609">
-        <v>-0.8099999999999999</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -26343,7 +26343,7 @@
         <v>0.89</v>
       </c>
       <c r="F611">
-        <v>2.95</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -26363,7 +26363,7 @@
         <v>0.89</v>
       </c>
       <c r="F612">
-        <v>2.95</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -26443,7 +26443,7 @@
         <v>7.140000000000001</v>
       </c>
       <c r="F616">
-        <v>1.17</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -26483,7 +26483,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="F618">
-        <v>5.54</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -26603,7 +26603,7 @@
         <v>-14.86</v>
       </c>
       <c r="F624">
-        <v>10.07</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -26663,7 +26663,7 @@
         <v>-18.28</v>
       </c>
       <c r="F627">
-        <v>20.61</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -26683,7 +26683,7 @@
         <v>-20.4</v>
       </c>
       <c r="F628">
-        <v>5.88</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -26703,7 +26703,7 @@
         <v>-18.28</v>
       </c>
       <c r="F629">
-        <v>20.61</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -27063,7 +27063,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F647">
-        <v>2.2</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -27083,7 +27083,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F648">
-        <v>5.489999999999999</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -27103,7 +27103,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F649">
-        <v>5.489999999999999</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -27123,7 +27123,7 @@
         <v>2.1</v>
       </c>
       <c r="F650">
-        <v>2.31</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="F651">
-        <v>3.44</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -27243,7 +27243,7 @@
         <v>0</v>
       </c>
       <c r="F656">
-        <v>0.51</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -27343,7 +27343,7 @@
         <v>3.64</v>
       </c>
       <c r="F661">
-        <v>4.04</v>
+        <v>4.390000000000001</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -27483,7 +27483,7 @@
         <v>-13.17</v>
       </c>
       <c r="F668">
-        <v>7.42</v>
+        <v>8.709999999999999</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -27503,7 +27503,7 @@
         <v>19.96</v>
       </c>
       <c r="F669">
-        <v>-5.7</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -27683,7 +27683,7 @@
         <v>-11.42</v>
       </c>
       <c r="F678">
-        <v>5.319999999999999</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="F679">
-        <v>16.58</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -27843,7 +27843,7 @@
         <v>0</v>
       </c>
       <c r="F686">
-        <v>-6.05</v>
+        <v>-6.800000000000001</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -28003,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="F694">
-        <v>3</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="F713">
-        <v>11.18</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -28483,7 +28483,7 @@
         <v>0</v>
       </c>
       <c r="F718">
-        <v>4</v>
+        <v>5.220000000000001</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -28583,7 +28583,7 @@
         <v>0</v>
       </c>
       <c r="F723">
-        <v>1.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -28903,7 +28903,7 @@
         <v>0</v>
       </c>
       <c r="F739">
-        <v>0</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="F743">
-        <v>-10.23</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="F744">
-        <v>-10.23</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -29083,7 +29083,7 @@
         <v>-16.71</v>
       </c>
       <c r="F748">
-        <v>15.62</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -29103,7 +29103,7 @@
         <v>-18.13</v>
       </c>
       <c r="F749">
-        <v>18.03</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -29403,7 +29403,7 @@
         <v>-4.34</v>
       </c>
       <c r="F764">
-        <v>1.68</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -29423,7 +29423,7 @@
         <v>-3.88</v>
       </c>
       <c r="F765">
-        <v>2.21</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -29503,7 +29503,7 @@
         <v>0</v>
       </c>
       <c r="F769">
-        <v>0</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -29563,7 +29563,7 @@
         <v>-2.18</v>
       </c>
       <c r="F772">
-        <v>1.76</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -29803,7 +29803,7 @@
         <v>9.25</v>
       </c>
       <c r="F784">
-        <v>-7.920000000000001</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -29823,7 +29823,7 @@
         <v>27.67</v>
       </c>
       <c r="F785">
-        <v>-20.23</v>
+        <v>-22.75</v>
       </c>
     </row>
     <row r="786" spans="1:6">
@@ -29843,7 +29843,7 @@
         <v>9.25</v>
       </c>
       <c r="F786">
-        <v>-7.920000000000001</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="787" spans="1:6">
@@ -29963,7 +29963,7 @@
         <v>-16.71</v>
       </c>
       <c r="F792">
-        <v>15.62</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -29983,7 +29983,7 @@
         <v>-23.12</v>
       </c>
       <c r="F793">
-        <v>15.62</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -30203,7 +30203,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="F804">
-        <v>9.289999999999999</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -30223,7 +30223,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="F805">
-        <v>9.289999999999999</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -30243,7 +30243,7 @@
         <v>-27.46</v>
       </c>
       <c r="F806">
-        <v>35.31</v>
+        <v>39.76</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -30363,7 +30363,7 @@
         <v>-20.96</v>
       </c>
       <c r="F812">
-        <v>28.27</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -30383,7 +30383,7 @@
         <v>-20.96</v>
       </c>
       <c r="F813">
-        <v>14.13</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -30423,7 +30423,7 @@
         <v>-27.46</v>
       </c>
       <c r="F815">
-        <v>35.31</v>
+        <v>39.76</v>
       </c>
     </row>
     <row r="816" spans="1:6">
@@ -30443,7 +30443,7 @@
         <v>-27.46</v>
       </c>
       <c r="F816">
-        <v>35.31</v>
+        <v>39.76</v>
       </c>
     </row>
     <row r="817" spans="1:6">
@@ -30463,7 +30463,7 @@
         <v>-27.46</v>
       </c>
       <c r="F817">
-        <v>35.31</v>
+        <v>39.76</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="F832">
-        <v>38.7</v>
+        <v>43.48</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -30963,7 +30963,7 @@
         <v>0</v>
       </c>
       <c r="F842">
-        <v>0.63</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -31003,7 +31003,7 @@
         <v>0</v>
       </c>
       <c r="F844">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="845" spans="1:6">
@@ -31323,7 +31323,7 @@
         <v>0</v>
       </c>
       <c r="F860">
-        <v>3.26</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -31343,7 +31343,7 @@
         <v>0</v>
       </c>
       <c r="F861">
-        <v>6.61</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -31443,7 +31443,7 @@
         <v>0</v>
       </c>
       <c r="F866">
-        <v>7.59</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -31623,7 +31623,7 @@
         <v>-20.45</v>
       </c>
       <c r="F875">
-        <v>10.01</v>
+        <v>7.470000000000001</v>
       </c>
     </row>
     <row r="876" spans="1:6">
@@ -31703,7 +31703,7 @@
         <v>-19.78</v>
       </c>
       <c r="F879">
-        <v>15.06</v>
+        <v>17.49</v>
       </c>
     </row>
     <row r="880" spans="1:6">
@@ -31723,7 +31723,7 @@
         <v>-20.45</v>
       </c>
       <c r="F880">
-        <v>20.02</v>
+        <v>22.56</v>
       </c>
     </row>
     <row r="881" spans="1:6">
@@ -31923,7 +31923,7 @@
         <v>-13.24</v>
       </c>
       <c r="F890">
-        <v>6.36</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="891" spans="1:6">
@@ -31943,7 +31943,7 @@
         <v>-6.9</v>
       </c>
       <c r="F891">
-        <v>3.11</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -31963,7 +31963,7 @@
         <v>-7.180000000000001</v>
       </c>
       <c r="F892">
-        <v>3.24</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -32103,7 +32103,7 @@
         <v>0</v>
       </c>
       <c r="F899">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -32363,7 +32363,7 @@
         <v>0</v>
       </c>
       <c r="F912">
-        <v>-1.69</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="913" spans="1:6">
@@ -32463,7 +32463,7 @@
         <v>0.08</v>
       </c>
       <c r="F917">
-        <v>-20.49</v>
+        <v>-23.07</v>
       </c>
     </row>
     <row r="918" spans="1:6">
@@ -32543,7 +32543,7 @@
         <v>0</v>
       </c>
       <c r="F921">
-        <v>0</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -33003,7 +33003,7 @@
         <v>18.64</v>
       </c>
       <c r="F944">
-        <v>3.39</v>
+        <v>4.109999999999999</v>
       </c>
     </row>
     <row r="945" spans="1:6">
@@ -33083,7 +33083,7 @@
         <v>-0.83</v>
       </c>
       <c r="F948">
-        <v>2.94</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="949" spans="1:6">
@@ -33183,7 +33183,7 @@
         <v>-4.8</v>
       </c>
       <c r="F953">
-        <v>-8.33</v>
+        <v>-4.82</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -33583,7 +33583,7 @@
         <v>4.84</v>
       </c>
       <c r="F973">
-        <v>-4.62</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="974" spans="1:6">
@@ -33663,7 +33663,7 @@
         <v>-41.24</v>
       </c>
       <c r="F977">
-        <v>18.55</v>
+        <v>32.17</v>
       </c>
     </row>
     <row r="978" spans="1:6">
@@ -33803,7 +33803,7 @@
         <v>0</v>
       </c>
       <c r="F984">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -34043,7 +34043,7 @@
         <v>14.55</v>
       </c>
       <c r="F996">
-        <v>-2.34</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -34063,7 +34063,7 @@
         <v>-1.73</v>
       </c>
       <c r="F997">
-        <v>1.88</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -34083,7 +34083,7 @@
         <v>0.91</v>
       </c>
       <c r="F998">
-        <v>-6.02</v>
+        <v>-4.82</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -34223,7 +34223,7 @@
         <v>-12.45</v>
       </c>
       <c r="F1005">
-        <v>8.66</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -34263,7 +34263,7 @@
         <v>-12.45</v>
       </c>
       <c r="F1007">
-        <v>8.66</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -34543,7 +34543,7 @@
         <v>4.01</v>
       </c>
       <c r="F1021">
-        <v>-6.36</v>
+        <v>-6.74</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -34823,7 +34823,7 @@
         <v>-3.06</v>
       </c>
       <c r="F1035">
-        <v>-4.22</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="1036" spans="1:6">
@@ -35023,7 +35023,7 @@
         <v>-1.27</v>
       </c>
       <c r="F1045">
-        <v>5.72</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="1046" spans="1:6">
@@ -35063,7 +35063,7 @@
         <v>27.31</v>
       </c>
       <c r="F1047">
-        <v>3.52</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="1048" spans="1:6">
@@ -35423,7 +35423,7 @@
         <v>0</v>
       </c>
       <c r="F1065">
-        <v>-4.130000000000001</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="1066" spans="1:6">
@@ -35583,7 +35583,7 @@
         <v>-6.239999999999999</v>
       </c>
       <c r="F1073">
-        <v>15.55</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="1074" spans="1:6">
@@ -35623,7 +35623,7 @@
         <v>0</v>
       </c>
       <c r="F1075">
-        <v>17.19</v>
+        <v>19.35</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -35723,7 +35723,7 @@
         <v>9.049999999999999</v>
       </c>
       <c r="F1080">
-        <v>-3.45</v>
+        <v>-4.68</v>
       </c>
     </row>
     <row r="1081" spans="1:6">
@@ -35743,7 +35743,7 @@
         <v>-10.65</v>
       </c>
       <c r="F1081">
-        <v>3.64</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -35763,7 +35763,7 @@
         <v>-10.65</v>
       </c>
       <c r="F1082">
-        <v>3.64</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="1083" spans="1:6">
@@ -35803,7 +35803,7 @@
         <v>-6.140000000000001</v>
       </c>
       <c r="F1084">
-        <v>3.06</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -35823,7 +35823,7 @@
         <v>-6.140000000000001</v>
       </c>
       <c r="F1085">
-        <v>6.13</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -35843,7 +35843,7 @@
         <v>-1.5</v>
       </c>
       <c r="F1086">
-        <v>0.8500000000000001</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -35883,7 +35883,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1088">
-        <v>12.39</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="1089" spans="1:6">
@@ -35903,7 +35903,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1089">
-        <v>12.39</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="1090" spans="1:6">
@@ -35923,7 +35923,7 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="F1090">
-        <v>4.09</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="1091" spans="1:6">
@@ -35963,7 +35963,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1092">
-        <v>12.39</v>
+        <v>14.09</v>
       </c>
     </row>
     <row r="1093" spans="1:6">
@@ -35983,7 +35983,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1093">
-        <v>12.39</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="1094" spans="1:6">
@@ -36083,7 +36083,7 @@
         <v>7.01</v>
       </c>
       <c r="F1098">
-        <v>12.88</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="1099" spans="1:6">
@@ -36123,7 +36123,7 @@
         <v>2.34</v>
       </c>
       <c r="F1100">
-        <v>7.48</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="1101" spans="1:6">
@@ -36143,7 +36143,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="F1101">
-        <v>7.48</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="1102" spans="1:6">
@@ -36163,7 +36163,7 @@
         <v>2.34</v>
       </c>
       <c r="F1102">
-        <v>7.48</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="1103" spans="1:6">
@@ -36243,7 +36243,7 @@
         <v>2.34</v>
       </c>
       <c r="F1106">
-        <v>7.48</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="1107" spans="1:6">
@@ -36303,7 +36303,7 @@
         <v>0</v>
       </c>
       <c r="F1109">
-        <v>-9.6</v>
+        <v>-10.74</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -36323,7 +36323,7 @@
         <v>0</v>
       </c>
       <c r="F1110">
-        <v>0</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="F1111">
-        <v>-9.6</v>
+        <v>-10.74</v>
       </c>
     </row>
     <row r="1112" spans="1:6">
@@ -36503,7 +36503,7 @@
         <v>-2.1</v>
       </c>
       <c r="F1119">
-        <v>-9.6</v>
+        <v>-10.74</v>
       </c>
     </row>
     <row r="1120" spans="1:6">
@@ -36523,7 +36523,7 @@
         <v>-19.8</v>
       </c>
       <c r="F1120">
-        <v>5.48</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="1121" spans="1:6">
@@ -36563,7 +36563,7 @@
         <v>0</v>
       </c>
       <c r="F1122">
-        <v>-15.41</v>
+        <v>-17.33</v>
       </c>
     </row>
     <row r="1123" spans="1:6">
@@ -36823,7 +36823,7 @@
         <v>0</v>
       </c>
       <c r="F1135">
-        <v>0</v>
+        <v>-13.2</v>
       </c>
     </row>
     <row r="1136" spans="1:6">
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="F1136">
-        <v>24.32</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="1137" spans="1:6">
@@ -37043,7 +37043,7 @@
         <v>11.62</v>
       </c>
       <c r="F1146">
-        <v>12.65</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="1147" spans="1:6">
@@ -37283,7 +37283,7 @@
         <v>-2.26</v>
       </c>
       <c r="F1158">
-        <v>12.53</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="1159" spans="1:6">
@@ -37443,7 +37443,7 @@
         <v>33.14</v>
       </c>
       <c r="F1166">
-        <v>18.68</v>
+        <v>16.66</v>
       </c>
     </row>
     <row r="1167" spans="1:6">
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="F1184">
-        <v>6.06</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="1185" spans="1:6">
@@ -37863,7 +37863,7 @@
         <v>0</v>
       </c>
       <c r="F1187">
-        <v>-8.18</v>
+        <v>-12.27</v>
       </c>
     </row>
     <row r="1188" spans="1:6">
@@ -38743,7 +38743,7 @@
         <v>-6.63</v>
       </c>
       <c r="F1231">
-        <v>0.33</v>
+        <v>0.9900000000000001</v>
       </c>
     </row>
     <row r="1232" spans="1:6">
@@ -39263,7 +39263,7 @@
         <v>-2.7</v>
       </c>
       <c r="F1257">
-        <v>0</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="1258" spans="1:6">
@@ -39343,7 +39343,7 @@
         <v>0</v>
       </c>
       <c r="F1261">
-        <v>4.35</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="1262" spans="1:6">
@@ -39383,7 +39383,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1263">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -39403,7 +39403,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1264">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -39423,7 +39423,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1265">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1266" spans="1:6">
@@ -39443,7 +39443,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1266">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -39463,7 +39463,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1267">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1268" spans="1:6">
@@ -39483,7 +39483,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1268">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -39503,7 +39503,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1269">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -39523,7 +39523,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1270">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1271" spans="1:6">
@@ -39543,7 +39543,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1271">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1272" spans="1:6">
@@ -39563,7 +39563,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1272">
-        <v>7.32</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="1273" spans="1:6">
@@ -39583,7 +39583,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1273">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1274" spans="1:6">
@@ -39603,7 +39603,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1274">
-        <v>20.1</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="1275" spans="1:6">
@@ -39703,7 +39703,7 @@
         <v>0</v>
       </c>
       <c r="F1279">
-        <v>5.98</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="1280" spans="1:6">
@@ -39803,7 +39803,7 @@
         <v>6.76</v>
       </c>
       <c r="F1284">
-        <v>-2.47</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="1285" spans="1:6">
@@ -40063,7 +40063,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1297">
-        <v>19.9</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -40083,7 +40083,7 @@
         <v>-15.44</v>
       </c>
       <c r="F1298">
-        <v>18.64</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -40103,7 +40103,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1299">
-        <v>19.9</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -40123,7 +40123,7 @@
         <v>-15.44</v>
       </c>
       <c r="F1300">
-        <v>18.64</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -40143,7 +40143,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1301">
-        <v>19.9</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="1302" spans="1:6">
@@ -40163,7 +40163,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1302">
-        <v>19.9</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -40203,7 +40203,7 @@
         <v>-11.01</v>
       </c>
       <c r="F1304">
-        <v>-30.88</v>
+        <v>-20.07</v>
       </c>
     </row>
     <row r="1305" spans="1:6">
@@ -40223,7 +40223,7 @@
         <v>-11.01</v>
       </c>
       <c r="F1305">
-        <v>-16.44</v>
+        <v>-9.26</v>
       </c>
     </row>
     <row r="1306" spans="1:6">
@@ -40483,7 +40483,7 @@
         <v>0.98</v>
       </c>
       <c r="F1318">
-        <v>0</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="1319" spans="1:6">
@@ -40503,7 +40503,7 @@
         <v>-17.84</v>
       </c>
       <c r="F1319">
-        <v>18.27</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="1320" spans="1:6">
@@ -40543,7 +40543,7 @@
         <v>-17.84</v>
       </c>
       <c r="F1321">
-        <v>18.27</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="1322" spans="1:6">
@@ -40563,7 +40563,7 @@
         <v>0.98</v>
       </c>
       <c r="F1322">
-        <v>2.24</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="1323" spans="1:6">
@@ -40963,7 +40963,7 @@
         <v>4.48</v>
       </c>
       <c r="F1342">
-        <v>-20.4</v>
+        <v>-21.13</v>
       </c>
     </row>
     <row r="1343" spans="1:6">
@@ -40983,7 +40983,7 @@
         <v>0</v>
       </c>
       <c r="F1343">
-        <v>3.34</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="1344" spans="1:6">
@@ -41143,7 +41143,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1351">
-        <v>-8.290000000000001</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="1352" spans="1:6">
@@ -41163,7 +41163,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1352">
-        <v>-8.290000000000001</v>
+        <v>-9.550000000000001</v>
       </c>
     </row>
     <row r="1353" spans="1:6">
@@ -41203,7 +41203,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1354">
-        <v>7.539999999999999</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="1355" spans="1:6">
@@ -41263,7 +41263,7 @@
         <v>0</v>
       </c>
       <c r="F1357">
-        <v>14.3</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="1358" spans="1:6">
@@ -41303,7 +41303,7 @@
         <v>0</v>
       </c>
       <c r="F1359">
-        <v>2.71</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="1360" spans="1:6">
@@ -41343,7 +41343,7 @@
         <v>-14.19</v>
       </c>
       <c r="F1361">
-        <v>-8.82</v>
+        <v>-9.629999999999999</v>
       </c>
     </row>
     <row r="1362" spans="1:6">
@@ -42343,7 +42343,7 @@
         <v>0</v>
       </c>
       <c r="F1411">
-        <v>-2.54</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="1412" spans="1:6">
@@ -42383,7 +42383,7 @@
         <v>7.59</v>
       </c>
       <c r="F1413">
-        <v>9.35</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="1414" spans="1:6">
@@ -42523,7 +42523,7 @@
         <v>0</v>
       </c>
       <c r="F1420">
-        <v>0</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="1421" spans="1:6">
@@ -42803,7 +42803,7 @@
         <v>-27.67</v>
       </c>
       <c r="F1434">
-        <v>23.41</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="1435" spans="1:6">
@@ -43043,7 +43043,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1446">
-        <v>-2.14</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="1447" spans="1:6">
@@ -43063,7 +43063,7 @@
         <v>6.75</v>
       </c>
       <c r="F1447">
-        <v>0</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="1448" spans="1:6">
@@ -43083,7 +43083,7 @@
         <v>9.49</v>
       </c>
       <c r="F1448">
-        <v>0</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="1449" spans="1:6">
@@ -43103,7 +43103,7 @@
         <v>7.539999999999999</v>
       </c>
       <c r="F1449">
-        <v>0</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="1450" spans="1:6">
@@ -43123,7 +43123,7 @@
         <v>3.79</v>
       </c>
       <c r="F1450">
-        <v>-2.12</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="1451" spans="1:6">
@@ -43143,7 +43143,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1451">
-        <v>-2.14</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="1452" spans="1:6">
@@ -43163,7 +43163,7 @@
         <v>-5.21</v>
       </c>
       <c r="F1452">
-        <v>0.34</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="1453" spans="1:6">
@@ -43183,7 +43183,7 @@
         <v>-2.29</v>
       </c>
       <c r="F1453">
-        <v>0.97</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="1454" spans="1:6">
@@ -43203,7 +43203,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1454">
-        <v>-2.14</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="1455" spans="1:6">
@@ -43263,7 +43263,7 @@
         <v>0</v>
       </c>
       <c r="F1457">
-        <v>0</v>
+        <v>-6.510000000000001</v>
       </c>
     </row>
     <row r="1458" spans="1:6">
@@ -43283,7 +43283,7 @@
         <v>0</v>
       </c>
       <c r="F1458">
-        <v>-15.62</v>
+        <v>-23.36</v>
       </c>
     </row>
     <row r="1459" spans="1:6">
@@ -43303,7 +43303,7 @@
         <v>-1.12</v>
       </c>
       <c r="F1459">
-        <v>4.89</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="1460" spans="1:6">
@@ -43323,7 +43323,7 @@
         <v>6.909999999999999</v>
       </c>
       <c r="F1460">
-        <v>-2.99</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="1461" spans="1:6">
@@ -43443,7 +43443,7 @@
         <v>0</v>
       </c>
       <c r="F1466">
-        <v>2.19</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="1467" spans="1:6">
@@ -43463,7 +43463,7 @@
         <v>13.98</v>
       </c>
       <c r="F1467">
-        <v>0.06999999999999999</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="1468" spans="1:6">
@@ -43483,7 +43483,7 @@
         <v>0</v>
       </c>
       <c r="F1468">
-        <v>-1.17</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="1469" spans="1:6">
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="F1471">
-        <v>10.22</v>
+        <v>15.33</v>
       </c>
     </row>
     <row r="1472" spans="1:6">
@@ -43603,7 +43603,7 @@
         <v>-2.41</v>
       </c>
       <c r="F1474">
-        <v>-2</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="1475" spans="1:6">
@@ -43623,7 +43623,7 @@
         <v>7.430000000000001</v>
       </c>
       <c r="F1475">
-        <v>-1.04</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="1476" spans="1:6">
@@ -43663,7 +43663,7 @@
         <v>0</v>
       </c>
       <c r="F1477">
-        <v>0</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="1478" spans="1:6">
@@ -43743,7 +43743,7 @@
         <v>0</v>
       </c>
       <c r="F1481">
-        <v>-3.01</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -43843,7 +43843,7 @@
         <v>-12.57</v>
       </c>
       <c r="F1486">
-        <v>16.73</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -43863,7 +43863,7 @@
         <v>-12.57</v>
       </c>
       <c r="F1487">
-        <v>16.73</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -45043,7 +45043,7 @@
         <v>-1.74</v>
       </c>
       <c r="F1546">
-        <v>-0.27</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -45063,7 +45063,7 @@
         <v>-1.74</v>
       </c>
       <c r="F1547">
-        <v>-0.27</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1548" spans="1:6">
@@ -45083,7 +45083,7 @@
         <v>-0.8699999999999999</v>
       </c>
       <c r="F1548">
-        <v>-3.25</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="1549" spans="1:6">
@@ -45103,7 +45103,7 @@
         <v>-0.8699999999999999</v>
       </c>
       <c r="F1549">
-        <v>-3.25</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="1550" spans="1:6">
@@ -45123,7 +45123,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="F1550">
-        <v>0</v>
+        <v>-8.34</v>
       </c>
     </row>
     <row r="1551" spans="1:6">
@@ -45483,7 +45483,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1568">
-        <v>28.27</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="1569" spans="1:6">
@@ -45503,7 +45503,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1569">
-        <v>28.27</v>
+        <v>28.96</v>
       </c>
     </row>
     <row r="1570" spans="1:6">
@@ -45543,7 +45543,7 @@
         <v>0</v>
       </c>
       <c r="F1571">
-        <v>2.59</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="1572" spans="1:6">
@@ -45563,7 +45563,7 @@
         <v>-27.46</v>
       </c>
       <c r="F1572">
-        <v>33.67</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="1573" spans="1:6">
@@ -45583,7 +45583,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1573">
-        <v>28.27</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="1574" spans="1:6">
@@ -45623,7 +45623,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1575">
-        <v>28.27</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="1576" spans="1:6">
@@ -45663,7 +45663,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1577">
-        <v>23.13</v>
+        <v>24.09</v>
       </c>
     </row>
     <row r="1578" spans="1:6">
@@ -45743,7 +45743,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1581">
-        <v>28.27</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -45763,7 +45763,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1582">
-        <v>28.27</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="1583" spans="1:6">
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="F1598">
-        <v>16.69</v>
+        <v>18.86</v>
       </c>
     </row>
     <row r="1599" spans="1:6">
@@ -46103,7 +46103,7 @@
         <v>0</v>
       </c>
       <c r="F1599">
-        <v>8.35</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="1600" spans="1:6">
@@ -46203,7 +46203,7 @@
         <v>7.5</v>
       </c>
       <c r="F1604">
-        <v>-6.41</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="1605" spans="1:6">
@@ -46223,7 +46223,7 @@
         <v>-15.1</v>
       </c>
       <c r="F1605">
-        <v>11.83</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="1606" spans="1:6">
@@ -46243,7 +46243,7 @@
         <v>9.76</v>
       </c>
       <c r="F1606">
-        <v>-5.47</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="1607" spans="1:6">
@@ -46263,7 +46263,7 @@
         <v>-16.54</v>
       </c>
       <c r="F1607">
-        <v>4.69</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="1608" spans="1:6">
@@ -46403,7 +46403,7 @@
         <v>0</v>
       </c>
       <c r="F1614">
-        <v>7.24</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="1615" spans="1:6">
@@ -46463,7 +46463,7 @@
         <v>0</v>
       </c>
       <c r="F1617">
-        <v>-19.86</v>
+        <v>-22.34</v>
       </c>
     </row>
     <row r="1618" spans="1:6">
@@ -46503,7 +46503,7 @@
         <v>0</v>
       </c>
       <c r="F1619">
-        <v>0.75</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="1620" spans="1:6">
@@ -46583,7 +46583,7 @@
         <v>0</v>
       </c>
       <c r="F1623">
-        <v>0</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1624" spans="1:6">
@@ -46623,7 +46623,7 @@
         <v>0</v>
       </c>
       <c r="F1625">
-        <v>0</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="1626" spans="1:6">
@@ -46663,7 +46663,7 @@
         <v>0</v>
       </c>
       <c r="F1627">
-        <v>-4.569999999999999</v>
+        <v>-6.850000000000001</v>
       </c>
     </row>
     <row r="1628" spans="1:6">
@@ -46723,7 +46723,7 @@
         <v>7.829999999999999</v>
       </c>
       <c r="F1630">
-        <v>-10.96</v>
+        <v>-12.61</v>
       </c>
     </row>
     <row r="1631" spans="1:6">
@@ -46763,7 +46763,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="F1632">
-        <v>-23.47</v>
+        <v>-15.26</v>
       </c>
     </row>
     <row r="1633" spans="1:6">
@@ -46783,7 +46783,7 @@
         <v>-21.46</v>
       </c>
       <c r="F1633">
-        <v>14.59</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="1634" spans="1:6">
@@ -46803,7 +46803,7 @@
         <v>0</v>
       </c>
       <c r="F1634">
-        <v>-4.35</v>
+        <v>-3.330000000000001</v>
       </c>
     </row>
     <row r="1635" spans="1:6">
@@ -47103,7 +47103,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1649">
-        <v>-8.129999999999999</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="1650" spans="1:6">
@@ -47123,7 +47123,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1650">
-        <v>-8.129999999999999</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="1651" spans="1:6">
@@ -47163,7 +47163,7 @@
         <v>0</v>
       </c>
       <c r="F1652">
-        <v>-6.1</v>
+        <v>-9.139999999999999</v>
       </c>
     </row>
     <row r="1653" spans="1:6">
@@ -47183,7 +47183,7 @@
         <v>0</v>
       </c>
       <c r="F1653">
-        <v>-6.1</v>
+        <v>-9.139999999999999</v>
       </c>
     </row>
     <row r="1654" spans="1:6">
@@ -47203,7 +47203,7 @@
         <v>0</v>
       </c>
       <c r="F1654">
-        <v>-6.1</v>
+        <v>-9.139999999999999</v>
       </c>
     </row>
     <row r="1655" spans="1:6">
@@ -47223,7 +47223,7 @@
         <v>0</v>
       </c>
       <c r="F1655">
-        <v>-6.1</v>
+        <v>-9.139999999999999</v>
       </c>
     </row>
     <row r="1656" spans="1:6">
@@ -47303,7 +47303,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1659">
-        <v>-15.24</v>
+        <v>-9.93</v>
       </c>
     </row>
     <row r="1660" spans="1:6">
@@ -47323,7 +47323,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1660">
-        <v>-8.129999999999999</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="1661" spans="1:6">
@@ -47343,7 +47343,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1661">
-        <v>-8.129999999999999</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="1662" spans="1:6">
@@ -47363,7 +47363,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1662">
-        <v>-8.129999999999999</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="1663" spans="1:6">
@@ -47383,7 +47383,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1663">
-        <v>-8.129999999999999</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="1664" spans="1:6">
@@ -47403,7 +47403,7 @@
         <v>0.76</v>
       </c>
       <c r="F1664">
-        <v>28.2</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1665" spans="1:6">
@@ -47423,7 +47423,7 @@
         <v>0</v>
       </c>
       <c r="F1665">
-        <v>-9.33</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="1666" spans="1:6">
@@ -47443,7 +47443,7 @@
         <v>0.76</v>
       </c>
       <c r="F1666">
-        <v>28.2</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1667" spans="1:6">
@@ -47463,7 +47463,7 @@
         <v>0.76</v>
       </c>
       <c r="F1667">
-        <v>28.2</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1668" spans="1:6">
@@ -47483,7 +47483,7 @@
         <v>4.27</v>
       </c>
       <c r="F1668">
-        <v>-1.36</v>
+        <v>0.9900000000000001</v>
       </c>
     </row>
     <row r="1669" spans="1:6">
@@ -47503,7 +47503,7 @@
         <v>0</v>
       </c>
       <c r="F1669">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1670" spans="1:6">
@@ -47523,7 +47523,7 @@
         <v>0</v>
       </c>
       <c r="F1670">
-        <v>-7.16</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1671" spans="1:6">
@@ -47543,7 +47543,7 @@
         <v>0</v>
       </c>
       <c r="F1671">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1672" spans="1:6">
@@ -47623,7 +47623,7 @@
         <v>-12.89</v>
       </c>
       <c r="F1675">
-        <v>-14.24</v>
+        <v>-7.000000000000001</v>
       </c>
     </row>
     <row r="1676" spans="1:6">
@@ -47643,7 +47643,7 @@
         <v>-13.78</v>
       </c>
       <c r="F1676">
-        <v>21.07</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="1677" spans="1:6">
@@ -47663,7 +47663,7 @@
         <v>-13.78</v>
       </c>
       <c r="F1677">
-        <v>3.57</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="1678" spans="1:6">
@@ -47683,7 +47683,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1678">
-        <v>-15.24</v>
+        <v>-9.93</v>
       </c>
     </row>
     <row r="1679" spans="1:6">
@@ -47703,7 +47703,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1679">
-        <v>-15.24</v>
+        <v>-9.93</v>
       </c>
     </row>
     <row r="1680" spans="1:6">
@@ -47723,7 +47723,7 @@
         <v>-2.91</v>
       </c>
       <c r="F1680">
-        <v>-10.81</v>
+        <v>-7.399999999999999</v>
       </c>
     </row>
     <row r="1681" spans="1:6">
@@ -47743,7 +47743,7 @@
         <v>0</v>
       </c>
       <c r="F1681">
-        <v>0</v>
+        <v>-4.569999999999999</v>
       </c>
     </row>
     <row r="1682" spans="1:6">
@@ -47763,7 +47763,7 @@
         <v>0</v>
       </c>
       <c r="F1682">
-        <v>-5.02</v>
+        <v>-7.57</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
@@ -47803,7 +47803,7 @@
         <v>0</v>
       </c>
       <c r="F1684">
-        <v>-9.33</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="1685" spans="1:6">
@@ -47823,7 +47823,7 @@
         <v>0</v>
       </c>
       <c r="F1685">
-        <v>-9.33</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="1686" spans="1:6">
@@ -47843,7 +47843,7 @@
         <v>37.83000000000001</v>
       </c>
       <c r="F1686">
-        <v>4.18</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="1687" spans="1:6">
@@ -47863,7 +47863,7 @@
         <v>0.76</v>
       </c>
       <c r="F1687">
-        <v>28.2</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1688" spans="1:6">
@@ -47883,7 +47883,7 @@
         <v>0.76</v>
       </c>
       <c r="F1688">
-        <v>28.2</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1689" spans="1:6">
@@ -47903,7 +47903,7 @@
         <v>0.76</v>
       </c>
       <c r="F1689">
-        <v>28.2</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1690" spans="1:6">
@@ -47943,7 +47943,7 @@
         <v>0</v>
       </c>
       <c r="F1691">
-        <v>-7.16</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1692" spans="1:6">
@@ -47963,7 +47963,7 @@
         <v>-7.870000000000001</v>
       </c>
       <c r="F1692">
-        <v>-7.16</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1693" spans="1:6">
@@ -47983,7 +47983,7 @@
         <v>0</v>
       </c>
       <c r="F1693">
-        <v>2.85</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="1694" spans="1:6">
@@ -48003,7 +48003,7 @@
         <v>0</v>
       </c>
       <c r="F1694">
-        <v>-7.16</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1695" spans="1:6">
@@ -48023,7 +48023,7 @@
         <v>0.76</v>
       </c>
       <c r="F1695">
-        <v>28.2</v>
+        <v>31.73</v>
       </c>
     </row>
     <row r="1696" spans="1:6">
@@ -48043,7 +48043,7 @@
         <v>0</v>
       </c>
       <c r="F1696">
-        <v>0</v>
+        <v>-6.98</v>
       </c>
     </row>
     <row r="1697" spans="1:6">
@@ -48063,7 +48063,7 @@
         <v>0</v>
       </c>
       <c r="F1697">
-        <v>-7.16</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="1698" spans="1:6">
@@ -48163,7 +48163,7 @@
         <v>0</v>
       </c>
       <c r="F1702">
-        <v>-19.95</v>
+        <v>-22.46</v>
       </c>
     </row>
     <row r="1703" spans="1:6">
@@ -48183,7 +48183,7 @@
         <v>0</v>
       </c>
       <c r="F1703">
-        <v>-19.95</v>
+        <v>-22.46</v>
       </c>
     </row>
     <row r="1704" spans="1:6">
@@ -48243,7 +48243,7 @@
         <v>0</v>
       </c>
       <c r="F1706">
-        <v>-16.04</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="1707" spans="1:6">
@@ -48343,7 +48343,7 @@
         <v>0</v>
       </c>
       <c r="F1711">
-        <v>-19.95</v>
+        <v>-22.46</v>
       </c>
     </row>
     <row r="1712" spans="1:6">
@@ -48363,7 +48363,7 @@
         <v>0</v>
       </c>
       <c r="F1712">
-        <v>-19.95</v>
+        <v>-22.46</v>
       </c>
     </row>
     <row r="1713" spans="1:6">
@@ -48523,7 +48523,7 @@
         <v>0</v>
       </c>
       <c r="F1720">
-        <v>-9.520000000000001</v>
+        <v>-14.29</v>
       </c>
     </row>
     <row r="1721" spans="1:6">
@@ -48543,7 +48543,7 @@
         <v>0</v>
       </c>
       <c r="F1721">
-        <v>-9.520000000000001</v>
+        <v>-14.29</v>
       </c>
     </row>
     <row r="1722" spans="1:6">
@@ -48603,7 +48603,7 @@
         <v>0</v>
       </c>
       <c r="F1724">
-        <v>-1.37</v>
+        <v>0.9900000000000001</v>
       </c>
     </row>
     <row r="1725" spans="1:6">
@@ -48763,7 +48763,7 @@
         <v>-5.35</v>
       </c>
       <c r="F1732">
-        <v>-3.77</v>
+        <v>-6.87</v>
       </c>
     </row>
     <row r="1733" spans="1:6">
@@ -48923,7 +48923,7 @@
         <v>-4.6</v>
       </c>
       <c r="F1740">
-        <v>-8.33</v>
+        <v>-10.53</v>
       </c>
     </row>
     <row r="1741" spans="1:6">
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="F1741">
-        <v>-12.55</v>
+        <v>-14.64</v>
       </c>
     </row>
     <row r="1742" spans="1:6">
@@ -48963,7 +48963,7 @@
         <v>0</v>
       </c>
       <c r="F1742">
-        <v>-12.55</v>
+        <v>-14.64</v>
       </c>
     </row>
     <row r="1743" spans="1:6">
@@ -48983,7 +48983,7 @@
         <v>-4.6</v>
       </c>
       <c r="F1743">
-        <v>-0.88</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="1744" spans="1:6">
@@ -49003,7 +49003,7 @@
         <v>-3.97</v>
       </c>
       <c r="F1744">
-        <v>-7.02</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="1745" spans="1:6">
@@ -49023,7 +49023,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1745">
-        <v>-7.02</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="1746" spans="1:6">
@@ -49043,7 +49043,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1746">
-        <v>-15.29</v>
+        <v>-14.05</v>
       </c>
     </row>
     <row r="1747" spans="1:6">
@@ -49063,7 +49063,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1747">
-        <v>-18.18</v>
+        <v>-16.12</v>
       </c>
     </row>
     <row r="1748" spans="1:6">
@@ -49103,7 +49103,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1749">
-        <v>-7.02</v>
+        <v>-7.44</v>
       </c>
     </row>
     <row r="1750" spans="1:6">
@@ -49143,7 +49143,7 @@
         <v>0</v>
       </c>
       <c r="F1751">
-        <v>9.359999999999999</v>
+        <v>10.55</v>
       </c>
     </row>
     <row r="1752" spans="1:6">
@@ -49263,7 +49263,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F1757">
-        <v>-0.9299999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="1758" spans="1:6">
@@ -49343,7 +49343,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F1761">
-        <v>-0.9299999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="1762" spans="1:6">
@@ -49443,7 +49443,7 @@
         <v>0</v>
       </c>
       <c r="F1766">
-        <v>13.84</v>
+        <v>15.56</v>
       </c>
     </row>
     <row r="1767" spans="1:6">
@@ -49483,7 +49483,7 @@
         <v>-8.08</v>
       </c>
       <c r="F1768">
-        <v>3.05</v>
+        <v>5.609999999999999</v>
       </c>
     </row>
     <row r="1769" spans="1:6">
@@ -49523,7 +49523,7 @@
         <v>-7.46</v>
       </c>
       <c r="F1770">
-        <v>-8.6</v>
+        <v>-5.899999999999999</v>
       </c>
     </row>
     <row r="1771" spans="1:6">
@@ -49663,7 +49663,7 @@
         <v>0</v>
       </c>
       <c r="F1777">
-        <v>0.34</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="1778" spans="1:6">
@@ -49783,7 +49783,7 @@
         <v>0</v>
       </c>
       <c r="F1783">
-        <v>6.460000000000001</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="1784" spans="1:6">
@@ -49803,7 +49803,7 @@
         <v>0</v>
       </c>
       <c r="F1784">
-        <v>9.109999999999999</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="1785" spans="1:6">
@@ -49823,7 +49823,7 @@
         <v>0</v>
       </c>
       <c r="F1785">
-        <v>-4.31</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="1786" spans="1:6">
@@ -49863,7 +49863,7 @@
         <v>0</v>
       </c>
       <c r="F1787">
-        <v>-13.42</v>
+        <v>-15.03</v>
       </c>
     </row>
     <row r="1788" spans="1:6">
@@ -50183,7 +50183,7 @@
         <v>2.63</v>
       </c>
       <c r="F1803">
-        <v>-3.42</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="1804" spans="1:6">
@@ -50223,7 +50223,7 @@
         <v>2.63</v>
       </c>
       <c r="F1805">
-        <v>-3.42</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="1806" spans="1:6">
@@ -50243,7 +50243,7 @@
         <v>0</v>
       </c>
       <c r="F1806">
-        <v>-3.93</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="1807" spans="1:6">
@@ -50263,7 +50263,7 @@
         <v>2.63</v>
       </c>
       <c r="F1807">
-        <v>-3.42</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="1808" spans="1:6">
@@ -50283,7 +50283,7 @@
         <v>3.32</v>
       </c>
       <c r="F1808">
-        <v>-1.01</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1809" spans="1:6">
@@ -50303,7 +50303,7 @@
         <v>0</v>
       </c>
       <c r="F1809">
-        <v>-0.88</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="1810" spans="1:6">
@@ -50323,7 +50323,7 @@
         <v>6.460000000000001</v>
       </c>
       <c r="F1810">
-        <v>-3.93</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="1811" spans="1:6">
@@ -50363,7 +50363,7 @@
         <v>2.71</v>
       </c>
       <c r="F1812">
-        <v>-0.88</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="1813" spans="1:6">
@@ -50383,7 +50383,7 @@
         <v>0</v>
       </c>
       <c r="F1813">
-        <v>-0.88</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="1814" spans="1:6">
@@ -50403,7 +50403,7 @@
         <v>6.460000000000001</v>
       </c>
       <c r="F1814">
-        <v>-3.93</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="1815" spans="1:6">
@@ -50423,7 +50423,7 @@
         <v>0</v>
       </c>
       <c r="F1815">
-        <v>-1.01</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1816" spans="1:6">
@@ -50443,7 +50443,7 @@
         <v>0</v>
       </c>
       <c r="F1816">
-        <v>-1.01</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1817" spans="1:6">
@@ -50463,7 +50463,7 @@
         <v>0</v>
       </c>
       <c r="F1817">
-        <v>-1.01</v>
+        <v>0.6799999999999999</v>
       </c>
     </row>
     <row r="1818" spans="1:6">
@@ -50483,7 +50483,7 @@
         <v>0</v>
       </c>
       <c r="F1818">
-        <v>-0.88</v>
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="1819" spans="1:6">
@@ -50543,7 +50543,7 @@
         <v>0</v>
       </c>
       <c r="F1821">
-        <v>-7.470000000000001</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="1822" spans="1:6">
@@ -50563,7 +50563,7 @@
         <v>0</v>
       </c>
       <c r="F1822">
-        <v>-7.470000000000001</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="1823" spans="1:6">
@@ -50583,7 +50583,7 @@
         <v>0</v>
       </c>
       <c r="F1823">
-        <v>-7.470000000000001</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="1824" spans="1:6">
@@ -50603,7 +50603,7 @@
         <v>0</v>
       </c>
       <c r="F1824">
-        <v>-7.470000000000001</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="1825" spans="1:6">
@@ -50623,7 +50623,7 @@
         <v>0</v>
       </c>
       <c r="F1825">
-        <v>-7.470000000000001</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="1826" spans="1:6">
@@ -50643,7 +50643,7 @@
         <v>-2.05</v>
       </c>
       <c r="F1826">
-        <v>-7.470000000000001</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="1827" spans="1:6">
@@ -50663,7 +50663,7 @@
         <v>0</v>
       </c>
       <c r="F1827">
-        <v>-7.470000000000001</v>
+        <v>-8.68</v>
       </c>
     </row>
     <row r="1828" spans="1:6">
@@ -50843,7 +50843,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1836">
-        <v>6.54</v>
+        <v>8.469999999999999</v>
       </c>
     </row>
     <row r="1837" spans="1:6">
@@ -50903,7 +50903,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1839">
-        <v>6.54</v>
+        <v>8.469999999999999</v>
       </c>
     </row>
     <row r="1840" spans="1:6">
@@ -50923,7 +50923,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1840">
-        <v>6.54</v>
+        <v>8.469999999999999</v>
       </c>
     </row>
     <row r="1841" spans="1:6">
@@ -50943,7 +50943,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1841">
-        <v>6.54</v>
+        <v>8.469999999999999</v>
       </c>
     </row>
     <row r="1842" spans="1:6">
@@ -50963,7 +50963,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1842">
-        <v>6.54</v>
+        <v>8.469999999999999</v>
       </c>
     </row>
     <row r="1843" spans="1:6">
@@ -50983,7 +50983,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1843">
-        <v>6.54</v>
+        <v>8.469999999999999</v>
       </c>
     </row>
     <row r="1844" spans="1:6">
@@ -51143,7 +51143,7 @@
         <v>-12.07</v>
       </c>
       <c r="F1851">
-        <v>7.98</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="1852" spans="1:6">
@@ -51743,7 +51743,7 @@
         <v>-13.13</v>
       </c>
       <c r="F1881">
-        <v>9.33</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="1882" spans="1:6">
@@ -51863,7 +51863,7 @@
         <v>-9.81</v>
       </c>
       <c r="F1887">
-        <v>-1.82</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="1888" spans="1:6">
@@ -51923,7 +51923,7 @@
         <v>0</v>
       </c>
       <c r="F1890">
-        <v>-11.14</v>
+        <v>-12.53</v>
       </c>
     </row>
     <row r="1891" spans="1:6">
@@ -52063,7 +52063,7 @@
         <v>5.27</v>
       </c>
       <c r="F1897">
-        <v>-6.260000000000001</v>
+        <v>-9.390000000000001</v>
       </c>
     </row>
     <row r="1898" spans="1:6">
@@ -52343,7 +52343,7 @@
         <v>9.33</v>
       </c>
       <c r="F1911">
-        <v>-0.49</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="1912" spans="1:6">
@@ -52903,7 +52903,7 @@
         <v>-6.05</v>
       </c>
       <c r="F1939">
-        <v>12.2</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="1940" spans="1:6">
@@ -53023,7 +53023,7 @@
         <v>-3.32</v>
       </c>
       <c r="F1945">
-        <v>-12.52</v>
+        <v>-8.529999999999999</v>
       </c>
     </row>
     <row r="1946" spans="1:6">
@@ -53043,7 +53043,7 @@
         <v>-2.71</v>
       </c>
       <c r="F1946">
-        <v>-10.22</v>
+        <v>-6.959999999999999</v>
       </c>
     </row>
     <row r="1947" spans="1:6">
@@ -53063,7 +53063,7 @@
         <v>0</v>
       </c>
       <c r="F1947">
-        <v>3.03</v>
+        <v>4.590000000000001</v>
       </c>
     </row>
     <row r="1948" spans="1:6">
@@ -53083,7 +53083,7 @@
         <v>0</v>
       </c>
       <c r="F1948">
-        <v>1.84</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="1949" spans="1:6">
@@ -53103,7 +53103,7 @@
         <v>0</v>
       </c>
       <c r="F1949">
-        <v>1.75</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="1950" spans="1:6">
@@ -53123,7 +53123,7 @@
         <v>0</v>
       </c>
       <c r="F1950">
-        <v>6.47</v>
+        <v>9.640000000000001</v>
       </c>
     </row>
     <row r="1951" spans="1:6">
@@ -53143,7 +53143,7 @@
         <v>0</v>
       </c>
       <c r="F1951">
-        <v>5.34</v>
+        <v>7.920000000000001</v>
       </c>
     </row>
     <row r="1952" spans="1:6">
@@ -53183,7 +53183,7 @@
         <v>0</v>
       </c>
       <c r="F1953">
-        <v>2.37</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="1954" spans="1:6">
@@ -53203,7 +53203,7 @@
         <v>0</v>
       </c>
       <c r="F1954">
-        <v>3.34</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="1955" spans="1:6">
@@ -53583,7 +53583,7 @@
         <v>-15</v>
       </c>
       <c r="F1973">
-        <v>10.46</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="1974" spans="1:6">
@@ -53783,7 +53783,7 @@
         <v>-5.86</v>
       </c>
       <c r="F1983">
-        <v>-8.309999999999999</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="1984" spans="1:6">
@@ -53843,7 +53843,7 @@
         <v>-7.049999999999999</v>
       </c>
       <c r="F1986">
-        <v>8.85</v>
+        <v>13.27</v>
       </c>
     </row>
     <row r="1987" spans="1:6">
@@ -54303,7 +54303,7 @@
         <v>0</v>
       </c>
       <c r="F2009">
-        <v>0</v>
+        <v>-4.17</v>
       </c>
     </row>
     <row r="2010" spans="1:6">
@@ -54503,7 +54503,7 @@
         <v>-6.600000000000001</v>
       </c>
       <c r="F2019">
-        <v>-2.47</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="2020" spans="1:6">
@@ -54663,7 +54663,7 @@
         <v>3.53</v>
       </c>
       <c r="F2027">
-        <v>7.7</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="2028" spans="1:6">
@@ -54723,7 +54723,7 @@
         <v>0</v>
       </c>
       <c r="F2030">
-        <v>8.24</v>
+        <v>12.25</v>
       </c>
     </row>
     <row r="2031" spans="1:6">
@@ -54763,7 +54763,7 @@
         <v>0</v>
       </c>
       <c r="F2032">
-        <v>1.2</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="2033" spans="1:6">
@@ -55143,7 +55143,7 @@
         <v>-21.74</v>
       </c>
       <c r="F2051">
-        <v>17.99</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="2052" spans="1:6">
@@ -55503,7 +55503,7 @@
         <v>0</v>
       </c>
       <c r="F2069">
-        <v>1.21</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="2070" spans="1:6">
@@ -55583,7 +55583,7 @@
         <v>-1.86</v>
       </c>
       <c r="F2073">
-        <v>6.890000000000001</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="2074" spans="1:6">
@@ -55643,7 +55643,7 @@
         <v>0</v>
       </c>
       <c r="F2076">
-        <v>-8.41</v>
+        <v>-9.48</v>
       </c>
     </row>
     <row r="2077" spans="1:6">
@@ -55683,7 +55683,7 @@
         <v>1.45</v>
       </c>
       <c r="F2078">
-        <v>-1.69</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="2079" spans="1:6">
@@ -55723,7 +55723,7 @@
         <v>0</v>
       </c>
       <c r="F2080">
-        <v>-18.2</v>
+        <v>-20.47</v>
       </c>
     </row>
     <row r="2081" spans="1:6">
@@ -55923,7 +55923,7 @@
         <v>11.01</v>
       </c>
       <c r="F2090">
-        <v>4.21</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="2091" spans="1:6">
@@ -55943,7 +55943,7 @@
         <v>5.25</v>
       </c>
       <c r="F2091">
-        <v>5.800000000000001</v>
+        <v>8.359999999999999</v>
       </c>
     </row>
     <row r="2092" spans="1:6">
@@ -55983,7 +55983,7 @@
         <v>0</v>
       </c>
       <c r="F2093">
-        <v>5.09</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="2094" spans="1:6">
@@ -56003,7 +56003,7 @@
         <v>-11.45</v>
       </c>
       <c r="F2094">
-        <v>9.5</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="2095" spans="1:6">
@@ -56083,7 +56083,7 @@
         <v>0</v>
       </c>
       <c r="F2098">
-        <v>2.49</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="2099" spans="1:6">
@@ -56143,7 +56143,7 @@
         <v>0</v>
       </c>
       <c r="F2101">
-        <v>62.7</v>
+        <v>70.81</v>
       </c>
     </row>
     <row r="2102" spans="1:6">
@@ -56303,7 +56303,7 @@
         <v>-23.28</v>
       </c>
       <c r="F2109">
-        <v>-5.99</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="2110" spans="1:6">
@@ -56383,7 +56383,7 @@
         <v>-19.24</v>
       </c>
       <c r="F2113">
-        <v>-6.02</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="2114" spans="1:6">
@@ -56463,7 +56463,7 @@
         <v>4.87</v>
       </c>
       <c r="F2117">
-        <v>9.84</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="2118" spans="1:6">
@@ -56483,7 +56483,7 @@
         <v>4.87</v>
       </c>
       <c r="F2118">
-        <v>9.84</v>
+        <v>9.56</v>
       </c>
     </row>
     <row r="2119" spans="1:6">
@@ -56503,7 +56503,7 @@
         <v>5.33</v>
       </c>
       <c r="F2119">
-        <v>-1.19</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="2120" spans="1:6">
@@ -56523,7 +56523,7 @@
         <v>-13.36</v>
       </c>
       <c r="F2120">
-        <v>9.51</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="2121" spans="1:6">
@@ -56563,7 +56563,7 @@
         <v>-17.84</v>
       </c>
       <c r="F2122">
-        <v>13.17</v>
+        <v>15.37</v>
       </c>
     </row>
     <row r="2123" spans="1:6">
@@ -56583,7 +56583,7 @@
         <v>-17.84</v>
       </c>
       <c r="F2123">
-        <v>13.17</v>
+        <v>15.37</v>
       </c>
     </row>
     <row r="2124" spans="1:6">
@@ -56643,7 +56643,7 @@
         <v>-13.36</v>
       </c>
       <c r="F2126">
-        <v>9.51</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="2127" spans="1:6">
@@ -56943,7 +56943,7 @@
         <v>-5.79</v>
       </c>
       <c r="F2141">
-        <v>-5.26</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="2142" spans="1:6">
@@ -56963,7 +56963,7 @@
         <v>-5.46</v>
       </c>
       <c r="F2142">
-        <v>-4.67</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="2143" spans="1:6">
@@ -57103,7 +57103,7 @@
         <v>0</v>
       </c>
       <c r="F2149">
-        <v>9.030000000000001</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="2150" spans="1:6">
@@ -57983,7 +57983,7 @@
         <v>-2.17</v>
       </c>
       <c r="F2193">
-        <v>18.72</v>
+        <v>29.06</v>
       </c>
     </row>
     <row r="2194" spans="1:6">
@@ -58043,7 +58043,7 @@
         <v>-10.57</v>
       </c>
       <c r="F2196">
-        <v>3.94</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="2197" spans="1:6">
@@ -58083,7 +58083,7 @@
         <v>-2.17</v>
       </c>
       <c r="F2198">
-        <v>3.94</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="2199" spans="1:6">
@@ -58203,7 +58203,7 @@
         <v>-4.51</v>
       </c>
       <c r="F2204">
-        <v>-17.31</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="2205" spans="1:6">
@@ -58563,7 +58563,7 @@
         <v>0</v>
       </c>
       <c r="F2222">
-        <v>-4.7</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="2223" spans="1:6">
@@ -58743,7 +58743,7 @@
         <v>0</v>
       </c>
       <c r="F2231">
-        <v>2.34</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="2232" spans="1:6">
@@ -59283,7 +59283,7 @@
         <v>0</v>
       </c>
       <c r="F2258">
-        <v>13.31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2259" spans="1:6">
@@ -59363,7 +59363,7 @@
         <v>0</v>
       </c>
       <c r="F2262">
-        <v>0</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="2263" spans="1:6">
@@ -59483,7 +59483,7 @@
         <v>0</v>
       </c>
       <c r="F2268">
-        <v>-15.4</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="2269" spans="1:6">
@@ -59563,7 +59563,7 @@
         <v>0</v>
       </c>
       <c r="F2272">
-        <v>-4.95</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="2273" spans="1:6">
@@ -59623,7 +59623,7 @@
         <v>0</v>
       </c>
       <c r="F2275">
-        <v>-4.95</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="2276" spans="1:6">
@@ -59683,7 +59683,7 @@
         <v>4.24</v>
       </c>
       <c r="F2278">
-        <v>-2.92</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="2279" spans="1:6">
@@ -59723,7 +59723,7 @@
         <v>0.95</v>
       </c>
       <c r="F2280">
-        <v>-2.92</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="2281" spans="1:6">
@@ -59743,7 +59743,7 @@
         <v>0.95</v>
       </c>
       <c r="F2281">
-        <v>-2.92</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="2282" spans="1:6">
@@ -59783,7 +59783,7 @@
         <v>0</v>
       </c>
       <c r="F2283">
-        <v>0</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="2284" spans="1:6">
@@ -59923,7 +59923,7 @@
         <v>-2.6</v>
       </c>
       <c r="F2290">
-        <v>-9.790000000000001</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="2291" spans="1:6">
@@ -59943,7 +59943,7 @@
         <v>0</v>
       </c>
       <c r="F2291">
-        <v>1.86</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="2292" spans="1:6">
@@ -59963,7 +59963,7 @@
         <v>0</v>
       </c>
       <c r="F2292">
-        <v>3.7</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="2293" spans="1:6">
@@ -59983,7 +59983,7 @@
         <v>0</v>
       </c>
       <c r="F2293">
-        <v>2.39</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="2294" spans="1:6">
@@ -60003,7 +60003,7 @@
         <v>-2.86</v>
       </c>
       <c r="F2294">
-        <v>-10.79</v>
+        <v>-7.359999999999999</v>
       </c>
     </row>
     <row r="2295" spans="1:6">
@@ -60323,7 +60323,7 @@
         <v>-24.1</v>
       </c>
       <c r="F2310">
-        <v>19.42</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="2311" spans="1:6">
@@ -60563,7 +60563,7 @@
         <v>0</v>
       </c>
       <c r="F2322">
-        <v>0</v>
+        <v>-8.24</v>
       </c>
     </row>
     <row r="2323" spans="1:6">
@@ -60723,7 +60723,7 @@
         <v>0</v>
       </c>
       <c r="F2330">
-        <v>0</v>
+        <v>-6.27</v>
       </c>
     </row>
     <row r="2331" spans="1:6">
@@ -60783,7 +60783,7 @@
         <v>-11.89</v>
       </c>
       <c r="F2333">
-        <v>-17.99</v>
+        <v>-10.1</v>
       </c>
     </row>
     <row r="2334" spans="1:6">
@@ -60803,7 +60803,7 @@
         <v>-10.63</v>
       </c>
       <c r="F2334">
-        <v>-15.88</v>
+        <v>-8.949999999999999</v>
       </c>
     </row>
     <row r="2335" spans="1:6">
@@ -60883,7 +60883,7 @@
         <v>0</v>
       </c>
       <c r="F2338">
-        <v>-6.819999999999999</v>
+        <v>-10.24</v>
       </c>
     </row>
     <row r="2339" spans="1:6">
@@ -60903,7 +60903,7 @@
         <v>-4.590000000000001</v>
       </c>
       <c r="F2339">
-        <v>24.29</v>
+        <v>19.4</v>
       </c>
     </row>
     <row r="2340" spans="1:6">
@@ -60923,7 +60923,7 @@
         <v>-4.02</v>
       </c>
       <c r="F2340">
-        <v>-15.45</v>
+        <v>-10.57</v>
       </c>
     </row>
     <row r="2341" spans="1:6">
@@ -61523,7 +61523,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2370">
-        <v>-1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="2371" spans="1:6">
@@ -61543,7 +61543,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2371">
-        <v>-1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="2372" spans="1:6">
@@ -61563,7 +61563,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2372">
-        <v>-1.37</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="2373" spans="1:6">
@@ -61763,7 +61763,7 @@
         <v>18.62</v>
       </c>
       <c r="F2382">
-        <v>-9.66</v>
+        <v>-11.11</v>
       </c>
     </row>
     <row r="2383" spans="1:6">
@@ -62223,7 +62223,7 @@
         <v>-25.04</v>
       </c>
       <c r="F2405">
-        <v>27.1</v>
+        <v>30.37</v>
       </c>
     </row>
     <row r="2406" spans="1:6">
@@ -62243,7 +62243,7 @@
         <v>0</v>
       </c>
       <c r="F2406">
-        <v>-12.57</v>
+        <v>-14.13</v>
       </c>
     </row>
     <row r="2407" spans="1:6">
@@ -62443,7 +62443,7 @@
         <v>0</v>
       </c>
       <c r="F2416">
-        <v>2.72</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="2417" spans="1:6">
@@ -62463,7 +62463,7 @@
         <v>0</v>
       </c>
       <c r="F2417">
-        <v>3.29</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="2418" spans="1:6">
@@ -62883,7 +62883,7 @@
         <v>0</v>
       </c>
       <c r="F2438">
-        <v>-0.47</v>
+        <v>-0.7100000000000001</v>
       </c>
     </row>
     <row r="2439" spans="1:6">
@@ -62903,7 +62903,7 @@
         <v>0</v>
       </c>
       <c r="F2439">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="2440" spans="1:6">
@@ -63043,7 +63043,7 @@
         <v>13.72</v>
       </c>
       <c r="F2446">
-        <v>-3.04</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="2447" spans="1:6">
@@ -63063,7 +63063,7 @@
         <v>13.72</v>
       </c>
       <c r="F2447">
-        <v>-3.04</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="2448" spans="1:6">
@@ -63083,7 +63083,7 @@
         <v>13.72</v>
       </c>
       <c r="F2448">
-        <v>-3.04</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="2449" spans="1:6">
@@ -63103,7 +63103,7 @@
         <v>16.18</v>
       </c>
       <c r="F2449">
-        <v>-0.15</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="2450" spans="1:6">
@@ -63543,7 +63543,7 @@
         <v>0</v>
       </c>
       <c r="F2471">
-        <v>-22.98</v>
+        <v>-25.86</v>
       </c>
     </row>
     <row r="2472" spans="1:6">
@@ -63563,7 +63563,7 @@
         <v>0</v>
       </c>
       <c r="F2472">
-        <v>-22.98</v>
+        <v>-25.86</v>
       </c>
     </row>
     <row r="2473" spans="1:6">
@@ -63583,7 +63583,7 @@
         <v>0</v>
       </c>
       <c r="F2473">
-        <v>-22.98</v>
+        <v>-25.86</v>
       </c>
     </row>
     <row r="2474" spans="1:6">
@@ -63603,7 +63603,7 @@
         <v>0</v>
       </c>
       <c r="F2474">
-        <v>-22.98</v>
+        <v>-25.86</v>
       </c>
     </row>
     <row r="2475" spans="1:6">
@@ -63743,7 +63743,7 @@
         <v>0</v>
       </c>
       <c r="F2481">
-        <v>3.58</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="2482" spans="1:6">
@@ -63763,7 +63763,7 @@
         <v>0</v>
       </c>
       <c r="F2482">
-        <v>6.1</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="2483" spans="1:6">
@@ -63823,7 +63823,7 @@
         <v>-7.539999999999999</v>
       </c>
       <c r="F2485">
-        <v>4.58</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="2486" spans="1:6">
@@ -63943,7 +63943,7 @@
         <v>-19.09</v>
       </c>
       <c r="F2491">
-        <v>-5.779999999999999</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="2492" spans="1:6">
@@ -64263,7 +64263,7 @@
         <v>0</v>
       </c>
       <c r="F2507">
-        <v>-5.59</v>
+        <v>-6.34</v>
       </c>
     </row>
     <row r="2508" spans="1:6">
@@ -64663,7 +64663,7 @@
         <v>-9.289999999999999</v>
       </c>
       <c r="F2527">
-        <v>6.22</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="2528" spans="1:6">
@@ -64903,7 +64903,7 @@
         <v>5.79</v>
       </c>
       <c r="F2539">
-        <v>6.98</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="2540" spans="1:6">
@@ -65003,7 +65003,7 @@
         <v>10.59</v>
       </c>
       <c r="F2544">
-        <v>1.56</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="2545" spans="1:6">
@@ -65043,7 +65043,7 @@
         <v>0</v>
       </c>
       <c r="F2546">
-        <v>16.69</v>
+        <v>12.52</v>
       </c>
     </row>
     <row r="2547" spans="1:6">
@@ -65223,7 +65223,7 @@
         <v>0</v>
       </c>
       <c r="F2555">
-        <v>2.13</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="2556" spans="1:6">
@@ -65323,7 +65323,7 @@
         <v>5.01</v>
       </c>
       <c r="F2560">
-        <v>-6.36</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="2561" spans="1:6">
@@ -65423,7 +65423,7 @@
         <v>-7.51</v>
       </c>
       <c r="F2565">
-        <v>0</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="2566" spans="1:6">
@@ -65703,7 +65703,7 @@
         <v>-1.62</v>
       </c>
       <c r="F2579">
-        <v>22.38</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="2580" spans="1:6">
@@ -66023,7 +66023,7 @@
         <v>-24.5</v>
       </c>
       <c r="F2595">
-        <v>19.84</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="2596" spans="1:6">
@@ -66163,7 +66163,7 @@
         <v>0</v>
       </c>
       <c r="F2602">
-        <v>8.99</v>
+        <v>13.44</v>
       </c>
     </row>
     <row r="2603" spans="1:6">
@@ -66183,7 +66183,7 @@
         <v>0</v>
       </c>
       <c r="F2603">
-        <v>-13.31</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="2604" spans="1:6">
@@ -66223,7 +66223,7 @@
         <v>-9.27</v>
       </c>
       <c r="F2605">
-        <v>-20.04</v>
+        <v>-13.03</v>
       </c>
     </row>
     <row r="2606" spans="1:6">
@@ -66243,7 +66243,7 @@
         <v>-9.27</v>
       </c>
       <c r="F2606">
-        <v>-4.01</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="2607" spans="1:6">
@@ -66263,7 +66263,7 @@
         <v>-9.27</v>
       </c>
       <c r="F2607">
-        <v>-13.43</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="2608" spans="1:6">
@@ -66343,7 +66343,7 @@
         <v>0.54</v>
       </c>
       <c r="F2611">
-        <v>16.4</v>
+        <v>11.53</v>
       </c>
     </row>
     <row r="2612" spans="1:6">
@@ -66363,7 +66363,7 @@
         <v>-8.08</v>
       </c>
       <c r="F2612">
-        <v>6.01</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="2613" spans="1:6">
@@ -66423,7 +66423,7 @@
         <v>-1.48</v>
       </c>
       <c r="F2615">
-        <v>-1.83</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="2616" spans="1:6">
@@ -66443,7 +66443,7 @@
         <v>0.44</v>
       </c>
       <c r="F2616">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="2617" spans="1:6">
@@ -66603,7 +66603,7 @@
         <v>-11.45</v>
       </c>
       <c r="F2624">
-        <v>-4.9</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="2625" spans="1:6">
@@ -66623,7 +66623,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="F2625">
-        <v>-1.51</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="2626" spans="1:6">
@@ -66743,7 +66743,7 @@
         <v>0</v>
       </c>
       <c r="F2631">
-        <v>-13.31</v>
+        <v>-15.02</v>
       </c>
     </row>
     <row r="2632" spans="1:6">
@@ -66783,7 +66783,7 @@
         <v>-8.94</v>
       </c>
       <c r="F2633">
-        <v>-1.17</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="2634" spans="1:6">
@@ -66803,7 +66803,7 @@
         <v>-10.96</v>
       </c>
       <c r="F2634">
-        <v>-4.22</v>
+        <v>-4.36</v>
       </c>
     </row>
     <row r="2635" spans="1:6">
@@ -66823,7 +66823,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2635">
-        <v>-0.29</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="2636" spans="1:6">
@@ -66843,7 +66843,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2636">
-        <v>-2.05</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="2637" spans="1:6">
@@ -66883,7 +66883,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2638">
-        <v>-3</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="2639" spans="1:6">
@@ -66903,7 +66903,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2639">
-        <v>-5.63</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="2640" spans="1:6">
@@ -67763,7 +67763,7 @@
         <v>0</v>
       </c>
       <c r="F2682">
-        <v>0</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="2683" spans="1:6">
@@ -68543,7 +68543,7 @@
         <v>0</v>
       </c>
       <c r="F2721">
-        <v>0.65</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="2722" spans="1:6">
@@ -68563,7 +68563,7 @@
         <v>0</v>
       </c>
       <c r="F2722">
-        <v>2.09</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="2723" spans="1:6">
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="F2724">
-        <v>1.88</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="2725" spans="1:6">
@@ -68863,7 +68863,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2737">
-        <v>13.46</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="2738" spans="1:6">
@@ -68923,7 +68923,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2740">
-        <v>13.46</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="2741" spans="1:6">
@@ -68963,7 +68963,7 @@
         <v>0</v>
       </c>
       <c r="F2742">
-        <v>0</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="2743" spans="1:6">
@@ -69003,7 +69003,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2744">
-        <v>13.46</v>
+        <v>15.14</v>
       </c>
     </row>
     <row r="2745" spans="1:6">
@@ -69243,7 +69243,7 @@
         <v>0</v>
       </c>
       <c r="F2756">
-        <v>-0.5</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="2757" spans="1:6">
@@ -69403,7 +69403,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2764">
-        <v>7.59</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="2765" spans="1:6">
@@ -69423,7 +69423,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2765">
-        <v>7.59</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="2766" spans="1:6">
@@ -69443,7 +69443,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2766">
-        <v>7.59</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="2767" spans="1:6">
@@ -69463,7 +69463,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2767">
-        <v>7.59</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="2768" spans="1:6">
@@ -69483,7 +69483,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2768">
-        <v>7.59</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="2769" spans="1:6">
@@ -69503,7 +69503,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2769">
-        <v>7.59</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="2770" spans="1:6">
@@ -69523,7 +69523,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2770">
-        <v>7.59</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="2771" spans="1:6">
@@ -69743,7 +69743,7 @@
         <v>-3.43</v>
       </c>
       <c r="F2781">
-        <v>12.74</v>
+        <v>14.68</v>
       </c>
     </row>
     <row r="2782" spans="1:6">
@@ -69783,7 +69783,7 @@
         <v>0</v>
       </c>
       <c r="F2783">
-        <v>-3.26</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="2784" spans="1:6">
@@ -69803,7 +69803,7 @@
         <v>0</v>
       </c>
       <c r="F2784">
-        <v>-4.9</v>
+        <v>-7.46</v>
       </c>
     </row>
     <row r="2785" spans="1:6">
@@ -70043,7 +70043,7 @@
         <v>0</v>
       </c>
       <c r="F2796">
-        <v>-2.13</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="2797" spans="1:6">
@@ -70243,7 +70243,7 @@
         <v>0</v>
       </c>
       <c r="F2806">
-        <v>1.19</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="2807" spans="1:6">
@@ -70343,7 +70343,7 @@
         <v>17.67</v>
       </c>
       <c r="F2811">
-        <v>2.48</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="2812" spans="1:6">
@@ -70423,7 +70423,7 @@
         <v>0</v>
       </c>
       <c r="F2815">
-        <v>-6.710000000000001</v>
+        <v>-7.61</v>
       </c>
     </row>
     <row r="2816" spans="1:6">
@@ -70543,7 +70543,7 @@
         <v>-28.09</v>
       </c>
       <c r="F2821">
-        <v>36.52</v>
+        <v>41.07</v>
       </c>
     </row>
     <row r="2822" spans="1:6">
@@ -70563,7 +70563,7 @@
         <v>0</v>
       </c>
       <c r="F2822">
-        <v>-5.680000000000001</v>
+        <v>-8.459999999999999</v>
       </c>
     </row>
     <row r="2823" spans="1:6">
@@ -71263,7 +71263,7 @@
         <v>0</v>
       </c>
       <c r="F2857">
-        <v>-0.13</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="2858" spans="1:6">
@@ -71303,7 +71303,7 @@
         <v>0</v>
       </c>
       <c r="F2859">
-        <v>-5.1</v>
+        <v>-5.67</v>
       </c>
     </row>
     <row r="2860" spans="1:6">
@@ -71323,7 +71323,7 @@
         <v>0</v>
       </c>
       <c r="F2860">
-        <v>-6.1</v>
+        <v>-6.9</v>
       </c>
     </row>
     <row r="2861" spans="1:6">
@@ -71363,7 +71363,7 @@
         <v>4.859999999999999</v>
       </c>
       <c r="F2862">
-        <v>18.45</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="2863" spans="1:6">
@@ -71583,7 +71583,7 @@
         <v>0</v>
       </c>
       <c r="F2873">
-        <v>1.55</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="2874" spans="1:6">
@@ -71643,7 +71643,7 @@
         <v>0.65</v>
       </c>
       <c r="F2876">
-        <v>-0.97</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="2877" spans="1:6">
@@ -71663,7 +71663,7 @@
         <v>-6.79</v>
       </c>
       <c r="F2877">
-        <v>3.02</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="2878" spans="1:6">
@@ -71683,7 +71683,7 @@
         <v>-13.13</v>
       </c>
       <c r="F2878">
-        <v>9.33</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="2879" spans="1:6">
@@ -71763,7 +71763,7 @@
         <v>0</v>
       </c>
       <c r="F2882">
-        <v>-13.37</v>
+        <v>-15.06</v>
       </c>
     </row>
     <row r="2883" spans="1:6">
@@ -71803,7 +71803,7 @@
         <v>7.44</v>
       </c>
       <c r="F2884">
-        <v>2.39</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="2885" spans="1:6">
@@ -71843,7 +71843,7 @@
         <v>0</v>
       </c>
       <c r="F2886">
-        <v>0</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="2887" spans="1:6">
@@ -71883,7 +71883,7 @@
         <v>21.57</v>
       </c>
       <c r="F2888">
-        <v>-10.86</v>
+        <v>-12.57</v>
       </c>
     </row>
     <row r="2889" spans="1:6">
@@ -71963,7 +71963,7 @@
         <v>0</v>
       </c>
       <c r="F2892">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="2893" spans="1:6">
@@ -71983,7 +71983,7 @@
         <v>0</v>
       </c>
       <c r="F2893">
-        <v>-2.02</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="2894" spans="1:6">
@@ -72243,7 +72243,7 @@
         <v>0</v>
       </c>
       <c r="F2906">
-        <v>4.01</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="2907" spans="1:6">
@@ -72383,7 +72383,7 @@
         <v>0</v>
       </c>
       <c r="F2913">
-        <v>-0.65</v>
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="2914" spans="1:6">
@@ -72603,7 +72603,7 @@
         <v>0</v>
       </c>
       <c r="F2924">
-        <v>-0.6899999999999999</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="2925" spans="1:6">
@@ -72683,7 +72683,7 @@
         <v>0</v>
       </c>
       <c r="F2928">
-        <v>-1.9</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="2929" spans="1:6">
@@ -72723,7 +72723,7 @@
         <v>0</v>
       </c>
       <c r="F2930">
-        <v>1.36</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="2931" spans="1:6">
@@ -72883,7 +72883,7 @@
         <v>0</v>
       </c>
       <c r="F2938">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="2939" spans="1:6">
@@ -72963,7 +72963,7 @@
         <v>0.53</v>
       </c>
       <c r="F2942">
-        <v>-14.25</v>
+        <v>-16.09</v>
       </c>
     </row>
     <row r="2943" spans="1:6">
@@ -72983,7 +72983,7 @@
         <v>0</v>
       </c>
       <c r="F2943">
-        <v>1.35</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="2944" spans="1:6">
@@ -73103,7 +73103,7 @@
         <v>0</v>
       </c>
       <c r="F2949">
-        <v>3.52</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="2950" spans="1:6">
@@ -73143,7 +73143,7 @@
         <v>4.08</v>
       </c>
       <c r="F2951">
-        <v>-9.109999999999999</v>
+        <v>-13.66</v>
       </c>
     </row>
     <row r="2952" spans="1:6">
@@ -73163,7 +73163,7 @@
         <v>0</v>
       </c>
       <c r="F2952">
-        <v>5.43</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="2953" spans="1:6">
@@ -73223,7 +73223,7 @@
         <v>0</v>
       </c>
       <c r="F2955">
-        <v>-3.18</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="2956" spans="1:6">
@@ -73543,7 +73543,7 @@
         <v>0</v>
       </c>
       <c r="F2971">
-        <v>6.77</v>
+        <v>10.03</v>
       </c>
     </row>
     <row r="2972" spans="1:6">
@@ -73823,7 +73823,7 @@
         <v>-7.3</v>
       </c>
       <c r="F2985">
-        <v>-1.31</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="2986" spans="1:6">
@@ -73863,7 +73863,7 @@
         <v>-27.8</v>
       </c>
       <c r="F2987">
-        <v>1.1</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="2988" spans="1:6">
@@ -73883,7 +73883,7 @@
         <v>-1.52</v>
       </c>
       <c r="F2988">
-        <v>-2.04</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="2989" spans="1:6">
@@ -73903,7 +73903,7 @@
         <v>-2.47</v>
       </c>
       <c r="F2989">
-        <v>-0.41</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="2990" spans="1:6">
@@ -73963,7 +73963,7 @@
         <v>-9.77</v>
       </c>
       <c r="F2992">
-        <v>-1.02</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="2993" spans="1:6">
@@ -74003,7 +74003,7 @@
         <v>-10</v>
       </c>
       <c r="F2994">
-        <v>-0.83</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="2995" spans="1:6">
@@ -74063,7 +74063,7 @@
         <v>0</v>
       </c>
       <c r="F2997">
-        <v>0</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="2998" spans="1:6">
@@ -74323,7 +74323,7 @@
         <v>0</v>
       </c>
       <c r="F3010">
-        <v>5.02</v>
+        <v>7.720000000000001</v>
       </c>
     </row>
     <row r="3011" spans="1:6">
@@ -74463,7 +74463,7 @@
         <v>2.86</v>
       </c>
       <c r="F3017">
-        <v>-0.9400000000000001</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="3018" spans="1:6">
@@ -74483,7 +74483,7 @@
         <v>2.42</v>
       </c>
       <c r="F3018">
-        <v>-3.87</v>
+        <v>-4.66</v>
       </c>
     </row>
     <row r="3019" spans="1:6">
@@ -74543,7 +74543,7 @@
         <v>0</v>
       </c>
       <c r="F3021">
-        <v>-11.14</v>
+        <v>-12.52</v>
       </c>
     </row>
     <row r="3022" spans="1:6">
@@ -75463,7 +75463,7 @@
         <v>-15.48</v>
       </c>
       <c r="F3067">
-        <v>-7.69</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="3068" spans="1:6">
@@ -75483,7 +75483,7 @@
         <v>-10.15</v>
       </c>
       <c r="F3068">
-        <v>-12.62</v>
+        <v>-7.140000000000001</v>
       </c>
     </row>
     <row r="3069" spans="1:6">
@@ -75503,7 +75503,7 @@
         <v>-4.44</v>
       </c>
       <c r="F3069">
-        <v>-6.03</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="3070" spans="1:6">
@@ -75523,7 +75523,7 @@
         <v>-10.91</v>
       </c>
       <c r="F3070">
-        <v>4.34</v>
+        <v>5.609999999999999</v>
       </c>
     </row>
     <row r="3071" spans="1:6">
@@ -75543,7 +75543,7 @@
         <v>-5.34</v>
       </c>
       <c r="F3071">
-        <v>-6.13</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="3072" spans="1:6">
@@ -75643,7 +75643,7 @@
         <v>2.04</v>
       </c>
       <c r="F3076">
-        <v>-1.17</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="3077" spans="1:6">
@@ -75703,7 +75703,7 @@
         <v>-12.61</v>
       </c>
       <c r="F3079">
-        <v>8.32</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="3080" spans="1:6">
@@ -75743,7 +75743,7 @@
         <v>9.16</v>
       </c>
       <c r="F3081">
-        <v>-5.319999999999999</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="3082" spans="1:6">
@@ -75763,7 +75763,7 @@
         <v>0</v>
       </c>
       <c r="F3082">
-        <v>-23.91</v>
+        <v>-26.88</v>
       </c>
     </row>
     <row r="3083" spans="1:6">
@@ -75823,7 +75823,7 @@
         <v>9.16</v>
       </c>
       <c r="F3085">
-        <v>1.4</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="3086" spans="1:6">
@@ -75843,7 +75843,7 @@
         <v>0</v>
       </c>
       <c r="F3086">
-        <v>-7.630000000000001</v>
+        <v>-11.42</v>
       </c>
     </row>
     <row r="3087" spans="1:6">
@@ -75903,7 +75903,7 @@
         <v>-13.14</v>
       </c>
       <c r="F3089">
-        <v>-2.55</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="3090" spans="1:6">
@@ -75963,7 +75963,7 @@
         <v>0</v>
       </c>
       <c r="F3092">
-        <v>-9.130000000000001</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="3093" spans="1:6">
@@ -75983,7 +75983,7 @@
         <v>-6.27</v>
       </c>
       <c r="F3093">
-        <v>-6.15</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="3094" spans="1:6">
@@ -76023,7 +76023,7 @@
         <v>-5.04</v>
       </c>
       <c r="F3095">
-        <v>-5.76</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="3096" spans="1:6">
@@ -76043,7 +76043,7 @@
         <v>0</v>
       </c>
       <c r="F3096">
-        <v>-9.539999999999999</v>
+        <v>-10.74</v>
       </c>
     </row>
     <row r="3097" spans="1:6">
@@ -76063,7 +76063,7 @@
         <v>24.68</v>
       </c>
       <c r="F3097">
-        <v>1.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3098" spans="1:6">
@@ -76083,7 +76083,7 @@
         <v>4.87</v>
       </c>
       <c r="F3098">
-        <v>4.37</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="3099" spans="1:6">
@@ -76103,7 +76103,7 @@
         <v>15.08</v>
       </c>
       <c r="F3099">
-        <v>12.97</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="3100" spans="1:6">
@@ -76123,7 +76123,7 @@
         <v>-32.39</v>
       </c>
       <c r="F3100">
-        <v>10.7</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="3101" spans="1:6">
@@ -76143,7 +76143,7 @@
         <v>0.22</v>
       </c>
       <c r="F3101">
-        <v>0</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="3102" spans="1:6">
@@ -76163,7 +76163,7 @@
         <v>-5.09</v>
       </c>
       <c r="F3102">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3103" spans="1:6">
@@ -76223,7 +76223,7 @@
         <v>-3.89</v>
       </c>
       <c r="F3105">
-        <v>-4.19</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="3106" spans="1:6">
@@ -76283,7 +76283,7 @@
         <v>0</v>
       </c>
       <c r="F3108">
-        <v>5.89</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="3109" spans="1:6">
@@ -77183,7 +77183,7 @@
         <v>0</v>
       </c>
       <c r="F3153">
-        <v>0.53</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3154" spans="1:6">
@@ -77603,7 +77603,7 @@
         <v>0</v>
       </c>
       <c r="F3174">
-        <v>7.180000000000001</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="3175" spans="1:6">
@@ -77983,7 +77983,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3193">
-        <v>4.63</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="3194" spans="1:6">
@@ -78003,7 +78003,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3194">
-        <v>4.63</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="3195" spans="1:6">
@@ -78023,7 +78023,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3195">
-        <v>4.63</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="3196" spans="1:6">
@@ -78323,7 +78323,7 @@
         <v>0</v>
       </c>
       <c r="F3210">
-        <v>1.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3211" spans="1:6">
@@ -78503,7 +78503,7 @@
         <v>0</v>
       </c>
       <c r="F3219">
-        <v>-8.66</v>
+        <v>-13.01</v>
       </c>
     </row>
     <row r="3220" spans="1:6">
@@ -79583,7 +79583,7 @@
         <v>-2.01</v>
       </c>
       <c r="F3273">
-        <v>-30.99</v>
+        <v>-17.9</v>
       </c>
     </row>
     <row r="3274" spans="1:6">
@@ -79603,7 +79603,7 @@
         <v>-2.01</v>
       </c>
       <c r="F3274">
-        <v>3.96</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="3275" spans="1:6">
@@ -79623,7 +79623,7 @@
         <v>-2.01</v>
       </c>
       <c r="F3275">
-        <v>-13.53</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="3276" spans="1:6">
@@ -80183,7 +80183,7 @@
         <v>0</v>
       </c>
       <c r="F3303">
-        <v>0</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="3304" spans="1:6">
@@ -80263,7 +80263,7 @@
         <v>0</v>
       </c>
       <c r="F3307">
-        <v>0</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="3308" spans="1:6">
@@ -80463,7 +80463,7 @@
         <v>-12.29</v>
       </c>
       <c r="F3317">
-        <v>-7.82</v>
+        <v>-8.48</v>
       </c>
     </row>
     <row r="3318" spans="1:6">
@@ -80503,7 +80503,7 @@
         <v>0</v>
       </c>
       <c r="F3319">
-        <v>-1.65</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="3320" spans="1:6">
@@ -80583,7 +80583,7 @@
         <v>-2.82</v>
       </c>
       <c r="F3323">
-        <v>-6.61</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="3324" spans="1:6">
@@ -80643,7 +80643,7 @@
         <v>19.86</v>
       </c>
       <c r="F3326">
-        <v>6.890000000000001</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="3327" spans="1:6">
@@ -80743,7 +80743,7 @@
         <v>9.1</v>
       </c>
       <c r="F3331">
-        <v>21.65</v>
+        <v>23.57</v>
       </c>
     </row>
     <row r="3332" spans="1:6">
@@ -80763,7 +80763,7 @@
         <v>23.82</v>
       </c>
       <c r="F3332">
-        <v>-11.08</v>
+        <v>-12.61</v>
       </c>
     </row>
     <row r="3333" spans="1:6">
@@ -80863,7 +80863,7 @@
         <v>27.55</v>
       </c>
       <c r="F3337">
-        <v>0</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="3338" spans="1:6">
@@ -80943,7 +80943,7 @@
         <v>18.58</v>
       </c>
       <c r="F3341">
-        <v>-8.66</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="3342" spans="1:6">
@@ -80983,7 +80983,7 @@
         <v>18.58</v>
       </c>
       <c r="F3343">
-        <v>-6.39</v>
+        <v>-7.489999999999999</v>
       </c>
     </row>
     <row r="3344" spans="1:6">
@@ -81003,7 +81003,7 @@
         <v>21.52</v>
       </c>
       <c r="F3344">
-        <v>-7.779999999999999</v>
+        <v>-9.700000000000001</v>
       </c>
     </row>
     <row r="3345" spans="1:6">
@@ -81023,7 +81023,7 @@
         <v>3.75</v>
       </c>
       <c r="F3345">
-        <v>5.12</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="3346" spans="1:6">
@@ -81043,7 +81043,7 @@
         <v>18.58</v>
       </c>
       <c r="F3346">
-        <v>-6.39</v>
+        <v>-7.489999999999999</v>
       </c>
     </row>
     <row r="3347" spans="1:6">
@@ -81063,7 +81063,7 @@
         <v>20.2</v>
       </c>
       <c r="F3347">
-        <v>-6.08</v>
+        <v>-7.27</v>
       </c>
     </row>
     <row r="3348" spans="1:6">
@@ -81163,7 +81163,7 @@
         <v>-0.8500000000000001</v>
       </c>
       <c r="F3352">
-        <v>1.86</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="3353" spans="1:6">
@@ -81203,7 +81203,7 @@
         <v>26.66</v>
       </c>
       <c r="F3354">
-        <v>-11.83</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="3355" spans="1:6">
@@ -81283,7 +81283,7 @@
         <v>2.05</v>
       </c>
       <c r="F3358">
-        <v>-9.65</v>
+        <v>-8.85</v>
       </c>
     </row>
     <row r="3359" spans="1:6">
@@ -81443,7 +81443,7 @@
         <v>0</v>
       </c>
       <c r="F3366">
-        <v>-1.98</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="3367" spans="1:6">
@@ -81543,7 +81543,7 @@
         <v>0</v>
       </c>
       <c r="F3371">
-        <v>-17.73</v>
+        <v>-20.07</v>
       </c>
     </row>
     <row r="3372" spans="1:6">
@@ -81563,7 +81563,7 @@
         <v>0</v>
       </c>
       <c r="F3372">
-        <v>-17.73</v>
+        <v>-20.07</v>
       </c>
     </row>
     <row r="3373" spans="1:6">
@@ -81623,7 +81623,7 @@
         <v>4.67</v>
       </c>
       <c r="F3375">
-        <v>-10.29</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="3376" spans="1:6">
@@ -81643,7 +81643,7 @@
         <v>-5.48</v>
       </c>
       <c r="F3376">
-        <v>-18.84</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="3377" spans="1:6">
@@ -81663,7 +81663,7 @@
         <v>4.67</v>
       </c>
       <c r="F3377">
-        <v>-10.29</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="3378" spans="1:6">
@@ -81683,7 +81683,7 @@
         <v>1.47</v>
       </c>
       <c r="F3378">
-        <v>-18.84</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="3379" spans="1:6">
@@ -81703,7 +81703,7 @@
         <v>4.67</v>
       </c>
       <c r="F3379">
-        <v>-10.29</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="3380" spans="1:6">
@@ -81743,7 +81743,7 @@
         <v>-5.48</v>
       </c>
       <c r="F3381">
-        <v>-18.84</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="3382" spans="1:6">
@@ -81763,7 +81763,7 @@
         <v>4.67</v>
       </c>
       <c r="F3382">
-        <v>-10.29</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="3383" spans="1:6">
@@ -81783,7 +81783,7 @@
         <v>-5.48</v>
       </c>
       <c r="F3383">
-        <v>-18.84</v>
+        <v>-10.14</v>
       </c>
     </row>
     <row r="3384" spans="1:6">
@@ -81843,7 +81843,7 @@
         <v>4.88</v>
       </c>
       <c r="F3386">
-        <v>-8.140000000000001</v>
+        <v>-4.65</v>
       </c>
     </row>
     <row r="3387" spans="1:6">
@@ -82063,7 +82063,7 @@
         <v>0</v>
       </c>
       <c r="F3397">
-        <v>8.27</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="3398" spans="1:6">
@@ -82103,7 +82103,7 @@
         <v>0</v>
       </c>
       <c r="F3399">
-        <v>8.27</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="3400" spans="1:6">
@@ -82123,7 +82123,7 @@
         <v>0</v>
       </c>
       <c r="F3400">
-        <v>8.27</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="3401" spans="1:6">
@@ -82163,7 +82163,7 @@
         <v>0</v>
       </c>
       <c r="F3402">
-        <v>8.27</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="3403" spans="1:6">
@@ -82183,7 +82183,7 @@
         <v>0</v>
       </c>
       <c r="F3403">
-        <v>8.27</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="3404" spans="1:6">
@@ -82223,7 +82223,7 @@
         <v>0</v>
       </c>
       <c r="F3405">
-        <v>8.27</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="3406" spans="1:6">
@@ -82243,7 +82243,7 @@
         <v>3.26</v>
       </c>
       <c r="F3406">
-        <v>-16.84</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="3407" spans="1:6">
@@ -82263,7 +82263,7 @@
         <v>-2.17</v>
       </c>
       <c r="F3407">
-        <v>-12.22</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="3408" spans="1:6">
@@ -82283,7 +82283,7 @@
         <v>-2.17</v>
       </c>
       <c r="F3408">
-        <v>-12.22</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="3409" spans="1:6">
@@ -82303,7 +82303,7 @@
         <v>3.26</v>
       </c>
       <c r="F3409">
-        <v>-16.84</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="3410" spans="1:6">
@@ -82323,7 +82323,7 @@
         <v>-2.17</v>
       </c>
       <c r="F3410">
-        <v>-12.22</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="3411" spans="1:6">
@@ -82343,7 +82343,7 @@
         <v>3.26</v>
       </c>
       <c r="F3411">
-        <v>-16.84</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="3412" spans="1:6">
@@ -82423,7 +82423,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="F3415">
-        <v>-0.8999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3416" spans="1:6">
@@ -82443,7 +82443,7 @@
         <v>15.23</v>
       </c>
       <c r="F3416">
-        <v>-12.64</v>
+        <v>-13.22</v>
       </c>
     </row>
     <row r="3417" spans="1:6">
@@ -82503,7 +82503,7 @@
         <v>5.44</v>
       </c>
       <c r="F3419">
-        <v>-0.32</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3420" spans="1:6">
@@ -82563,7 +82563,7 @@
         <v>9.879999999999999</v>
       </c>
       <c r="F3422">
-        <v>-14.61</v>
+        <v>-15.17</v>
       </c>
     </row>
     <row r="3423" spans="1:6">
@@ -82703,7 +82703,7 @@
         <v>-3.78</v>
       </c>
       <c r="F3429">
-        <v>-6.069999999999999</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="3430" spans="1:6">
@@ -82723,7 +82723,7 @@
         <v>0</v>
       </c>
       <c r="F3430">
-        <v>-6.39</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="3431" spans="1:6">
@@ -82743,7 +82743,7 @@
         <v>0</v>
       </c>
       <c r="F3431">
-        <v>16.81</v>
+        <v>19.33</v>
       </c>
     </row>
     <row r="3432" spans="1:6">
@@ -82763,7 +82763,7 @@
         <v>2.16</v>
       </c>
       <c r="F3432">
-        <v>-7.39</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="3433" spans="1:6">
@@ -82783,7 +82783,7 @@
         <v>0</v>
       </c>
       <c r="F3433">
-        <v>-5.4</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="3434" spans="1:6">
@@ -82803,7 +82803,7 @@
         <v>0</v>
       </c>
       <c r="F3434">
-        <v>-5.4</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="3435" spans="1:6">
@@ -83043,7 +83043,7 @@
         <v>12.23</v>
       </c>
       <c r="F3446">
-        <v>-4.49</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="3447" spans="1:6">
@@ -83143,7 +83143,7 @@
         <v>-1.38</v>
       </c>
       <c r="F3451">
-        <v>-3.03</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="3452" spans="1:6">
@@ -83163,7 +83163,7 @@
         <v>0</v>
       </c>
       <c r="F3452">
-        <v>-3.86</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="3453" spans="1:6">
@@ -83183,7 +83183,7 @@
         <v>-3.52</v>
       </c>
       <c r="F3453">
-        <v>-5.779999999999999</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="3454" spans="1:6">
@@ -83203,7 +83203,7 @@
         <v>-10.3</v>
       </c>
       <c r="F3454">
-        <v>-13.51</v>
+        <v>-10.81</v>
       </c>
     </row>
     <row r="3455" spans="1:6">
@@ -83243,7 +83243,7 @@
         <v>-0.23</v>
       </c>
       <c r="F3456">
-        <v>-4.15</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="3457" spans="1:6">
@@ -83263,7 +83263,7 @@
         <v>-0.32</v>
       </c>
       <c r="F3457">
-        <v>-1.3</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="3458" spans="1:6">
@@ -83283,7 +83283,7 @@
         <v>0</v>
       </c>
       <c r="F3458">
-        <v>-9.550000000000001</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="3459" spans="1:6">
@@ -83303,7 +83303,7 @@
         <v>-3.21</v>
       </c>
       <c r="F3459">
-        <v>-15.23</v>
+        <v>-12.58</v>
       </c>
     </row>
     <row r="3460" spans="1:6">
@@ -83763,7 +83763,7 @@
         <v>7.779999999999999</v>
       </c>
       <c r="F3482">
-        <v>-10.83</v>
+        <v>-15.52</v>
       </c>
     </row>
     <row r="3483" spans="1:6">
@@ -84223,7 +84223,7 @@
         <v>0</v>
       </c>
       <c r="F3505">
-        <v>0</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="3506" spans="1:6">
@@ -84623,7 +84623,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F3525">
-        <v>-13.8</v>
+        <v>-8.959999999999999</v>
       </c>
     </row>
     <row r="3526" spans="1:6">
@@ -84723,7 +84723,7 @@
         <v>-2.64</v>
       </c>
       <c r="F3530">
-        <v>-3.55</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3531" spans="1:6">
@@ -84823,7 +84823,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F3535">
-        <v>-0.9299999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3536" spans="1:6">
@@ -85083,7 +85083,7 @@
         <v>-2.97</v>
       </c>
       <c r="F3548">
-        <v>-4.05</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="3549" spans="1:6">
@@ -85103,7 +85103,7 @@
         <v>-9.220000000000001</v>
       </c>
       <c r="F3549">
-        <v>-13.55</v>
+        <v>-7.630000000000001</v>
       </c>
     </row>
     <row r="3550" spans="1:6">
@@ -85283,7 +85283,7 @@
         <v>-10.36</v>
       </c>
       <c r="F3558">
-        <v>-1.92</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3559" spans="1:6">
@@ -85583,7 +85583,7 @@
         <v>-7.049999999999999</v>
       </c>
       <c r="F3573">
-        <v>-1.24</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3574" spans="1:6">
@@ -85623,7 +85623,7 @@
         <v>-3.19</v>
       </c>
       <c r="F3575">
-        <v>-7.140000000000001</v>
+        <v>-4.399999999999999</v>
       </c>
     </row>
     <row r="3576" spans="1:6">
@@ -85683,7 +85683,7 @@
         <v>4.91</v>
       </c>
       <c r="F3578">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="3579" spans="1:6">
@@ -85983,7 +85983,7 @@
         <v>-24.73</v>
       </c>
       <c r="F3593">
-        <v>7.62</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="3594" spans="1:6">
@@ -86003,7 +86003,7 @@
         <v>-19.85</v>
       </c>
       <c r="F3594">
-        <v>7.62</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="3595" spans="1:6">
@@ -86023,7 +86023,7 @@
         <v>-19.85</v>
       </c>
       <c r="F3595">
-        <v>-5.24</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="3596" spans="1:6">
@@ -86043,7 +86043,7 @@
         <v>-19.85</v>
       </c>
       <c r="F3596">
-        <v>20</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="3597" spans="1:6">
@@ -86303,7 +86303,7 @@
         <v>0</v>
       </c>
       <c r="F3609">
-        <v>-16.56</v>
+        <v>-18.62</v>
       </c>
     </row>
     <row r="3610" spans="1:6">
@@ -86463,7 +86463,7 @@
         <v>3.12</v>
       </c>
       <c r="F3617">
-        <v>-0.5700000000000001</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="3618" spans="1:6">
@@ -86743,7 +86743,7 @@
         <v>-12.23</v>
       </c>
       <c r="F3631">
-        <v>-10.51</v>
+        <v>-11.49</v>
       </c>
     </row>
     <row r="3632" spans="1:6">
@@ -86763,7 +86763,7 @@
         <v>-12.23</v>
       </c>
       <c r="F3632">
-        <v>-5.050000000000001</v>
+        <v>-7.42</v>
       </c>
     </row>
     <row r="3633" spans="1:6">
@@ -86843,7 +86843,7 @@
         <v>0</v>
       </c>
       <c r="F3636">
-        <v>-13.35</v>
+        <v>-15.03</v>
       </c>
     </row>
     <row r="3637" spans="1:6">
@@ -86863,7 +86863,7 @@
         <v>1.93</v>
       </c>
       <c r="F3637">
-        <v>-13.07</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="3638" spans="1:6">
@@ -87103,7 +87103,7 @@
         <v>0</v>
       </c>
       <c r="F3649">
-        <v>-20.2</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="3650" spans="1:6">
@@ -87123,7 +87123,7 @@
         <v>-6.81</v>
       </c>
       <c r="F3650">
-        <v>-18.3</v>
+        <v>-8.129999999999999</v>
       </c>
     </row>
     <row r="3651" spans="1:6">
@@ -87223,7 +87223,7 @@
         <v>-5.55</v>
       </c>
       <c r="F3655">
-        <v>-6.569999999999999</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="3656" spans="1:6">
@@ -87363,7 +87363,7 @@
         <v>0</v>
       </c>
       <c r="F3662">
-        <v>-15.8</v>
+        <v>-17.75</v>
       </c>
     </row>
     <row r="3663" spans="1:6">
@@ -87423,7 +87423,7 @@
         <v>-8.619999999999999</v>
       </c>
       <c r="F3665">
-        <v>-1.53</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3666" spans="1:6">
@@ -87523,7 +87523,7 @@
         <v>-0.42</v>
       </c>
       <c r="F3670">
-        <v>2.54</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="3671" spans="1:6">
@@ -87623,7 +87623,7 @@
         <v>0</v>
       </c>
       <c r="F3675">
-        <v>18.76</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="3676" spans="1:6">
@@ -87703,7 +87703,7 @@
         <v>-1.88</v>
       </c>
       <c r="F3679">
-        <v>4.81</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="3680" spans="1:6">
@@ -87723,7 +87723,7 @@
         <v>-8.94</v>
       </c>
       <c r="F3680">
-        <v>-1.64</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3681" spans="1:6">
@@ -88483,7 +88483,7 @@
         <v>0</v>
       </c>
       <c r="F3718">
-        <v>2.56</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="3719" spans="1:6">
@@ -88783,7 +88783,7 @@
         <v>0</v>
       </c>
       <c r="F3733">
-        <v>7.75</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="3734" spans="1:6">
@@ -88963,7 +88963,7 @@
         <v>0</v>
       </c>
       <c r="F3742">
-        <v>0</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="3743" spans="1:6">
@@ -89203,7 +89203,7 @@
         <v>-22.6</v>
       </c>
       <c r="F3754">
-        <v>17.84</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="3755" spans="1:6">
@@ -89323,7 +89323,7 @@
         <v>-10.33</v>
       </c>
       <c r="F3760">
-        <v>-2.03</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3761" spans="1:6">
@@ -89363,7 +89363,7 @@
         <v>0</v>
       </c>
       <c r="F3762">
-        <v>17.93</v>
+        <v>20.16</v>
       </c>
     </row>
     <row r="3763" spans="1:6">
@@ -89443,7 +89443,7 @@
         <v>4.7</v>
       </c>
       <c r="F3766">
-        <v>-11.93</v>
+        <v>-14.02</v>
       </c>
     </row>
     <row r="3767" spans="1:6">
@@ -89463,7 +89463,7 @@
         <v>4.7</v>
       </c>
       <c r="F3767">
-        <v>-11.93</v>
+        <v>-14.02</v>
       </c>
     </row>
     <row r="3768" spans="1:6">
@@ -89723,7 +89723,7 @@
         <v>-11.18</v>
       </c>
       <c r="F3780">
-        <v>-15.14</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="3781" spans="1:6">
@@ -89903,7 +89903,7 @@
         <v>0</v>
       </c>
       <c r="F3789">
-        <v>-1.23</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="3790" spans="1:6">
@@ -89943,7 +89943,7 @@
         <v>0</v>
       </c>
       <c r="F3791">
-        <v>-1.13</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="3792" spans="1:6">
@@ -89963,7 +89963,7 @@
         <v>0</v>
       </c>
       <c r="F3792">
-        <v>0</v>
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="3793" spans="1:6">
@@ -90043,7 +90043,7 @@
         <v>-5.41</v>
       </c>
       <c r="F3796">
-        <v>17.22</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="3797" spans="1:6">
@@ -90123,7 +90123,7 @@
         <v>0</v>
       </c>
       <c r="F3800">
-        <v>-8.119999999999999</v>
+        <v>-12.16</v>
       </c>
     </row>
     <row r="3801" spans="1:6">
@@ -90203,7 +90203,7 @@
         <v>0</v>
       </c>
       <c r="F3804">
-        <v>25.13</v>
+        <v>37.69</v>
       </c>
     </row>
     <row r="3805" spans="1:6">
@@ -90523,7 +90523,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3820">
-        <v>15.04</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="3821" spans="1:6">
@@ -90543,7 +90543,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3821">
-        <v>15.04</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="3822" spans="1:6">
@@ -90563,7 +90563,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3822">
-        <v>15.04</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="3823" spans="1:6">
@@ -90583,7 +90583,7 @@
         <v>-21.99</v>
       </c>
       <c r="F3823">
-        <v>15.04</v>
+        <v>17.58</v>
       </c>
     </row>
     <row r="3824" spans="1:6">
@@ -90603,7 +90603,7 @@
         <v>-5.71</v>
       </c>
       <c r="F3824">
-        <v>-8.07</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="3825" spans="1:6">
@@ -90983,7 +90983,7 @@
         <v>-12.9</v>
       </c>
       <c r="F3843">
-        <v>14.72</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="3844" spans="1:6">
@@ -91063,7 +91063,7 @@
         <v>-15.52</v>
       </c>
       <c r="F3847">
-        <v>15.49</v>
+        <v>19.39</v>
       </c>
     </row>
     <row r="3848" spans="1:6">
@@ -91563,7 +91563,7 @@
         <v>48.82</v>
       </c>
       <c r="F3872">
-        <v>5.489999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3873" spans="1:6">
@@ -91583,7 +91583,7 @@
         <v>24.14</v>
       </c>
       <c r="F3873">
-        <v>3.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3874" spans="1:6">
@@ -91663,7 +91663,7 @@
         <v>0</v>
       </c>
       <c r="F3877">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="3878" spans="1:6">
@@ -91703,7 +91703,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3879">
-        <v>26.25</v>
+        <v>30.31</v>
       </c>
     </row>
     <row r="3880" spans="1:6">
@@ -91723,7 +91723,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3880">
-        <v>26.25</v>
+        <v>30.31</v>
       </c>
     </row>
     <row r="3881" spans="1:6">
@@ -91743,7 +91743,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3881">
-        <v>26.25</v>
+        <v>30.31</v>
       </c>
     </row>
     <row r="3882" spans="1:6">
@@ -92023,7 +92023,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="F3895">
-        <v>-13.65</v>
+        <v>-15.84</v>
       </c>
     </row>
     <row r="3896" spans="1:6">
@@ -92123,7 +92123,7 @@
         <v>0</v>
       </c>
       <c r="F3900">
-        <v>0</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="3901" spans="1:6">
@@ -92183,7 +92183,7 @@
         <v>0</v>
       </c>
       <c r="F3903">
-        <v>-3.37</v>
+        <v>-5.029999999999999</v>
       </c>
     </row>
     <row r="3904" spans="1:6">
@@ -92343,7 +92343,7 @@
         <v>0</v>
       </c>
       <c r="F3911">
-        <v>-3.37</v>
+        <v>-5.029999999999999</v>
       </c>
     </row>
     <row r="3912" spans="1:6">
@@ -92363,7 +92363,7 @@
         <v>0</v>
       </c>
       <c r="F3912">
-        <v>-3.37</v>
+        <v>-5.029999999999999</v>
       </c>
     </row>
     <row r="3913" spans="1:6">
@@ -92383,7 +92383,7 @@
         <v>0</v>
       </c>
       <c r="F3913">
-        <v>-3.37</v>
+        <v>-5.029999999999999</v>
       </c>
     </row>
     <row r="3914" spans="1:6">
@@ -92403,7 +92403,7 @@
         <v>0</v>
       </c>
       <c r="F3914">
-        <v>-3.37</v>
+        <v>-5.029999999999999</v>
       </c>
     </row>
     <row r="3915" spans="1:6">
@@ -92423,7 +92423,7 @@
         <v>0</v>
       </c>
       <c r="F3915">
-        <v>-6.069999999999999</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="3916" spans="1:6">
@@ -92743,7 +92743,7 @@
         <v>-2.29</v>
       </c>
       <c r="F3931">
-        <v>-6.73</v>
+        <v>-8.19</v>
       </c>
     </row>
     <row r="3932" spans="1:6">
@@ -92803,7 +92803,7 @@
         <v>-2.51</v>
       </c>
       <c r="F3934">
-        <v>5.43</v>
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="3935" spans="1:6">
@@ -92843,7 +92843,7 @@
         <v>2.88</v>
       </c>
       <c r="F3936">
-        <v>-9.91</v>
+        <v>-6.73</v>
       </c>
     </row>
     <row r="3937" spans="1:6">
@@ -92883,7 +92883,7 @@
         <v>0</v>
       </c>
       <c r="F3938">
-        <v>-7.31</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="3939" spans="1:6">
@@ -93323,7 +93323,7 @@
         <v>-3.53</v>
       </c>
       <c r="F3960">
-        <v>-4.79</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="3961" spans="1:6">
@@ -93343,7 +93343,7 @@
         <v>-4.34</v>
       </c>
       <c r="F3961">
-        <v>-6.08</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="3962" spans="1:6">
@@ -93403,7 +93403,7 @@
         <v>-12.52</v>
       </c>
       <c r="F3964">
-        <v>16.72</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="3965" spans="1:6">
@@ -93483,7 +93483,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3968">
-        <v>0.72</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="3969" spans="1:6">
@@ -93503,7 +93503,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3969">
-        <v>0.72</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="3970" spans="1:6">
@@ -93523,7 +93523,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3970">
-        <v>0.72</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="3971" spans="1:6">
@@ -93823,7 +93823,7 @@
         <v>15.41</v>
       </c>
       <c r="F3985">
-        <v>-20.71</v>
+        <v>-23.36</v>
       </c>
     </row>
     <row r="3986" spans="1:6">
@@ -93843,7 +93843,7 @@
         <v>0</v>
       </c>
       <c r="F3986">
-        <v>-1.73</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="3987" spans="1:6">
@@ -93903,7 +93903,7 @@
         <v>0</v>
       </c>
       <c r="F3989">
-        <v>-1.73</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="3990" spans="1:6">
@@ -94163,7 +94163,7 @@
         <v>0</v>
       </c>
       <c r="F4002">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4003" spans="1:6">
@@ -94183,7 +94183,7 @@
         <v>0</v>
       </c>
       <c r="F4003">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4004" spans="1:6">
@@ -94203,7 +94203,7 @@
         <v>0</v>
       </c>
       <c r="F4004">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4005" spans="1:6">
@@ -94243,7 +94243,7 @@
         <v>0</v>
       </c>
       <c r="F4006">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4007" spans="1:6">
@@ -94263,7 +94263,7 @@
         <v>0</v>
       </c>
       <c r="F4007">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4008" spans="1:6">
@@ -94283,7 +94283,7 @@
         <v>0</v>
       </c>
       <c r="F4008">
-        <v>2.25</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="4009" spans="1:6">
@@ -94523,7 +94523,7 @@
         <v>0.5</v>
       </c>
       <c r="F4020">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4021" spans="1:6">
@@ -94543,7 +94543,7 @@
         <v>0.5</v>
       </c>
       <c r="F4021">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4022" spans="1:6">
@@ -94563,7 +94563,7 @@
         <v>0.5</v>
       </c>
       <c r="F4022">
-        <v>-0.13</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4023" spans="1:6">
@@ -94583,7 +94583,7 @@
         <v>0.5</v>
       </c>
       <c r="F4023">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4024" spans="1:6">
@@ -94603,7 +94603,7 @@
         <v>0.5</v>
       </c>
       <c r="F4024">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4025" spans="1:6">
@@ -94623,7 +94623,7 @@
         <v>0.5</v>
       </c>
       <c r="F4025">
-        <v>-0.13</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="4026" spans="1:6">
@@ -94643,7 +94643,7 @@
         <v>0.5</v>
       </c>
       <c r="F4026">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4027" spans="1:6">
@@ -94663,7 +94663,7 @@
         <v>0.5</v>
       </c>
       <c r="F4027">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4028" spans="1:6">
@@ -94683,7 +94683,7 @@
         <v>0.5</v>
       </c>
       <c r="F4028">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4029" spans="1:6">
@@ -94703,7 +94703,7 @@
         <v>21.57</v>
       </c>
       <c r="F4029">
-        <v>-10.86</v>
+        <v>-12.57</v>
       </c>
     </row>
     <row r="4030" spans="1:6">
@@ -94723,7 +94723,7 @@
         <v>0.5</v>
       </c>
       <c r="F4030">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4031" spans="1:6">
@@ -94743,7 +94743,7 @@
         <v>0.5</v>
       </c>
       <c r="F4031">
-        <v>-0.31</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4032" spans="1:6">
@@ -94783,7 +94783,7 @@
         <v>14.38</v>
       </c>
       <c r="F4033">
-        <v>-16.76</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="4034" spans="1:6">
@@ -94803,7 +94803,7 @@
         <v>14.38</v>
       </c>
       <c r="F4034">
-        <v>-16.76</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="4035" spans="1:6">
@@ -94823,7 +94823,7 @@
         <v>14.38</v>
       </c>
       <c r="F4035">
-        <v>-16.76</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="4036" spans="1:6">
@@ -94843,7 +94843,7 @@
         <v>11.66</v>
       </c>
       <c r="F4036">
-        <v>-13.85</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="4037" spans="1:6">
@@ -94863,7 +94863,7 @@
         <v>14.38</v>
       </c>
       <c r="F4037">
-        <v>-16.76</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="4038" spans="1:6">
@@ -94903,7 +94903,7 @@
         <v>14.38</v>
       </c>
       <c r="F4039">
-        <v>-16.76</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="4040" spans="1:6">
@@ -94923,7 +94923,7 @@
         <v>14.38</v>
       </c>
       <c r="F4040">
-        <v>-16.76</v>
+        <v>-9.41</v>
       </c>
     </row>
     <row r="4041" spans="1:6">
@@ -95263,7 +95263,7 @@
         <v>-2.64</v>
       </c>
       <c r="F4057">
-        <v>-3.55</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="4058" spans="1:6">
@@ -95283,7 +95283,7 @@
         <v>5.02</v>
       </c>
       <c r="F4058">
-        <v>0.8200000000000001</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="4059" spans="1:6">
@@ -95323,7 +95323,7 @@
         <v>-0.8</v>
       </c>
       <c r="F4060">
-        <v>-1.1</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="4061" spans="1:6">
@@ -95343,7 +95343,7 @@
         <v>-3.75</v>
       </c>
       <c r="F4061">
-        <v>-4.12</v>
+        <v>-6.52</v>
       </c>
     </row>
     <row r="4062" spans="1:6">
@@ -95423,7 +95423,7 @@
         <v>-17.88</v>
       </c>
       <c r="F4065">
-        <v>6.52</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4066" spans="1:6">
@@ -95743,7 +95743,7 @@
         <v>0</v>
       </c>
       <c r="F4081">
-        <v>-14.92</v>
+        <v>-16.93</v>
       </c>
     </row>
     <row r="4082" spans="1:6">
@@ -95763,7 +95763,7 @@
         <v>0</v>
       </c>
       <c r="F4082">
-        <v>-14.92</v>
+        <v>-16.93</v>
       </c>
     </row>
     <row r="4083" spans="1:6">
@@ -95803,7 +95803,7 @@
         <v>0</v>
       </c>
       <c r="F4084">
-        <v>-14.92</v>
+        <v>-16.93</v>
       </c>
     </row>
     <row r="4085" spans="1:6">
@@ -96043,7 +96043,7 @@
         <v>0</v>
       </c>
       <c r="F4096">
-        <v>-6.75</v>
+        <v>-10.16</v>
       </c>
     </row>
     <row r="4097" spans="1:6">
@@ -96083,7 +96083,7 @@
         <v>3.18</v>
       </c>
       <c r="F4098">
-        <v>-1</v>
+        <v>-4.62</v>
       </c>
     </row>
     <row r="4099" spans="1:6">
@@ -96183,7 +96183,7 @@
         <v>10.02</v>
       </c>
       <c r="F4103">
-        <v>-21.09</v>
+        <v>-24.26</v>
       </c>
     </row>
     <row r="4104" spans="1:6">
@@ -97603,7 +97603,7 @@
         <v>0</v>
       </c>
       <c r="F4174">
-        <v>-0.8500000000000001</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="4175" spans="1:6">
@@ -98143,7 +98143,7 @@
         <v>-22.27</v>
       </c>
       <c r="F4201">
-        <v>33.41</v>
+        <v>37.59</v>
       </c>
     </row>
     <row r="4202" spans="1:6">
@@ -99083,7 +99083,7 @@
         <v>0</v>
       </c>
       <c r="F4248">
-        <v>2.71</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="4249" spans="1:6">
@@ -101043,7 +101043,7 @@
         <v>0</v>
       </c>
       <c r="F4346">
-        <v>3.51</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="4347" spans="1:6">
@@ -101083,7 +101083,7 @@
         <v>0</v>
       </c>
       <c r="F4348">
-        <v>-3.86</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="4349" spans="1:6">
@@ -101103,7 +101103,7 @@
         <v>0</v>
       </c>
       <c r="F4349">
-        <v>-7.8</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="4350" spans="1:6">
@@ -101123,7 +101123,7 @@
         <v>0</v>
       </c>
       <c r="F4350">
-        <v>-3.86</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="4351" spans="1:6">
@@ -102643,7 +102643,7 @@
         <v>20.21</v>
       </c>
       <c r="F4426">
-        <v>2.81</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="4427" spans="1:6">
@@ -102843,7 +102843,7 @@
         <v>-5.36</v>
       </c>
       <c r="F4436">
-        <v>-7.57</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="4437" spans="1:6">
@@ -102883,7 +102883,7 @@
         <v>2.66</v>
       </c>
       <c r="F4438">
-        <v>-0.6799999999999999</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="4439" spans="1:6">
@@ -102923,7 +102923,7 @@
         <v>2.95</v>
       </c>
       <c r="F4440">
-        <v>-19.13</v>
+        <v>-19.36</v>
       </c>
     </row>
     <row r="4441" spans="1:6">
@@ -102943,7 +102943,7 @@
         <v>-0.97</v>
       </c>
       <c r="F4441">
-        <v>-0.5700000000000001</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="4442" spans="1:6">
@@ -102963,7 +102963,7 @@
         <v>3.18</v>
       </c>
       <c r="F4442">
-        <v>0.51</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="4443" spans="1:6">
@@ -103063,7 +103063,7 @@
         <v>0</v>
       </c>
       <c r="F4447">
-        <v>-4.09</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="4448" spans="1:6">
@@ -103163,7 +103163,7 @@
         <v>-8.94</v>
       </c>
       <c r="F4452">
-        <v>-21.8</v>
+        <v>-21.45</v>
       </c>
     </row>
     <row r="4453" spans="1:6">
@@ -103223,7 +103223,7 @@
         <v>-0.91</v>
       </c>
       <c r="F4455">
-        <v>-1.22</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="4456" spans="1:6">
@@ -103243,7 +103243,7 @@
         <v>-0.91</v>
       </c>
       <c r="F4456">
-        <v>-3.67</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="4457" spans="1:6">
@@ -103303,7 +103303,7 @@
         <v>3.21</v>
       </c>
       <c r="F4459">
-        <v>-1.04</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="4460" spans="1:6">
@@ -103343,7 +103343,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F4461">
-        <v>-0.6899999999999999</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="4462" spans="1:6">
@@ -103363,7 +103363,7 @@
         <v>7.870000000000001</v>
       </c>
       <c r="F4462">
-        <v>1.99</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="4463" spans="1:6">
@@ -103383,7 +103383,7 @@
         <v>-12.69</v>
       </c>
       <c r="F4463">
-        <v>10.42</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="4464" spans="1:6">
@@ -103403,7 +103403,7 @@
         <v>1.86</v>
       </c>
       <c r="F4464">
-        <v>-2.42</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="4465" spans="1:6">
@@ -103463,7 +103463,7 @@
         <v>1.9</v>
       </c>
       <c r="F4467">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4468" spans="1:6">
@@ -103603,7 +103603,7 @@
         <v>1.01</v>
       </c>
       <c r="F4474">
-        <v>-2.7</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="4475" spans="1:6">
@@ -103623,7 +103623,7 @@
         <v>-1.03</v>
       </c>
       <c r="F4475">
-        <v>-0.6799999999999999</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4476" spans="1:6">
@@ -103643,7 +103643,7 @@
         <v>1.01</v>
       </c>
       <c r="F4476">
-        <v>-2.7</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="4477" spans="1:6">
@@ -103683,7 +103683,7 @@
         <v>1.79</v>
       </c>
       <c r="F4478">
-        <v>-2.7</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="4479" spans="1:6">
@@ -103883,7 +103883,7 @@
         <v>2.08</v>
       </c>
       <c r="F4488">
-        <v>-9.180000000000001</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="4489" spans="1:6">
@@ -103903,7 +103903,7 @@
         <v>1.09</v>
       </c>
       <c r="F4489">
-        <v>-3.23</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="4490" spans="1:6">
@@ -104003,7 +104003,7 @@
         <v>-3.51</v>
       </c>
       <c r="F4494">
-        <v>-9.449999999999999</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="4495" spans="1:6">
@@ -104023,7 +104023,7 @@
         <v>-6.04</v>
       </c>
       <c r="F4495">
-        <v>-15</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="4496" spans="1:6">
@@ -104043,7 +104043,7 @@
         <v>-6.98</v>
       </c>
       <c r="F4496">
-        <v>-9.17</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4497" spans="1:6">
@@ -104083,7 +104083,7 @@
         <v>0</v>
       </c>
       <c r="F4498">
-        <v>-10.99</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="4499" spans="1:6">
@@ -104103,7 +104103,7 @@
         <v>0</v>
       </c>
       <c r="F4499">
-        <v>-6.34</v>
+        <v>-3.52</v>
       </c>
     </row>
     <row r="4500" spans="1:6">
@@ -104123,7 +104123,7 @@
         <v>0</v>
       </c>
       <c r="F4500">
-        <v>-5.31</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="4501" spans="1:6">
@@ -104143,7 +104143,7 @@
         <v>0</v>
       </c>
       <c r="F4501">
-        <v>-3.08</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="4502" spans="1:6">
@@ -104163,7 +104163,7 @@
         <v>0</v>
       </c>
       <c r="F4502">
-        <v>-6.819999999999999</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="4503" spans="1:6">
@@ -104263,7 +104263,7 @@
         <v>-0.74</v>
       </c>
       <c r="F4507">
-        <v>-3.7</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="4508" spans="1:6">
@@ -104303,7 +104303,7 @@
         <v>-1.42</v>
       </c>
       <c r="F4509">
-        <v>-2.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4510" spans="1:6">
@@ -104323,7 +104323,7 @@
         <v>-0.79</v>
       </c>
       <c r="F4510">
-        <v>-4</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="4511" spans="1:6">
@@ -104343,7 +104343,7 @@
         <v>2.17</v>
       </c>
       <c r="F4511">
-        <v>0</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="4512" spans="1:6">
@@ -104443,7 +104443,7 @@
         <v>0</v>
       </c>
       <c r="F4516">
-        <v>0</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="4517" spans="1:6">
@@ -104523,7 +104523,7 @@
         <v>-18.38</v>
       </c>
       <c r="F4520">
-        <v>13.76</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="4521" spans="1:6">
@@ -104543,7 +104543,7 @@
         <v>18.5</v>
       </c>
       <c r="F4521">
-        <v>3.85</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="4522" spans="1:6">
@@ -104563,7 +104563,7 @@
         <v>-22.13</v>
       </c>
       <c r="F4522">
-        <v>-2.35</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="4523" spans="1:6">
@@ -104623,7 +104623,7 @@
         <v>7.89</v>
       </c>
       <c r="F4525">
-        <v>-11.01</v>
+        <v>-11.61</v>
       </c>
     </row>
     <row r="4526" spans="1:6">
@@ -104643,7 +104643,7 @@
         <v>0</v>
       </c>
       <c r="F4526">
-        <v>-6.06</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="4527" spans="1:6">
@@ -104663,7 +104663,7 @@
         <v>-10.3</v>
       </c>
       <c r="F4527">
-        <v>10.14</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="4528" spans="1:6">
@@ -104683,7 +104683,7 @@
         <v>-10.3</v>
       </c>
       <c r="F4528">
-        <v>10.14</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="4529" spans="1:6">
@@ -104703,7 +104703,7 @@
         <v>-1.05</v>
       </c>
       <c r="F4529">
-        <v>-7.090000000000001</v>
+        <v>-4.61</v>
       </c>
     </row>
     <row r="4530" spans="1:6">
@@ -104783,7 +104783,7 @@
         <v>0</v>
       </c>
       <c r="F4533">
-        <v>-5.87</v>
+        <v>-8.81</v>
       </c>
     </row>
     <row r="4534" spans="1:6">
@@ -104803,7 +104803,7 @@
         <v>0</v>
       </c>
       <c r="F4534">
-        <v>-18.51</v>
+        <v>-27.76</v>
       </c>
     </row>
     <row r="4535" spans="1:6">
@@ -104883,7 +104883,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4538">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="4539" spans="1:6">
@@ -104903,7 +104903,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4539">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="4540" spans="1:6">
@@ -104923,7 +104923,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4540">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="4541" spans="1:6">
@@ -104943,7 +104943,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4541">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="4542" spans="1:6">
@@ -105103,7 +105103,7 @@
         <v>-6</v>
       </c>
       <c r="F4549">
-        <v>0.14</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="4550" spans="1:6">
@@ -105263,7 +105263,7 @@
         <v>0</v>
       </c>
       <c r="F4557">
-        <v>-0.3</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="4558" spans="1:6">
@@ -105343,7 +105343,7 @@
         <v>-6.56</v>
       </c>
       <c r="F4561">
-        <v>-9.370000000000001</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="4562" spans="1:6">
@@ -105363,7 +105363,7 @@
         <v>-3.3</v>
       </c>
       <c r="F4562">
-        <v>-12.43</v>
+        <v>-8.48</v>
       </c>
     </row>
     <row r="4563" spans="1:6">
@@ -105483,7 +105483,7 @@
         <v>0</v>
       </c>
       <c r="F4568">
-        <v>4.21</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="4569" spans="1:6">
@@ -105543,7 +105543,7 @@
         <v>2.48</v>
       </c>
       <c r="F4571">
-        <v>22.29</v>
+        <v>25.04</v>
       </c>
     </row>
     <row r="4572" spans="1:6">
@@ -105623,7 +105623,7 @@
         <v>0</v>
       </c>
       <c r="F4575">
-        <v>-19.1</v>
+        <v>-21.51</v>
       </c>
     </row>
     <row r="4576" spans="1:6">

--- a/Fort/Fort_prices_weekly_pct_change.xlsx
+++ b/Fort/Fort_prices_weekly_pct_change.xlsx
@@ -14183,7 +14183,7 @@
         <v>42.98</v>
       </c>
       <c r="F3">
-        <v>4.56</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -14243,7 +14243,7 @@
         <v>-15.19</v>
       </c>
       <c r="F6">
-        <v>-32.19</v>
+        <v>-23.81</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -14423,7 +14423,7 @@
         <v>-3.43</v>
       </c>
       <c r="F15">
-        <v>-5.76</v>
+        <v>-7.84</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -14483,7 +14483,7 @@
         <v>-6.87</v>
       </c>
       <c r="F18">
-        <v>-2.28</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -14523,7 +14523,7 @@
         <v>-3.84</v>
       </c>
       <c r="F20">
-        <v>-18.47</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -14583,7 +14583,7 @@
         <v>-3.84</v>
       </c>
       <c r="F23">
-        <v>-24.07</v>
+        <v>-18.14</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>-12.01</v>
+        <v>-13.31</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -15303,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>-6.9</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -15383,7 +15383,7 @@
         <v>-3.7</v>
       </c>
       <c r="F63">
-        <v>9.109999999999999</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -15403,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>13.56</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -15523,7 +15523,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.82</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -15583,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>2.17</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -15723,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.59</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -16103,7 +16103,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>-6.69</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -16123,7 +16123,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-5.46</v>
+        <v>-9.109999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -16143,7 +16143,7 @@
         <v>1.34</v>
       </c>
       <c r="F101">
-        <v>1.51</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>-13.57</v>
+        <v>-15.12</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -16243,7 +16243,7 @@
         <v>6</v>
       </c>
       <c r="F106">
-        <v>-11.87</v>
+        <v>-12.49</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -16283,7 +16283,7 @@
         <v>-21.11</v>
       </c>
       <c r="F108">
-        <v>19.61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -16303,7 +16303,7 @@
         <v>-19.55</v>
       </c>
       <c r="F109">
-        <v>21.2</v>
+        <v>22.61</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -16403,7 +16403,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>-6.01</v>
+        <v>-7.51</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -16423,7 +16423,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>9.69</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -16443,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>-8.85</v>
+        <v>-9.85</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>9.69</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -16483,7 +16483,7 @@
         <v>-1.36</v>
       </c>
       <c r="F118">
-        <v>2.86</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -16563,7 +16563,7 @@
         <v>6.01</v>
       </c>
       <c r="F122">
-        <v>3.79</v>
+        <v>4.100000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -16603,7 +16603,7 @@
         <v>-17.08</v>
       </c>
       <c r="F124">
-        <v>-4.74</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -16683,7 +16683,7 @@
         <v>-15.62</v>
       </c>
       <c r="F128">
-        <v>-6.39</v>
+        <v>-6.660000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>-6.47</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -16823,7 +16823,7 @@
         <v>-29.44</v>
       </c>
       <c r="F135">
-        <v>31.54</v>
+        <v>33.23999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -16883,7 +16883,7 @@
         <v>-28.77</v>
       </c>
       <c r="F138">
-        <v>30.97</v>
+        <v>32.54</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>-0.6899999999999999</v>
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -16923,7 +16923,7 @@
         <v>-29.44</v>
       </c>
       <c r="F140">
-        <v>31.54</v>
+        <v>33.23999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -16963,7 +16963,7 @@
         <v>-29.44</v>
       </c>
       <c r="F142">
-        <v>31.54</v>
+        <v>33.23999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -17003,7 +17003,7 @@
         <v>-3.330000000000001</v>
       </c>
       <c r="F144">
-        <v>-26.34</v>
+        <v>-25.51</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -17023,7 +17023,7 @@
         <v>-3.47</v>
       </c>
       <c r="F145">
-        <v>-14.77</v>
+        <v>-15.5</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -17083,7 +17083,7 @@
         <v>10.18</v>
       </c>
       <c r="F148">
-        <v>0.05</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -17143,7 +17143,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>-1.25</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -17423,7 +17423,7 @@
         <v>29.5</v>
       </c>
       <c r="F165">
-        <v>-10.32</v>
+        <v>-11.46</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -17563,7 +17563,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>-2.77</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -17583,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>14.11</v>
+        <v>17.63</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -18063,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>7.79</v>
+        <v>8.690000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -18283,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>-11.48</v>
+        <v>-12.78</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -18363,7 +18363,7 @@
         <v>-10.77</v>
       </c>
       <c r="F212">
-        <v>10.47</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -18403,7 +18403,7 @@
         <v>-2.3</v>
       </c>
       <c r="F214">
-        <v>-2.82</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -18423,7 +18423,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>-1.11</v>
+        <v>-3.68</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -19163,7 +19163,7 @@
         <v>-2.86</v>
       </c>
       <c r="F252">
-        <v>-1.47</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -19223,7 +19223,7 @@
         <v>-5.3</v>
       </c>
       <c r="F255">
-        <v>11.46</v>
+        <v>12.21</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -19283,7 +19283,7 @@
         <v>-5.54</v>
       </c>
       <c r="F258">
-        <v>-1.95</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -19303,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="F259">
-        <v>-4.14</v>
+        <v>-6.93</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -19583,7 +19583,7 @@
         <v>-6.87</v>
       </c>
       <c r="F273">
-        <v>5.65</v>
+        <v>5.949999999999999</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="F284">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -19823,7 +19823,7 @@
         <v>0</v>
       </c>
       <c r="F285">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -19843,7 +19843,7 @@
         <v>0</v>
       </c>
       <c r="F286">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -19863,7 +19863,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="F291">
-        <v>6.88</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -19983,7 +19983,7 @@
         <v>0</v>
       </c>
       <c r="F293">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -20003,7 +20003,7 @@
         <v>0</v>
       </c>
       <c r="F294">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -20043,7 +20043,7 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>-2.2</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -20143,7 +20143,7 @@
         <v>-17.56</v>
       </c>
       <c r="F301">
-        <v>5.01</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -20443,7 +20443,7 @@
         <v>0</v>
       </c>
       <c r="F316">
-        <v>19.03</v>
+        <v>23.81</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -20483,7 +20483,7 @@
         <v>-14.87</v>
       </c>
       <c r="F318">
-        <v>-4.7</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -20503,7 +20503,7 @@
         <v>-20.35</v>
       </c>
       <c r="F319">
-        <v>-0.95</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -20523,7 +20523,7 @@
         <v>-7.84</v>
       </c>
       <c r="F320">
-        <v>-1.37</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -20683,7 +20683,7 @@
         <v>0</v>
       </c>
       <c r="F328">
-        <v>10.02</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -21043,7 +21043,7 @@
         <v>0</v>
       </c>
       <c r="F346">
-        <v>7.85</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -21243,7 +21243,7 @@
         <v>-0.76</v>
       </c>
       <c r="F356">
-        <v>-3.78</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -21263,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="F357">
-        <v>0.63</v>
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -21403,7 +21403,7 @@
         <v>1.33</v>
       </c>
       <c r="F364">
-        <v>-1.82</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -21543,7 +21543,7 @@
         <v>0</v>
       </c>
       <c r="F371">
-        <v>-11.13</v>
+        <v>-11.56</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -21783,7 +21783,7 @@
         <v>-17.22</v>
       </c>
       <c r="F383">
-        <v>15.96</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -22083,7 +22083,7 @@
         <v>0</v>
       </c>
       <c r="F398">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -22123,7 +22123,7 @@
         <v>2.89</v>
       </c>
       <c r="F400">
-        <v>-0.6</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="F430">
-        <v>5.72</v>
+        <v>7.149999999999999</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -22803,7 +22803,7 @@
         <v>0</v>
       </c>
       <c r="F434">
-        <v>6.03</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -22923,7 +22923,7 @@
         <v>0</v>
       </c>
       <c r="F440">
-        <v>6.88</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -23203,7 +23203,7 @@
         <v>-4.01</v>
       </c>
       <c r="F454">
-        <v>23.54</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -23223,7 +23223,7 @@
         <v>-4.01</v>
       </c>
       <c r="F455">
-        <v>23.54</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -23323,7 +23323,7 @@
         <v>25.73</v>
       </c>
       <c r="F460">
-        <v>-10.99</v>
+        <v>-12.58</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -23363,7 +23363,7 @@
         <v>25.73</v>
       </c>
       <c r="F462">
-        <v>-10.99</v>
+        <v>-12.58</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -23383,7 +23383,7 @@
         <v>25.73</v>
       </c>
       <c r="F463">
-        <v>-10.99</v>
+        <v>-12.58</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -23463,7 +23463,7 @@
         <v>4.69</v>
       </c>
       <c r="F467">
-        <v>-21.64</v>
+        <v>-20.15</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -23703,7 +23703,7 @@
         <v>2.3</v>
       </c>
       <c r="F479">
-        <v>4.94</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -23723,7 +23723,7 @@
         <v>0</v>
       </c>
       <c r="F480">
-        <v>-12.07</v>
+        <v>-13.41</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F481">
-        <v>-7.27</v>
+        <v>-5.47</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="F482">
-        <v>-16.61</v>
+        <v>-17.3</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -23823,7 +23823,7 @@
         <v>15.2</v>
       </c>
       <c r="F485">
-        <v>4.569999999999999</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -23943,7 +23943,7 @@
         <v>-15.25</v>
       </c>
       <c r="F491">
-        <v>41.51000000000001</v>
+        <v>43.35</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -23963,7 +23963,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="F492">
-        <v>32.31</v>
+        <v>34.03</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -24023,7 +24023,7 @@
         <v>17.17</v>
       </c>
       <c r="F495">
-        <v>-2.59</v>
+        <v>-6.03</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="F503">
-        <v>-1.06</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -24203,7 +24203,7 @@
         <v>0</v>
       </c>
       <c r="F504">
-        <v>-1.06</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="F505">
-        <v>-1.06</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -24243,7 +24243,7 @@
         <v>0</v>
       </c>
       <c r="F506">
-        <v>-1.06</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="F517">
-        <v>-2.31</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -24543,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="F521">
-        <v>8.119999999999999</v>
+        <v>8.450000000000001</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -24763,7 +24763,7 @@
         <v>-28.52</v>
       </c>
       <c r="F532">
-        <v>53.42</v>
+        <v>55.59</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="F536">
-        <v>-4.02</v>
+        <v>-4.82</v>
       </c>
     </row>
     <row r="537" spans="1:6">
@@ -24863,7 +24863,7 @@
         <v>0</v>
       </c>
       <c r="F537">
-        <v>16.83</v>
+        <v>18.64</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="F540">
-        <v>-2.68</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -25003,7 +25003,7 @@
         <v>3.64</v>
       </c>
       <c r="F544">
-        <v>-0.88</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="F552">
-        <v>0.9400000000000001</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -25363,7 +25363,7 @@
         <v>17.43</v>
       </c>
       <c r="F562">
-        <v>-17.19</v>
+        <v>-17.97</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -25423,7 +25423,7 @@
         <v>0</v>
       </c>
       <c r="F565">
-        <v>11.41</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -25503,7 +25503,7 @@
         <v>0</v>
       </c>
       <c r="F569">
-        <v>5.01</v>
+        <v>5.510000000000001</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="F570">
-        <v>5.01</v>
+        <v>5.510000000000001</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="F572">
-        <v>5.01</v>
+        <v>5.510000000000001</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -25583,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="F573">
-        <v>-8.5</v>
+        <v>-8.799999999999999</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="F574">
-        <v>4.78</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -25623,7 +25623,7 @@
         <v>-17.22</v>
       </c>
       <c r="F575">
-        <v>15.97</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -25683,7 +25683,7 @@
         <v>4.73</v>
       </c>
       <c r="F578">
-        <v>-1.81</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -25823,7 +25823,7 @@
         <v>0</v>
       </c>
       <c r="F585">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -25943,7 +25943,7 @@
         <v>2.91</v>
       </c>
       <c r="F591">
-        <v>0.26</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -26103,7 +26103,7 @@
         <v>1.98</v>
       </c>
       <c r="F599">
-        <v>7.75</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -26123,7 +26123,7 @@
         <v>4.97</v>
       </c>
       <c r="F600">
-        <v>-25.26</v>
+        <v>-26.32</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -26183,7 +26183,7 @@
         <v>-4.97</v>
       </c>
       <c r="F603">
-        <v>-17.44</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -26203,7 +26203,7 @@
         <v>9.700000000000001</v>
       </c>
       <c r="F604">
-        <v>-5.79</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -26223,7 +26223,7 @@
         <v>-25.3</v>
       </c>
       <c r="F605">
-        <v>28.57</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -26243,7 +26243,7 @@
         <v>-25.3</v>
       </c>
       <c r="F606">
-        <v>34.39</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -26263,7 +26263,7 @@
         <v>34.35</v>
       </c>
       <c r="F607">
-        <v>-7.77</v>
+        <v>-13.27</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -26283,7 +26283,7 @@
         <v>0</v>
       </c>
       <c r="F608">
-        <v>-2.41</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -26303,7 +26303,7 @@
         <v>18.27</v>
       </c>
       <c r="F609">
-        <v>-1.63</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -26343,7 +26343,7 @@
         <v>0.89</v>
       </c>
       <c r="F611">
-        <v>5.31</v>
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -26363,7 +26363,7 @@
         <v>0.89</v>
       </c>
       <c r="F612">
-        <v>5.31</v>
+        <v>5.899999999999999</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -26443,7 +26443,7 @@
         <v>7.140000000000001</v>
       </c>
       <c r="F616">
-        <v>2.69</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -26483,7 +26483,7 @@
         <v>9.470000000000001</v>
       </c>
       <c r="F618">
-        <v>7.27</v>
+        <v>7.960000000000001</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -26603,7 +26603,7 @@
         <v>-14.86</v>
       </c>
       <c r="F624">
-        <v>18.46</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -26623,7 +26623,7 @@
         <v>-8.07</v>
       </c>
       <c r="F625">
-        <v>4.95</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -26663,7 +26663,7 @@
         <v>-18.28</v>
       </c>
       <c r="F627">
-        <v>25</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -26683,7 +26683,7 @@
         <v>-20.4</v>
       </c>
       <c r="F628">
-        <v>13.87</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -26703,7 +26703,7 @@
         <v>-18.28</v>
       </c>
       <c r="F629">
-        <v>25</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -27063,7 +27063,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F647">
-        <v>4.95</v>
+        <v>5.489999999999999</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -27083,7 +27083,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F648">
-        <v>7.140000000000001</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -27103,7 +27103,7 @@
         <v>-8.540000000000001</v>
       </c>
       <c r="F649">
-        <v>7.140000000000001</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -27123,7 +27123,7 @@
         <v>2.1</v>
       </c>
       <c r="F650">
-        <v>0.26</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="F651">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -27223,7 +27223,7 @@
         <v>4.73</v>
       </c>
       <c r="F655">
-        <v>-1.81</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -27243,7 +27243,7 @@
         <v>0</v>
       </c>
       <c r="F656">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -27283,7 +27283,7 @@
         <v>0</v>
       </c>
       <c r="F658">
-        <v>1.3</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -27343,7 +27343,7 @@
         <v>3.64</v>
       </c>
       <c r="F661">
-        <v>-0.88</v>
+        <v>-4.390000000000001</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -27483,7 +27483,7 @@
         <v>-13.17</v>
       </c>
       <c r="F668">
-        <v>9.520000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -27503,7 +27503,7 @@
         <v>19.96</v>
       </c>
       <c r="F669">
-        <v>-12.63</v>
+        <v>-14.48</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -27683,7 +27683,7 @@
         <v>-11.42</v>
       </c>
       <c r="F678">
-        <v>8.369999999999999</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="F679">
-        <v>20.1</v>
+        <v>21.11</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -27843,7 +27843,7 @@
         <v>0</v>
       </c>
       <c r="F686">
-        <v>-7.249999999999999</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="687" spans="1:6">
@@ -27923,7 +27923,7 @@
         <v>3.04</v>
       </c>
       <c r="F690">
-        <v>-3.91</v>
+        <v>-8.52</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -28003,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="F694">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="F713">
-        <v>10.08</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -28443,7 +28443,7 @@
         <v>0</v>
       </c>
       <c r="F716">
-        <v>-2.69</v>
+        <v>-6.11</v>
       </c>
     </row>
     <row r="717" spans="1:6">
@@ -28463,7 +28463,7 @@
         <v>0</v>
       </c>
       <c r="F717">
-        <v>-2.31</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="718" spans="1:6">
@@ -28483,7 +28483,7 @@
         <v>0</v>
       </c>
       <c r="F718">
-        <v>-1.33</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="F719">
-        <v>-2.98</v>
+        <v>-6.239999999999999</v>
       </c>
     </row>
     <row r="720" spans="1:6">
@@ -28583,7 +28583,7 @@
         <v>0</v>
       </c>
       <c r="F723">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="724" spans="1:6">
@@ -28903,7 +28903,7 @@
         <v>0</v>
       </c>
       <c r="F739">
-        <v>2.75</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -28943,7 +28943,7 @@
         <v>0.61</v>
       </c>
       <c r="F741">
-        <v>-3.76</v>
+        <v>-6.600000000000001</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -28963,7 +28963,7 @@
         <v>0.61</v>
       </c>
       <c r="F742">
-        <v>-3.76</v>
+        <v>-6.600000000000001</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="F743">
-        <v>-12.26</v>
+        <v>-12.78</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -29003,7 +29003,7 @@
         <v>0</v>
       </c>
       <c r="F744">
-        <v>-12.26</v>
+        <v>-12.78</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -29083,7 +29083,7 @@
         <v>-16.71</v>
       </c>
       <c r="F748">
-        <v>18.73</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="749" spans="1:6">
@@ -29103,7 +29103,7 @@
         <v>-18.13</v>
       </c>
       <c r="F749">
-        <v>21.61</v>
+        <v>22.51</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -29143,7 +29143,7 @@
         <v>1.91</v>
       </c>
       <c r="F751">
-        <v>-2.1</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="752" spans="1:6">
@@ -29243,7 +29243,7 @@
         <v>0</v>
       </c>
       <c r="F756">
-        <v>-1.71</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="757" spans="1:6">
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F762">
-        <v>-1.71</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="763" spans="1:6">
@@ -29403,7 +29403,7 @@
         <v>-4.34</v>
       </c>
       <c r="F764">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="765" spans="1:6">
@@ -29423,7 +29423,7 @@
         <v>-3.88</v>
       </c>
       <c r="F765">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="766" spans="1:6">
@@ -29503,7 +29503,7 @@
         <v>0</v>
       </c>
       <c r="F769">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -29563,7 +29563,7 @@
         <v>-2.18</v>
       </c>
       <c r="F772">
-        <v>6.84</v>
+        <v>8.110000000000001</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -29803,7 +29803,7 @@
         <v>9.25</v>
       </c>
       <c r="F784">
-        <v>-9.470000000000001</v>
+        <v>-9.84</v>
       </c>
     </row>
     <row r="785" spans="1:6">
@@ -29823,7 +29823,7 @@
         <v>27.67</v>
       </c>
       <c r="F785">
-        <v>-24.26</v>
+        <v>-25.27</v>
       </c>
     </row>
     <row r="786" spans="1:6">
@@ -29843,7 +29843,7 @@
         <v>9.25</v>
       </c>
       <c r="F786">
-        <v>-9.470000000000001</v>
+        <v>-9.84</v>
       </c>
     </row>
     <row r="787" spans="1:6">
@@ -29963,7 +29963,7 @@
         <v>-16.71</v>
       </c>
       <c r="F792">
-        <v>18.73</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="793" spans="1:6">
@@ -29983,7 +29983,7 @@
         <v>-23.12</v>
       </c>
       <c r="F793">
-        <v>18.73</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="794" spans="1:6">
@@ -30203,7 +30203,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="F804">
-        <v>11.18</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -30223,7 +30223,7 @@
         <v>-9.049999999999999</v>
       </c>
       <c r="F805">
-        <v>11.18</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -30243,7 +30243,7 @@
         <v>-27.46</v>
       </c>
       <c r="F806">
-        <v>42.4</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -30363,7 +30363,7 @@
         <v>-20.96</v>
       </c>
       <c r="F812">
-        <v>33.93</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -30383,7 +30383,7 @@
         <v>-20.96</v>
       </c>
       <c r="F813">
-        <v>25.46</v>
+        <v>28.27</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -30423,7 +30423,7 @@
         <v>-27.46</v>
       </c>
       <c r="F815">
-        <v>42.4</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="816" spans="1:6">
@@ -30443,7 +30443,7 @@
         <v>-27.46</v>
       </c>
       <c r="F816">
-        <v>42.4</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="817" spans="1:6">
@@ -30463,7 +30463,7 @@
         <v>-27.46</v>
       </c>
       <c r="F817">
-        <v>42.4</v>
+        <v>44.15</v>
       </c>
     </row>
     <row r="818" spans="1:6">
@@ -30623,7 +30623,7 @@
         <v>14.52</v>
       </c>
       <c r="F825">
-        <v>5.050000000000001</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="826" spans="1:6">
@@ -30643,7 +30643,7 @@
         <v>0.61</v>
       </c>
       <c r="F826">
-        <v>-3.76</v>
+        <v>-6.600000000000001</v>
       </c>
     </row>
     <row r="827" spans="1:6">
@@ -30763,7 +30763,7 @@
         <v>0</v>
       </c>
       <c r="F832">
-        <v>46.38</v>
+        <v>48.26</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -30963,7 +30963,7 @@
         <v>0</v>
       </c>
       <c r="F842">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -31323,7 +31323,7 @@
         <v>0</v>
       </c>
       <c r="F860">
-        <v>6.02</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -31343,7 +31343,7 @@
         <v>0</v>
       </c>
       <c r="F861">
-        <v>12.02</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -31443,7 +31443,7 @@
         <v>0</v>
       </c>
       <c r="F866">
-        <v>0</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -31623,7 +31623,7 @@
         <v>-20.45</v>
       </c>
       <c r="F875">
-        <v>5.93</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="876" spans="1:6">
@@ -31703,7 +31703,7 @@
         <v>-19.78</v>
       </c>
       <c r="F879">
-        <v>18.89</v>
+        <v>19.85</v>
       </c>
     </row>
     <row r="880" spans="1:6">
@@ -31723,7 +31723,7 @@
         <v>-20.45</v>
       </c>
       <c r="F880">
-        <v>24.02</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="881" spans="1:6">
@@ -31923,7 +31923,7 @@
         <v>-13.24</v>
       </c>
       <c r="F890">
-        <v>9.92</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="891" spans="1:6">
@@ -31943,7 +31943,7 @@
         <v>-6.9</v>
       </c>
       <c r="F891">
-        <v>4.82</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -31963,7 +31963,7 @@
         <v>-7.180000000000001</v>
       </c>
       <c r="F892">
-        <v>5.029999999999999</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -32103,7 +32103,7 @@
         <v>0</v>
       </c>
       <c r="F899">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -32363,7 +32363,7 @@
         <v>0</v>
       </c>
       <c r="F912">
-        <v>-3.06</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="913" spans="1:6">
@@ -32463,7 +32463,7 @@
         <v>0.08</v>
       </c>
       <c r="F917">
-        <v>-24.61</v>
+        <v>-25.64</v>
       </c>
     </row>
     <row r="918" spans="1:6">
@@ -32543,7 +32543,7 @@
         <v>0</v>
       </c>
       <c r="F921">
-        <v>-2.22</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -32903,7 +32903,7 @@
         <v>0</v>
       </c>
       <c r="F939">
-        <v>-7.630000000000001</v>
+        <v>-12.7</v>
       </c>
     </row>
     <row r="940" spans="1:6">
@@ -32923,7 +32923,7 @@
         <v>4.22</v>
       </c>
       <c r="F940">
-        <v>0.39</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="941" spans="1:6">
@@ -32943,7 +32943,7 @@
         <v>0</v>
       </c>
       <c r="F941">
-        <v>-4.77</v>
+        <v>-7.93</v>
       </c>
     </row>
     <row r="942" spans="1:6">
@@ -32963,7 +32963,7 @@
         <v>0</v>
       </c>
       <c r="F942">
-        <v>-2.46</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="943" spans="1:6">
@@ -32983,7 +32983,7 @@
         <v>0</v>
       </c>
       <c r="F943">
-        <v>-0.67</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="944" spans="1:6">
@@ -33003,7 +33003,7 @@
         <v>18.64</v>
       </c>
       <c r="F944">
-        <v>4.46</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="945" spans="1:6">
@@ -33183,7 +33183,7 @@
         <v>-4.8</v>
       </c>
       <c r="F953">
-        <v>-2.85</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -33583,7 +33583,7 @@
         <v>4.84</v>
       </c>
       <c r="F973">
-        <v>-1.43</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="974" spans="1:6">
@@ -33663,7 +33663,7 @@
         <v>-41.24</v>
       </c>
       <c r="F977">
-        <v>36.27</v>
+        <v>39.04</v>
       </c>
     </row>
     <row r="978" spans="1:6">
@@ -33783,7 +33783,7 @@
         <v>0</v>
       </c>
       <c r="F983">
-        <v>-2.62</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="984" spans="1:6">
@@ -33803,7 +33803,7 @@
         <v>0</v>
       </c>
       <c r="F984">
-        <v>1.02</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -33843,7 +33843,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="F986">
-        <v>-8.4</v>
+        <v>-11.36</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="F988">
-        <v>-3.06</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -33923,7 +33923,7 @@
         <v>0</v>
       </c>
       <c r="F990">
-        <v>-0.6799999999999999</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -33983,7 +33983,7 @@
         <v>0</v>
       </c>
       <c r="F993">
-        <v>-4.94</v>
+        <v>-8.23</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -34043,7 +34043,7 @@
         <v>14.55</v>
       </c>
       <c r="F996">
-        <v>-4.09</v>
+        <v>-6.72</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -34063,7 +34063,7 @@
         <v>-1.73</v>
       </c>
       <c r="F997">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -34083,7 +34083,7 @@
         <v>0.91</v>
       </c>
       <c r="F998">
-        <v>-3.92</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="999" spans="1:6">
@@ -34163,7 +34163,7 @@
         <v>0</v>
       </c>
       <c r="F1002">
-        <v>0</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="1003" spans="1:6">
@@ -34203,7 +34203,7 @@
         <v>-12.45</v>
       </c>
       <c r="F1004">
-        <v>-2.29</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="1005" spans="1:6">
@@ -34223,7 +34223,7 @@
         <v>-12.45</v>
       </c>
       <c r="F1005">
-        <v>7.68</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="1006" spans="1:6">
@@ -34263,7 +34263,7 @@
         <v>-12.45</v>
       </c>
       <c r="F1007">
-        <v>7.68</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="1008" spans="1:6">
@@ -34343,7 +34343,7 @@
         <v>0</v>
       </c>
       <c r="F1011">
-        <v>-3.25</v>
+        <v>-5.850000000000001</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -34383,7 +34383,7 @@
         <v>0</v>
       </c>
       <c r="F1013">
-        <v>-0.7799999999999999</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="1014" spans="1:6">
@@ -34543,7 +34543,7 @@
         <v>4.01</v>
       </c>
       <c r="F1021">
-        <v>-6.94</v>
+        <v>-7.13</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -34803,7 +34803,7 @@
         <v>0</v>
       </c>
       <c r="F1034">
-        <v>0</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="1035" spans="1:6">
@@ -34823,7 +34823,7 @@
         <v>-3.06</v>
       </c>
       <c r="F1035">
-        <v>-1.27</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="1036" spans="1:6">
@@ -35023,7 +35023,7 @@
         <v>-1.27</v>
       </c>
       <c r="F1045">
-        <v>6.87</v>
+        <v>7.149999999999999</v>
       </c>
     </row>
     <row r="1046" spans="1:6">
@@ -35063,7 +35063,7 @@
         <v>27.31</v>
       </c>
       <c r="F1047">
-        <v>-6.419999999999999</v>
+        <v>-9.02</v>
       </c>
     </row>
     <row r="1048" spans="1:6">
@@ -35163,7 +35163,7 @@
         <v>0</v>
       </c>
       <c r="F1052">
-        <v>0</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -35423,7 +35423,7 @@
         <v>0</v>
       </c>
       <c r="F1065">
-        <v>-5.01</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="1066" spans="1:6">
@@ -35583,7 +35583,7 @@
         <v>-6.239999999999999</v>
       </c>
       <c r="F1073">
-        <v>27.97</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="1074" spans="1:6">
@@ -35623,7 +35623,7 @@
         <v>0</v>
       </c>
       <c r="F1075">
-        <v>20.57</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -35723,7 +35723,7 @@
         <v>9.049999999999999</v>
       </c>
       <c r="F1080">
-        <v>-5.38</v>
+        <v>-5.899999999999999</v>
       </c>
     </row>
     <row r="1081" spans="1:6">
@@ -35743,7 +35743,7 @@
         <v>-10.65</v>
       </c>
       <c r="F1081">
-        <v>6.460000000000001</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -35763,7 +35763,7 @@
         <v>-10.65</v>
       </c>
       <c r="F1082">
-        <v>6.460000000000001</v>
+        <v>7.27</v>
       </c>
     </row>
     <row r="1083" spans="1:6">
@@ -35803,7 +35803,7 @@
         <v>-6.140000000000001</v>
       </c>
       <c r="F1084">
-        <v>5.52</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -35823,7 +35823,7 @@
         <v>-6.140000000000001</v>
       </c>
       <c r="F1085">
-        <v>7.35</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -35883,7 +35883,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1088">
-        <v>14.77</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="1089" spans="1:6">
@@ -35903,7 +35903,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1089">
-        <v>14.77</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="1090" spans="1:6">
@@ -35923,7 +35923,7 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="F1090">
-        <v>6.29</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="1091" spans="1:6">
@@ -35963,7 +35963,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1092">
-        <v>14.94</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="1093" spans="1:6">
@@ -35983,7 +35983,7 @@
         <v>-11.69</v>
       </c>
       <c r="F1093">
-        <v>14.77</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="1094" spans="1:6">
@@ -36123,7 +36123,7 @@
         <v>2.34</v>
       </c>
       <c r="F1100">
-        <v>11.65</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="1101" spans="1:6">
@@ -36143,7 +36143,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="F1101">
-        <v>11.65</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="1102" spans="1:6">
@@ -36163,7 +36163,7 @@
         <v>2.34</v>
       </c>
       <c r="F1102">
-        <v>11.65</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="1103" spans="1:6">
@@ -36243,7 +36243,7 @@
         <v>2.34</v>
       </c>
       <c r="F1106">
-        <v>11.65</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="1107" spans="1:6">
@@ -36303,7 +36303,7 @@
         <v>0</v>
       </c>
       <c r="F1109">
-        <v>-11.46</v>
+        <v>-11.89</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -36323,7 +36323,7 @@
         <v>0</v>
       </c>
       <c r="F1110">
-        <v>-5.73</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -36343,7 +36343,7 @@
         <v>0</v>
       </c>
       <c r="F1111">
-        <v>-11.46</v>
+        <v>-11.89</v>
       </c>
     </row>
     <row r="1112" spans="1:6">
@@ -36503,7 +36503,7 @@
         <v>-2.1</v>
       </c>
       <c r="F1119">
-        <v>-11.46</v>
+        <v>-11.89</v>
       </c>
     </row>
     <row r="1120" spans="1:6">
@@ -36523,7 +36523,7 @@
         <v>-19.8</v>
       </c>
       <c r="F1120">
-        <v>13.16</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="1121" spans="1:6">
@@ -36563,7 +36563,7 @@
         <v>0</v>
       </c>
       <c r="F1122">
-        <v>-18.49</v>
+        <v>-19.26</v>
       </c>
     </row>
     <row r="1123" spans="1:6">
@@ -36823,7 +36823,7 @@
         <v>0</v>
       </c>
       <c r="F1135">
-        <v>-21.07</v>
+        <v>-26.39</v>
       </c>
     </row>
     <row r="1136" spans="1:6">
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="F1136">
-        <v>29.18</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="1137" spans="1:6">
@@ -37043,7 +37043,7 @@
         <v>11.62</v>
       </c>
       <c r="F1146">
-        <v>21.43</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="1147" spans="1:6">
@@ -37283,7 +37283,7 @@
         <v>-2.26</v>
       </c>
       <c r="F1158">
-        <v>16.9</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="1159" spans="1:6">
@@ -37443,7 +37443,7 @@
         <v>33.14</v>
       </c>
       <c r="F1166">
-        <v>15.43</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="1167" spans="1:6">
@@ -37543,7 +37543,7 @@
         <v>2.15</v>
       </c>
       <c r="F1171">
-        <v>-0.83</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="1172" spans="1:6">
@@ -37563,7 +37563,7 @@
         <v>2.15</v>
       </c>
       <c r="F1172">
-        <v>-0.83</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="1173" spans="1:6">
@@ -37583,7 +37583,7 @@
         <v>2.84</v>
       </c>
       <c r="F1173">
-        <v>-1.67</v>
+        <v>-4.24</v>
       </c>
     </row>
     <row r="1174" spans="1:6">
@@ -37643,7 +37643,7 @@
         <v>1.95</v>
       </c>
       <c r="F1176">
-        <v>-0.76</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="1177" spans="1:6">
@@ -37663,7 +37663,7 @@
         <v>0</v>
       </c>
       <c r="F1177">
-        <v>-0.29</v>
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="1178" spans="1:6">
@@ -37703,7 +37703,7 @@
         <v>0.76</v>
       </c>
       <c r="F1179">
-        <v>0.05</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="1180" spans="1:6">
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="F1184">
-        <v>10.91</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="1185" spans="1:6">
@@ -37863,7 +37863,7 @@
         <v>0</v>
       </c>
       <c r="F1187">
-        <v>-14.72</v>
+        <v>-16.36</v>
       </c>
     </row>
     <row r="1188" spans="1:6">
@@ -37883,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="F1188">
-        <v>-4.91</v>
+        <v>-8.18</v>
       </c>
     </row>
     <row r="1189" spans="1:6">
@@ -38743,7 +38743,7 @@
         <v>-6.63</v>
       </c>
       <c r="F1231">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="1232" spans="1:6">
@@ -39263,7 +39263,7 @@
         <v>-2.7</v>
       </c>
       <c r="F1257">
-        <v>1.8</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="1258" spans="1:6">
@@ -39343,7 +39343,7 @@
         <v>0</v>
       </c>
       <c r="F1261">
-        <v>8.029999999999999</v>
+        <v>9.030000000000001</v>
       </c>
     </row>
     <row r="1262" spans="1:6">
@@ -39383,7 +39383,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1263">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -39403,7 +39403,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1264">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -39423,7 +39423,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1265">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1266" spans="1:6">
@@ -39443,7 +39443,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1266">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -39463,7 +39463,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1267">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1268" spans="1:6">
@@ -39483,7 +39483,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1268">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -39503,7 +39503,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1269">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -39523,7 +39523,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1270">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1271" spans="1:6">
@@ -39543,7 +39543,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1271">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1272" spans="1:6">
@@ -39563,7 +39563,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1272">
-        <v>17.52</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="1273" spans="1:6">
@@ -39583,7 +39583,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1273">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1274" spans="1:6">
@@ -39603,7 +39603,7 @@
         <v>-24.75</v>
       </c>
       <c r="F1274">
-        <v>25.2</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="1275" spans="1:6">
@@ -39703,7 +39703,7 @@
         <v>0</v>
       </c>
       <c r="F1279">
-        <v>10.76</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="1280" spans="1:6">
@@ -39803,7 +39803,7 @@
         <v>6.76</v>
       </c>
       <c r="F1284">
-        <v>-4.44</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="1285" spans="1:6">
@@ -39823,7 +39823,7 @@
         <v>0</v>
       </c>
       <c r="F1285">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="1286" spans="1:6">
@@ -40063,7 +40063,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1297">
-        <v>24.95</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -40083,7 +40083,7 @@
         <v>-15.44</v>
       </c>
       <c r="F1298">
-        <v>23.64</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -40103,7 +40103,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1299">
-        <v>24.95</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -40123,7 +40123,7 @@
         <v>-15.44</v>
       </c>
       <c r="F1300">
-        <v>23.64</v>
+        <v>24.88</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -40143,7 +40143,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1301">
-        <v>24.95</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="1302" spans="1:6">
@@ -40163,7 +40163,7 @@
         <v>-16.33</v>
       </c>
       <c r="F1302">
-        <v>24.95</v>
+        <v>26.21</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -40203,7 +40203,7 @@
         <v>-11.01</v>
       </c>
       <c r="F1304">
-        <v>-13.58</v>
+        <v>-9.26</v>
       </c>
     </row>
     <row r="1305" spans="1:6">
@@ -40223,7 +40223,7 @@
         <v>-11.01</v>
       </c>
       <c r="F1305">
-        <v>-4.93</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="1306" spans="1:6">
@@ -40263,7 +40263,7 @@
         <v>0</v>
       </c>
       <c r="F1307">
-        <v>-6.35</v>
+        <v>-10.58</v>
       </c>
     </row>
     <row r="1308" spans="1:6">
@@ -40483,7 +40483,7 @@
         <v>0.98</v>
       </c>
       <c r="F1318">
-        <v>2.68</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="1319" spans="1:6">
@@ -40503,7 +40503,7 @@
         <v>-17.84</v>
       </c>
       <c r="F1319">
-        <v>24.43</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="1320" spans="1:6">
@@ -40543,7 +40543,7 @@
         <v>-17.84</v>
       </c>
       <c r="F1321">
-        <v>24.43</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="1322" spans="1:6">
@@ -40563,7 +40563,7 @@
         <v>0.98</v>
       </c>
       <c r="F1322">
-        <v>4.01</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="1323" spans="1:6">
@@ -40923,7 +40923,7 @@
         <v>0</v>
       </c>
       <c r="F1340">
-        <v>-0.9199999999999999</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="1341" spans="1:6">
@@ -40963,7 +40963,7 @@
         <v>4.48</v>
       </c>
       <c r="F1342">
-        <v>-21.56</v>
+        <v>-21.86</v>
       </c>
     </row>
     <row r="1343" spans="1:6">
@@ -40983,7 +40983,7 @@
         <v>0</v>
       </c>
       <c r="F1343">
-        <v>6.02</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="1344" spans="1:6">
@@ -41143,7 +41143,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1351">
-        <v>-10.05</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="1352" spans="1:6">
@@ -41163,7 +41163,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1352">
-        <v>-10.05</v>
+        <v>-10.55</v>
       </c>
     </row>
     <row r="1353" spans="1:6">
@@ -41203,7 +41203,7 @@
         <v>-11.36</v>
       </c>
       <c r="F1354">
-        <v>9.049999999999999</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="1355" spans="1:6">
@@ -41263,7 +41263,7 @@
         <v>0</v>
       </c>
       <c r="F1357">
-        <v>17.16</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="1358" spans="1:6">
@@ -41303,7 +41303,7 @@
         <v>0</v>
       </c>
       <c r="F1359">
-        <v>4.88</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="1360" spans="1:6">
@@ -41343,7 +41343,7 @@
         <v>-14.19</v>
       </c>
       <c r="F1361">
-        <v>-10.04</v>
+        <v>-10.34</v>
       </c>
     </row>
     <row r="1362" spans="1:6">
@@ -41743,7 +41743,7 @@
         <v>0</v>
       </c>
       <c r="F1381">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1382" spans="1:6">
@@ -41883,7 +41883,7 @@
         <v>0</v>
       </c>
       <c r="F1388">
-        <v>-4.859999999999999</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="1389" spans="1:6">
@@ -42223,7 +42223,7 @@
         <v>0</v>
       </c>
       <c r="F1405">
-        <v>-3.19</v>
+        <v>-9.859999999999999</v>
       </c>
     </row>
     <row r="1406" spans="1:6">
@@ -42243,7 +42243,7 @@
         <v>0</v>
       </c>
       <c r="F1406">
-        <v>-3.19</v>
+        <v>-9.859999999999999</v>
       </c>
     </row>
     <row r="1407" spans="1:6">
@@ -42263,7 +42263,7 @@
         <v>0</v>
       </c>
       <c r="F1407">
-        <v>-3.19</v>
+        <v>-9.859999999999999</v>
       </c>
     </row>
     <row r="1408" spans="1:6">
@@ -42343,7 +42343,7 @@
         <v>0</v>
       </c>
       <c r="F1411">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="1412" spans="1:6">
@@ -42383,7 +42383,7 @@
         <v>7.59</v>
       </c>
       <c r="F1413">
-        <v>2.79</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="1414" spans="1:6">
@@ -42523,7 +42523,7 @@
         <v>0</v>
       </c>
       <c r="F1420">
-        <v>2.89</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="1421" spans="1:6">
@@ -42803,7 +42803,7 @@
         <v>-27.67</v>
       </c>
       <c r="F1434">
-        <v>29.33</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="1435" spans="1:6">
@@ -42903,7 +42903,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="F1439">
-        <v>-19.44</v>
+        <v>-14.37</v>
       </c>
     </row>
     <row r="1440" spans="1:6">
@@ -43043,7 +43043,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1446">
-        <v>3.83</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="1447" spans="1:6">
@@ -43063,7 +43063,7 @@
         <v>6.75</v>
       </c>
       <c r="F1447">
-        <v>-4.47</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="1448" spans="1:6">
@@ -43083,7 +43083,7 @@
         <v>9.49</v>
       </c>
       <c r="F1448">
-        <v>-6.13</v>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="1449" spans="1:6">
@@ -43103,7 +43103,7 @@
         <v>7.539999999999999</v>
       </c>
       <c r="F1449">
-        <v>-4.91</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="1450" spans="1:6">
@@ -43123,7 +43123,7 @@
         <v>3.79</v>
       </c>
       <c r="F1450">
-        <v>-3.88</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="1451" spans="1:6">
@@ -43143,7 +43143,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1451">
-        <v>3.83</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="1452" spans="1:6">
@@ -43163,7 +43163,7 @@
         <v>-5.21</v>
       </c>
       <c r="F1452">
-        <v>2.41</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="1453" spans="1:6">
@@ -43183,7 +43183,7 @@
         <v>-2.29</v>
       </c>
       <c r="F1453">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="1454" spans="1:6">
@@ -43203,7 +43203,7 @@
         <v>-11.31</v>
       </c>
       <c r="F1454">
-        <v>3.83</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="1455" spans="1:6">
@@ -43263,7 +43263,7 @@
         <v>0</v>
       </c>
       <c r="F1457">
-        <v>-10.41</v>
+        <v>-13.02</v>
       </c>
     </row>
     <row r="1458" spans="1:6">
@@ -43283,7 +43283,7 @@
         <v>0</v>
       </c>
       <c r="F1458">
-        <v>-28.04</v>
+        <v>-31.11</v>
       </c>
     </row>
     <row r="1459" spans="1:6">
@@ -43303,7 +43303,7 @@
         <v>-1.12</v>
       </c>
       <c r="F1459">
-        <v>12.41</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="1460" spans="1:6">
@@ -43323,7 +43323,7 @@
         <v>6.909999999999999</v>
       </c>
       <c r="F1460">
-        <v>3.96</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="1461" spans="1:6">
@@ -43443,7 +43443,7 @@
         <v>0</v>
       </c>
       <c r="F1466">
-        <v>3.98</v>
+        <v>4.390000000000001</v>
       </c>
     </row>
     <row r="1467" spans="1:6">
@@ -43463,7 +43463,7 @@
         <v>13.98</v>
       </c>
       <c r="F1467">
-        <v>4.12</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="1468" spans="1:6">
@@ -43483,7 +43483,7 @@
         <v>0</v>
       </c>
       <c r="F1468">
-        <v>-2.1</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="1469" spans="1:6">
@@ -43543,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="F1471">
-        <v>18.25</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="1472" spans="1:6">
@@ -43603,7 +43603,7 @@
         <v>-2.41</v>
       </c>
       <c r="F1474">
-        <v>-3.53</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="1475" spans="1:6">
@@ -43623,7 +43623,7 @@
         <v>7.430000000000001</v>
       </c>
       <c r="F1475">
-        <v>-2.08</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="1476" spans="1:6">
@@ -43663,7 +43663,7 @@
         <v>0</v>
       </c>
       <c r="F1477">
-        <v>3.03</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="1478" spans="1:6">
@@ -43743,7 +43743,7 @@
         <v>0</v>
       </c>
       <c r="F1481">
-        <v>-5.46</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -43843,7 +43843,7 @@
         <v>-12.57</v>
       </c>
       <c r="F1486">
-        <v>20.1</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -43863,7 +43863,7 @@
         <v>-12.57</v>
       </c>
       <c r="F1487">
-        <v>20.1</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -44243,7 +44243,7 @@
         <v>28.09</v>
       </c>
       <c r="F1506">
-        <v>-1.56</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1507" spans="1:6">
@@ -44263,7 +44263,7 @@
         <v>28.09</v>
       </c>
       <c r="F1507">
-        <v>-1.56</v>
+        <v>-5.050000000000001</v>
       </c>
     </row>
     <row r="1508" spans="1:6">
@@ -44703,7 +44703,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="F1529">
-        <v>-1.67</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="1530" spans="1:6">
@@ -44723,7 +44723,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="F1530">
-        <v>-1.67</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="1531" spans="1:6">
@@ -44743,7 +44743,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="F1531">
-        <v>-1.67</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="1532" spans="1:6">
@@ -44763,7 +44763,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="F1532">
-        <v>-1.67</v>
+        <v>-5.56</v>
       </c>
     </row>
     <row r="1533" spans="1:6">
@@ -44783,7 +44783,7 @@
         <v>35.86</v>
       </c>
       <c r="F1533">
-        <v>-0.52</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="1534" spans="1:6">
@@ -44863,7 +44863,7 @@
         <v>0</v>
       </c>
       <c r="F1537">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="1538" spans="1:6">
@@ -45043,7 +45043,7 @@
         <v>-1.74</v>
       </c>
       <c r="F1546">
-        <v>-2.05</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -45063,7 +45063,7 @@
         <v>-1.74</v>
       </c>
       <c r="F1547">
-        <v>-2.05</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="1548" spans="1:6">
@@ -45083,7 +45083,7 @@
         <v>-0.8699999999999999</v>
       </c>
       <c r="F1548">
-        <v>-4.2</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="1549" spans="1:6">
@@ -45103,7 +45103,7 @@
         <v>-0.8699999999999999</v>
       </c>
       <c r="F1549">
-        <v>-4.2</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="1550" spans="1:6">
@@ -45123,7 +45123,7 @@
         <v>0.06999999999999999</v>
       </c>
       <c r="F1550">
-        <v>-13.34</v>
+        <v>-16.68</v>
       </c>
     </row>
     <row r="1551" spans="1:6">
@@ -45483,7 +45483,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1568">
-        <v>33.93</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="1569" spans="1:6">
@@ -45503,7 +45503,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1569">
-        <v>29.38</v>
+        <v>29.65</v>
       </c>
     </row>
     <row r="1570" spans="1:6">
@@ -45543,7 +45543,7 @@
         <v>0</v>
       </c>
       <c r="F1571">
-        <v>3.09</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="1572" spans="1:6">
@@ -45563,7 +45563,7 @@
         <v>-27.46</v>
       </c>
       <c r="F1572">
-        <v>39.39</v>
+        <v>40.82</v>
       </c>
     </row>
     <row r="1573" spans="1:6">
@@ -45583,7 +45583,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1573">
-        <v>33.93</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="1574" spans="1:6">
@@ -45603,7 +45603,7 @@
         <v>0</v>
       </c>
       <c r="F1574">
-        <v>0.77</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="1575" spans="1:6">
@@ -45623,7 +45623,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1575">
-        <v>33.93</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="1576" spans="1:6">
@@ -45663,7 +45663,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1577">
-        <v>24.67</v>
+        <v>25.04</v>
       </c>
     </row>
     <row r="1578" spans="1:6">
@@ -45743,7 +45743,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1581">
-        <v>33.93</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -45763,7 +45763,7 @@
         <v>-20.96</v>
       </c>
       <c r="F1582">
-        <v>33.93</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="1583" spans="1:6">
@@ -45903,7 +45903,7 @@
         <v>-7.85</v>
       </c>
       <c r="F1589">
-        <v>0.5700000000000001</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="1590" spans="1:6">
@@ -45923,7 +45923,7 @@
         <v>-4.399999999999999</v>
       </c>
       <c r="F1590">
-        <v>0.27</v>
+        <v>0.9900000000000001</v>
       </c>
     </row>
     <row r="1591" spans="1:6">
@@ -45943,7 +45943,7 @@
         <v>-19.78</v>
       </c>
       <c r="F1591">
-        <v>1.63</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="1592" spans="1:6">
@@ -45963,7 +45963,7 @@
         <v>-11.38</v>
       </c>
       <c r="F1592">
-        <v>0.86</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="1593" spans="1:6">
@@ -46083,7 +46083,7 @@
         <v>0</v>
       </c>
       <c r="F1598">
-        <v>20.03</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="1599" spans="1:6">
@@ -46103,7 +46103,7 @@
         <v>0</v>
       </c>
       <c r="F1599">
-        <v>15.03</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="1600" spans="1:6">
@@ -46203,7 +46203,7 @@
         <v>7.5</v>
       </c>
       <c r="F1604">
-        <v>-7.32</v>
+        <v>-6.41</v>
       </c>
     </row>
     <row r="1605" spans="1:6">
@@ -46223,7 +46223,7 @@
         <v>-15.1</v>
       </c>
       <c r="F1605">
-        <v>15.41</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="1606" spans="1:6">
@@ -46243,7 +46243,7 @@
         <v>9.76</v>
       </c>
       <c r="F1606">
-        <v>-6.959999999999999</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="1607" spans="1:6">
@@ -46263,7 +46263,7 @@
         <v>-16.54</v>
       </c>
       <c r="F1607">
-        <v>11.98</v>
+        <v>13.77</v>
       </c>
     </row>
     <row r="1608" spans="1:6">
@@ -46283,7 +46283,7 @@
         <v>-12.09</v>
       </c>
       <c r="F1608">
-        <v>-24.78</v>
+        <v>-18.39</v>
       </c>
     </row>
     <row r="1609" spans="1:6">
@@ -46403,7 +46403,7 @@
         <v>0</v>
       </c>
       <c r="F1614">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="1615" spans="1:6">
@@ -46463,7 +46463,7 @@
         <v>0</v>
       </c>
       <c r="F1617">
-        <v>-23.82</v>
+        <v>-24.82</v>
       </c>
     </row>
     <row r="1618" spans="1:6">
@@ -46503,7 +46503,7 @@
         <v>0</v>
       </c>
       <c r="F1619">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="1620" spans="1:6">
@@ -46523,7 +46523,7 @@
         <v>-8.260000000000002</v>
       </c>
       <c r="F1620">
-        <v>-16.1</v>
+        <v>-11.87</v>
       </c>
     </row>
     <row r="1621" spans="1:6">
@@ -46543,7 +46543,7 @@
         <v>39.6</v>
       </c>
       <c r="F1621">
-        <v>-23.56</v>
+        <v>-15.48</v>
       </c>
     </row>
     <row r="1622" spans="1:6">
@@ -46583,7 +46583,7 @@
         <v>0</v>
       </c>
       <c r="F1623">
-        <v>-5.48</v>
+        <v>-6.850000000000001</v>
       </c>
     </row>
     <row r="1624" spans="1:6">
@@ -46623,7 +46623,7 @@
         <v>0</v>
       </c>
       <c r="F1625">
-        <v>-5.48</v>
+        <v>-6.850000000000001</v>
       </c>
     </row>
     <row r="1626" spans="1:6">
@@ -46663,7 +46663,7 @@
         <v>0</v>
       </c>
       <c r="F1627">
-        <v>-8.219999999999999</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="1628" spans="1:6">
@@ -46723,7 +46723,7 @@
         <v>7.829999999999999</v>
       </c>
       <c r="F1630">
-        <v>-14.78</v>
+        <v>-16.31</v>
       </c>
     </row>
     <row r="1631" spans="1:6">
@@ -46763,7 +46763,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="F1632">
-        <v>-10.34</v>
+        <v>-7.06</v>
       </c>
     </row>
     <row r="1633" spans="1:6">
@@ -46783,7 +46783,7 @@
         <v>-21.46</v>
       </c>
       <c r="F1633">
-        <v>19.68</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="1634" spans="1:6">
@@ -46803,7 +46803,7 @@
         <v>0</v>
       </c>
       <c r="F1634">
-        <v>-2.61</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="1635" spans="1:6">
@@ -46823,7 +46823,7 @@
         <v>4.73</v>
       </c>
       <c r="F1635">
-        <v>-3.89</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="1636" spans="1:6">
@@ -46903,7 +46903,7 @@
         <v>0</v>
       </c>
       <c r="F1639">
-        <v>-6.16</v>
+        <v>-10.32</v>
       </c>
     </row>
     <row r="1640" spans="1:6">
@@ -47103,7 +47103,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1649">
-        <v>-2.48</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="1650" spans="1:6">
@@ -47123,7 +47123,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1650">
-        <v>-2.48</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="1651" spans="1:6">
@@ -47163,7 +47163,7 @@
         <v>0</v>
       </c>
       <c r="F1652">
-        <v>-10.97</v>
+        <v>-12.16</v>
       </c>
     </row>
     <row r="1653" spans="1:6">
@@ -47183,7 +47183,7 @@
         <v>0</v>
       </c>
       <c r="F1653">
-        <v>-10.97</v>
+        <v>-12.16</v>
       </c>
     </row>
     <row r="1654" spans="1:6">
@@ -47203,7 +47203,7 @@
         <v>0</v>
       </c>
       <c r="F1654">
-        <v>-10.97</v>
+        <v>-12.16</v>
       </c>
     </row>
     <row r="1655" spans="1:6">
@@ -47223,7 +47223,7 @@
         <v>0</v>
       </c>
       <c r="F1655">
-        <v>-10.97</v>
+        <v>-12.16</v>
       </c>
     </row>
     <row r="1656" spans="1:6">
@@ -47303,7 +47303,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1659">
-        <v>-6.68</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="1660" spans="1:6">
@@ -47323,7 +47323,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1660">
-        <v>-2.48</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="1661" spans="1:6">
@@ -47343,7 +47343,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1661">
-        <v>-2.48</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="1662" spans="1:6">
@@ -47363,7 +47363,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1662">
-        <v>-2.48</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="1663" spans="1:6">
@@ -47383,7 +47383,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1663">
-        <v>-2.48</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="1664" spans="1:6">
@@ -47403,7 +47403,7 @@
         <v>0.76</v>
       </c>
       <c r="F1664">
-        <v>33.84</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="1665" spans="1:6">
@@ -47423,7 +47423,7 @@
         <v>0</v>
       </c>
       <c r="F1665">
-        <v>-16.76</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="1666" spans="1:6">
@@ -47443,7 +47443,7 @@
         <v>0.76</v>
       </c>
       <c r="F1666">
-        <v>33.84</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="1667" spans="1:6">
@@ -47463,7 +47463,7 @@
         <v>0.76</v>
       </c>
       <c r="F1667">
-        <v>33.84</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="1668" spans="1:6">
@@ -47483,7 +47483,7 @@
         <v>4.27</v>
       </c>
       <c r="F1668">
-        <v>-4.33</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="1669" spans="1:6">
@@ -47503,7 +47503,7 @@
         <v>0</v>
       </c>
       <c r="F1669">
-        <v>-0.25</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="1670" spans="1:6">
@@ -47523,7 +47523,7 @@
         <v>0</v>
       </c>
       <c r="F1670">
-        <v>-6.23</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="1671" spans="1:6">
@@ -47543,7 +47543,7 @@
         <v>0</v>
       </c>
       <c r="F1671">
-        <v>-0.25</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="1672" spans="1:6">
@@ -47623,7 +47623,7 @@
         <v>-12.89</v>
       </c>
       <c r="F1675">
-        <v>-2.6</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="1676" spans="1:6">
@@ -47643,7 +47643,7 @@
         <v>-13.78</v>
       </c>
       <c r="F1676">
-        <v>19.02</v>
+        <v>18.57</v>
       </c>
     </row>
     <row r="1677" spans="1:6">
@@ -47663,7 +47663,7 @@
         <v>-13.78</v>
       </c>
       <c r="F1677">
-        <v>8.48</v>
+        <v>9.73</v>
       </c>
     </row>
     <row r="1678" spans="1:6">
@@ -47683,7 +47683,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1678">
-        <v>-6.68</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="1679" spans="1:6">
@@ -47703,7 +47703,7 @@
         <v>-5.73</v>
       </c>
       <c r="F1679">
-        <v>-6.68</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="1680" spans="1:6">
@@ -47723,7 +47723,7 @@
         <v>-2.91</v>
       </c>
       <c r="F1680">
-        <v>-5.319999999999999</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="1681" spans="1:6">
@@ -47743,7 +47743,7 @@
         <v>0</v>
       </c>
       <c r="F1681">
-        <v>-7.290000000000001</v>
+        <v>-9.139999999999999</v>
       </c>
     </row>
     <row r="1682" spans="1:6">
@@ -47763,7 +47763,7 @@
         <v>0</v>
       </c>
       <c r="F1682">
-        <v>-9.07</v>
+        <v>-10.08</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
@@ -47803,7 +47803,7 @@
         <v>0</v>
       </c>
       <c r="F1684">
-        <v>-16.76</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="1685" spans="1:6">
@@ -47823,7 +47823,7 @@
         <v>0</v>
       </c>
       <c r="F1685">
-        <v>-16.76</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="1686" spans="1:6">
@@ -47863,7 +47863,7 @@
         <v>0.76</v>
       </c>
       <c r="F1687">
-        <v>33.84</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="1688" spans="1:6">
@@ -47883,7 +47883,7 @@
         <v>0.76</v>
       </c>
       <c r="F1688">
-        <v>33.84</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="1689" spans="1:6">
@@ -47903,7 +47903,7 @@
         <v>0.76</v>
       </c>
       <c r="F1689">
-        <v>33.84</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="1690" spans="1:6">
@@ -47943,7 +47943,7 @@
         <v>0</v>
       </c>
       <c r="F1691">
-        <v>-6.23</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="1692" spans="1:6">
@@ -47963,7 +47963,7 @@
         <v>-7.870000000000001</v>
       </c>
       <c r="F1692">
-        <v>-6.23</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="1693" spans="1:6">
@@ -47983,7 +47983,7 @@
         <v>0</v>
       </c>
       <c r="F1693">
-        <v>-0.25</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="1694" spans="1:6">
@@ -48003,7 +48003,7 @@
         <v>0</v>
       </c>
       <c r="F1694">
-        <v>-6.23</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="1695" spans="1:6">
@@ -48023,7 +48023,7 @@
         <v>0.76</v>
       </c>
       <c r="F1695">
-        <v>33.84</v>
+        <v>35.19</v>
       </c>
     </row>
     <row r="1696" spans="1:6">
@@ -48043,7 +48043,7 @@
         <v>0</v>
       </c>
       <c r="F1696">
-        <v>-11.17</v>
+        <v>-13.97</v>
       </c>
     </row>
     <row r="1697" spans="1:6">
@@ -48063,7 +48063,7 @@
         <v>0</v>
       </c>
       <c r="F1697">
-        <v>-6.23</v>
+        <v>-8.93</v>
       </c>
     </row>
     <row r="1698" spans="1:6">
@@ -48163,7 +48163,7 @@
         <v>0</v>
       </c>
       <c r="F1702">
-        <v>-23.94</v>
+        <v>-24.96</v>
       </c>
     </row>
     <row r="1703" spans="1:6">
@@ -48183,7 +48183,7 @@
         <v>0</v>
       </c>
       <c r="F1703">
-        <v>-23.94</v>
+        <v>-24.96</v>
       </c>
     </row>
     <row r="1704" spans="1:6">
@@ -48243,7 +48243,7 @@
         <v>0</v>
       </c>
       <c r="F1706">
-        <v>-19.19</v>
+        <v>-20.03</v>
       </c>
     </row>
     <row r="1707" spans="1:6">
@@ -48343,7 +48343,7 @@
         <v>0</v>
       </c>
       <c r="F1711">
-        <v>-23.94</v>
+        <v>-24.96</v>
       </c>
     </row>
     <row r="1712" spans="1:6">
@@ -48363,7 +48363,7 @@
         <v>0</v>
       </c>
       <c r="F1712">
-        <v>-23.94</v>
+        <v>-24.96</v>
       </c>
     </row>
     <row r="1713" spans="1:6">
@@ -48523,7 +48523,7 @@
         <v>0</v>
       </c>
       <c r="F1720">
-        <v>-17.2</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="1721" spans="1:6">
@@ -48543,7 +48543,7 @@
         <v>0</v>
       </c>
       <c r="F1721">
-        <v>-17.2</v>
+        <v>-19.1</v>
       </c>
     </row>
     <row r="1722" spans="1:6">
@@ -48603,7 +48603,7 @@
         <v>0</v>
       </c>
       <c r="F1724">
-        <v>2.41</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="1725" spans="1:6">
@@ -48623,7 +48623,7 @@
         <v>-20.64</v>
       </c>
       <c r="F1725">
-        <v>1.77</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="1726" spans="1:6">
@@ -48763,7 +48763,7 @@
         <v>-5.35</v>
       </c>
       <c r="F1732">
-        <v>-8.640000000000001</v>
+        <v>-9.859999999999999</v>
       </c>
     </row>
     <row r="1733" spans="1:6">
@@ -48823,7 +48823,7 @@
         <v>-14.5</v>
       </c>
       <c r="F1735">
-        <v>1.14</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="1736" spans="1:6">
@@ -48923,7 +48923,7 @@
         <v>-4.6</v>
       </c>
       <c r="F1740">
-        <v>-11.84</v>
+        <v>-12.72</v>
       </c>
     </row>
     <row r="1741" spans="1:6">
@@ -48943,7 +48943,7 @@
         <v>0</v>
       </c>
       <c r="F1741">
-        <v>-15.9</v>
+        <v>-16.74</v>
       </c>
     </row>
     <row r="1742" spans="1:6">
@@ -48963,7 +48963,7 @@
         <v>0</v>
       </c>
       <c r="F1742">
-        <v>-15.9</v>
+        <v>-16.74</v>
       </c>
     </row>
     <row r="1743" spans="1:6">
@@ -48983,7 +48983,7 @@
         <v>-4.6</v>
       </c>
       <c r="F1743">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="1744" spans="1:6">
@@ -49003,7 +49003,7 @@
         <v>-3.97</v>
       </c>
       <c r="F1744">
-        <v>-1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1745" spans="1:6">
@@ -49023,7 +49023,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1745">
-        <v>-7.85</v>
+        <v>-8.260000000000002</v>
       </c>
     </row>
     <row r="1746" spans="1:6">
@@ -49043,7 +49043,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1746">
-        <v>-12.81</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="1747" spans="1:6">
@@ -49063,7 +49063,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1747">
-        <v>-14.88</v>
+        <v>-14.05</v>
       </c>
     </row>
     <row r="1748" spans="1:6">
@@ -49103,7 +49103,7 @@
         <v>-6.56</v>
       </c>
       <c r="F1749">
-        <v>-7.85</v>
+        <v>-8.260000000000002</v>
       </c>
     </row>
     <row r="1750" spans="1:6">
@@ -49143,7 +49143,7 @@
         <v>0</v>
       </c>
       <c r="F1751">
-        <v>11.23</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="1752" spans="1:6">
@@ -49163,7 +49163,7 @@
         <v>0</v>
       </c>
       <c r="F1752">
-        <v>-3.35</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="1753" spans="1:6">
@@ -49183,7 +49183,7 @@
         <v>0</v>
       </c>
       <c r="F1753">
-        <v>-3.35</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="1754" spans="1:6">
@@ -49203,7 +49203,7 @@
         <v>0</v>
       </c>
       <c r="F1754">
-        <v>-3.35</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="1755" spans="1:6">
@@ -49223,7 +49223,7 @@
         <v>0</v>
       </c>
       <c r="F1755">
-        <v>-3.35</v>
+        <v>-5.86</v>
       </c>
     </row>
     <row r="1756" spans="1:6">
@@ -49263,7 +49263,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F1757">
-        <v>1.66</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="1758" spans="1:6">
@@ -49343,7 +49343,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F1761">
-        <v>1.66</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="1762" spans="1:6">
@@ -49443,7 +49443,7 @@
         <v>0</v>
       </c>
       <c r="F1766">
-        <v>16.6</v>
+        <v>17.29</v>
       </c>
     </row>
     <row r="1767" spans="1:6">
@@ -49483,7 +49483,7 @@
         <v>-8.08</v>
       </c>
       <c r="F1768">
-        <v>7.16</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="1769" spans="1:6">
@@ -49523,7 +49523,7 @@
         <v>-7.46</v>
       </c>
       <c r="F1770">
-        <v>-4.22</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="1771" spans="1:6">
@@ -49583,7 +49583,7 @@
         <v>0</v>
       </c>
       <c r="F1773">
-        <v>-3.94</v>
+        <v>-6.619999999999999</v>
       </c>
     </row>
     <row r="1774" spans="1:6">
@@ -49783,7 +49783,7 @@
         <v>0</v>
       </c>
       <c r="F1783">
-        <v>7.75</v>
+        <v>8.07</v>
       </c>
     </row>
     <row r="1784" spans="1:6">
@@ -49803,7 +49803,7 @@
         <v>0</v>
       </c>
       <c r="F1784">
-        <v>5.46</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="1785" spans="1:6">
@@ -49823,7 +49823,7 @@
         <v>0</v>
       </c>
       <c r="F1785">
-        <v>-2.56</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="1786" spans="1:6">
@@ -49863,7 +49863,7 @@
         <v>0</v>
       </c>
       <c r="F1787">
-        <v>-16.1</v>
+        <v>-16.64</v>
       </c>
     </row>
     <row r="1788" spans="1:6">
@@ -50123,7 +50123,7 @@
         <v>0</v>
       </c>
       <c r="F1800">
-        <v>0.5599999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
     </row>
     <row r="1801" spans="1:6">
@@ -50183,7 +50183,7 @@
         <v>2.63</v>
       </c>
       <c r="F1803">
-        <v>-1.03</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="1804" spans="1:6">
@@ -50223,7 +50223,7 @@
         <v>2.63</v>
       </c>
       <c r="F1805">
-        <v>-1.03</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="1806" spans="1:6">
@@ -50243,7 +50243,7 @@
         <v>0</v>
       </c>
       <c r="F1806">
-        <v>-5.41</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="1807" spans="1:6">
@@ -50263,7 +50263,7 @@
         <v>2.63</v>
       </c>
       <c r="F1807">
-        <v>-1.03</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="1808" spans="1:6">
@@ -50283,7 +50283,7 @@
         <v>3.32</v>
       </c>
       <c r="F1808">
-        <v>-2.53</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="1809" spans="1:6">
@@ -50303,7 +50303,7 @@
         <v>0</v>
       </c>
       <c r="F1809">
-        <v>-0.35</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="1810" spans="1:6">
@@ -50323,7 +50323,7 @@
         <v>6.460000000000001</v>
       </c>
       <c r="F1810">
-        <v>-5.41</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="1811" spans="1:6">
@@ -50363,7 +50363,7 @@
         <v>2.71</v>
       </c>
       <c r="F1812">
-        <v>1.58</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1813" spans="1:6">
@@ -50383,7 +50383,7 @@
         <v>0</v>
       </c>
       <c r="F1813">
-        <v>1.58</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1814" spans="1:6">
@@ -50403,7 +50403,7 @@
         <v>6.460000000000001</v>
       </c>
       <c r="F1814">
-        <v>-5.41</v>
+        <v>-7.539999999999999</v>
       </c>
     </row>
     <row r="1815" spans="1:6">
@@ -50423,7 +50423,7 @@
         <v>0</v>
       </c>
       <c r="F1815">
-        <v>-2.53</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="1816" spans="1:6">
@@ -50443,7 +50443,7 @@
         <v>0</v>
       </c>
       <c r="F1816">
-        <v>-2.53</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="1817" spans="1:6">
@@ -50463,7 +50463,7 @@
         <v>0</v>
       </c>
       <c r="F1817">
-        <v>-2.53</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="1818" spans="1:6">
@@ -50483,7 +50483,7 @@
         <v>0</v>
       </c>
       <c r="F1818">
-        <v>1.58</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="1819" spans="1:6">
@@ -50543,7 +50543,7 @@
         <v>0</v>
       </c>
       <c r="F1821">
-        <v>-9.449999999999999</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="1822" spans="1:6">
@@ -50563,7 +50563,7 @@
         <v>0</v>
       </c>
       <c r="F1822">
-        <v>-9.449999999999999</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="1823" spans="1:6">
@@ -50583,7 +50583,7 @@
         <v>0</v>
       </c>
       <c r="F1823">
-        <v>-9.449999999999999</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="1824" spans="1:6">
@@ -50603,7 +50603,7 @@
         <v>0</v>
       </c>
       <c r="F1824">
-        <v>-9.449999999999999</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="1825" spans="1:6">
@@ -50623,7 +50623,7 @@
         <v>0</v>
       </c>
       <c r="F1825">
-        <v>-1.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1826" spans="1:6">
@@ -50643,7 +50643,7 @@
         <v>-2.05</v>
       </c>
       <c r="F1826">
-        <v>-9.449999999999999</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="1827" spans="1:6">
@@ -50663,7 +50663,7 @@
         <v>0</v>
       </c>
       <c r="F1827">
-        <v>-9.449999999999999</v>
+        <v>-9.890000000000001</v>
       </c>
     </row>
     <row r="1828" spans="1:6">
@@ -50843,7 +50843,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1836">
-        <v>9.69</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="1837" spans="1:6">
@@ -50903,7 +50903,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1839">
-        <v>9.69</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="1840" spans="1:6">
@@ -50923,7 +50923,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1840">
-        <v>9.69</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="1841" spans="1:6">
@@ -50943,7 +50943,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1841">
-        <v>9.69</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="1842" spans="1:6">
@@ -50963,7 +50963,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1842">
-        <v>9.69</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="1843" spans="1:6">
@@ -50983,7 +50983,7 @@
         <v>-9.43</v>
       </c>
       <c r="F1843">
-        <v>9.69</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="1844" spans="1:6">
@@ -51123,7 +51123,7 @@
         <v>0</v>
       </c>
       <c r="F1850">
-        <v>-5.79</v>
+        <v>-9.65</v>
       </c>
     </row>
     <row r="1851" spans="1:6">
@@ -51143,7 +51143,7 @@
         <v>-12.07</v>
       </c>
       <c r="F1851">
-        <v>14.34</v>
+        <v>15.97</v>
       </c>
     </row>
     <row r="1852" spans="1:6">
@@ -51183,7 +51183,7 @@
         <v>0</v>
       </c>
       <c r="F1853">
-        <v>-5.79</v>
+        <v>-9.65</v>
       </c>
     </row>
     <row r="1854" spans="1:6">
@@ -51743,7 +51743,7 @@
         <v>-13.13</v>
       </c>
       <c r="F1881">
-        <v>11.56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1882" spans="1:6">
@@ -51863,7 +51863,7 @@
         <v>-9.81</v>
       </c>
       <c r="F1887">
-        <v>3.28</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="1888" spans="1:6">
@@ -51923,7 +51923,7 @@
         <v>0</v>
       </c>
       <c r="F1890">
-        <v>-13.37</v>
+        <v>-13.93</v>
       </c>
     </row>
     <row r="1891" spans="1:6">
@@ -52063,7 +52063,7 @@
         <v>5.27</v>
       </c>
       <c r="F1897">
-        <v>-11.26</v>
+        <v>-12.52</v>
       </c>
     </row>
     <row r="1898" spans="1:6">
@@ -52243,7 +52243,7 @@
         <v>-10.32</v>
       </c>
       <c r="F1906">
-        <v>-20.73</v>
+        <v>-15.36</v>
       </c>
     </row>
     <row r="1907" spans="1:6">
@@ -52343,7 +52343,7 @@
         <v>9.33</v>
       </c>
       <c r="F1911">
-        <v>0.83</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="1912" spans="1:6">
@@ -52903,7 +52903,7 @@
         <v>-6.05</v>
       </c>
       <c r="F1939">
-        <v>14.75</v>
+        <v>15.42</v>
       </c>
     </row>
     <row r="1940" spans="1:6">
@@ -53023,7 +53023,7 @@
         <v>-3.32</v>
       </c>
       <c r="F1945">
-        <v>-6.140000000000001</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="1946" spans="1:6">
@@ -53043,7 +53043,7 @@
         <v>-2.71</v>
       </c>
       <c r="F1946">
-        <v>-5.01</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="1947" spans="1:6">
@@ -53063,7 +53063,7 @@
         <v>0</v>
       </c>
       <c r="F1947">
-        <v>5.5</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="1948" spans="1:6">
@@ -53083,7 +53083,7 @@
         <v>0</v>
       </c>
       <c r="F1948">
-        <v>3.35</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="1949" spans="1:6">
@@ -53103,7 +53103,7 @@
         <v>0</v>
       </c>
       <c r="F1949">
-        <v>3.17</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="1950" spans="1:6">
@@ -53123,7 +53123,7 @@
         <v>0</v>
       </c>
       <c r="F1950">
-        <v>11.58</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="1951" spans="1:6">
@@ -53143,7 +53143,7 @@
         <v>0</v>
       </c>
       <c r="F1951">
-        <v>9.59</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="1952" spans="1:6">
@@ -53183,7 +53183,7 @@
         <v>0</v>
       </c>
       <c r="F1953">
-        <v>4.32</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="1954" spans="1:6">
@@ -53203,7 +53203,7 @@
         <v>0</v>
       </c>
       <c r="F1954">
-        <v>6.02</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="1955" spans="1:6">
@@ -53583,7 +53583,7 @@
         <v>-15</v>
       </c>
       <c r="F1973">
-        <v>13.07</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="1974" spans="1:6">
@@ -53603,7 +53603,7 @@
         <v>4.12</v>
       </c>
       <c r="F1974">
-        <v>-0.77</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="1975" spans="1:6">
@@ -53623,7 +53623,7 @@
         <v>0</v>
       </c>
       <c r="F1975">
-        <v>-2.62</v>
+        <v>-4.37</v>
       </c>
     </row>
     <row r="1976" spans="1:6">
@@ -53783,7 +53783,7 @@
         <v>-5.86</v>
       </c>
       <c r="F1983">
-        <v>-2.49</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="1984" spans="1:6">
@@ -53843,7 +53843,7 @@
         <v>-7.049999999999999</v>
       </c>
       <c r="F1986">
-        <v>15.93</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="1987" spans="1:6">
@@ -54303,7 +54303,7 @@
         <v>0</v>
       </c>
       <c r="F2009">
-        <v>-6.68</v>
+        <v>-8.35</v>
       </c>
     </row>
     <row r="2010" spans="1:6">
@@ -54463,7 +54463,7 @@
         <v>0</v>
       </c>
       <c r="F2017">
-        <v>0</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="2018" spans="1:6">
@@ -54503,7 +54503,7 @@
         <v>-6.600000000000001</v>
       </c>
       <c r="F2019">
-        <v>11.45</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="2020" spans="1:6">
@@ -54663,7 +54663,7 @@
         <v>3.53</v>
       </c>
       <c r="F2027">
-        <v>11.11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2028" spans="1:6">
@@ -54723,7 +54723,7 @@
         <v>0</v>
       </c>
       <c r="F2030">
-        <v>14.7</v>
+        <v>16.26</v>
       </c>
     </row>
     <row r="2031" spans="1:6">
@@ -54763,7 +54763,7 @@
         <v>0</v>
       </c>
       <c r="F2032">
-        <v>2.41</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="2033" spans="1:6">
@@ -55143,7 +55143,7 @@
         <v>-21.74</v>
       </c>
       <c r="F2051">
-        <v>17.72</v>
+        <v>15.61</v>
       </c>
     </row>
     <row r="2052" spans="1:6">
@@ -55503,7 +55503,7 @@
         <v>0</v>
       </c>
       <c r="F2069">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="2070" spans="1:6">
@@ -55563,7 +55563,7 @@
         <v>1.61</v>
       </c>
       <c r="F2072">
-        <v>-1.82</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="2073" spans="1:6">
@@ -55583,7 +55583,7 @@
         <v>-1.86</v>
       </c>
       <c r="F2073">
-        <v>8.640000000000001</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="2074" spans="1:6">
@@ -55643,7 +55643,7 @@
         <v>0</v>
       </c>
       <c r="F2076">
-        <v>-10.02</v>
+        <v>-10.38</v>
       </c>
     </row>
     <row r="2077" spans="1:6">
@@ -55683,7 +55683,7 @@
         <v>1.45</v>
       </c>
       <c r="F2078">
-        <v>-3.23</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="2079" spans="1:6">
@@ -55723,7 +55723,7 @@
         <v>0</v>
       </c>
       <c r="F2080">
-        <v>-21.84</v>
+        <v>-22.75</v>
       </c>
     </row>
     <row r="2081" spans="1:6">
@@ -55923,7 +55923,7 @@
         <v>11.01</v>
       </c>
       <c r="F2090">
-        <v>7.62</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="2091" spans="1:6">
@@ -55943,7 +55943,7 @@
         <v>5.25</v>
       </c>
       <c r="F2091">
-        <v>9.700000000000001</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="2092" spans="1:6">
@@ -55983,7 +55983,7 @@
         <v>0</v>
       </c>
       <c r="F2093">
-        <v>9.17</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="2094" spans="1:6">
@@ -56003,7 +56003,7 @@
         <v>-11.45</v>
       </c>
       <c r="F2094">
-        <v>11.87</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="2095" spans="1:6">
@@ -56043,7 +56043,7 @@
         <v>1.46</v>
       </c>
       <c r="F2096">
-        <v>-1.92</v>
+        <v>-4.56</v>
       </c>
     </row>
     <row r="2097" spans="1:6">
@@ -56083,7 +56083,7 @@
         <v>0</v>
       </c>
       <c r="F2098">
-        <v>4.46</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="2099" spans="1:6">
@@ -56143,7 +56143,7 @@
         <v>0</v>
       </c>
       <c r="F2101">
-        <v>75.14</v>
+        <v>78.38000000000001</v>
       </c>
     </row>
     <row r="2102" spans="1:6">
@@ -56183,7 +56183,7 @@
         <v>0</v>
       </c>
       <c r="F2103">
-        <v>3.02</v>
+        <v>5.029999999999999</v>
       </c>
     </row>
     <row r="2104" spans="1:6">
@@ -56303,7 +56303,7 @@
         <v>-23.28</v>
       </c>
       <c r="F2109">
-        <v>-1.87</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="2110" spans="1:6">
@@ -56383,7 +56383,7 @@
         <v>-19.24</v>
       </c>
       <c r="F2113">
-        <v>-1.83</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="2114" spans="1:6">
@@ -56503,7 +56503,7 @@
         <v>5.33</v>
       </c>
       <c r="F2119">
-        <v>-2.68</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="2120" spans="1:6">
@@ -56523,7 +56523,7 @@
         <v>-13.36</v>
       </c>
       <c r="F2120">
-        <v>11.83</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="2121" spans="1:6">
@@ -56563,7 +56563,7 @@
         <v>-17.84</v>
       </c>
       <c r="F2122">
-        <v>16.59</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="2123" spans="1:6">
@@ -56583,7 +56583,7 @@
         <v>-17.84</v>
       </c>
       <c r="F2123">
-        <v>16.59</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="2124" spans="1:6">
@@ -56623,7 +56623,7 @@
         <v>4.130000000000001</v>
       </c>
       <c r="F2125">
-        <v>-0.31</v>
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="2126" spans="1:6">
@@ -56643,7 +56643,7 @@
         <v>-13.36</v>
       </c>
       <c r="F2126">
-        <v>11.83</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="2127" spans="1:6">
@@ -56943,7 +56943,7 @@
         <v>-5.79</v>
       </c>
       <c r="F2141">
-        <v>-8.110000000000001</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="2142" spans="1:6">
@@ -56963,7 +56963,7 @@
         <v>-5.46</v>
       </c>
       <c r="F2142">
-        <v>-7.33</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="2143" spans="1:6">
@@ -57103,7 +57103,7 @@
         <v>0</v>
       </c>
       <c r="F2149">
-        <v>16.39</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="2150" spans="1:6">
@@ -57983,7 +57983,7 @@
         <v>-2.17</v>
       </c>
       <c r="F2193">
-        <v>35.22</v>
+        <v>39.41</v>
       </c>
     </row>
     <row r="2194" spans="1:6">
@@ -58043,7 +58043,7 @@
         <v>-10.57</v>
       </c>
       <c r="F2196">
-        <v>8.619999999999999</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="2197" spans="1:6">
@@ -58083,7 +58083,7 @@
         <v>-2.17</v>
       </c>
       <c r="F2198">
-        <v>8.619999999999999</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="2199" spans="1:6">
@@ -58203,7 +58203,7 @@
         <v>-4.51</v>
       </c>
       <c r="F2204">
-        <v>-8.5</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="2205" spans="1:6">
@@ -58223,7 +58223,7 @@
         <v>0</v>
       </c>
       <c r="F2205">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="2206" spans="1:6">
@@ -58743,7 +58743,7 @@
         <v>0</v>
       </c>
       <c r="F2231">
-        <v>4.01</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="2232" spans="1:6">
@@ -59283,7 +59283,7 @@
         <v>0</v>
       </c>
       <c r="F2258">
-        <v>23.98</v>
+        <v>26.66</v>
       </c>
     </row>
     <row r="2259" spans="1:6">
@@ -59363,7 +59363,7 @@
         <v>0</v>
       </c>
       <c r="F2262">
-        <v>3.82</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="2263" spans="1:6">
@@ -59483,7 +59483,7 @@
         <v>0</v>
       </c>
       <c r="F2268">
-        <v>-18.48</v>
+        <v>-19.25</v>
       </c>
     </row>
     <row r="2269" spans="1:6">
@@ -59563,7 +59563,7 @@
         <v>0</v>
       </c>
       <c r="F2272">
-        <v>-6.68</v>
+        <v>-9.289999999999999</v>
       </c>
     </row>
     <row r="2273" spans="1:6">
@@ -59623,7 +59623,7 @@
         <v>0</v>
       </c>
       <c r="F2275">
-        <v>-6.68</v>
+        <v>-9.289999999999999</v>
       </c>
     </row>
     <row r="2276" spans="1:6">
@@ -59683,7 +59683,7 @@
         <v>4.24</v>
       </c>
       <c r="F2278">
-        <v>-3.94</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="2279" spans="1:6">
@@ -59723,7 +59723,7 @@
         <v>0.95</v>
       </c>
       <c r="F2280">
-        <v>-3.94</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="2281" spans="1:6">
@@ -59743,7 +59743,7 @@
         <v>0.95</v>
       </c>
       <c r="F2281">
-        <v>-3.94</v>
+        <v>-5.48</v>
       </c>
     </row>
     <row r="2282" spans="1:6">
@@ -59783,7 +59783,7 @@
         <v>0</v>
       </c>
       <c r="F2283">
-        <v>12.03</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="2284" spans="1:6">
@@ -59923,7 +59923,7 @@
         <v>-2.6</v>
       </c>
       <c r="F2290">
-        <v>-4.8</v>
+        <v>-3.56</v>
       </c>
     </row>
     <row r="2291" spans="1:6">
@@ -59943,7 +59943,7 @@
         <v>0</v>
       </c>
       <c r="F2291">
-        <v>3.34</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2292" spans="1:6">
@@ -59963,7 +59963,7 @@
         <v>0</v>
       </c>
       <c r="F2292">
-        <v>6.69</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="2293" spans="1:6">
@@ -59983,7 +59983,7 @@
         <v>0</v>
       </c>
       <c r="F2293">
-        <v>4.3</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="2294" spans="1:6">
@@ -60003,7 +60003,7 @@
         <v>-2.86</v>
       </c>
       <c r="F2294">
-        <v>-5.3</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="2295" spans="1:6">
@@ -60323,7 +60323,7 @@
         <v>-24.1</v>
       </c>
       <c r="F2310">
-        <v>24.34</v>
+        <v>25.56</v>
       </c>
     </row>
     <row r="2311" spans="1:6">
@@ -60563,7 +60563,7 @@
         <v>0</v>
       </c>
       <c r="F2322">
-        <v>-12.9</v>
+        <v>-16.13</v>
       </c>
     </row>
     <row r="2323" spans="1:6">
@@ -60723,7 +60723,7 @@
         <v>0</v>
       </c>
       <c r="F2330">
-        <v>-10.03</v>
+        <v>-12.54</v>
       </c>
     </row>
     <row r="2331" spans="1:6">
@@ -60783,7 +60783,7 @@
         <v>-11.89</v>
       </c>
       <c r="F2333">
-        <v>-5.38</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="2334" spans="1:6">
@@ -60803,7 +60803,7 @@
         <v>-10.63</v>
       </c>
       <c r="F2334">
-        <v>-4.78</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="2335" spans="1:6">
@@ -60883,7 +60883,7 @@
         <v>0</v>
       </c>
       <c r="F2338">
-        <v>-12.28</v>
+        <v>-13.63</v>
       </c>
     </row>
     <row r="2339" spans="1:6">
@@ -60903,7 +60903,7 @@
         <v>-4.590000000000001</v>
       </c>
       <c r="F2339">
-        <v>16.48</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="2340" spans="1:6">
@@ -60923,7 +60923,7 @@
         <v>-4.02</v>
       </c>
       <c r="F2340">
-        <v>-7.580000000000001</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="2341" spans="1:6">
@@ -60943,7 +60943,7 @@
         <v>0</v>
       </c>
       <c r="F2341">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="2342" spans="1:6">
@@ -61523,7 +61523,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2370">
-        <v>2.45</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="2371" spans="1:6">
@@ -61543,7 +61543,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2371">
-        <v>2.45</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="2372" spans="1:6">
@@ -61563,7 +61563,7 @@
         <v>-6.1</v>
       </c>
       <c r="F2372">
-        <v>2.45</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="2373" spans="1:6">
@@ -61763,7 +61763,7 @@
         <v>18.62</v>
       </c>
       <c r="F2382">
-        <v>-12.08</v>
+        <v>-12.56</v>
       </c>
     </row>
     <row r="2383" spans="1:6">
@@ -62223,7 +62223,7 @@
         <v>-25.04</v>
       </c>
       <c r="F2405">
-        <v>32.32</v>
+        <v>33.57</v>
       </c>
     </row>
     <row r="2406" spans="1:6">
@@ -62243,7 +62243,7 @@
         <v>0</v>
       </c>
       <c r="F2406">
-        <v>-15.07</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="2407" spans="1:6">
@@ -62383,7 +62383,7 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="F2413">
-        <v>-4</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="2414" spans="1:6">
@@ -62463,7 +62463,7 @@
         <v>0</v>
       </c>
       <c r="F2417">
-        <v>6.01</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="2418" spans="1:6">
@@ -62863,7 +62863,7 @@
         <v>0</v>
       </c>
       <c r="F2437">
-        <v>0.5499999999999999</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="2438" spans="1:6">
@@ -62883,7 +62883,7 @@
         <v>0</v>
       </c>
       <c r="F2438">
-        <v>-0.84</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="2439" spans="1:6">
@@ -62903,7 +62903,7 @@
         <v>0</v>
       </c>
       <c r="F2439">
-        <v>1.92</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="2440" spans="1:6">
@@ -63043,7 +63043,7 @@
         <v>13.72</v>
       </c>
       <c r="F2446">
-        <v>-8.51</v>
+        <v>-11.16</v>
       </c>
     </row>
     <row r="2447" spans="1:6">
@@ -63063,7 +63063,7 @@
         <v>13.72</v>
       </c>
       <c r="F2447">
-        <v>-8.51</v>
+        <v>-11.16</v>
       </c>
     </row>
     <row r="2448" spans="1:6">
@@ -63083,7 +63083,7 @@
         <v>13.72</v>
       </c>
       <c r="F2448">
-        <v>-8.51</v>
+        <v>-11.16</v>
       </c>
     </row>
     <row r="2449" spans="1:6">
@@ -63103,7 +63103,7 @@
         <v>16.18</v>
       </c>
       <c r="F2449">
-        <v>-7.470000000000001</v>
+        <v>-10.56</v>
       </c>
     </row>
     <row r="2450" spans="1:6">
@@ -63503,7 +63503,7 @@
         <v>37.74</v>
       </c>
       <c r="F2469">
-        <v>-0.91</v>
+        <v>-4.569999999999999</v>
       </c>
     </row>
     <row r="2470" spans="1:6">
@@ -63543,7 +63543,7 @@
         <v>0</v>
       </c>
       <c r="F2471">
-        <v>-28.28</v>
+        <v>-29.91</v>
       </c>
     </row>
     <row r="2472" spans="1:6">
@@ -63563,7 +63563,7 @@
         <v>0</v>
       </c>
       <c r="F2472">
-        <v>-28.28</v>
+        <v>-29.91</v>
       </c>
     </row>
     <row r="2473" spans="1:6">
@@ -63583,7 +63583,7 @@
         <v>0</v>
       </c>
       <c r="F2473">
-        <v>-28.28</v>
+        <v>-29.91</v>
       </c>
     </row>
     <row r="2474" spans="1:6">
@@ -63603,7 +63603,7 @@
         <v>0</v>
       </c>
       <c r="F2474">
-        <v>-28.28</v>
+        <v>-29.91</v>
       </c>
     </row>
     <row r="2475" spans="1:6">
@@ -63743,7 +63743,7 @@
         <v>0</v>
       </c>
       <c r="F2481">
-        <v>4.31</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="2482" spans="1:6">
@@ -63763,7 +63763,7 @@
         <v>0</v>
       </c>
       <c r="F2482">
-        <v>11.02</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="2483" spans="1:6">
@@ -63823,7 +63823,7 @@
         <v>-7.539999999999999</v>
       </c>
       <c r="F2485">
-        <v>2.72</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="2486" spans="1:6">
@@ -63943,7 +63943,7 @@
         <v>-19.09</v>
       </c>
       <c r="F2491">
-        <v>-6.140000000000001</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="2492" spans="1:6">
@@ -64063,7 +64063,7 @@
         <v>31.21</v>
       </c>
       <c r="F2497">
-        <v>1.18</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="2498" spans="1:6">
@@ -64163,7 +64163,7 @@
         <v>-5.29</v>
       </c>
       <c r="F2502">
-        <v>8.76</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="2503" spans="1:6">
@@ -64243,7 +64243,7 @@
         <v>0</v>
       </c>
       <c r="F2506">
-        <v>-3.28</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="2507" spans="1:6">
@@ -64263,7 +64263,7 @@
         <v>0</v>
       </c>
       <c r="F2507">
-        <v>-6.76</v>
+        <v>-7.01</v>
       </c>
     </row>
     <row r="2508" spans="1:6">
@@ -64663,7 +64663,7 @@
         <v>-9.289999999999999</v>
       </c>
       <c r="F2527">
-        <v>7.829999999999999</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="2528" spans="1:6">
@@ -64783,7 +64783,7 @@
         <v>0</v>
       </c>
       <c r="F2533">
-        <v>-1.93</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="2534" spans="1:6">
@@ -64903,7 +64903,7 @@
         <v>5.79</v>
       </c>
       <c r="F2539">
-        <v>8.380000000000001</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="2540" spans="1:6">
@@ -65003,7 +65003,7 @@
         <v>10.59</v>
       </c>
       <c r="F2544">
-        <v>2.78</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="2545" spans="1:6">
@@ -65043,7 +65043,7 @@
         <v>0</v>
       </c>
       <c r="F2546">
-        <v>10.02</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="2547" spans="1:6">
@@ -65083,7 +65083,7 @@
         <v>1.61</v>
       </c>
       <c r="F2548">
-        <v>-2.23</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="2549" spans="1:6">
@@ -65223,7 +65223,7 @@
         <v>0</v>
       </c>
       <c r="F2555">
-        <v>2.55</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="2556" spans="1:6">
@@ -65323,7 +65323,7 @@
         <v>5.01</v>
       </c>
       <c r="F2560">
-        <v>-8.59</v>
+        <v>-11.92</v>
       </c>
     </row>
     <row r="2561" spans="1:6">
@@ -65423,7 +65423,7 @@
         <v>-7.51</v>
       </c>
       <c r="F2565">
-        <v>-8.9</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="2566" spans="1:6">
@@ -65703,7 +65703,7 @@
         <v>-1.62</v>
       </c>
       <c r="F2579">
-        <v>9.85</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="2580" spans="1:6">
@@ -65843,7 +65843,7 @@
         <v>0</v>
       </c>
       <c r="F2586">
-        <v>-6.16</v>
+        <v>-10.32</v>
       </c>
     </row>
     <row r="2587" spans="1:6">
@@ -65863,7 +65863,7 @@
         <v>0</v>
       </c>
       <c r="F2587">
-        <v>-6.16</v>
+        <v>-10.32</v>
       </c>
     </row>
     <row r="2588" spans="1:6">
@@ -66023,7 +66023,7 @@
         <v>-24.5</v>
       </c>
       <c r="F2595">
-        <v>24.87</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="2596" spans="1:6">
@@ -66123,7 +66123,7 @@
         <v>52.7</v>
       </c>
       <c r="F2600">
-        <v>-4.6</v>
+        <v>-11.68</v>
       </c>
     </row>
     <row r="2601" spans="1:6">
@@ -66143,7 +66143,7 @@
         <v>52.7</v>
       </c>
       <c r="F2601">
-        <v>-4.6</v>
+        <v>-11.68</v>
       </c>
     </row>
     <row r="2602" spans="1:6">
@@ -66163,7 +66163,7 @@
         <v>0</v>
       </c>
       <c r="F2602">
-        <v>16.14</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="2603" spans="1:6">
@@ -66183,7 +66183,7 @@
         <v>0</v>
       </c>
       <c r="F2603">
-        <v>-16.02</v>
+        <v>-16.72</v>
       </c>
     </row>
     <row r="2604" spans="1:6">
@@ -66223,7 +66223,7 @@
         <v>-9.27</v>
       </c>
       <c r="F2605">
-        <v>-8.82</v>
+        <v>-6.01</v>
       </c>
     </row>
     <row r="2606" spans="1:6">
@@ -66243,7 +66243,7 @@
         <v>-9.27</v>
       </c>
       <c r="F2606">
-        <v>-2.4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="2607" spans="1:6">
@@ -66263,7 +66263,7 @@
         <v>-9.27</v>
       </c>
       <c r="F2607">
-        <v>-8.02</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="2608" spans="1:6">
@@ -66303,7 +66303,7 @@
         <v>-8.880000000000001</v>
       </c>
       <c r="F2609">
-        <v>9.539999999999999</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="2610" spans="1:6">
@@ -66323,7 +66323,7 @@
         <v>-7.79</v>
       </c>
       <c r="F2610">
-        <v>8.25</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="2611" spans="1:6">
@@ -66343,7 +66343,7 @@
         <v>0.54</v>
       </c>
       <c r="F2611">
-        <v>10.81</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="2612" spans="1:6">
@@ -66363,7 +66363,7 @@
         <v>-8.08</v>
       </c>
       <c r="F2612">
-        <v>3.94</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="2613" spans="1:6">
@@ -66383,7 +66383,7 @@
         <v>-7.79</v>
       </c>
       <c r="F2613">
-        <v>8.25</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="2614" spans="1:6">
@@ -66403,7 +66403,7 @@
         <v>-14.26</v>
       </c>
       <c r="F2614">
-        <v>1.07</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2615" spans="1:6">
@@ -66423,7 +66423,7 @@
         <v>-1.48</v>
       </c>
       <c r="F2615">
-        <v>-0.5</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="2616" spans="1:6">
@@ -66603,7 +66603,7 @@
         <v>-11.45</v>
       </c>
       <c r="F2624">
-        <v>-4.33</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="2625" spans="1:6">
@@ -66623,7 +66623,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="F2625">
-        <v>-3.64</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="2626" spans="1:6">
@@ -66743,7 +66743,7 @@
         <v>0</v>
       </c>
       <c r="F2631">
-        <v>-16.02</v>
+        <v>-16.72</v>
       </c>
     </row>
     <row r="2632" spans="1:6">
@@ -66783,7 +66783,7 @@
         <v>-8.94</v>
       </c>
       <c r="F2633">
-        <v>-2.64</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="2634" spans="1:6">
@@ -66803,7 +66803,7 @@
         <v>-10.96</v>
       </c>
       <c r="F2634">
-        <v>-4.51</v>
+        <v>-4.58</v>
       </c>
     </row>
     <row r="2635" spans="1:6">
@@ -66823,7 +66823,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2635">
-        <v>-1.32</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="2636" spans="1:6">
@@ -66843,7 +66843,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2636">
-        <v>-2.34</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="2637" spans="1:6">
@@ -66863,7 +66863,7 @@
         <v>-19.96</v>
       </c>
       <c r="F2637">
-        <v>1.68</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="2638" spans="1:6">
@@ -66883,7 +66883,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2638">
-        <v>2.05</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="2639" spans="1:6">
@@ -66903,7 +66903,7 @@
         <v>-12.93</v>
       </c>
       <c r="F2639">
-        <v>-4.46</v>
+        <v>-4.17</v>
       </c>
     </row>
     <row r="2640" spans="1:6">
@@ -67023,7 +67023,7 @@
         <v>17.12</v>
       </c>
       <c r="F2645">
-        <v>1.79</v>
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="2646" spans="1:6">
@@ -67043,7 +67043,7 @@
         <v>-9.51</v>
       </c>
       <c r="F2646">
-        <v>0.6799999999999999</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="2647" spans="1:6">
@@ -67143,7 +67143,7 @@
         <v>-4.100000000000001</v>
       </c>
       <c r="F2651">
-        <v>0.3</v>
+        <v>0.9400000000000001</v>
       </c>
     </row>
     <row r="2652" spans="1:6">
@@ -67303,7 +67303,7 @@
         <v>-5.41</v>
       </c>
       <c r="F2659">
-        <v>-15.98</v>
+        <v>-14.63</v>
       </c>
     </row>
     <row r="2660" spans="1:6">
@@ -67763,7 +67763,7 @@
         <v>0</v>
       </c>
       <c r="F2682">
-        <v>3.34</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="2683" spans="1:6">
@@ -68543,7 +68543,7 @@
         <v>0</v>
       </c>
       <c r="F2721">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="2722" spans="1:6">
@@ -68563,7 +68563,7 @@
         <v>0</v>
       </c>
       <c r="F2722">
-        <v>3.55</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="2723" spans="1:6">
@@ -68603,7 +68603,7 @@
         <v>0</v>
       </c>
       <c r="F2724">
-        <v>3.34</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="2725" spans="1:6">
@@ -68863,7 +68863,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2737">
-        <v>16.15</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="2738" spans="1:6">
@@ -68923,7 +68923,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2740">
-        <v>16.15</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="2741" spans="1:6">
@@ -68963,7 +68963,7 @@
         <v>0</v>
       </c>
       <c r="F2742">
-        <v>-2.32</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="2743" spans="1:6">
@@ -69003,7 +69003,7 @@
         <v>-2.78</v>
       </c>
       <c r="F2744">
-        <v>16.15</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="2745" spans="1:6">
@@ -69143,7 +69143,7 @@
         <v>12.82</v>
       </c>
       <c r="F2751">
-        <v>-5.3</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="2752" spans="1:6">
@@ -69163,7 +69163,7 @@
         <v>0</v>
       </c>
       <c r="F2752">
-        <v>-5.28</v>
+        <v>-8.540000000000001</v>
       </c>
     </row>
     <row r="2753" spans="1:6">
@@ -69183,7 +69183,7 @@
         <v>-0.5</v>
       </c>
       <c r="F2753">
-        <v>-5.3</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="2754" spans="1:6">
@@ -69223,7 +69223,7 @@
         <v>-0.5</v>
       </c>
       <c r="F2755">
-        <v>3.79</v>
+        <v>6.569999999999999</v>
       </c>
     </row>
     <row r="2756" spans="1:6">
@@ -69243,7 +69243,7 @@
         <v>0</v>
       </c>
       <c r="F2756">
-        <v>-1.51</v>
+        <v>-5.53</v>
       </c>
     </row>
     <row r="2757" spans="1:6">
@@ -69343,7 +69343,7 @@
         <v>12.3</v>
       </c>
       <c r="F2761">
-        <v>3.65</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="2762" spans="1:6">
@@ -69363,7 +69363,7 @@
         <v>12.3</v>
       </c>
       <c r="F2762">
-        <v>3.65</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="2763" spans="1:6">
@@ -69403,7 +69403,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2764">
-        <v>9.15</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="2765" spans="1:6">
@@ -69423,7 +69423,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2765">
-        <v>9.15</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="2766" spans="1:6">
@@ -69443,7 +69443,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2766">
-        <v>9.15</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="2767" spans="1:6">
@@ -69463,7 +69463,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2767">
-        <v>9.15</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="2768" spans="1:6">
@@ -69483,7 +69483,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2768">
-        <v>9.15</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="2769" spans="1:6">
@@ -69503,7 +69503,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2769">
-        <v>9.15</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="2770" spans="1:6">
@@ -69523,7 +69523,7 @@
         <v>-3.24</v>
       </c>
       <c r="F2770">
-        <v>9.15</v>
+        <v>9.379999999999999</v>
       </c>
     </row>
     <row r="2771" spans="1:6">
@@ -69743,7 +69743,7 @@
         <v>-3.43</v>
       </c>
       <c r="F2781">
-        <v>15.97</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="2782" spans="1:6">
@@ -69783,7 +69783,7 @@
         <v>0</v>
       </c>
       <c r="F2783">
-        <v>-6.02</v>
+        <v>-6.77</v>
       </c>
     </row>
     <row r="2784" spans="1:6">
@@ -69803,7 +69803,7 @@
         <v>0</v>
       </c>
       <c r="F2784">
-        <v>-8.959999999999999</v>
+        <v>-10.02</v>
       </c>
     </row>
     <row r="2785" spans="1:6">
@@ -70043,7 +70043,7 @@
         <v>0</v>
       </c>
       <c r="F2796">
-        <v>-5.17</v>
+        <v>-5.779999999999999</v>
       </c>
     </row>
     <row r="2797" spans="1:6">
@@ -70243,7 +70243,7 @@
         <v>0</v>
       </c>
       <c r="F2806">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="2807" spans="1:6">
@@ -70343,7 +70343,7 @@
         <v>17.67</v>
       </c>
       <c r="F2811">
-        <v>-4.49</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="2812" spans="1:6">
@@ -70423,7 +70423,7 @@
         <v>0</v>
       </c>
       <c r="F2815">
-        <v>-8.110000000000001</v>
+        <v>-8.41</v>
       </c>
     </row>
     <row r="2816" spans="1:6">
@@ -70463,7 +70463,7 @@
         <v>0</v>
       </c>
       <c r="F2817">
-        <v>-1.57</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="2818" spans="1:6">
@@ -70543,7 +70543,7 @@
         <v>-28.09</v>
       </c>
       <c r="F2821">
-        <v>43.81</v>
+        <v>45.63</v>
       </c>
     </row>
     <row r="2822" spans="1:6">
@@ -70563,7 +70563,7 @@
         <v>0</v>
       </c>
       <c r="F2822">
-        <v>-10.24</v>
+        <v>-11.36</v>
       </c>
     </row>
     <row r="2823" spans="1:6">
@@ -71303,7 +71303,7 @@
         <v>0</v>
       </c>
       <c r="F2859">
-        <v>-6.05</v>
+        <v>-6.239999999999999</v>
       </c>
     </row>
     <row r="2860" spans="1:6">
@@ -71323,7 +71323,7 @@
         <v>0</v>
       </c>
       <c r="F2860">
-        <v>-7.359999999999999</v>
+        <v>-7.71</v>
       </c>
     </row>
     <row r="2861" spans="1:6">
@@ -71363,7 +71363,7 @@
         <v>4.859999999999999</v>
       </c>
       <c r="F2862">
-        <v>11.97</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="2863" spans="1:6">
@@ -71423,7 +71423,7 @@
         <v>0</v>
       </c>
       <c r="F2865">
-        <v>-1.67</v>
+        <v>-2.84</v>
       </c>
     </row>
     <row r="2866" spans="1:6">
@@ -71583,7 +71583,7 @@
         <v>0</v>
       </c>
       <c r="F2873">
-        <v>2.79</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="2874" spans="1:6">
@@ -71643,7 +71643,7 @@
         <v>0.65</v>
       </c>
       <c r="F2876">
-        <v>-2.27</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="2877" spans="1:6">
@@ -71663,7 +71663,7 @@
         <v>-6.79</v>
       </c>
       <c r="F2877">
-        <v>5.53</v>
+        <v>6.279999999999999</v>
       </c>
     </row>
     <row r="2878" spans="1:6">
@@ -71683,7 +71683,7 @@
         <v>-13.13</v>
       </c>
       <c r="F2878">
-        <v>11.56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2879" spans="1:6">
@@ -71763,7 +71763,7 @@
         <v>0</v>
       </c>
       <c r="F2882">
-        <v>-16.06</v>
+        <v>-16.75</v>
       </c>
     </row>
     <row r="2883" spans="1:6">
@@ -71803,7 +71803,7 @@
         <v>7.44</v>
       </c>
       <c r="F2884">
-        <v>4.3</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="2885" spans="1:6">
@@ -71843,7 +71843,7 @@
         <v>0</v>
       </c>
       <c r="F2886">
-        <v>10.05</v>
+        <v>12.81</v>
       </c>
     </row>
     <row r="2887" spans="1:6">
@@ -71883,7 +71883,7 @@
         <v>21.57</v>
       </c>
       <c r="F2888">
-        <v>-13.61</v>
+        <v>-14.28</v>
       </c>
     </row>
     <row r="2889" spans="1:6">
@@ -71963,7 +71963,7 @@
         <v>0</v>
       </c>
       <c r="F2892">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="2893" spans="1:6">
@@ -71983,7 +71983,7 @@
         <v>0</v>
       </c>
       <c r="F2893">
-        <v>-7.870000000000001</v>
+        <v>-12.13</v>
       </c>
     </row>
     <row r="2894" spans="1:6">
@@ -72243,7 +72243,7 @@
         <v>0</v>
       </c>
       <c r="F2906">
-        <v>7.26</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="2907" spans="1:6">
@@ -72683,7 +72683,7 @@
         <v>0</v>
       </c>
       <c r="F2928">
-        <v>-3.45</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="2929" spans="1:6">
@@ -72723,7 +72723,7 @@
         <v>0</v>
       </c>
       <c r="F2930">
-        <v>2.5</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="2931" spans="1:6">
@@ -72883,7 +72883,7 @@
         <v>0</v>
       </c>
       <c r="F2938">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="2939" spans="1:6">
@@ -72963,7 +72963,7 @@
         <v>0.53</v>
       </c>
       <c r="F2942">
-        <v>-17.15</v>
+        <v>-17.68</v>
       </c>
     </row>
     <row r="2943" spans="1:6">
@@ -72983,7 +72983,7 @@
         <v>0</v>
       </c>
       <c r="F2943">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="2944" spans="1:6">
@@ -73103,7 +73103,7 @@
         <v>0</v>
       </c>
       <c r="F2949">
-        <v>6.03</v>
+        <v>6.529999999999999</v>
       </c>
     </row>
     <row r="2950" spans="1:6">
@@ -73143,7 +73143,7 @@
         <v>4.08</v>
       </c>
       <c r="F2951">
-        <v>-16.39</v>
+        <v>-18.21</v>
       </c>
     </row>
     <row r="2952" spans="1:6">
@@ -73163,7 +73163,7 @@
         <v>0</v>
       </c>
       <c r="F2952">
-        <v>9.300000000000001</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="2953" spans="1:6">
@@ -73223,7 +73223,7 @@
         <v>0</v>
       </c>
       <c r="F2955">
-        <v>-5.75</v>
+        <v>-6.370000000000001</v>
       </c>
     </row>
     <row r="2956" spans="1:6">
@@ -73543,7 +73543,7 @@
         <v>0</v>
       </c>
       <c r="F2971">
-        <v>12.03</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="2972" spans="1:6">
@@ -73823,7 +73823,7 @@
         <v>-7.3</v>
       </c>
       <c r="F2985">
-        <v>2.38</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="2986" spans="1:6">
@@ -73863,7 +73863,7 @@
         <v>-27.8</v>
       </c>
       <c r="F2987">
-        <v>7.049999999999999</v>
+        <v>8.52</v>
       </c>
     </row>
     <row r="2988" spans="1:6">
@@ -73883,7 +73883,7 @@
         <v>-1.52</v>
       </c>
       <c r="F2988">
-        <v>-0.61</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="2989" spans="1:6">
@@ -73903,7 +73903,7 @@
         <v>-2.47</v>
       </c>
       <c r="F2989">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="2990" spans="1:6">
@@ -73963,7 +73963,7 @@
         <v>-9.77</v>
       </c>
       <c r="F2992">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="2993" spans="1:6">
@@ -74003,7 +74003,7 @@
         <v>-10</v>
       </c>
       <c r="F2994">
-        <v>1.49</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="2995" spans="1:6">
@@ -74063,7 +74063,7 @@
         <v>0</v>
       </c>
       <c r="F2997">
-        <v>-4.21</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="2998" spans="1:6">
@@ -74323,7 +74323,7 @@
         <v>0</v>
       </c>
       <c r="F3010">
-        <v>9.27</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="3011" spans="1:6">
@@ -74403,7 +74403,7 @@
         <v>-22.3</v>
       </c>
       <c r="F3014">
-        <v>10.03</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="3015" spans="1:6">
@@ -74443,7 +74443,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="F3016">
-        <v>-0.6899999999999999</v>
+        <v>-5.16</v>
       </c>
     </row>
     <row r="3017" spans="1:6">
@@ -74463,7 +74463,7 @@
         <v>2.86</v>
       </c>
       <c r="F3017">
-        <v>-1.72</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="3018" spans="1:6">
@@ -74483,7 +74483,7 @@
         <v>2.42</v>
       </c>
       <c r="F3018">
-        <v>-5.44</v>
+        <v>-5.949999999999999</v>
       </c>
     </row>
     <row r="3019" spans="1:6">
@@ -74543,7 +74543,7 @@
         <v>0</v>
       </c>
       <c r="F3021">
-        <v>-13.36</v>
+        <v>-13.91</v>
       </c>
     </row>
     <row r="3022" spans="1:6">
@@ -75463,7 +75463,7 @@
         <v>-15.48</v>
       </c>
       <c r="F3067">
-        <v>-2.2</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="3068" spans="1:6">
@@ -75483,7 +75483,7 @@
         <v>-10.15</v>
       </c>
       <c r="F3068">
-        <v>-3.82</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="3069" spans="1:6">
@@ -75503,7 +75503,7 @@
         <v>-4.44</v>
       </c>
       <c r="F3069">
-        <v>-1.8</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="3070" spans="1:6">
@@ -75523,7 +75523,7 @@
         <v>-10.91</v>
       </c>
       <c r="F3070">
-        <v>6.38</v>
+        <v>6.890000000000001</v>
       </c>
     </row>
     <row r="3071" spans="1:6">
@@ -75543,7 +75543,7 @@
         <v>-5.34</v>
       </c>
       <c r="F3071">
-        <v>-1.77</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="3072" spans="1:6">
@@ -75643,7 +75643,7 @@
         <v>2.04</v>
       </c>
       <c r="F3076">
-        <v>-2.17</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="3077" spans="1:6">
@@ -75703,7 +75703,7 @@
         <v>-12.61</v>
       </c>
       <c r="F3079">
-        <v>12.59</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="3080" spans="1:6">
@@ -75743,7 +75743,7 @@
         <v>9.16</v>
       </c>
       <c r="F3081">
-        <v>0.06</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3082" spans="1:6">
@@ -75763,7 +75763,7 @@
         <v>0</v>
       </c>
       <c r="F3082">
-        <v>-30.75</v>
+        <v>-33.37</v>
       </c>
     </row>
     <row r="3083" spans="1:6">
@@ -75823,7 +75823,7 @@
         <v>9.16</v>
       </c>
       <c r="F3085">
-        <v>4.09</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="3086" spans="1:6">
@@ -75843,7 +75843,7 @@
         <v>0</v>
       </c>
       <c r="F3086">
-        <v>-13.7</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="3087" spans="1:6">
@@ -75903,7 +75903,7 @@
         <v>-13.14</v>
       </c>
       <c r="F3089">
-        <v>-2.22</v>
+        <v>-4.96</v>
       </c>
     </row>
     <row r="3090" spans="1:6">
@@ -75963,7 +75963,7 @@
         <v>0</v>
       </c>
       <c r="F3092">
-        <v>-16.44</v>
+        <v>-18.26</v>
       </c>
     </row>
     <row r="3093" spans="1:6">
@@ -75983,7 +75983,7 @@
         <v>-6.27</v>
       </c>
       <c r="F3093">
-        <v>-1.81</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="3094" spans="1:6">
@@ -76023,7 +76023,7 @@
         <v>-5.04</v>
       </c>
       <c r="F3095">
-        <v>-1.67</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="3096" spans="1:6">
@@ -76043,7 +76043,7 @@
         <v>0</v>
       </c>
       <c r="F3096">
-        <v>-11.46</v>
+        <v>-11.95</v>
       </c>
     </row>
     <row r="3097" spans="1:6">
@@ -76063,7 +76063,7 @@
         <v>24.68</v>
       </c>
       <c r="F3097">
-        <v>-0.17</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="3098" spans="1:6">
@@ -76083,7 +76083,7 @@
         <v>4.87</v>
       </c>
       <c r="F3098">
-        <v>5.19</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="3099" spans="1:6">
@@ -76103,7 +76103,7 @@
         <v>15.08</v>
       </c>
       <c r="F3099">
-        <v>11.72</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="3100" spans="1:6">
@@ -76123,7 +76123,7 @@
         <v>-32.39</v>
       </c>
       <c r="F3100">
-        <v>14.42</v>
+        <v>15.35</v>
       </c>
     </row>
     <row r="3101" spans="1:6">
@@ -76143,7 +76143,7 @@
         <v>0.22</v>
       </c>
       <c r="F3101">
-        <v>4.37</v>
+        <v>5.489999999999999</v>
       </c>
     </row>
     <row r="3102" spans="1:6">
@@ -76163,7 +76163,7 @@
         <v>-5.09</v>
       </c>
       <c r="F3102">
-        <v>4.109999999999999</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="3103" spans="1:6">
@@ -76223,7 +76223,7 @@
         <v>-3.89</v>
       </c>
       <c r="F3105">
-        <v>-1.26</v>
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="3106" spans="1:6">
@@ -76283,7 +76283,7 @@
         <v>0</v>
       </c>
       <c r="F3108">
-        <v>10.6</v>
+        <v>11.78</v>
       </c>
     </row>
     <row r="3109" spans="1:6">
@@ -76683,7 +76683,7 @@
         <v>0</v>
       </c>
       <c r="F3128">
-        <v>-2.01</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="3129" spans="1:6">
@@ -76703,7 +76703,7 @@
         <v>0</v>
       </c>
       <c r="F3129">
-        <v>-2.01</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="3130" spans="1:6">
@@ -76923,7 +76923,7 @@
         <v>-13.22</v>
       </c>
       <c r="F3140">
-        <v>0.98</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="3141" spans="1:6">
@@ -76943,7 +76943,7 @@
         <v>-13.22</v>
       </c>
       <c r="F3141">
-        <v>0.98</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="3142" spans="1:6">
@@ -77183,7 +77183,7 @@
         <v>0</v>
       </c>
       <c r="F3153">
-        <v>0.8999999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3154" spans="1:6">
@@ -77603,7 +77603,7 @@
         <v>0</v>
       </c>
       <c r="F3174">
-        <v>13.02</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="3175" spans="1:6">
@@ -77983,7 +77983,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3193">
-        <v>6.94</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="3194" spans="1:6">
@@ -78003,7 +78003,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3194">
-        <v>6.94</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="3195" spans="1:6">
@@ -78023,7 +78023,7 @@
         <v>-9.619999999999999</v>
       </c>
       <c r="F3195">
-        <v>6.94</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="3196" spans="1:6">
@@ -78323,7 +78323,7 @@
         <v>0</v>
       </c>
       <c r="F3210">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="3211" spans="1:6">
@@ -78503,7 +78503,7 @@
         <v>0</v>
       </c>
       <c r="F3219">
-        <v>-15.61</v>
+        <v>-17.36</v>
       </c>
     </row>
     <row r="3220" spans="1:6">
@@ -79203,7 +79203,7 @@
         <v>0</v>
       </c>
       <c r="F3254">
-        <v>0</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="3255" spans="1:6">
@@ -79583,7 +79583,7 @@
         <v>-2.01</v>
       </c>
       <c r="F3273">
-        <v>-10.03</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="3274" spans="1:6">
@@ -79603,7 +79603,7 @@
         <v>-2.01</v>
       </c>
       <c r="F3274">
-        <v>10.93</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="3275" spans="1:6">
@@ -79623,7 +79623,7 @@
         <v>-2.01</v>
       </c>
       <c r="F3275">
-        <v>0.45</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="3276" spans="1:6">
@@ -79683,7 +79683,7 @@
         <v>-4.89</v>
       </c>
       <c r="F3278">
-        <v>-11.89</v>
+        <v>-11.29</v>
       </c>
     </row>
     <row r="3279" spans="1:6">
@@ -79703,7 +79703,7 @@
         <v>-4.89</v>
       </c>
       <c r="F3279">
-        <v>-11.89</v>
+        <v>-11.29</v>
       </c>
     </row>
     <row r="3280" spans="1:6">
@@ -80183,7 +80183,7 @@
         <v>0</v>
       </c>
       <c r="F3303">
-        <v>-4.21</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="3304" spans="1:6">
@@ -80263,7 +80263,7 @@
         <v>0</v>
       </c>
       <c r="F3307">
-        <v>-4.21</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="3308" spans="1:6">
@@ -80463,7 +80463,7 @@
         <v>-12.29</v>
       </c>
       <c r="F3317">
-        <v>-8.880000000000001</v>
+        <v>-9.130000000000001</v>
       </c>
     </row>
     <row r="3318" spans="1:6">
@@ -80503,7 +80503,7 @@
         <v>0</v>
       </c>
       <c r="F3319">
-        <v>-3.04</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="3320" spans="1:6">
@@ -80583,7 +80583,7 @@
         <v>-2.82</v>
       </c>
       <c r="F3323">
-        <v>-11.92</v>
+        <v>-13.33</v>
       </c>
     </row>
     <row r="3324" spans="1:6">
@@ -80643,7 +80643,7 @@
         <v>19.86</v>
       </c>
       <c r="F3326">
-        <v>-0.73</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="3327" spans="1:6">
@@ -80743,7 +80743,7 @@
         <v>9.1</v>
       </c>
       <c r="F3331">
-        <v>24.71</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="3332" spans="1:6">
@@ -80763,7 +80763,7 @@
         <v>23.82</v>
       </c>
       <c r="F3332">
-        <v>-13.63</v>
+        <v>-14.27</v>
       </c>
     </row>
     <row r="3333" spans="1:6">
@@ -80843,7 +80843,7 @@
         <v>-5.2</v>
       </c>
       <c r="F3336">
-        <v>0.8200000000000001</v>
+        <v>4.12</v>
       </c>
     </row>
     <row r="3337" spans="1:6">
@@ -80863,7 +80863,7 @@
         <v>27.55</v>
       </c>
       <c r="F3337">
-        <v>-2.86</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="3338" spans="1:6">
@@ -80943,7 +80943,7 @@
         <v>18.58</v>
       </c>
       <c r="F3341">
-        <v>-9.550000000000001</v>
+        <v>-9.76</v>
       </c>
     </row>
     <row r="3342" spans="1:6">
@@ -80983,7 +80983,7 @@
         <v>18.58</v>
       </c>
       <c r="F3343">
-        <v>-8.18</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="3344" spans="1:6">
@@ -81003,7 +81003,7 @@
         <v>21.52</v>
       </c>
       <c r="F3344">
-        <v>-10.85</v>
+        <v>-11.62</v>
       </c>
     </row>
     <row r="3345" spans="1:6">
@@ -81023,7 +81023,7 @@
         <v>3.75</v>
       </c>
       <c r="F3345">
-        <v>8.73</v>
+        <v>9.569999999999999</v>
       </c>
     </row>
     <row r="3346" spans="1:6">
@@ -81043,7 +81043,7 @@
         <v>18.58</v>
       </c>
       <c r="F3346">
-        <v>-8.18</v>
+        <v>-8.59</v>
       </c>
     </row>
     <row r="3347" spans="1:6">
@@ -81063,7 +81063,7 @@
         <v>20.2</v>
       </c>
       <c r="F3347">
-        <v>-7.99</v>
+        <v>-8.459999999999999</v>
       </c>
     </row>
     <row r="3348" spans="1:6">
@@ -81163,7 +81163,7 @@
         <v>-0.8500000000000001</v>
       </c>
       <c r="F3352">
-        <v>3.43</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="3353" spans="1:6">
@@ -81203,7 +81203,7 @@
         <v>26.66</v>
       </c>
       <c r="F3354">
-        <v>-14.82</v>
+        <v>-15.57</v>
       </c>
     </row>
     <row r="3355" spans="1:6">
@@ -81283,7 +81283,7 @@
         <v>2.05</v>
       </c>
       <c r="F3358">
-        <v>-8.309999999999999</v>
+        <v>-7.91</v>
       </c>
     </row>
     <row r="3359" spans="1:6">
@@ -81443,7 +81443,7 @@
         <v>0</v>
       </c>
       <c r="F3366">
-        <v>-3.43</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="3367" spans="1:6">
@@ -81543,7 +81543,7 @@
         <v>0</v>
       </c>
       <c r="F3371">
-        <v>-21.4</v>
+        <v>-22.41</v>
       </c>
     </row>
     <row r="3372" spans="1:6">
@@ -81563,7 +81563,7 @@
         <v>0</v>
       </c>
       <c r="F3372">
-        <v>-21.4</v>
+        <v>-22.41</v>
       </c>
     </row>
     <row r="3373" spans="1:6">
@@ -81623,7 +81623,7 @@
         <v>4.67</v>
       </c>
       <c r="F3375">
-        <v>-5.050000000000001</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="3376" spans="1:6">
@@ -81643,7 +81643,7 @@
         <v>-5.48</v>
       </c>
       <c r="F3376">
-        <v>-5.800000000000001</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="3377" spans="1:6">
@@ -81663,7 +81663,7 @@
         <v>4.67</v>
       </c>
       <c r="F3377">
-        <v>-5.050000000000001</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="3378" spans="1:6">
@@ -81683,7 +81683,7 @@
         <v>1.47</v>
       </c>
       <c r="F3378">
-        <v>-5.800000000000001</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="3379" spans="1:6">
@@ -81703,7 +81703,7 @@
         <v>4.67</v>
       </c>
       <c r="F3379">
-        <v>-5.050000000000001</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="3380" spans="1:6">
@@ -81743,7 +81743,7 @@
         <v>-5.48</v>
       </c>
       <c r="F3381">
-        <v>-5.800000000000001</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="3382" spans="1:6">
@@ -81763,7 +81763,7 @@
         <v>4.67</v>
       </c>
       <c r="F3382">
-        <v>-5.050000000000001</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="3383" spans="1:6">
@@ -81783,7 +81783,7 @@
         <v>-5.48</v>
       </c>
       <c r="F3383">
-        <v>-5.800000000000001</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="3384" spans="1:6">
@@ -81843,7 +81843,7 @@
         <v>4.88</v>
       </c>
       <c r="F3386">
-        <v>-3.49</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="3387" spans="1:6">
@@ -82063,7 +82063,7 @@
         <v>0</v>
       </c>
       <c r="F3397">
-        <v>10.03</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="3398" spans="1:6">
@@ -82103,7 +82103,7 @@
         <v>0</v>
       </c>
       <c r="F3399">
-        <v>10.03</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="3400" spans="1:6">
@@ -82123,7 +82123,7 @@
         <v>0</v>
       </c>
       <c r="F3400">
-        <v>10.03</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="3401" spans="1:6">
@@ -82163,7 +82163,7 @@
         <v>0</v>
       </c>
       <c r="F3402">
-        <v>10.03</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="3403" spans="1:6">
@@ -82183,7 +82183,7 @@
         <v>0</v>
       </c>
       <c r="F3403">
-        <v>10.03</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="3404" spans="1:6">
@@ -82223,7 +82223,7 @@
         <v>0</v>
       </c>
       <c r="F3405">
-        <v>10.03</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="3406" spans="1:6">
@@ -82243,7 +82243,7 @@
         <v>3.26</v>
       </c>
       <c r="F3406">
-        <v>-8.42</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="3407" spans="1:6">
@@ -82263,7 +82263,7 @@
         <v>-2.17</v>
       </c>
       <c r="F3407">
-        <v>-3.330000000000001</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="3408" spans="1:6">
@@ -82283,7 +82283,7 @@
         <v>-2.17</v>
       </c>
       <c r="F3408">
-        <v>-3.330000000000001</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="3409" spans="1:6">
@@ -82303,7 +82303,7 @@
         <v>3.26</v>
       </c>
       <c r="F3409">
-        <v>-8.42</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="3410" spans="1:6">
@@ -82323,7 +82323,7 @@
         <v>-2.17</v>
       </c>
       <c r="F3410">
-        <v>-3.330000000000001</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="3411" spans="1:6">
@@ -82343,7 +82343,7 @@
         <v>3.26</v>
       </c>
       <c r="F3411">
-        <v>-8.42</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="3412" spans="1:6">
@@ -82423,7 +82423,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="F3415">
-        <v>1.51</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="3416" spans="1:6">
@@ -82503,7 +82503,7 @@
         <v>5.44</v>
       </c>
       <c r="F3419">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="3420" spans="1:6">
@@ -82703,7 +82703,7 @@
         <v>-3.78</v>
       </c>
       <c r="F3429">
-        <v>-2.32</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="3430" spans="1:6">
@@ -82723,7 +82723,7 @@
         <v>0</v>
       </c>
       <c r="F3430">
-        <v>-2.05</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="3431" spans="1:6">
@@ -82743,7 +82743,7 @@
         <v>0</v>
       </c>
       <c r="F3431">
-        <v>20.17</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="3432" spans="1:6">
@@ -82763,7 +82763,7 @@
         <v>2.16</v>
       </c>
       <c r="F3432">
-        <v>-3.7</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="3433" spans="1:6">
@@ -82783,7 +82783,7 @@
         <v>0</v>
       </c>
       <c r="F3433">
-        <v>-1.62</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="3434" spans="1:6">
@@ -82803,7 +82803,7 @@
         <v>0</v>
       </c>
       <c r="F3434">
-        <v>-1.62</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="3435" spans="1:6">
@@ -82923,7 +82923,7 @@
         <v>9.08</v>
       </c>
       <c r="F3440">
-        <v>-5.92</v>
+        <v>-7.04</v>
       </c>
     </row>
     <row r="3441" spans="1:6">
@@ -83043,7 +83043,7 @@
         <v>12.23</v>
       </c>
       <c r="F3446">
-        <v>-3.21</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="3447" spans="1:6">
@@ -83123,7 +83123,7 @@
         <v>-0.9199999999999999</v>
       </c>
       <c r="F3450">
-        <v>-3.96</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="3451" spans="1:6">
@@ -83143,7 +83143,7 @@
         <v>-1.38</v>
       </c>
       <c r="F3451">
-        <v>-0.9299999999999999</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="3452" spans="1:6">
@@ -83163,7 +83163,7 @@
         <v>0</v>
       </c>
       <c r="F3452">
-        <v>0.61</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3453" spans="1:6">
@@ -83183,7 +83183,7 @@
         <v>-3.52</v>
       </c>
       <c r="F3453">
-        <v>-1.67</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="3454" spans="1:6">
@@ -83203,7 +83203,7 @@
         <v>-10.3</v>
       </c>
       <c r="F3454">
-        <v>-8.780000000000001</v>
+        <v>-8.110000000000001</v>
       </c>
     </row>
     <row r="3455" spans="1:6">
@@ -83223,7 +83223,7 @@
         <v>-5.01</v>
       </c>
       <c r="F3455">
-        <v>-5.899999999999999</v>
+        <v>-4.97</v>
       </c>
     </row>
     <row r="3456" spans="1:6">
@@ -83243,7 +83243,7 @@
         <v>-0.23</v>
       </c>
       <c r="F3456">
-        <v>-2.07</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="3457" spans="1:6">
@@ -83263,7 +83263,7 @@
         <v>-0.32</v>
       </c>
       <c r="F3457">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3458" spans="1:6">
@@ -83283,7 +83283,7 @@
         <v>0</v>
       </c>
       <c r="F3458">
-        <v>-2.64</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="3459" spans="1:6">
@@ -83303,7 +83303,7 @@
         <v>-3.21</v>
       </c>
       <c r="F3459">
-        <v>-10.6</v>
+        <v>-9.93</v>
       </c>
     </row>
     <row r="3460" spans="1:6">
@@ -83763,7 +83763,7 @@
         <v>7.779999999999999</v>
       </c>
       <c r="F3482">
-        <v>-12.27</v>
+        <v>-10.11</v>
       </c>
     </row>
     <row r="3483" spans="1:6">
@@ -84183,7 +84183,7 @@
         <v>-3.51</v>
       </c>
       <c r="F3503">
-        <v>-21.63</v>
+        <v>-21.51</v>
       </c>
     </row>
     <row r="3504" spans="1:6">
@@ -84223,7 +84223,7 @@
         <v>0</v>
       </c>
       <c r="F3505">
-        <v>7.12</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="3506" spans="1:6">
@@ -84623,7 +84623,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F3525">
-        <v>-6.1</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="3526" spans="1:6">
@@ -84723,7 +84723,7 @@
         <v>-2.64</v>
       </c>
       <c r="F3530">
-        <v>-1.03</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="3531" spans="1:6">
@@ -84823,7 +84823,7 @@
         <v>-5.220000000000001</v>
       </c>
       <c r="F3535">
-        <v>1.66</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="3536" spans="1:6">
@@ -85083,7 +85083,7 @@
         <v>-2.97</v>
       </c>
       <c r="F3548">
-        <v>-1.21</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3549" spans="1:6">
@@ -85103,7 +85103,7 @@
         <v>-9.220000000000001</v>
       </c>
       <c r="F3549">
-        <v>-4.08</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="3550" spans="1:6">
@@ -85283,7 +85283,7 @@
         <v>-10.36</v>
       </c>
       <c r="F3558">
-        <v>3.47</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="3559" spans="1:6">
@@ -85363,7 +85363,7 @@
         <v>0</v>
       </c>
       <c r="F3562">
-        <v>-4.26</v>
+        <v>-7.109999999999999</v>
       </c>
     </row>
     <row r="3563" spans="1:6">
@@ -85443,7 +85443,7 @@
         <v>0</v>
       </c>
       <c r="F3566">
-        <v>-4.26</v>
+        <v>-7.109999999999999</v>
       </c>
     </row>
     <row r="3567" spans="1:6">
@@ -85463,7 +85463,7 @@
         <v>0</v>
       </c>
       <c r="F3567">
-        <v>-4.26</v>
+        <v>-7.109999999999999</v>
       </c>
     </row>
     <row r="3568" spans="1:6">
@@ -85483,7 +85483,7 @@
         <v>0</v>
       </c>
       <c r="F3568">
-        <v>-4.26</v>
+        <v>-7.109999999999999</v>
       </c>
     </row>
     <row r="3569" spans="1:6">
@@ -85583,7 +85583,7 @@
         <v>-7.049999999999999</v>
       </c>
       <c r="F3573">
-        <v>2.29</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="3574" spans="1:6">
@@ -85623,7 +85623,7 @@
         <v>-3.19</v>
       </c>
       <c r="F3575">
-        <v>-2.75</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="3576" spans="1:6">
@@ -85683,7 +85683,7 @@
         <v>4.91</v>
       </c>
       <c r="F3578">
-        <v>-1.34</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="3579" spans="1:6">
@@ -85763,7 +85763,7 @@
         <v>0</v>
       </c>
       <c r="F3582">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="3583" spans="1:6">
@@ -85783,7 +85783,7 @@
         <v>0</v>
       </c>
       <c r="F3583">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3584" spans="1:6">
@@ -85903,7 +85903,7 @@
         <v>10.62</v>
       </c>
       <c r="F3589">
-        <v>-3.72</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="3590" spans="1:6">
@@ -85923,7 +85923,7 @@
         <v>10.62</v>
       </c>
       <c r="F3590">
-        <v>-3.72</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="3591" spans="1:6">
@@ -85943,7 +85943,7 @@
         <v>10.62</v>
       </c>
       <c r="F3591">
-        <v>-3.72</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="3592" spans="1:6">
@@ -85963,7 +85963,7 @@
         <v>10.62</v>
       </c>
       <c r="F3592">
-        <v>-3.72</v>
+        <v>-9.6</v>
       </c>
     </row>
     <row r="3593" spans="1:6">
@@ -85983,7 +85983,7 @@
         <v>-24.73</v>
       </c>
       <c r="F3593">
-        <v>17.62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3594" spans="1:6">
@@ -86003,7 +86003,7 @@
         <v>-19.85</v>
       </c>
       <c r="F3594">
-        <v>17.62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3595" spans="1:6">
@@ -86023,7 +86023,7 @@
         <v>-19.85</v>
       </c>
       <c r="F3595">
-        <v>10</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="3596" spans="1:6">
@@ -86043,7 +86043,7 @@
         <v>-19.85</v>
       </c>
       <c r="F3596">
-        <v>25.24</v>
+        <v>26.67</v>
       </c>
     </row>
     <row r="3597" spans="1:6">
@@ -86303,7 +86303,7 @@
         <v>0</v>
       </c>
       <c r="F3609">
-        <v>-19.9</v>
+        <v>-20.73</v>
       </c>
     </row>
     <row r="3610" spans="1:6">
@@ -86463,7 +86463,7 @@
         <v>3.12</v>
       </c>
       <c r="F3617">
-        <v>-1.13</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="3618" spans="1:6">
@@ -86703,7 +86703,7 @@
         <v>0</v>
       </c>
       <c r="F3629">
-        <v>-3</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="3630" spans="1:6">
@@ -86743,7 +86743,7 @@
         <v>-12.23</v>
       </c>
       <c r="F3631">
-        <v>-12.14</v>
+        <v>-12.55</v>
       </c>
     </row>
     <row r="3632" spans="1:6">
@@ -86763,7 +86763,7 @@
         <v>-12.23</v>
       </c>
       <c r="F3632">
-        <v>-8.880000000000001</v>
+        <v>-9.859999999999999</v>
       </c>
     </row>
     <row r="3633" spans="1:6">
@@ -86843,7 +86843,7 @@
         <v>0</v>
       </c>
       <c r="F3636">
-        <v>-16.03</v>
+        <v>-16.7</v>
       </c>
     </row>
     <row r="3637" spans="1:6">
@@ -86863,7 +86863,7 @@
         <v>1.93</v>
       </c>
       <c r="F3637">
-        <v>-0.65</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3638" spans="1:6">
@@ -86963,7 +86963,7 @@
         <v>0</v>
       </c>
       <c r="F3642">
-        <v>-2.86</v>
+        <v>-4.77</v>
       </c>
     </row>
     <row r="3643" spans="1:6">
@@ -87103,7 +87103,7 @@
         <v>0</v>
       </c>
       <c r="F3649">
-        <v>-23.72</v>
+        <v>-24.6</v>
       </c>
     </row>
     <row r="3650" spans="1:6">
@@ -87123,7 +87123,7 @@
         <v>-6.81</v>
       </c>
       <c r="F3650">
-        <v>-2.04</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="3651" spans="1:6">
@@ -87223,7 +87223,7 @@
         <v>-5.55</v>
       </c>
       <c r="F3655">
-        <v>-8.93</v>
+        <v>-9.619999999999999</v>
       </c>
     </row>
     <row r="3656" spans="1:6">
@@ -87363,7 +87363,7 @@
         <v>0</v>
       </c>
       <c r="F3662">
-        <v>-18.93</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="3663" spans="1:6">
@@ -87423,7 +87423,7 @@
         <v>-8.619999999999999</v>
       </c>
       <c r="F3665">
-        <v>2.81</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="3666" spans="1:6">
@@ -87523,7 +87523,7 @@
         <v>-0.42</v>
       </c>
       <c r="F3670">
-        <v>6.48</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="3671" spans="1:6">
@@ -87623,7 +87623,7 @@
         <v>0</v>
       </c>
       <c r="F3675">
-        <v>22.49</v>
+        <v>23.41</v>
       </c>
     </row>
     <row r="3676" spans="1:6">
@@ -87703,7 +87703,7 @@
         <v>-1.88</v>
       </c>
       <c r="F3679">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3680" spans="1:6">
@@ -87723,7 +87723,7 @@
         <v>-8.94</v>
       </c>
       <c r="F3680">
-        <v>2.94</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="3681" spans="1:6">
@@ -87743,7 +87743,7 @@
         <v>0</v>
       </c>
       <c r="F3681">
-        <v>-4.89</v>
+        <v>-8.119999999999999</v>
       </c>
     </row>
     <row r="3682" spans="1:6">
@@ -88483,7 +88483,7 @@
         <v>0</v>
       </c>
       <c r="F3718">
-        <v>4.65</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3719" spans="1:6">
@@ -88503,7 +88503,7 @@
         <v>0</v>
       </c>
       <c r="F3719">
-        <v>-5.76</v>
+        <v>-9.569999999999999</v>
       </c>
     </row>
     <row r="3720" spans="1:6">
@@ -88743,7 +88743,7 @@
         <v>0</v>
       </c>
       <c r="F3731">
-        <v>-5.76</v>
+        <v>-9.569999999999999</v>
       </c>
     </row>
     <row r="3732" spans="1:6">
@@ -88783,7 +88783,7 @@
         <v>0</v>
       </c>
       <c r="F3733">
-        <v>13.95</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3734" spans="1:6">
@@ -88963,7 +88963,7 @@
         <v>0</v>
       </c>
       <c r="F3742">
-        <v>-5.4</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="3743" spans="1:6">
@@ -89203,7 +89203,7 @@
         <v>-22.6</v>
       </c>
       <c r="F3754">
-        <v>22.41</v>
+        <v>23.56</v>
       </c>
     </row>
     <row r="3755" spans="1:6">
@@ -89323,7 +89323,7 @@
         <v>-10.33</v>
       </c>
       <c r="F3760">
-        <v>3.39</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="3761" spans="1:6">
@@ -89343,7 +89343,7 @@
         <v>4.83</v>
       </c>
       <c r="F3761">
-        <v>-4.23</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="3762" spans="1:6">
@@ -89363,7 +89363,7 @@
         <v>0</v>
       </c>
       <c r="F3762">
-        <v>21.49</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="3763" spans="1:6">
@@ -89443,7 +89443,7 @@
         <v>4.7</v>
       </c>
       <c r="F3766">
-        <v>-15.25</v>
+        <v>-16.05</v>
       </c>
     </row>
     <row r="3767" spans="1:6">
@@ -89463,7 +89463,7 @@
         <v>4.7</v>
       </c>
       <c r="F3767">
-        <v>-15.25</v>
+        <v>-16.05</v>
       </c>
     </row>
     <row r="3768" spans="1:6">
@@ -89543,7 +89543,7 @@
         <v>0</v>
       </c>
       <c r="F3771">
-        <v>0</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="3772" spans="1:6">
@@ -89643,7 +89643,7 @@
         <v>-5.29</v>
       </c>
       <c r="F3776">
-        <v>8.76</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="3777" spans="1:6">
@@ -89723,7 +89723,7 @@
         <v>-11.18</v>
       </c>
       <c r="F3780">
-        <v>5.27</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="3781" spans="1:6">
@@ -89763,7 +89763,7 @@
         <v>0</v>
       </c>
       <c r="F3782">
-        <v>-7.21</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="3783" spans="1:6">
@@ -89903,7 +89903,7 @@
         <v>0</v>
       </c>
       <c r="F3789">
-        <v>-2.11</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="3790" spans="1:6">
@@ -89943,7 +89943,7 @@
         <v>0</v>
       </c>
       <c r="F3791">
-        <v>-1.94</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="3792" spans="1:6">
@@ -89963,7 +89963,7 @@
         <v>0</v>
       </c>
       <c r="F3792">
-        <v>-1.29</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="3793" spans="1:6">
@@ -90023,7 +90023,7 @@
         <v>-21.48</v>
       </c>
       <c r="F3795">
-        <v>1.82</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="3796" spans="1:6">
@@ -90043,7 +90043,7 @@
         <v>-5.41</v>
       </c>
       <c r="F3796">
-        <v>19.48</v>
+        <v>20.08</v>
       </c>
     </row>
     <row r="3797" spans="1:6">
@@ -90123,7 +90123,7 @@
         <v>0</v>
       </c>
       <c r="F3800">
-        <v>-14.59</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="3801" spans="1:6">
@@ -90203,7 +90203,7 @@
         <v>0</v>
       </c>
       <c r="F3804">
-        <v>45.23</v>
+        <v>50.24999999999999</v>
       </c>
     </row>
     <row r="3805" spans="1:6">
@@ -90523,7 +90523,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3820">
-        <v>19.1</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="3821" spans="1:6">
@@ -90543,7 +90543,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3821">
-        <v>19.1</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="3822" spans="1:6">
@@ -90563,7 +90563,7 @@
         <v>-13.3</v>
       </c>
       <c r="F3822">
-        <v>19.1</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="3823" spans="1:6">
@@ -90583,7 +90583,7 @@
         <v>-21.99</v>
       </c>
       <c r="F3823">
-        <v>19.1</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="3824" spans="1:6">
@@ -90603,7 +90603,7 @@
         <v>-5.71</v>
       </c>
       <c r="F3824">
-        <v>-2.44</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="3825" spans="1:6">
@@ -90983,7 +90983,7 @@
         <v>-12.9</v>
       </c>
       <c r="F3843">
-        <v>21.6</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="3844" spans="1:6">
@@ -91063,7 +91063,7 @@
         <v>-15.52</v>
       </c>
       <c r="F3847">
-        <v>21.72</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="3848" spans="1:6">
@@ -91563,7 +91563,7 @@
         <v>48.82</v>
       </c>
       <c r="F3872">
-        <v>-2.02</v>
+        <v>-4.05</v>
       </c>
     </row>
     <row r="3873" spans="1:6">
@@ -91583,7 +91583,7 @@
         <v>24.14</v>
       </c>
       <c r="F3873">
-        <v>-1.77</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="3874" spans="1:6">
@@ -91703,7 +91703,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3879">
-        <v>32.94</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="3880" spans="1:6">
@@ -91723,7 +91723,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3880">
-        <v>32.94</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="3881" spans="1:6">
@@ -91743,7 +91743,7 @@
         <v>-30.05</v>
       </c>
       <c r="F3881">
-        <v>32.94</v>
+        <v>34.61</v>
       </c>
     </row>
     <row r="3882" spans="1:6">
@@ -91783,7 +91783,7 @@
         <v>19.54</v>
       </c>
       <c r="F3883">
-        <v>-1.76</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="3884" spans="1:6">
@@ -92023,7 +92023,7 @@
         <v>8.050000000000001</v>
       </c>
       <c r="F3895">
-        <v>-17.14</v>
+        <v>-18.03</v>
       </c>
     </row>
     <row r="3896" spans="1:6">
@@ -92123,7 +92123,7 @@
         <v>0</v>
       </c>
       <c r="F3900">
-        <v>5.23</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="3901" spans="1:6">
@@ -92183,7 +92183,7 @@
         <v>0</v>
       </c>
       <c r="F3903">
-        <v>-6.03</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="3904" spans="1:6">
@@ -92343,7 +92343,7 @@
         <v>0</v>
       </c>
       <c r="F3911">
-        <v>-6.03</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="3912" spans="1:6">
@@ -92363,7 +92363,7 @@
         <v>0</v>
       </c>
       <c r="F3912">
-        <v>-6.03</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="3913" spans="1:6">
@@ -92383,7 +92383,7 @@
         <v>0</v>
       </c>
       <c r="F3913">
-        <v>-6.03</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="3914" spans="1:6">
@@ -92403,7 +92403,7 @@
         <v>0</v>
       </c>
       <c r="F3914">
-        <v>-6.03</v>
+        <v>-6.68</v>
       </c>
     </row>
     <row r="3915" spans="1:6">
@@ -92423,7 +92423,7 @@
         <v>0</v>
       </c>
       <c r="F3915">
-        <v>-10.96</v>
+        <v>-12.19</v>
       </c>
     </row>
     <row r="3916" spans="1:6">
@@ -92743,7 +92743,7 @@
         <v>-2.29</v>
       </c>
       <c r="F3931">
-        <v>-9.06</v>
+        <v>-9.65</v>
       </c>
     </row>
     <row r="3932" spans="1:6">
@@ -92803,7 +92803,7 @@
         <v>-2.51</v>
       </c>
       <c r="F3934">
-        <v>-2.57</v>
+        <v>-4.569999999999999</v>
       </c>
     </row>
     <row r="3935" spans="1:6">
@@ -92843,7 +92843,7 @@
         <v>2.88</v>
       </c>
       <c r="F3936">
-        <v>-4.859999999999999</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="3937" spans="1:6">
@@ -92883,7 +92883,7 @@
         <v>0</v>
       </c>
       <c r="F3938">
-        <v>-2.12</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="3939" spans="1:6">
@@ -93323,7 +93323,7 @@
         <v>-3.53</v>
       </c>
       <c r="F3960">
-        <v>-1.39</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="3961" spans="1:6">
@@ -93343,7 +93343,7 @@
         <v>-4.34</v>
       </c>
       <c r="F3961">
-        <v>-1.78</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="3962" spans="1:6">
@@ -93403,7 +93403,7 @@
         <v>-12.52</v>
       </c>
       <c r="F3964">
-        <v>20.05</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="3965" spans="1:6">
@@ -93483,7 +93483,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3968">
-        <v>4.88</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="3969" spans="1:6">
@@ -93503,7 +93503,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3969">
-        <v>4.88</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="3970" spans="1:6">
@@ -93523,7 +93523,7 @@
         <v>-4.36</v>
       </c>
       <c r="F3970">
-        <v>4.88</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="3971" spans="1:6">
@@ -93823,7 +93823,7 @@
         <v>15.41</v>
       </c>
       <c r="F3985">
-        <v>-24.86</v>
+        <v>-25.89</v>
       </c>
     </row>
     <row r="3986" spans="1:6">
@@ -93843,7 +93843,7 @@
         <v>0</v>
       </c>
       <c r="F3986">
-        <v>-3.28</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="3987" spans="1:6">
@@ -93903,7 +93903,7 @@
         <v>0</v>
       </c>
       <c r="F3989">
-        <v>-3.28</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="3990" spans="1:6">
@@ -94223,7 +94223,7 @@
         <v>0</v>
       </c>
       <c r="F4005">
-        <v>0</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4006" spans="1:6">
@@ -94283,7 +94283,7 @@
         <v>0</v>
       </c>
       <c r="F4008">
-        <v>3.97</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="4009" spans="1:6">
@@ -94563,7 +94563,7 @@
         <v>0.5</v>
       </c>
       <c r="F4022">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4023" spans="1:6">
@@ -94623,7 +94623,7 @@
         <v>0.5</v>
       </c>
       <c r="F4025">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="4026" spans="1:6">
@@ -94703,7 +94703,7 @@
         <v>21.57</v>
       </c>
       <c r="F4029">
-        <v>-13.61</v>
+        <v>-14.28</v>
       </c>
     </row>
     <row r="4030" spans="1:6">
@@ -94783,7 +94783,7 @@
         <v>14.38</v>
       </c>
       <c r="F4033">
-        <v>-5.01</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="4034" spans="1:6">
@@ -94803,7 +94803,7 @@
         <v>14.38</v>
       </c>
       <c r="F4034">
-        <v>-5.01</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="4035" spans="1:6">
@@ -94823,7 +94823,7 @@
         <v>14.38</v>
       </c>
       <c r="F4035">
-        <v>-5.01</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="4036" spans="1:6">
@@ -94843,7 +94843,7 @@
         <v>11.66</v>
       </c>
       <c r="F4036">
-        <v>-4.15</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="4037" spans="1:6">
@@ -94863,7 +94863,7 @@
         <v>14.38</v>
       </c>
       <c r="F4037">
-        <v>-5.01</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="4038" spans="1:6">
@@ -94903,7 +94903,7 @@
         <v>14.38</v>
       </c>
       <c r="F4039">
-        <v>-5.01</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="4040" spans="1:6">
@@ -94923,7 +94923,7 @@
         <v>14.38</v>
       </c>
       <c r="F4040">
-        <v>-5.01</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="4041" spans="1:6">
@@ -95263,7 +95263,7 @@
         <v>-2.64</v>
       </c>
       <c r="F4057">
-        <v>-1.03</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="4058" spans="1:6">
@@ -95283,7 +95283,7 @@
         <v>5.02</v>
       </c>
       <c r="F4058">
-        <v>-1.42</v>
+        <v>0.8200000000000001</v>
       </c>
     </row>
     <row r="4059" spans="1:6">
@@ -95303,7 +95303,7 @@
         <v>-15.96</v>
       </c>
       <c r="F4059">
-        <v>-8.709999999999999</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="4060" spans="1:6">
@@ -95323,7 +95323,7 @@
         <v>-0.8</v>
       </c>
       <c r="F4060">
-        <v>-0.35</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="4061" spans="1:6">
@@ -95343,7 +95343,7 @@
         <v>-3.75</v>
       </c>
       <c r="F4061">
-        <v>-7.960000000000001</v>
+        <v>-8.92</v>
       </c>
     </row>
     <row r="4062" spans="1:6">
@@ -95363,7 +95363,7 @@
         <v>-22.51</v>
       </c>
       <c r="F4062">
-        <v>1.9</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="4063" spans="1:6">
@@ -95383,7 +95383,7 @@
         <v>6.619999999999999</v>
       </c>
       <c r="F4063">
-        <v>7.649999999999999</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="4064" spans="1:6">
@@ -95403,7 +95403,7 @@
         <v>6.619999999999999</v>
       </c>
       <c r="F4064">
-        <v>7.649999999999999</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="4065" spans="1:6">
@@ -95423,7 +95423,7 @@
         <v>-17.88</v>
       </c>
       <c r="F4065">
-        <v>5.23</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="4066" spans="1:6">
@@ -95463,7 +95463,7 @@
         <v>-9.07</v>
       </c>
       <c r="F4067">
-        <v>0.67</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="4068" spans="1:6">
@@ -95483,7 +95483,7 @@
         <v>-13.16</v>
       </c>
       <c r="F4068">
-        <v>0.98</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="4069" spans="1:6">
@@ -95503,7 +95503,7 @@
         <v>-9.07</v>
       </c>
       <c r="F4069">
-        <v>0.67</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="4070" spans="1:6">
@@ -95743,7 +95743,7 @@
         <v>0</v>
       </c>
       <c r="F4081">
-        <v>-18.04</v>
+        <v>-18.71</v>
       </c>
     </row>
     <row r="4082" spans="1:6">
@@ -95763,7 +95763,7 @@
         <v>0</v>
       </c>
       <c r="F4082">
-        <v>-18.04</v>
+        <v>-18.71</v>
       </c>
     </row>
     <row r="4083" spans="1:6">
@@ -95803,7 +95803,7 @@
         <v>0</v>
       </c>
       <c r="F4084">
-        <v>-18.04</v>
+        <v>-18.71</v>
       </c>
     </row>
     <row r="4085" spans="1:6">
@@ -95863,7 +95863,7 @@
         <v>3.65</v>
       </c>
       <c r="F4087">
-        <v>-4.07</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="4088" spans="1:6">
@@ -95883,7 +95883,7 @@
         <v>3.65</v>
       </c>
       <c r="F4088">
-        <v>-4.07</v>
+        <v>-6.78</v>
       </c>
     </row>
     <row r="4089" spans="1:6">
@@ -96043,7 +96043,7 @@
         <v>0</v>
       </c>
       <c r="F4096">
-        <v>-8.129999999999999</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="4097" spans="1:6">
@@ -96083,7 +96083,7 @@
         <v>3.18</v>
       </c>
       <c r="F4098">
-        <v>-2.47</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4099" spans="1:6">
@@ -96123,7 +96123,7 @@
         <v>36.75</v>
       </c>
       <c r="F4100">
-        <v>6.63</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="4101" spans="1:6">
@@ -96183,7 +96183,7 @@
         <v>10.02</v>
       </c>
       <c r="F4103">
-        <v>-26.17</v>
+        <v>-27.42</v>
       </c>
     </row>
     <row r="4104" spans="1:6">
@@ -98143,7 +98143,7 @@
         <v>-22.27</v>
       </c>
       <c r="F4201">
-        <v>40.1</v>
+        <v>41.78</v>
       </c>
     </row>
     <row r="4202" spans="1:6">
@@ -98963,7 +98963,7 @@
         <v>0</v>
       </c>
       <c r="F4242">
-        <v>-2.23</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="4243" spans="1:6">
@@ -99003,7 +99003,7 @@
         <v>0</v>
       </c>
       <c r="F4244">
-        <v>-2.23</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="4245" spans="1:6">
@@ -99043,7 +99043,7 @@
         <v>0</v>
       </c>
       <c r="F4246">
-        <v>36.43</v>
+        <v>28.51</v>
       </c>
     </row>
     <row r="4247" spans="1:6">
@@ -99083,7 +99083,7 @@
         <v>0</v>
       </c>
       <c r="F4248">
-        <v>1.63</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="4249" spans="1:6">
@@ -101043,7 +101043,7 @@
         <v>0</v>
       </c>
       <c r="F4346">
-        <v>6.329999999999999</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="4347" spans="1:6">
@@ -101083,7 +101083,7 @@
         <v>0</v>
       </c>
       <c r="F4348">
-        <v>-2.35</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="4349" spans="1:6">
@@ -101103,7 +101103,7 @@
         <v>0</v>
       </c>
       <c r="F4349">
-        <v>-4.69</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="4350" spans="1:6">
@@ -101123,7 +101123,7 @@
         <v>0</v>
       </c>
       <c r="F4350">
-        <v>-2.35</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="4351" spans="1:6">
@@ -101403,7 +101403,7 @@
         <v>0</v>
       </c>
       <c r="F4364">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4365" spans="1:6">
@@ -101423,7 +101423,7 @@
         <v>0</v>
       </c>
       <c r="F4365">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4366" spans="1:6">
@@ -101463,7 +101463,7 @@
         <v>0</v>
       </c>
       <c r="F4367">
-        <v>7.8</v>
+        <v>13.01</v>
       </c>
     </row>
     <row r="4368" spans="1:6">
@@ -102643,7 +102643,7 @@
         <v>20.21</v>
       </c>
       <c r="F4426">
-        <v>1.18</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="4427" spans="1:6">
@@ -102743,7 +102743,7 @@
         <v>0</v>
       </c>
       <c r="F4431">
-        <v>-5.01</v>
+        <v>-8.35</v>
       </c>
     </row>
     <row r="4432" spans="1:6">
@@ -102843,7 +102843,7 @@
         <v>-5.36</v>
       </c>
       <c r="F4436">
-        <v>-2.28</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="4437" spans="1:6">
@@ -102883,7 +102883,7 @@
         <v>2.66</v>
       </c>
       <c r="F4438">
-        <v>-0.9400000000000001</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="4439" spans="1:6">
@@ -102923,7 +102923,7 @@
         <v>2.95</v>
       </c>
       <c r="F4440">
-        <v>-19.47</v>
+        <v>-19.59</v>
       </c>
     </row>
     <row r="4441" spans="1:6">
@@ -102943,7 +102943,7 @@
         <v>-0.97</v>
       </c>
       <c r="F4441">
-        <v>-1.38</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="4442" spans="1:6">
@@ -102963,7 +102963,7 @@
         <v>3.18</v>
       </c>
       <c r="F4442">
-        <v>1.24</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="4443" spans="1:6">
@@ -103063,7 +103063,7 @@
         <v>0</v>
       </c>
       <c r="F4447">
-        <v>-5.53</v>
+        <v>-7.68</v>
       </c>
     </row>
     <row r="4448" spans="1:6">
@@ -103083,7 +103083,7 @@
         <v>0</v>
       </c>
       <c r="F4448">
-        <v>-2.71</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="4449" spans="1:6">
@@ -103163,7 +103163,7 @@
         <v>-8.94</v>
       </c>
       <c r="F4452">
-        <v>-21.25</v>
+        <v>-21.11</v>
       </c>
     </row>
     <row r="4453" spans="1:6">
@@ -103223,7 +103223,7 @@
         <v>-0.91</v>
       </c>
       <c r="F4455">
-        <v>-0.37</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="4456" spans="1:6">
@@ -103243,7 +103243,7 @@
         <v>-0.91</v>
       </c>
       <c r="F4456">
-        <v>-4.95</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="4457" spans="1:6">
@@ -103303,7 +103303,7 @@
         <v>3.21</v>
       </c>
       <c r="F4459">
-        <v>-1.4</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="4460" spans="1:6">
@@ -103343,7 +103343,7 @@
         <v>8.039999999999999</v>
       </c>
       <c r="F4461">
-        <v>-0.9299999999999999</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="4462" spans="1:6">
@@ -103363,7 +103363,7 @@
         <v>7.870000000000001</v>
       </c>
       <c r="F4462">
-        <v>1.06</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="4463" spans="1:6">
@@ -103383,7 +103383,7 @@
         <v>-12.69</v>
       </c>
       <c r="F4463">
-        <v>13.08</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="4464" spans="1:6">
@@ -103403,7 +103403,7 @@
         <v>1.86</v>
       </c>
       <c r="F4464">
-        <v>-2.51</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="4465" spans="1:6">
@@ -103463,7 +103463,7 @@
         <v>1.9</v>
       </c>
       <c r="F4467">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="4468" spans="1:6">
@@ -103603,7 +103603,7 @@
         <v>1.01</v>
       </c>
       <c r="F4474">
-        <v>-3.63</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="4475" spans="1:6">
@@ -103623,7 +103623,7 @@
         <v>-1.03</v>
       </c>
       <c r="F4475">
-        <v>-1.64</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="4476" spans="1:6">
@@ -103643,7 +103643,7 @@
         <v>1.01</v>
       </c>
       <c r="F4476">
-        <v>-3.63</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="4477" spans="1:6">
@@ -103683,7 +103683,7 @@
         <v>1.79</v>
       </c>
       <c r="F4478">
-        <v>-3.63</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="4479" spans="1:6">
@@ -103883,7 +103883,7 @@
         <v>2.08</v>
       </c>
       <c r="F4488">
-        <v>-3.06</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="4489" spans="1:6">
@@ -103903,7 +103903,7 @@
         <v>1.09</v>
       </c>
       <c r="F4489">
-        <v>0</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4490" spans="1:6">
@@ -103983,7 +103983,7 @@
         <v>0</v>
       </c>
       <c r="F4493">
-        <v>2.87</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="4494" spans="1:6">
@@ -104003,7 +104003,7 @@
         <v>-3.51</v>
       </c>
       <c r="F4494">
-        <v>-4.36</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="4495" spans="1:6">
@@ -104023,7 +104023,7 @@
         <v>-6.04</v>
       </c>
       <c r="F4495">
-        <v>-6.43</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="4496" spans="1:6">
@@ -104043,7 +104043,7 @@
         <v>-6.98</v>
       </c>
       <c r="F4496">
-        <v>-2.5</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="4497" spans="1:6">
@@ -104083,7 +104083,7 @@
         <v>0</v>
       </c>
       <c r="F4498">
-        <v>-4.8</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="4499" spans="1:6">
@@ -104103,7 +104103,7 @@
         <v>0</v>
       </c>
       <c r="F4499">
-        <v>-2.11</v>
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="4500" spans="1:6">
@@ -104123,7 +104123,7 @@
         <v>0</v>
       </c>
       <c r="F4500">
-        <v>-1.54</v>
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="4501" spans="1:6">
@@ -104143,7 +104143,7 @@
         <v>0</v>
       </c>
       <c r="F4501">
-        <v>-1.03</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="4502" spans="1:6">
@@ -104163,7 +104163,7 @@
         <v>0</v>
       </c>
       <c r="F4502">
-        <v>-2.27</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="4503" spans="1:6">
@@ -104263,7 +104263,7 @@
         <v>-0.74</v>
       </c>
       <c r="F4507">
-        <v>-1.48</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="4508" spans="1:6">
@@ -104303,7 +104303,7 @@
         <v>-1.42</v>
       </c>
       <c r="F4509">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="4510" spans="1:6">
@@ -104323,7 +104323,7 @@
         <v>-0.79</v>
       </c>
       <c r="F4510">
-        <v>-1.6</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="4511" spans="1:6">
@@ -104343,7 +104343,7 @@
         <v>2.17</v>
       </c>
       <c r="F4511">
-        <v>-3.08</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="4512" spans="1:6">
@@ -104443,7 +104443,7 @@
         <v>0</v>
       </c>
       <c r="F4516">
-        <v>5.18</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="4517" spans="1:6">
@@ -104523,7 +104523,7 @@
         <v>-18.38</v>
       </c>
       <c r="F4520">
-        <v>17.27</v>
+        <v>18.14</v>
       </c>
     </row>
     <row r="4521" spans="1:6">
@@ -104543,7 +104543,7 @@
         <v>18.5</v>
       </c>
       <c r="F4521">
-        <v>7.470000000000001</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="4522" spans="1:6">
@@ -104563,7 +104563,7 @@
         <v>-22.13</v>
       </c>
       <c r="F4522">
-        <v>-0.37</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4523" spans="1:6">
@@ -104623,7 +104623,7 @@
         <v>7.89</v>
       </c>
       <c r="F4525">
-        <v>-12.01</v>
+        <v>-12.21</v>
       </c>
     </row>
     <row r="4526" spans="1:6">
@@ -104643,7 +104643,7 @@
         <v>0</v>
       </c>
       <c r="F4526">
-        <v>-1.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4527" spans="1:6">
@@ -104663,7 +104663,7 @@
         <v>-10.3</v>
       </c>
       <c r="F4527">
-        <v>11.82</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="4528" spans="1:6">
@@ -104683,7 +104683,7 @@
         <v>-10.3</v>
       </c>
       <c r="F4528">
-        <v>11.82</v>
+        <v>12.16</v>
       </c>
     </row>
     <row r="4529" spans="1:6">
@@ -104703,7 +104703,7 @@
         <v>-1.05</v>
       </c>
       <c r="F4529">
-        <v>-3.19</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="4530" spans="1:6">
@@ -104783,7 +104783,7 @@
         <v>0</v>
       </c>
       <c r="F4533">
-        <v>-10.55</v>
+        <v>-11.65</v>
       </c>
     </row>
     <row r="4534" spans="1:6">
@@ -104803,7 +104803,7 @@
         <v>0</v>
       </c>
       <c r="F4534">
-        <v>-33.43</v>
+        <v>-37.01</v>
       </c>
     </row>
     <row r="4535" spans="1:6">
@@ -104883,7 +104883,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4538">
-        <v>-4.87</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="4539" spans="1:6">
@@ -104903,7 +104903,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4539">
-        <v>-4.87</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="4540" spans="1:6">
@@ -104923,7 +104923,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4540">
-        <v>-4.87</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="4541" spans="1:6">
@@ -104943,7 +104943,7 @@
         <v>8.129999999999999</v>
       </c>
       <c r="F4541">
-        <v>-4.87</v>
+        <v>-6.19</v>
       </c>
     </row>
     <row r="4542" spans="1:6">
@@ -105103,7 +105103,7 @@
         <v>-6</v>
       </c>
       <c r="F4549">
-        <v>1.42</v>
+        <v>0.9900000000000001</v>
       </c>
     </row>
     <row r="4550" spans="1:6">
@@ -105263,7 +105263,7 @@
         <v>0</v>
       </c>
       <c r="F4557">
-        <v>-0.53</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="4558" spans="1:6">
@@ -105343,7 +105343,7 @@
         <v>-6.56</v>
       </c>
       <c r="F4561">
-        <v>-2.8</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="4562" spans="1:6">
@@ -105363,7 +105363,7 @@
         <v>-3.3</v>
       </c>
       <c r="F4562">
-        <v>-6.09</v>
+        <v>-4.53</v>
       </c>
     </row>
     <row r="4563" spans="1:6">
@@ -105483,7 +105483,7 @@
         <v>0</v>
       </c>
       <c r="F4568">
-        <v>7.59</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="4569" spans="1:6">
@@ -105543,7 +105543,7 @@
         <v>2.48</v>
       </c>
       <c r="F4571">
-        <v>26.71</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="4572" spans="1:6">
@@ -105623,7 +105623,7 @@
         <v>0</v>
       </c>
       <c r="F4575">
-        <v>-22.94</v>
+        <v>-23.91</v>
       </c>
     </row>
     <row r="4576" spans="1:6">
